--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4017520</v>
+        <v>4012784</v>
       </c>
       <c r="F2" t="n">
-        <v>1724.165583877025</v>
+        <v>1597.161124032094</v>
       </c>
       <c r="G2" t="n">
-        <v>1290.802544928487</v>
+        <v>1260.648026643251</v>
       </c>
       <c r="H2" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="I2" t="n">
-        <v>48153</v>
+        <v>46836</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601084655</v>
+        <v>603721846</v>
       </c>
       <c r="E3" t="n">
-        <v>1166373331</v>
+        <v>1171496246</v>
       </c>
       <c r="F3" t="n">
-        <v>70227.55465145127</v>
+        <v>64834.41064994357</v>
       </c>
       <c r="G3" t="n">
-        <v>83163.31342946323</v>
+        <v>72286.85209484596</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>22941572</v>
+        <v>22405622</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244050771</v>
+        <v>245879539</v>
       </c>
       <c r="E4" t="n">
-        <v>1530408080</v>
+        <v>1541876027</v>
       </c>
       <c r="F4" t="n">
-        <v>262818.9545705261</v>
+        <v>329137.3199095315</v>
       </c>
       <c r="G4" t="n">
-        <v>306307.5714557742</v>
+        <v>276801.5164625206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>16387800</v>
+        <v>16468099</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141503901</v>
+        <v>143203832</v>
       </c>
       <c r="E5" t="n">
-        <v>156808437</v>
+        <v>158692226</v>
       </c>
       <c r="F5" t="n">
-        <v>8787.943093986831</v>
+        <v>8699.920772211923</v>
       </c>
       <c r="G5" t="n">
-        <v>365.1067288106762</v>
+        <v>461.7229770053474</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="n">
-        <v>35440485</v>
+        <v>35900962</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48429250</v>
+        <v>48093915</v>
       </c>
       <c r="E6" t="n">
-        <v>60583750</v>
+        <v>60164254</v>
       </c>
       <c r="F6" t="n">
-        <v>7761.781804994471</v>
+        <v>6161.466923974808</v>
       </c>
       <c r="G6" t="n">
-        <v>6326.345953554576</v>
+        <v>6327.520416166586</v>
       </c>
       <c r="H6" t="n">
         <v>0.66</v>
       </c>
       <c r="I6" t="n">
-        <v>624037</v>
+        <v>600536</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69459077</v>
+        <v>69400271</v>
       </c>
       <c r="E7" t="n">
-        <v>138315586</v>
+        <v>138221853</v>
       </c>
       <c r="F7" t="n">
-        <v>10170.60819426445</v>
+        <v>10165.63742527901</v>
       </c>
       <c r="G7" t="n">
-        <v>12768.58781788615</v>
+        <v>12793.12840065782</v>
       </c>
       <c r="H7" t="n">
         <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1152309</v>
+        <v>1139462</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40832246</v>
+        <v>40801406</v>
       </c>
       <c r="E8" t="n">
-        <v>45697165</v>
+        <v>45662651</v>
       </c>
       <c r="F8" t="n">
-        <v>7306.024930075942</v>
+        <v>7126.268718100266</v>
       </c>
       <c r="G8" t="n">
-        <v>6583.649521206926</v>
+        <v>6834.70077663003</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3595297</v>
+        <v>3617504</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14250185</v>
+        <v>14293204</v>
       </c>
       <c r="E9" t="n">
-        <v>41994376</v>
+        <v>42121150</v>
       </c>
       <c r="F9" t="n">
-        <v>4903.477210877873</v>
+        <v>4720.851490646076</v>
       </c>
       <c r="G9" t="n">
-        <v>5527.517695508765</v>
+        <v>5483.187486396822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.51</v>
+        <v>0.73</v>
       </c>
       <c r="I9" t="n">
-        <v>879282</v>
+        <v>866661</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9401078</v>
+        <v>9243515</v>
       </c>
       <c r="E10" t="n">
-        <v>40408115</v>
+        <v>39730868</v>
       </c>
       <c r="F10" t="n">
-        <v>196.800450748216</v>
+        <v>3660.74728569849</v>
       </c>
       <c r="G10" t="n">
-        <v>5473.111275333416</v>
+        <v>2693.570651324378</v>
       </c>
       <c r="H10" t="n">
-        <v>2.29</v>
+        <v>0.55</v>
       </c>
       <c r="I10" t="n">
-        <v>902211</v>
+        <v>792801</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>570602417</v>
+        <v>576205165</v>
       </c>
       <c r="E11" t="n">
-        <v>713738817</v>
+        <v>720747022</v>
       </c>
       <c r="F11" t="n">
-        <v>356802.4056440544</v>
+        <v>307211.0467483443</v>
       </c>
       <c r="G11" t="n">
-        <v>251563.1134422089</v>
+        <v>288867.6930869386</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>51829258</v>
+        <v>51432998</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4500166</v>
+        <v>4523610</v>
       </c>
       <c r="E12" t="n">
-        <v>27641306</v>
+        <v>27785305</v>
       </c>
       <c r="F12" t="n">
-        <v>10811.39791040889</v>
+        <v>10020.78940438579</v>
       </c>
       <c r="G12" t="n">
-        <v>7978.059850922245</v>
+        <v>7811.018989015624</v>
       </c>
       <c r="H12" t="n">
         <v>1.08</v>
       </c>
       <c r="I12" t="n">
-        <v>605093</v>
+        <v>621044</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23275891</v>
+        <v>23308849</v>
       </c>
       <c r="E13" t="n">
-        <v>23319309</v>
+        <v>23352329</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>850573</v>
+        <v>861153</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81541676</v>
+        <v>81320365</v>
       </c>
       <c r="E14" t="n">
-        <v>239905725</v>
+        <v>239254598</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>338584</v>
+        <v>328587</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>471347430</v>
+        <v>475083512</v>
       </c>
       <c r="E15" t="n">
-        <v>471347432</v>
+        <v>475083512</v>
       </c>
       <c r="F15" t="n">
-        <v>15647.30818693048</v>
+        <v>19877.27141936066</v>
       </c>
       <c r="G15" t="n">
-        <v>17488.9795303614</v>
+        <v>20148.40352077168</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>71154387</v>
+        <v>71401530</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4664187</v>
+        <v>4683833</v>
       </c>
       <c r="E16" t="n">
-        <v>4664187</v>
+        <v>4683833</v>
       </c>
       <c r="F16" t="n">
-        <v>381.7606524352822</v>
+        <v>358.4862028693158</v>
       </c>
       <c r="G16" t="n">
-        <v>534.8058313999279</v>
+        <v>1204.289868012284</v>
       </c>
       <c r="H16" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I16" t="n">
-        <v>2016824</v>
+        <v>2025971</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3387180</v>
+        <v>3374442</v>
       </c>
       <c r="E17" t="n">
-        <v>3387180</v>
+        <v>3374442</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>528047</v>
+        <v>519122</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167238605</v>
+        <v>167532005</v>
       </c>
       <c r="E18" t="n">
-        <v>207048357</v>
+        <v>207411599</v>
       </c>
       <c r="F18" t="n">
-        <v>8878.552196769913</v>
+        <v>4768.994585222089</v>
       </c>
       <c r="G18" t="n">
-        <v>7989.26509767948</v>
+        <v>13100.54503357302</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>0.7</v>
       </c>
       <c r="I18" t="n">
-        <v>437326</v>
+        <v>443121</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7016862</v>
+        <v>6928267</v>
       </c>
       <c r="E19" t="n">
-        <v>9664012</v>
+        <v>9541994</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>604688</v>
+        <v>556973</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>904239</v>
+        <v>907017</v>
       </c>
       <c r="E20" t="n">
-        <v>6329672</v>
+        <v>6349116</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>179056</v>
+        <v>179350</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>109186577</v>
+        <v>111168025</v>
       </c>
       <c r="E21" t="n">
-        <v>424882298</v>
+        <v>432578237</v>
       </c>
       <c r="F21" t="n">
-        <v>37833.97767227941</v>
+        <v>33976.44736510477</v>
       </c>
       <c r="G21" t="n">
-        <v>66532.64810435762</v>
+        <v>71698.83883254384</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>7923039</v>
+        <v>8123899</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1684239</v>
+        <v>1683777</v>
       </c>
       <c r="E22" t="n">
-        <v>12131434</v>
+        <v>12128101</v>
       </c>
       <c r="F22" t="n">
-        <v>4827.682855306427</v>
+        <v>4827.503322596845</v>
       </c>
       <c r="G22" t="n">
-        <v>4371.420417527393</v>
+        <v>4371.257852384693</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>94251</v>
+        <v>68030</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>136313392</v>
+        <v>137776971</v>
       </c>
       <c r="E23" t="n">
-        <v>136313392</v>
+        <v>137776971</v>
       </c>
       <c r="F23" t="n">
-        <v>1127434.282734057</v>
+        <v>1141506.347403339</v>
       </c>
       <c r="G23" t="n">
-        <v>1303115.154173286</v>
+        <v>1148114.981628462</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>61268396</v>
+        <v>63748612</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64887859</v>
+        <v>65301711</v>
       </c>
       <c r="E24" t="n">
-        <v>332758251</v>
+        <v>334880567</v>
       </c>
       <c r="F24" t="n">
-        <v>100035.9601031153</v>
+        <v>102628.4814920394</v>
       </c>
       <c r="G24" t="n">
-        <v>139273.1015756401</v>
+        <v>117325.5270682159</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>21205384</v>
+        <v>21427071</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251321733</v>
+        <v>252856287</v>
       </c>
       <c r="E25" t="n">
-        <v>251321733</v>
+        <v>252856287</v>
       </c>
       <c r="F25" t="n">
-        <v>365499.793623957</v>
+        <v>343191.8189583394</v>
       </c>
       <c r="G25" t="n">
-        <v>419002.2635591775</v>
+        <v>454781.3250623194</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>14990658</v>
+        <v>14817314</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1126755</v>
+        <v>1127059</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>183272</v>
+        <v>181116</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3940783</v>
+        <v>3941879</v>
       </c>
       <c r="E28" t="n">
-        <v>3941805</v>
+        <v>3942876</v>
       </c>
       <c r="F28" t="n">
-        <v>884.3723721642042</v>
+        <v>1430.842011609919</v>
       </c>
       <c r="G28" t="n">
-        <v>3272.069259994027</v>
+        <v>2714.883982383139</v>
       </c>
       <c r="H28" t="n">
         <v>0.63</v>
       </c>
       <c r="I28" t="n">
-        <v>269242</v>
+        <v>275583</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6832593</v>
+        <v>6791552</v>
       </c>
       <c r="E29" t="n">
-        <v>16595842</v>
+        <v>16496157</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>478339</v>
+        <v>482985</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99001802</v>
+        <v>99567828</v>
       </c>
       <c r="E30" t="n">
-        <v>123443642</v>
+        <v>124149409</v>
       </c>
       <c r="F30" t="n">
-        <v>132295.3306996933</v>
+        <v>119765.741121692</v>
       </c>
       <c r="G30" t="n">
-        <v>116262.6003914306</v>
+        <v>119250.3011347987</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10452085</v>
+        <v>10437281</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1127857</v>
+        <v>1129352</v>
       </c>
       <c r="E31" t="n">
-        <v>12257133</v>
+        <v>12273373</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31141</v>
+        <v>31172</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>74984441</v>
+        <v>76187540</v>
       </c>
       <c r="E32" t="n">
-        <v>209873261</v>
+        <v>213241685</v>
       </c>
       <c r="F32" t="n">
-        <v>53301.76289779189</v>
+        <v>40726.6536925574</v>
       </c>
       <c r="G32" t="n">
-        <v>74619.33733735007</v>
+        <v>59939.01336846523</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I32" t="n">
-        <v>34860659</v>
+        <v>33997726</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4150389</v>
+        <v>4141223</v>
       </c>
       <c r="E33" t="n">
-        <v>8184916</v>
+        <v>8166841</v>
       </c>
       <c r="F33" t="n">
-        <v>8210.825318282068</v>
+        <v>7724.821144572315</v>
       </c>
       <c r="G33" t="n">
-        <v>11040.98102085848</v>
+        <v>10346.84444412594</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I33" t="n">
-        <v>1624359</v>
+        <v>1618823</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37317621</v>
+        <v>37267760</v>
       </c>
       <c r="F34" t="n">
-        <v>748.1028887806499</v>
+        <v>714.0792160731763</v>
       </c>
       <c r="G34" t="n">
-        <v>411.1825916390254</v>
+        <v>637.8701783251486</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="I34" t="n">
-        <v>77879</v>
+        <v>77999</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7648159</v>
+        <v>7639252</v>
       </c>
       <c r="E35" t="n">
-        <v>18012934</v>
+        <v>17991957</v>
       </c>
       <c r="F35" t="n">
-        <v>3432.995632282797</v>
+        <v>3432.867965444209</v>
       </c>
       <c r="G35" t="n">
-        <v>2683.844887736315</v>
+        <v>2673.743184963586</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>34223</v>
+        <v>32012</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23048086</v>
+        <v>23096536</v>
       </c>
       <c r="F36" t="n">
-        <v>26.7974071919663</v>
+        <v>123.9755238638335</v>
       </c>
       <c r="G36" t="n">
-        <v>5745.368990468212</v>
+        <v>5497.662733070499</v>
       </c>
       <c r="H36" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>123462</v>
+        <v>123772</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73857003</v>
+        <v>74522029</v>
       </c>
       <c r="E37" t="n">
-        <v>154029357</v>
+        <v>155416273</v>
       </c>
       <c r="F37" t="n">
-        <v>75136.80749451421</v>
+        <v>86680.82585532896</v>
       </c>
       <c r="G37" t="n">
-        <v>128543.6082619086</v>
+        <v>108971.8529984129</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>15887780</v>
+        <v>16060050</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>270679294</v>
+        <v>271929120</v>
       </c>
       <c r="E38" t="n">
-        <v>270679294</v>
+        <v>271929120</v>
       </c>
       <c r="F38" t="n">
-        <v>28281.78401476807</v>
+        <v>31288.89454634208</v>
       </c>
       <c r="G38" t="n">
-        <v>25246.40240953703</v>
+        <v>38418.664253373</v>
       </c>
       <c r="H38" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>9609827</v>
+        <v>9655603</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>201220639</v>
+        <v>201375859</v>
       </c>
       <c r="E39" t="n">
-        <v>699058684</v>
+        <v>699597935</v>
       </c>
       <c r="F39" t="n">
-        <v>111640.0952241247</v>
+        <v>168975.726655419</v>
       </c>
       <c r="G39" t="n">
-        <v>306230.4365330348</v>
+        <v>338754.276911628</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>27195391</v>
+        <v>27270348</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3373591</v>
+        <v>3512698</v>
       </c>
       <c r="E40" t="n">
-        <v>3373591</v>
+        <v>3512698</v>
       </c>
       <c r="F40" t="n">
-        <v>1868.927195270444</v>
+        <v>2253.209739346313</v>
       </c>
       <c r="G40" t="n">
-        <v>663.736188957834</v>
+        <v>589.9975059046479</v>
       </c>
       <c r="H40" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>2778546</v>
+        <v>2777296</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>113667661</v>
+        <v>114709454</v>
       </c>
       <c r="E41" t="n">
-        <v>483094669</v>
+        <v>487492570</v>
       </c>
       <c r="F41" t="n">
-        <v>5322.106304012313</v>
+        <v>5333.123147539478</v>
       </c>
       <c r="G41" t="n">
-        <v>6085.865646034586</v>
+        <v>6562.71330368798</v>
       </c>
       <c r="H41" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="I41" t="n">
-        <v>14451038</v>
+        <v>14547189</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>621165</v>
+        <v>645584</v>
       </c>
       <c r="E42" t="n">
-        <v>7534126</v>
+        <v>7830303</v>
       </c>
       <c r="F42" t="n">
-        <v>1214.015094122435</v>
+        <v>526.8982130962878</v>
       </c>
       <c r="G42" t="n">
-        <v>981.4660745381012</v>
+        <v>1060.474591125483</v>
       </c>
       <c r="H42" t="n">
-        <v>0.95</v>
+        <v>1.67</v>
       </c>
       <c r="I42" t="n">
-        <v>2894571</v>
+        <v>2876932</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1260813749</v>
+        <v>1275663512</v>
       </c>
       <c r="E43" t="n">
-        <v>6045860136</v>
+        <v>6117067791</v>
       </c>
       <c r="F43" t="n">
-        <v>31540.61789176309</v>
+        <v>56862.79998854865</v>
       </c>
       <c r="G43" t="n">
-        <v>38634.18800652371</v>
+        <v>67585.56376864009</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>161519866</v>
+        <v>159749301</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6050014470</v>
+        <v>6051401788</v>
       </c>
       <c r="E44" t="n">
-        <v>6050014470</v>
+        <v>6051401788</v>
       </c>
       <c r="F44" t="n">
-        <v>837364.9778592142</v>
+        <v>829114.8020496143</v>
       </c>
       <c r="G44" t="n">
-        <v>1866074.561997214</v>
+        <v>1857990.355987065</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>98234274</v>
+        <v>95665866</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>265425742</v>
+        <v>268526438</v>
       </c>
       <c r="E45" t="n">
-        <v>1145724851</v>
+        <v>1159109178</v>
       </c>
       <c r="F45" t="n">
-        <v>97807.5665359995</v>
+        <v>102603.9917476888</v>
       </c>
       <c r="G45" t="n">
-        <v>97036.88458587573</v>
+        <v>91491.16331854957</v>
       </c>
       <c r="H45" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>101665893</v>
+        <v>99154612</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114642913</v>
+        <v>114557499</v>
       </c>
       <c r="E46" t="n">
-        <v>114642913</v>
+        <v>114557499</v>
       </c>
       <c r="F46" t="n">
-        <v>29097.31586592448</v>
+        <v>27209.39970129252</v>
       </c>
       <c r="G46" t="n">
-        <v>53134.4513821119</v>
+        <v>51148.3611316668</v>
       </c>
       <c r="H46" t="n">
         <v>0.36</v>
       </c>
       <c r="I46" t="n">
-        <v>6153488</v>
+        <v>6168397</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2043552990</v>
+        <v>2042832609</v>
       </c>
       <c r="E47" t="n">
-        <v>2043552990</v>
+        <v>2042832609</v>
       </c>
       <c r="F47" t="n">
-        <v>225255.7481864922</v>
+        <v>225272.0931452842</v>
       </c>
       <c r="G47" t="n">
-        <v>199325.3642504818</v>
+        <v>199317.7234590241</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6418709020</v>
+        <v>6411049969</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9805966</v>
+        <v>9812323</v>
       </c>
       <c r="F48" t="n">
-        <v>6596.985817320434</v>
+        <v>6600.860918700785</v>
       </c>
       <c r="G48" t="n">
-        <v>6149.002582338087</v>
+        <v>6158.240140746581</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>160429</v>
+        <v>160090</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4340077</v>
+        <v>4385408</v>
       </c>
       <c r="E49" t="n">
-        <v>5697955</v>
+        <v>5757468</v>
       </c>
       <c r="F49" t="n">
-        <v>12701.24177236718</v>
+        <v>12554.82389941417</v>
       </c>
       <c r="G49" t="n">
-        <v>16298.60595885055</v>
+        <v>9946.399685199802</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>557120</v>
+        <v>556455</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12102603</v>
+        <v>12196697</v>
       </c>
       <c r="E50" t="n">
-        <v>17796650</v>
+        <v>17935012</v>
       </c>
       <c r="F50" t="n">
-        <v>5884.672203417023</v>
+        <v>6614.081527178942</v>
       </c>
       <c r="G50" t="n">
-        <v>6679.90786449084</v>
+        <v>5975.068497562783</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2250781</v>
+        <v>2291822</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22518360</v>
+        <v>22825551</v>
       </c>
       <c r="E51" t="n">
-        <v>29211464</v>
+        <v>29609961</v>
       </c>
       <c r="F51" t="n">
-        <v>13739.42100856526</v>
+        <v>14174.56014956362</v>
       </c>
       <c r="G51" t="n">
-        <v>12960.10621123269</v>
+        <v>13119.82284659296</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>165163</v>
+        <v>282320</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13550422</v>
+        <v>13569136</v>
       </c>
       <c r="E52" t="n">
-        <v>13550422</v>
+        <v>13569136</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4864654</v>
+        <v>4717000</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97700489</v>
+        <v>97958731</v>
       </c>
       <c r="E53" t="n">
-        <v>120852008</v>
+        <v>121171444</v>
       </c>
       <c r="F53" t="n">
-        <v>331.0879200173639</v>
+        <v>280.6780122506699</v>
       </c>
       <c r="G53" t="n">
-        <v>4329.507821992429</v>
+        <v>4240.205860905576</v>
       </c>
       <c r="H53" t="n">
         <v>0.66</v>
       </c>
       <c r="I53" t="n">
-        <v>830772</v>
+        <v>829978</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5230260</v>
+        <v>5209641</v>
       </c>
       <c r="E54" t="n">
-        <v>7317892</v>
+        <v>7289043</v>
       </c>
       <c r="F54" t="n">
-        <v>66.93428839245783</v>
+        <v>9.431792155714234</v>
       </c>
       <c r="G54" t="n">
-        <v>103.005299517956</v>
+        <v>224.2451872376186</v>
       </c>
       <c r="H54" t="n">
-        <v>2.65</v>
+        <v>2.97</v>
       </c>
       <c r="I54" t="n">
-        <v>117302</v>
+        <v>116247</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14227041</v>
+        <v>14310142</v>
       </c>
       <c r="E55" t="n">
-        <v>68903830</v>
+        <v>69306300</v>
       </c>
       <c r="F55" t="n">
-        <v>26456.70077424617</v>
+        <v>27531.35272129882</v>
       </c>
       <c r="G55" t="n">
-        <v>32952.08755112531</v>
+        <v>25868.02709911391</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="I55" t="n">
-        <v>3701053</v>
+        <v>3719693</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>62276</v>
+        <v>61385</v>
       </c>
       <c r="E56" t="n">
-        <v>149164</v>
+        <v>147031</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5099.85</v>
+        <v>4760.02</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1914364357</v>
+        <v>1920420365</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26671479</v>
+        <v>26898936</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12253880</v>
+        <v>12258385</v>
       </c>
       <c r="E58" t="n">
-        <v>17766358</v>
+        <v>17772890</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1226703</v>
+        <v>1906023</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125259462</v>
+        <v>125066755</v>
       </c>
       <c r="E59" t="n">
-        <v>333118764</v>
+        <v>332606272</v>
       </c>
       <c r="F59" t="n">
-        <v>8492.405185453834</v>
+        <v>8321.543394888542</v>
       </c>
       <c r="G59" t="n">
-        <v>7308.816223889156</v>
+        <v>7271.480993206233</v>
       </c>
       <c r="H59" t="n">
-        <v>0.48</v>
+        <v>0.78</v>
       </c>
       <c r="I59" t="n">
-        <v>1053660</v>
+        <v>1029919</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31430452</v>
+        <v>31550151</v>
       </c>
       <c r="E60" t="n">
-        <v>97864343</v>
+        <v>98237048</v>
       </c>
       <c r="F60" t="n">
-        <v>5094.794482665614</v>
+        <v>3374.064619590243</v>
       </c>
       <c r="G60" t="n">
-        <v>5900.512375083197</v>
+        <v>6434.368779290679</v>
       </c>
       <c r="H60" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I60" t="n">
-        <v>11649849</v>
+        <v>11635766</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2064694</v>
+        <v>2059511</v>
       </c>
       <c r="E61" t="n">
-        <v>14805718</v>
+        <v>14768548</v>
       </c>
       <c r="F61" t="n">
-        <v>5362.149784792179</v>
+        <v>1113.902591678185</v>
       </c>
       <c r="G61" t="n">
-        <v>5143.178032607978</v>
+        <v>5155.327977415474</v>
       </c>
       <c r="H61" t="n">
         <v>0.54</v>
       </c>
       <c r="I61" t="n">
-        <v>1977407</v>
+        <v>1974428</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>197980651</v>
+        <v>199398838</v>
       </c>
       <c r="E62" t="n">
-        <v>1121088092</v>
+        <v>1129118743</v>
       </c>
       <c r="F62" t="n">
-        <v>608972.385624089</v>
+        <v>618711.0614089154</v>
       </c>
       <c r="G62" t="n">
-        <v>890819.6654926616</v>
+        <v>875493.90235517</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>62438808</v>
+        <v>62095776</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>501806</v>
+        <v>501877</v>
       </c>
       <c r="E63" t="n">
-        <v>1689008</v>
+        <v>1689250</v>
       </c>
       <c r="F63" t="n">
-        <v>4537.949181105705</v>
+        <v>4549.387227231677</v>
       </c>
       <c r="G63" t="n">
-        <v>360.3134889309575</v>
+        <v>387.9576634247605</v>
       </c>
       <c r="H63" t="n">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="I63" t="n">
-        <v>629807</v>
+        <v>631258</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>340000</v>
+        <v>343120</v>
       </c>
       <c r="E64" t="n">
-        <v>340000</v>
+        <v>343120</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4846</v>
+        <v>4865.96</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>138819414</v>
+        <v>139938345</v>
       </c>
       <c r="E65" t="n">
-        <v>1028291953</v>
+        <v>1036580337</v>
       </c>
       <c r="F65" t="n">
-        <v>38835.86468116289</v>
+        <v>35380.86055306469</v>
       </c>
       <c r="G65" t="n">
-        <v>36413.32019383232</v>
+        <v>40684.57426055134</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>10102776</v>
+        <v>9978998</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8016731</v>
+        <v>8027275</v>
       </c>
       <c r="E66" t="n">
-        <v>10739746</v>
+        <v>10753872</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59462</v>
+        <v>59252</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26347958</v>
+        <v>26331020</v>
       </c>
       <c r="E67" t="n">
-        <v>26347958</v>
+        <v>26331020</v>
       </c>
       <c r="F67" t="n">
-        <v>7581.803387760853</v>
+        <v>7636.236433505195</v>
       </c>
       <c r="G67" t="n">
-        <v>6098.586894605053</v>
+        <v>6155.923898926344</v>
       </c>
       <c r="H67" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I67" t="n">
-        <v>305943</v>
+        <v>309076</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1575731</v>
+        <v>1576158</v>
       </c>
       <c r="E68" t="n">
-        <v>12237310</v>
+        <v>12240623</v>
       </c>
       <c r="F68" t="n">
-        <v>11339.79418111173</v>
+        <v>8606.610479116496</v>
       </c>
       <c r="G68" t="n">
-        <v>16251.02784733222</v>
+        <v>20342.04415585756</v>
       </c>
       <c r="H68" t="n">
         <v>0.78</v>
       </c>
       <c r="I68" t="n">
-        <v>484472</v>
+        <v>484443</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>335618078</v>
+        <v>338525047</v>
       </c>
       <c r="E69" t="n">
-        <v>3019428342</v>
+        <v>3045581238</v>
       </c>
       <c r="F69" t="n">
-        <v>1007765.056751976</v>
+        <v>1200656.204034185</v>
       </c>
       <c r="G69" t="n">
-        <v>1763409.575505899</v>
+        <v>1560078.437878779</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37272103</v>
+        <v>37032511</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246063</v>
+        <v>245639</v>
       </c>
       <c r="E70" t="n">
-        <v>2171692</v>
+        <v>2167949</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>77812</v>
+        <v>78196</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1578299</v>
+        <v>1578205</v>
       </c>
       <c r="E71" t="n">
-        <v>13152491</v>
+        <v>13151712</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>41559</v>
+        <v>42161</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9219352</v>
+        <v>9219834</v>
       </c>
       <c r="E72" t="n">
-        <v>42732228</v>
+        <v>42734459</v>
       </c>
       <c r="F72" t="n">
-        <v>6258.304079844514</v>
+        <v>6258.064178633081</v>
       </c>
       <c r="G72" t="n">
-        <v>10022.52835901427</v>
+        <v>10022.10962724426</v>
       </c>
       <c r="H72" t="n">
         <v>1.25</v>
       </c>
       <c r="I72" t="n">
-        <v>125921</v>
+        <v>125305</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>48364754</v>
+        <v>49860948</v>
       </c>
       <c r="E73" t="n">
-        <v>280011941</v>
+        <v>288674287</v>
       </c>
       <c r="F73" t="n">
-        <v>133176.64919442</v>
+        <v>114829.8941004691</v>
       </c>
       <c r="G73" t="n">
-        <v>138256.9476155811</v>
+        <v>138879.1042551476</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>24816042</v>
+        <v>26341633</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40083596</v>
+        <v>40141470</v>
       </c>
       <c r="E74" t="n">
-        <v>55361154</v>
+        <v>55441087</v>
       </c>
       <c r="F74" t="n">
-        <v>728.6414066621046</v>
+        <v>4620.967680302078</v>
       </c>
       <c r="G74" t="n">
-        <v>516.5774943715827</v>
+        <v>4422.419213668248</v>
       </c>
       <c r="H74" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="I74" t="n">
-        <v>336363</v>
+        <v>334099</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>96818</v>
+        <v>97151</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>549.62</v>
+        <v>551.71</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13356725</v>
+        <v>13432470</v>
       </c>
       <c r="E76" t="n">
-        <v>13402180</v>
+        <v>13478182</v>
       </c>
       <c r="F76" t="n">
-        <v>2337.026916202918</v>
+        <v>1689.063993089763</v>
       </c>
       <c r="G76" t="n">
-        <v>8028.065590489804</v>
+        <v>5474.378770833272</v>
       </c>
       <c r="H76" t="n">
         <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>5860567</v>
+        <v>5852797</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42806848</v>
+        <v>42791863</v>
       </c>
       <c r="E77" t="n">
-        <v>72676070</v>
+        <v>72650629</v>
       </c>
       <c r="F77" t="n">
-        <v>10372.04708946958</v>
+        <v>5702.751679447116</v>
       </c>
       <c r="G77" t="n">
-        <v>6669.550674248735</v>
+        <v>6813.316918006478</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1123098</v>
+        <v>1123046</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23187344</v>
+        <v>22894468</v>
       </c>
       <c r="E78" t="n">
-        <v>69504996</v>
+        <v>68627086</v>
       </c>
       <c r="F78" t="n">
-        <v>174588.2128594344</v>
+        <v>98645.04646312818</v>
       </c>
       <c r="G78" t="n">
-        <v>110602.9743503979</v>
+        <v>151811.9023364508</v>
       </c>
       <c r="H78" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>3063294</v>
+        <v>3149259</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101394032</v>
+        <v>101449499</v>
       </c>
       <c r="E79" t="n">
-        <v>107791020</v>
+        <v>107849986</v>
       </c>
       <c r="F79" t="n">
-        <v>2796.397479787301</v>
+        <v>1838.44836396189</v>
       </c>
       <c r="G79" t="n">
-        <v>4010.424098351575</v>
+        <v>3723.189592608522</v>
       </c>
       <c r="H79" t="n">
-        <v>1.36</v>
+        <v>0.8</v>
       </c>
       <c r="I79" t="n">
-        <v>386733</v>
+        <v>386000</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10454969</v>
+        <v>10387608</v>
       </c>
       <c r="E80" t="n">
-        <v>45426530</v>
+        <v>45133462</v>
       </c>
       <c r="F80" t="n">
-        <v>6357.564313746955</v>
+        <v>6105.875873074972</v>
       </c>
       <c r="G80" t="n">
-        <v>5409.82075179464</v>
+        <v>5695.394941765573</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="I80" t="n">
-        <v>112656</v>
+        <v>115232</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15445607</v>
+        <v>15523489</v>
       </c>
       <c r="E81" t="n">
-        <v>94671207</v>
+        <v>95148569</v>
       </c>
       <c r="F81" t="n">
-        <v>3995.270365415579</v>
+        <v>4162.588003850167</v>
       </c>
       <c r="G81" t="n">
-        <v>6280.262652225254</v>
+        <v>6399.192517640522</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>11281564</v>
+        <v>11196211</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1501615</v>
+        <v>1503776</v>
       </c>
       <c r="E82" t="n">
-        <v>1543854</v>
+        <v>1546075</v>
       </c>
       <c r="F82" t="n">
-        <v>5668.147988569074</v>
+        <v>6069.018309184617</v>
       </c>
       <c r="G82" t="n">
-        <v>6070.309450590586</v>
+        <v>5701.083028517049</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>146284</v>
+        <v>147617</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47024151</v>
+        <v>47213563</v>
       </c>
       <c r="E83" t="n">
-        <v>202574901</v>
+        <v>203390868</v>
       </c>
       <c r="F83" t="n">
-        <v>3345.790752514413</v>
+        <v>756.1995411226918</v>
       </c>
       <c r="G83" t="n">
-        <v>4543.149688690209</v>
+        <v>1998.30002087718</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.53</v>
       </c>
       <c r="I83" t="n">
-        <v>8979797</v>
+        <v>8931295</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1737230</v>
+        <v>1787452</v>
       </c>
       <c r="E84" t="n">
-        <v>6312016</v>
+        <v>6493877</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>120756</v>
+        <v>122870</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8997722</v>
+        <v>8988246</v>
       </c>
       <c r="E85" t="n">
-        <v>19979779</v>
+        <v>19958737</v>
       </c>
       <c r="F85" t="n">
-        <v>6314.886245714021</v>
+        <v>8471.965660979418</v>
       </c>
       <c r="G85" t="n">
-        <v>5545.414130841787</v>
+        <v>5763.387635870612</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>332505</v>
+        <v>331530</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441532</v>
+        <v>2439510</v>
       </c>
       <c r="E86" t="n">
-        <v>18371983</v>
+        <v>18356764</v>
       </c>
       <c r="F86" t="n">
-        <v>5503.292372235543</v>
+        <v>5146.876724488335</v>
       </c>
       <c r="G86" t="n">
-        <v>12218.40544241943</v>
+        <v>12227.04098203868</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>167338</v>
+        <v>165150</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20599455</v>
+        <v>20575838</v>
       </c>
       <c r="E87" t="n">
-        <v>82397819</v>
+        <v>82303353</v>
       </c>
       <c r="F87" t="n">
-        <v>12509.1747929675</v>
+        <v>12043.07642369032</v>
       </c>
       <c r="G87" t="n">
-        <v>2392.054522507104</v>
+        <v>1165.676954113892</v>
       </c>
       <c r="H87" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="I87" t="n">
-        <v>4249770</v>
+        <v>5009105</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4200639</v>
+        <v>4203668</v>
       </c>
       <c r="E88" t="n">
-        <v>4200639</v>
+        <v>4203668</v>
       </c>
       <c r="F88" t="n">
-        <v>1232.174956803033</v>
+        <v>2197.999334440627</v>
       </c>
       <c r="G88" t="n">
-        <v>730.0765565516369</v>
+        <v>7681.151768754404</v>
       </c>
       <c r="H88" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I88" t="n">
-        <v>2700066</v>
+        <v>2694473</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12847688</v>
+        <v>12860544</v>
       </c>
       <c r="E89" t="n">
-        <v>40645438</v>
+        <v>40686111</v>
       </c>
       <c r="F89" t="n">
-        <v>13198.75086172095</v>
+        <v>13869.37193652943</v>
       </c>
       <c r="G89" t="n">
-        <v>14231.04045446115</v>
+        <v>15877.58409991703</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="I89" t="n">
-        <v>1377302</v>
+        <v>1337270</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25994</v>
+        <v>25891</v>
       </c>
       <c r="E90" t="n">
-        <v>204433</v>
+        <v>203626</v>
       </c>
       <c r="F90" t="n">
-        <v>9835.577433897861</v>
+        <v>5519.01725291227</v>
       </c>
       <c r="G90" t="n">
-        <v>273.5975548812767</v>
+        <v>277.0632235599513</v>
       </c>
       <c r="H90" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I90" t="n">
-        <v>102067</v>
+        <v>102015</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8087716</v>
+        <v>8111888</v>
       </c>
       <c r="E91" t="n">
-        <v>8087716</v>
+        <v>8111888</v>
       </c>
       <c r="F91" t="n">
-        <v>3904.494369688753</v>
+        <v>3133.317549036361</v>
       </c>
       <c r="G91" t="n">
-        <v>4115.526981393962</v>
+        <v>4174.927748783412</v>
       </c>
       <c r="H91" t="n">
         <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>3581407</v>
+        <v>3580198</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9121877</v>
+        <v>9136055</v>
       </c>
       <c r="E92" t="n">
-        <v>9121877</v>
+        <v>9136055</v>
       </c>
       <c r="F92" t="n">
-        <v>4509.528019612049</v>
+        <v>4195.074935579407</v>
       </c>
       <c r="G92" t="n">
-        <v>6687.571590620216</v>
+        <v>6310.579579186253</v>
       </c>
       <c r="H92" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I92" t="n">
-        <v>3081380</v>
+        <v>3240721</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37365480</v>
+        <v>37631822</v>
       </c>
       <c r="E93" t="n">
-        <v>94217802</v>
+        <v>94889388</v>
       </c>
       <c r="F93" t="n">
-        <v>4997.812374446277</v>
+        <v>5260.563798536002</v>
       </c>
       <c r="G93" t="n">
-        <v>6761.457475981763</v>
+        <v>5705.579113147847</v>
       </c>
       <c r="H93" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>3237605</v>
+        <v>3349593</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301559846</v>
+        <v>303765456</v>
       </c>
       <c r="E94" t="n">
-        <v>306274264</v>
+        <v>308513294</v>
       </c>
       <c r="F94" t="n">
-        <v>51821.51143584713</v>
+        <v>48760.83216291154</v>
       </c>
       <c r="G94" t="n">
-        <v>48097.91740378457</v>
+        <v>56601.50502418054</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I94" t="n">
-        <v>12891256</v>
+        <v>12936846</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>5900.154253660397</v>
+        <v>756.0152992259631</v>
       </c>
       <c r="G95" t="n">
-        <v>1426.72737295017</v>
+        <v>6640.59328229018</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>207197</v>
+        <v>212012</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>85262784</v>
+        <v>85281377</v>
       </c>
       <c r="E96" t="n">
-        <v>85262784</v>
+        <v>85281377</v>
       </c>
       <c r="F96" t="n">
-        <v>10633.95396503228</v>
+        <v>6704.671032452034</v>
       </c>
       <c r="G96" t="n">
-        <v>6403.040228635183</v>
+        <v>5766.176973104926</v>
       </c>
       <c r="H96" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="I96" t="n">
-        <v>5184848</v>
+        <v>5127519</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>309776047</v>
+        <v>312528765</v>
       </c>
       <c r="E97" t="n">
-        <v>309776047</v>
+        <v>312528765</v>
       </c>
       <c r="F97" t="n">
-        <v>279257.116646393</v>
+        <v>361458.6244675791</v>
       </c>
       <c r="G97" t="n">
-        <v>447204.9302460401</v>
+        <v>431765.7690077233</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50183847</v>
+        <v>50139920</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4143085</v>
+        <v>4161586</v>
       </c>
       <c r="E98" t="n">
-        <v>28309411</v>
+        <v>28435825</v>
       </c>
       <c r="F98" t="n">
-        <v>434.2062579923169</v>
+        <v>26511.45184788875</v>
       </c>
       <c r="G98" t="n">
-        <v>2239.422442833845</v>
+        <v>27820.68976842299</v>
       </c>
       <c r="H98" t="n">
         <v>0.35</v>
       </c>
       <c r="I98" t="n">
-        <v>2625011</v>
+        <v>2625762</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88644830</v>
+        <v>89247462</v>
       </c>
       <c r="E99" t="n">
-        <v>510809744</v>
+        <v>514282371</v>
       </c>
       <c r="F99" t="n">
-        <v>145647.3134243551</v>
+        <v>134718.6047246896</v>
       </c>
       <c r="G99" t="n">
-        <v>132925.6483323367</v>
+        <v>154302.6315785149</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>16625914</v>
+        <v>16509286</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107831401</v>
+        <v>108295991</v>
       </c>
       <c r="E100" t="n">
-        <v>265307376</v>
+        <v>266450448</v>
       </c>
       <c r="F100" t="n">
-        <v>28992.74958804956</v>
+        <v>29476.83985660672</v>
       </c>
       <c r="G100" t="n">
-        <v>49878.62829985272</v>
+        <v>50139.94755472404</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I100" t="n">
-        <v>2279160</v>
+        <v>2138117</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248313839</v>
+        <v>248773210</v>
       </c>
       <c r="E101" t="n">
-        <v>248316306</v>
+        <v>248775682</v>
       </c>
       <c r="F101" t="n">
-        <v>40673.78151477146</v>
+        <v>2026.757252325277</v>
       </c>
       <c r="G101" t="n">
-        <v>5262.667256931537</v>
+        <v>13617.7536238576</v>
       </c>
       <c r="H101" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I101" t="n">
-        <v>2679488</v>
+        <v>2662400</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30293298</v>
+        <v>30308904</v>
       </c>
       <c r="E102" t="n">
-        <v>135635520</v>
+        <v>135705395</v>
       </c>
       <c r="F102" t="n">
-        <v>105742.1047531179</v>
+        <v>94415.03679823343</v>
       </c>
       <c r="G102" t="n">
-        <v>93619.0508659003</v>
+        <v>106450.290660429</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8390313</v>
+        <v>8460434</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3012984</v>
+        <v>3025147</v>
       </c>
       <c r="E103" t="n">
-        <v>3012984</v>
+        <v>3025147</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>438329</v>
+        <v>439975</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5920064</v>
+        <v>5972053</v>
       </c>
       <c r="E104" t="n">
-        <v>15537222</v>
+        <v>15673668</v>
       </c>
       <c r="F104" t="n">
-        <v>9294.424004511688</v>
+        <v>9056.740118235599</v>
       </c>
       <c r="G104" t="n">
-        <v>2930.812171645145</v>
+        <v>3179.504327169973</v>
       </c>
       <c r="H104" t="n">
         <v>1.24</v>
       </c>
       <c r="I104" t="n">
-        <v>29873</v>
+        <v>29442</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16754476</v>
+        <v>16696040</v>
       </c>
       <c r="E105" t="n">
-        <v>77336281</v>
+        <v>77066546</v>
       </c>
       <c r="F105" t="n">
-        <v>39339.70057601066</v>
+        <v>25300.22015913784</v>
       </c>
       <c r="G105" t="n">
-        <v>84727.71891754029</v>
+        <v>31622.70025318163</v>
       </c>
       <c r="H105" t="n">
         <v>0.51</v>
       </c>
       <c r="I105" t="n">
-        <v>971649</v>
+        <v>988528</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48253173</v>
+        <v>48732731</v>
       </c>
       <c r="E106" t="n">
-        <v>312908983</v>
+        <v>316018794</v>
       </c>
       <c r="F106" t="n">
-        <v>41932.62404960108</v>
+        <v>47362.55294291188</v>
       </c>
       <c r="G106" t="n">
-        <v>127920.3346820627</v>
+        <v>127367.6474531349</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>16431402</v>
+        <v>16291440</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2459011</v>
+        <v>2569246</v>
       </c>
       <c r="E107" t="n">
-        <v>4454961</v>
+        <v>4654673</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>120691</v>
+        <v>127924</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125278087</v>
+        <v>125444296</v>
       </c>
       <c r="E108" t="n">
-        <v>2074707732</v>
+        <v>2077460289</v>
       </c>
       <c r="F108" t="n">
-        <v>410915.0071501882</v>
+        <v>389459.5737947663</v>
       </c>
       <c r="G108" t="n">
-        <v>163019.995351153</v>
+        <v>185676.6272856744</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4974399</v>
+        <v>4833881</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23773582</v>
+        <v>24048256</v>
       </c>
       <c r="E109" t="n">
-        <v>142242118</v>
+        <v>143885551</v>
       </c>
       <c r="F109" t="n">
-        <v>40948.48701252841</v>
+        <v>40673.57561737781</v>
       </c>
       <c r="G109" t="n">
-        <v>40612.08054608377</v>
+        <v>39877.55426720671</v>
       </c>
       <c r="H109" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>11876215</v>
+        <v>11528234</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1071384</v>
+        <v>1071791</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>72622</v>
+        <v>71930</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2212477</v>
+        <v>2244319</v>
       </c>
       <c r="F111" t="n">
-        <v>2501.682271509208</v>
+        <v>3781.761497295609</v>
       </c>
       <c r="G111" t="n">
-        <v>383.5892879848529</v>
+        <v>367.2922504240414</v>
       </c>
       <c r="H111" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="I111" t="n">
-        <v>181300</v>
+        <v>179452</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142229045</v>
+        <v>142229159</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.356785422755</v>
+        <v>3194.764035089875</v>
       </c>
       <c r="G112" t="n">
-        <v>770.1516250303558</v>
+        <v>466.7162727065366</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>25503</v>
+        <v>25746</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6694957</v>
+        <v>6685266</v>
       </c>
       <c r="E113" t="n">
-        <v>34443522</v>
+        <v>34393663</v>
       </c>
       <c r="F113" t="n">
-        <v>375.8051256632948</v>
+        <v>341.1725196839556</v>
       </c>
       <c r="G113" t="n">
-        <v>1913.206283065413</v>
+        <v>323.8139834318341</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.87</v>
       </c>
       <c r="I113" t="n">
-        <v>922346</v>
+        <v>924380</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29111193</v>
+        <v>29123049</v>
       </c>
       <c r="E114" t="n">
-        <v>39916535</v>
+        <v>39932792</v>
       </c>
       <c r="F114" t="n">
-        <v>4829.837996480351</v>
+        <v>5108.827931324107</v>
       </c>
       <c r="G114" t="n">
-        <v>4457.576965069134</v>
+        <v>4270.962248826515</v>
       </c>
       <c r="H114" t="n">
         <v>0.13</v>
       </c>
       <c r="I114" t="n">
-        <v>227764</v>
+        <v>218770</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7997792</v>
+        <v>7996998</v>
       </c>
       <c r="F115" t="n">
-        <v>207.5963240695008</v>
+        <v>207.8758820017549</v>
       </c>
       <c r="G115" t="n">
-        <v>6868.862093057942</v>
+        <v>6922.175139634141</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>692135</v>
+        <v>680641</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3380324</v>
+        <v>3369112</v>
       </c>
       <c r="E116" t="n">
-        <v>4528158</v>
+        <v>4513138</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>151185</v>
+        <v>150446</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34700667</v>
+        <v>34914228</v>
       </c>
       <c r="E117" t="n">
-        <v>173172323</v>
+        <v>174238094</v>
       </c>
       <c r="F117" t="n">
-        <v>88876.42631688093</v>
+        <v>79511.92386131056</v>
       </c>
       <c r="G117" t="n">
-        <v>64639.32397052883</v>
+        <v>69683.46165085533</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I117" t="n">
-        <v>10164769</v>
+        <v>10251510</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3467694</v>
+        <v>3496429</v>
       </c>
       <c r="E118" t="n">
-        <v>4981524</v>
+        <v>5022804</v>
       </c>
       <c r="F118" t="n">
-        <v>551.7715779250238</v>
+        <v>564.3148361433176</v>
       </c>
       <c r="G118" t="n">
-        <v>735.9237897082897</v>
+        <v>781.0360248101363</v>
       </c>
       <c r="H118" t="n">
-        <v>1.18</v>
+        <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>29657</v>
+        <v>156674</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>313998208</v>
+        <v>315865186</v>
       </c>
       <c r="E119" t="n">
-        <v>580968291</v>
+        <v>584422627</v>
       </c>
       <c r="F119" t="n">
-        <v>119439.4875497538</v>
+        <v>118802.2128787453</v>
       </c>
       <c r="G119" t="n">
-        <v>126954.5313272699</v>
+        <v>141784.8358605449</v>
       </c>
       <c r="H119" t="n">
         <v>0.19</v>
       </c>
       <c r="I119" t="n">
-        <v>13300590</v>
+        <v>13293338</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69726755</v>
+        <v>70726177</v>
       </c>
       <c r="E120" t="n">
-        <v>665198958</v>
+        <v>674722995</v>
       </c>
       <c r="F120" t="n">
-        <v>3167.794665509555</v>
+        <v>3842.099125321658</v>
       </c>
       <c r="G120" t="n">
-        <v>42071.26214497325</v>
+        <v>43400.21936306833</v>
       </c>
       <c r="H120" t="n">
         <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>21550206</v>
+        <v>21458981</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37929944</v>
+        <v>37883026</v>
       </c>
       <c r="E121" t="n">
-        <v>49591202</v>
+        <v>49529670</v>
       </c>
       <c r="F121" t="n">
-        <v>173.0399886383135</v>
+        <v>5619.586874931312</v>
       </c>
       <c r="G121" t="n">
-        <v>1036.109365340179</v>
+        <v>523.0971792537598</v>
       </c>
       <c r="H121" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>364832</v>
+        <v>121588</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>10112258</v>
+        <v>10551272</v>
       </c>
       <c r="E122" t="n">
-        <v>30005369</v>
+        <v>31308023</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1191.205559369755</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>6685.410783069704</v>
       </c>
       <c r="H122" t="n">
-        <v>4.32</v>
+        <v>0.63</v>
       </c>
       <c r="I122" t="n">
-        <v>6337434</v>
+        <v>6467123</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2251107</v>
+        <v>2250520</v>
       </c>
       <c r="E123" t="n">
-        <v>7702949</v>
+        <v>7700942</v>
       </c>
       <c r="F123" t="n">
-        <v>790.0733449198759</v>
+        <v>982.3213348334422</v>
       </c>
       <c r="G123" t="n">
-        <v>996.901232626006</v>
+        <v>856.4927837134928</v>
       </c>
       <c r="H123" t="n">
         <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>951591</v>
+        <v>932535</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7419001</v>
+        <v>7398947</v>
       </c>
       <c r="E124" t="n">
-        <v>7419012</v>
+        <v>7398958</v>
       </c>
       <c r="F124" t="n">
-        <v>309.1795405975968</v>
+        <v>62.38946747273423</v>
       </c>
       <c r="G124" t="n">
-        <v>833.2430673162779</v>
+        <v>555.6776369082384</v>
       </c>
       <c r="H124" t="n">
         <v>1.69</v>
       </c>
       <c r="I124" t="n">
-        <v>313294</v>
+        <v>312896</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6212199</v>
+        <v>6238541</v>
       </c>
       <c r="E125" t="n">
-        <v>6212199</v>
+        <v>6238541</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>282466</v>
+        <v>495930</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6226961</v>
+        <v>6223202</v>
       </c>
       <c r="E126" t="n">
-        <v>22744677</v>
+        <v>22730949</v>
       </c>
       <c r="F126" t="n">
-        <v>253.4033940730897</v>
+        <v>5357.526740036464</v>
       </c>
       <c r="G126" t="n">
-        <v>7337.95242859749</v>
+        <v>2188.769212679976</v>
       </c>
       <c r="H126" t="n">
         <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>515136</v>
+        <v>511810</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44219929</v>
+        <v>44457319</v>
       </c>
       <c r="E127" t="n">
-        <v>44219929</v>
+        <v>44457319</v>
       </c>
       <c r="F127" t="n">
-        <v>61611.60074557891</v>
+        <v>52851.97065022361</v>
       </c>
       <c r="G127" t="n">
-        <v>78509.77936614928</v>
+        <v>77258.05377212598</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7723704</v>
+        <v>7627871</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>151221475</v>
+        <v>149179351</v>
       </c>
       <c r="F128" t="n">
-        <v>980.8676215402241</v>
+        <v>225.6355124416748</v>
       </c>
       <c r="G128" t="n">
-        <v>388.4625268314049</v>
+        <v>20.70108416874389</v>
       </c>
       <c r="H128" t="n">
-        <v>0.92</v>
+        <v>3.27</v>
       </c>
       <c r="I128" t="n">
-        <v>1396518</v>
+        <v>1689988</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3144751</v>
+        <v>3112085</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>74835</v>
+        <v>73687</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20334651</v>
+        <v>20344835</v>
       </c>
       <c r="F130" t="n">
-        <v>429.9181521339741</v>
+        <v>642.199358100009</v>
       </c>
       <c r="G130" t="n">
-        <v>672.030550441494</v>
+        <v>704.1940943935975</v>
       </c>
       <c r="H130" t="n">
-        <v>0.98</v>
+        <v>1.81</v>
       </c>
       <c r="I130" t="n">
-        <v>2960051</v>
+        <v>2965999</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1255405</v>
+        <v>1258269</v>
       </c>
       <c r="E131" t="n">
-        <v>3795934</v>
+        <v>3803977</v>
       </c>
       <c r="F131" t="n">
-        <v>439.9441870606717</v>
+        <v>439.9272951430876</v>
       </c>
       <c r="G131" t="n">
-        <v>912.8846654348757</v>
+        <v>912.8496146875634</v>
       </c>
       <c r="H131" t="n">
         <v>1.56</v>
       </c>
       <c r="I131" t="n">
-        <v>11193.69</v>
+        <v>11275.15</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>596438537</v>
+        <v>600077380</v>
       </c>
       <c r="E132" t="n">
-        <v>2309918456</v>
+        <v>2324011157</v>
       </c>
       <c r="F132" t="n">
-        <v>467481.1468423074</v>
+        <v>758113.0022824366</v>
       </c>
       <c r="G132" t="n">
-        <v>882020.4280566862</v>
+        <v>1132895.670773596</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32966872</v>
+        <v>32889515</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3677391</v>
+        <v>3678358</v>
       </c>
       <c r="E133" t="n">
-        <v>6268613</v>
+        <v>6270261</v>
       </c>
       <c r="F133" t="n">
-        <v>5256.338625393249</v>
+        <v>5252.296287803215</v>
       </c>
       <c r="G133" t="n">
-        <v>5321.790042551568</v>
+        <v>5649.34036022269</v>
       </c>
       <c r="H133" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1280500</v>
+        <v>1276848</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>119468177</v>
+        <v>121264864</v>
       </c>
       <c r="E134" t="n">
-        <v>1038702376</v>
+        <v>1054323460</v>
       </c>
       <c r="F134" t="n">
-        <v>118815.0543197985</v>
+        <v>108475.2871222924</v>
       </c>
       <c r="G134" t="n">
-        <v>98248.02288600654</v>
+        <v>123402.0408495809</v>
       </c>
       <c r="H134" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>8879646</v>
+        <v>9075963</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1017974886</v>
+        <v>991206253</v>
       </c>
       <c r="E135" t="n">
-        <v>1118248203</v>
+        <v>1088842786</v>
       </c>
       <c r="F135" t="n">
-        <v>18444.0087609312</v>
+        <v>11304.51270699061</v>
       </c>
       <c r="G135" t="n">
-        <v>11682.70415165474</v>
+        <v>18518.95300586077</v>
       </c>
       <c r="H135" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I135" t="n">
-        <v>10022937</v>
+        <v>9917026</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1092750</v>
+        <v>1102071</v>
       </c>
       <c r="E136" t="n">
-        <v>4231368</v>
+        <v>4267458</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>390466</v>
+        <v>386353</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>116517371</v>
+        <v>117864503</v>
       </c>
       <c r="E137" t="n">
-        <v>446979388</v>
+        <v>452147204</v>
       </c>
       <c r="F137" t="n">
-        <v>162764.5669420917</v>
+        <v>123923.2737997245</v>
       </c>
       <c r="G137" t="n">
-        <v>267249.2293130882</v>
+        <v>246676.8598063767</v>
       </c>
       <c r="H137" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>31060183</v>
+        <v>30984024</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3175939</v>
+        <v>3175286</v>
       </c>
       <c r="E138" t="n">
-        <v>30092494</v>
+        <v>30086302</v>
       </c>
       <c r="F138" t="n">
-        <v>4530.98182481216</v>
+        <v>4534.933714028354</v>
       </c>
       <c r="G138" t="n">
-        <v>4660.105460429784</v>
+        <v>4652.593247304229</v>
       </c>
       <c r="H138" t="n">
         <v>0.53</v>
       </c>
       <c r="I138" t="n">
-        <v>203705</v>
+        <v>204147</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22830027</v>
+        <v>23386360</v>
       </c>
       <c r="E139" t="n">
-        <v>22830027</v>
+        <v>23386360</v>
       </c>
       <c r="F139" t="n">
-        <v>8527.199555337376</v>
+        <v>5409.05953028451</v>
       </c>
       <c r="G139" t="n">
-        <v>869.7760330876652</v>
+        <v>2141.470832157609</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="I139" t="n">
-        <v>613571</v>
+        <v>629868</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494422284</v>
+        <v>494366712</v>
       </c>
       <c r="E140" t="n">
-        <v>494422284</v>
+        <v>494366712</v>
       </c>
       <c r="F140" t="n">
-        <v>949789.4091973779</v>
+        <v>955578.7058739058</v>
       </c>
       <c r="G140" t="n">
-        <v>1013566.865626529</v>
+        <v>1010094.15847835</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33445901</v>
+        <v>33120953</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31803704</v>
+        <v>31595440</v>
       </c>
       <c r="F141" t="n">
-        <v>46207.81479623067</v>
+        <v>56103.41097436858</v>
       </c>
       <c r="G141" t="n">
-        <v>44509.44159466287</v>
+        <v>68059.44626000394</v>
       </c>
       <c r="H141" t="n">
         <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>5544319</v>
+        <v>5384791</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>751776</v>
+        <v>749747</v>
       </c>
       <c r="E142" t="n">
-        <v>11990561</v>
+        <v>11958194</v>
       </c>
       <c r="F142" t="n">
-        <v>458.9261355644916</v>
+        <v>445.9185539820692</v>
       </c>
       <c r="G142" t="n">
-        <v>50.95663014484602</v>
+        <v>50.95467363485661</v>
       </c>
       <c r="H142" t="n">
         <v>0.82</v>
       </c>
       <c r="I142" t="n">
-        <v>63390</v>
+        <v>63014</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2622375967</v>
+        <v>2628431362</v>
       </c>
       <c r="E143" t="n">
-        <v>2784280927</v>
+        <v>2790710180</v>
       </c>
       <c r="F143" t="n">
-        <v>3822.39548307734</v>
+        <v>3621.191605561692</v>
       </c>
       <c r="G143" t="n">
-        <v>20317.22183061852</v>
+        <v>19637.14086062527</v>
       </c>
       <c r="H143" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>37643353</v>
+        <v>36998646</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1693918</v>
+        <v>1705915</v>
       </c>
       <c r="E144" t="n">
-        <v>1699897</v>
+        <v>1711936</v>
       </c>
       <c r="F144" t="n">
-        <v>706.4433715128716</v>
+        <v>254.7268045095199</v>
       </c>
       <c r="G144" t="n">
-        <v>637.3557328863126</v>
+        <v>470.9270293093071</v>
       </c>
       <c r="H144" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="I144" t="n">
-        <v>422041</v>
+        <v>425207</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60936316</v>
+        <v>60502034</v>
       </c>
       <c r="E145" t="n">
-        <v>149472653</v>
+        <v>148407388</v>
       </c>
       <c r="F145" t="n">
-        <v>3593.369847777637</v>
+        <v>3164.074405297948</v>
       </c>
       <c r="G145" t="n">
-        <v>5359.096649544794</v>
+        <v>5458.684627966555</v>
       </c>
       <c r="H145" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22541907</v>
+        <v>22498660</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>714965047</v>
+        <v>714995077</v>
       </c>
       <c r="E146" t="n">
-        <v>1102539228</v>
+        <v>1102585536</v>
       </c>
       <c r="F146" t="n">
-        <v>141867.9645416607</v>
+        <v>156489.0176043088</v>
       </c>
       <c r="G146" t="n">
-        <v>146171.9150769485</v>
+        <v>148292.734001107</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>224090408</v>
+        <v>209103319</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22498715</v>
+        <v>22669607</v>
       </c>
       <c r="E147" t="n">
-        <v>22498715</v>
+        <v>22669607</v>
       </c>
       <c r="F147" t="n">
-        <v>5113.839517594476</v>
+        <v>5030.963920253455</v>
       </c>
       <c r="G147" t="n">
-        <v>7943.093897016866</v>
+        <v>8097.449970863775</v>
       </c>
       <c r="H147" t="n">
-        <v>0.65</v>
+        <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>6005222</v>
+        <v>5816350</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3813219</v>
+        <v>3817411</v>
       </c>
       <c r="E148" t="n">
-        <v>8320395</v>
+        <v>8329542</v>
       </c>
       <c r="F148" t="n">
-        <v>5695.860299147996</v>
+        <v>5677.613768233546</v>
       </c>
       <c r="G148" t="n">
-        <v>5678.433074647044</v>
+        <v>5680.672651968188</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1277688</v>
+        <v>1336615</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9352668</v>
+        <v>9352746</v>
       </c>
       <c r="E149" t="n">
-        <v>9352668</v>
+        <v>9352746</v>
       </c>
       <c r="F149" t="n">
-        <v>90566.60270592495</v>
+        <v>385963.8130393813</v>
       </c>
       <c r="G149" t="n">
-        <v>82359.70363982517</v>
+        <v>693211.1314839568</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>2942055</v>
+        <v>2894177</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>486712450</v>
+        <v>487493543</v>
       </c>
       <c r="E150" t="n">
-        <v>1694205531</v>
+        <v>1696924454</v>
       </c>
       <c r="F150" t="n">
-        <v>792770.4941300527</v>
+        <v>772614.1699877052</v>
       </c>
       <c r="G150" t="n">
-        <v>949011.2692783149</v>
+        <v>937416.1030314207</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>29822507</v>
+        <v>29354267</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48368149</v>
+        <v>48333532</v>
       </c>
       <c r="E151" t="n">
-        <v>119373068</v>
+        <v>119287638</v>
       </c>
       <c r="F151" t="n">
-        <v>8299.878587278312</v>
+        <v>8482.971459529688</v>
       </c>
       <c r="G151" t="n">
-        <v>5426.363602059176</v>
+        <v>7992.483614415491</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>34667</v>
+        <v>33470</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7628286</v>
+        <v>7643424</v>
       </c>
       <c r="E152" t="n">
-        <v>19817466</v>
+        <v>19856794</v>
       </c>
       <c r="F152" t="n">
-        <v>1712.300243543396</v>
+        <v>1869.493138023433</v>
       </c>
       <c r="G152" t="n">
-        <v>6088.424166772144</v>
+        <v>5978.446653308183</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>708567</v>
+        <v>705890</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19192873659</v>
+        <v>19197303852</v>
       </c>
       <c r="F153" t="n">
-        <v>52447.90260930575</v>
+        <v>52445.88884102698</v>
       </c>
       <c r="G153" t="n">
-        <v>49999.58510491104</v>
+        <v>49997.66534123267</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>48688629</v>
+        <v>48255667</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2619910</v>
+        <v>2629725</v>
       </c>
       <c r="E154" t="n">
-        <v>10479641</v>
+        <v>10518900</v>
       </c>
       <c r="F154" t="n">
-        <v>6182.524112428693</v>
+        <v>10417.04880127977</v>
       </c>
       <c r="G154" t="n">
-        <v>22672.84241049802</v>
+        <v>23620.97874883492</v>
       </c>
       <c r="H154" t="n">
         <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>7013523</v>
+        <v>6964229</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>215485109</v>
+        <v>216559877</v>
       </c>
       <c r="E155" t="n">
-        <v>662535619</v>
+        <v>665840125</v>
       </c>
       <c r="F155" t="n">
-        <v>174253.4114750914</v>
+        <v>170018.8485832693</v>
       </c>
       <c r="G155" t="n">
-        <v>157049.1627330226</v>
+        <v>163052.4239976576</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11854929</v>
+        <v>11889862</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>394876668</v>
+        <v>398600526</v>
       </c>
       <c r="E156" t="n">
-        <v>2256438102</v>
+        <v>2277717290</v>
       </c>
       <c r="F156" t="n">
-        <v>219490.5782660104</v>
+        <v>172556.9573197548</v>
       </c>
       <c r="G156" t="n">
-        <v>237630.5898344721</v>
+        <v>281112.1960888539</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>38869126</v>
+        <v>37921726</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4012784</v>
+        <v>3975220</v>
       </c>
       <c r="F2" t="n">
-        <v>1597.161124032094</v>
+        <v>1689.373846947928</v>
       </c>
       <c r="G2" t="n">
-        <v>1260.648026643251</v>
+        <v>923.709005728954</v>
       </c>
       <c r="H2" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="I2" t="n">
-        <v>46836</v>
+        <v>121853</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603721846</v>
+        <v>605559370</v>
       </c>
       <c r="E3" t="n">
-        <v>1171496246</v>
+        <v>1175064799</v>
       </c>
       <c r="F3" t="n">
-        <v>64834.41064994357</v>
+        <v>81598.2977202652</v>
       </c>
       <c r="G3" t="n">
-        <v>72286.85209484596</v>
+        <v>71547.14556353774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>22405622</v>
+        <v>19965968</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245879539</v>
+        <v>245178661</v>
       </c>
       <c r="E4" t="n">
-        <v>1541876027</v>
+        <v>1537480923</v>
       </c>
       <c r="F4" t="n">
-        <v>329137.3199095315</v>
+        <v>345383.194839981</v>
       </c>
       <c r="G4" t="n">
-        <v>276801.5164625206</v>
+        <v>236987.4622166274</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>16468099</v>
+        <v>16501636</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143203832</v>
+        <v>143829368</v>
       </c>
       <c r="E5" t="n">
-        <v>158692226</v>
+        <v>159385418</v>
       </c>
       <c r="F5" t="n">
-        <v>8699.920772211923</v>
+        <v>8282.790767452145</v>
       </c>
       <c r="G5" t="n">
-        <v>461.7229770053474</v>
+        <v>453.3804167260772</v>
       </c>
       <c r="H5" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="I5" t="n">
-        <v>35900962</v>
+        <v>36179003</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48093915</v>
+        <v>48830628</v>
       </c>
       <c r="E6" t="n">
-        <v>60164254</v>
+        <v>61085863</v>
       </c>
       <c r="F6" t="n">
-        <v>6161.466923974808</v>
+        <v>7959.811596107847</v>
       </c>
       <c r="G6" t="n">
-        <v>6327.520416166586</v>
+        <v>5039.02479110146</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>600536</v>
+        <v>601486</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69400271</v>
+        <v>69492203</v>
       </c>
       <c r="E7" t="n">
-        <v>138221853</v>
+        <v>138404950</v>
       </c>
       <c r="F7" t="n">
-        <v>10165.63742527901</v>
+        <v>10058.72523574813</v>
       </c>
       <c r="G7" t="n">
-        <v>12793.12840065782</v>
+        <v>12605.93282731158</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1139462</v>
+        <v>1106200</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40801406</v>
+        <v>40833113</v>
       </c>
       <c r="E8" t="n">
-        <v>45662651</v>
+        <v>45698135</v>
       </c>
       <c r="F8" t="n">
-        <v>7126.268718100266</v>
+        <v>7677.905401129231</v>
       </c>
       <c r="G8" t="n">
-        <v>6834.70077663003</v>
+        <v>6667.475055505045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3617504</v>
+        <v>3693144</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14293204</v>
+        <v>14197195</v>
       </c>
       <c r="E9" t="n">
-        <v>42121150</v>
+        <v>41838218</v>
       </c>
       <c r="F9" t="n">
-        <v>4720.851490646076</v>
+        <v>5060.139204337283</v>
       </c>
       <c r="G9" t="n">
-        <v>5483.187486396822</v>
+        <v>4748.787763215964</v>
       </c>
       <c r="H9" t="n">
-        <v>0.73</v>
+        <v>1.25</v>
       </c>
       <c r="I9" t="n">
-        <v>866661</v>
+        <v>880065</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9243515</v>
+        <v>11224107</v>
       </c>
       <c r="E10" t="n">
-        <v>39730868</v>
+        <v>48243932</v>
       </c>
       <c r="F10" t="n">
-        <v>3660.74728569849</v>
+        <v>1257.304351118166</v>
       </c>
       <c r="G10" t="n">
-        <v>2693.570651324378</v>
+        <v>2.101386526267667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>3.06</v>
       </c>
       <c r="I10" t="n">
-        <v>792801</v>
+        <v>928942</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>576205165</v>
+        <v>582876959</v>
       </c>
       <c r="E11" t="n">
-        <v>720747022</v>
+        <v>729092444</v>
       </c>
       <c r="F11" t="n">
-        <v>307211.0467483443</v>
+        <v>268466.5232064952</v>
       </c>
       <c r="G11" t="n">
-        <v>288867.6930869386</v>
+        <v>342259.8804164307</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>51432998</v>
+        <v>53049631</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4523610</v>
+        <v>4528896</v>
       </c>
       <c r="E12" t="n">
-        <v>27785305</v>
+        <v>27817771</v>
       </c>
       <c r="F12" t="n">
-        <v>10020.78940438579</v>
+        <v>215.9477922258755</v>
       </c>
       <c r="G12" t="n">
-        <v>7811.018989015624</v>
+        <v>783.4311789171849</v>
       </c>
       <c r="H12" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="I12" t="n">
-        <v>621044</v>
+        <v>633814</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23308849</v>
+        <v>23193771</v>
       </c>
       <c r="E13" t="n">
-        <v>23352329</v>
+        <v>23237036</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>861153</v>
+        <v>852379</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81320365</v>
+        <v>81215292</v>
       </c>
       <c r="E14" t="n">
-        <v>239254598</v>
+        <v>238945462</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>328587</v>
+        <v>357327</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>475083512</v>
+        <v>477012375</v>
       </c>
       <c r="E15" t="n">
-        <v>475083512</v>
+        <v>477012375</v>
       </c>
       <c r="F15" t="n">
-        <v>19877.27141936066</v>
+        <v>18807.06241661883</v>
       </c>
       <c r="G15" t="n">
-        <v>20148.40352077168</v>
+        <v>17972.73362990881</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>71401530</v>
+        <v>86447596</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4683833</v>
+        <v>4659147</v>
       </c>
       <c r="E16" t="n">
-        <v>4683833</v>
+        <v>4659147</v>
       </c>
       <c r="F16" t="n">
-        <v>358.4862028693158</v>
+        <v>405.5329203392075</v>
       </c>
       <c r="G16" t="n">
-        <v>1204.289868012284</v>
+        <v>471.6226622047832</v>
       </c>
       <c r="H16" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="I16" t="n">
-        <v>2025971</v>
+        <v>2001827</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3374442</v>
+        <v>3391184</v>
       </c>
       <c r="E17" t="n">
-        <v>3374442</v>
+        <v>3391184</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>519122</v>
+        <v>520171</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167532005</v>
+        <v>167521780</v>
       </c>
       <c r="E18" t="n">
-        <v>207411599</v>
+        <v>207398939</v>
       </c>
       <c r="F18" t="n">
-        <v>4768.994585222089</v>
+        <v>8771.30406666337</v>
       </c>
       <c r="G18" t="n">
-        <v>13100.54503357302</v>
+        <v>8288.188024900834</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="I18" t="n">
-        <v>443121</v>
+        <v>437543</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6928267</v>
+        <v>7030910</v>
       </c>
       <c r="E19" t="n">
-        <v>9541994</v>
+        <v>9683359</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>556973</v>
+        <v>523326</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>907017</v>
+        <v>904007</v>
       </c>
       <c r="E20" t="n">
-        <v>6349116</v>
+        <v>6328052</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>179350</v>
+        <v>154114</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>111168025</v>
+        <v>112387204</v>
       </c>
       <c r="E21" t="n">
-        <v>432578237</v>
+        <v>437296995</v>
       </c>
       <c r="F21" t="n">
-        <v>33976.44736510477</v>
+        <v>41242.01740939615</v>
       </c>
       <c r="G21" t="n">
-        <v>71698.83883254384</v>
+        <v>75365.3742815398</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>8123899</v>
+        <v>8519557</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1683777</v>
+        <v>1686509</v>
       </c>
       <c r="E22" t="n">
-        <v>12128101</v>
+        <v>12147782</v>
       </c>
       <c r="F22" t="n">
-        <v>4827.503322596845</v>
+        <v>36.73117907963022</v>
       </c>
       <c r="G22" t="n">
-        <v>4371.257852384693</v>
+        <v>6.877761816079403</v>
       </c>
       <c r="H22" t="n">
-        <v>0.29</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>68030</v>
+        <v>68248</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137776971</v>
+        <v>138564312</v>
       </c>
       <c r="E23" t="n">
-        <v>137776971</v>
+        <v>138564312</v>
       </c>
       <c r="F23" t="n">
-        <v>1141506.347403339</v>
+        <v>1013713.743951761</v>
       </c>
       <c r="G23" t="n">
-        <v>1148114.981628462</v>
+        <v>1255981.797387957</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>63748612</v>
+        <v>64995155</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65301711</v>
+        <v>65365741</v>
       </c>
       <c r="E24" t="n">
-        <v>334880567</v>
+        <v>335208929</v>
       </c>
       <c r="F24" t="n">
-        <v>102628.4814920394</v>
+        <v>77704.44277678766</v>
       </c>
       <c r="G24" t="n">
-        <v>117325.5270682159</v>
+        <v>146658.2879661717</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>21427071</v>
+        <v>21613000</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>252856287</v>
+        <v>253972952</v>
       </c>
       <c r="E25" t="n">
-        <v>252856287</v>
+        <v>253972952</v>
       </c>
       <c r="F25" t="n">
-        <v>343191.8189583394</v>
+        <v>298076.7583156849</v>
       </c>
       <c r="G25" t="n">
-        <v>454781.3250623194</v>
+        <v>528864.7890098559</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>14817314</v>
+        <v>14521405</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1127059</v>
+        <v>1123749</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>181116</v>
+        <v>181283</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3941879</v>
+        <v>3963914</v>
       </c>
       <c r="E28" t="n">
-        <v>3942876</v>
+        <v>3964916</v>
       </c>
       <c r="F28" t="n">
-        <v>1430.842011609919</v>
+        <v>770.4415122528518</v>
       </c>
       <c r="G28" t="n">
-        <v>2714.883982383139</v>
+        <v>3412.106409303048</v>
       </c>
       <c r="H28" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="I28" t="n">
-        <v>275583</v>
+        <v>271422</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6791552</v>
+        <v>6832661</v>
       </c>
       <c r="E29" t="n">
-        <v>16496157</v>
+        <v>16596009</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>482985</v>
+        <v>485022</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99567828</v>
+        <v>99819506</v>
       </c>
       <c r="E30" t="n">
-        <v>124149409</v>
+        <v>124463223</v>
       </c>
       <c r="F30" t="n">
-        <v>119765.741121692</v>
+        <v>110887.2814733787</v>
       </c>
       <c r="G30" t="n">
-        <v>119250.3011347987</v>
+        <v>122828.135244705</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10437281</v>
+        <v>10290760</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1129352</v>
+        <v>1129165</v>
       </c>
       <c r="E31" t="n">
-        <v>12273373</v>
+        <v>12271339</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31172</v>
+        <v>31167</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>76187540</v>
+        <v>78232881</v>
       </c>
       <c r="E32" t="n">
-        <v>213241685</v>
+        <v>218918329</v>
       </c>
       <c r="F32" t="n">
-        <v>40726.6536925574</v>
+        <v>66642.48408815062</v>
       </c>
       <c r="G32" t="n">
-        <v>59939.01336846523</v>
+        <v>80781.36434562496</v>
       </c>
       <c r="H32" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>33997726</v>
+        <v>34448960</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4141223</v>
+        <v>4141556</v>
       </c>
       <c r="E33" t="n">
-        <v>8166841</v>
+        <v>8167498</v>
       </c>
       <c r="F33" t="n">
-        <v>7724.821144572315</v>
+        <v>8790.360041277085</v>
       </c>
       <c r="G33" t="n">
-        <v>10346.84444412594</v>
+        <v>10054.16498634072</v>
       </c>
       <c r="H33" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>1618823</v>
+        <v>1620499</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37267760</v>
+        <v>37324247</v>
       </c>
       <c r="F34" t="n">
-        <v>714.0792160731763</v>
+        <v>735.4317842983899</v>
       </c>
       <c r="G34" t="n">
-        <v>637.8701783251486</v>
+        <v>423.8213755105344</v>
       </c>
       <c r="H34" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="I34" t="n">
-        <v>77999</v>
+        <v>79006</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7639252</v>
+        <v>7643033</v>
       </c>
       <c r="E35" t="n">
-        <v>17991957</v>
+        <v>18000861</v>
       </c>
       <c r="F35" t="n">
-        <v>3432.867965444209</v>
+        <v>3431.638580230951</v>
       </c>
       <c r="G35" t="n">
-        <v>2673.743184963586</v>
+        <v>2683.74495101427</v>
       </c>
       <c r="H35" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="I35" t="n">
-        <v>32012</v>
+        <v>29862</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23096536</v>
+        <v>23072352</v>
       </c>
       <c r="F36" t="n">
-        <v>123.9755238638335</v>
+        <v>106.7918393471911</v>
       </c>
       <c r="G36" t="n">
-        <v>5497.662733070499</v>
+        <v>5553.196236939387</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="I36" t="n">
-        <v>123772</v>
+        <v>124812</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74522029</v>
+        <v>75336555</v>
       </c>
       <c r="E37" t="n">
-        <v>155416273</v>
+        <v>157114975</v>
       </c>
       <c r="F37" t="n">
-        <v>86680.82585532896</v>
+        <v>74975.28129420677</v>
       </c>
       <c r="G37" t="n">
-        <v>108971.8529984129</v>
+        <v>134722.4355292922</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>16060050</v>
+        <v>15800724</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>271929120</v>
+        <v>271908844</v>
       </c>
       <c r="E38" t="n">
-        <v>271929120</v>
+        <v>271908844</v>
       </c>
       <c r="F38" t="n">
-        <v>31288.89454634208</v>
+        <v>43706.93713965044</v>
       </c>
       <c r="G38" t="n">
-        <v>38418.664253373</v>
+        <v>35439.78759435697</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="I38" t="n">
-        <v>9655603</v>
+        <v>9585401</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>201375859</v>
+        <v>202289555</v>
       </c>
       <c r="E39" t="n">
-        <v>699597935</v>
+        <v>702772196</v>
       </c>
       <c r="F39" t="n">
-        <v>168975.726655419</v>
+        <v>100714.5902802219</v>
       </c>
       <c r="G39" t="n">
-        <v>338754.276911628</v>
+        <v>236415.3125794529</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>27270348</v>
+        <v>27641362</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3512698</v>
+        <v>3439775</v>
       </c>
       <c r="E40" t="n">
-        <v>3512698</v>
+        <v>3439775</v>
       </c>
       <c r="F40" t="n">
-        <v>2253.209739346313</v>
+        <v>1824.335896247751</v>
       </c>
       <c r="G40" t="n">
-        <v>589.9975059046479</v>
+        <v>1606.517998684089</v>
       </c>
       <c r="H40" t="n">
         <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>2777296</v>
+        <v>2734469</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114709454</v>
+        <v>115532144</v>
       </c>
       <c r="E41" t="n">
-        <v>487492570</v>
+        <v>490937538</v>
       </c>
       <c r="F41" t="n">
-        <v>5333.123147539478</v>
+        <v>5442.243825502875</v>
       </c>
       <c r="G41" t="n">
-        <v>6562.71330368798</v>
+        <v>6158.570831578434</v>
       </c>
       <c r="H41" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I41" t="n">
-        <v>14547189</v>
+        <v>14676739</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>645584</v>
+        <v>585927</v>
       </c>
       <c r="E42" t="n">
-        <v>7830303</v>
+        <v>7106724</v>
       </c>
       <c r="F42" t="n">
-        <v>526.8982130962878</v>
+        <v>909.3965187992442</v>
       </c>
       <c r="G42" t="n">
-        <v>1060.474591125483</v>
+        <v>825.0940951473258</v>
       </c>
       <c r="H42" t="n">
-        <v>1.67</v>
+        <v>0.86</v>
       </c>
       <c r="I42" t="n">
-        <v>2876932</v>
+        <v>2842650</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1275663512</v>
+        <v>1304177347</v>
       </c>
       <c r="E43" t="n">
-        <v>6117067791</v>
+        <v>6253797466</v>
       </c>
       <c r="F43" t="n">
-        <v>56862.79998854865</v>
+        <v>94264.94876483057</v>
       </c>
       <c r="G43" t="n">
-        <v>67585.56376864009</v>
+        <v>91200.72893903729</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I43" t="n">
-        <v>159749301</v>
+        <v>164903921</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6051401788</v>
+        <v>6050233048</v>
       </c>
       <c r="E44" t="n">
-        <v>6051401788</v>
+        <v>6050233048</v>
       </c>
       <c r="F44" t="n">
-        <v>829114.8020496143</v>
+        <v>817970.990953767</v>
       </c>
       <c r="G44" t="n">
-        <v>1857990.355987065</v>
+        <v>1856862.38992299</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>95665866</v>
+        <v>94547027</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>268526438</v>
+        <v>270433125</v>
       </c>
       <c r="E45" t="n">
-        <v>1159109178</v>
+        <v>1167339498</v>
       </c>
       <c r="F45" t="n">
-        <v>102603.9917476888</v>
+        <v>109117.005667134</v>
       </c>
       <c r="G45" t="n">
-        <v>91491.16331854957</v>
+        <v>103771.5662533763</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>99154612</v>
+        <v>98996607</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114557499</v>
+        <v>115175973</v>
       </c>
       <c r="E46" t="n">
-        <v>114557499</v>
+        <v>115175973</v>
       </c>
       <c r="F46" t="n">
-        <v>27209.39970129252</v>
+        <v>32881.96243208505</v>
       </c>
       <c r="G46" t="n">
-        <v>51148.3611316668</v>
+        <v>38797.92882312551</v>
       </c>
       <c r="H46" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6168397</v>
+        <v>6244228</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042832609</v>
+        <v>2042773883</v>
       </c>
       <c r="E47" t="n">
-        <v>2042832609</v>
+        <v>2042773883</v>
       </c>
       <c r="F47" t="n">
-        <v>225272.0931452842</v>
+        <v>225308.1037854366</v>
       </c>
       <c r="G47" t="n">
-        <v>199317.7234590241</v>
+        <v>199281.1762837257</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6411049969</v>
+        <v>6508788082</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9812323</v>
+        <v>9885659</v>
       </c>
       <c r="F48" t="n">
-        <v>6600.860918700785</v>
+        <v>6825.286184061735</v>
       </c>
       <c r="G48" t="n">
-        <v>6158.240140746581</v>
+        <v>6691.912097012332</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>160090</v>
+        <v>162346</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4385408</v>
+        <v>4435811</v>
       </c>
       <c r="E49" t="n">
-        <v>5757468</v>
+        <v>5823641</v>
       </c>
       <c r="F49" t="n">
-        <v>12554.82389941417</v>
+        <v>5925.502232641984</v>
       </c>
       <c r="G49" t="n">
-        <v>9946.399685199802</v>
+        <v>16428.46307379911</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>556455</v>
+        <v>574684</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12196697</v>
+        <v>12230838</v>
       </c>
       <c r="E50" t="n">
-        <v>17935012</v>
+        <v>17985217</v>
       </c>
       <c r="F50" t="n">
-        <v>6614.081527178942</v>
+        <v>6614.074822017444</v>
       </c>
       <c r="G50" t="n">
-        <v>5975.068497562783</v>
+        <v>5975.062440213916</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2291822</v>
+        <v>2310701</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22825551</v>
+        <v>22570319</v>
       </c>
       <c r="E51" t="n">
-        <v>29609961</v>
+        <v>29278866</v>
       </c>
       <c r="F51" t="n">
-        <v>14174.56014956362</v>
+        <v>10597.5755094178</v>
       </c>
       <c r="G51" t="n">
-        <v>13119.82284659296</v>
+        <v>8327.752046530615</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>282320</v>
+        <v>166677</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13569136</v>
+        <v>13525621</v>
       </c>
       <c r="E52" t="n">
-        <v>13569136</v>
+        <v>13525621</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4717000</v>
+        <v>4766256</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97958731</v>
+        <v>98175459</v>
       </c>
       <c r="E53" t="n">
-        <v>121171444</v>
+        <v>121439529</v>
       </c>
       <c r="F53" t="n">
-        <v>280.6780122506699</v>
+        <v>327.6671799595444</v>
       </c>
       <c r="G53" t="n">
-        <v>4240.205860905576</v>
+        <v>1887.435254209356</v>
       </c>
       <c r="H53" t="n">
         <v>0.66</v>
       </c>
       <c r="I53" t="n">
-        <v>829978</v>
+        <v>809942</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5209641</v>
+        <v>5234447</v>
       </c>
       <c r="E54" t="n">
-        <v>7289043</v>
+        <v>7323751</v>
       </c>
       <c r="F54" t="n">
-        <v>9.431792155714234</v>
+        <v>39.81803733589508</v>
       </c>
       <c r="G54" t="n">
-        <v>224.2451872376186</v>
+        <v>250.0729929447373</v>
       </c>
       <c r="H54" t="n">
-        <v>2.97</v>
+        <v>2.67</v>
       </c>
       <c r="I54" t="n">
-        <v>116247</v>
+        <v>111905</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14310142</v>
+        <v>14571451</v>
       </c>
       <c r="E55" t="n">
-        <v>69306300</v>
+        <v>70571863</v>
       </c>
       <c r="F55" t="n">
-        <v>27531.35272129882</v>
+        <v>31197.13234215245</v>
       </c>
       <c r="G55" t="n">
-        <v>25868.02709911391</v>
+        <v>27945.91437963102</v>
       </c>
       <c r="H55" t="n">
-        <v>0.57</v>
+        <v>0.18</v>
       </c>
       <c r="I55" t="n">
-        <v>3719693</v>
+        <v>3621851</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>61385</v>
+        <v>61371</v>
       </c>
       <c r="E56" t="n">
-        <v>147031</v>
+        <v>146996</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4760.02</v>
+        <v>4710.26</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1920420365</v>
+        <v>1929084890</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26898936</v>
+        <v>27468240</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12258385</v>
+        <v>12205442</v>
       </c>
       <c r="E58" t="n">
-        <v>17772890</v>
+        <v>17696130</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1906023</v>
+        <v>2008090</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125066755</v>
+        <v>125200851</v>
       </c>
       <c r="E59" t="n">
-        <v>332606272</v>
+        <v>332962892</v>
       </c>
       <c r="F59" t="n">
-        <v>8321.543394888542</v>
+        <v>8330.335187962803</v>
       </c>
       <c r="G59" t="n">
-        <v>7271.480993206233</v>
+        <v>7267.472268445906</v>
       </c>
       <c r="H59" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="I59" t="n">
-        <v>1029919</v>
+        <v>979906</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31550151</v>
+        <v>31634365</v>
       </c>
       <c r="E60" t="n">
-        <v>98237048</v>
+        <v>98499263</v>
       </c>
       <c r="F60" t="n">
-        <v>3374.064619590243</v>
+        <v>4067.129505434616</v>
       </c>
       <c r="G60" t="n">
-        <v>6434.368779290679</v>
+        <v>8239.429761231077</v>
       </c>
       <c r="H60" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="I60" t="n">
-        <v>11635766</v>
+        <v>11649653</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2059511</v>
+        <v>2047908</v>
       </c>
       <c r="E61" t="n">
-        <v>14768548</v>
+        <v>14685340</v>
       </c>
       <c r="F61" t="n">
-        <v>1113.902591678185</v>
+        <v>350.8170740854092</v>
       </c>
       <c r="G61" t="n">
-        <v>5155.327977415474</v>
+        <v>5018.878079568476</v>
       </c>
       <c r="H61" t="n">
-        <v>0.54</v>
+        <v>1.08</v>
       </c>
       <c r="I61" t="n">
-        <v>1974428</v>
+        <v>1974160</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199398838</v>
+        <v>199913321</v>
       </c>
       <c r="E62" t="n">
-        <v>1129118743</v>
+        <v>1132032061</v>
       </c>
       <c r="F62" t="n">
-        <v>618711.0614089154</v>
+        <v>671746.2473203028</v>
       </c>
       <c r="G62" t="n">
-        <v>875493.90235517</v>
+        <v>676079.5544942932</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>62095776</v>
+        <v>62384886</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>501877</v>
+        <v>505904</v>
       </c>
       <c r="E63" t="n">
-        <v>1689250</v>
+        <v>1702801</v>
       </c>
       <c r="F63" t="n">
-        <v>4549.387227231677</v>
+        <v>4533.872618617368</v>
       </c>
       <c r="G63" t="n">
-        <v>387.9576634247605</v>
+        <v>451.0092015838392</v>
       </c>
       <c r="H63" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>631258</v>
+        <v>544825</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343120</v>
+        <v>337659</v>
       </c>
       <c r="E64" t="n">
-        <v>343120</v>
+        <v>337659</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4865.96</v>
+        <v>5238.44</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>139938345</v>
+        <v>140179169</v>
       </c>
       <c r="E65" t="n">
-        <v>1036580337</v>
+        <v>1038364212</v>
       </c>
       <c r="F65" t="n">
-        <v>35380.86055306469</v>
+        <v>35346.5270958392</v>
       </c>
       <c r="G65" t="n">
-        <v>40684.57426055134</v>
+        <v>39817.95523270243</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>9978998</v>
+        <v>9898370</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8027275</v>
+        <v>8021566</v>
       </c>
       <c r="E66" t="n">
-        <v>10753872</v>
+        <v>10746224</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59252</v>
+        <v>59142</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26331020</v>
+        <v>26346777</v>
       </c>
       <c r="E67" t="n">
-        <v>26331020</v>
+        <v>26346777</v>
       </c>
       <c r="F67" t="n">
-        <v>7636.236433505195</v>
+        <v>7630.081097485342</v>
       </c>
       <c r="G67" t="n">
-        <v>6155.923898926344</v>
+        <v>6228.940038875031</v>
       </c>
       <c r="H67" t="n">
         <v>0.34</v>
       </c>
       <c r="I67" t="n">
-        <v>309076</v>
+        <v>314075</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1576158</v>
+        <v>1577704</v>
       </c>
       <c r="E68" t="n">
-        <v>12240623</v>
+        <v>12252628</v>
       </c>
       <c r="F68" t="n">
-        <v>8606.610479116496</v>
+        <v>10387.69525054928</v>
       </c>
       <c r="G68" t="n">
-        <v>20342.04415585756</v>
+        <v>18212.44966871277</v>
       </c>
       <c r="H68" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="I68" t="n">
-        <v>484443</v>
+        <v>495425</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>338525047</v>
+        <v>338276037</v>
       </c>
       <c r="E69" t="n">
-        <v>3045581238</v>
+        <v>3043340985</v>
       </c>
       <c r="F69" t="n">
-        <v>1200656.204034185</v>
+        <v>1379336.539160211</v>
       </c>
       <c r="G69" t="n">
-        <v>1560078.437878779</v>
+        <v>1472070.218348504</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>37032511</v>
+        <v>37743990</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>245639</v>
+        <v>246114</v>
       </c>
       <c r="E70" t="n">
-        <v>2167949</v>
+        <v>2172140</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>78196</v>
+        <v>80187</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1578205</v>
+        <v>1582518</v>
       </c>
       <c r="E71" t="n">
-        <v>13151712</v>
+        <v>13187654</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>42161</v>
+        <v>42266</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9219834</v>
+        <v>9288557</v>
       </c>
       <c r="E72" t="n">
-        <v>42734459</v>
+        <v>43052997</v>
       </c>
       <c r="F72" t="n">
-        <v>6258.064178633081</v>
+        <v>4712.806084465131</v>
       </c>
       <c r="G72" t="n">
-        <v>10022.10962724426</v>
+        <v>10609.7086419089</v>
       </c>
       <c r="H72" t="n">
-        <v>1.25</v>
+        <v>0.84</v>
       </c>
       <c r="I72" t="n">
-        <v>125305</v>
+        <v>128829</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>49860948</v>
+        <v>48718712</v>
       </c>
       <c r="E73" t="n">
-        <v>288674287</v>
+        <v>282061212</v>
       </c>
       <c r="F73" t="n">
-        <v>114829.8941004691</v>
+        <v>113001.5217974014</v>
       </c>
       <c r="G73" t="n">
-        <v>138879.1042551476</v>
+        <v>163381.4251664274</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>26341633</v>
+        <v>27301223</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40141470</v>
+        <v>39940041</v>
       </c>
       <c r="E74" t="n">
-        <v>55441087</v>
+        <v>55162885</v>
       </c>
       <c r="F74" t="n">
-        <v>4620.967680302078</v>
+        <v>4472.890037433716</v>
       </c>
       <c r="G74" t="n">
-        <v>4422.419213668248</v>
+        <v>10396.68541096286</v>
       </c>
       <c r="H74" t="n">
         <v>0.45</v>
       </c>
       <c r="I74" t="n">
-        <v>334099</v>
+        <v>332540</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97151</v>
+        <v>97768</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>551.71</v>
+        <v>291.89</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13432470</v>
+        <v>13445963</v>
       </c>
       <c r="E76" t="n">
-        <v>13478182</v>
+        <v>13491721</v>
       </c>
       <c r="F76" t="n">
-        <v>1689.063993089763</v>
+        <v>1243.571414348091</v>
       </c>
       <c r="G76" t="n">
-        <v>5474.378770833272</v>
+        <v>7901.951017264473</v>
       </c>
       <c r="H76" t="n">
         <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>5852797</v>
+        <v>5847890</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42791863</v>
+        <v>42678844</v>
       </c>
       <c r="E77" t="n">
-        <v>72650629</v>
+        <v>72458749</v>
       </c>
       <c r="F77" t="n">
-        <v>5702.751679447116</v>
+        <v>6240.332816226005</v>
       </c>
       <c r="G77" t="n">
-        <v>6813.316918006478</v>
+        <v>6171.84288756148</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1123046</v>
+        <v>1120997</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22894468</v>
+        <v>22922832</v>
       </c>
       <c r="E78" t="n">
-        <v>68627086</v>
+        <v>68712109</v>
       </c>
       <c r="F78" t="n">
-        <v>98645.04646312818</v>
+        <v>136784.37157388</v>
       </c>
       <c r="G78" t="n">
-        <v>151811.9023364508</v>
+        <v>99457.734187889</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3149259</v>
+        <v>3092650</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101449499</v>
+        <v>101385749</v>
       </c>
       <c r="E79" t="n">
-        <v>107849986</v>
+        <v>107782214</v>
       </c>
       <c r="F79" t="n">
-        <v>1838.44836396189</v>
+        <v>2701.374940998328</v>
       </c>
       <c r="G79" t="n">
-        <v>3723.189592608522</v>
+        <v>4236.822912416883</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8</v>
+        <v>0.49</v>
       </c>
       <c r="I79" t="n">
-        <v>386000</v>
+        <v>382814</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10387608</v>
+        <v>10384856</v>
       </c>
       <c r="E80" t="n">
-        <v>45133462</v>
+        <v>45153836</v>
       </c>
       <c r="F80" t="n">
-        <v>6105.875873074972</v>
+        <v>6714.439534582234</v>
       </c>
       <c r="G80" t="n">
-        <v>5695.394941765573</v>
+        <v>5219.43942108111</v>
       </c>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>115232</v>
+        <v>114050</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15523489</v>
+        <v>15616204</v>
       </c>
       <c r="E81" t="n">
-        <v>95148569</v>
+        <v>95716851</v>
       </c>
       <c r="F81" t="n">
-        <v>4162.588003850167</v>
+        <v>4102.212995409524</v>
       </c>
       <c r="G81" t="n">
-        <v>6399.192517640522</v>
+        <v>6167.010898397474</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I81" t="n">
-        <v>11196211</v>
+        <v>11000213</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1503776</v>
+        <v>1504790</v>
       </c>
       <c r="E82" t="n">
-        <v>1546075</v>
+        <v>1547119</v>
       </c>
       <c r="F82" t="n">
-        <v>6069.018309184617</v>
+        <v>4796.617982056036</v>
       </c>
       <c r="G82" t="n">
-        <v>5701.083028517049</v>
+        <v>5808.33753385013</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>147617</v>
+        <v>150611</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47213563</v>
+        <v>47370131</v>
       </c>
       <c r="E83" t="n">
-        <v>203390868</v>
+        <v>204065346</v>
       </c>
       <c r="F83" t="n">
-        <v>756.1995411226918</v>
+        <v>3402.642575158889</v>
       </c>
       <c r="G83" t="n">
-        <v>1998.30002087718</v>
+        <v>4335.517834736522</v>
       </c>
       <c r="H83" t="n">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>8931295</v>
+        <v>8977501</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1787452</v>
+        <v>1864647</v>
       </c>
       <c r="E84" t="n">
-        <v>6493877</v>
+        <v>6774212</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>122870</v>
+        <v>129379</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8988246</v>
+        <v>8993194</v>
       </c>
       <c r="E85" t="n">
-        <v>19958737</v>
+        <v>19969725</v>
       </c>
       <c r="F85" t="n">
-        <v>8471.965660979418</v>
+        <v>6220.524493076043</v>
       </c>
       <c r="G85" t="n">
-        <v>5763.387635870612</v>
+        <v>6193.453559860122</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I85" t="n">
-        <v>331530</v>
+        <v>344111</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2439510</v>
+        <v>2441560</v>
       </c>
       <c r="E86" t="n">
-        <v>18356764</v>
+        <v>18372190</v>
       </c>
       <c r="F86" t="n">
-        <v>5146.876724488335</v>
+        <v>5066.392223866088</v>
       </c>
       <c r="G86" t="n">
-        <v>12227.04098203868</v>
+        <v>12270.83707179881</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>165150</v>
+        <v>165318</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20575838</v>
+        <v>20623104</v>
       </c>
       <c r="E87" t="n">
-        <v>82303353</v>
+        <v>82492416</v>
       </c>
       <c r="F87" t="n">
-        <v>12043.07642369032</v>
+        <v>18913.61708001153</v>
       </c>
       <c r="G87" t="n">
-        <v>1165.676954113892</v>
+        <v>1270.761792803023</v>
       </c>
       <c r="H87" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="I87" t="n">
-        <v>5009105</v>
+        <v>4731509</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4203668</v>
+        <v>4203972</v>
       </c>
       <c r="E88" t="n">
-        <v>4203668</v>
+        <v>4203972</v>
       </c>
       <c r="F88" t="n">
-        <v>2197.999334440627</v>
+        <v>638.4582111829474</v>
       </c>
       <c r="G88" t="n">
-        <v>7681.151768754404</v>
+        <v>3713.133831425524</v>
       </c>
       <c r="H88" t="n">
         <v>0.48</v>
       </c>
       <c r="I88" t="n">
-        <v>2694473</v>
+        <v>2688994</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12860544</v>
+        <v>12894996</v>
       </c>
       <c r="E89" t="n">
-        <v>40686111</v>
+        <v>40795104</v>
       </c>
       <c r="F89" t="n">
-        <v>13869.37193652943</v>
+        <v>13822.33014707746</v>
       </c>
       <c r="G89" t="n">
-        <v>15877.58409991703</v>
+        <v>15908.19737329286</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="I89" t="n">
-        <v>1337270</v>
+        <v>1290403</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25891</v>
+        <v>25128</v>
       </c>
       <c r="E90" t="n">
-        <v>203626</v>
+        <v>197624</v>
       </c>
       <c r="F90" t="n">
-        <v>5519.01725291227</v>
+        <v>374.3619210178592</v>
       </c>
       <c r="G90" t="n">
-        <v>277.0632235599513</v>
+        <v>234.3566545218381</v>
       </c>
       <c r="H90" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>102015</v>
+        <v>97076</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8111888</v>
+        <v>8132912</v>
       </c>
       <c r="E91" t="n">
-        <v>8111888</v>
+        <v>8132912</v>
       </c>
       <c r="F91" t="n">
-        <v>3133.317549036361</v>
+        <v>3561.054149918245</v>
       </c>
       <c r="G91" t="n">
-        <v>4174.927748783412</v>
+        <v>3738.440354941844</v>
       </c>
       <c r="H91" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3580198</v>
+        <v>3548156</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9136055</v>
+        <v>9067131</v>
       </c>
       <c r="E92" t="n">
-        <v>9136055</v>
+        <v>9067131</v>
       </c>
       <c r="F92" t="n">
-        <v>4195.074935579407</v>
+        <v>4339.905308797665</v>
       </c>
       <c r="G92" t="n">
-        <v>6310.579579186253</v>
+        <v>5545.348421647695</v>
       </c>
       <c r="H92" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I92" t="n">
-        <v>3240721</v>
+        <v>3138409</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37631822</v>
+        <v>38147262</v>
       </c>
       <c r="E93" t="n">
-        <v>94889388</v>
+        <v>96189081</v>
       </c>
       <c r="F93" t="n">
-        <v>5260.563798536002</v>
+        <v>4405.913388597649</v>
       </c>
       <c r="G93" t="n">
-        <v>5705.579113147847</v>
+        <v>5340.44623955854</v>
       </c>
       <c r="H93" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="I93" t="n">
-        <v>3349593</v>
+        <v>3449363</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>303765456</v>
+        <v>308078064</v>
       </c>
       <c r="E94" t="n">
-        <v>308513294</v>
+        <v>312891098</v>
       </c>
       <c r="F94" t="n">
-        <v>48760.83216291154</v>
+        <v>25658.92551023549</v>
       </c>
       <c r="G94" t="n">
-        <v>56601.50502418054</v>
+        <v>5909.804930988684</v>
       </c>
       <c r="H94" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>12936846</v>
+        <v>13291731</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>756.0152992259631</v>
+        <v>1016.870492063362</v>
       </c>
       <c r="G95" t="n">
-        <v>6640.59328229018</v>
+        <v>6494.240698524563</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>212012</v>
+        <v>213631</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>85281377</v>
+        <v>86900044</v>
       </c>
       <c r="E96" t="n">
-        <v>85281377</v>
+        <v>86900044</v>
       </c>
       <c r="F96" t="n">
-        <v>6704.671032452034</v>
+        <v>7930.960138611544</v>
       </c>
       <c r="G96" t="n">
-        <v>5766.176973104926</v>
+        <v>7596.251980837478</v>
       </c>
       <c r="H96" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I96" t="n">
-        <v>5127519</v>
+        <v>5362681</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>312528765</v>
+        <v>315186046</v>
       </c>
       <c r="E97" t="n">
-        <v>312528765</v>
+        <v>315186046</v>
       </c>
       <c r="F97" t="n">
-        <v>361458.6244675791</v>
+        <v>250545.5693410958</v>
       </c>
       <c r="G97" t="n">
-        <v>431765.7690077233</v>
+        <v>433063.8651436102</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50139920</v>
+        <v>51203632</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4161586</v>
+        <v>4179179</v>
       </c>
       <c r="E98" t="n">
-        <v>28435825</v>
+        <v>28556034</v>
       </c>
       <c r="F98" t="n">
-        <v>26511.45184788875</v>
+        <v>365.6530967251431</v>
       </c>
       <c r="G98" t="n">
-        <v>27820.68976842299</v>
+        <v>1179.96858635577</v>
       </c>
       <c r="H98" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I98" t="n">
-        <v>2625762</v>
+        <v>2619918</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89247462</v>
+        <v>90117857</v>
       </c>
       <c r="E99" t="n">
-        <v>514282371</v>
+        <v>519297961</v>
       </c>
       <c r="F99" t="n">
-        <v>134718.6047246896</v>
+        <v>127948.5899060245</v>
       </c>
       <c r="G99" t="n">
-        <v>154302.6315785149</v>
+        <v>136094.6512640549</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I99" t="n">
-        <v>16509286</v>
+        <v>16441756</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108295991</v>
+        <v>108538683</v>
       </c>
       <c r="E100" t="n">
-        <v>266450448</v>
+        <v>267047566</v>
       </c>
       <c r="F100" t="n">
-        <v>29476.83985660672</v>
+        <v>23248.48483267923</v>
       </c>
       <c r="G100" t="n">
-        <v>50139.94755472404</v>
+        <v>52715.79691716939</v>
       </c>
       <c r="H100" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2138117</v>
+        <v>2138757</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248773210</v>
+        <v>248603880</v>
       </c>
       <c r="E101" t="n">
-        <v>248775682</v>
+        <v>248606350</v>
       </c>
       <c r="F101" t="n">
-        <v>2026.757252325277</v>
+        <v>5897.921959802386</v>
       </c>
       <c r="G101" t="n">
-        <v>13617.7536238576</v>
+        <v>15018.79979914336</v>
       </c>
       <c r="H101" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I101" t="n">
-        <v>2662400</v>
+        <v>2554629</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30308904</v>
+        <v>30405488</v>
       </c>
       <c r="E102" t="n">
-        <v>135705395</v>
+        <v>136137845</v>
       </c>
       <c r="F102" t="n">
-        <v>94415.03679823343</v>
+        <v>105703.6032268161</v>
       </c>
       <c r="G102" t="n">
-        <v>106450.290660429</v>
+        <v>129360.6932082427</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8460434</v>
+        <v>8454004</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3025147</v>
+        <v>3065691</v>
       </c>
       <c r="E103" t="n">
-        <v>3025147</v>
+        <v>3065691</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>439975</v>
+        <v>437792</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5972053</v>
+        <v>5995774</v>
       </c>
       <c r="E104" t="n">
-        <v>15673668</v>
+        <v>15735924</v>
       </c>
       <c r="F104" t="n">
-        <v>9056.740118235599</v>
+        <v>8922.258841933717</v>
       </c>
       <c r="G104" t="n">
-        <v>3179.504327169973</v>
+        <v>2958.342913828151</v>
       </c>
       <c r="H104" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="I104" t="n">
-        <v>29442</v>
+        <v>21457</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16696040</v>
+        <v>16689961</v>
       </c>
       <c r="E105" t="n">
-        <v>77066546</v>
+        <v>77038487</v>
       </c>
       <c r="F105" t="n">
-        <v>25300.22015913784</v>
+        <v>31834.11429315888</v>
       </c>
       <c r="G105" t="n">
-        <v>31622.70025318163</v>
+        <v>34034.22908177736</v>
       </c>
       <c r="H105" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>988528</v>
+        <v>908964</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48732731</v>
+        <v>49145389</v>
       </c>
       <c r="E106" t="n">
-        <v>316018794</v>
+        <v>318694769</v>
       </c>
       <c r="F106" t="n">
-        <v>47362.55294291188</v>
+        <v>73710.57571327861</v>
       </c>
       <c r="G106" t="n">
-        <v>127367.6474531349</v>
+        <v>119946.3444256847</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>16291440</v>
+        <v>16593772</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2569246</v>
+        <v>2511939</v>
       </c>
       <c r="E107" t="n">
-        <v>4654673</v>
+        <v>4550851</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>127924</v>
+        <v>129395</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125444296</v>
+        <v>125323456</v>
       </c>
       <c r="E108" t="n">
-        <v>2077460289</v>
+        <v>2075459080</v>
       </c>
       <c r="F108" t="n">
-        <v>389459.5737947663</v>
+        <v>230485.596583097</v>
       </c>
       <c r="G108" t="n">
-        <v>185676.6272856744</v>
+        <v>135065.2320141381</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4833881</v>
+        <v>4851386</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24048256</v>
+        <v>24332418</v>
       </c>
       <c r="E109" t="n">
-        <v>143885551</v>
+        <v>145585749</v>
       </c>
       <c r="F109" t="n">
-        <v>40673.57561737781</v>
+        <v>41844.08111717931</v>
       </c>
       <c r="G109" t="n">
-        <v>39877.55426720671</v>
+        <v>41865.39492404019</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I109" t="n">
-        <v>11528234</v>
+        <v>12003029</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1071791</v>
+        <v>1079947</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>71930</v>
+        <v>73590</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2244319</v>
+        <v>2258547</v>
       </c>
       <c r="F111" t="n">
-        <v>3781.761497295609</v>
+        <v>3635.592771665694</v>
       </c>
       <c r="G111" t="n">
-        <v>367.2922504240414</v>
+        <v>324.9327297757823</v>
       </c>
       <c r="H111" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>179452</v>
+        <v>174799</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142229159</v>
+        <v>142192372</v>
       </c>
       <c r="F112" t="n">
-        <v>3194.764035089875</v>
+        <v>3146.421465690275</v>
       </c>
       <c r="G112" t="n">
-        <v>466.7162727065366</v>
+        <v>536.0299374794424</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>25746</v>
+        <v>26321</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6685266</v>
+        <v>6664749</v>
       </c>
       <c r="E113" t="n">
-        <v>34393663</v>
+        <v>34288108</v>
       </c>
       <c r="F113" t="n">
-        <v>341.1725196839556</v>
+        <v>310.6050438269468</v>
       </c>
       <c r="G113" t="n">
-        <v>323.8139834318341</v>
+        <v>929.9654861111674</v>
       </c>
       <c r="H113" t="n">
         <v>0.87</v>
       </c>
       <c r="I113" t="n">
-        <v>924380</v>
+        <v>923218</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29123049</v>
+        <v>29122774</v>
       </c>
       <c r="E114" t="n">
-        <v>39932792</v>
+        <v>39932415</v>
       </c>
       <c r="F114" t="n">
-        <v>5108.827931324107</v>
+        <v>4864.765378795658</v>
       </c>
       <c r="G114" t="n">
-        <v>4270.962248826515</v>
+        <v>4471.849826635013</v>
       </c>
       <c r="H114" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>218770</v>
+        <v>209588</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7996998</v>
+        <v>7997212</v>
       </c>
       <c r="F115" t="n">
-        <v>207.8758820017549</v>
+        <v>126.3335002086594</v>
       </c>
       <c r="G115" t="n">
-        <v>6922.175139634141</v>
+        <v>6864.885839715565</v>
       </c>
       <c r="H115" t="n">
         <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>680641</v>
+        <v>669583</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3369112</v>
+        <v>3358207</v>
       </c>
       <c r="E116" t="n">
-        <v>4513138</v>
+        <v>4498530</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>150446</v>
+        <v>149779</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34914228</v>
+        <v>35030099</v>
       </c>
       <c r="E117" t="n">
-        <v>174238094</v>
+        <v>174816343</v>
       </c>
       <c r="F117" t="n">
-        <v>79511.92386131056</v>
+        <v>91347.93494849614</v>
       </c>
       <c r="G117" t="n">
-        <v>69683.46165085533</v>
+        <v>71084.25922276807</v>
       </c>
       <c r="H117" t="n">
         <v>0.11</v>
       </c>
       <c r="I117" t="n">
-        <v>10251510</v>
+        <v>10318689</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3496429</v>
+        <v>3492148</v>
       </c>
       <c r="E118" t="n">
-        <v>5022804</v>
+        <v>5016654</v>
       </c>
       <c r="F118" t="n">
-        <v>564.3148361433176</v>
+        <v>564.3141292341497</v>
       </c>
       <c r="G118" t="n">
-        <v>781.0360248101363</v>
+        <v>781.0350464174181</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>156674</v>
+        <v>154670</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>315865186</v>
+        <v>316524044</v>
       </c>
       <c r="E119" t="n">
-        <v>584422627</v>
+        <v>585641665</v>
       </c>
       <c r="F119" t="n">
-        <v>118802.2128787453</v>
+        <v>107905.1641457356</v>
       </c>
       <c r="G119" t="n">
-        <v>141784.8358605449</v>
+        <v>126408.0335609125</v>
       </c>
       <c r="H119" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I119" t="n">
-        <v>13293338</v>
+        <v>13363407</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70726177</v>
+        <v>71925891</v>
       </c>
       <c r="E120" t="n">
-        <v>674722995</v>
+        <v>686164524</v>
       </c>
       <c r="F120" t="n">
-        <v>3842.099125321658</v>
+        <v>3028.442802417996</v>
       </c>
       <c r="G120" t="n">
-        <v>43400.21936306833</v>
+        <v>43202.7905231722</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I120" t="n">
-        <v>21458981</v>
+        <v>21664442</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37883026</v>
+        <v>37877239</v>
       </c>
       <c r="E121" t="n">
-        <v>49529670</v>
+        <v>49522035</v>
       </c>
       <c r="F121" t="n">
-        <v>5619.586874931312</v>
+        <v>118.5419535637178</v>
       </c>
       <c r="G121" t="n">
-        <v>523.0971792537598</v>
+        <v>6482.49199367398</v>
       </c>
       <c r="H121" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>121588</v>
+        <v>351412</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>10551272</v>
+        <v>10846315</v>
       </c>
       <c r="E122" t="n">
-        <v>31308023</v>
+        <v>32181735</v>
       </c>
       <c r="F122" t="n">
-        <v>1191.205559369755</v>
+        <v>2154.29257750434</v>
       </c>
       <c r="G122" t="n">
-        <v>6685.410783069704</v>
+        <v>6713.121953958139</v>
       </c>
       <c r="H122" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I122" t="n">
-        <v>6467123</v>
+        <v>6604398</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2250520</v>
+        <v>2277206</v>
       </c>
       <c r="E123" t="n">
-        <v>7700942</v>
+        <v>7792257</v>
       </c>
       <c r="F123" t="n">
-        <v>982.3213348334422</v>
+        <v>645.4743153538755</v>
       </c>
       <c r="G123" t="n">
-        <v>856.4927837134928</v>
+        <v>1025.012016148152</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9</v>
+        <v>1.65</v>
       </c>
       <c r="I123" t="n">
-        <v>932535</v>
+        <v>917818</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7398947</v>
+        <v>7398887</v>
       </c>
       <c r="E124" t="n">
-        <v>7398958</v>
+        <v>7398898</v>
       </c>
       <c r="F124" t="n">
-        <v>62.38946747273423</v>
+        <v>267.9564712013852</v>
       </c>
       <c r="G124" t="n">
-        <v>555.6776369082384</v>
+        <v>1068.613521140726</v>
       </c>
       <c r="H124" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="I124" t="n">
-        <v>312896</v>
+        <v>320740</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6238541</v>
+        <v>6223588</v>
       </c>
       <c r="E125" t="n">
-        <v>6238541</v>
+        <v>6223588</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>495930</v>
+        <v>479506</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6223202</v>
+        <v>6221903</v>
       </c>
       <c r="E126" t="n">
-        <v>22730949</v>
+        <v>22726202</v>
       </c>
       <c r="F126" t="n">
-        <v>5357.526740036464</v>
+        <v>6333.230491109865</v>
       </c>
       <c r="G126" t="n">
-        <v>2188.769212679976</v>
+        <v>3285.807270235409</v>
       </c>
       <c r="H126" t="n">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="I126" t="n">
-        <v>511810</v>
+        <v>508277</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44457319</v>
+        <v>44608949</v>
       </c>
       <c r="E127" t="n">
-        <v>44457319</v>
+        <v>44608949</v>
       </c>
       <c r="F127" t="n">
-        <v>52851.97065022361</v>
+        <v>59380.31495169214</v>
       </c>
       <c r="G127" t="n">
-        <v>77258.05377212598</v>
+        <v>96367.99795395709</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7627871</v>
+        <v>7583817</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>149179351</v>
+        <v>149987720</v>
       </c>
       <c r="F128" t="n">
-        <v>225.6355124416748</v>
+        <v>701.3746406024034</v>
       </c>
       <c r="G128" t="n">
-        <v>20.70108416874389</v>
+        <v>7.435018969080171</v>
       </c>
       <c r="H128" t="n">
-        <v>3.27</v>
+        <v>0.46</v>
       </c>
       <c r="I128" t="n">
-        <v>1689988</v>
+        <v>1707005</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3112085</v>
+        <v>3023865</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73687</v>
+        <v>71400</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20344835</v>
+        <v>20322947</v>
       </c>
       <c r="F130" t="n">
-        <v>642.199358100009</v>
+        <v>455.0722049621941</v>
       </c>
       <c r="G130" t="n">
-        <v>704.1940943935975</v>
+        <v>491.6993925188898</v>
       </c>
       <c r="H130" t="n">
-        <v>1.81</v>
+        <v>0.88</v>
       </c>
       <c r="I130" t="n">
-        <v>2965999</v>
+        <v>2971138</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1258269</v>
+        <v>1263072</v>
       </c>
       <c r="E131" t="n">
-        <v>3803977</v>
+        <v>3817919</v>
       </c>
       <c r="F131" t="n">
-        <v>439.9272951430876</v>
+        <v>694.8678497876039</v>
       </c>
       <c r="G131" t="n">
-        <v>912.8496146875634</v>
+        <v>802.0648375852724</v>
       </c>
       <c r="H131" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>11275.15</v>
+        <v>12417.21</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>600077380</v>
+        <v>605646057</v>
       </c>
       <c r="E132" t="n">
-        <v>2324011157</v>
+        <v>2345577822</v>
       </c>
       <c r="F132" t="n">
-        <v>758113.0022824366</v>
+        <v>678190.6037178873</v>
       </c>
       <c r="G132" t="n">
-        <v>1132895.670773596</v>
+        <v>1187783.329005946</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32889515</v>
+        <v>32862450</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3678358</v>
+        <v>3713308</v>
       </c>
       <c r="E133" t="n">
-        <v>6270261</v>
+        <v>6329838</v>
       </c>
       <c r="F133" t="n">
-        <v>5252.296287803215</v>
+        <v>5240.616631806658</v>
       </c>
       <c r="G133" t="n">
-        <v>5649.34036022269</v>
+        <v>5274.809794099006</v>
       </c>
       <c r="H133" t="n">
         <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1276848</v>
+        <v>1211066</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>121264864</v>
+        <v>122631525</v>
       </c>
       <c r="E134" t="n">
-        <v>1054323460</v>
+        <v>1066205735</v>
       </c>
       <c r="F134" t="n">
-        <v>108475.2871222924</v>
+        <v>97391.02904874505</v>
       </c>
       <c r="G134" t="n">
-        <v>123402.0408495809</v>
+        <v>99274.46852052389</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I134" t="n">
-        <v>9075963</v>
+        <v>9017385</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>991206253</v>
+        <v>969404116</v>
       </c>
       <c r="E135" t="n">
-        <v>1088842786</v>
+        <v>1064893078</v>
       </c>
       <c r="F135" t="n">
-        <v>11304.51270699061</v>
+        <v>12036.06326308103</v>
       </c>
       <c r="G135" t="n">
-        <v>18518.95300586077</v>
+        <v>19880.1381658706</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I135" t="n">
-        <v>9917026</v>
+        <v>10218871</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1102071</v>
+        <v>1102032</v>
       </c>
       <c r="E136" t="n">
-        <v>4267458</v>
+        <v>4267309</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>386353</v>
+        <v>369439</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>117864503</v>
+        <v>117790633</v>
       </c>
       <c r="E137" t="n">
-        <v>452147204</v>
+        <v>451863828</v>
       </c>
       <c r="F137" t="n">
-        <v>123923.2737997245</v>
+        <v>116247.4153122132</v>
       </c>
       <c r="G137" t="n">
-        <v>246676.8598063767</v>
+        <v>212270.9242499733</v>
       </c>
       <c r="H137" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I137" t="n">
-        <v>30984024</v>
+        <v>30970086</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3175286</v>
+        <v>3178259</v>
       </c>
       <c r="E138" t="n">
-        <v>30086302</v>
+        <v>30114471</v>
       </c>
       <c r="F138" t="n">
-        <v>4534.933714028354</v>
+        <v>5735.907119616053</v>
       </c>
       <c r="G138" t="n">
-        <v>4652.593247304229</v>
+        <v>4355.154777347412</v>
       </c>
       <c r="H138" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>204147</v>
+        <v>216834</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23386360</v>
+        <v>23289401</v>
       </c>
       <c r="E139" t="n">
-        <v>23386360</v>
+        <v>23289401</v>
       </c>
       <c r="F139" t="n">
-        <v>5409.05953028451</v>
+        <v>6362.243719131852</v>
       </c>
       <c r="G139" t="n">
-        <v>2141.470832157609</v>
+        <v>560.7991613686956</v>
       </c>
       <c r="H139" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="I139" t="n">
-        <v>629868</v>
+        <v>638124</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494366712</v>
+        <v>494595121</v>
       </c>
       <c r="E140" t="n">
-        <v>494366712</v>
+        <v>494595121</v>
       </c>
       <c r="F140" t="n">
-        <v>955578.7058739058</v>
+        <v>962258.7378128485</v>
       </c>
       <c r="G140" t="n">
-        <v>1010094.15847835</v>
+        <v>1011043.162752715</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33120953</v>
+        <v>33070561</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31595440</v>
+        <v>31975405</v>
       </c>
       <c r="F141" t="n">
-        <v>56103.41097436858</v>
+        <v>47979.56665262135</v>
       </c>
       <c r="G141" t="n">
-        <v>68059.44626000394</v>
+        <v>60754.24915006445</v>
       </c>
       <c r="H141" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I141" t="n">
-        <v>5384791</v>
+        <v>4831702</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>749747</v>
+        <v>751418</v>
       </c>
       <c r="E142" t="n">
-        <v>11958194</v>
+        <v>11984848</v>
       </c>
       <c r="F142" t="n">
-        <v>445.9185539820692</v>
+        <v>463.6197398601873</v>
       </c>
       <c r="G142" t="n">
-        <v>50.95467363485661</v>
+        <v>46.42160663854787</v>
       </c>
       <c r="H142" t="n">
-        <v>0.82</v>
+        <v>1.16</v>
       </c>
       <c r="I142" t="n">
-        <v>63014</v>
+        <v>64234</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2628431362</v>
+        <v>2625694954</v>
       </c>
       <c r="E143" t="n">
-        <v>2790710180</v>
+        <v>2787804828</v>
       </c>
       <c r="F143" t="n">
-        <v>3621.191605561692</v>
+        <v>3194.328803782551</v>
       </c>
       <c r="G143" t="n">
-        <v>19637.14086062527</v>
+        <v>22498.16988306557</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I143" t="n">
-        <v>36998646</v>
+        <v>35914551</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1705915</v>
+        <v>1729929</v>
       </c>
       <c r="E144" t="n">
-        <v>1711936</v>
+        <v>1736035</v>
       </c>
       <c r="F144" t="n">
-        <v>254.7268045095199</v>
+        <v>250.1258263697754</v>
       </c>
       <c r="G144" t="n">
-        <v>470.9270293093071</v>
+        <v>51.35744867829489</v>
       </c>
       <c r="H144" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="I144" t="n">
-        <v>425207</v>
+        <v>433643</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60502034</v>
+        <v>61019820</v>
       </c>
       <c r="E145" t="n">
-        <v>148407388</v>
+        <v>149677483</v>
       </c>
       <c r="F145" t="n">
-        <v>3164.074405297948</v>
+        <v>3414.366214632635</v>
       </c>
       <c r="G145" t="n">
-        <v>5458.684627966555</v>
+        <v>5257.745195131739</v>
       </c>
       <c r="H145" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I145" t="n">
-        <v>22498660</v>
+        <v>22424253</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>714995077</v>
+        <v>726089755</v>
       </c>
       <c r="E146" t="n">
-        <v>1102585536</v>
+        <v>1119694510</v>
       </c>
       <c r="F146" t="n">
-        <v>156489.0176043088</v>
+        <v>147830.7833838763</v>
       </c>
       <c r="G146" t="n">
-        <v>148292.734001107</v>
+        <v>154421.8689122049</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>209103319</v>
+        <v>206000455</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22669607</v>
+        <v>22864221</v>
       </c>
       <c r="E147" t="n">
-        <v>22669607</v>
+        <v>22864221</v>
       </c>
       <c r="F147" t="n">
-        <v>5030.963920253455</v>
+        <v>4106.57117860681</v>
       </c>
       <c r="G147" t="n">
-        <v>8097.449970863775</v>
+        <v>7457.376729415525</v>
       </c>
       <c r="H147" t="n">
         <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>5816350</v>
+        <v>5692662</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3817411</v>
+        <v>3824935</v>
       </c>
       <c r="E148" t="n">
-        <v>8329542</v>
+        <v>8345959</v>
       </c>
       <c r="F148" t="n">
-        <v>5677.613768233546</v>
+        <v>5676.4260483182</v>
       </c>
       <c r="G148" t="n">
-        <v>5680.672651968188</v>
+        <v>5680.584994044401</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1336615</v>
+        <v>1391114</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9352746</v>
+        <v>9357231</v>
       </c>
       <c r="E149" t="n">
-        <v>9352746</v>
+        <v>9357231</v>
       </c>
       <c r="F149" t="n">
-        <v>385963.8130393813</v>
+        <v>366442.8899172793</v>
       </c>
       <c r="G149" t="n">
-        <v>693211.1314839568</v>
+        <v>684306.6900791343</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>2894177</v>
+        <v>2892041</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>487493543</v>
+        <v>492177804</v>
       </c>
       <c r="E150" t="n">
-        <v>1696924454</v>
+        <v>1713229974</v>
       </c>
       <c r="F150" t="n">
-        <v>772614.1699877052</v>
+        <v>776285.0802024294</v>
       </c>
       <c r="G150" t="n">
-        <v>937416.1030314207</v>
+        <v>894288.9800094332</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>29354267</v>
+        <v>29138850</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48333532</v>
+        <v>48454928</v>
       </c>
       <c r="E151" t="n">
-        <v>119287638</v>
+        <v>119587251</v>
       </c>
       <c r="F151" t="n">
-        <v>8482.971459529688</v>
+        <v>8274.06331244116</v>
       </c>
       <c r="G151" t="n">
-        <v>7992.483614415491</v>
+        <v>5373.994160496633</v>
       </c>
       <c r="H151" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I151" t="n">
-        <v>33470</v>
+        <v>21760</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7643424</v>
+        <v>7649128</v>
       </c>
       <c r="E152" t="n">
-        <v>19856794</v>
+        <v>19871613</v>
       </c>
       <c r="F152" t="n">
-        <v>1869.493138023433</v>
+        <v>6939.308402770087</v>
       </c>
       <c r="G152" t="n">
-        <v>5978.446653308183</v>
+        <v>6909.494216548179</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>705890</v>
+        <v>711673</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19197303852</v>
+        <v>19207718909</v>
       </c>
       <c r="F153" t="n">
-        <v>52445.88884102698</v>
+        <v>52450.10382030744</v>
       </c>
       <c r="G153" t="n">
-        <v>49997.66534123267</v>
+        <v>49999.54370443569</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>48255667</v>
+        <v>47776461</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2629725</v>
+        <v>2626774</v>
       </c>
       <c r="E154" t="n">
-        <v>10518900</v>
+        <v>10507095</v>
       </c>
       <c r="F154" t="n">
-        <v>10417.04880127977</v>
+        <v>4539.746131132857</v>
       </c>
       <c r="G154" t="n">
-        <v>23620.97874883492</v>
+        <v>22144.25367570946</v>
       </c>
       <c r="H154" t="n">
         <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>6964229</v>
+        <v>6897872</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>216559877</v>
+        <v>218221197</v>
       </c>
       <c r="E155" t="n">
-        <v>665840125</v>
+        <v>670948058</v>
       </c>
       <c r="F155" t="n">
-        <v>170018.8485832693</v>
+        <v>138298.8708694775</v>
       </c>
       <c r="G155" t="n">
-        <v>163052.4239976576</v>
+        <v>190349.1887874771</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>11889862</v>
+        <v>12054147</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>398600526</v>
+        <v>400354251</v>
       </c>
       <c r="E156" t="n">
-        <v>2277717290</v>
+        <v>2287738575</v>
       </c>
       <c r="F156" t="n">
-        <v>172556.9573197548</v>
+        <v>159587.8925403345</v>
       </c>
       <c r="G156" t="n">
-        <v>281112.1960888539</v>
+        <v>287150.1878966012</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37921726</v>
+        <v>38222637</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3975220</v>
+        <v>3966710</v>
       </c>
       <c r="F2" t="n">
-        <v>1689.373846947928</v>
+        <v>1970.536859398052</v>
       </c>
       <c r="G2" t="n">
-        <v>923.709005728954</v>
+        <v>946.4673098140117</v>
       </c>
       <c r="H2" t="n">
         <v>0.9</v>
       </c>
       <c r="I2" t="n">
-        <v>121853</v>
+        <v>130139</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>605559370</v>
+        <v>605320776</v>
       </c>
       <c r="E3" t="n">
-        <v>1175064799</v>
+        <v>1174606270</v>
       </c>
       <c r="F3" t="n">
-        <v>81598.2977202652</v>
+        <v>79905.61215202429</v>
       </c>
       <c r="G3" t="n">
-        <v>71547.14556353774</v>
+        <v>78266.28656991303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>19965968</v>
+        <v>19596258</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245178661</v>
+        <v>246219076</v>
       </c>
       <c r="E4" t="n">
-        <v>1537480923</v>
+        <v>1544005219</v>
       </c>
       <c r="F4" t="n">
-        <v>345383.194839981</v>
+        <v>233362.5990668038</v>
       </c>
       <c r="G4" t="n">
-        <v>236987.4622166274</v>
+        <v>259935.9768327111</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>16501636</v>
+        <v>16515218</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143829368</v>
+        <v>144577430</v>
       </c>
       <c r="E5" t="n">
-        <v>159385418</v>
+        <v>160214387</v>
       </c>
       <c r="F5" t="n">
-        <v>8282.790767452145</v>
+        <v>8579.491298781679</v>
       </c>
       <c r="G5" t="n">
-        <v>453.3804167260772</v>
+        <v>485.2909160858309</v>
       </c>
       <c r="H5" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>36179003</v>
+        <v>36756406</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48830628</v>
+        <v>49394600</v>
       </c>
       <c r="E6" t="n">
-        <v>61085863</v>
+        <v>61791378</v>
       </c>
       <c r="F6" t="n">
-        <v>7959.811596107847</v>
+        <v>6228.644489129653</v>
       </c>
       <c r="G6" t="n">
-        <v>5039.02479110146</v>
+        <v>6935.015285296852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I6" t="n">
-        <v>601486</v>
+        <v>607308</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69492203</v>
+        <v>69172694</v>
       </c>
       <c r="E7" t="n">
-        <v>138404950</v>
+        <v>137768596</v>
       </c>
       <c r="F7" t="n">
-        <v>10058.72523574813</v>
+        <v>9789.676323907615</v>
       </c>
       <c r="G7" t="n">
-        <v>12605.93282731158</v>
+        <v>12103.56708805558</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1106200</v>
+        <v>1034541</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40833113</v>
+        <v>40555165</v>
       </c>
       <c r="E8" t="n">
-        <v>45698135</v>
+        <v>45387071</v>
       </c>
       <c r="F8" t="n">
-        <v>7677.905401129231</v>
+        <v>7805.705039225504</v>
       </c>
       <c r="G8" t="n">
-        <v>6667.475055505045</v>
+        <v>6865.230451903373</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3693144</v>
+        <v>3770961</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14197195</v>
+        <v>14183832</v>
       </c>
       <c r="E9" t="n">
-        <v>41838218</v>
+        <v>41798837</v>
       </c>
       <c r="F9" t="n">
-        <v>5060.139204337283</v>
+        <v>5958.383743976019</v>
       </c>
       <c r="G9" t="n">
-        <v>4748.787763215964</v>
+        <v>4439.620639974094</v>
       </c>
       <c r="H9" t="n">
-        <v>1.25</v>
+        <v>0.91</v>
       </c>
       <c r="I9" t="n">
-        <v>880065</v>
+        <v>881274</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11224107</v>
+        <v>10480903</v>
       </c>
       <c r="E10" t="n">
-        <v>48243932</v>
+        <v>45049464</v>
       </c>
       <c r="F10" t="n">
-        <v>1257.304351118166</v>
+        <v>115.3793522124196</v>
       </c>
       <c r="G10" t="n">
-        <v>2.101386526267667</v>
+        <v>403.2935050543729</v>
       </c>
       <c r="H10" t="n">
-        <v>3.06</v>
+        <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>928942</v>
+        <v>909130</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>582876959</v>
+        <v>584651479</v>
       </c>
       <c r="E11" t="n">
-        <v>729092444</v>
+        <v>731312106</v>
       </c>
       <c r="F11" t="n">
-        <v>268466.5232064952</v>
+        <v>353434.3146512916</v>
       </c>
       <c r="G11" t="n">
-        <v>342259.8804164307</v>
+        <v>293973.3031820499</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>53049631</v>
+        <v>55055834</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4528896</v>
+        <v>4549791</v>
       </c>
       <c r="E12" t="n">
-        <v>27817771</v>
+        <v>27946116</v>
       </c>
       <c r="F12" t="n">
-        <v>215.9477922258755</v>
+        <v>179.8138581825389</v>
       </c>
       <c r="G12" t="n">
-        <v>783.4311789171849</v>
+        <v>287.1989327013323</v>
       </c>
       <c r="H12" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="I12" t="n">
-        <v>633814</v>
+        <v>642390</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23193771</v>
+        <v>23197772</v>
       </c>
       <c r="E13" t="n">
-        <v>23237036</v>
+        <v>23241045</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>852379</v>
+        <v>852194</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81215292</v>
+        <v>81603344</v>
       </c>
       <c r="E14" t="n">
-        <v>238945462</v>
+        <v>240087160</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>357327</v>
+        <v>358503</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>477012375</v>
+        <v>475341052</v>
       </c>
       <c r="E15" t="n">
-        <v>477012375</v>
+        <v>475341055</v>
       </c>
       <c r="F15" t="n">
-        <v>18807.06241661883</v>
+        <v>19188.85805900714</v>
       </c>
       <c r="G15" t="n">
-        <v>17972.73362990881</v>
+        <v>26201.98133199205</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>86447596</v>
+        <v>72212343</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4659147</v>
+        <v>4703552</v>
       </c>
       <c r="E16" t="n">
-        <v>4659147</v>
+        <v>4703552</v>
       </c>
       <c r="F16" t="n">
-        <v>405.5329203392075</v>
+        <v>279.4696511778594</v>
       </c>
       <c r="G16" t="n">
-        <v>471.6226622047832</v>
+        <v>7727.503538972267</v>
       </c>
       <c r="H16" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="I16" t="n">
-        <v>2001827</v>
+        <v>1932395</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3391184</v>
+        <v>3416844</v>
       </c>
       <c r="E17" t="n">
-        <v>3391184</v>
+        <v>3416844</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>520171</v>
+        <v>216893</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167521780</v>
+        <v>168737314</v>
       </c>
       <c r="E18" t="n">
-        <v>207398939</v>
+        <v>208903821</v>
       </c>
       <c r="F18" t="n">
-        <v>8771.30406666337</v>
+        <v>9297.281538615505</v>
       </c>
       <c r="G18" t="n">
-        <v>8288.188024900834</v>
+        <v>7067.913991280716</v>
       </c>
       <c r="H18" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>437543</v>
+        <v>448740</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7030910</v>
+        <v>6996079</v>
       </c>
       <c r="E19" t="n">
-        <v>9683359</v>
+        <v>9635388</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>523326</v>
+        <v>497658</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>904007</v>
+        <v>941613</v>
       </c>
       <c r="E20" t="n">
-        <v>6328052</v>
+        <v>6591292</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>154114</v>
+        <v>221320</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112387204</v>
+        <v>112564520</v>
       </c>
       <c r="E21" t="n">
-        <v>437296995</v>
+        <v>437961685</v>
       </c>
       <c r="F21" t="n">
-        <v>41242.01740939615</v>
+        <v>42372.12333866815</v>
       </c>
       <c r="G21" t="n">
-        <v>75365.3742815398</v>
+        <v>80961.17802002502</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>8519557</v>
+        <v>8712254</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1686509</v>
+        <v>1674240</v>
       </c>
       <c r="E22" t="n">
-        <v>12147782</v>
+        <v>12059407</v>
       </c>
       <c r="F22" t="n">
-        <v>36.73117907963022</v>
+        <v>402.4085025960517</v>
       </c>
       <c r="G22" t="n">
-        <v>6.877761816079403</v>
+        <v>6.877773169382765</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="I22" t="n">
-        <v>68248</v>
+        <v>67532</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138564312</v>
+        <v>138929127</v>
       </c>
       <c r="E23" t="n">
-        <v>138564312</v>
+        <v>138929127</v>
       </c>
       <c r="F23" t="n">
-        <v>1013713.743951761</v>
+        <v>1086655.931675539</v>
       </c>
       <c r="G23" t="n">
-        <v>1255981.797387957</v>
+        <v>1113730.526985932</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>64995155</v>
+        <v>65970115</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65365741</v>
+        <v>65663393</v>
       </c>
       <c r="E24" t="n">
-        <v>335208929</v>
+        <v>336735346</v>
       </c>
       <c r="F24" t="n">
-        <v>77704.44277678766</v>
+        <v>84272.06634322165</v>
       </c>
       <c r="G24" t="n">
-        <v>146658.2879661717</v>
+        <v>147767.7430722069</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>21613000</v>
+        <v>21539682</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253972952</v>
+        <v>255380283</v>
       </c>
       <c r="E25" t="n">
-        <v>253972952</v>
+        <v>255380283</v>
       </c>
       <c r="F25" t="n">
-        <v>298076.7583156849</v>
+        <v>389883.328433503</v>
       </c>
       <c r="G25" t="n">
-        <v>528864.7890098559</v>
+        <v>473937.1717972083</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14521405</v>
+        <v>14635181</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1123749</v>
+        <v>1124055</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>181283</v>
+        <v>180977</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3963914</v>
+        <v>3968484</v>
       </c>
       <c r="E28" t="n">
-        <v>3964916</v>
+        <v>3969498</v>
       </c>
       <c r="F28" t="n">
-        <v>770.4415122528518</v>
+        <v>884.9669947351678</v>
       </c>
       <c r="G28" t="n">
-        <v>3412.106409303048</v>
+        <v>2817.075574425832</v>
       </c>
       <c r="H28" t="n">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="I28" t="n">
-        <v>271422</v>
+        <v>277252</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6832661</v>
+        <v>6842304</v>
       </c>
       <c r="E29" t="n">
-        <v>16596009</v>
+        <v>16619431</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>485022</v>
+        <v>485320</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99819506</v>
+        <v>99587551</v>
       </c>
       <c r="E30" t="n">
-        <v>124463223</v>
+        <v>124174003</v>
       </c>
       <c r="F30" t="n">
-        <v>110887.2814733787</v>
+        <v>123923.8241466632</v>
       </c>
       <c r="G30" t="n">
-        <v>122828.135244705</v>
+        <v>116052.751984004</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10290760</v>
+        <v>10159060</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1129165</v>
+        <v>1128857</v>
       </c>
       <c r="E31" t="n">
-        <v>12271339</v>
+        <v>12267993</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31167</v>
+        <v>31144</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>78232881</v>
+        <v>78922849</v>
       </c>
       <c r="E32" t="n">
-        <v>218918329</v>
+        <v>220839491</v>
       </c>
       <c r="F32" t="n">
-        <v>66642.48408815062</v>
+        <v>54255.66688557158</v>
       </c>
       <c r="G32" t="n">
-        <v>80781.36434562496</v>
+        <v>74484.8247966549</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>34448960</v>
+        <v>34557226</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4141556</v>
+        <v>4135828</v>
       </c>
       <c r="E33" t="n">
-        <v>8167498</v>
+        <v>8156201</v>
       </c>
       <c r="F33" t="n">
-        <v>8790.360041277085</v>
+        <v>8731.31503437531</v>
       </c>
       <c r="G33" t="n">
-        <v>10054.16498634072</v>
+        <v>10178.99138363421</v>
       </c>
       <c r="H33" t="n">
         <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>1620499</v>
+        <v>1625533</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37324247</v>
+        <v>36261009</v>
       </c>
       <c r="F34" t="n">
-        <v>735.4317842983899</v>
+        <v>490.1512796197151</v>
       </c>
       <c r="G34" t="n">
-        <v>423.8213755105344</v>
+        <v>381.9584358878279</v>
       </c>
       <c r="H34" t="n">
-        <v>0.85</v>
+        <v>0.03</v>
       </c>
       <c r="I34" t="n">
-        <v>79006</v>
+        <v>78335</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7643033</v>
+        <v>7637894</v>
       </c>
       <c r="E35" t="n">
-        <v>18000861</v>
+        <v>17988759</v>
       </c>
       <c r="F35" t="n">
-        <v>3431.638580230951</v>
+        <v>3431.645940759059</v>
       </c>
       <c r="G35" t="n">
-        <v>2683.74495101427</v>
+        <v>2673.748803601218</v>
       </c>
       <c r="H35" t="n">
         <v>1.21</v>
       </c>
       <c r="I35" t="n">
-        <v>29862</v>
+        <v>29787</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23072352</v>
+        <v>23009472</v>
       </c>
       <c r="F36" t="n">
-        <v>106.7918393471911</v>
+        <v>121.3878808983411</v>
       </c>
       <c r="G36" t="n">
-        <v>5553.196236939387</v>
+        <v>5557.831336298753</v>
       </c>
       <c r="H36" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="I36" t="n">
-        <v>124812</v>
+        <v>126299</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75336555</v>
+        <v>75825932</v>
       </c>
       <c r="E37" t="n">
-        <v>157114975</v>
+        <v>158135575</v>
       </c>
       <c r="F37" t="n">
-        <v>74975.28129420677</v>
+        <v>68237.51568984137</v>
       </c>
       <c r="G37" t="n">
-        <v>134722.4355292922</v>
+        <v>117132.5576457408</v>
       </c>
       <c r="H37" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>15800724</v>
+        <v>16174370</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>271908844</v>
+        <v>272546381</v>
       </c>
       <c r="E38" t="n">
-        <v>271908844</v>
+        <v>272546381</v>
       </c>
       <c r="F38" t="n">
-        <v>43706.93713965044</v>
+        <v>38208.30389343148</v>
       </c>
       <c r="G38" t="n">
-        <v>35439.78759435697</v>
+        <v>25059.15256651995</v>
       </c>
       <c r="H38" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>9585401</v>
+        <v>9607150</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>202289555</v>
+        <v>202480113</v>
       </c>
       <c r="E39" t="n">
-        <v>702772196</v>
+        <v>703434211</v>
       </c>
       <c r="F39" t="n">
-        <v>100714.5902802219</v>
+        <v>120654.6108231594</v>
       </c>
       <c r="G39" t="n">
-        <v>236415.3125794529</v>
+        <v>390418.3991228002</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>27641362</v>
+        <v>28177283</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3439775</v>
+        <v>3517334</v>
       </c>
       <c r="E40" t="n">
-        <v>3439775</v>
+        <v>3517334</v>
       </c>
       <c r="F40" t="n">
-        <v>1824.335896247751</v>
+        <v>810.543993765942</v>
       </c>
       <c r="G40" t="n">
-        <v>1606.517998684089</v>
+        <v>2120.516711906128</v>
       </c>
       <c r="H40" t="n">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>2734469</v>
+        <v>2638635</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115532144</v>
+        <v>116158807</v>
       </c>
       <c r="E41" t="n">
-        <v>490937538</v>
+        <v>493548830</v>
       </c>
       <c r="F41" t="n">
-        <v>5442.243825502875</v>
+        <v>5534.720946341858</v>
       </c>
       <c r="G41" t="n">
-        <v>6158.570831578434</v>
+        <v>6471.361176030193</v>
       </c>
       <c r="H41" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>14676739</v>
+        <v>14967474</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>585927</v>
+        <v>561338</v>
       </c>
       <c r="E42" t="n">
-        <v>7106724</v>
+        <v>6808487</v>
       </c>
       <c r="F42" t="n">
-        <v>909.3965187992442</v>
+        <v>317.3750724736443</v>
       </c>
       <c r="G42" t="n">
-        <v>825.0940951473258</v>
+        <v>797.2114053689445</v>
       </c>
       <c r="H42" t="n">
-        <v>0.86</v>
+        <v>1.58</v>
       </c>
       <c r="I42" t="n">
-        <v>2842650</v>
+        <v>2876845</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1304177347</v>
+        <v>1297658847</v>
       </c>
       <c r="E43" t="n">
-        <v>6253797466</v>
+        <v>6222539925</v>
       </c>
       <c r="F43" t="n">
-        <v>94264.94876483057</v>
+        <v>78081.27786648853</v>
       </c>
       <c r="G43" t="n">
-        <v>91200.72893903729</v>
+        <v>103334.3915147747</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>164903921</v>
+        <v>165495745</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6050233048</v>
+        <v>6051840753</v>
       </c>
       <c r="E44" t="n">
-        <v>6050233048</v>
+        <v>6051840753</v>
       </c>
       <c r="F44" t="n">
-        <v>817970.990953767</v>
+        <v>814131.4481926942</v>
       </c>
       <c r="G44" t="n">
-        <v>1856862.38992299</v>
+        <v>1859856.627711714</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>94547027</v>
+        <v>97393487</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>270433125</v>
+        <v>271354014</v>
       </c>
       <c r="E45" t="n">
-        <v>1167339498</v>
+        <v>1171314563</v>
       </c>
       <c r="F45" t="n">
-        <v>109117.005667134</v>
+        <v>114979.8918162251</v>
       </c>
       <c r="G45" t="n">
-        <v>103771.5662533763</v>
+        <v>79654.49125998026</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>98996607</v>
+        <v>98433764</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115175973</v>
+        <v>114496103</v>
       </c>
       <c r="E46" t="n">
-        <v>115175973</v>
+        <v>114496103</v>
       </c>
       <c r="F46" t="n">
-        <v>32881.96243208505</v>
+        <v>29078.31541364459</v>
       </c>
       <c r="G46" t="n">
-        <v>38797.92882312551</v>
+        <v>45233.47247699417</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I46" t="n">
-        <v>6244228</v>
+        <v>6211146</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042773883</v>
+        <v>2045021636</v>
       </c>
       <c r="E47" t="n">
-        <v>2042773883</v>
+        <v>2045021636</v>
       </c>
       <c r="F47" t="n">
-        <v>225308.1037854366</v>
+        <v>225704.4581020149</v>
       </c>
       <c r="G47" t="n">
-        <v>199281.1762837257</v>
+        <v>199218.9021712137</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6508788082</v>
+        <v>6574870040</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9885659</v>
+        <v>9883950</v>
       </c>
       <c r="F48" t="n">
-        <v>6825.286184061735</v>
+        <v>7330.479742662744</v>
       </c>
       <c r="G48" t="n">
-        <v>6691.912097012332</v>
+        <v>6126.654614021326</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>162346</v>
+        <v>141082</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4435811</v>
+        <v>4492656</v>
       </c>
       <c r="E49" t="n">
-        <v>5823641</v>
+        <v>5898271</v>
       </c>
       <c r="F49" t="n">
-        <v>5925.502232641984</v>
+        <v>5910.199968041057</v>
       </c>
       <c r="G49" t="n">
-        <v>16428.46307379911</v>
+        <v>16178.27504303198</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>574684</v>
+        <v>602081</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12230838</v>
+        <v>12148009</v>
       </c>
       <c r="E50" t="n">
-        <v>17985217</v>
+        <v>17863418</v>
       </c>
       <c r="F50" t="n">
-        <v>6614.074822017444</v>
+        <v>6748.644690800565</v>
       </c>
       <c r="G50" t="n">
-        <v>5975.062440213916</v>
+        <v>6657.502194141032</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2310701</v>
+        <v>825084</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22570319</v>
+        <v>22607985</v>
       </c>
       <c r="E51" t="n">
-        <v>29278866</v>
+        <v>29327728</v>
       </c>
       <c r="F51" t="n">
-        <v>10597.5755094178</v>
+        <v>14018.40170093681</v>
       </c>
       <c r="G51" t="n">
-        <v>8327.752046530615</v>
+        <v>11798.45953687378</v>
       </c>
       <c r="H51" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>166677</v>
+        <v>163272</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13525621</v>
+        <v>13518700</v>
       </c>
       <c r="E52" t="n">
-        <v>13525621</v>
+        <v>13518700</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4766256</v>
+        <v>4591635</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98175459</v>
+        <v>99534323</v>
       </c>
       <c r="E53" t="n">
-        <v>121439529</v>
+        <v>123120395</v>
       </c>
       <c r="F53" t="n">
-        <v>327.6671799595444</v>
+        <v>560.7466695901086</v>
       </c>
       <c r="G53" t="n">
-        <v>1887.435254209356</v>
+        <v>936.0864563353873</v>
       </c>
       <c r="H53" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>809942</v>
+        <v>840932</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5234447</v>
+        <v>5198500</v>
       </c>
       <c r="E54" t="n">
-        <v>7323751</v>
+        <v>7273455</v>
       </c>
       <c r="F54" t="n">
-        <v>39.81803733589508</v>
+        <v>334.6903286106683</v>
       </c>
       <c r="G54" t="n">
-        <v>250.0729929447373</v>
+        <v>354.4449359191952</v>
       </c>
       <c r="H54" t="n">
-        <v>2.67</v>
+        <v>0.85</v>
       </c>
       <c r="I54" t="n">
-        <v>111905</v>
+        <v>106770</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14571451</v>
+        <v>14560025</v>
       </c>
       <c r="E55" t="n">
-        <v>70571863</v>
+        <v>70516523</v>
       </c>
       <c r="F55" t="n">
-        <v>31197.13234215245</v>
+        <v>25146.16820901577</v>
       </c>
       <c r="G55" t="n">
-        <v>27945.91437963102</v>
+        <v>30180.58767419903</v>
       </c>
       <c r="H55" t="n">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
       <c r="I55" t="n">
-        <v>3621851</v>
+        <v>3708242</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>61371</v>
+        <v>57881</v>
       </c>
       <c r="E56" t="n">
-        <v>146996</v>
+        <v>138637</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4710.26</v>
+        <v>4719.47</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1929084890</v>
+        <v>1928781916</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27468240</v>
+        <v>27881260</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12205442</v>
+        <v>12174342</v>
       </c>
       <c r="E58" t="n">
-        <v>17696130</v>
+        <v>17651039</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2008090</v>
+        <v>2031957</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125200851</v>
+        <v>125685262</v>
       </c>
       <c r="E59" t="n">
-        <v>332962892</v>
+        <v>334251149</v>
       </c>
       <c r="F59" t="n">
-        <v>8330.335187962803</v>
+        <v>8557.706090208094</v>
       </c>
       <c r="G59" t="n">
-        <v>7267.472268445906</v>
+        <v>7319.886507321012</v>
       </c>
       <c r="H59" t="n">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="I59" t="n">
-        <v>979906</v>
+        <v>948792</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31634365</v>
+        <v>31925133</v>
       </c>
       <c r="E60" t="n">
-        <v>98499263</v>
+        <v>99404620</v>
       </c>
       <c r="F60" t="n">
-        <v>4067.129505434616</v>
+        <v>3737.162598634231</v>
       </c>
       <c r="G60" t="n">
-        <v>8239.429761231077</v>
+        <v>5533.055615339951</v>
       </c>
       <c r="H60" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I60" t="n">
-        <v>11649653</v>
+        <v>11573251</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2047908</v>
+        <v>2047596</v>
       </c>
       <c r="E61" t="n">
-        <v>14685340</v>
+        <v>14683107</v>
       </c>
       <c r="F61" t="n">
-        <v>350.8170740854092</v>
+        <v>330.7235515232446</v>
       </c>
       <c r="G61" t="n">
-        <v>5018.878079568476</v>
+        <v>5018.977861417748</v>
       </c>
       <c r="H61" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="I61" t="n">
-        <v>1974160</v>
+        <v>1995751</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199913321</v>
+        <v>200960557</v>
       </c>
       <c r="E62" t="n">
-        <v>1132032061</v>
+        <v>1137962154</v>
       </c>
       <c r="F62" t="n">
-        <v>671746.2473203028</v>
+        <v>790763.6057183688</v>
       </c>
       <c r="G62" t="n">
-        <v>676079.5544942932</v>
+        <v>843852.8844391631</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>62384886</v>
+        <v>62861480</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>505904</v>
+        <v>502054</v>
       </c>
       <c r="E63" t="n">
-        <v>1702801</v>
+        <v>1689843</v>
       </c>
       <c r="F63" t="n">
-        <v>4533.872618617368</v>
+        <v>4513.872057456103</v>
       </c>
       <c r="G63" t="n">
-        <v>451.0092015838392</v>
+        <v>348.9882844777545</v>
       </c>
       <c r="H63" t="n">
         <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>544825</v>
+        <v>632203</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>337659</v>
+        <v>338608</v>
       </c>
       <c r="E64" t="n">
-        <v>337659</v>
+        <v>338608</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5238.44</v>
+        <v>5285.02</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>140179169</v>
+        <v>141229650</v>
       </c>
       <c r="E65" t="n">
-        <v>1038364212</v>
+        <v>1046145555</v>
       </c>
       <c r="F65" t="n">
-        <v>35346.5270958392</v>
+        <v>39911.00385108984</v>
       </c>
       <c r="G65" t="n">
-        <v>39817.95523270243</v>
+        <v>35482.73943923112</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I65" t="n">
-        <v>9898370</v>
+        <v>9666869</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8021566</v>
+        <v>8025017</v>
       </c>
       <c r="E66" t="n">
-        <v>10746224</v>
+        <v>10750847</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59142</v>
+        <v>59018</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26346777</v>
+        <v>26366693</v>
       </c>
       <c r="E67" t="n">
-        <v>26346777</v>
+        <v>26366693</v>
       </c>
       <c r="F67" t="n">
-        <v>7630.081097485342</v>
+        <v>7679.546232264648</v>
       </c>
       <c r="G67" t="n">
-        <v>6228.940038875031</v>
+        <v>11058.0058788513</v>
       </c>
       <c r="H67" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>314075</v>
+        <v>313526</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1577704</v>
+        <v>1576993</v>
       </c>
       <c r="E68" t="n">
-        <v>12252628</v>
+        <v>12247110</v>
       </c>
       <c r="F68" t="n">
-        <v>10387.69525054928</v>
+        <v>9835.964866589198</v>
       </c>
       <c r="G68" t="n">
-        <v>18212.44966871277</v>
+        <v>18445.77319008842</v>
       </c>
       <c r="H68" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="I68" t="n">
-        <v>495425</v>
+        <v>512829</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>338276037</v>
+        <v>340177833</v>
       </c>
       <c r="E69" t="n">
-        <v>3043340985</v>
+        <v>3060450718</v>
       </c>
       <c r="F69" t="n">
-        <v>1379336.539160211</v>
+        <v>1022488.703124851</v>
       </c>
       <c r="G69" t="n">
-        <v>1472070.218348504</v>
+        <v>1809794.160313456</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37743990</v>
+        <v>38694331</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246114</v>
+        <v>244367</v>
       </c>
       <c r="E70" t="n">
-        <v>2172140</v>
+        <v>2156725</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>80187</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1582518</v>
+        <v>1582834</v>
       </c>
       <c r="E71" t="n">
-        <v>13187654</v>
+        <v>13190284</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>42266</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9288557</v>
+        <v>9265373</v>
       </c>
       <c r="E72" t="n">
-        <v>43052997</v>
+        <v>42945536</v>
       </c>
       <c r="F72" t="n">
-        <v>4712.806084465131</v>
+        <v>5599.33724236627</v>
       </c>
       <c r="G72" t="n">
-        <v>10609.7086419089</v>
+        <v>10083.39859132055</v>
       </c>
       <c r="H72" t="n">
-        <v>0.84</v>
+        <v>1.25</v>
       </c>
       <c r="I72" t="n">
-        <v>128829</v>
+        <v>130371</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>48718712</v>
+        <v>49032052</v>
       </c>
       <c r="E73" t="n">
-        <v>282061212</v>
+        <v>283875319</v>
       </c>
       <c r="F73" t="n">
-        <v>113001.5217974014</v>
+        <v>108977.4610537767</v>
       </c>
       <c r="G73" t="n">
-        <v>163381.4251664274</v>
+        <v>207667.472988835</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>27301223</v>
+        <v>27983808</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39940041</v>
+        <v>39646469</v>
       </c>
       <c r="E74" t="n">
-        <v>55162885</v>
+        <v>54757420</v>
       </c>
       <c r="F74" t="n">
-        <v>4472.890037433716</v>
+        <v>717.8554569260167</v>
       </c>
       <c r="G74" t="n">
-        <v>10396.68541096286</v>
+        <v>504.3546220130918</v>
       </c>
       <c r="H74" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>332540</v>
+        <v>311244</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97768</v>
+        <v>97562</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>291.89</v>
+        <v>291.27</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13445963</v>
+        <v>13471634</v>
       </c>
       <c r="E76" t="n">
-        <v>13491721</v>
+        <v>13517479</v>
       </c>
       <c r="F76" t="n">
-        <v>1243.571414348091</v>
+        <v>4850.171026234311</v>
       </c>
       <c r="G76" t="n">
-        <v>7901.951017264473</v>
+        <v>3350.00313478781</v>
       </c>
       <c r="H76" t="n">
-        <v>0.66</v>
+        <v>1.31</v>
       </c>
       <c r="I76" t="n">
-        <v>5847890</v>
+        <v>5915741</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42678844</v>
+        <v>42692443</v>
       </c>
       <c r="E77" t="n">
-        <v>72458749</v>
+        <v>72481836</v>
       </c>
       <c r="F77" t="n">
-        <v>6240.332816226005</v>
+        <v>7712.726135049396</v>
       </c>
       <c r="G77" t="n">
-        <v>6171.84288756148</v>
+        <v>6135.502844738344</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I77" t="n">
-        <v>1120997</v>
+        <v>1102102</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22922832</v>
+        <v>22527339</v>
       </c>
       <c r="E78" t="n">
-        <v>68712109</v>
+        <v>67526603</v>
       </c>
       <c r="F78" t="n">
-        <v>136784.37157388</v>
+        <v>56015.92772005918</v>
       </c>
       <c r="G78" t="n">
-        <v>99457.734187889</v>
+        <v>92126.63003614216</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="I78" t="n">
-        <v>3092650</v>
+        <v>3263657</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101385749</v>
+        <v>101511806</v>
       </c>
       <c r="E79" t="n">
-        <v>107782214</v>
+        <v>107916224</v>
       </c>
       <c r="F79" t="n">
-        <v>2701.374940998328</v>
+        <v>2704.168499284871</v>
       </c>
       <c r="G79" t="n">
-        <v>4236.822912416883</v>
+        <v>3626.358183950742</v>
       </c>
       <c r="H79" t="n">
-        <v>0.49</v>
+        <v>0.82</v>
       </c>
       <c r="I79" t="n">
-        <v>382814</v>
+        <v>379230</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10384856</v>
+        <v>10391041</v>
       </c>
       <c r="E80" t="n">
-        <v>45153836</v>
+        <v>45145611</v>
       </c>
       <c r="F80" t="n">
-        <v>6714.439534582234</v>
+        <v>6703.596277699724</v>
       </c>
       <c r="G80" t="n">
-        <v>5219.43942108111</v>
+        <v>5216.382807600086</v>
       </c>
       <c r="H80" t="n">
         <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>114050</v>
+        <v>114837</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15616204</v>
+        <v>15665329</v>
       </c>
       <c r="E81" t="n">
-        <v>95716851</v>
+        <v>96017952</v>
       </c>
       <c r="F81" t="n">
-        <v>4102.212995409524</v>
+        <v>4000.172159077507</v>
       </c>
       <c r="G81" t="n">
-        <v>6167.010898397474</v>
+        <v>6365.654917278912</v>
       </c>
       <c r="H81" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>11000213</v>
+        <v>10885249</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1504790</v>
+        <v>1503473</v>
       </c>
       <c r="E82" t="n">
-        <v>1547119</v>
+        <v>1545764</v>
       </c>
       <c r="F82" t="n">
-        <v>4796.617982056036</v>
+        <v>5788.699844611335</v>
       </c>
       <c r="G82" t="n">
-        <v>5808.33753385013</v>
+        <v>5085.438683865457</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>150611</v>
+        <v>153088</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47370131</v>
+        <v>47252181</v>
       </c>
       <c r="E83" t="n">
-        <v>204065346</v>
+        <v>203557228</v>
       </c>
       <c r="F83" t="n">
-        <v>3402.642575158889</v>
+        <v>2924.432678597543</v>
       </c>
       <c r="G83" t="n">
-        <v>4335.517834736522</v>
+        <v>4816.181007213238</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>8977501</v>
+        <v>8909543</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1864647</v>
+        <v>1875433</v>
       </c>
       <c r="E84" t="n">
-        <v>6774212</v>
+        <v>6813277</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>129379</v>
+        <v>130023</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8993194</v>
+        <v>9039557</v>
       </c>
       <c r="E85" t="n">
-        <v>19969725</v>
+        <v>20072648</v>
       </c>
       <c r="F85" t="n">
-        <v>6220.524493076043</v>
+        <v>6021.173554813269</v>
       </c>
       <c r="G85" t="n">
-        <v>6193.453559860122</v>
+        <v>7437.964793121329</v>
       </c>
       <c r="H85" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="I85" t="n">
-        <v>344111</v>
+        <v>346762</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441560</v>
+        <v>2442234</v>
       </c>
       <c r="E86" t="n">
-        <v>18372190</v>
+        <v>18377262</v>
       </c>
       <c r="F86" t="n">
-        <v>5066.392223866088</v>
+        <v>5054.680514521228</v>
       </c>
       <c r="G86" t="n">
-        <v>12270.83707179881</v>
+        <v>12272.35366344692</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>165318</v>
+        <v>165081</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20623104</v>
+        <v>20986356</v>
       </c>
       <c r="E87" t="n">
-        <v>82492416</v>
+        <v>83945422</v>
       </c>
       <c r="F87" t="n">
-        <v>18913.61708001153</v>
+        <v>21306.85393127951</v>
       </c>
       <c r="G87" t="n">
-        <v>1270.761792803023</v>
+        <v>2641.922880280359</v>
       </c>
       <c r="H87" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="I87" t="n">
-        <v>4731509</v>
+        <v>4348719</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4203972</v>
+        <v>4214210</v>
       </c>
       <c r="E88" t="n">
-        <v>4203972</v>
+        <v>4214210</v>
       </c>
       <c r="F88" t="n">
-        <v>638.4582111829474</v>
+        <v>2466.993417442801</v>
       </c>
       <c r="G88" t="n">
-        <v>3713.133831425524</v>
+        <v>1113.056784162884</v>
       </c>
       <c r="H88" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I88" t="n">
-        <v>2688994</v>
+        <v>2688820</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12894996</v>
+        <v>12858923</v>
       </c>
       <c r="E89" t="n">
-        <v>40795104</v>
+        <v>40680984</v>
       </c>
       <c r="F89" t="n">
-        <v>13822.33014707746</v>
+        <v>12483.79232911147</v>
       </c>
       <c r="G89" t="n">
-        <v>15908.19737329286</v>
+        <v>16069.08142562801</v>
       </c>
       <c r="H89" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="I89" t="n">
-        <v>1290403</v>
+        <v>1208660</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25128</v>
+        <v>24910</v>
       </c>
       <c r="E90" t="n">
-        <v>197624</v>
+        <v>195913</v>
       </c>
       <c r="F90" t="n">
-        <v>374.3619210178592</v>
+        <v>2219.697442949971</v>
       </c>
       <c r="G90" t="n">
-        <v>234.3566545218381</v>
+        <v>251.4290056685056</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>97076</v>
+        <v>89933</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8132912</v>
+        <v>8278719</v>
       </c>
       <c r="E91" t="n">
-        <v>8132912</v>
+        <v>8278719</v>
       </c>
       <c r="F91" t="n">
-        <v>3561.054149918245</v>
+        <v>3667.260662328952</v>
       </c>
       <c r="G91" t="n">
-        <v>3738.440354941844</v>
+        <v>4521.971939784874</v>
       </c>
       <c r="H91" t="n">
         <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3548156</v>
+        <v>3601008</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9067131</v>
+        <v>9149094</v>
       </c>
       <c r="E92" t="n">
-        <v>9067131</v>
+        <v>9149094</v>
       </c>
       <c r="F92" t="n">
-        <v>4339.905308797665</v>
+        <v>6042.127233920023</v>
       </c>
       <c r="G92" t="n">
-        <v>5545.348421647695</v>
+        <v>3880.099978242309</v>
       </c>
       <c r="H92" t="n">
         <v>0.51</v>
       </c>
       <c r="I92" t="n">
-        <v>3138409</v>
+        <v>2967012</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>38147262</v>
+        <v>38263221</v>
       </c>
       <c r="E93" t="n">
-        <v>96189081</v>
+        <v>96481473</v>
       </c>
       <c r="F93" t="n">
-        <v>4405.913388597649</v>
+        <v>5577.358057864989</v>
       </c>
       <c r="G93" t="n">
-        <v>5340.44623955854</v>
+        <v>5191.954213476962</v>
       </c>
       <c r="H93" t="n">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
       <c r="I93" t="n">
-        <v>3449363</v>
+        <v>3413683</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>308078064</v>
+        <v>307558601</v>
       </c>
       <c r="E94" t="n">
-        <v>312891098</v>
+        <v>312363519</v>
       </c>
       <c r="F94" t="n">
-        <v>25658.92551023549</v>
+        <v>52123.48830617107</v>
       </c>
       <c r="G94" t="n">
-        <v>5909.804930988684</v>
+        <v>36656.37113418733</v>
       </c>
       <c r="H94" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I94" t="n">
-        <v>13291731</v>
+        <v>13281349</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1016.870492063362</v>
+        <v>1002.491740265722</v>
       </c>
       <c r="G95" t="n">
-        <v>6494.240698524563</v>
+        <v>6642.822669546616</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>213631</v>
+        <v>214688</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>86900044</v>
+        <v>85783134</v>
       </c>
       <c r="E96" t="n">
-        <v>86900044</v>
+        <v>85783134</v>
       </c>
       <c r="F96" t="n">
-        <v>7930.960138611544</v>
+        <v>7422.7953971529</v>
       </c>
       <c r="G96" t="n">
-        <v>7596.251980837478</v>
+        <v>7501.699471059217</v>
       </c>
       <c r="H96" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I96" t="n">
-        <v>5362681</v>
+        <v>5234406</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>315186046</v>
+        <v>314446700</v>
       </c>
       <c r="E97" t="n">
-        <v>315186046</v>
+        <v>314446700</v>
       </c>
       <c r="F97" t="n">
-        <v>250545.5693410958</v>
+        <v>344655.9629314473</v>
       </c>
       <c r="G97" t="n">
-        <v>433063.8651436102</v>
+        <v>402324.4400111875</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>51203632</v>
+        <v>51583531</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4179179</v>
+        <v>4280140</v>
       </c>
       <c r="E98" t="n">
-        <v>28556034</v>
+        <v>29245895</v>
       </c>
       <c r="F98" t="n">
-        <v>365.6530967251431</v>
+        <v>318.2269114002352</v>
       </c>
       <c r="G98" t="n">
-        <v>1179.96858635577</v>
+        <v>4516.478828978966</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="I98" t="n">
-        <v>2619918</v>
+        <v>2645802</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90117857</v>
+        <v>90611195</v>
       </c>
       <c r="E99" t="n">
-        <v>519297961</v>
+        <v>522140789</v>
       </c>
       <c r="F99" t="n">
-        <v>127948.5899060245</v>
+        <v>163006.5124786148</v>
       </c>
       <c r="G99" t="n">
-        <v>136094.6512640549</v>
+        <v>156735.4578584029</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>16441756</v>
+        <v>16574569</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108538683</v>
+        <v>108347803</v>
       </c>
       <c r="E100" t="n">
-        <v>267047566</v>
+        <v>266577927</v>
       </c>
       <c r="F100" t="n">
-        <v>23248.48483267923</v>
+        <v>27506.21622758943</v>
       </c>
       <c r="G100" t="n">
-        <v>52715.79691716939</v>
+        <v>57665.78137042587</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2138757</v>
+        <v>2276079</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248603880</v>
+        <v>248640498</v>
       </c>
       <c r="E101" t="n">
-        <v>248606350</v>
+        <v>248642968</v>
       </c>
       <c r="F101" t="n">
-        <v>5897.921959802386</v>
+        <v>7140.374419860354</v>
       </c>
       <c r="G101" t="n">
-        <v>15018.79979914336</v>
+        <v>8605.661395269321</v>
       </c>
       <c r="H101" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I101" t="n">
-        <v>2554629</v>
+        <v>2532334</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30405488</v>
+        <v>30988819</v>
       </c>
       <c r="E102" t="n">
-        <v>136137845</v>
+        <v>138749655</v>
       </c>
       <c r="F102" t="n">
-        <v>105703.6032268161</v>
+        <v>101023.3509980051</v>
       </c>
       <c r="G102" t="n">
-        <v>129360.6932082427</v>
+        <v>122185.618016038</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>8454004</v>
+        <v>8714862</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3065691</v>
+        <v>3085232</v>
       </c>
       <c r="E103" t="n">
-        <v>3065691</v>
+        <v>3085232</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>437792</v>
+        <v>425149</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5995774</v>
+        <v>5992081</v>
       </c>
       <c r="E104" t="n">
-        <v>15735924</v>
+        <v>15726233</v>
       </c>
       <c r="F104" t="n">
-        <v>8922.258841933717</v>
+        <v>938.7558923938687</v>
       </c>
       <c r="G104" t="n">
-        <v>2958.342913828151</v>
+        <v>192.9954448954175</v>
       </c>
       <c r="H104" t="n">
-        <v>1.15</v>
+        <v>2.47</v>
       </c>
       <c r="I104" t="n">
-        <v>21457</v>
+        <v>21330</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16689961</v>
+        <v>16491680</v>
       </c>
       <c r="E105" t="n">
-        <v>77038487</v>
+        <v>76123250</v>
       </c>
       <c r="F105" t="n">
-        <v>31834.11429315888</v>
+        <v>27113.3721020355</v>
       </c>
       <c r="G105" t="n">
-        <v>34034.22908177736</v>
+        <v>39596.02430708348</v>
       </c>
       <c r="H105" t="n">
         <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>908964</v>
+        <v>985294</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>49145389</v>
+        <v>49767198</v>
       </c>
       <c r="E106" t="n">
-        <v>318694769</v>
+        <v>322727035</v>
       </c>
       <c r="F106" t="n">
-        <v>73710.57571327861</v>
+        <v>75238.61854159781</v>
       </c>
       <c r="G106" t="n">
-        <v>119946.3444256847</v>
+        <v>107930.1431345132</v>
       </c>
       <c r="H106" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16593772</v>
+        <v>16655096</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2511939</v>
+        <v>2535080</v>
       </c>
       <c r="E107" t="n">
-        <v>4550851</v>
+        <v>4592774</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>129395</v>
+        <v>135858</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125323456</v>
+        <v>125287206</v>
       </c>
       <c r="E108" t="n">
-        <v>2075459080</v>
+        <v>2074858749</v>
       </c>
       <c r="F108" t="n">
-        <v>230485.596583097</v>
+        <v>231184.1829073119</v>
       </c>
       <c r="G108" t="n">
-        <v>135065.2320141381</v>
+        <v>117213.7735936171</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4851386</v>
+        <v>4914608</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24332418</v>
+        <v>24482770</v>
       </c>
       <c r="E109" t="n">
-        <v>145585749</v>
+        <v>146485337</v>
       </c>
       <c r="F109" t="n">
-        <v>41844.08111717931</v>
+        <v>42205.0860121752</v>
       </c>
       <c r="G109" t="n">
-        <v>41865.39492404019</v>
+        <v>40740.12982169661</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="I109" t="n">
-        <v>12003029</v>
+        <v>12261230</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1079947</v>
+        <v>1074896</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>73590</v>
+        <v>70728</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2258547</v>
+        <v>2253294</v>
       </c>
       <c r="F111" t="n">
-        <v>3635.592771665694</v>
+        <v>3894.019669957241</v>
       </c>
       <c r="G111" t="n">
-        <v>324.9327297757823</v>
+        <v>895.3440094852147</v>
       </c>
       <c r="H111" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I111" t="n">
-        <v>174799</v>
+        <v>175966</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142192372</v>
+        <v>142237356</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.421465690275</v>
+        <v>3468.326572161812</v>
       </c>
       <c r="G112" t="n">
-        <v>536.0299374794424</v>
+        <v>466.7166891170664</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>26321</v>
+        <v>26661</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6664749</v>
+        <v>6698527</v>
       </c>
       <c r="E113" t="n">
-        <v>34288108</v>
+        <v>34461883</v>
       </c>
       <c r="F113" t="n">
-        <v>310.6050438269468</v>
+        <v>372.6147795263476</v>
       </c>
       <c r="G113" t="n">
-        <v>929.9654861111674</v>
+        <v>520.045817551245</v>
       </c>
       <c r="H113" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>923218</v>
+        <v>917925</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29122774</v>
+        <v>29130660</v>
       </c>
       <c r="E114" t="n">
-        <v>39932415</v>
+        <v>39943228</v>
       </c>
       <c r="F114" t="n">
-        <v>4864.765378795658</v>
+        <v>5033.757722074988</v>
       </c>
       <c r="G114" t="n">
-        <v>4471.849826635013</v>
+        <v>4246.8287430242</v>
       </c>
       <c r="H114" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I114" t="n">
-        <v>209588</v>
+        <v>209617</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7997212</v>
+        <v>7997269</v>
       </c>
       <c r="F115" t="n">
-        <v>126.3335002086594</v>
+        <v>147.9129257892919</v>
       </c>
       <c r="G115" t="n">
-        <v>6864.885839715565</v>
+        <v>6809.001359009632</v>
       </c>
       <c r="H115" t="n">
         <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>669583</v>
+        <v>662146</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3358207</v>
+        <v>3402302</v>
       </c>
       <c r="E116" t="n">
-        <v>4498530</v>
+        <v>4557598</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149779</v>
+        <v>150825</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35030099</v>
+        <v>35110793</v>
       </c>
       <c r="E117" t="n">
-        <v>174816343</v>
+        <v>175219041</v>
       </c>
       <c r="F117" t="n">
-        <v>91347.93494849614</v>
+        <v>81982.69132682822</v>
       </c>
       <c r="G117" t="n">
-        <v>71084.25922276807</v>
+        <v>77260.43906375852</v>
       </c>
       <c r="H117" t="n">
         <v>0.11</v>
       </c>
       <c r="I117" t="n">
-        <v>10318689</v>
+        <v>10443475</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3492148</v>
+        <v>3498087</v>
       </c>
       <c r="E118" t="n">
-        <v>5016654</v>
+        <v>5025185</v>
       </c>
       <c r="F118" t="n">
-        <v>564.3141292341497</v>
+        <v>564.3153396325972</v>
       </c>
       <c r="G118" t="n">
-        <v>781.0350464174181</v>
+        <v>781.0367216609724</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>154670</v>
+        <v>151886</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>316524044</v>
+        <v>316197602</v>
       </c>
       <c r="E119" t="n">
-        <v>585641665</v>
+        <v>585037671</v>
       </c>
       <c r="F119" t="n">
-        <v>107905.1641457356</v>
+        <v>122911.4823613958</v>
       </c>
       <c r="G119" t="n">
-        <v>126408.0335609125</v>
+        <v>138202.9476842604</v>
       </c>
       <c r="H119" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I119" t="n">
-        <v>13363407</v>
+        <v>13447817</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71925891</v>
+        <v>72120142</v>
       </c>
       <c r="E120" t="n">
-        <v>686164524</v>
+        <v>688010620</v>
       </c>
       <c r="F120" t="n">
-        <v>3028.442802417996</v>
+        <v>3481.434754752771</v>
       </c>
       <c r="G120" t="n">
-        <v>43202.7905231722</v>
+        <v>42409.90262797323</v>
       </c>
       <c r="H120" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>21664442</v>
+        <v>21725940</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37877239</v>
+        <v>37840651</v>
       </c>
       <c r="E121" t="n">
-        <v>49522035</v>
+        <v>49474199</v>
       </c>
       <c r="F121" t="n">
-        <v>118.5419535637178</v>
+        <v>118.5422078245791</v>
       </c>
       <c r="G121" t="n">
-        <v>6482.49199367398</v>
+        <v>6464.966788785791</v>
       </c>
       <c r="H121" t="n">
         <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>351412</v>
+        <v>182366</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>10846315</v>
+        <v>11121163</v>
       </c>
       <c r="E122" t="n">
-        <v>32181735</v>
+        <v>32997228</v>
       </c>
       <c r="F122" t="n">
-        <v>2154.29257750434</v>
+        <v>674.83539389385</v>
       </c>
       <c r="G122" t="n">
-        <v>6713.121953958139</v>
+        <v>2677.528296687</v>
       </c>
       <c r="H122" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="I122" t="n">
-        <v>6604398</v>
+        <v>6784696</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2277206</v>
+        <v>2269982</v>
       </c>
       <c r="E123" t="n">
-        <v>7792257</v>
+        <v>7767537</v>
       </c>
       <c r="F123" t="n">
-        <v>645.4743153538755</v>
+        <v>789.0525203115149</v>
       </c>
       <c r="G123" t="n">
-        <v>1025.012016148152</v>
+        <v>1175.551729569329</v>
       </c>
       <c r="H123" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="I123" t="n">
-        <v>917818</v>
+        <v>921720</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7398887</v>
+        <v>7392391</v>
       </c>
       <c r="E124" t="n">
-        <v>7398898</v>
+        <v>7392402</v>
       </c>
       <c r="F124" t="n">
-        <v>267.9564712013852</v>
+        <v>318.1243223619444</v>
       </c>
       <c r="G124" t="n">
-        <v>1068.613521140726</v>
+        <v>940.3349359407753</v>
       </c>
       <c r="H124" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="I124" t="n">
-        <v>320740</v>
+        <v>320722</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6223588</v>
+        <v>6280040</v>
       </c>
       <c r="E125" t="n">
-        <v>6223588</v>
+        <v>6280040</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>479506</v>
+        <v>266457</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6221903</v>
+        <v>6229462</v>
       </c>
       <c r="E126" t="n">
-        <v>22726202</v>
+        <v>22753816</v>
       </c>
       <c r="F126" t="n">
-        <v>6333.230491109865</v>
+        <v>6283.912946619819</v>
       </c>
       <c r="G126" t="n">
-        <v>3285.807270235409</v>
+        <v>8340.481869517014</v>
       </c>
       <c r="H126" t="n">
         <v>0.44</v>
       </c>
       <c r="I126" t="n">
-        <v>508277</v>
+        <v>502556</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44608949</v>
+        <v>44744016</v>
       </c>
       <c r="E127" t="n">
-        <v>44608949</v>
+        <v>44744016</v>
       </c>
       <c r="F127" t="n">
-        <v>59380.31495169214</v>
+        <v>52334.67529481508</v>
       </c>
       <c r="G127" t="n">
-        <v>96367.99795395709</v>
+        <v>87030.31344761197</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I127" t="n">
-        <v>7583817</v>
+        <v>7657404</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>149987720</v>
+        <v>149839306</v>
       </c>
       <c r="F128" t="n">
-        <v>701.3746406024034</v>
+        <v>113.7969752351994</v>
       </c>
       <c r="G128" t="n">
-        <v>7.435018969080171</v>
+        <v>25.35621202862315</v>
       </c>
       <c r="H128" t="n">
-        <v>0.46</v>
+        <v>2.54</v>
       </c>
       <c r="I128" t="n">
-        <v>1707005</v>
+        <v>1699666</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3023865</v>
+        <v>3023719</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>71400</v>
+        <v>71996</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20322947</v>
+        <v>20245108</v>
       </c>
       <c r="F130" t="n">
-        <v>455.0722049621941</v>
+        <v>746.89480805204</v>
       </c>
       <c r="G130" t="n">
-        <v>491.6993925188898</v>
+        <v>636.364018942128</v>
       </c>
       <c r="H130" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="I130" t="n">
-        <v>2971138</v>
+        <v>2979264</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1263072</v>
+        <v>1260569</v>
       </c>
       <c r="E131" t="n">
-        <v>3817919</v>
+        <v>3810239</v>
       </c>
       <c r="F131" t="n">
-        <v>694.8678497876039</v>
+        <v>634.9681985610624</v>
       </c>
       <c r="G131" t="n">
-        <v>802.0648375852724</v>
+        <v>802.0665579356656</v>
       </c>
       <c r="H131" t="n">
         <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>12417.21</v>
+        <v>12493.13</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>605646057</v>
+        <v>607623205</v>
       </c>
       <c r="E132" t="n">
-        <v>2345577822</v>
+        <v>2353235026</v>
       </c>
       <c r="F132" t="n">
-        <v>678190.6037178873</v>
+        <v>748116.623878655</v>
       </c>
       <c r="G132" t="n">
-        <v>1187783.329005946</v>
+        <v>1022221.841787012</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32862450</v>
+        <v>32651319</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3713308</v>
+        <v>3708717</v>
       </c>
       <c r="E133" t="n">
-        <v>6329838</v>
+        <v>6322011</v>
       </c>
       <c r="F133" t="n">
-        <v>5240.616631806658</v>
+        <v>5240.627872415223</v>
       </c>
       <c r="G133" t="n">
-        <v>5274.809794099006</v>
+        <v>5587.625248976764</v>
       </c>
       <c r="H133" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="I133" t="n">
-        <v>1211066</v>
+        <v>1284963</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>122631525</v>
+        <v>122242362</v>
       </c>
       <c r="E134" t="n">
-        <v>1066205735</v>
+        <v>1062822207</v>
       </c>
       <c r="F134" t="n">
-        <v>97391.02904874505</v>
+        <v>101481.4633570552</v>
       </c>
       <c r="G134" t="n">
-        <v>99274.46852052389</v>
+        <v>138251.948819732</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>9017385</v>
+        <v>9326606</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>969404116</v>
+        <v>973900903</v>
       </c>
       <c r="E135" t="n">
-        <v>1064893078</v>
+        <v>1069832811</v>
       </c>
       <c r="F135" t="n">
-        <v>12036.06326308103</v>
+        <v>11256.51706381306</v>
       </c>
       <c r="G135" t="n">
-        <v>19880.1381658706</v>
+        <v>15286.13669014183</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="I135" t="n">
-        <v>10218871</v>
+        <v>10260522</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1102032</v>
+        <v>1116678</v>
       </c>
       <c r="E136" t="n">
-        <v>4267309</v>
+        <v>4324022</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>369439</v>
+        <v>373070</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>117790633</v>
+        <v>120027076</v>
       </c>
       <c r="E137" t="n">
-        <v>451863828</v>
+        <v>460443184</v>
       </c>
       <c r="F137" t="n">
-        <v>116247.4153122132</v>
+        <v>156104.2105799494</v>
       </c>
       <c r="G137" t="n">
-        <v>212270.9242499733</v>
+        <v>233027.0605226461</v>
       </c>
       <c r="H137" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>30970086</v>
+        <v>31270095</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3178259</v>
+        <v>3185421</v>
       </c>
       <c r="E138" t="n">
-        <v>30114471</v>
+        <v>30182334</v>
       </c>
       <c r="F138" t="n">
-        <v>5735.907119616053</v>
+        <v>4610.603467807376</v>
       </c>
       <c r="G138" t="n">
-        <v>4355.154777347412</v>
+        <v>4598.687039133043</v>
       </c>
       <c r="H138" t="n">
         <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>216834</v>
+        <v>216775</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23289401</v>
+        <v>22167957</v>
       </c>
       <c r="E139" t="n">
-        <v>23289401</v>
+        <v>22167957</v>
       </c>
       <c r="F139" t="n">
-        <v>6362.243719131852</v>
+        <v>1187.217662944037</v>
       </c>
       <c r="G139" t="n">
-        <v>560.7991613686956</v>
+        <v>800.7694028605133</v>
       </c>
       <c r="H139" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="I139" t="n">
-        <v>638124</v>
+        <v>641321</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494595121</v>
+        <v>495064483</v>
       </c>
       <c r="E140" t="n">
-        <v>494595121</v>
+        <v>495064483</v>
       </c>
       <c r="F140" t="n">
-        <v>962258.7378128485</v>
+        <v>949599.3217394295</v>
       </c>
       <c r="G140" t="n">
-        <v>1011043.162752715</v>
+        <v>1006886.975201356</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33070561</v>
+        <v>32697627</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31975405</v>
+        <v>31845451</v>
       </c>
       <c r="F141" t="n">
-        <v>47979.56665262135</v>
+        <v>52565.31462437151</v>
       </c>
       <c r="G141" t="n">
-        <v>60754.24915006445</v>
+        <v>94398.16494706497</v>
       </c>
       <c r="H141" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>4831702</v>
+        <v>5508049</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>751418</v>
+        <v>799221</v>
       </c>
       <c r="E142" t="n">
-        <v>11984848</v>
+        <v>12747293</v>
       </c>
       <c r="F142" t="n">
-        <v>463.6197398601873</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>46.42160663854787</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>1.16</v>
+        <v>5.05</v>
       </c>
       <c r="I142" t="n">
-        <v>64234</v>
+        <v>115001</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2625694954</v>
+        <v>2632712190</v>
       </c>
       <c r="E143" t="n">
-        <v>2787804828</v>
+        <v>2795255307</v>
       </c>
       <c r="F143" t="n">
-        <v>3194.328803782551</v>
+        <v>3419.20696439384</v>
       </c>
       <c r="G143" t="n">
-        <v>22498.16988306557</v>
+        <v>22660.25439153694</v>
       </c>
       <c r="H143" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I143" t="n">
-        <v>35914551</v>
+        <v>35388232</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1729929</v>
+        <v>1703781</v>
       </c>
       <c r="E144" t="n">
-        <v>1736035</v>
+        <v>1709795</v>
       </c>
       <c r="F144" t="n">
-        <v>250.1258263697754</v>
+        <v>643.8046866315181</v>
       </c>
       <c r="G144" t="n">
-        <v>51.35744867829489</v>
+        <v>765.3926601782645</v>
       </c>
       <c r="H144" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I144" t="n">
-        <v>433643</v>
+        <v>426007</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61019820</v>
+        <v>60945371</v>
       </c>
       <c r="E145" t="n">
-        <v>149677483</v>
+        <v>149494865</v>
       </c>
       <c r="F145" t="n">
-        <v>3414.366214632635</v>
+        <v>3329.91825939004</v>
       </c>
       <c r="G145" t="n">
-        <v>5257.745195131739</v>
+        <v>4428.635206792962</v>
       </c>
       <c r="H145" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22424253</v>
+        <v>22476633</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>726089755</v>
+        <v>728897004</v>
       </c>
       <c r="E146" t="n">
-        <v>1119694510</v>
+        <v>1124023536</v>
       </c>
       <c r="F146" t="n">
-        <v>147830.7833838763</v>
+        <v>147787.5025614069</v>
       </c>
       <c r="G146" t="n">
-        <v>154421.8689122049</v>
+        <v>163793.3711823231</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>206000455</v>
+        <v>215543373</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22864221</v>
+        <v>23065037</v>
       </c>
       <c r="E147" t="n">
-        <v>22864221</v>
+        <v>23065037</v>
       </c>
       <c r="F147" t="n">
-        <v>4106.57117860681</v>
+        <v>4518.017127207695</v>
       </c>
       <c r="G147" t="n">
-        <v>7457.376729415525</v>
+        <v>7693.315872583654</v>
       </c>
       <c r="H147" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I147" t="n">
-        <v>5692662</v>
+        <v>5624506</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3824935</v>
+        <v>3820554</v>
       </c>
       <c r="E148" t="n">
-        <v>8345959</v>
+        <v>8336400</v>
       </c>
       <c r="F148" t="n">
-        <v>5676.4260483182</v>
+        <v>5651.448421847675</v>
       </c>
       <c r="G148" t="n">
-        <v>5680.584994044401</v>
+        <v>5625.713290441424</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1391114</v>
+        <v>1490114</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9357231</v>
+        <v>9351747</v>
       </c>
       <c r="E149" t="n">
-        <v>9357231</v>
+        <v>9351747</v>
       </c>
       <c r="F149" t="n">
-        <v>366442.8899172793</v>
+        <v>369017.6965329496</v>
       </c>
       <c r="G149" t="n">
-        <v>684306.6900791343</v>
+        <v>681594.8159169127</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I149" t="n">
-        <v>2892041</v>
+        <v>2869383</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>492177804</v>
+        <v>494880538</v>
       </c>
       <c r="E150" t="n">
-        <v>1713229974</v>
+        <v>1722637967</v>
       </c>
       <c r="F150" t="n">
-        <v>776285.0802024294</v>
+        <v>748207.3753198883</v>
       </c>
       <c r="G150" t="n">
-        <v>894288.9800094332</v>
+        <v>702966.8302738691</v>
       </c>
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>29138850</v>
+        <v>30012711</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48454928</v>
+        <v>48589970</v>
       </c>
       <c r="E151" t="n">
-        <v>119587251</v>
+        <v>119920541</v>
       </c>
       <c r="F151" t="n">
-        <v>8274.06331244116</v>
+        <v>8091.037755536655</v>
       </c>
       <c r="G151" t="n">
-        <v>5373.994160496633</v>
+        <v>10412.43565669437</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>21760</v>
+        <v>24174</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7649128</v>
+        <v>7517006</v>
       </c>
       <c r="E152" t="n">
-        <v>19871613</v>
+        <v>19528374</v>
       </c>
       <c r="F152" t="n">
-        <v>6939.308402770087</v>
+        <v>6258.94566941375</v>
       </c>
       <c r="G152" t="n">
-        <v>6909.494216548179</v>
+        <v>6880.661199758098</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>711673</v>
+        <v>715231</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19207718909</v>
+        <v>19196023159</v>
       </c>
       <c r="F153" t="n">
-        <v>52450.10382030744</v>
+        <v>52415.91327351669</v>
       </c>
       <c r="G153" t="n">
-        <v>49999.54370443569</v>
+        <v>49962.55192641513</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>47776461</v>
+        <v>47536668</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2626774</v>
+        <v>2638051</v>
       </c>
       <c r="E154" t="n">
-        <v>10507095</v>
+        <v>10552204</v>
       </c>
       <c r="F154" t="n">
-        <v>4539.746131132857</v>
+        <v>19106.18034774478</v>
       </c>
       <c r="G154" t="n">
-        <v>22144.25367570946</v>
+        <v>15380.16651624651</v>
       </c>
       <c r="H154" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I154" t="n">
-        <v>6897872</v>
+        <v>6922194</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>218221197</v>
+        <v>219916266</v>
       </c>
       <c r="E155" t="n">
-        <v>670948058</v>
+        <v>676159759</v>
       </c>
       <c r="F155" t="n">
-        <v>138298.8708694775</v>
+        <v>109856.3599259355</v>
       </c>
       <c r="G155" t="n">
-        <v>190349.1887874771</v>
+        <v>203400.1389877686</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>12054147</v>
+        <v>12423316</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>400354251</v>
+        <v>401294558</v>
       </c>
       <c r="E156" t="n">
-        <v>2287738575</v>
+        <v>2293111759</v>
       </c>
       <c r="F156" t="n">
-        <v>159587.8925403345</v>
+        <v>179538.2907819809</v>
       </c>
       <c r="G156" t="n">
-        <v>287150.1878966012</v>
+        <v>267586.943576424</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>38222637</v>
+        <v>37770268</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3966710</v>
+        <v>3991193</v>
       </c>
       <c r="F2" t="n">
-        <v>1970.536859398052</v>
+        <v>1391.792921866858</v>
       </c>
       <c r="G2" t="n">
-        <v>946.4673098140117</v>
+        <v>979.9992251406113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>1.64</v>
       </c>
       <c r="I2" t="n">
-        <v>130139</v>
+        <v>135915</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>605320776</v>
+        <v>606895371</v>
       </c>
       <c r="E3" t="n">
-        <v>1174606270</v>
+        <v>1177647161</v>
       </c>
       <c r="F3" t="n">
-        <v>79905.61215202429</v>
+        <v>81840.71101018939</v>
       </c>
       <c r="G3" t="n">
-        <v>78266.28656991303</v>
+        <v>74777.74720417507</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>19596258</v>
+        <v>19425241</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246219076</v>
+        <v>246482975</v>
       </c>
       <c r="E4" t="n">
-        <v>1544005219</v>
+        <v>1545660090</v>
       </c>
       <c r="F4" t="n">
-        <v>233362.5990668038</v>
+        <v>264799.1492663607</v>
       </c>
       <c r="G4" t="n">
-        <v>259935.9768327111</v>
+        <v>245095.332287302</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>16515218</v>
+        <v>16838270</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144577430</v>
+        <v>145993851</v>
       </c>
       <c r="E5" t="n">
-        <v>160214387</v>
+        <v>161784003</v>
       </c>
       <c r="F5" t="n">
-        <v>8579.491298781679</v>
+        <v>9050.908139038254</v>
       </c>
       <c r="G5" t="n">
-        <v>485.2909160858309</v>
+        <v>248.9259650252676</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I5" t="n">
-        <v>36756406</v>
+        <v>37081183</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49394600</v>
+        <v>49057909</v>
       </c>
       <c r="E6" t="n">
-        <v>61791378</v>
+        <v>61370186</v>
       </c>
       <c r="F6" t="n">
-        <v>6228.644489129653</v>
+        <v>6133.006367741217</v>
       </c>
       <c r="G6" t="n">
-        <v>6935.015285296852</v>
+        <v>5830.411871999617</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I6" t="n">
-        <v>607308</v>
+        <v>587866</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69172694</v>
+        <v>69089942</v>
       </c>
       <c r="E7" t="n">
-        <v>137768596</v>
+        <v>137603781</v>
       </c>
       <c r="F7" t="n">
-        <v>9789.676323907615</v>
+        <v>9918.134340979985</v>
       </c>
       <c r="G7" t="n">
-        <v>12103.56708805558</v>
+        <v>13085.92371855472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1034541</v>
+        <v>993402</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40555165</v>
+        <v>40764831</v>
       </c>
       <c r="E8" t="n">
-        <v>45387071</v>
+        <v>45621717</v>
       </c>
       <c r="F8" t="n">
-        <v>7805.705039225504</v>
+        <v>7773.439935345888</v>
       </c>
       <c r="G8" t="n">
-        <v>6865.230451903373</v>
+        <v>6603.309237167123</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3770961</v>
+        <v>3809685</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14183832</v>
+        <v>14127937</v>
       </c>
       <c r="E9" t="n">
-        <v>41798837</v>
+        <v>41634119</v>
       </c>
       <c r="F9" t="n">
-        <v>5958.383743976019</v>
+        <v>5188.588997946189</v>
       </c>
       <c r="G9" t="n">
-        <v>4439.620639974094</v>
+        <v>4758.348515611606</v>
       </c>
       <c r="H9" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>881274</v>
+        <v>884254</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10480903</v>
+        <v>10922251</v>
       </c>
       <c r="E10" t="n">
-        <v>45049464</v>
+        <v>46946486</v>
       </c>
       <c r="F10" t="n">
-        <v>115.3793522124196</v>
+        <v>5561.047032131608</v>
       </c>
       <c r="G10" t="n">
-        <v>403.2935050543729</v>
+        <v>1883.124481335219</v>
       </c>
       <c r="H10" t="n">
-        <v>2.54</v>
+        <v>0.51</v>
       </c>
       <c r="I10" t="n">
-        <v>909130</v>
+        <v>875336</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>584651479</v>
+        <v>585859208</v>
       </c>
       <c r="E11" t="n">
-        <v>731312106</v>
+        <v>732822795</v>
       </c>
       <c r="F11" t="n">
-        <v>353434.3146512916</v>
+        <v>344066.7832328607</v>
       </c>
       <c r="G11" t="n">
-        <v>293973.3031820499</v>
+        <v>310552.6688776878</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>55055834</v>
+        <v>54922396</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4549791</v>
+        <v>4543276</v>
       </c>
       <c r="E12" t="n">
-        <v>27946116</v>
+        <v>27906099</v>
       </c>
       <c r="F12" t="n">
-        <v>179.8138581825389</v>
+        <v>193.8366263765732</v>
       </c>
       <c r="G12" t="n">
-        <v>287.1989327013323</v>
+        <v>312.330402042789</v>
       </c>
       <c r="H12" t="n">
         <v>0.36</v>
       </c>
       <c r="I12" t="n">
-        <v>642390</v>
+        <v>647425</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23197772</v>
+        <v>23233605</v>
       </c>
       <c r="E13" t="n">
-        <v>23241045</v>
+        <v>23276743</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>852194</v>
+        <v>859184</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81603344</v>
+        <v>82007444</v>
       </c>
       <c r="E14" t="n">
-        <v>240087160</v>
+        <v>241276070</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>358503</v>
+        <v>332240</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>475341052</v>
+        <v>473357710</v>
       </c>
       <c r="E15" t="n">
-        <v>475341055</v>
+        <v>473357713</v>
       </c>
       <c r="F15" t="n">
-        <v>19188.85805900714</v>
+        <v>18854.76973960633</v>
       </c>
       <c r="G15" t="n">
-        <v>26201.98133199205</v>
+        <v>22611.91393299591</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>72212343</v>
+        <v>70494209</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4703552</v>
+        <v>4736972</v>
       </c>
       <c r="E16" t="n">
-        <v>4703552</v>
+        <v>4736972</v>
       </c>
       <c r="F16" t="n">
-        <v>279.4696511778594</v>
+        <v>5171.219430109577</v>
       </c>
       <c r="G16" t="n">
-        <v>7727.503538972267</v>
+        <v>1537.280250336969</v>
       </c>
       <c r="H16" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I16" t="n">
-        <v>1932395</v>
+        <v>2022244</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3416844</v>
+        <v>3417037</v>
       </c>
       <c r="E17" t="n">
-        <v>3416844</v>
+        <v>3417037</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>216893</v>
+        <v>516166</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168737314</v>
+        <v>168677645</v>
       </c>
       <c r="E18" t="n">
-        <v>208903821</v>
+        <v>208829948</v>
       </c>
       <c r="F18" t="n">
-        <v>9297.281538615505</v>
+        <v>10901.35744755056</v>
       </c>
       <c r="G18" t="n">
-        <v>7067.913991280716</v>
+        <v>7801.345630964765</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="I18" t="n">
-        <v>448740</v>
+        <v>449121</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6996079</v>
+        <v>6950676</v>
       </c>
       <c r="E19" t="n">
-        <v>9635388</v>
+        <v>9572857</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>497658</v>
+        <v>459110</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>941613</v>
+        <v>930092</v>
       </c>
       <c r="E20" t="n">
-        <v>6591292</v>
+        <v>6510643</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>221320</v>
+        <v>223475</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112564520</v>
+        <v>114176496</v>
       </c>
       <c r="E21" t="n">
-        <v>437961685</v>
+        <v>444204107</v>
       </c>
       <c r="F21" t="n">
-        <v>42372.12333866815</v>
+        <v>40643.03952508671</v>
       </c>
       <c r="G21" t="n">
-        <v>80961.17802002502</v>
+        <v>73893.33255545849</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>8712254</v>
+        <v>9091016</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1674240</v>
+        <v>1675544</v>
       </c>
       <c r="E22" t="n">
-        <v>12059407</v>
+        <v>12068798</v>
       </c>
       <c r="F22" t="n">
-        <v>402.4085025960517</v>
+        <v>396.0648530639199</v>
       </c>
       <c r="G22" t="n">
-        <v>6.877773169382765</v>
+        <v>21.59544261917089</v>
       </c>
       <c r="H22" t="n">
-        <v>3.11</v>
+        <v>2.83</v>
       </c>
       <c r="I22" t="n">
-        <v>67532</v>
+        <v>66437</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138929127</v>
+        <v>138422137</v>
       </c>
       <c r="E23" t="n">
-        <v>138929127</v>
+        <v>138422137</v>
       </c>
       <c r="F23" t="n">
-        <v>1086655.931675539</v>
+        <v>1004000.606688913</v>
       </c>
       <c r="G23" t="n">
-        <v>1113730.526985932</v>
+        <v>1313550.438123254</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>65970115</v>
+        <v>64076711</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65663393</v>
+        <v>66352121</v>
       </c>
       <c r="E24" t="n">
-        <v>336735346</v>
+        <v>340267290</v>
       </c>
       <c r="F24" t="n">
-        <v>84272.06634322165</v>
+        <v>78794.67817689775</v>
       </c>
       <c r="G24" t="n">
-        <v>147767.7430722069</v>
+        <v>127838.6662435081</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>21539682</v>
+        <v>21672115</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>255380283</v>
+        <v>257430124</v>
       </c>
       <c r="E25" t="n">
-        <v>255380283</v>
+        <v>257430124</v>
       </c>
       <c r="F25" t="n">
-        <v>389883.328433503</v>
+        <v>358568.0169458351</v>
       </c>
       <c r="G25" t="n">
-        <v>473937.1717972083</v>
+        <v>516130.5511767152</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14635181</v>
+        <v>14450350</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1124055</v>
+        <v>1118220</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>180977</v>
+        <v>176964</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3968484</v>
+        <v>3994570</v>
       </c>
       <c r="E28" t="n">
-        <v>3969498</v>
+        <v>3995629</v>
       </c>
       <c r="F28" t="n">
-        <v>884.9669947351678</v>
+        <v>2431.241759268884</v>
       </c>
       <c r="G28" t="n">
-        <v>2817.075574425832</v>
+        <v>2924.935357804832</v>
       </c>
       <c r="H28" t="n">
-        <v>0.86</v>
+        <v>0.31</v>
       </c>
       <c r="I28" t="n">
-        <v>277252</v>
+        <v>274686</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6842304</v>
+        <v>6840093</v>
       </c>
       <c r="E29" t="n">
-        <v>16619431</v>
+        <v>16614058</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>485320</v>
+        <v>484309</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99587551</v>
+        <v>99551204</v>
       </c>
       <c r="E30" t="n">
-        <v>124174003</v>
+        <v>124128681</v>
       </c>
       <c r="F30" t="n">
-        <v>123923.8241466632</v>
+        <v>118417.8156640338</v>
       </c>
       <c r="G30" t="n">
-        <v>116052.751984004</v>
+        <v>106092.9541567721</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10159060</v>
+        <v>10191718</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1128857</v>
+        <v>1128920</v>
       </c>
       <c r="E31" t="n">
-        <v>12267993</v>
+        <v>12268685</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31144</v>
+        <v>31154</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>78922849</v>
+        <v>81113169</v>
       </c>
       <c r="E32" t="n">
-        <v>220839491</v>
+        <v>226978213</v>
       </c>
       <c r="F32" t="n">
-        <v>54255.66688557158</v>
+        <v>53816.29831084981</v>
       </c>
       <c r="G32" t="n">
-        <v>74484.8247966549</v>
+        <v>65195.63758056196</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>34557226</v>
+        <v>40201300</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4135828</v>
+        <v>4110567</v>
       </c>
       <c r="E33" t="n">
-        <v>8156201</v>
+        <v>8106383</v>
       </c>
       <c r="F33" t="n">
-        <v>8731.31503437531</v>
+        <v>9265.726489488063</v>
       </c>
       <c r="G33" t="n">
-        <v>10178.99138363421</v>
+        <v>7660.131705909394</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I33" t="n">
-        <v>1625533</v>
+        <v>1652495</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36261009</v>
+        <v>37214943</v>
       </c>
       <c r="F34" t="n">
-        <v>490.1512796197151</v>
+        <v>653.5069678982408</v>
       </c>
       <c r="G34" t="n">
-        <v>381.9584358878279</v>
+        <v>114.7900085804327</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>78335</v>
+        <v>76815</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7637894</v>
+        <v>7646119</v>
       </c>
       <c r="E35" t="n">
-        <v>17988759</v>
+        <v>18008130</v>
       </c>
       <c r="F35" t="n">
-        <v>3431.645940759059</v>
+        <v>3428.847143936388</v>
       </c>
       <c r="G35" t="n">
-        <v>2673.748803601218</v>
+        <v>2683.535541582231</v>
       </c>
       <c r="H35" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>29787</v>
+        <v>21534</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23009472</v>
+        <v>23023955</v>
       </c>
       <c r="F36" t="n">
-        <v>121.3878808983411</v>
+        <v>5105.373423786756</v>
       </c>
       <c r="G36" t="n">
-        <v>5557.831336298753</v>
+        <v>5250.625901040167</v>
       </c>
       <c r="H36" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="I36" t="n">
-        <v>126299</v>
+        <v>127263</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75825932</v>
+        <v>76673664</v>
       </c>
       <c r="E37" t="n">
-        <v>158135575</v>
+        <v>159903527</v>
       </c>
       <c r="F37" t="n">
-        <v>68237.51568984137</v>
+        <v>78866.05214720729</v>
       </c>
       <c r="G37" t="n">
-        <v>117132.5576457408</v>
+        <v>117763.1770621032</v>
       </c>
       <c r="H37" t="n">
         <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>16174370</v>
+        <v>16553173</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>272546381</v>
+        <v>273238945</v>
       </c>
       <c r="E38" t="n">
-        <v>272546381</v>
+        <v>273238945</v>
       </c>
       <c r="F38" t="n">
-        <v>38208.30389343148</v>
+        <v>31039.87801571392</v>
       </c>
       <c r="G38" t="n">
-        <v>25059.15256651995</v>
+        <v>27664.16691405156</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>9607150</v>
+        <v>9675871</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>202480113</v>
+        <v>205325307</v>
       </c>
       <c r="E39" t="n">
-        <v>703434211</v>
+        <v>713318674</v>
       </c>
       <c r="F39" t="n">
-        <v>120654.6108231594</v>
+        <v>174668.981100177</v>
       </c>
       <c r="G39" t="n">
-        <v>390418.3991228002</v>
+        <v>344683.1645703712</v>
       </c>
       <c r="H39" t="n">
         <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>28177283</v>
+        <v>27961596</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3517334</v>
+        <v>3702888</v>
       </c>
       <c r="E40" t="n">
-        <v>3517334</v>
+        <v>3702888</v>
       </c>
       <c r="F40" t="n">
-        <v>810.543993765942</v>
+        <v>486.7258166847823</v>
       </c>
       <c r="G40" t="n">
-        <v>2120.516711906128</v>
+        <v>2215.568602159319</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.67</v>
       </c>
       <c r="I40" t="n">
-        <v>2638635</v>
+        <v>2643060</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116158807</v>
+        <v>116253864</v>
       </c>
       <c r="E41" t="n">
-        <v>493548830</v>
+        <v>493892302</v>
       </c>
       <c r="F41" t="n">
-        <v>5534.720946341858</v>
+        <v>4863.42784688866</v>
       </c>
       <c r="G41" t="n">
-        <v>6471.361176030193</v>
+        <v>6470.783978360725</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I41" t="n">
-        <v>14967474</v>
+        <v>15212691</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>561338</v>
+        <v>562466</v>
       </c>
       <c r="E42" t="n">
-        <v>6808487</v>
+        <v>6822160</v>
       </c>
       <c r="F42" t="n">
-        <v>317.3750724736443</v>
+        <v>607.4330574486123</v>
       </c>
       <c r="G42" t="n">
-        <v>797.2114053689445</v>
+        <v>654.3622739718219</v>
       </c>
       <c r="H42" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2876845</v>
+        <v>2844027</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1297658847</v>
+        <v>1300505596</v>
       </c>
       <c r="E43" t="n">
-        <v>6222539925</v>
+        <v>6236190672</v>
       </c>
       <c r="F43" t="n">
-        <v>78081.27786648853</v>
+        <v>79336.66095433979</v>
       </c>
       <c r="G43" t="n">
-        <v>103334.3915147747</v>
+        <v>102662.6510091139</v>
       </c>
       <c r="H43" t="n">
         <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>165495745</v>
+        <v>165495519</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6051840753</v>
+        <v>6051343284</v>
       </c>
       <c r="E44" t="n">
-        <v>6051840753</v>
+        <v>6051343284</v>
       </c>
       <c r="F44" t="n">
-        <v>814131.4481926942</v>
+        <v>4143125.440540426</v>
       </c>
       <c r="G44" t="n">
-        <v>1859856.627711714</v>
+        <v>3686731.076299942</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>97393487</v>
+        <v>98137497</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>271354014</v>
+        <v>272567192</v>
       </c>
       <c r="E45" t="n">
-        <v>1171314563</v>
+        <v>1176551315</v>
       </c>
       <c r="F45" t="n">
-        <v>114979.8918162251</v>
+        <v>102004.6455329692</v>
       </c>
       <c r="G45" t="n">
-        <v>79654.49125998026</v>
+        <v>95310.22843202774</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>98433764</v>
+        <v>97276852</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114496103</v>
+        <v>114785948</v>
       </c>
       <c r="E46" t="n">
-        <v>114496103</v>
+        <v>114785948</v>
       </c>
       <c r="F46" t="n">
-        <v>29078.31541364459</v>
+        <v>32351.84842099249</v>
       </c>
       <c r="G46" t="n">
-        <v>45233.47247699417</v>
+        <v>39263.48552266777</v>
       </c>
       <c r="H46" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>6211146</v>
+        <v>6123445</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045021636</v>
+        <v>2043346370</v>
       </c>
       <c r="E47" t="n">
-        <v>2045021636</v>
+        <v>2043346370</v>
       </c>
       <c r="F47" t="n">
-        <v>225704.4581020149</v>
+        <v>174956.3149481718</v>
       </c>
       <c r="G47" t="n">
-        <v>199218.9021712137</v>
+        <v>148367.0666926672</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6574870040</v>
+        <v>6675836760</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9883950</v>
+        <v>9859345</v>
       </c>
       <c r="F48" t="n">
-        <v>7330.479742662744</v>
+        <v>6894.201399039793</v>
       </c>
       <c r="G48" t="n">
-        <v>6126.654614021326</v>
+        <v>5992.918309467235</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>141082</v>
+        <v>136997</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4492656</v>
+        <v>4471405</v>
       </c>
       <c r="E49" t="n">
-        <v>5898271</v>
+        <v>5870371</v>
       </c>
       <c r="F49" t="n">
-        <v>5910.199968041057</v>
+        <v>12523.05100466057</v>
       </c>
       <c r="G49" t="n">
-        <v>16178.27504303198</v>
+        <v>18740.18491534235</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>602081</v>
+        <v>596589</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12148009</v>
+        <v>12360059</v>
       </c>
       <c r="E50" t="n">
-        <v>17863418</v>
+        <v>18175234</v>
       </c>
       <c r="F50" t="n">
-        <v>6748.644690800565</v>
+        <v>6781.579795236044</v>
       </c>
       <c r="G50" t="n">
-        <v>6657.502194141032</v>
+        <v>6684.056518797413</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>825084</v>
+        <v>2353336</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22607985</v>
+        <v>22672506</v>
       </c>
       <c r="E51" t="n">
-        <v>29327728</v>
+        <v>29411427</v>
       </c>
       <c r="F51" t="n">
-        <v>14018.40170093681</v>
+        <v>13438.63642299116</v>
       </c>
       <c r="G51" t="n">
-        <v>11798.45953687378</v>
+        <v>12004.10019374391</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>163272</v>
+        <v>137635</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13518700</v>
+        <v>13824180</v>
       </c>
       <c r="E52" t="n">
-        <v>13518700</v>
+        <v>13824180</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4591635</v>
+        <v>4876653</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99534323</v>
+        <v>99209270</v>
       </c>
       <c r="E53" t="n">
-        <v>123120395</v>
+        <v>122718316</v>
       </c>
       <c r="F53" t="n">
-        <v>560.7466695901086</v>
+        <v>530.9370595852091</v>
       </c>
       <c r="G53" t="n">
-        <v>936.0864563353873</v>
+        <v>943.0851407055461</v>
       </c>
       <c r="H53" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>840932</v>
+        <v>825891</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5198500</v>
+        <v>5187559</v>
       </c>
       <c r="E54" t="n">
-        <v>7273455</v>
+        <v>7258147</v>
       </c>
       <c r="F54" t="n">
-        <v>334.6903286106683</v>
+        <v>606.1037093701739</v>
       </c>
       <c r="G54" t="n">
-        <v>354.4449359191952</v>
+        <v>280.7596810585372</v>
       </c>
       <c r="H54" t="n">
-        <v>0.85</v>
+        <v>2.47</v>
       </c>
       <c r="I54" t="n">
-        <v>106770</v>
+        <v>104693</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14560025</v>
+        <v>14465282</v>
       </c>
       <c r="E55" t="n">
-        <v>70516523</v>
+        <v>70057671</v>
       </c>
       <c r="F55" t="n">
-        <v>25146.16820901577</v>
+        <v>25355.42931258632</v>
       </c>
       <c r="G55" t="n">
-        <v>30180.58767419903</v>
+        <v>34905.89014462732</v>
       </c>
       <c r="H55" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="I55" t="n">
-        <v>3708242</v>
+        <v>3801441</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57881</v>
+        <v>62258</v>
       </c>
       <c r="E56" t="n">
-        <v>138637</v>
+        <v>149120</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4719.47</v>
+        <v>4439.41</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1928781916</v>
+        <v>1932450600</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27881260</v>
+        <v>27410810</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12174342</v>
+        <v>12122626</v>
       </c>
       <c r="E58" t="n">
-        <v>17651039</v>
+        <v>17576058</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2031957</v>
+        <v>2035359</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125685262</v>
+        <v>125132995</v>
       </c>
       <c r="E59" t="n">
-        <v>334251149</v>
+        <v>332782432</v>
       </c>
       <c r="F59" t="n">
-        <v>8557.706090208094</v>
+        <v>8356.626261996505</v>
       </c>
       <c r="G59" t="n">
-        <v>7319.886507321012</v>
+        <v>7247.476183111343</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="I59" t="n">
-        <v>948792</v>
+        <v>912793</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31925133</v>
+        <v>31716169</v>
       </c>
       <c r="E60" t="n">
-        <v>99404620</v>
+        <v>98753974</v>
       </c>
       <c r="F60" t="n">
-        <v>3737.162598634231</v>
+        <v>3369.78099223118</v>
       </c>
       <c r="G60" t="n">
-        <v>5533.055615339951</v>
+        <v>6767.620415546215</v>
       </c>
       <c r="H60" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>11573251</v>
+        <v>11696885</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2047596</v>
+        <v>2082481</v>
       </c>
       <c r="E61" t="n">
-        <v>14683107</v>
+        <v>14933261</v>
       </c>
       <c r="F61" t="n">
-        <v>330.7235515232446</v>
+        <v>5321.210972438346</v>
       </c>
       <c r="G61" t="n">
-        <v>5018.977861417748</v>
+        <v>5159.150718524576</v>
       </c>
       <c r="H61" t="n">
-        <v>1.22</v>
+        <v>2.63</v>
       </c>
       <c r="I61" t="n">
-        <v>1995751</v>
+        <v>1992046</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>200960557</v>
+        <v>204635752</v>
       </c>
       <c r="E62" t="n">
-        <v>1137962154</v>
+        <v>1158773364</v>
       </c>
       <c r="F62" t="n">
-        <v>790763.6057183688</v>
+        <v>754729.3925008877</v>
       </c>
       <c r="G62" t="n">
-        <v>843852.8844391631</v>
+        <v>763720.597945525</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>62861480</v>
+        <v>64616513</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>502054</v>
+        <v>502473</v>
       </c>
       <c r="E63" t="n">
-        <v>1689843</v>
+        <v>1691253</v>
       </c>
       <c r="F63" t="n">
-        <v>4513.872057456103</v>
+        <v>4402.343027668272</v>
       </c>
       <c r="G63" t="n">
-        <v>348.9882844777545</v>
+        <v>396.5715104987125</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>632203</v>
+        <v>631784</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>338608</v>
+        <v>343078</v>
       </c>
       <c r="E64" t="n">
-        <v>338608</v>
+        <v>343078</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5285.02</v>
+        <v>5327.4</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>141229650</v>
+        <v>142942451</v>
       </c>
       <c r="E65" t="n">
-        <v>1046145555</v>
+        <v>1058832972</v>
       </c>
       <c r="F65" t="n">
-        <v>39911.00385108984</v>
+        <v>38757.95583749979</v>
       </c>
       <c r="G65" t="n">
-        <v>35482.73943923112</v>
+        <v>40975.74009885159</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>9666869</v>
+        <v>8960521</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8025017</v>
+        <v>8029460</v>
       </c>
       <c r="E66" t="n">
-        <v>10750847</v>
+        <v>10756799</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59018</v>
+        <v>58616</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26366693</v>
+        <v>26407762</v>
       </c>
       <c r="E67" t="n">
-        <v>26366693</v>
+        <v>26407762</v>
       </c>
       <c r="F67" t="n">
-        <v>7679.546232264648</v>
+        <v>7609.446505121186</v>
       </c>
       <c r="G67" t="n">
-        <v>11058.0058788513</v>
+        <v>12024.34151705726</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="I67" t="n">
-        <v>313526</v>
+        <v>313557</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1576993</v>
+        <v>1582931</v>
       </c>
       <c r="E68" t="n">
-        <v>12247110</v>
+        <v>12293222</v>
       </c>
       <c r="F68" t="n">
-        <v>9835.964866589198</v>
+        <v>9904.414979721847</v>
       </c>
       <c r="G68" t="n">
-        <v>18445.77319008842</v>
+        <v>18441.69632985129</v>
       </c>
       <c r="H68" t="n">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="I68" t="n">
-        <v>512829</v>
+        <v>522984</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>340177833</v>
+        <v>339783581</v>
       </c>
       <c r="E69" t="n">
-        <v>3060450718</v>
+        <v>3056903784</v>
       </c>
       <c r="F69" t="n">
-        <v>1022488.703124851</v>
+        <v>1421504.472880318</v>
       </c>
       <c r="G69" t="n">
-        <v>1809794.160313456</v>
+        <v>1876830.960114763</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>38694331</v>
+        <v>38079329</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>244367</v>
+        <v>246860</v>
       </c>
       <c r="E70" t="n">
-        <v>2156725</v>
+        <v>2178728</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>81600</v>
+        <v>85012</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1582834</v>
+        <v>1578700</v>
       </c>
       <c r="E71" t="n">
-        <v>13190284</v>
+        <v>13155831</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>39731</v>
+        <v>38594</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9265373</v>
+        <v>9306721</v>
       </c>
       <c r="E72" t="n">
-        <v>42945536</v>
+        <v>43137187</v>
       </c>
       <c r="F72" t="n">
-        <v>5599.33724236627</v>
+        <v>5311.467163937038</v>
       </c>
       <c r="G72" t="n">
-        <v>10083.39859132055</v>
+        <v>10108.06588168186</v>
       </c>
       <c r="H72" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I72" t="n">
-        <v>130371</v>
+        <v>129969</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>49032052</v>
+        <v>50078318</v>
       </c>
       <c r="E73" t="n">
-        <v>283875319</v>
+        <v>289932768</v>
       </c>
       <c r="F73" t="n">
-        <v>108977.4610537767</v>
+        <v>92985.00182065519</v>
       </c>
       <c r="G73" t="n">
-        <v>207667.472988835</v>
+        <v>153116.1382139112</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I73" t="n">
-        <v>27983808</v>
+        <v>29714918</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39646469</v>
+        <v>39606658</v>
       </c>
       <c r="E74" t="n">
-        <v>54757420</v>
+        <v>54702435</v>
       </c>
       <c r="F74" t="n">
-        <v>717.8554569260167</v>
+        <v>657.0174368567849</v>
       </c>
       <c r="G74" t="n">
-        <v>504.3546220130918</v>
+        <v>652.9666586306358</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="I74" t="n">
-        <v>311244</v>
+        <v>341493</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97562</v>
+        <v>97171</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>291.27</v>
+        <v>298.87</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13471634</v>
+        <v>13626265</v>
       </c>
       <c r="E76" t="n">
-        <v>13517479</v>
+        <v>13672636</v>
       </c>
       <c r="F76" t="n">
-        <v>4850.171026234311</v>
+        <v>801.1629319704026</v>
       </c>
       <c r="G76" t="n">
-        <v>3350.00313478781</v>
+        <v>6765.576328715612</v>
       </c>
       <c r="H76" t="n">
-        <v>1.31</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5915741</v>
+        <v>5928405</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42692443</v>
+        <v>42776888</v>
       </c>
       <c r="E77" t="n">
-        <v>72481836</v>
+        <v>72625204</v>
       </c>
       <c r="F77" t="n">
-        <v>7712.726135049396</v>
+        <v>9174.631881971436</v>
       </c>
       <c r="G77" t="n">
-        <v>6135.502844738344</v>
+        <v>6722.25053906239</v>
       </c>
       <c r="H77" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="I77" t="n">
-        <v>1102102</v>
+        <v>1089805</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22527339</v>
+        <v>22542011</v>
       </c>
       <c r="E78" t="n">
-        <v>67526603</v>
+        <v>67570582</v>
       </c>
       <c r="F78" t="n">
-        <v>56015.92772005918</v>
+        <v>119566.5290808408</v>
       </c>
       <c r="G78" t="n">
-        <v>92126.63003614216</v>
+        <v>107852.4559857432</v>
       </c>
       <c r="H78" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3263657</v>
+        <v>3369893</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101511806</v>
+        <v>101379312</v>
       </c>
       <c r="E79" t="n">
-        <v>107916224</v>
+        <v>107775371</v>
       </c>
       <c r="F79" t="n">
-        <v>2704.168499284871</v>
+        <v>2753.722014665169</v>
       </c>
       <c r="G79" t="n">
-        <v>3626.358183950742</v>
+        <v>3965.949287703828</v>
       </c>
       <c r="H79" t="n">
-        <v>0.82</v>
+        <v>1.33</v>
       </c>
       <c r="I79" t="n">
-        <v>379230</v>
+        <v>375848</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10391041</v>
+        <v>10393732</v>
       </c>
       <c r="E80" t="n">
-        <v>45145611</v>
+        <v>45153215</v>
       </c>
       <c r="F80" t="n">
-        <v>6703.596277699724</v>
+        <v>6731.629238321264</v>
       </c>
       <c r="G80" t="n">
-        <v>5216.382807600086</v>
+        <v>5192.340045853958</v>
       </c>
       <c r="H80" t="n">
         <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>114837</v>
+        <v>116341</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15665329</v>
+        <v>15767864</v>
       </c>
       <c r="E81" t="n">
-        <v>96017952</v>
+        <v>96646423</v>
       </c>
       <c r="F81" t="n">
-        <v>4000.172159077507</v>
+        <v>4207.04607408008</v>
       </c>
       <c r="G81" t="n">
-        <v>6365.654917278912</v>
+        <v>6423.970986402263</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I81" t="n">
-        <v>10885249</v>
+        <v>10621982</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1503473</v>
+        <v>1508210</v>
       </c>
       <c r="E82" t="n">
-        <v>1545764</v>
+        <v>1550635</v>
       </c>
       <c r="F82" t="n">
-        <v>5788.699844611335</v>
+        <v>4366.853393209506</v>
       </c>
       <c r="G82" t="n">
-        <v>5085.438683865457</v>
+        <v>6036.773394515443</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I82" t="n">
-        <v>153088</v>
+        <v>151853</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47252181</v>
+        <v>47670377</v>
       </c>
       <c r="E83" t="n">
-        <v>203557228</v>
+        <v>205358773</v>
       </c>
       <c r="F83" t="n">
-        <v>2924.432678597543</v>
+        <v>3509.211570316359</v>
       </c>
       <c r="G83" t="n">
-        <v>4816.181007213238</v>
+        <v>4547.638218769201</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I83" t="n">
-        <v>8909543</v>
+        <v>8889294</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1875433</v>
+        <v>1914058</v>
       </c>
       <c r="E84" t="n">
-        <v>6813277</v>
+        <v>6953360</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>130023</v>
+        <v>141780</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9039557</v>
+        <v>8913330</v>
       </c>
       <c r="E85" t="n">
-        <v>20072648</v>
+        <v>19792330</v>
       </c>
       <c r="F85" t="n">
-        <v>6021.173554813269</v>
+        <v>5978.567930225845</v>
       </c>
       <c r="G85" t="n">
-        <v>7437.964793121329</v>
+        <v>7376.693278218958</v>
       </c>
       <c r="H85" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="I85" t="n">
-        <v>346762</v>
+        <v>238400</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2442234</v>
+        <v>2442568</v>
       </c>
       <c r="E86" t="n">
-        <v>18377262</v>
+        <v>18379778</v>
       </c>
       <c r="F86" t="n">
-        <v>5054.680514521228</v>
+        <v>4986.864921511177</v>
       </c>
       <c r="G86" t="n">
-        <v>12272.35366344692</v>
+        <v>12218.5142878174</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I86" t="n">
-        <v>165081</v>
+        <v>164724</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20986356</v>
+        <v>21061976</v>
       </c>
       <c r="E87" t="n">
-        <v>83945422</v>
+        <v>84247903</v>
       </c>
       <c r="F87" t="n">
-        <v>21306.85393127951</v>
+        <v>19831.22426415144</v>
       </c>
       <c r="G87" t="n">
-        <v>2641.922880280359</v>
+        <v>1216.948848651251</v>
       </c>
       <c r="H87" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="I87" t="n">
-        <v>4348719</v>
+        <v>3977856</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4214210</v>
+        <v>4215727</v>
       </c>
       <c r="E88" t="n">
-        <v>4214210</v>
+        <v>4215727</v>
       </c>
       <c r="F88" t="n">
-        <v>2466.993417442801</v>
+        <v>2513.804338590631</v>
       </c>
       <c r="G88" t="n">
-        <v>1113.056784162884</v>
+        <v>1713.73640130248</v>
       </c>
       <c r="H88" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I88" t="n">
-        <v>2688820</v>
+        <v>2715608</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12858923</v>
+        <v>12789100</v>
       </c>
       <c r="E89" t="n">
-        <v>40680984</v>
+        <v>40460089</v>
       </c>
       <c r="F89" t="n">
-        <v>12483.79232911147</v>
+        <v>13016.02026010991</v>
       </c>
       <c r="G89" t="n">
-        <v>16069.08142562801</v>
+        <v>12585.95108251804</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1208660</v>
+        <v>1174460</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24910</v>
+        <v>25022</v>
       </c>
       <c r="E90" t="n">
-        <v>195913</v>
+        <v>196793</v>
       </c>
       <c r="F90" t="n">
-        <v>2219.697442949971</v>
+        <v>4625.176144911285</v>
       </c>
       <c r="G90" t="n">
-        <v>251.4290056685056</v>
+        <v>345.7103278930627</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>89933</v>
+        <v>87176</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8278719</v>
+        <v>8562287</v>
       </c>
       <c r="E91" t="n">
-        <v>8278719</v>
+        <v>8562287</v>
       </c>
       <c r="F91" t="n">
-        <v>3667.260662328952</v>
+        <v>3378.466987142466</v>
       </c>
       <c r="G91" t="n">
-        <v>4521.971939784874</v>
+        <v>4517.257316579145</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="I91" t="n">
-        <v>3601008</v>
+        <v>3668576</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9149094</v>
+        <v>9256087</v>
       </c>
       <c r="E92" t="n">
-        <v>9149094</v>
+        <v>9256087</v>
       </c>
       <c r="F92" t="n">
-        <v>6042.127233920023</v>
+        <v>3033.290027227202</v>
       </c>
       <c r="G92" t="n">
-        <v>3880.099978242309</v>
+        <v>6263.303586057868</v>
       </c>
       <c r="H92" t="n">
         <v>0.51</v>
       </c>
       <c r="I92" t="n">
-        <v>2967012</v>
+        <v>3004340</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>38263221</v>
+        <v>37952307</v>
       </c>
       <c r="E93" t="n">
-        <v>96481473</v>
+        <v>95697499</v>
       </c>
       <c r="F93" t="n">
-        <v>5577.358057864989</v>
+        <v>5670.450110050973</v>
       </c>
       <c r="G93" t="n">
-        <v>5191.954213476962</v>
+        <v>6218.413030763561</v>
       </c>
       <c r="H93" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I93" t="n">
-        <v>3413683</v>
+        <v>3418285</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>307558601</v>
+        <v>313182690</v>
       </c>
       <c r="E94" t="n">
-        <v>312363519</v>
+        <v>318073235</v>
       </c>
       <c r="F94" t="n">
-        <v>52123.48830617107</v>
+        <v>49171.88269018618</v>
       </c>
       <c r="G94" t="n">
-        <v>36656.37113418733</v>
+        <v>29236.06903877001</v>
       </c>
       <c r="H94" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>13281349</v>
+        <v>14839266</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1002.491740265722</v>
+        <v>1016.905761491996</v>
       </c>
       <c r="G95" t="n">
-        <v>6642.822669546616</v>
+        <v>6476.12586757894</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>214688</v>
+        <v>215773</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>85783134</v>
+        <v>86647629</v>
       </c>
       <c r="E96" t="n">
-        <v>85783134</v>
+        <v>86647629</v>
       </c>
       <c r="F96" t="n">
-        <v>7422.7953971529</v>
+        <v>11581.09328665613</v>
       </c>
       <c r="G96" t="n">
-        <v>7501.699471059217</v>
+        <v>7334.139983522135</v>
       </c>
       <c r="H96" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I96" t="n">
-        <v>5234406</v>
+        <v>5125322</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>314446700</v>
+        <v>301286590</v>
       </c>
       <c r="E97" t="n">
-        <v>314446700</v>
+        <v>301286590</v>
       </c>
       <c r="F97" t="n">
-        <v>344655.9629314473</v>
+        <v>329721.6305405565</v>
       </c>
       <c r="G97" t="n">
-        <v>402324.4400111875</v>
+        <v>457079.359969779</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>51583531</v>
+        <v>57891286</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4280140</v>
+        <v>4238976</v>
       </c>
       <c r="E98" t="n">
-        <v>29245895</v>
+        <v>28964628</v>
       </c>
       <c r="F98" t="n">
-        <v>318.2269114002352</v>
+        <v>138.0949251566144</v>
       </c>
       <c r="G98" t="n">
-        <v>4516.478828978966</v>
+        <v>358.2097977993701</v>
       </c>
       <c r="H98" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>2645802</v>
+        <v>2650961</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90611195</v>
+        <v>91358894</v>
       </c>
       <c r="E99" t="n">
-        <v>522140789</v>
+        <v>526449355</v>
       </c>
       <c r="F99" t="n">
-        <v>163006.5124786148</v>
+        <v>128637.409003438</v>
       </c>
       <c r="G99" t="n">
-        <v>156735.4578584029</v>
+        <v>133707.8809220436</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>16574569</v>
+        <v>16940094</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108347803</v>
+        <v>108681476</v>
       </c>
       <c r="E100" t="n">
-        <v>266577927</v>
+        <v>267398893</v>
       </c>
       <c r="F100" t="n">
-        <v>27506.21622758943</v>
+        <v>27083.60977870063</v>
       </c>
       <c r="G100" t="n">
-        <v>57665.78137042587</v>
+        <v>58012.60232669366</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2276079</v>
+        <v>2126309</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248640498</v>
+        <v>248039148</v>
       </c>
       <c r="E101" t="n">
-        <v>248642968</v>
+        <v>248041612</v>
       </c>
       <c r="F101" t="n">
-        <v>7140.374419860354</v>
+        <v>40337.58609907249</v>
       </c>
       <c r="G101" t="n">
-        <v>8605.661395269321</v>
+        <v>4392.954482707835</v>
       </c>
       <c r="H101" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="I101" t="n">
-        <v>2532334</v>
+        <v>1602437</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30988819</v>
+        <v>30752172</v>
       </c>
       <c r="E102" t="n">
-        <v>138749655</v>
+        <v>137690087</v>
       </c>
       <c r="F102" t="n">
-        <v>101023.3509980051</v>
+        <v>116308.1082722984</v>
       </c>
       <c r="G102" t="n">
-        <v>122185.618016038</v>
+        <v>147536.1585262692</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>8714862</v>
+        <v>8725468</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3085232</v>
+        <v>3108725</v>
       </c>
       <c r="E103" t="n">
-        <v>3085232</v>
+        <v>3108725</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>425149</v>
+        <v>430466</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5992081</v>
+        <v>5959468</v>
       </c>
       <c r="E104" t="n">
-        <v>15726233</v>
+        <v>15640634</v>
       </c>
       <c r="F104" t="n">
-        <v>938.7558923938687</v>
+        <v>983.0617615857301</v>
       </c>
       <c r="G104" t="n">
-        <v>192.9954448954175</v>
+        <v>2901.790761411127</v>
       </c>
       <c r="H104" t="n">
-        <v>2.47</v>
+        <v>0.54</v>
       </c>
       <c r="I104" t="n">
-        <v>21330</v>
+        <v>20977</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16491680</v>
+        <v>16546518</v>
       </c>
       <c r="E105" t="n">
-        <v>76123250</v>
+        <v>76376374</v>
       </c>
       <c r="F105" t="n">
-        <v>27113.3721020355</v>
+        <v>23957.05139253717</v>
       </c>
       <c r="G105" t="n">
-        <v>39596.02430708348</v>
+        <v>29876.43638147918</v>
       </c>
       <c r="H105" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I105" t="n">
-        <v>985294</v>
+        <v>989986</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>49767198</v>
+        <v>49894728</v>
       </c>
       <c r="E106" t="n">
-        <v>322727035</v>
+        <v>323554034</v>
       </c>
       <c r="F106" t="n">
-        <v>75238.61854159781</v>
+        <v>58248.75913804423</v>
       </c>
       <c r="G106" t="n">
-        <v>107930.1431345132</v>
+        <v>129338.743862038</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16655096</v>
+        <v>16654565</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2535080</v>
+        <v>2446928</v>
       </c>
       <c r="E107" t="n">
-        <v>4592774</v>
+        <v>4433072</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>135858</v>
+        <v>126167</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125287206</v>
+        <v>125321318</v>
       </c>
       <c r="E108" t="n">
-        <v>2074858749</v>
+        <v>2075423663</v>
       </c>
       <c r="F108" t="n">
-        <v>231184.1829073119</v>
+        <v>392228.3761423876</v>
       </c>
       <c r="G108" t="n">
-        <v>117213.7735936171</v>
+        <v>188135.9367025943</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4914608</v>
+        <v>4841271</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24482770</v>
+        <v>24618931</v>
       </c>
       <c r="E109" t="n">
-        <v>146485337</v>
+        <v>147300015</v>
       </c>
       <c r="F109" t="n">
-        <v>42205.0860121752</v>
+        <v>42868.43657812575</v>
       </c>
       <c r="G109" t="n">
-        <v>40740.12982169661</v>
+        <v>40267.75453533751</v>
       </c>
       <c r="H109" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>12261230</v>
+        <v>11728504</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1074896</v>
+        <v>1058045</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>70728</v>
+        <v>69614</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2253294</v>
+        <v>2256755</v>
       </c>
       <c r="F111" t="n">
-        <v>3894.019669957241</v>
+        <v>3808.837786304577</v>
       </c>
       <c r="G111" t="n">
-        <v>895.3440094852147</v>
+        <v>227.803024881069</v>
       </c>
       <c r="H111" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>175966</v>
+        <v>176277</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142237356</v>
+        <v>142118875</v>
       </c>
       <c r="F112" t="n">
-        <v>3468.326572161812</v>
+        <v>3146.474587951979</v>
       </c>
       <c r="G112" t="n">
-        <v>466.7166891170664</v>
+        <v>964.593002142175</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>26661</v>
+        <v>25425</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6698527</v>
+        <v>6651612</v>
       </c>
       <c r="E113" t="n">
-        <v>34461883</v>
+        <v>34220524</v>
       </c>
       <c r="F113" t="n">
-        <v>372.6147795263476</v>
+        <v>1159.579929321161</v>
       </c>
       <c r="G113" t="n">
-        <v>520.045817551245</v>
+        <v>769.0326584585856</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.88</v>
       </c>
       <c r="I113" t="n">
-        <v>917925</v>
+        <v>921628</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29130660</v>
+        <v>29205898</v>
       </c>
       <c r="E114" t="n">
-        <v>39943228</v>
+        <v>40046393</v>
       </c>
       <c r="F114" t="n">
-        <v>5033.757722074988</v>
+        <v>4673.857295974006</v>
       </c>
       <c r="G114" t="n">
-        <v>4246.8287430242</v>
+        <v>4633.113800511344</v>
       </c>
       <c r="H114" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>209617</v>
+        <v>209081</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7997269</v>
+        <v>7994769</v>
       </c>
       <c r="F115" t="n">
-        <v>147.9129257892919</v>
+        <v>159.2925880201796</v>
       </c>
       <c r="G115" t="n">
-        <v>6809.001359009632</v>
+        <v>6579.202168135074</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>662146</v>
+        <v>647849</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3402302</v>
+        <v>3368631</v>
       </c>
       <c r="E116" t="n">
-        <v>4557598</v>
+        <v>4512495</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>150825</v>
+        <v>149461</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35110793</v>
+        <v>35133297</v>
       </c>
       <c r="E117" t="n">
-        <v>175219041</v>
+        <v>175331349</v>
       </c>
       <c r="F117" t="n">
-        <v>81982.69132682822</v>
+        <v>93225.80136637828</v>
       </c>
       <c r="G117" t="n">
-        <v>77260.43906375852</v>
+        <v>78987.33074567192</v>
       </c>
       <c r="H117" t="n">
         <v>0.11</v>
       </c>
       <c r="I117" t="n">
-        <v>10443475</v>
+        <v>10433623</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3498087</v>
+        <v>3497494</v>
       </c>
       <c r="E118" t="n">
-        <v>5025185</v>
+        <v>5024333</v>
       </c>
       <c r="F118" t="n">
-        <v>564.3153396325972</v>
+        <v>564.310489641222</v>
       </c>
       <c r="G118" t="n">
-        <v>781.0367216609724</v>
+        <v>625.0985068986039</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>151886</v>
+        <v>149638</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>316197602</v>
+        <v>316497272</v>
       </c>
       <c r="E119" t="n">
-        <v>585037671</v>
+        <v>585592129</v>
       </c>
       <c r="F119" t="n">
-        <v>122911.4823613958</v>
+        <v>98042.33217926286</v>
       </c>
       <c r="G119" t="n">
-        <v>138202.9476842604</v>
+        <v>116716.0768401756</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I119" t="n">
-        <v>13447817</v>
+        <v>13533759</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72120142</v>
+        <v>72038483</v>
       </c>
       <c r="E120" t="n">
-        <v>688010620</v>
+        <v>687220978</v>
       </c>
       <c r="F120" t="n">
-        <v>3481.434754752771</v>
+        <v>1812.497436905747</v>
       </c>
       <c r="G120" t="n">
-        <v>42409.90262797323</v>
+        <v>42241.55779907427</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>21725940</v>
+        <v>21849830</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37840651</v>
+        <v>37859945</v>
       </c>
       <c r="E121" t="n">
-        <v>49474199</v>
+        <v>49499413</v>
       </c>
       <c r="F121" t="n">
-        <v>118.5422078245791</v>
+        <v>5619.506303591493</v>
       </c>
       <c r="G121" t="n">
-        <v>6464.966788785791</v>
+        <v>1042.237329745823</v>
       </c>
       <c r="H121" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>182366</v>
+        <v>187054</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11121163</v>
+        <v>11187654</v>
       </c>
       <c r="E122" t="n">
-        <v>32997228</v>
+        <v>33194512</v>
       </c>
       <c r="F122" t="n">
-        <v>674.83539389385</v>
+        <v>597.7587099470387</v>
       </c>
       <c r="G122" t="n">
-        <v>2677.528296687</v>
+        <v>4220.13792805781</v>
       </c>
       <c r="H122" t="n">
-        <v>0.45</v>
+        <v>2.23</v>
       </c>
       <c r="I122" t="n">
-        <v>6784696</v>
+        <v>7122161</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2269982</v>
+        <v>2267941</v>
       </c>
       <c r="E123" t="n">
-        <v>7767537</v>
+        <v>7760553</v>
       </c>
       <c r="F123" t="n">
-        <v>789.0525203115149</v>
+        <v>792.5301218485736</v>
       </c>
       <c r="G123" t="n">
-        <v>1175.551729569329</v>
+        <v>1149.566209330373</v>
       </c>
       <c r="H123" t="n">
         <v>1.4</v>
       </c>
       <c r="I123" t="n">
-        <v>921720</v>
+        <v>949624</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7392391</v>
+        <v>7411133</v>
       </c>
       <c r="E124" t="n">
-        <v>7392402</v>
+        <v>7411144</v>
       </c>
       <c r="F124" t="n">
-        <v>318.1243223619444</v>
+        <v>271.761919047036</v>
       </c>
       <c r="G124" t="n">
-        <v>940.3349359407753</v>
+        <v>1129.856688689289</v>
       </c>
       <c r="H124" t="n">
-        <v>1.69</v>
+        <v>0.96</v>
       </c>
       <c r="I124" t="n">
-        <v>320722</v>
+        <v>321567</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6280040</v>
+        <v>6286347</v>
       </c>
       <c r="E125" t="n">
-        <v>6280040</v>
+        <v>6286347</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>266457</v>
+        <v>482447</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6229462</v>
+        <v>6232738</v>
       </c>
       <c r="E126" t="n">
-        <v>22753816</v>
+        <v>22765779</v>
       </c>
       <c r="F126" t="n">
-        <v>6283.912946619819</v>
+        <v>7099.479378053633</v>
       </c>
       <c r="G126" t="n">
-        <v>8340.481869517014</v>
+        <v>7610.201478162667</v>
       </c>
       <c r="H126" t="n">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="I126" t="n">
-        <v>502556</v>
+        <v>500843</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44744016</v>
+        <v>45120211</v>
       </c>
       <c r="E127" t="n">
-        <v>44744016</v>
+        <v>45120211</v>
       </c>
       <c r="F127" t="n">
-        <v>52334.67529481508</v>
+        <v>63093.67000036536</v>
       </c>
       <c r="G127" t="n">
-        <v>87030.31344761197</v>
+        <v>86648.04656372417</v>
       </c>
       <c r="H127" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7657404</v>
+        <v>7621490</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>149839306</v>
+        <v>151335722</v>
       </c>
       <c r="F128" t="n">
-        <v>113.7969752351994</v>
+        <v>1274.978391579353</v>
       </c>
       <c r="G128" t="n">
-        <v>25.35621202862315</v>
+        <v>375.9981683026984</v>
       </c>
       <c r="H128" t="n">
-        <v>2.54</v>
+        <v>0.78</v>
       </c>
       <c r="I128" t="n">
-        <v>1699666</v>
+        <v>1418915</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3023719</v>
+        <v>2970053</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>71996</v>
+        <v>71254</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20245108</v>
+        <v>20342432</v>
       </c>
       <c r="F130" t="n">
-        <v>746.89480805204</v>
+        <v>313.4565135465776</v>
       </c>
       <c r="G130" t="n">
-        <v>636.364018942128</v>
+        <v>695.746642152959</v>
       </c>
       <c r="H130" t="n">
-        <v>0.98</v>
+        <v>1.76</v>
       </c>
       <c r="I130" t="n">
-        <v>2979264</v>
+        <v>2978764</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1260569</v>
+        <v>1251468</v>
       </c>
       <c r="E131" t="n">
-        <v>3810239</v>
+        <v>3782192</v>
       </c>
       <c r="F131" t="n">
-        <v>634.9681985610624</v>
+        <v>634.9627413457961</v>
       </c>
       <c r="G131" t="n">
-        <v>802.0665579356656</v>
+        <v>802.3275144138976</v>
       </c>
       <c r="H131" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>12493.13</v>
+        <v>11845.53</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>607623205</v>
+        <v>611037200</v>
       </c>
       <c r="E132" t="n">
-        <v>2353235026</v>
+        <v>2366456923</v>
       </c>
       <c r="F132" t="n">
-        <v>748116.623878655</v>
+        <v>831288.6819166783</v>
       </c>
       <c r="G132" t="n">
-        <v>1022221.841787012</v>
+        <v>984773.9453045576</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32651319</v>
+        <v>32587929</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3708717</v>
+        <v>3708339</v>
       </c>
       <c r="E133" t="n">
-        <v>6322011</v>
+        <v>6321368</v>
       </c>
       <c r="F133" t="n">
-        <v>5240.627872415223</v>
+        <v>5227.167760331254</v>
       </c>
       <c r="G133" t="n">
-        <v>5587.625248976764</v>
+        <v>5649.536165914871</v>
       </c>
       <c r="H133" t="n">
-        <v>0.31</v>
+        <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1284963</v>
+        <v>1261693</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>122242362</v>
+        <v>123205650</v>
       </c>
       <c r="E134" t="n">
-        <v>1062822207</v>
+        <v>1071197401</v>
       </c>
       <c r="F134" t="n">
-        <v>101481.4633570552</v>
+        <v>106679.2727153262</v>
       </c>
       <c r="G134" t="n">
-        <v>138251.948819732</v>
+        <v>127901.5448689108</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>9326606</v>
+        <v>9152396</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>973900903</v>
+        <v>992549327</v>
       </c>
       <c r="E135" t="n">
-        <v>1069832811</v>
+        <v>1090318157</v>
       </c>
       <c r="F135" t="n">
-        <v>11256.51706381306</v>
+        <v>9321.104279844356</v>
       </c>
       <c r="G135" t="n">
-        <v>15286.13669014183</v>
+        <v>18746.65406268066</v>
       </c>
       <c r="H135" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="I135" t="n">
-        <v>10260522</v>
+        <v>10347224</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1116678</v>
+        <v>1117338</v>
       </c>
       <c r="E136" t="n">
-        <v>4324022</v>
+        <v>4326577</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>373070</v>
+        <v>380625</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>120027076</v>
+        <v>121431442</v>
       </c>
       <c r="E137" t="n">
-        <v>460443184</v>
+        <v>465830556</v>
       </c>
       <c r="F137" t="n">
-        <v>156104.2105799494</v>
+        <v>124326.8640767921</v>
       </c>
       <c r="G137" t="n">
-        <v>233027.0605226461</v>
+        <v>222807.6680831215</v>
       </c>
       <c r="H137" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I137" t="n">
-        <v>31270095</v>
+        <v>30596733</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3185421</v>
+        <v>3188980</v>
       </c>
       <c r="E138" t="n">
-        <v>30182334</v>
+        <v>30216059</v>
       </c>
       <c r="F138" t="n">
-        <v>4610.603467807376</v>
+        <v>2991.811627206895</v>
       </c>
       <c r="G138" t="n">
-        <v>4598.687039133043</v>
+        <v>4682.75171272286</v>
       </c>
       <c r="H138" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I138" t="n">
-        <v>216775</v>
+        <v>212685</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22167957</v>
+        <v>21917550</v>
       </c>
       <c r="E139" t="n">
-        <v>22167957</v>
+        <v>21917550</v>
       </c>
       <c r="F139" t="n">
-        <v>1187.217662944037</v>
+        <v>716.8189995697278</v>
       </c>
       <c r="G139" t="n">
-        <v>800.7694028605133</v>
+        <v>689.8747390042864</v>
       </c>
       <c r="H139" t="n">
-        <v>1.53</v>
+        <v>0.95</v>
       </c>
       <c r="I139" t="n">
-        <v>641321</v>
+        <v>652566</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495064483</v>
+        <v>494493797</v>
       </c>
       <c r="E140" t="n">
-        <v>495064483</v>
+        <v>494493797</v>
       </c>
       <c r="F140" t="n">
-        <v>949599.3217394295</v>
+        <v>957772.1253439724</v>
       </c>
       <c r="G140" t="n">
-        <v>1006886.975201356</v>
+        <v>1008871.172695955</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>32697627</v>
+        <v>32765560</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31845451</v>
+        <v>31606710</v>
       </c>
       <c r="F141" t="n">
-        <v>52565.31462437151</v>
+        <v>54450.67815845728</v>
       </c>
       <c r="G141" t="n">
-        <v>94398.16494706497</v>
+        <v>59962.95067289437</v>
       </c>
       <c r="H141" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I141" t="n">
-        <v>5508049</v>
+        <v>5402493</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>799221</v>
+        <v>816850</v>
       </c>
       <c r="E142" t="n">
-        <v>12747293</v>
+        <v>13028473</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>183.8869009099287</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>30.66678399173713</v>
       </c>
       <c r="H142" t="n">
-        <v>5.05</v>
+        <v>0.76</v>
       </c>
       <c r="I142" t="n">
-        <v>115001</v>
+        <v>256626</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2632712190</v>
+        <v>2643454687</v>
       </c>
       <c r="E143" t="n">
-        <v>2795255307</v>
+        <v>2806661043</v>
       </c>
       <c r="F143" t="n">
-        <v>3419.20696439384</v>
+        <v>2831.036577779557</v>
       </c>
       <c r="G143" t="n">
-        <v>22660.25439153694</v>
+        <v>22665.36775726332</v>
       </c>
       <c r="H143" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>35388232</v>
+        <v>35184997</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1703781</v>
+        <v>1725477</v>
       </c>
       <c r="E144" t="n">
-        <v>1709795</v>
+        <v>1731567</v>
       </c>
       <c r="F144" t="n">
-        <v>643.8046866315181</v>
+        <v>825.2075919759152</v>
       </c>
       <c r="G144" t="n">
-        <v>765.3926601782645</v>
+        <v>673.9880352178789</v>
       </c>
       <c r="H144" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I144" t="n">
-        <v>426007</v>
+        <v>438864</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60945371</v>
+        <v>61488129</v>
       </c>
       <c r="E145" t="n">
-        <v>149494865</v>
+        <v>150826213</v>
       </c>
       <c r="F145" t="n">
-        <v>3329.91825939004</v>
+        <v>3198.937419852378</v>
       </c>
       <c r="G145" t="n">
-        <v>4428.635206792962</v>
+        <v>5486.54117832595</v>
       </c>
       <c r="H145" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I145" t="n">
-        <v>22476633</v>
+        <v>22572262</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>728897004</v>
+        <v>749326901</v>
       </c>
       <c r="E146" t="n">
-        <v>1124023536</v>
+        <v>1155528240</v>
       </c>
       <c r="F146" t="n">
-        <v>147787.5025614069</v>
+        <v>150077.1373111965</v>
       </c>
       <c r="G146" t="n">
-        <v>163793.3711823231</v>
+        <v>149796.8790754038</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>215543373</v>
+        <v>219583988</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23065037</v>
+        <v>23452392</v>
       </c>
       <c r="E147" t="n">
-        <v>23065037</v>
+        <v>23452392</v>
       </c>
       <c r="F147" t="n">
-        <v>4518.017127207695</v>
+        <v>4602.136000877306</v>
       </c>
       <c r="G147" t="n">
-        <v>7693.315872583654</v>
+        <v>8073.896209739247</v>
       </c>
       <c r="H147" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>5624506</v>
+        <v>5820999</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3820554</v>
+        <v>3830931</v>
       </c>
       <c r="E148" t="n">
-        <v>8336400</v>
+        <v>8359043</v>
       </c>
       <c r="F148" t="n">
-        <v>5651.448421847675</v>
+        <v>5700.733917945685</v>
       </c>
       <c r="G148" t="n">
-        <v>5625.713290441424</v>
+        <v>5738.941967825841</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="I148" t="n">
-        <v>1490114</v>
+        <v>1590161</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9351747</v>
+        <v>9250652</v>
       </c>
       <c r="E149" t="n">
-        <v>9351747</v>
+        <v>9250652</v>
       </c>
       <c r="F149" t="n">
-        <v>369017.6965329496</v>
+        <v>368979.8232640998</v>
       </c>
       <c r="G149" t="n">
-        <v>681594.8159169127</v>
+        <v>661243.2822889778</v>
       </c>
       <c r="H149" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I149" t="n">
-        <v>2869383</v>
+        <v>2878232</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>494880538</v>
+        <v>495750647</v>
       </c>
       <c r="E150" t="n">
-        <v>1722637967</v>
+        <v>1725666745</v>
       </c>
       <c r="F150" t="n">
-        <v>748207.3753198883</v>
+        <v>771063.2678241794</v>
       </c>
       <c r="G150" t="n">
-        <v>702966.8302738691</v>
+        <v>875983.7401458342</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>30012711</v>
+        <v>30548416</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48589970</v>
+        <v>48704276</v>
       </c>
       <c r="E151" t="n">
-        <v>119920541</v>
+        <v>120202656</v>
       </c>
       <c r="F151" t="n">
-        <v>8091.037755536655</v>
+        <v>8461.57233122035</v>
       </c>
       <c r="G151" t="n">
-        <v>10412.43565669437</v>
+        <v>8079.039818639962</v>
       </c>
       <c r="H151" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I151" t="n">
-        <v>24174</v>
+        <v>24865</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7517006</v>
+        <v>7527826</v>
       </c>
       <c r="E152" t="n">
-        <v>19528374</v>
+        <v>19556483</v>
       </c>
       <c r="F152" t="n">
-        <v>6258.94566941375</v>
+        <v>7014.115009096128</v>
       </c>
       <c r="G152" t="n">
-        <v>6880.661199758098</v>
+        <v>6908.47319288061</v>
       </c>
       <c r="H152" t="n">
         <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>715231</v>
+        <v>714278</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19196023159</v>
+        <v>19200323960</v>
       </c>
       <c r="F153" t="n">
-        <v>52415.91327351669</v>
+        <v>52415.43948795356</v>
       </c>
       <c r="G153" t="n">
-        <v>49962.55192641513</v>
+        <v>49958.81836856208</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>47536668</v>
+        <v>47045793</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2638051</v>
+        <v>2631093</v>
       </c>
       <c r="E154" t="n">
-        <v>10552204</v>
+        <v>10524372</v>
       </c>
       <c r="F154" t="n">
-        <v>19106.18034774478</v>
+        <v>26175.91314124094</v>
       </c>
       <c r="G154" t="n">
-        <v>15380.16651624651</v>
+        <v>2577.949900876424</v>
       </c>
       <c r="H154" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>6922194</v>
+        <v>6907389</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>219916266</v>
+        <v>227591102</v>
       </c>
       <c r="E155" t="n">
-        <v>676159759</v>
+        <v>699756990</v>
       </c>
       <c r="F155" t="n">
-        <v>109856.3599259355</v>
+        <v>116813.6830218834</v>
       </c>
       <c r="G155" t="n">
-        <v>203400.1389877686</v>
+        <v>172340.1512890758</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>12423316</v>
+        <v>14933929</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>401294558</v>
+        <v>402280006</v>
       </c>
       <c r="E156" t="n">
-        <v>2293111759</v>
+        <v>2298742894</v>
       </c>
       <c r="F156" t="n">
-        <v>179538.2907819809</v>
+        <v>185805.7717214546</v>
       </c>
       <c r="G156" t="n">
-        <v>267586.943576424</v>
+        <v>222838.9593117946</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37770268</v>
+        <v>38785847</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3991193</v>
+        <v>4006760</v>
       </c>
       <c r="F2" t="n">
-        <v>1391.792921866858</v>
+        <v>1410.54520677094</v>
       </c>
       <c r="G2" t="n">
-        <v>979.9992251406113</v>
+        <v>1438.862963350559</v>
       </c>
       <c r="H2" t="n">
-        <v>1.64</v>
+        <v>0.7</v>
       </c>
       <c r="I2" t="n">
-        <v>135915</v>
+        <v>135121</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>606895371</v>
+        <v>609086848</v>
       </c>
       <c r="E3" t="n">
-        <v>1177647161</v>
+        <v>1181900015</v>
       </c>
       <c r="F3" t="n">
-        <v>81840.71101018939</v>
+        <v>73447.33838758802</v>
       </c>
       <c r="G3" t="n">
-        <v>74777.74720417507</v>
+        <v>64341.70897612475</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>19425241</v>
+        <v>18818127</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246482975</v>
+        <v>249831742</v>
       </c>
       <c r="E4" t="n">
-        <v>1545660090</v>
+        <v>1566659737</v>
       </c>
       <c r="F4" t="n">
-        <v>264799.1492663607</v>
+        <v>303448.5570968651</v>
       </c>
       <c r="G4" t="n">
-        <v>245095.332287302</v>
+        <v>234911.3586658146</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>16838270</v>
+        <v>17351979</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145993851</v>
+        <v>146979466</v>
       </c>
       <c r="E5" t="n">
-        <v>161784003</v>
+        <v>162876218</v>
       </c>
       <c r="F5" t="n">
-        <v>9050.908139038254</v>
+        <v>8693.670389409621</v>
       </c>
       <c r="G5" t="n">
-        <v>248.9259650252676</v>
+        <v>9666.389608107478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>37081183</v>
+        <v>37431047</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49057909</v>
+        <v>49317394</v>
       </c>
       <c r="E6" t="n">
-        <v>61370186</v>
+        <v>61694795</v>
       </c>
       <c r="F6" t="n">
-        <v>6133.006367741217</v>
+        <v>7673.633553164622</v>
       </c>
       <c r="G6" t="n">
-        <v>5830.411871999617</v>
+        <v>6113.861290556083</v>
       </c>
       <c r="H6" t="n">
         <v>0.64</v>
       </c>
       <c r="I6" t="n">
-        <v>587866</v>
+        <v>588251</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69089942</v>
+        <v>69137372</v>
       </c>
       <c r="E7" t="n">
-        <v>137603781</v>
+        <v>137698246</v>
       </c>
       <c r="F7" t="n">
-        <v>9918.134340979985</v>
+        <v>9623.740725329832</v>
       </c>
       <c r="G7" t="n">
-        <v>13085.92371855472</v>
+        <v>13872.33303352889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>993402</v>
+        <v>1021462</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40764831</v>
+        <v>40979749</v>
       </c>
       <c r="E8" t="n">
-        <v>45621717</v>
+        <v>45862242</v>
       </c>
       <c r="F8" t="n">
-        <v>7773.439935345888</v>
+        <v>7795.641146241382</v>
       </c>
       <c r="G8" t="n">
-        <v>6603.309237167123</v>
+        <v>6521.29879666749</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3809685</v>
+        <v>3709915</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14127937</v>
+        <v>14196641</v>
       </c>
       <c r="E9" t="n">
-        <v>41634119</v>
+        <v>41836585</v>
       </c>
       <c r="F9" t="n">
-        <v>5188.588997946189</v>
+        <v>4792.16989510796</v>
       </c>
       <c r="G9" t="n">
-        <v>4758.348515611606</v>
+        <v>4779.273554046513</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="I9" t="n">
-        <v>884254</v>
+        <v>885028</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10922251</v>
+        <v>10829011</v>
       </c>
       <c r="E10" t="n">
-        <v>46946486</v>
+        <v>46545716</v>
       </c>
       <c r="F10" t="n">
-        <v>5561.047032131608</v>
+        <v>3636.92784342317</v>
       </c>
       <c r="G10" t="n">
-        <v>1883.124481335219</v>
+        <v>2144.119069369764</v>
       </c>
       <c r="H10" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="I10" t="n">
-        <v>875336</v>
+        <v>869935</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>585859208</v>
+        <v>582541049</v>
       </c>
       <c r="E11" t="n">
-        <v>732822795</v>
+        <v>728672271</v>
       </c>
       <c r="F11" t="n">
-        <v>344066.7832328607</v>
+        <v>301814.0498136819</v>
       </c>
       <c r="G11" t="n">
-        <v>310552.6688776878</v>
+        <v>302854.7648118906</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>54922396</v>
+        <v>55029648</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4543276</v>
+        <v>4575763</v>
       </c>
       <c r="E12" t="n">
-        <v>27906099</v>
+        <v>28105643</v>
       </c>
       <c r="F12" t="n">
-        <v>193.8366263765732</v>
+        <v>101.3077300029644</v>
       </c>
       <c r="G12" t="n">
-        <v>312.330402042789</v>
+        <v>476.1961988011897</v>
       </c>
       <c r="H12" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="I12" t="n">
-        <v>647425</v>
+        <v>657069</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23233605</v>
+        <v>23245093</v>
       </c>
       <c r="E13" t="n">
-        <v>23276743</v>
+        <v>23288252</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>859184</v>
+        <v>856423</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82007444</v>
+        <v>82155293</v>
       </c>
       <c r="E14" t="n">
-        <v>241276070</v>
+        <v>241711060</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>332240</v>
+        <v>333779</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>473357710</v>
+        <v>478286193</v>
       </c>
       <c r="E15" t="n">
-        <v>473357713</v>
+        <v>478286198</v>
       </c>
       <c r="F15" t="n">
-        <v>18854.76973960633</v>
+        <v>11836.82046519518</v>
       </c>
       <c r="G15" t="n">
-        <v>22611.91393299591</v>
+        <v>21084.72876071162</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>70494209</v>
+        <v>69281701</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4736972</v>
+        <v>4722258</v>
       </c>
       <c r="E16" t="n">
-        <v>4736972</v>
+        <v>4722258</v>
       </c>
       <c r="F16" t="n">
-        <v>5171.219430109577</v>
+        <v>262.6124826336766</v>
       </c>
       <c r="G16" t="n">
-        <v>1537.280250336969</v>
+        <v>6699.898964361684</v>
       </c>
       <c r="H16" t="n">
-        <v>0.49</v>
+        <v>1.13</v>
       </c>
       <c r="I16" t="n">
-        <v>2022244</v>
+        <v>1968302</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3417037</v>
+        <v>3392759</v>
       </c>
       <c r="E17" t="n">
-        <v>3417037</v>
+        <v>3392759</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>516166</v>
+        <v>513560</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168677645</v>
+        <v>169269747</v>
       </c>
       <c r="E18" t="n">
-        <v>208829948</v>
+        <v>209562996</v>
       </c>
       <c r="F18" t="n">
-        <v>10901.35744755056</v>
+        <v>8927.594061616901</v>
       </c>
       <c r="G18" t="n">
-        <v>7801.345630964765</v>
+        <v>8105.721409235167</v>
       </c>
       <c r="H18" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>449121</v>
+        <v>500072</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6950676</v>
+        <v>6924350</v>
       </c>
       <c r="E19" t="n">
-        <v>9572857</v>
+        <v>9536600</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>459110</v>
+        <v>421701</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>930092</v>
+        <v>936613</v>
       </c>
       <c r="E20" t="n">
-        <v>6510643</v>
+        <v>6556293</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>223475</v>
+        <v>228296</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>114176496</v>
+        <v>116206932</v>
       </c>
       <c r="E21" t="n">
-        <v>444204107</v>
+        <v>452088937</v>
       </c>
       <c r="F21" t="n">
-        <v>40643.03952508671</v>
+        <v>47171.8577071648</v>
       </c>
       <c r="G21" t="n">
-        <v>73893.33255545849</v>
+        <v>82384.09219615808</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>9091016</v>
+        <v>8880907</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1675544</v>
+        <v>1676366</v>
       </c>
       <c r="E22" t="n">
-        <v>12068798</v>
+        <v>12074723</v>
       </c>
       <c r="F22" t="n">
-        <v>396.0648530639199</v>
+        <v>4507.551890624966</v>
       </c>
       <c r="G22" t="n">
-        <v>21.59544261917089</v>
+        <v>4394.67812897884</v>
       </c>
       <c r="H22" t="n">
-        <v>2.83</v>
+        <v>0.58</v>
       </c>
       <c r="I22" t="n">
-        <v>66437</v>
+        <v>48944</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138422137</v>
+        <v>139801911</v>
       </c>
       <c r="E23" t="n">
-        <v>138422137</v>
+        <v>139801911</v>
       </c>
       <c r="F23" t="n">
-        <v>1004000.606688913</v>
+        <v>952144.7399865771</v>
       </c>
       <c r="G23" t="n">
-        <v>1313550.438123254</v>
+        <v>1388860.69151394</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I23" t="n">
-        <v>64076711</v>
+        <v>68617202</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66352121</v>
+        <v>66663090</v>
       </c>
       <c r="E24" t="n">
-        <v>340267290</v>
+        <v>341862002</v>
       </c>
       <c r="F24" t="n">
-        <v>78794.67817689775</v>
+        <v>93957.57406815339</v>
       </c>
       <c r="G24" t="n">
-        <v>127838.6662435081</v>
+        <v>135085.0501704362</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>21672115</v>
+        <v>22052697</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>257430124</v>
+        <v>257917660</v>
       </c>
       <c r="E25" t="n">
-        <v>257430124</v>
+        <v>257917660</v>
       </c>
       <c r="F25" t="n">
-        <v>358568.0169458351</v>
+        <v>386767.4468547216</v>
       </c>
       <c r="G25" t="n">
-        <v>516130.5511767152</v>
+        <v>448279.8239701804</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14450350</v>
+        <v>14522495</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1118220</v>
+        <v>1124872</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>176964</v>
+        <v>176988</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3994570</v>
+        <v>3999862</v>
       </c>
       <c r="E28" t="n">
-        <v>3995629</v>
+        <v>4000922</v>
       </c>
       <c r="F28" t="n">
-        <v>2431.241759268884</v>
+        <v>746.4571616699875</v>
       </c>
       <c r="G28" t="n">
-        <v>2924.935357804832</v>
+        <v>2926.339510120013</v>
       </c>
       <c r="H28" t="n">
-        <v>0.31</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>274686</v>
+        <v>264089</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6840093</v>
+        <v>6825377</v>
       </c>
       <c r="E29" t="n">
-        <v>16614058</v>
+        <v>16578314</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>484309</v>
+        <v>483664</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99551204</v>
+        <v>100089727</v>
       </c>
       <c r="E30" t="n">
-        <v>124128681</v>
+        <v>124800156</v>
       </c>
       <c r="F30" t="n">
-        <v>118417.8156640338</v>
+        <v>112509.9214686256</v>
       </c>
       <c r="G30" t="n">
-        <v>106092.9541567721</v>
+        <v>108928.2758451151</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I30" t="n">
-        <v>10191718</v>
+        <v>10145374</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1128920</v>
+        <v>1129273</v>
       </c>
       <c r="E31" t="n">
-        <v>12268685</v>
+        <v>12272514</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31154</v>
+        <v>31164</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>81113169</v>
+        <v>83361989</v>
       </c>
       <c r="E32" t="n">
-        <v>226978213</v>
+        <v>233200969</v>
       </c>
       <c r="F32" t="n">
-        <v>53816.29831084981</v>
+        <v>52469.6236894272</v>
       </c>
       <c r="G32" t="n">
-        <v>65195.63758056196</v>
+        <v>66383.99592163281</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>40201300</v>
+        <v>43943824</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4110567</v>
+        <v>4113897</v>
       </c>
       <c r="E33" t="n">
-        <v>8106383</v>
+        <v>8112950</v>
       </c>
       <c r="F33" t="n">
-        <v>9265.726489488063</v>
+        <v>9257.862529246506</v>
       </c>
       <c r="G33" t="n">
-        <v>7660.131705909394</v>
+        <v>7540.073983105837</v>
       </c>
       <c r="H33" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I33" t="n">
-        <v>1652495</v>
+        <v>1651852</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37214943</v>
+        <v>36828316</v>
       </c>
       <c r="F34" t="n">
-        <v>653.5069678982408</v>
+        <v>1124.282446609066</v>
       </c>
       <c r="G34" t="n">
-        <v>114.7900085804327</v>
+        <v>56.66120390078329</v>
       </c>
       <c r="H34" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I34" t="n">
-        <v>76815</v>
+        <v>75063</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7646119</v>
+        <v>7634767</v>
       </c>
       <c r="E35" t="n">
-        <v>18008130</v>
+        <v>17981393</v>
       </c>
       <c r="F35" t="n">
-        <v>3428.847143936388</v>
+        <v>3428.824052595221</v>
       </c>
       <c r="G35" t="n">
-        <v>2683.535541582231</v>
+        <v>2673.434735571745</v>
       </c>
       <c r="H35" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="I35" t="n">
-        <v>21534</v>
+        <v>29992</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23023955</v>
+        <v>23035500</v>
       </c>
       <c r="F36" t="n">
-        <v>5105.373423786756</v>
+        <v>5103.8490680663</v>
       </c>
       <c r="G36" t="n">
-        <v>5250.625901040167</v>
+        <v>5168.521608148783</v>
       </c>
       <c r="H36" t="n">
         <v>1.55</v>
       </c>
       <c r="I36" t="n">
-        <v>127263</v>
+        <v>127743</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>76673664</v>
+        <v>78255538</v>
       </c>
       <c r="E37" t="n">
-        <v>159903527</v>
+        <v>163202537</v>
       </c>
       <c r="F37" t="n">
-        <v>78866.05214720729</v>
+        <v>57262.6705141354</v>
       </c>
       <c r="G37" t="n">
-        <v>117763.1770621032</v>
+        <v>114619.1827669686</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>16553173</v>
+        <v>17475585</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>273238945</v>
+        <v>276754793</v>
       </c>
       <c r="E38" t="n">
-        <v>273238945</v>
+        <v>276754793</v>
       </c>
       <c r="F38" t="n">
-        <v>31039.87801571392</v>
+        <v>26276.86599526498</v>
       </c>
       <c r="G38" t="n">
-        <v>27664.16691405156</v>
+        <v>24678.57481316958</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>9675871</v>
+        <v>9957184</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>205325307</v>
+        <v>204970917</v>
       </c>
       <c r="E39" t="n">
-        <v>713318674</v>
+        <v>712087489</v>
       </c>
       <c r="F39" t="n">
-        <v>174668.981100177</v>
+        <v>124294.4851175184</v>
       </c>
       <c r="G39" t="n">
-        <v>344683.1645703712</v>
+        <v>368322.9024513152</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>27961596</v>
+        <v>28280669</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3702888</v>
+        <v>3601415</v>
       </c>
       <c r="E40" t="n">
-        <v>3702888</v>
+        <v>3601415</v>
       </c>
       <c r="F40" t="n">
-        <v>486.7258166847823</v>
+        <v>349.9419062231518</v>
       </c>
       <c r="G40" t="n">
-        <v>2215.568602159319</v>
+        <v>2179.76529172066</v>
       </c>
       <c r="H40" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="I40" t="n">
-        <v>2643060</v>
+        <v>2621782</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116253864</v>
+        <v>116247025</v>
       </c>
       <c r="E41" t="n">
-        <v>493892302</v>
+        <v>493837458</v>
       </c>
       <c r="F41" t="n">
-        <v>4863.42784688866</v>
+        <v>5511.25286903572</v>
       </c>
       <c r="G41" t="n">
-        <v>6470.783978360725</v>
+        <v>6575.918761899489</v>
       </c>
       <c r="H41" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I41" t="n">
-        <v>15212691</v>
+        <v>15405208</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>562466</v>
+        <v>568554</v>
       </c>
       <c r="E42" t="n">
-        <v>6822160</v>
+        <v>6896007</v>
       </c>
       <c r="F42" t="n">
-        <v>607.4330574486123</v>
+        <v>623.4827173805194</v>
       </c>
       <c r="G42" t="n">
-        <v>654.3622739718219</v>
+        <v>796.3766983307046</v>
       </c>
       <c r="H42" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I42" t="n">
-        <v>2844027</v>
+        <v>2826397</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1300505596</v>
+        <v>1305885079</v>
       </c>
       <c r="E43" t="n">
-        <v>6236190672</v>
+        <v>6261986393</v>
       </c>
       <c r="F43" t="n">
-        <v>79336.66095433979</v>
+        <v>67414.1145095832</v>
       </c>
       <c r="G43" t="n">
-        <v>102662.6510091139</v>
+        <v>91689.24387458846</v>
       </c>
       <c r="H43" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>165495519</v>
+        <v>166305823</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6051343284</v>
+        <v>6054029721</v>
       </c>
       <c r="E44" t="n">
-        <v>6051343284</v>
+        <v>6054029721</v>
       </c>
       <c r="F44" t="n">
-        <v>4143125.440540426</v>
+        <v>4408270.047286198</v>
       </c>
       <c r="G44" t="n">
-        <v>3686731.076299942</v>
+        <v>4112467.32905368</v>
       </c>
       <c r="H44" t="n">
         <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>98137497</v>
+        <v>98386040</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>272567192</v>
+        <v>274107891</v>
       </c>
       <c r="E45" t="n">
-        <v>1176551315</v>
+        <v>1183201828</v>
       </c>
       <c r="F45" t="n">
-        <v>102004.6455329692</v>
+        <v>103115.0337024823</v>
       </c>
       <c r="G45" t="n">
-        <v>95310.22843202774</v>
+        <v>92573.43658794303</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>97276852</v>
+        <v>99850592</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114785948</v>
+        <v>115364498</v>
       </c>
       <c r="E46" t="n">
-        <v>114785948</v>
+        <v>115364498</v>
       </c>
       <c r="F46" t="n">
-        <v>32351.84842099249</v>
+        <v>27714.08812923213</v>
       </c>
       <c r="G46" t="n">
-        <v>39263.48552266777</v>
+        <v>40225.74332703114</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6123445</v>
+        <v>6107124</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2043346370</v>
+        <v>2045251354</v>
       </c>
       <c r="E47" t="n">
-        <v>2043346370</v>
+        <v>2045251354</v>
       </c>
       <c r="F47" t="n">
-        <v>174956.3149481718</v>
+        <v>225731.7290791219</v>
       </c>
       <c r="G47" t="n">
-        <v>148367.0666926672</v>
+        <v>199179.9253037722</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6675836760</v>
+        <v>6737242990</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9859345</v>
+        <v>9857989</v>
       </c>
       <c r="F48" t="n">
-        <v>6894.201399039793</v>
+        <v>6800.06795873352</v>
       </c>
       <c r="G48" t="n">
-        <v>5992.918309467235</v>
+        <v>6200.412914298182</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>136997</v>
+        <v>128824</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4471405</v>
+        <v>4447807</v>
       </c>
       <c r="E49" t="n">
-        <v>5870371</v>
+        <v>5839391</v>
       </c>
       <c r="F49" t="n">
-        <v>12523.05100466057</v>
+        <v>6674.50979304261</v>
       </c>
       <c r="G49" t="n">
-        <v>18740.18491534235</v>
+        <v>16357.02177219921</v>
       </c>
       <c r="H49" t="n">
         <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>596589</v>
+        <v>602840</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12360059</v>
+        <v>12879329</v>
       </c>
       <c r="E50" t="n">
-        <v>18175234</v>
+        <v>18938810</v>
       </c>
       <c r="F50" t="n">
-        <v>6781.579795236044</v>
+        <v>7492.686009617407</v>
       </c>
       <c r="G50" t="n">
-        <v>6684.056518797413</v>
+        <v>6964.856469106578</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I50" t="n">
-        <v>2353336</v>
+        <v>2952110</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22672506</v>
+        <v>22791941</v>
       </c>
       <c r="E51" t="n">
-        <v>29411427</v>
+        <v>29566362</v>
       </c>
       <c r="F51" t="n">
-        <v>13438.63642299116</v>
+        <v>15017.56647197419</v>
       </c>
       <c r="G51" t="n">
-        <v>12004.10019374391</v>
+        <v>9507.32306288932</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>137635</v>
+        <v>151842</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13824180</v>
+        <v>13764013</v>
       </c>
       <c r="E52" t="n">
-        <v>13824180</v>
+        <v>13764013</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4876653</v>
+        <v>4874778</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99209270</v>
+        <v>99402300</v>
       </c>
       <c r="E53" t="n">
-        <v>122718316</v>
+        <v>122957087</v>
       </c>
       <c r="F53" t="n">
-        <v>530.9370595852091</v>
+        <v>275.3280321992831</v>
       </c>
       <c r="G53" t="n">
-        <v>943.0851407055461</v>
+        <v>3542.97207514608</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="I53" t="n">
-        <v>825891</v>
+        <v>824000</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5187559</v>
+        <v>5174659</v>
       </c>
       <c r="E54" t="n">
-        <v>7258147</v>
+        <v>7240098</v>
       </c>
       <c r="F54" t="n">
-        <v>606.1037093701739</v>
+        <v>407.0813369877783</v>
       </c>
       <c r="G54" t="n">
-        <v>280.7596810585372</v>
+        <v>330.1669998104275</v>
       </c>
       <c r="H54" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="I54" t="n">
-        <v>104693</v>
+        <v>103864</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14465282</v>
+        <v>14588417</v>
       </c>
       <c r="E55" t="n">
-        <v>70057671</v>
+        <v>70654034</v>
       </c>
       <c r="F55" t="n">
-        <v>25355.42931258632</v>
+        <v>17477.05908291597</v>
       </c>
       <c r="G55" t="n">
-        <v>34905.89014462732</v>
+        <v>25504.18073115308</v>
       </c>
       <c r="H55" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>3801441</v>
+        <v>3799559</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>62258</v>
+        <v>59636</v>
       </c>
       <c r="E56" t="n">
-        <v>149120</v>
+        <v>142842</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4439.41</v>
+        <v>4304.43</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1932450600</v>
+        <v>1928824615</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27410810</v>
+        <v>27658490</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12122626</v>
+        <v>12158932</v>
       </c>
       <c r="E58" t="n">
-        <v>17576058</v>
+        <v>17628697</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2035359</v>
+        <v>2034385</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125132995</v>
+        <v>124325691</v>
       </c>
       <c r="E59" t="n">
-        <v>332782432</v>
+        <v>330635466</v>
       </c>
       <c r="F59" t="n">
-        <v>8356.626261996505</v>
+        <v>7794.939870450003</v>
       </c>
       <c r="G59" t="n">
-        <v>7247.476183111343</v>
+        <v>7191.735439320601</v>
       </c>
       <c r="H59" t="n">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>912793</v>
+        <v>887580</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31716169</v>
+        <v>31810592</v>
       </c>
       <c r="E60" t="n">
-        <v>98753974</v>
+        <v>99047977</v>
       </c>
       <c r="F60" t="n">
-        <v>3369.78099223118</v>
+        <v>2197.225949006725</v>
       </c>
       <c r="G60" t="n">
-        <v>6767.620415546215</v>
+        <v>6937.038198588401</v>
       </c>
       <c r="H60" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I60" t="n">
-        <v>11696885</v>
+        <v>11490704</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2082481</v>
+        <v>2074582</v>
       </c>
       <c r="E61" t="n">
-        <v>14933261</v>
+        <v>14876623</v>
       </c>
       <c r="F61" t="n">
-        <v>5321.210972438346</v>
+        <v>5352.759947837344</v>
       </c>
       <c r="G61" t="n">
-        <v>5159.150718524576</v>
+        <v>5142.55663118912</v>
       </c>
       <c r="H61" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="I61" t="n">
-        <v>1992046</v>
+        <v>1982638</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>204635752</v>
+        <v>205111578</v>
       </c>
       <c r="E62" t="n">
-        <v>1158773364</v>
+        <v>1161467782</v>
       </c>
       <c r="F62" t="n">
-        <v>754729.3925008877</v>
+        <v>683532.2856327483</v>
       </c>
       <c r="G62" t="n">
-        <v>763720.597945525</v>
+        <v>915071.6495947087</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>64616513</v>
+        <v>66051488</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>502473</v>
+        <v>499686</v>
       </c>
       <c r="E63" t="n">
-        <v>1691253</v>
+        <v>1681872</v>
       </c>
       <c r="F63" t="n">
-        <v>4402.343027668272</v>
+        <v>4526.339268322303</v>
       </c>
       <c r="G63" t="n">
-        <v>396.5715104987125</v>
+        <v>393.7130915826219</v>
       </c>
       <c r="H63" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>631784</v>
+        <v>633221</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343078</v>
+        <v>341086</v>
       </c>
       <c r="E64" t="n">
-        <v>343078</v>
+        <v>341086</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5327.4</v>
+        <v>5290.88</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>142942451</v>
+        <v>143106892</v>
       </c>
       <c r="E65" t="n">
-        <v>1058832972</v>
+        <v>1060051052</v>
       </c>
       <c r="F65" t="n">
-        <v>38757.95583749979</v>
+        <v>40461.63331695458</v>
       </c>
       <c r="G65" t="n">
-        <v>40975.74009885159</v>
+        <v>36395.37677405367</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>8960521</v>
+        <v>8690432</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8029460</v>
+        <v>7992888</v>
       </c>
       <c r="E66" t="n">
-        <v>10756799</v>
+        <v>10707804</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58616</v>
+        <v>37324</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26407762</v>
+        <v>26767245</v>
       </c>
       <c r="E67" t="n">
-        <v>26407762</v>
+        <v>26767245</v>
       </c>
       <c r="F67" t="n">
-        <v>7609.446505121186</v>
+        <v>7898.818940038446</v>
       </c>
       <c r="G67" t="n">
-        <v>12024.34151705726</v>
+        <v>8930.517131147069</v>
       </c>
       <c r="H67" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="I67" t="n">
-        <v>313557</v>
+        <v>316231</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1582931</v>
+        <v>1566031</v>
       </c>
       <c r="E68" t="n">
-        <v>12293222</v>
+        <v>12161978</v>
       </c>
       <c r="F68" t="n">
-        <v>9904.414979721847</v>
+        <v>9275.654378601705</v>
       </c>
       <c r="G68" t="n">
-        <v>18441.69632985129</v>
+        <v>20320.85090554737</v>
       </c>
       <c r="H68" t="n">
         <v>0.77</v>
       </c>
       <c r="I68" t="n">
-        <v>522984</v>
+        <v>517498</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>339783581</v>
+        <v>345920874</v>
       </c>
       <c r="E69" t="n">
-        <v>3056903784</v>
+        <v>3112118682</v>
       </c>
       <c r="F69" t="n">
-        <v>1421504.472880318</v>
+        <v>1056047.570122734</v>
       </c>
       <c r="G69" t="n">
-        <v>1876830.960114763</v>
+        <v>1443397.660504784</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I69" t="n">
-        <v>38079329</v>
+        <v>39647958</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246860</v>
+        <v>250646</v>
       </c>
       <c r="E70" t="n">
-        <v>2178728</v>
+        <v>2212137</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>85012</v>
+        <v>90538</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1578700</v>
+        <v>1577438</v>
       </c>
       <c r="E71" t="n">
-        <v>13155831</v>
+        <v>13145320</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>38594</v>
+        <v>38382</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9306721</v>
+        <v>9297110</v>
       </c>
       <c r="E72" t="n">
-        <v>43137187</v>
+        <v>43092639</v>
       </c>
       <c r="F72" t="n">
-        <v>5311.467163937038</v>
+        <v>5758.053873840595</v>
       </c>
       <c r="G72" t="n">
-        <v>10108.06588168186</v>
+        <v>10659.55087789883</v>
       </c>
       <c r="H72" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>129969</v>
+        <v>130150</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50078318</v>
+        <v>50015029</v>
       </c>
       <c r="E73" t="n">
-        <v>289932768</v>
+        <v>289566354</v>
       </c>
       <c r="F73" t="n">
-        <v>92985.00182065519</v>
+        <v>100177.5173387097</v>
       </c>
       <c r="G73" t="n">
-        <v>153116.1382139112</v>
+        <v>151533.3032751329</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>29714918</v>
+        <v>31989701</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39606658</v>
+        <v>39694202</v>
       </c>
       <c r="E74" t="n">
-        <v>54702435</v>
+        <v>54823345</v>
       </c>
       <c r="F74" t="n">
-        <v>657.0174368567849</v>
+        <v>10788.23503762625</v>
       </c>
       <c r="G74" t="n">
-        <v>652.9666586306358</v>
+        <v>4426.825397078826</v>
       </c>
       <c r="H74" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>341493</v>
+        <v>340879</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97171</v>
+        <v>97325</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>298.87</v>
+        <v>299.95</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13626265</v>
+        <v>13603504</v>
       </c>
       <c r="E76" t="n">
-        <v>13672636</v>
+        <v>13649798</v>
       </c>
       <c r="F76" t="n">
-        <v>801.1629319704026</v>
+        <v>1378.163372666697</v>
       </c>
       <c r="G76" t="n">
-        <v>6765.576328715612</v>
+        <v>7464.962381944651</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>1.29</v>
       </c>
       <c r="I76" t="n">
-        <v>5928405</v>
+        <v>5890633</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42776888</v>
+        <v>42768720</v>
       </c>
       <c r="E77" t="n">
-        <v>72625204</v>
+        <v>72611337</v>
       </c>
       <c r="F77" t="n">
-        <v>9174.631881971436</v>
+        <v>8889.125676208718</v>
       </c>
       <c r="G77" t="n">
-        <v>6722.25053906239</v>
+        <v>5952.439923965911</v>
       </c>
       <c r="H77" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1089805</v>
+        <v>1076011</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22542011</v>
+        <v>22683595</v>
       </c>
       <c r="E78" t="n">
-        <v>67570582</v>
+        <v>67994987</v>
       </c>
       <c r="F78" t="n">
-        <v>119566.5290808408</v>
+        <v>129442.3639422948</v>
       </c>
       <c r="G78" t="n">
-        <v>107852.4559857432</v>
+        <v>97496.99152435194</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I78" t="n">
-        <v>3369893</v>
+        <v>3387173</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101379312</v>
+        <v>101325313</v>
       </c>
       <c r="E79" t="n">
-        <v>107775371</v>
+        <v>107717965</v>
       </c>
       <c r="F79" t="n">
-        <v>2753.722014665169</v>
+        <v>2726.307685120331</v>
       </c>
       <c r="G79" t="n">
-        <v>3965.949287703828</v>
+        <v>4150.525246913409</v>
       </c>
       <c r="H79" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="I79" t="n">
-        <v>375848</v>
+        <v>379479</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10393732</v>
+        <v>10385926</v>
       </c>
       <c r="E80" t="n">
-        <v>45153215</v>
+        <v>45115885</v>
       </c>
       <c r="F80" t="n">
-        <v>6731.629238321264</v>
+        <v>6754.623757373374</v>
       </c>
       <c r="G80" t="n">
-        <v>5192.340045853958</v>
+        <v>5189.758328552474</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>116341</v>
+        <v>115923</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15767864</v>
+        <v>15736923</v>
       </c>
       <c r="E81" t="n">
-        <v>96646423</v>
+        <v>96456773</v>
       </c>
       <c r="F81" t="n">
-        <v>4207.04607408008</v>
+        <v>4181.166892568345</v>
       </c>
       <c r="G81" t="n">
-        <v>6423.970986402263</v>
+        <v>5865.56958140464</v>
       </c>
       <c r="H81" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>10621982</v>
+        <v>10336677</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1508210</v>
+        <v>1508407</v>
       </c>
       <c r="E82" t="n">
-        <v>1550635</v>
+        <v>1550837</v>
       </c>
       <c r="F82" t="n">
-        <v>4366.853393209506</v>
+        <v>4875.831456102616</v>
       </c>
       <c r="G82" t="n">
-        <v>6036.773394515443</v>
+        <v>6070.253907113743</v>
       </c>
       <c r="H82" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I82" t="n">
-        <v>151853</v>
+        <v>147334</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47670377</v>
+        <v>48089751</v>
       </c>
       <c r="E83" t="n">
-        <v>205358773</v>
+        <v>207165389</v>
       </c>
       <c r="F83" t="n">
-        <v>3509.211570316359</v>
+        <v>3449.102548584559</v>
       </c>
       <c r="G83" t="n">
-        <v>4547.638218769201</v>
+        <v>4629.67555385284</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>8889294</v>
+        <v>8815399</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1914058</v>
+        <v>1917300</v>
       </c>
       <c r="E84" t="n">
-        <v>6953360</v>
+        <v>6964745</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>141780</v>
+        <v>141580</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8913330</v>
+        <v>8842049</v>
       </c>
       <c r="E85" t="n">
-        <v>19792330</v>
+        <v>19634049</v>
       </c>
       <c r="F85" t="n">
-        <v>5978.567930225845</v>
+        <v>1801.100447117829</v>
       </c>
       <c r="G85" t="n">
-        <v>7376.693278218958</v>
+        <v>5511.005166897704</v>
       </c>
       <c r="H85" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="I85" t="n">
-        <v>238400</v>
+        <v>338242</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2442568</v>
+        <v>2441126</v>
       </c>
       <c r="E86" t="n">
-        <v>18379778</v>
+        <v>18368921</v>
       </c>
       <c r="F86" t="n">
-        <v>4986.864921511177</v>
+        <v>5383.584889483756</v>
       </c>
       <c r="G86" t="n">
-        <v>12218.5142878174</v>
+        <v>11792.69246658271</v>
       </c>
       <c r="H86" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>164724</v>
+        <v>164255</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21061976</v>
+        <v>21018822</v>
       </c>
       <c r="E87" t="n">
-        <v>84247903</v>
+        <v>84075289</v>
       </c>
       <c r="F87" t="n">
-        <v>19831.22426415144</v>
+        <v>13679.81503835361</v>
       </c>
       <c r="G87" t="n">
-        <v>1216.948848651251</v>
+        <v>1126.99705478395</v>
       </c>
       <c r="H87" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="I87" t="n">
-        <v>3977856</v>
+        <v>3172569</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4215727</v>
+        <v>4571970</v>
       </c>
       <c r="E88" t="n">
-        <v>4215727</v>
+        <v>4571970</v>
       </c>
       <c r="F88" t="n">
-        <v>2513.804338590631</v>
+        <v>341.7128375427144</v>
       </c>
       <c r="G88" t="n">
-        <v>1713.73640130248</v>
+        <v>560.8186728801467</v>
       </c>
       <c r="H88" t="n">
-        <v>0.48</v>
+        <v>1.32</v>
       </c>
       <c r="I88" t="n">
-        <v>2715608</v>
+        <v>2835468</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12789100</v>
+        <v>12745036</v>
       </c>
       <c r="E89" t="n">
-        <v>40460089</v>
+        <v>40320686</v>
       </c>
       <c r="F89" t="n">
-        <v>13016.02026010991</v>
+        <v>11753.32309212</v>
       </c>
       <c r="G89" t="n">
-        <v>12585.95108251804</v>
+        <v>14086.22375079104</v>
       </c>
       <c r="H89" t="n">
         <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1174460</v>
+        <v>1090147</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25022</v>
+        <v>24745</v>
       </c>
       <c r="E90" t="n">
-        <v>196793</v>
+        <v>194615</v>
       </c>
       <c r="F90" t="n">
-        <v>4625.176144911285</v>
+        <v>243.1679663772068</v>
       </c>
       <c r="G90" t="n">
-        <v>345.7103278930627</v>
+        <v>833.5992707181271</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I90" t="n">
-        <v>87176</v>
+        <v>83046</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8562287</v>
+        <v>8389260</v>
       </c>
       <c r="E91" t="n">
-        <v>8562287</v>
+        <v>8389260</v>
       </c>
       <c r="F91" t="n">
-        <v>3378.466987142466</v>
+        <v>2892.37514142346</v>
       </c>
       <c r="G91" t="n">
-        <v>4517.257316579145</v>
+        <v>2846.431458244246</v>
       </c>
       <c r="H91" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I91" t="n">
-        <v>3668576</v>
+        <v>3723730</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9256087</v>
+        <v>9283194</v>
       </c>
       <c r="E92" t="n">
-        <v>9256087</v>
+        <v>9283194</v>
       </c>
       <c r="F92" t="n">
-        <v>3033.290027227202</v>
+        <v>4925.497866333184</v>
       </c>
       <c r="G92" t="n">
-        <v>6263.303586057868</v>
+        <v>6521.615026813157</v>
       </c>
       <c r="H92" t="n">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="I92" t="n">
-        <v>3004340</v>
+        <v>3004193</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37952307</v>
+        <v>38130998</v>
       </c>
       <c r="E93" t="n">
-        <v>95697499</v>
+        <v>96148071</v>
       </c>
       <c r="F93" t="n">
-        <v>5670.450110050973</v>
+        <v>4762.202302803739</v>
       </c>
       <c r="G93" t="n">
-        <v>6218.413030763561</v>
+        <v>6043.024215128864</v>
       </c>
       <c r="H93" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="I93" t="n">
-        <v>3418285</v>
+        <v>3425950</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>313182690</v>
+        <v>314281361</v>
       </c>
       <c r="E94" t="n">
-        <v>318073235</v>
+        <v>319187634</v>
       </c>
       <c r="F94" t="n">
-        <v>49171.88269018618</v>
+        <v>51203.8334252541</v>
       </c>
       <c r="G94" t="n">
-        <v>29236.06903877001</v>
+        <v>52619.41077267691</v>
       </c>
       <c r="H94" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I94" t="n">
-        <v>14839266</v>
+        <v>15441509</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1016.905761491996</v>
+        <v>6105.145692238812</v>
       </c>
       <c r="G95" t="n">
-        <v>6476.12586757894</v>
+        <v>6471.814217941528</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>215773</v>
+        <v>216317</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>86647629</v>
+        <v>85949408</v>
       </c>
       <c r="E96" t="n">
-        <v>86647629</v>
+        <v>85949408</v>
       </c>
       <c r="F96" t="n">
-        <v>11581.09328665613</v>
+        <v>6311.910004977698</v>
       </c>
       <c r="G96" t="n">
-        <v>7334.139983522135</v>
+        <v>5611.736505366574</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I96" t="n">
-        <v>5125322</v>
+        <v>5028104</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301286590</v>
+        <v>295827939</v>
       </c>
       <c r="E97" t="n">
-        <v>301286590</v>
+        <v>295827939</v>
       </c>
       <c r="F97" t="n">
-        <v>329721.6305405565</v>
+        <v>312103.2899512749</v>
       </c>
       <c r="G97" t="n">
-        <v>457079.359969779</v>
+        <v>412598.7311894905</v>
       </c>
       <c r="H97" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>57891286</v>
+        <v>76360039</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4238976</v>
+        <v>4231262</v>
       </c>
       <c r="E98" t="n">
-        <v>28964628</v>
+        <v>28911918</v>
       </c>
       <c r="F98" t="n">
-        <v>138.0949251566144</v>
+        <v>164.016683666999</v>
       </c>
       <c r="G98" t="n">
-        <v>358.2097977993701</v>
+        <v>296.2385648727656</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2650961</v>
+        <v>2651490</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91358894</v>
+        <v>91534952</v>
       </c>
       <c r="E99" t="n">
-        <v>526449355</v>
+        <v>527463872</v>
       </c>
       <c r="F99" t="n">
-        <v>128637.409003438</v>
+        <v>155469.168148952</v>
       </c>
       <c r="G99" t="n">
-        <v>133707.8809220436</v>
+        <v>139586.3889378624</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I99" t="n">
-        <v>16940094</v>
+        <v>16994413</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108681476</v>
+        <v>108827371</v>
       </c>
       <c r="E100" t="n">
-        <v>267398893</v>
+        <v>267757851</v>
       </c>
       <c r="F100" t="n">
-        <v>27083.60977870063</v>
+        <v>22462.56515669434</v>
       </c>
       <c r="G100" t="n">
-        <v>58012.60232669366</v>
+        <v>60949.49025930976</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2126309</v>
+        <v>2240859</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248039148</v>
+        <v>251666412</v>
       </c>
       <c r="E101" t="n">
-        <v>248041612</v>
+        <v>251668912</v>
       </c>
       <c r="F101" t="n">
-        <v>40337.58609907249</v>
+        <v>43365.93288653072</v>
       </c>
       <c r="G101" t="n">
-        <v>4392.954482707835</v>
+        <v>6818.33074990703</v>
       </c>
       <c r="H101" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="I101" t="n">
-        <v>1602437</v>
+        <v>2539742</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30752172</v>
+        <v>30856432</v>
       </c>
       <c r="E102" t="n">
-        <v>137690087</v>
+        <v>138156906</v>
       </c>
       <c r="F102" t="n">
-        <v>116308.1082722984</v>
+        <v>106009.8909116055</v>
       </c>
       <c r="G102" t="n">
-        <v>147536.1585262692</v>
+        <v>131006.092927325</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I102" t="n">
-        <v>8725468</v>
+        <v>8604478</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3108725</v>
+        <v>3127944</v>
       </c>
       <c r="E103" t="n">
-        <v>3108725</v>
+        <v>3127944</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>430466</v>
+        <v>422684</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5959468</v>
+        <v>5834571</v>
       </c>
       <c r="E104" t="n">
-        <v>15640634</v>
+        <v>15312841</v>
       </c>
       <c r="F104" t="n">
-        <v>983.0617615857301</v>
+        <v>851.5310294608773</v>
       </c>
       <c r="G104" t="n">
-        <v>2901.790761411127</v>
+        <v>2762.257839084459</v>
       </c>
       <c r="H104" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I104" t="n">
-        <v>20977</v>
+        <v>22645</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16546518</v>
+        <v>16696245</v>
       </c>
       <c r="E105" t="n">
-        <v>76376374</v>
+        <v>77067494</v>
       </c>
       <c r="F105" t="n">
-        <v>23957.05139253717</v>
+        <v>54079.55139278823</v>
       </c>
       <c r="G105" t="n">
-        <v>29876.43638147918</v>
+        <v>27269.42736264773</v>
       </c>
       <c r="H105" t="n">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
       <c r="I105" t="n">
-        <v>989986</v>
+        <v>989862</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>49894728</v>
+        <v>50194966</v>
       </c>
       <c r="E106" t="n">
-        <v>323554034</v>
+        <v>325500994</v>
       </c>
       <c r="F106" t="n">
-        <v>58248.75913804423</v>
+        <v>62118.69854621196</v>
       </c>
       <c r="G106" t="n">
-        <v>129338.743862038</v>
+        <v>165744.4424342274</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16654565</v>
+        <v>16755668</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2446928</v>
+        <v>2408041</v>
       </c>
       <c r="E107" t="n">
-        <v>4433072</v>
+        <v>4362619</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>126167</v>
+        <v>123665</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125321318</v>
+        <v>125572471</v>
       </c>
       <c r="E108" t="n">
-        <v>2075423663</v>
+        <v>2079582964</v>
       </c>
       <c r="F108" t="n">
-        <v>392228.3761423876</v>
+        <v>237120.3133901962</v>
       </c>
       <c r="G108" t="n">
-        <v>188135.9367025943</v>
+        <v>192537.1677528672</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4841271</v>
+        <v>4705866</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24618931</v>
+        <v>24660936</v>
       </c>
       <c r="E109" t="n">
-        <v>147300015</v>
+        <v>147551335</v>
       </c>
       <c r="F109" t="n">
-        <v>42868.43657812575</v>
+        <v>42560.1108631155</v>
       </c>
       <c r="G109" t="n">
-        <v>40267.75453533751</v>
+        <v>40145.58005762789</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I109" t="n">
-        <v>11728504</v>
+        <v>12435950</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1058045</v>
+        <v>1063202</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>69614</v>
+        <v>68087</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2256755</v>
+        <v>2283576</v>
       </c>
       <c r="F111" t="n">
-        <v>3808.837786304577</v>
+        <v>3796.106627852749</v>
       </c>
       <c r="G111" t="n">
-        <v>227.803024881069</v>
+        <v>282.0239452688753</v>
       </c>
       <c r="H111" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>176277</v>
+        <v>177797</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142118875</v>
+        <v>142223628</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.474587951979</v>
+        <v>3314.938394353122</v>
       </c>
       <c r="G112" t="n">
-        <v>964.593002142175</v>
+        <v>466.7126678005716</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>25425</v>
+        <v>25821</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6651612</v>
+        <v>6668856</v>
       </c>
       <c r="E113" t="n">
-        <v>34220524</v>
+        <v>34309236</v>
       </c>
       <c r="F113" t="n">
-        <v>1159.579929321161</v>
+        <v>323.4550323450072</v>
       </c>
       <c r="G113" t="n">
-        <v>769.0326584585856</v>
+        <v>2686.88032801232</v>
       </c>
       <c r="H113" t="n">
-        <v>0.88</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>921628</v>
+        <v>914162</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29205898</v>
+        <v>29227743</v>
       </c>
       <c r="E114" t="n">
-        <v>40046393</v>
+        <v>40076346</v>
       </c>
       <c r="F114" t="n">
-        <v>4673.857295974006</v>
+        <v>4700.629033050227</v>
       </c>
       <c r="G114" t="n">
-        <v>4633.113800511344</v>
+        <v>4574.003768467098</v>
       </c>
       <c r="H114" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>209081</v>
+        <v>207223</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7994769</v>
+        <v>7996695</v>
       </c>
       <c r="F115" t="n">
-        <v>159.2925880201796</v>
+        <v>128.3694008124049</v>
       </c>
       <c r="G115" t="n">
-        <v>6579.202168135074</v>
+        <v>6768.242794473219</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>647849</v>
+        <v>644707</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3368631</v>
+        <v>3399051</v>
       </c>
       <c r="E116" t="n">
-        <v>4512495</v>
+        <v>4553243</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149461</v>
+        <v>150710</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35133297</v>
+        <v>35103645</v>
       </c>
       <c r="E117" t="n">
-        <v>175331349</v>
+        <v>175183373</v>
       </c>
       <c r="F117" t="n">
-        <v>93225.80136637828</v>
+        <v>93322.84290133824</v>
       </c>
       <c r="G117" t="n">
-        <v>78987.33074567192</v>
+        <v>75345.68383804744</v>
       </c>
       <c r="H117" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>10433623</v>
+        <v>10386208</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3497494</v>
+        <v>3500154</v>
       </c>
       <c r="E118" t="n">
-        <v>5024333</v>
+        <v>5028155</v>
       </c>
       <c r="F118" t="n">
-        <v>564.310489641222</v>
+        <v>564.3104773882496</v>
       </c>
       <c r="G118" t="n">
-        <v>625.0985068986039</v>
+        <v>625.0984933257305</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>149638</v>
+        <v>147203</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>316497272</v>
+        <v>317739136</v>
       </c>
       <c r="E119" t="n">
-        <v>585592129</v>
+        <v>587889860</v>
       </c>
       <c r="F119" t="n">
-        <v>98042.33217926286</v>
+        <v>101759.6789619974</v>
       </c>
       <c r="G119" t="n">
-        <v>116716.0768401756</v>
+        <v>122618.6581019493</v>
       </c>
       <c r="H119" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I119" t="n">
-        <v>13533759</v>
+        <v>13949496</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72038483</v>
+        <v>72193613</v>
       </c>
       <c r="E120" t="n">
-        <v>687220978</v>
+        <v>688691850</v>
       </c>
       <c r="F120" t="n">
-        <v>1812.497436905747</v>
+        <v>1532.035099656621</v>
       </c>
       <c r="G120" t="n">
-        <v>42241.55779907427</v>
+        <v>44155.96774784523</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I120" t="n">
-        <v>21849830</v>
+        <v>22081643</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37859945</v>
+        <v>37891202</v>
       </c>
       <c r="E121" t="n">
-        <v>49499413</v>
+        <v>49539832</v>
       </c>
       <c r="F121" t="n">
-        <v>5619.506303591493</v>
+        <v>5619.505558460619</v>
       </c>
       <c r="G121" t="n">
-        <v>1042.237329745823</v>
+        <v>344.1864541765322</v>
       </c>
       <c r="H121" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>187054</v>
+        <v>185265</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11187654</v>
+        <v>11338087</v>
       </c>
       <c r="E122" t="n">
-        <v>33194512</v>
+        <v>33640856</v>
       </c>
       <c r="F122" t="n">
-        <v>597.7587099470387</v>
+        <v>695.9861076860066</v>
       </c>
       <c r="G122" t="n">
-        <v>4220.13792805781</v>
+        <v>3736.194597743821</v>
       </c>
       <c r="H122" t="n">
-        <v>2.23</v>
+        <v>1.74</v>
       </c>
       <c r="I122" t="n">
-        <v>7122161</v>
+        <v>7196446</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2267941</v>
+        <v>2250564</v>
       </c>
       <c r="E123" t="n">
-        <v>7760553</v>
+        <v>7701093</v>
       </c>
       <c r="F123" t="n">
-        <v>792.5301218485736</v>
+        <v>537.7254992788278</v>
       </c>
       <c r="G123" t="n">
-        <v>1149.566209330373</v>
+        <v>1077.368244932332</v>
       </c>
       <c r="H123" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>949624</v>
+        <v>958164</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7411133</v>
+        <v>7358736</v>
       </c>
       <c r="E124" t="n">
-        <v>7411144</v>
+        <v>7358747</v>
       </c>
       <c r="F124" t="n">
-        <v>271.761919047036</v>
+        <v>443.2221731905973</v>
       </c>
       <c r="G124" t="n">
-        <v>1129.856688689289</v>
+        <v>995.5034359272501</v>
       </c>
       <c r="H124" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>321567</v>
+        <v>321391</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6286347</v>
+        <v>6394475</v>
       </c>
       <c r="E125" t="n">
-        <v>6286347</v>
+        <v>6394475</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>482447</v>
+        <v>502467</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6232738</v>
+        <v>6243018</v>
       </c>
       <c r="E126" t="n">
-        <v>22765779</v>
+        <v>22803331</v>
       </c>
       <c r="F126" t="n">
-        <v>7099.479378053633</v>
+        <v>7099.346177656733</v>
       </c>
       <c r="G126" t="n">
-        <v>7610.201478162667</v>
+        <v>7704.455625632218</v>
       </c>
       <c r="H126" t="n">
         <v>0.88</v>
       </c>
       <c r="I126" t="n">
-        <v>500843</v>
+        <v>504447</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45120211</v>
+        <v>44852152</v>
       </c>
       <c r="E127" t="n">
-        <v>45120211</v>
+        <v>44852152</v>
       </c>
       <c r="F127" t="n">
-        <v>63093.67000036536</v>
+        <v>56042.90915436935</v>
       </c>
       <c r="G127" t="n">
-        <v>86648.04656372417</v>
+        <v>80921.90668951618</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I127" t="n">
-        <v>7621490</v>
+        <v>8465209</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>151335722</v>
+        <v>152565377</v>
       </c>
       <c r="F128" t="n">
-        <v>1274.978391579353</v>
+        <v>1546.133596788026</v>
       </c>
       <c r="G128" t="n">
-        <v>375.9981683026984</v>
+        <v>223.4339367684079</v>
       </c>
       <c r="H128" t="n">
-        <v>0.78</v>
+        <v>0.59</v>
       </c>
       <c r="I128" t="n">
-        <v>1418915</v>
+        <v>1656815</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2970053</v>
+        <v>2996883</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>71254</v>
+        <v>70436</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20342432</v>
+        <v>20372111</v>
       </c>
       <c r="F130" t="n">
-        <v>313.4565135465776</v>
+        <v>474.7210221415535</v>
       </c>
       <c r="G130" t="n">
-        <v>695.746642152959</v>
+        <v>292.4269955888975</v>
       </c>
       <c r="H130" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="I130" t="n">
-        <v>2978764</v>
+        <v>2976230</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1251468</v>
+        <v>1257827</v>
       </c>
       <c r="E131" t="n">
-        <v>3782192</v>
+        <v>3800906</v>
       </c>
       <c r="F131" t="n">
-        <v>634.9627413457961</v>
+        <v>693.6389469691898</v>
       </c>
       <c r="G131" t="n">
-        <v>802.3275144138976</v>
+        <v>778.5732763247515</v>
       </c>
       <c r="H131" t="n">
         <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>11845.53</v>
+        <v>12581.25</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>611037200</v>
+        <v>609553598</v>
       </c>
       <c r="E132" t="n">
-        <v>2366456923</v>
+        <v>2360711150</v>
       </c>
       <c r="F132" t="n">
-        <v>831288.6819166783</v>
+        <v>748025.802188282</v>
       </c>
       <c r="G132" t="n">
-        <v>984773.9453045576</v>
+        <v>1114362.031261022</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32587929</v>
+        <v>32892507</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3708339</v>
+        <v>3708307</v>
       </c>
       <c r="E133" t="n">
-        <v>6321368</v>
+        <v>6321312</v>
       </c>
       <c r="F133" t="n">
-        <v>5227.167760331254</v>
+        <v>5429.164404081394</v>
       </c>
       <c r="G133" t="n">
-        <v>5649.536165914871</v>
+        <v>5385.629035677706</v>
       </c>
       <c r="H133" t="n">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1261693</v>
+        <v>1188516</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>123205650</v>
+        <v>123296876</v>
       </c>
       <c r="E134" t="n">
-        <v>1071197401</v>
+        <v>1071990560</v>
       </c>
       <c r="F134" t="n">
-        <v>106679.2727153262</v>
+        <v>81952.88560604535</v>
       </c>
       <c r="G134" t="n">
-        <v>127901.5448689108</v>
+        <v>109638.5034130941</v>
       </c>
       <c r="H134" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>9152396</v>
+        <v>9147020</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>992549327</v>
+        <v>986713234</v>
       </c>
       <c r="E135" t="n">
-        <v>1090318157</v>
+        <v>1083907192</v>
       </c>
       <c r="F135" t="n">
-        <v>9321.104279844356</v>
+        <v>11862.18762210822</v>
       </c>
       <c r="G135" t="n">
-        <v>18746.65406268066</v>
+        <v>13001.24046796031</v>
       </c>
       <c r="H135" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="I135" t="n">
-        <v>10347224</v>
+        <v>10442932</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1117338</v>
+        <v>1139771</v>
       </c>
       <c r="E136" t="n">
-        <v>4326577</v>
+        <v>4413441</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>380625</v>
+        <v>371587</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121431442</v>
+        <v>122504302</v>
       </c>
       <c r="E137" t="n">
-        <v>465830556</v>
+        <v>469946219</v>
       </c>
       <c r="F137" t="n">
-        <v>124326.8640767921</v>
+        <v>143559.0095241544</v>
       </c>
       <c r="G137" t="n">
-        <v>222807.6680831215</v>
+        <v>216280.4791459673</v>
       </c>
       <c r="H137" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I137" t="n">
-        <v>30596733</v>
+        <v>30633804</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3188980</v>
+        <v>3187853</v>
       </c>
       <c r="E138" t="n">
-        <v>30216059</v>
+        <v>30205383</v>
       </c>
       <c r="F138" t="n">
-        <v>2991.811627206895</v>
+        <v>2929.796308821481</v>
       </c>
       <c r="G138" t="n">
-        <v>4682.75171272286</v>
+        <v>4363.400115146912</v>
       </c>
       <c r="H138" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="I138" t="n">
-        <v>212685</v>
+        <v>213202</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21917550</v>
+        <v>21946121</v>
       </c>
       <c r="E139" t="n">
-        <v>21917550</v>
+        <v>21946121</v>
       </c>
       <c r="F139" t="n">
-        <v>716.8189995697278</v>
+        <v>1207.791302577126</v>
       </c>
       <c r="G139" t="n">
-        <v>689.8747390042864</v>
+        <v>549.2468077760452</v>
       </c>
       <c r="H139" t="n">
-        <v>0.95</v>
+        <v>2.06</v>
       </c>
       <c r="I139" t="n">
-        <v>652566</v>
+        <v>656145</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494493797</v>
+        <v>494799841</v>
       </c>
       <c r="E140" t="n">
-        <v>494493797</v>
+        <v>494799841</v>
       </c>
       <c r="F140" t="n">
-        <v>957772.1253439724</v>
+        <v>960773.0234971285</v>
       </c>
       <c r="G140" t="n">
-        <v>1008871.172695955</v>
+        <v>1010795.646085787</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>32765560</v>
+        <v>32737297</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31606710</v>
+        <v>31764167</v>
       </c>
       <c r="F141" t="n">
-        <v>54450.67815845728</v>
+        <v>52244.4776490604</v>
       </c>
       <c r="G141" t="n">
-        <v>59962.95067289437</v>
+        <v>77629.56335720075</v>
       </c>
       <c r="H141" t="n">
         <v>0.44</v>
       </c>
       <c r="I141" t="n">
-        <v>5402493</v>
+        <v>5353088</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>816850</v>
+        <v>770381</v>
       </c>
       <c r="E142" t="n">
-        <v>13028473</v>
+        <v>12287302</v>
       </c>
       <c r="F142" t="n">
-        <v>183.8869009099287</v>
+        <v>350.8054467378348</v>
       </c>
       <c r="G142" t="n">
-        <v>30.66678399173713</v>
+        <v>9.189068099290603</v>
       </c>
       <c r="H142" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="I142" t="n">
-        <v>256626</v>
+        <v>264878</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2643454687</v>
+        <v>2648861944</v>
       </c>
       <c r="E143" t="n">
-        <v>2806661043</v>
+        <v>2812402142</v>
       </c>
       <c r="F143" t="n">
-        <v>2831.036577779557</v>
+        <v>3565.068502093329</v>
       </c>
       <c r="G143" t="n">
-        <v>22665.36775726332</v>
+        <v>18404.85205734066</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I143" t="n">
-        <v>35184997</v>
+        <v>34948510</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1725477</v>
+        <v>1720902</v>
       </c>
       <c r="E144" t="n">
-        <v>1731567</v>
+        <v>1726976</v>
       </c>
       <c r="F144" t="n">
-        <v>825.2075919759152</v>
+        <v>505.3370480180232</v>
       </c>
       <c r="G144" t="n">
-        <v>673.9880352178789</v>
+        <v>279.8134737305618</v>
       </c>
       <c r="H144" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="I144" t="n">
-        <v>438864</v>
+        <v>432518</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61488129</v>
+        <v>61314660</v>
       </c>
       <c r="E145" t="n">
-        <v>150826213</v>
+        <v>150400705</v>
       </c>
       <c r="F145" t="n">
-        <v>3198.937419852378</v>
+        <v>3327.142557385094</v>
       </c>
       <c r="G145" t="n">
-        <v>5486.54117832595</v>
+        <v>5133.239694933513</v>
       </c>
       <c r="H145" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22572262</v>
+        <v>22511879</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>749326901</v>
+        <v>756941809</v>
       </c>
       <c r="E146" t="n">
-        <v>1155528240</v>
+        <v>1167271102</v>
       </c>
       <c r="F146" t="n">
-        <v>150077.1373111965</v>
+        <v>138134.6143471364</v>
       </c>
       <c r="G146" t="n">
-        <v>149796.8790754038</v>
+        <v>222758.5405447613</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="n">
-        <v>219583988</v>
+        <v>186871037</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23452392</v>
+        <v>23489394</v>
       </c>
       <c r="E147" t="n">
-        <v>23452392</v>
+        <v>23489394</v>
       </c>
       <c r="F147" t="n">
-        <v>4602.136000877306</v>
+        <v>4743.654376793485</v>
       </c>
       <c r="G147" t="n">
-        <v>8073.896209739247</v>
+        <v>7904.239554362947</v>
       </c>
       <c r="H147" t="n">
         <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>5820999</v>
+        <v>5692712</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3830931</v>
+        <v>3849017</v>
       </c>
       <c r="E148" t="n">
-        <v>8359043</v>
+        <v>8398505</v>
       </c>
       <c r="F148" t="n">
-        <v>5700.733917945685</v>
+        <v>5605.797185320465</v>
       </c>
       <c r="G148" t="n">
-        <v>5738.941967825841</v>
+        <v>5929.224555424656</v>
       </c>
       <c r="H148" t="n">
-        <v>0.73</v>
+        <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>1590161</v>
+        <v>1650769</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9250652</v>
+        <v>9257565</v>
       </c>
       <c r="E149" t="n">
-        <v>9250652</v>
+        <v>9257565</v>
       </c>
       <c r="F149" t="n">
-        <v>368979.8232640998</v>
+        <v>367781.0091391461</v>
       </c>
       <c r="G149" t="n">
-        <v>661243.2822889778</v>
+        <v>660200.9091740396</v>
       </c>
       <c r="H149" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>2878232</v>
+        <v>2897187</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>495750647</v>
+        <v>498330311</v>
       </c>
       <c r="E150" t="n">
-        <v>1725666745</v>
+        <v>1734646339</v>
       </c>
       <c r="F150" t="n">
-        <v>771063.2678241794</v>
+        <v>622848.9638399921</v>
       </c>
       <c r="G150" t="n">
-        <v>875983.7401458342</v>
+        <v>917921.500606779</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I150" t="n">
-        <v>30548416</v>
+        <v>30884985</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48704276</v>
+        <v>48841414</v>
       </c>
       <c r="E151" t="n">
-        <v>120202656</v>
+        <v>120259152</v>
       </c>
       <c r="F151" t="n">
-        <v>8461.57233122035</v>
+        <v>8372.557508750599</v>
       </c>
       <c r="G151" t="n">
-        <v>8079.039818639962</v>
+        <v>7891.044357897605</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="I151" t="n">
-        <v>24865</v>
+        <v>24172</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7527826</v>
+        <v>7512808</v>
       </c>
       <c r="E152" t="n">
-        <v>19556483</v>
+        <v>19517466</v>
       </c>
       <c r="F152" t="n">
-        <v>7014.115009096128</v>
+        <v>6779.138278228068</v>
       </c>
       <c r="G152" t="n">
-        <v>6908.47319288061</v>
+        <v>6901.879025946082</v>
       </c>
       <c r="H152" t="n">
         <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>714278</v>
+        <v>713853</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19200323960</v>
+        <v>19196457054</v>
       </c>
       <c r="F153" t="n">
-        <v>52415.43948795356</v>
+        <v>52415.43829506144</v>
       </c>
       <c r="G153" t="n">
-        <v>49958.81836856208</v>
+        <v>49955.73987079952</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>47045793</v>
+        <v>46685130</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2631093</v>
+        <v>2631551</v>
       </c>
       <c r="E154" t="n">
-        <v>10524372</v>
+        <v>10526205</v>
       </c>
       <c r="F154" t="n">
-        <v>26175.91314124094</v>
+        <v>24882.80045860041</v>
       </c>
       <c r="G154" t="n">
-        <v>2577.949900876424</v>
+        <v>3477.694557343183</v>
       </c>
       <c r="H154" t="n">
         <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>6907389</v>
+        <v>6861652</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227591102</v>
+        <v>228632628</v>
       </c>
       <c r="E155" t="n">
-        <v>699756990</v>
+        <v>702959290</v>
       </c>
       <c r="F155" t="n">
-        <v>116813.6830218834</v>
+        <v>128580.2016630798</v>
       </c>
       <c r="G155" t="n">
-        <v>172340.1512890758</v>
+        <v>172646.1409222743</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>14933929</v>
+        <v>15129940</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>402280006</v>
+        <v>405193101</v>
       </c>
       <c r="E156" t="n">
-        <v>2298742894</v>
+        <v>2315389147</v>
       </c>
       <c r="F156" t="n">
-        <v>185805.7717214546</v>
+        <v>186123.7626692206</v>
       </c>
       <c r="G156" t="n">
-        <v>222838.9593117946</v>
+        <v>269177.2226969977</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>38785847</v>
+        <v>39301244</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4006760</v>
+        <v>3980094</v>
       </c>
       <c r="F2" t="n">
-        <v>1410.54520677094</v>
+        <v>1126.363550845382</v>
       </c>
       <c r="G2" t="n">
-        <v>1438.862963350559</v>
+        <v>1068.176204792786</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="I2" t="n">
-        <v>135121</v>
+        <v>139357</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>609086848</v>
+        <v>607355412</v>
       </c>
       <c r="E3" t="n">
-        <v>1181900015</v>
+        <v>1178540600</v>
       </c>
       <c r="F3" t="n">
-        <v>73447.33838758802</v>
+        <v>80867.45171093415</v>
       </c>
       <c r="G3" t="n">
-        <v>64341.70897612475</v>
+        <v>69499.89208026609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>18818127</v>
+        <v>18844005</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249831742</v>
+        <v>249823324</v>
       </c>
       <c r="E4" t="n">
-        <v>1566659737</v>
+        <v>1566606951</v>
       </c>
       <c r="F4" t="n">
-        <v>303448.5570968651</v>
+        <v>232135.6749031984</v>
       </c>
       <c r="G4" t="n">
-        <v>234911.3586658146</v>
+        <v>328351.9209287991</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>17351979</v>
+        <v>17441204</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146979466</v>
+        <v>147105454</v>
       </c>
       <c r="E5" t="n">
-        <v>162876218</v>
+        <v>163015833</v>
       </c>
       <c r="F5" t="n">
-        <v>8693.670389409621</v>
+        <v>9041.357898316837</v>
       </c>
       <c r="G5" t="n">
-        <v>9666.389608107478</v>
+        <v>1222.300696413126</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="I5" t="n">
-        <v>37431047</v>
+        <v>37465489</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49317394</v>
+        <v>49093147</v>
       </c>
       <c r="E6" t="n">
-        <v>61694795</v>
+        <v>61414268</v>
       </c>
       <c r="F6" t="n">
-        <v>7673.633553164622</v>
+        <v>5749.060774345528</v>
       </c>
       <c r="G6" t="n">
-        <v>6113.861290556083</v>
+        <v>5701.841719700858</v>
       </c>
       <c r="H6" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>588251</v>
+        <v>589509</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69137372</v>
+        <v>69167189</v>
       </c>
       <c r="E7" t="n">
-        <v>137698246</v>
+        <v>137757632</v>
       </c>
       <c r="F7" t="n">
-        <v>9623.740725329832</v>
+        <v>9683.65771406209</v>
       </c>
       <c r="G7" t="n">
-        <v>13872.33303352889</v>
+        <v>13126.42209232777</v>
       </c>
       <c r="H7" t="n">
         <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1021462</v>
+        <v>1020532</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40979749</v>
+        <v>40858643</v>
       </c>
       <c r="E8" t="n">
-        <v>45862242</v>
+        <v>45726707</v>
       </c>
       <c r="F8" t="n">
-        <v>7795.641146241382</v>
+        <v>1070.937771539558</v>
       </c>
       <c r="G8" t="n">
-        <v>6521.29879666749</v>
+        <v>129.6077795045073</v>
       </c>
       <c r="H8" t="n">
-        <v>0.34</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>3709915</v>
+        <v>3631320</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14196641</v>
+        <v>14146515</v>
       </c>
       <c r="E9" t="n">
-        <v>41836585</v>
+        <v>41688865</v>
       </c>
       <c r="F9" t="n">
-        <v>4792.16989510796</v>
+        <v>713.0225916160286</v>
       </c>
       <c r="G9" t="n">
-        <v>4779.273554046513</v>
+        <v>164.6523424122039</v>
       </c>
       <c r="H9" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>885028</v>
+        <v>687248</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10829011</v>
+        <v>10789302</v>
       </c>
       <c r="E10" t="n">
-        <v>46545716</v>
+        <v>46375037</v>
       </c>
       <c r="F10" t="n">
-        <v>3636.92784342317</v>
+        <v>4931.335574661231</v>
       </c>
       <c r="G10" t="n">
-        <v>2144.119069369764</v>
+        <v>1875.534833960621</v>
       </c>
       <c r="H10" t="n">
-        <v>0.64</v>
+        <v>1.28</v>
       </c>
       <c r="I10" t="n">
-        <v>869935</v>
+        <v>863380</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>582541049</v>
+        <v>581799847</v>
       </c>
       <c r="E11" t="n">
-        <v>728672271</v>
+        <v>727745137</v>
       </c>
       <c r="F11" t="n">
-        <v>301814.0498136819</v>
+        <v>306508.8837736446</v>
       </c>
       <c r="G11" t="n">
-        <v>302854.7648118906</v>
+        <v>283351.762117323</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>55029648</v>
+        <v>55783700</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4575763</v>
+        <v>4575535</v>
       </c>
       <c r="E12" t="n">
-        <v>28105643</v>
+        <v>28104243</v>
       </c>
       <c r="F12" t="n">
-        <v>101.3077300029644</v>
+        <v>143.9308243339241</v>
       </c>
       <c r="G12" t="n">
-        <v>476.1961988011897</v>
+        <v>365.7116183304762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="I12" t="n">
-        <v>657069</v>
+        <v>650094</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23245093</v>
+        <v>23218303</v>
       </c>
       <c r="E13" t="n">
-        <v>23288252</v>
+        <v>23261412</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>856423</v>
+        <v>856690</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82155293</v>
+        <v>81475280</v>
       </c>
       <c r="E14" t="n">
-        <v>241711060</v>
+        <v>239710379</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>333779</v>
+        <v>339109</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>478286193</v>
+        <v>478575805</v>
       </c>
       <c r="E15" t="n">
-        <v>478286198</v>
+        <v>478575809</v>
       </c>
       <c r="F15" t="n">
-        <v>11836.82046519518</v>
+        <v>15912.96929538188</v>
       </c>
       <c r="G15" t="n">
-        <v>21084.72876071162</v>
+        <v>20191.58527111776</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>69281701</v>
+        <v>81906046</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4722258</v>
+        <v>4718183</v>
       </c>
       <c r="E16" t="n">
-        <v>4722258</v>
+        <v>4718183</v>
       </c>
       <c r="F16" t="n">
-        <v>262.6124826336766</v>
+        <v>246.36739804748</v>
       </c>
       <c r="G16" t="n">
-        <v>6699.898964361684</v>
+        <v>1007.859010025242</v>
       </c>
       <c r="H16" t="n">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="I16" t="n">
-        <v>1968302</v>
+        <v>2014209</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3392759</v>
+        <v>3387230</v>
       </c>
       <c r="E17" t="n">
-        <v>3392759</v>
+        <v>3387230</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>513560</v>
+        <v>516187</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>169269747</v>
+        <v>170220422</v>
       </c>
       <c r="E18" t="n">
-        <v>209562996</v>
+        <v>210739970</v>
       </c>
       <c r="F18" t="n">
-        <v>8927.594061616901</v>
+        <v>9615.974270545023</v>
       </c>
       <c r="G18" t="n">
-        <v>8105.721409235167</v>
+        <v>9135.252938772748</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>500072</v>
+        <v>502736</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6924350</v>
+        <v>6817837</v>
       </c>
       <c r="E19" t="n">
-        <v>9536600</v>
+        <v>9389903</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>421701</v>
+        <v>414929</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>936613</v>
+        <v>935168</v>
       </c>
       <c r="E20" t="n">
-        <v>6556293</v>
+        <v>6546178</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>228296</v>
+        <v>227575</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116206932</v>
+        <v>115983348</v>
       </c>
       <c r="E21" t="n">
-        <v>452088937</v>
+        <v>451208846</v>
       </c>
       <c r="F21" t="n">
-        <v>47171.8577071648</v>
+        <v>44446.11645966565</v>
       </c>
       <c r="G21" t="n">
-        <v>82384.09219615808</v>
+        <v>87754.43417936903</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>8880907</v>
+        <v>9407205</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1676366</v>
+        <v>1674662</v>
       </c>
       <c r="E22" t="n">
-        <v>12074723</v>
+        <v>12062452</v>
       </c>
       <c r="F22" t="n">
-        <v>4507.551890624966</v>
+        <v>4455.89155851235</v>
       </c>
       <c r="G22" t="n">
-        <v>4394.67812897884</v>
+        <v>4379.358543628183</v>
       </c>
       <c r="H22" t="n">
         <v>0.58</v>
       </c>
       <c r="I22" t="n">
-        <v>48944</v>
+        <v>38672</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>139801911</v>
+        <v>140005477</v>
       </c>
       <c r="E23" t="n">
-        <v>139801911</v>
+        <v>140005477</v>
       </c>
       <c r="F23" t="n">
-        <v>952144.7399865771</v>
+        <v>1009392.959306615</v>
       </c>
       <c r="G23" t="n">
-        <v>1388860.69151394</v>
+        <v>1271052.308021687</v>
       </c>
       <c r="H23" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>68617202</v>
+        <v>68173553</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66663090</v>
+        <v>67046338</v>
       </c>
       <c r="E24" t="n">
-        <v>341862002</v>
+        <v>343827377</v>
       </c>
       <c r="F24" t="n">
-        <v>93957.57406815339</v>
+        <v>106339.6607335617</v>
       </c>
       <c r="G24" t="n">
-        <v>135085.0501704362</v>
+        <v>133750.1327773603</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>22052697</v>
+        <v>22176468</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>257917660</v>
+        <v>258297653</v>
       </c>
       <c r="E25" t="n">
-        <v>257917660</v>
+        <v>258297653</v>
       </c>
       <c r="F25" t="n">
-        <v>386767.4468547216</v>
+        <v>400953.5776559252</v>
       </c>
       <c r="G25" t="n">
-        <v>448279.8239701804</v>
+        <v>466895.1900680062</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14522495</v>
+        <v>14347267</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1124872</v>
+        <v>1122475</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>176988</v>
+        <v>174364</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3999862</v>
+        <v>4000037</v>
       </c>
       <c r="E28" t="n">
-        <v>4000922</v>
+        <v>4001125</v>
       </c>
       <c r="F28" t="n">
-        <v>746.4571616699875</v>
+        <v>952.1515688542845</v>
       </c>
       <c r="G28" t="n">
-        <v>2926.339510120013</v>
+        <v>2962.162500641305</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>264089</v>
+        <v>261882</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6825377</v>
+        <v>6796667</v>
       </c>
       <c r="E29" t="n">
-        <v>16578314</v>
+        <v>16508580</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>483664</v>
+        <v>481687</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100089727</v>
+        <v>99995840</v>
       </c>
       <c r="E30" t="n">
-        <v>124800156</v>
+        <v>124683091</v>
       </c>
       <c r="F30" t="n">
-        <v>112509.9214686256</v>
+        <v>121382.6556378524</v>
       </c>
       <c r="G30" t="n">
-        <v>108928.2758451151</v>
+        <v>97231.11539104777</v>
       </c>
       <c r="H30" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10145374</v>
+        <v>10124810</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1129273</v>
+        <v>1126210</v>
       </c>
       <c r="E31" t="n">
-        <v>12272514</v>
+        <v>12239231</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31164</v>
+        <v>31088</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>83361989</v>
+        <v>82741185</v>
       </c>
       <c r="E32" t="n">
-        <v>233200969</v>
+        <v>231524960</v>
       </c>
       <c r="F32" t="n">
-        <v>52469.6236894272</v>
+        <v>60706.43879173278</v>
       </c>
       <c r="G32" t="n">
-        <v>66383.99592163281</v>
+        <v>64540.7063879972</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>43943824</v>
+        <v>44377540</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4113897</v>
+        <v>4109583</v>
       </c>
       <c r="E33" t="n">
-        <v>8112950</v>
+        <v>8104443</v>
       </c>
       <c r="F33" t="n">
-        <v>9257.862529246506</v>
+        <v>9322.664864676333</v>
       </c>
       <c r="G33" t="n">
-        <v>7540.073983105837</v>
+        <v>7602.975113988788</v>
       </c>
       <c r="H33" t="n">
         <v>0.39</v>
       </c>
       <c r="I33" t="n">
-        <v>1651852</v>
+        <v>1648059</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36828316</v>
+        <v>36423813</v>
       </c>
       <c r="F34" t="n">
-        <v>1124.282446609066</v>
+        <v>299.3073684687933</v>
       </c>
       <c r="G34" t="n">
-        <v>56.66120390078329</v>
+        <v>100.4990632480752</v>
       </c>
       <c r="H34" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>75063</v>
+        <v>74820</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7634767</v>
+        <v>7626017</v>
       </c>
       <c r="E35" t="n">
-        <v>17981393</v>
+        <v>17960787</v>
       </c>
       <c r="F35" t="n">
-        <v>3428.824052595221</v>
+        <v>3428.841954443516</v>
       </c>
       <c r="G35" t="n">
-        <v>2673.434735571745</v>
+        <v>2673.448693541687</v>
       </c>
       <c r="H35" t="n">
         <v>1.21</v>
       </c>
       <c r="I35" t="n">
-        <v>29992</v>
+        <v>30130</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23035500</v>
+        <v>23050056</v>
       </c>
       <c r="F36" t="n">
-        <v>5103.8490680663</v>
+        <v>5099.452756129226</v>
       </c>
       <c r="G36" t="n">
-        <v>5168.521608148783</v>
+        <v>5517.326860377138</v>
       </c>
       <c r="H36" t="n">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="I36" t="n">
-        <v>127743</v>
+        <v>108290</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>78255538</v>
+        <v>78638697</v>
       </c>
       <c r="E37" t="n">
-        <v>163202537</v>
+        <v>164001619</v>
       </c>
       <c r="F37" t="n">
-        <v>57262.6705141354</v>
+        <v>63380.82398611874</v>
       </c>
       <c r="G37" t="n">
-        <v>114619.1827669686</v>
+        <v>114488.2332604496</v>
       </c>
       <c r="H37" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>17475585</v>
+        <v>17665266</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>276754793</v>
+        <v>276904082</v>
       </c>
       <c r="E38" t="n">
-        <v>276754793</v>
+        <v>276904082</v>
       </c>
       <c r="F38" t="n">
-        <v>26276.86599526498</v>
+        <v>24130.06925683196</v>
       </c>
       <c r="G38" t="n">
-        <v>24678.57481316958</v>
+        <v>23051.75676498852</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="I38" t="n">
-        <v>9957184</v>
+        <v>9922960</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>204970917</v>
+        <v>205280170</v>
       </c>
       <c r="E39" t="n">
-        <v>712087489</v>
+        <v>713161862</v>
       </c>
       <c r="F39" t="n">
-        <v>124294.4851175184</v>
+        <v>198711.0425576235</v>
       </c>
       <c r="G39" t="n">
-        <v>368322.9024513152</v>
+        <v>339609.1728738903</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>28280669</v>
+        <v>27950494</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3601415</v>
+        <v>3630198</v>
       </c>
       <c r="E40" t="n">
-        <v>3601415</v>
+        <v>3630198</v>
       </c>
       <c r="F40" t="n">
-        <v>349.9419062231518</v>
+        <v>431.0329779233269</v>
       </c>
       <c r="G40" t="n">
-        <v>2179.76529172066</v>
+        <v>1870.762855069994</v>
       </c>
       <c r="H40" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="I40" t="n">
-        <v>2621782</v>
+        <v>2598898</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116247025</v>
+        <v>116374159</v>
       </c>
       <c r="E41" t="n">
-        <v>493837458</v>
+        <v>494354789</v>
       </c>
       <c r="F41" t="n">
-        <v>5511.25286903572</v>
+        <v>5487.040563301559</v>
       </c>
       <c r="G41" t="n">
-        <v>6575.918761899489</v>
+        <v>6477.516462038991</v>
       </c>
       <c r="H41" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>15405208</v>
+        <v>15388095</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>568554</v>
+        <v>567534</v>
       </c>
       <c r="E42" t="n">
-        <v>6896007</v>
+        <v>6883637</v>
       </c>
       <c r="F42" t="n">
-        <v>623.4827173805194</v>
+        <v>841.6202761973068</v>
       </c>
       <c r="G42" t="n">
-        <v>796.3766983307046</v>
+        <v>1105.083483585579</v>
       </c>
       <c r="H42" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="I42" t="n">
-        <v>2826397</v>
+        <v>2826809</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1305885079</v>
+        <v>1307356286</v>
       </c>
       <c r="E43" t="n">
-        <v>6261986393</v>
+        <v>6269041133</v>
       </c>
       <c r="F43" t="n">
-        <v>67414.1145095832</v>
+        <v>21550.66749300526</v>
       </c>
       <c r="G43" t="n">
-        <v>91689.24387458846</v>
+        <v>40601.74414520204</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I43" t="n">
-        <v>166305823</v>
+        <v>166037294</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6054029721</v>
+        <v>6046077714</v>
       </c>
       <c r="E44" t="n">
-        <v>6054029721</v>
+        <v>6046077714</v>
       </c>
       <c r="F44" t="n">
-        <v>4408270.047286198</v>
+        <v>893451.8647971811</v>
       </c>
       <c r="G44" t="n">
-        <v>4112467.32905368</v>
+        <v>1630241.13199717</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>98386040</v>
+        <v>98234011</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>274107891</v>
+        <v>273183223</v>
       </c>
       <c r="E45" t="n">
-        <v>1183201828</v>
+        <v>1179210447</v>
       </c>
       <c r="F45" t="n">
-        <v>103115.0337024823</v>
+        <v>93648.05480808478</v>
       </c>
       <c r="G45" t="n">
-        <v>92573.43658794303</v>
+        <v>107250.9517513307</v>
       </c>
       <c r="H45" t="n">
         <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>99850592</v>
+        <v>100019597</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115364498</v>
+        <v>115104992</v>
       </c>
       <c r="E46" t="n">
-        <v>115364498</v>
+        <v>115104992</v>
       </c>
       <c r="F46" t="n">
-        <v>27714.08812923213</v>
+        <v>28599.02047273794</v>
       </c>
       <c r="G46" t="n">
-        <v>40225.74332703114</v>
+        <v>34886.7199688558</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>6107124</v>
+        <v>6103808</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045251354</v>
+        <v>2040825961</v>
       </c>
       <c r="E47" t="n">
-        <v>2045251354</v>
+        <v>2040825961</v>
       </c>
       <c r="F47" t="n">
-        <v>225731.7290791219</v>
+        <v>225732.9076217089</v>
       </c>
       <c r="G47" t="n">
-        <v>199179.9253037722</v>
+        <v>199180.9652197176</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6737242990</v>
+        <v>6752079953</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9857989</v>
+        <v>9863407</v>
       </c>
       <c r="F48" t="n">
-        <v>6800.06795873352</v>
+        <v>6698.541942602612</v>
       </c>
       <c r="G48" t="n">
-        <v>6200.412914298182</v>
+        <v>5996.500652067664</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>128824</v>
+        <v>127219</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4447807</v>
+        <v>4448778</v>
       </c>
       <c r="E49" t="n">
-        <v>5839391</v>
+        <v>5840665</v>
       </c>
       <c r="F49" t="n">
-        <v>6674.50979304261</v>
+        <v>7332.542884032701</v>
       </c>
       <c r="G49" t="n">
-        <v>16357.02177219921</v>
+        <v>16206.37754714971</v>
       </c>
       <c r="H49" t="n">
         <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>602840</v>
+        <v>602864</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12879329</v>
+        <v>12825933</v>
       </c>
       <c r="E50" t="n">
-        <v>18938810</v>
+        <v>18860292</v>
       </c>
       <c r="F50" t="n">
-        <v>7492.686009617407</v>
+        <v>2481.899262775221</v>
       </c>
       <c r="G50" t="n">
-        <v>6964.856469106578</v>
+        <v>6954.339437476058</v>
       </c>
       <c r="H50" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>2952110</v>
+        <v>2977591</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22791941</v>
+        <v>23197036</v>
       </c>
       <c r="E51" t="n">
-        <v>29566362</v>
+        <v>30091862</v>
       </c>
       <c r="F51" t="n">
-        <v>15017.56647197419</v>
+        <v>10221.56695107721</v>
       </c>
       <c r="G51" t="n">
-        <v>9507.32306288932</v>
+        <v>10367.30955209079</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>151842</v>
+        <v>321214</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13764013</v>
+        <v>13829965</v>
       </c>
       <c r="E52" t="n">
-        <v>13764013</v>
+        <v>13829965</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4874778</v>
+        <v>4872788</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99402300</v>
+        <v>99493069</v>
       </c>
       <c r="E53" t="n">
-        <v>122957087</v>
+        <v>123069365</v>
       </c>
       <c r="F53" t="n">
-        <v>275.3280321992831</v>
+        <v>402.462170327108</v>
       </c>
       <c r="G53" t="n">
-        <v>3542.97207514608</v>
+        <v>1050.524007575388</v>
       </c>
       <c r="H53" t="n">
-        <v>1.12</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>824000</v>
+        <v>826849</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5174659</v>
+        <v>5181103</v>
       </c>
       <c r="E54" t="n">
-        <v>7240098</v>
+        <v>7249114</v>
       </c>
       <c r="F54" t="n">
-        <v>407.0813369877783</v>
+        <v>430.9018262953474</v>
       </c>
       <c r="G54" t="n">
-        <v>330.1669998104275</v>
+        <v>252.2453380553004</v>
       </c>
       <c r="H54" t="n">
-        <v>2.67</v>
+        <v>2.89</v>
       </c>
       <c r="I54" t="n">
-        <v>103864</v>
+        <v>104377</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14588417</v>
+        <v>14628790</v>
       </c>
       <c r="E55" t="n">
-        <v>70654034</v>
+        <v>70849566</v>
       </c>
       <c r="F55" t="n">
-        <v>17477.05908291597</v>
+        <v>14709.01850741653</v>
       </c>
       <c r="G55" t="n">
-        <v>25504.18073115308</v>
+        <v>28933.88610719707</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I55" t="n">
-        <v>3799559</v>
+        <v>3809984</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>59636</v>
+        <v>59619</v>
       </c>
       <c r="E56" t="n">
-        <v>142842</v>
+        <v>142800</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4304.43</v>
+        <v>4303.73</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1928824615</v>
+        <v>1923988001</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27658490</v>
+        <v>27681514</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12158932</v>
+        <v>12146369</v>
       </c>
       <c r="E58" t="n">
-        <v>17628697</v>
+        <v>17610482</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2034385</v>
+        <v>2029303</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124325691</v>
+        <v>124329035</v>
       </c>
       <c r="E59" t="n">
-        <v>330635466</v>
+        <v>330644358</v>
       </c>
       <c r="F59" t="n">
-        <v>7794.939870450003</v>
+        <v>7765.513694258313</v>
       </c>
       <c r="G59" t="n">
-        <v>7191.735439320601</v>
+        <v>7191.424319926412</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="I59" t="n">
-        <v>887580</v>
+        <v>880691</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31810592</v>
+        <v>31800857</v>
       </c>
       <c r="E60" t="n">
-        <v>99047977</v>
+        <v>99017667</v>
       </c>
       <c r="F60" t="n">
-        <v>2197.225949006725</v>
+        <v>2074.641230878241</v>
       </c>
       <c r="G60" t="n">
-        <v>6937.038198588401</v>
+        <v>7222.039674872901</v>
       </c>
       <c r="H60" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="I60" t="n">
-        <v>11490704</v>
+        <v>11391198</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2074582</v>
+        <v>2072626</v>
       </c>
       <c r="E61" t="n">
-        <v>14876623</v>
+        <v>14862593</v>
       </c>
       <c r="F61" t="n">
-        <v>5352.759947837344</v>
+        <v>2632.502082952305</v>
       </c>
       <c r="G61" t="n">
-        <v>5142.55663118912</v>
+        <v>5138.226769721816</v>
       </c>
       <c r="H61" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="I61" t="n">
-        <v>1982638</v>
+        <v>1981702</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>205111578</v>
+        <v>205031000</v>
       </c>
       <c r="E62" t="n">
-        <v>1161467782</v>
+        <v>1161011502</v>
       </c>
       <c r="F62" t="n">
-        <v>683532.2856327483</v>
+        <v>638225.6077265489</v>
       </c>
       <c r="G62" t="n">
-        <v>915071.6495947087</v>
+        <v>796552.3370572438</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>66051488</v>
+        <v>66171290</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>499686</v>
+        <v>497800</v>
       </c>
       <c r="E63" t="n">
-        <v>1681872</v>
+        <v>1675524</v>
       </c>
       <c r="F63" t="n">
-        <v>4526.339268322303</v>
+        <v>4561.201818334798</v>
       </c>
       <c r="G63" t="n">
-        <v>393.7130915826219</v>
+        <v>392.0901436418048</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I63" t="n">
-        <v>633221</v>
+        <v>631967</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>341086</v>
+        <v>343823</v>
       </c>
       <c r="E64" t="n">
-        <v>341086</v>
+        <v>343823</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5290.88</v>
+        <v>5301.64</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>143106892</v>
+        <v>143199300</v>
       </c>
       <c r="E65" t="n">
-        <v>1060051052</v>
+        <v>1060735555</v>
       </c>
       <c r="F65" t="n">
-        <v>40461.63331695458</v>
+        <v>35311.47924870923</v>
       </c>
       <c r="G65" t="n">
-        <v>36395.37677405367</v>
+        <v>40800.74704459887</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>8690432</v>
+        <v>8576506</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7992888</v>
+        <v>7989893</v>
       </c>
       <c r="E66" t="n">
-        <v>10707804</v>
+        <v>10703792</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>37324</v>
+        <v>37305</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26767245</v>
+        <v>26726851</v>
       </c>
       <c r="E67" t="n">
-        <v>26767245</v>
+        <v>26726851</v>
       </c>
       <c r="F67" t="n">
-        <v>7898.818940038446</v>
+        <v>7869.051700689177</v>
       </c>
       <c r="G67" t="n">
-        <v>8930.517131147069</v>
+        <v>8861.932080446366</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I67" t="n">
-        <v>316231</v>
+        <v>314840</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1566031</v>
+        <v>1565595</v>
       </c>
       <c r="E68" t="n">
-        <v>12161978</v>
+        <v>12158592</v>
       </c>
       <c r="F68" t="n">
-        <v>9275.654378601705</v>
+        <v>9809.675951344303</v>
       </c>
       <c r="G68" t="n">
-        <v>20320.85090554737</v>
+        <v>20337.23811730706</v>
       </c>
       <c r="H68" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="I68" t="n">
-        <v>517498</v>
+        <v>516254</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>345920874</v>
+        <v>346498760</v>
       </c>
       <c r="E69" t="n">
-        <v>3112118682</v>
+        <v>3117317698</v>
       </c>
       <c r="F69" t="n">
-        <v>1056047.570122734</v>
+        <v>1059433.908419587</v>
       </c>
       <c r="G69" t="n">
-        <v>1443397.660504784</v>
+        <v>1705448.776419619</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I69" t="n">
-        <v>39647958</v>
+        <v>41748069</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>250646</v>
+        <v>247647</v>
       </c>
       <c r="E70" t="n">
-        <v>2212137</v>
+        <v>2185671</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>90538</v>
+        <v>91435</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1577438</v>
+        <v>1577592</v>
       </c>
       <c r="E71" t="n">
-        <v>13145320</v>
+        <v>13146599</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>38382</v>
+        <v>36464</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9297110</v>
+        <v>9300526</v>
       </c>
       <c r="E72" t="n">
-        <v>43092639</v>
+        <v>43108472</v>
       </c>
       <c r="F72" t="n">
-        <v>5758.053873840595</v>
+        <v>5167.308855551608</v>
       </c>
       <c r="G72" t="n">
-        <v>10659.55087789883</v>
+        <v>9968.530570166302</v>
       </c>
       <c r="H72" t="n">
         <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>130150</v>
+        <v>125631</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50015029</v>
+        <v>50242862</v>
       </c>
       <c r="E73" t="n">
-        <v>289566354</v>
+        <v>290885412</v>
       </c>
       <c r="F73" t="n">
-        <v>100177.5173387097</v>
+        <v>103031.2679192483</v>
       </c>
       <c r="G73" t="n">
-        <v>151533.3032751329</v>
+        <v>171270.8474928337</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>31989701</v>
+        <v>32249243</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39694202</v>
+        <v>39678742</v>
       </c>
       <c r="E74" t="n">
-        <v>54823345</v>
+        <v>54801993</v>
       </c>
       <c r="F74" t="n">
-        <v>10788.23503762625</v>
+        <v>10788.29136286897</v>
       </c>
       <c r="G74" t="n">
-        <v>4426.825397078826</v>
+        <v>4525.211197270793</v>
       </c>
       <c r="H74" t="n">
         <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>340879</v>
+        <v>338532</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97325</v>
+        <v>97636</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>299.95</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13603504</v>
+        <v>13620935</v>
       </c>
       <c r="E76" t="n">
-        <v>13649798</v>
+        <v>13667288</v>
       </c>
       <c r="F76" t="n">
-        <v>1378.163372666697</v>
+        <v>1303.03100215442</v>
       </c>
       <c r="G76" t="n">
-        <v>7464.962381944651</v>
+        <v>6246.014482186992</v>
       </c>
       <c r="H76" t="n">
-        <v>1.29</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5890633</v>
+        <v>5890678</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42768720</v>
+        <v>42766174</v>
       </c>
       <c r="E77" t="n">
-        <v>72611337</v>
+        <v>72607014</v>
       </c>
       <c r="F77" t="n">
-        <v>8889.125676208718</v>
+        <v>6911.907938628823</v>
       </c>
       <c r="G77" t="n">
-        <v>5952.439923965911</v>
+        <v>4515.086167114247</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>1076011</v>
+        <v>1072499</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22683595</v>
+        <v>22695418</v>
       </c>
       <c r="E78" t="n">
-        <v>67994987</v>
+        <v>68030427</v>
       </c>
       <c r="F78" t="n">
-        <v>129442.3639422948</v>
+        <v>115570.3316627506</v>
       </c>
       <c r="G78" t="n">
-        <v>97496.99152435194</v>
+        <v>97411.4569121252</v>
       </c>
       <c r="H78" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I78" t="n">
-        <v>3387173</v>
+        <v>3397369</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101325313</v>
+        <v>101408940</v>
       </c>
       <c r="E79" t="n">
-        <v>107717965</v>
+        <v>107806868</v>
       </c>
       <c r="F79" t="n">
-        <v>2726.307685120331</v>
+        <v>2727.692561712134</v>
       </c>
       <c r="G79" t="n">
-        <v>4150.525246913409</v>
+        <v>4270.47020600578</v>
       </c>
       <c r="H79" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="I79" t="n">
-        <v>379479</v>
+        <v>852783</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10385926</v>
+        <v>10377513</v>
       </c>
       <c r="E80" t="n">
-        <v>45115885</v>
+        <v>45084150</v>
       </c>
       <c r="F80" t="n">
-        <v>6754.623757373374</v>
+        <v>6720.866704612314</v>
       </c>
       <c r="G80" t="n">
-        <v>5189.758328552474</v>
+        <v>5209.258111013765</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>115923</v>
+        <v>116407</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15736923</v>
+        <v>15719253</v>
       </c>
       <c r="E81" t="n">
-        <v>96456773</v>
+        <v>96348469</v>
       </c>
       <c r="F81" t="n">
-        <v>4181.166892568345</v>
+        <v>4174.079288947391</v>
       </c>
       <c r="G81" t="n">
-        <v>5865.56958140464</v>
+        <v>6375.768167226206</v>
       </c>
       <c r="H81" t="n">
         <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>10336677</v>
+        <v>10275112</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1508407</v>
+        <v>1509728</v>
       </c>
       <c r="E82" t="n">
-        <v>1550837</v>
+        <v>1552195</v>
       </c>
       <c r="F82" t="n">
-        <v>4875.831456102616</v>
+        <v>4330.18085371766</v>
       </c>
       <c r="G82" t="n">
-        <v>6070.253907113743</v>
+        <v>5963.035340495349</v>
       </c>
       <c r="H82" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I82" t="n">
-        <v>147334</v>
+        <v>145907</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>48089751</v>
+        <v>48092439</v>
       </c>
       <c r="E83" t="n">
-        <v>207165389</v>
+        <v>207176969</v>
       </c>
       <c r="F83" t="n">
-        <v>3449.102548584559</v>
+        <v>3476.313602261562</v>
       </c>
       <c r="G83" t="n">
-        <v>4629.67555385284</v>
+        <v>4093.141156937225</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I83" t="n">
-        <v>8815399</v>
+        <v>8825850</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1917300</v>
+        <v>1917275</v>
       </c>
       <c r="E84" t="n">
-        <v>6964745</v>
+        <v>6964592</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>141580</v>
+        <v>141151</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8842049</v>
+        <v>8770162</v>
       </c>
       <c r="E85" t="n">
-        <v>19634049</v>
+        <v>19474421</v>
       </c>
       <c r="F85" t="n">
-        <v>1801.100447117829</v>
+        <v>7532.647256142701</v>
       </c>
       <c r="G85" t="n">
-        <v>5511.005166897704</v>
+        <v>4950.278974951219</v>
       </c>
       <c r="H85" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>338242</v>
+        <v>337883</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441126</v>
+        <v>2439863</v>
       </c>
       <c r="E86" t="n">
-        <v>18368921</v>
+        <v>18359417</v>
       </c>
       <c r="F86" t="n">
-        <v>5383.584889483756</v>
+        <v>5328.51753083443</v>
       </c>
       <c r="G86" t="n">
-        <v>11792.69246658271</v>
+        <v>11810.24475236766</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I86" t="n">
-        <v>164255</v>
+        <v>163718</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21018822</v>
+        <v>21021209</v>
       </c>
       <c r="E87" t="n">
-        <v>84075289</v>
+        <v>84084834</v>
       </c>
       <c r="F87" t="n">
-        <v>13679.81503835361</v>
+        <v>17304.37591948165</v>
       </c>
       <c r="G87" t="n">
-        <v>1126.99705478395</v>
+        <v>1149.637834665099</v>
       </c>
       <c r="H87" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="I87" t="n">
-        <v>3172569</v>
+        <v>2939794</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4571970</v>
+        <v>4627952</v>
       </c>
       <c r="E88" t="n">
-        <v>4571970</v>
+        <v>4627952</v>
       </c>
       <c r="F88" t="n">
-        <v>341.7128375427144</v>
+        <v>372.7283221164132</v>
       </c>
       <c r="G88" t="n">
-        <v>560.8186728801467</v>
+        <v>54.15593848829153</v>
       </c>
       <c r="H88" t="n">
-        <v>1.32</v>
+        <v>3.08</v>
       </c>
       <c r="I88" t="n">
-        <v>2835468</v>
+        <v>2873181</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12745036</v>
+        <v>12755018</v>
       </c>
       <c r="E89" t="n">
-        <v>40320686</v>
+        <v>40352265</v>
       </c>
       <c r="F89" t="n">
-        <v>11753.32309212</v>
+        <v>12449.32589811225</v>
       </c>
       <c r="G89" t="n">
-        <v>14086.22375079104</v>
+        <v>14062.73293462369</v>
       </c>
       <c r="H89" t="n">
         <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1090147</v>
+        <v>1040439</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24745</v>
+        <v>24611</v>
       </c>
       <c r="E90" t="n">
-        <v>194615</v>
+        <v>193560</v>
       </c>
       <c r="F90" t="n">
-        <v>243.1679663772068</v>
+        <v>239.7986812638041</v>
       </c>
       <c r="G90" t="n">
-        <v>833.5992707181271</v>
+        <v>837.622721117593</v>
       </c>
       <c r="H90" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="I90" t="n">
-        <v>83046</v>
+        <v>78975</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8389260</v>
+        <v>8409452</v>
       </c>
       <c r="E91" t="n">
-        <v>8389260</v>
+        <v>8409452</v>
       </c>
       <c r="F91" t="n">
-        <v>2892.37514142346</v>
+        <v>3073.221792810488</v>
       </c>
       <c r="G91" t="n">
-        <v>2846.431458244246</v>
+        <v>3305.890419446932</v>
       </c>
       <c r="H91" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="I91" t="n">
-        <v>3723730</v>
+        <v>3727428</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9283194</v>
+        <v>9312285</v>
       </c>
       <c r="E92" t="n">
-        <v>9283194</v>
+        <v>9312285</v>
       </c>
       <c r="F92" t="n">
-        <v>4925.497866333184</v>
+        <v>5100.460078304748</v>
       </c>
       <c r="G92" t="n">
-        <v>6521.615026813157</v>
+        <v>4640.23096283998</v>
       </c>
       <c r="H92" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>3004193</v>
+        <v>2987035</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>38130998</v>
+        <v>38097833</v>
       </c>
       <c r="E93" t="n">
-        <v>96148071</v>
+        <v>96064444</v>
       </c>
       <c r="F93" t="n">
-        <v>4762.202302803739</v>
+        <v>5353.990950550578</v>
       </c>
       <c r="G93" t="n">
-        <v>6043.024215128864</v>
+        <v>6000.757353973673</v>
       </c>
       <c r="H93" t="n">
         <v>0.93</v>
       </c>
       <c r="I93" t="n">
-        <v>3425950</v>
+        <v>3426617</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>314281361</v>
+        <v>313638737</v>
       </c>
       <c r="E94" t="n">
-        <v>319187634</v>
+        <v>318534977</v>
       </c>
       <c r="F94" t="n">
-        <v>51203.8334252541</v>
+        <v>35666.34274713801</v>
       </c>
       <c r="G94" t="n">
-        <v>52619.41077267691</v>
+        <v>28589.86149819562</v>
       </c>
       <c r="H94" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I94" t="n">
-        <v>15441509</v>
+        <v>15479388</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6105.145692238812</v>
+        <v>3503.017255781348</v>
       </c>
       <c r="G95" t="n">
-        <v>6471.814217941528</v>
+        <v>6411.00373112701</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>216317</v>
+        <v>216589</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>85949408</v>
+        <v>86452093</v>
       </c>
       <c r="E96" t="n">
-        <v>85949408</v>
+        <v>86452093</v>
       </c>
       <c r="F96" t="n">
-        <v>6311.910004977698</v>
+        <v>6948.40488836262</v>
       </c>
       <c r="G96" t="n">
-        <v>5611.736505366574</v>
+        <v>7773.490404768782</v>
       </c>
       <c r="H96" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I96" t="n">
-        <v>5028104</v>
+        <v>4992712</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>295827939</v>
+        <v>297240779</v>
       </c>
       <c r="E97" t="n">
-        <v>295827939</v>
+        <v>297240779</v>
       </c>
       <c r="F97" t="n">
-        <v>312103.2899512749</v>
+        <v>329193.8783463998</v>
       </c>
       <c r="G97" t="n">
-        <v>412598.7311894905</v>
+        <v>375314.6980528977</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>76360039</v>
+        <v>76665535</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4231262</v>
+        <v>4230502</v>
       </c>
       <c r="E98" t="n">
-        <v>28911918</v>
+        <v>28906723</v>
       </c>
       <c r="F98" t="n">
-        <v>164.016683666999</v>
+        <v>4731.673172088927</v>
       </c>
       <c r="G98" t="n">
-        <v>296.2385648727656</v>
+        <v>6932.669185432287</v>
       </c>
       <c r="H98" t="n">
         <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2651490</v>
+        <v>2645029</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91534952</v>
+        <v>91660065</v>
       </c>
       <c r="E99" t="n">
-        <v>527463872</v>
+        <v>528184830</v>
       </c>
       <c r="F99" t="n">
-        <v>155469.168148952</v>
+        <v>122935.7255731552</v>
       </c>
       <c r="G99" t="n">
-        <v>139586.3889378624</v>
+        <v>146614.2162252316</v>
       </c>
       <c r="H99" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>16994413</v>
+        <v>17033003</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108827371</v>
+        <v>108862594</v>
       </c>
       <c r="E100" t="n">
-        <v>267757851</v>
+        <v>267844512</v>
       </c>
       <c r="F100" t="n">
-        <v>22462.56515669434</v>
+        <v>25842.44719924298</v>
       </c>
       <c r="G100" t="n">
-        <v>60949.49025930976</v>
+        <v>51203.82013555777</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2240859</v>
+        <v>2168485</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>251666412</v>
+        <v>251234969</v>
       </c>
       <c r="E101" t="n">
-        <v>251668912</v>
+        <v>251237465</v>
       </c>
       <c r="F101" t="n">
-        <v>43365.93288653072</v>
+        <v>43368.51380487902</v>
       </c>
       <c r="G101" t="n">
-        <v>6818.33074990703</v>
+        <v>11595.12340511613</v>
       </c>
       <c r="H101" t="n">
         <v>0.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2539742</v>
+        <v>2535014</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30856432</v>
+        <v>30894728</v>
       </c>
       <c r="E102" t="n">
-        <v>138156906</v>
+        <v>138328371</v>
       </c>
       <c r="F102" t="n">
-        <v>106009.8909116055</v>
+        <v>95299.43884007013</v>
       </c>
       <c r="G102" t="n">
-        <v>131006.092927325</v>
+        <v>137325.1778328368</v>
       </c>
       <c r="H102" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8604478</v>
+        <v>8591252</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3127944</v>
+        <v>3138230</v>
       </c>
       <c r="E103" t="n">
-        <v>3127944</v>
+        <v>3138230</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>422684</v>
+        <v>415898</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5834571</v>
+        <v>5834463</v>
       </c>
       <c r="E104" t="n">
-        <v>15312841</v>
+        <v>15312559</v>
       </c>
       <c r="F104" t="n">
-        <v>851.5310294608773</v>
+        <v>696.0245772300811</v>
       </c>
       <c r="G104" t="n">
-        <v>2762.257839084459</v>
+        <v>227.9546669188276</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6</v>
+        <v>2.78</v>
       </c>
       <c r="I104" t="n">
-        <v>22645</v>
+        <v>23662</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16696245</v>
+        <v>16639978</v>
       </c>
       <c r="E105" t="n">
-        <v>77067494</v>
+        <v>76807771</v>
       </c>
       <c r="F105" t="n">
-        <v>54079.55139278823</v>
+        <v>52757.82147764992</v>
       </c>
       <c r="G105" t="n">
-        <v>27269.42736264773</v>
+        <v>20228.38440128438</v>
       </c>
       <c r="H105" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>989862</v>
+        <v>985428</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50194966</v>
+        <v>50274009</v>
       </c>
       <c r="E106" t="n">
-        <v>325500994</v>
+        <v>326013570</v>
       </c>
       <c r="F106" t="n">
-        <v>62118.69854621196</v>
+        <v>53328.69862165889</v>
       </c>
       <c r="G106" t="n">
-        <v>165744.4424342274</v>
+        <v>123035.5523113779</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16755668</v>
+        <v>16770155</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2408041</v>
+        <v>2420885</v>
       </c>
       <c r="E107" t="n">
-        <v>4362619</v>
+        <v>4385888</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>123665</v>
+        <v>121566</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125572471</v>
+        <v>125464248</v>
       </c>
       <c r="E108" t="n">
-        <v>2079582964</v>
+        <v>2077790698</v>
       </c>
       <c r="F108" t="n">
-        <v>237120.3133901962</v>
+        <v>226147.1867020804</v>
       </c>
       <c r="G108" t="n">
-        <v>192537.1677528672</v>
+        <v>97253.03262936842</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4705866</v>
+        <v>4693113</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24660936</v>
+        <v>24675162</v>
       </c>
       <c r="E109" t="n">
-        <v>147551335</v>
+        <v>147636456</v>
       </c>
       <c r="F109" t="n">
-        <v>42560.1108631155</v>
+        <v>41833.47368721155</v>
       </c>
       <c r="G109" t="n">
-        <v>40145.58005762789</v>
+        <v>41040.86952993878</v>
       </c>
       <c r="H109" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I109" t="n">
-        <v>12435950</v>
+        <v>12486155</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1063202</v>
+        <v>1065439</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>68087</v>
+        <v>68564</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2283576</v>
+        <v>2278946</v>
       </c>
       <c r="F111" t="n">
-        <v>3796.106627852749</v>
+        <v>3934.75417537243</v>
       </c>
       <c r="G111" t="n">
-        <v>282.0239452688753</v>
+        <v>316.2938907414618</v>
       </c>
       <c r="H111" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>177797</v>
+        <v>176827</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142223628</v>
+        <v>142214887</v>
       </c>
       <c r="F112" t="n">
-        <v>3314.938394353122</v>
+        <v>3146.490946293623</v>
       </c>
       <c r="G112" t="n">
-        <v>466.7126678005716</v>
+        <v>884.5016511824745</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>25821</v>
+        <v>25105</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6668856</v>
+        <v>6640547</v>
       </c>
       <c r="E113" t="n">
-        <v>34309236</v>
+        <v>34163595</v>
       </c>
       <c r="F113" t="n">
-        <v>323.4550323450072</v>
+        <v>1642.127283835694</v>
       </c>
       <c r="G113" t="n">
-        <v>2686.88032801232</v>
+        <v>2480.340740434882</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.87</v>
       </c>
       <c r="I113" t="n">
-        <v>914162</v>
+        <v>880895</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29227743</v>
+        <v>29191941</v>
       </c>
       <c r="E114" t="n">
-        <v>40076346</v>
+        <v>40027255</v>
       </c>
       <c r="F114" t="n">
-        <v>4700.629033050227</v>
+        <v>4425.088959657553</v>
       </c>
       <c r="G114" t="n">
-        <v>4574.003768467098</v>
+        <v>4827.051346301708</v>
       </c>
       <c r="H114" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I114" t="n">
-        <v>207223</v>
+        <v>206843</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7996695</v>
+        <v>7993319</v>
       </c>
       <c r="F115" t="n">
-        <v>128.3694008124049</v>
+        <v>128.3992473539315</v>
       </c>
       <c r="G115" t="n">
-        <v>6768.242794473219</v>
+        <v>6753.58591853086</v>
       </c>
       <c r="H115" t="n">
         <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>644707</v>
+        <v>640882</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3399051</v>
+        <v>3394393</v>
       </c>
       <c r="E116" t="n">
-        <v>4553243</v>
+        <v>4547004</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>150710</v>
+        <v>150196</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35103645</v>
+        <v>35064909</v>
       </c>
       <c r="E117" t="n">
-        <v>175183373</v>
+        <v>174990062</v>
       </c>
       <c r="F117" t="n">
-        <v>93322.84290133824</v>
+        <v>71261.36676033317</v>
       </c>
       <c r="G117" t="n">
-        <v>75345.68383804744</v>
+        <v>64804.26383835108</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>10386208</v>
+        <v>10458572</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3500154</v>
+        <v>3493833</v>
       </c>
       <c r="E118" t="n">
-        <v>5028155</v>
+        <v>5019074</v>
       </c>
       <c r="F118" t="n">
-        <v>564.3104773882496</v>
+        <v>564.313423459222</v>
       </c>
       <c r="G118" t="n">
-        <v>625.0984933257305</v>
+        <v>625.1017567500331</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>147203</v>
+        <v>145292</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>317739136</v>
+        <v>317253607</v>
       </c>
       <c r="E119" t="n">
-        <v>587889860</v>
+        <v>586991522</v>
       </c>
       <c r="F119" t="n">
-        <v>101759.6789619974</v>
+        <v>105889.2293695531</v>
       </c>
       <c r="G119" t="n">
-        <v>122618.6581019493</v>
+        <v>115628.6812706097</v>
       </c>
       <c r="H119" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I119" t="n">
-        <v>13949496</v>
+        <v>13921757</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72193613</v>
+        <v>72307578</v>
       </c>
       <c r="E120" t="n">
-        <v>688691850</v>
+        <v>689779022</v>
       </c>
       <c r="F120" t="n">
-        <v>1532.035099656621</v>
+        <v>3287.316889694469</v>
       </c>
       <c r="G120" t="n">
-        <v>44155.96774784523</v>
+        <v>42659.26263387361</v>
       </c>
       <c r="H120" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>22081643</v>
+        <v>22023905</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37891202</v>
+        <v>37931060</v>
       </c>
       <c r="E121" t="n">
-        <v>49539832</v>
+        <v>49591942</v>
       </c>
       <c r="F121" t="n">
-        <v>5619.505558460619</v>
+        <v>5619.534936974641</v>
       </c>
       <c r="G121" t="n">
-        <v>344.1864541765322</v>
+        <v>357.9652565140308</v>
       </c>
       <c r="H121" t="n">
         <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>185265</v>
+        <v>552265</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11338087</v>
+        <v>11526351</v>
       </c>
       <c r="E122" t="n">
-        <v>33640856</v>
+        <v>34199446</v>
       </c>
       <c r="F122" t="n">
-        <v>695.9861076860066</v>
+        <v>655.3832246203913</v>
       </c>
       <c r="G122" t="n">
-        <v>3736.194597743821</v>
+        <v>6607.866664793662</v>
       </c>
       <c r="H122" t="n">
-        <v>1.74</v>
+        <v>0.95</v>
       </c>
       <c r="I122" t="n">
-        <v>7196446</v>
+        <v>7263197</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2250564</v>
+        <v>2250649</v>
       </c>
       <c r="E123" t="n">
-        <v>7701093</v>
+        <v>7701383</v>
       </c>
       <c r="F123" t="n">
-        <v>537.7254992788278</v>
+        <v>865.4044974782724</v>
       </c>
       <c r="G123" t="n">
-        <v>1077.368244932332</v>
+        <v>1138.213156643459</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="I123" t="n">
-        <v>958164</v>
+        <v>963025</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7358736</v>
+        <v>7368918</v>
       </c>
       <c r="E124" t="n">
-        <v>7358747</v>
+        <v>7368929</v>
       </c>
       <c r="F124" t="n">
-        <v>443.2221731905973</v>
+        <v>443.224487101168</v>
       </c>
       <c r="G124" t="n">
-        <v>995.5034359272501</v>
+        <v>595.5193617187826</v>
       </c>
       <c r="H124" t="n">
         <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>321391</v>
+        <v>321319</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6394475</v>
+        <v>6506934</v>
       </c>
       <c r="E125" t="n">
-        <v>6394475</v>
+        <v>6506934</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>502467</v>
+        <v>515556</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6243018</v>
+        <v>6227701</v>
       </c>
       <c r="E126" t="n">
-        <v>22803331</v>
+        <v>22747380</v>
       </c>
       <c r="F126" t="n">
-        <v>7099.346177656733</v>
+        <v>7103.335779693663</v>
       </c>
       <c r="G126" t="n">
-        <v>7704.455625632218</v>
+        <v>7702.533858877006</v>
       </c>
       <c r="H126" t="n">
-        <v>0.88</v>
+        <v>1.32</v>
       </c>
       <c r="I126" t="n">
-        <v>504447</v>
+        <v>503350</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44852152</v>
+        <v>44896272</v>
       </c>
       <c r="E127" t="n">
-        <v>44852152</v>
+        <v>44896272</v>
       </c>
       <c r="F127" t="n">
-        <v>56042.90915436935</v>
+        <v>61649.99240022759</v>
       </c>
       <c r="G127" t="n">
-        <v>80921.90668951618</v>
+        <v>76804.3283960721</v>
       </c>
       <c r="H127" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>8465209</v>
+        <v>7513472</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>152565377</v>
+        <v>152504264</v>
       </c>
       <c r="F128" t="n">
-        <v>1546.133596788026</v>
+        <v>1275.725491918397</v>
       </c>
       <c r="G128" t="n">
-        <v>223.4339367684079</v>
+        <v>388.3137182421867</v>
       </c>
       <c r="H128" t="n">
-        <v>0.59</v>
+        <v>0.98</v>
       </c>
       <c r="I128" t="n">
-        <v>1656815</v>
+        <v>426962</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2996883</v>
+        <v>2986132</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>70436</v>
+        <v>70347</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20372111</v>
+        <v>20292174</v>
       </c>
       <c r="F130" t="n">
-        <v>474.7210221415535</v>
+        <v>549.0233373784311</v>
       </c>
       <c r="G130" t="n">
-        <v>292.4269955888975</v>
+        <v>493.4681028162861</v>
       </c>
       <c r="H130" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="I130" t="n">
-        <v>2976230</v>
+        <v>2978624</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1257827</v>
+        <v>1257869</v>
       </c>
       <c r="E131" t="n">
-        <v>3800906</v>
+        <v>3801032</v>
       </c>
       <c r="F131" t="n">
-        <v>693.6389469691898</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>778.5732763247515</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1.31</v>
+        <v>8.08</v>
       </c>
       <c r="I131" t="n">
-        <v>12581.25</v>
+        <v>12850.8</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>609553598</v>
+        <v>609620370</v>
       </c>
       <c r="E132" t="n">
-        <v>2360711150</v>
+        <v>2360969751</v>
       </c>
       <c r="F132" t="n">
-        <v>748025.802188282</v>
+        <v>816396.5385983231</v>
       </c>
       <c r="G132" t="n">
-        <v>1114362.031261022</v>
+        <v>1092065.338313281</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32892507</v>
+        <v>32718709</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3708307</v>
+        <v>3706641</v>
       </c>
       <c r="E133" t="n">
-        <v>6321312</v>
+        <v>6318472</v>
       </c>
       <c r="F133" t="n">
-        <v>5429.164404081394</v>
+        <v>5415.690216552995</v>
       </c>
       <c r="G133" t="n">
-        <v>5385.629035677706</v>
+        <v>5389.626072687377</v>
       </c>
       <c r="H133" t="n">
         <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1188516</v>
+        <v>1173721</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>123296876</v>
+        <v>123145155</v>
       </c>
       <c r="E134" t="n">
-        <v>1071990560</v>
+        <v>1070671433</v>
       </c>
       <c r="F134" t="n">
-        <v>81952.88560604535</v>
+        <v>91312.38673610782</v>
       </c>
       <c r="G134" t="n">
-        <v>109638.5034130941</v>
+        <v>123658.4734400758</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I134" t="n">
-        <v>9147020</v>
+        <v>9267843</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>986713234</v>
+        <v>982741194</v>
       </c>
       <c r="E135" t="n">
-        <v>1083907192</v>
+        <v>1079543896</v>
       </c>
       <c r="F135" t="n">
-        <v>11862.18762210822</v>
+        <v>7884.390400140397</v>
       </c>
       <c r="G135" t="n">
-        <v>13001.24046796031</v>
+        <v>17285.74845801985</v>
       </c>
       <c r="H135" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I135" t="n">
-        <v>10442932</v>
+        <v>10479788</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1139771</v>
+        <v>1137420</v>
       </c>
       <c r="E136" t="n">
-        <v>4413441</v>
+        <v>4404340</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>371587</v>
+        <v>368495</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122504302</v>
+        <v>122910131</v>
       </c>
       <c r="E137" t="n">
-        <v>469946219</v>
+        <v>471503045</v>
       </c>
       <c r="F137" t="n">
-        <v>143559.0095241544</v>
+        <v>133975.9000647614</v>
       </c>
       <c r="G137" t="n">
-        <v>216280.4791459673</v>
+        <v>229545.3386814801</v>
       </c>
       <c r="H137" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I137" t="n">
-        <v>30633804</v>
+        <v>30607111</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3187853</v>
+        <v>3197754</v>
       </c>
       <c r="E138" t="n">
-        <v>30205383</v>
+        <v>30299193</v>
       </c>
       <c r="F138" t="n">
-        <v>2929.796308821481</v>
+        <v>2833.908594098933</v>
       </c>
       <c r="G138" t="n">
-        <v>4363.400115146912</v>
+        <v>5056.281286336657</v>
       </c>
       <c r="H138" t="n">
-        <v>0.03</v>
+        <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>213202</v>
+        <v>213318</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21946121</v>
+        <v>21742929</v>
       </c>
       <c r="E139" t="n">
-        <v>21946121</v>
+        <v>21742929</v>
       </c>
       <c r="F139" t="n">
-        <v>1207.791302577126</v>
+        <v>899.5021389789355</v>
       </c>
       <c r="G139" t="n">
-        <v>549.2468077760452</v>
+        <v>3945.123861639028</v>
       </c>
       <c r="H139" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="I139" t="n">
-        <v>656145</v>
+        <v>662708</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494799841</v>
+        <v>494063486</v>
       </c>
       <c r="E140" t="n">
-        <v>494799841</v>
+        <v>494063486</v>
       </c>
       <c r="F140" t="n">
-        <v>960773.0234971285</v>
+        <v>952143.776296013</v>
       </c>
       <c r="G140" t="n">
-        <v>1010795.646085787</v>
+        <v>1010732.067395512</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>32737297</v>
+        <v>32663713</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31764167</v>
+        <v>32095267</v>
       </c>
       <c r="F141" t="n">
-        <v>52244.4776490604</v>
+        <v>48107.95695478701</v>
       </c>
       <c r="G141" t="n">
-        <v>77629.56335720075</v>
+        <v>65532.94721906594</v>
       </c>
       <c r="H141" t="n">
         <v>0.44</v>
       </c>
       <c r="I141" t="n">
-        <v>5353088</v>
+        <v>5404250</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>770381</v>
+        <v>758871</v>
       </c>
       <c r="E142" t="n">
-        <v>12287302</v>
+        <v>12103724</v>
       </c>
       <c r="F142" t="n">
-        <v>350.8054467378348</v>
+        <v>76.88341896636237</v>
       </c>
       <c r="G142" t="n">
-        <v>9.189068099290603</v>
+        <v>31.29969763447435</v>
       </c>
       <c r="H142" t="n">
-        <v>0.65</v>
+        <v>1.47</v>
       </c>
       <c r="I142" t="n">
-        <v>264878</v>
+        <v>268169</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2648861944</v>
+        <v>2646781367</v>
       </c>
       <c r="E143" t="n">
-        <v>2812402142</v>
+        <v>2810193111</v>
       </c>
       <c r="F143" t="n">
-        <v>3565.068502093329</v>
+        <v>3412.666655032139</v>
       </c>
       <c r="G143" t="n">
-        <v>18404.85205734066</v>
+        <v>24166.76319340035</v>
       </c>
       <c r="H143" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>34948510</v>
+        <v>34974904</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1720902</v>
+        <v>1725303</v>
       </c>
       <c r="E144" t="n">
-        <v>1726976</v>
+        <v>1731393</v>
       </c>
       <c r="F144" t="n">
-        <v>505.3370480180232</v>
+        <v>701.8676228314597</v>
       </c>
       <c r="G144" t="n">
-        <v>279.8134737305618</v>
+        <v>508.8113305583221</v>
       </c>
       <c r="H144" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I144" t="n">
-        <v>432518</v>
+        <v>432304</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61314660</v>
+        <v>61248439</v>
       </c>
       <c r="E145" t="n">
-        <v>150400705</v>
+        <v>150238271</v>
       </c>
       <c r="F145" t="n">
-        <v>3327.142557385094</v>
+        <v>3439.250694230579</v>
       </c>
       <c r="G145" t="n">
-        <v>5133.239694933513</v>
+        <v>5187.683169455659</v>
       </c>
       <c r="H145" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="I145" t="n">
-        <v>22511879</v>
+        <v>22406705</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>756941809</v>
+        <v>764336019</v>
       </c>
       <c r="E146" t="n">
-        <v>1167271102</v>
+        <v>1178673625</v>
       </c>
       <c r="F146" t="n">
-        <v>138134.6143471364</v>
+        <v>153457.1932177513</v>
       </c>
       <c r="G146" t="n">
-        <v>222758.5405447613</v>
+        <v>166060.2257734156</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I146" t="n">
-        <v>186871037</v>
+        <v>222959175</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23489394</v>
+        <v>23489271</v>
       </c>
       <c r="E147" t="n">
-        <v>23489394</v>
+        <v>23489271</v>
       </c>
       <c r="F147" t="n">
-        <v>4743.654376793485</v>
+        <v>4562.610889090886</v>
       </c>
       <c r="G147" t="n">
-        <v>7904.239554362947</v>
+        <v>6823.415177886154</v>
       </c>
       <c r="H147" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>5692712</v>
+        <v>5672205</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3849017</v>
+        <v>3847592</v>
       </c>
       <c r="E148" t="n">
-        <v>8398505</v>
+        <v>8395395</v>
       </c>
       <c r="F148" t="n">
-        <v>5605.797185320465</v>
+        <v>5569.265684654018</v>
       </c>
       <c r="G148" t="n">
-        <v>5929.224555424656</v>
+        <v>6007.550362202696</v>
       </c>
       <c r="H148" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1650769</v>
+        <v>1669850</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9257565</v>
+        <v>9251791</v>
       </c>
       <c r="E149" t="n">
-        <v>9257565</v>
+        <v>9251791</v>
       </c>
       <c r="F149" t="n">
-        <v>367781.0091391461</v>
+        <v>367564.6619377953</v>
       </c>
       <c r="G149" t="n">
-        <v>660200.9091740396</v>
+        <v>660946.9079611516</v>
       </c>
       <c r="H149" t="n">
         <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>2897187</v>
+        <v>2854736</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>498330311</v>
+        <v>498022145</v>
       </c>
       <c r="E150" t="n">
-        <v>1734646339</v>
+        <v>1733573641</v>
       </c>
       <c r="F150" t="n">
-        <v>622848.9638399921</v>
+        <v>816677.4549442501</v>
       </c>
       <c r="G150" t="n">
-        <v>917921.500606779</v>
+        <v>850579.3141551095</v>
       </c>
       <c r="H150" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>30884985</v>
+        <v>30657749</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48841414</v>
+        <v>48790926</v>
       </c>
       <c r="E151" t="n">
-        <v>120259152</v>
+        <v>120134838</v>
       </c>
       <c r="F151" t="n">
-        <v>8372.557508750599</v>
+        <v>8549.063275277926</v>
       </c>
       <c r="G151" t="n">
-        <v>7891.044357897605</v>
+        <v>8099.50909569488</v>
       </c>
       <c r="H151" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>24172</v>
+        <v>24053</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7512808</v>
+        <v>7493542</v>
       </c>
       <c r="E152" t="n">
-        <v>19517466</v>
+        <v>19467417</v>
       </c>
       <c r="F152" t="n">
-        <v>6779.138278228068</v>
+        <v>6137.072419824046</v>
       </c>
       <c r="G152" t="n">
-        <v>6901.879025946082</v>
+        <v>7081.220602570022</v>
       </c>
       <c r="H152" t="n">
         <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>713853</v>
+        <v>716697</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19196457054</v>
+        <v>19188362787</v>
       </c>
       <c r="F153" t="n">
-        <v>52415.43829506144</v>
+        <v>52371.75662875156</v>
       </c>
       <c r="G153" t="n">
-        <v>49955.73987079952</v>
+        <v>49987.01261563658</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>46685130</v>
+        <v>46528055</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2631551</v>
+        <v>2636303</v>
       </c>
       <c r="E154" t="n">
-        <v>10526205</v>
+        <v>10545214</v>
       </c>
       <c r="F154" t="n">
-        <v>24882.80045860041</v>
+        <v>31775.42643366836</v>
       </c>
       <c r="G154" t="n">
-        <v>3477.694557343183</v>
+        <v>5043.53623581615</v>
       </c>
       <c r="H154" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I154" t="n">
-        <v>6861652</v>
+        <v>6860219</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>228632628</v>
+        <v>227635638</v>
       </c>
       <c r="E155" t="n">
-        <v>702959290</v>
+        <v>699893922</v>
       </c>
       <c r="F155" t="n">
-        <v>128580.2016630798</v>
+        <v>134238.2345205686</v>
       </c>
       <c r="G155" t="n">
-        <v>172646.1409222743</v>
+        <v>169093.6292077943</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I155" t="n">
-        <v>15129940</v>
+        <v>15227839</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>405193101</v>
+        <v>404862593</v>
       </c>
       <c r="E156" t="n">
-        <v>2315389147</v>
+        <v>2313500532</v>
       </c>
       <c r="F156" t="n">
-        <v>186123.7626692206</v>
+        <v>220991.6894625808</v>
       </c>
       <c r="G156" t="n">
-        <v>269177.2226969977</v>
+        <v>235491.8977051393</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>39301244</v>
+        <v>39252199</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3980094</v>
+        <v>4144395</v>
       </c>
       <c r="F2" t="n">
-        <v>1126.363550845382</v>
+        <v>1809.530360585285</v>
       </c>
       <c r="G2" t="n">
-        <v>1068.176204792786</v>
+        <v>481.600837533496</v>
       </c>
       <c r="H2" t="n">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="n">
-        <v>139357</v>
+        <v>143551</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>607355412</v>
+        <v>608544942</v>
       </c>
       <c r="E3" t="n">
-        <v>1178540600</v>
+        <v>1180854083</v>
       </c>
       <c r="F3" t="n">
-        <v>80867.45171093415</v>
+        <v>63864.40035640633</v>
       </c>
       <c r="G3" t="n">
-        <v>69499.89208026609</v>
+        <v>88623.43087252333</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>18844005</v>
+        <v>18972364</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249823324</v>
+        <v>248159727</v>
       </c>
       <c r="E4" t="n">
-        <v>1566606951</v>
+        <v>1556174769</v>
       </c>
       <c r="F4" t="n">
-        <v>232135.6749031984</v>
+        <v>334237.9173629329</v>
       </c>
       <c r="G4" t="n">
-        <v>328351.9209287991</v>
+        <v>252342.498786752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17441204</v>
+        <v>17518614</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>147105454</v>
+        <v>148007181</v>
       </c>
       <c r="E5" t="n">
-        <v>163015833</v>
+        <v>164015087</v>
       </c>
       <c r="F5" t="n">
-        <v>9041.357898316837</v>
+        <v>8903.031327973797</v>
       </c>
       <c r="G5" t="n">
-        <v>1222.300696413126</v>
+        <v>8051.906091886834</v>
       </c>
       <c r="H5" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="I5" t="n">
-        <v>37465489</v>
+        <v>38008700</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49093147</v>
+        <v>49266315</v>
       </c>
       <c r="E6" t="n">
-        <v>61414268</v>
+        <v>61630896</v>
       </c>
       <c r="F6" t="n">
-        <v>5749.060774345528</v>
+        <v>4112.779600980388</v>
       </c>
       <c r="G6" t="n">
-        <v>5701.841719700858</v>
+        <v>7332.091160465524</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I6" t="n">
-        <v>589509</v>
+        <v>591879</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69167189</v>
+        <v>68967473</v>
       </c>
       <c r="E7" t="n">
-        <v>137757632</v>
+        <v>137359865</v>
       </c>
       <c r="F7" t="n">
-        <v>9683.65771406209</v>
+        <v>9594.940005018492</v>
       </c>
       <c r="G7" t="n">
-        <v>13126.42209232777</v>
+        <v>13339.14977033822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1020532</v>
+        <v>1035001</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40858643</v>
+        <v>40919792</v>
       </c>
       <c r="E8" t="n">
-        <v>45726707</v>
+        <v>45795142</v>
       </c>
       <c r="F8" t="n">
-        <v>1070.937771539558</v>
+        <v>7626.166854844588</v>
       </c>
       <c r="G8" t="n">
-        <v>129.6077795045073</v>
+        <v>6523.588169857632</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3631320</v>
+        <v>3612812</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14146515</v>
+        <v>14118707</v>
       </c>
       <c r="E9" t="n">
-        <v>41688865</v>
+        <v>41606917</v>
       </c>
       <c r="F9" t="n">
-        <v>713.0225916160286</v>
+        <v>5274.208985201979</v>
       </c>
       <c r="G9" t="n">
-        <v>164.6523424122039</v>
+        <v>4690.539406926105</v>
       </c>
       <c r="H9" t="n">
-        <v>1.81</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>687248</v>
+        <v>894314</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10789302</v>
+        <v>10751386</v>
       </c>
       <c r="E10" t="n">
-        <v>46375037</v>
+        <v>46212065</v>
       </c>
       <c r="F10" t="n">
-        <v>4931.335574661231</v>
+        <v>5266.76592092273</v>
       </c>
       <c r="G10" t="n">
-        <v>1875.534833960621</v>
+        <v>1315.001193433879</v>
       </c>
       <c r="H10" t="n">
-        <v>1.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>863380</v>
+        <v>782947</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>581799847</v>
+        <v>582287512</v>
       </c>
       <c r="E11" t="n">
-        <v>727745137</v>
+        <v>728355134</v>
       </c>
       <c r="F11" t="n">
-        <v>306508.8837736446</v>
+        <v>270301.2340898486</v>
       </c>
       <c r="G11" t="n">
-        <v>283351.762117323</v>
+        <v>275474.5049908271</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>55783700</v>
+        <v>55149109</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4575535</v>
+        <v>4559286</v>
       </c>
       <c r="E12" t="n">
-        <v>28104243</v>
+        <v>28004437</v>
       </c>
       <c r="F12" t="n">
-        <v>143.9308243339241</v>
+        <v>2071.407593122078</v>
       </c>
       <c r="G12" t="n">
-        <v>365.7116183304762</v>
+        <v>3937.515389097167</v>
       </c>
       <c r="H12" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I12" t="n">
-        <v>650094</v>
+        <v>664965</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23218303</v>
+        <v>23176175</v>
       </c>
       <c r="E13" t="n">
-        <v>23261412</v>
+        <v>23219207</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>856690</v>
+        <v>843085</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81475280</v>
+        <v>81629864</v>
       </c>
       <c r="E14" t="n">
-        <v>239710379</v>
+        <v>240165185</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>339109</v>
+        <v>339537</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>478575805</v>
+        <v>477067537</v>
       </c>
       <c r="E15" t="n">
-        <v>478575809</v>
+        <v>477067542</v>
       </c>
       <c r="F15" t="n">
-        <v>15912.96929538188</v>
+        <v>19144.91230801391</v>
       </c>
       <c r="G15" t="n">
-        <v>20191.58527111776</v>
+        <v>19231.8139385937</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>81906046</v>
+        <v>65367343</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4718183</v>
+        <v>4755173</v>
       </c>
       <c r="E16" t="n">
-        <v>4718183</v>
+        <v>4755173</v>
       </c>
       <c r="F16" t="n">
-        <v>246.36739804748</v>
+        <v>158.3628127773101</v>
       </c>
       <c r="G16" t="n">
-        <v>1007.859010025242</v>
+        <v>7341.635884364311</v>
       </c>
       <c r="H16" t="n">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="I16" t="n">
-        <v>2014209</v>
+        <v>1917398</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3387230</v>
+        <v>3415677</v>
       </c>
       <c r="E17" t="n">
-        <v>3387230</v>
+        <v>3415677</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>516187</v>
+        <v>510919</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>170220422</v>
+        <v>171834865</v>
       </c>
       <c r="E18" t="n">
-        <v>210739970</v>
+        <v>212738718</v>
       </c>
       <c r="F18" t="n">
-        <v>9615.974270545023</v>
+        <v>12049.28512882466</v>
       </c>
       <c r="G18" t="n">
-        <v>9135.252938772748</v>
+        <v>5123.644257960119</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>0.84</v>
       </c>
       <c r="I18" t="n">
-        <v>502736</v>
+        <v>562855</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6817837</v>
+        <v>6814988</v>
       </c>
       <c r="E19" t="n">
-        <v>9389903</v>
+        <v>9385980</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>414929</v>
+        <v>413882</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>935168</v>
+        <v>897319</v>
       </c>
       <c r="E20" t="n">
-        <v>6546178</v>
+        <v>6281234</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>227575</v>
+        <v>246669</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115983348</v>
+        <v>116401282</v>
       </c>
       <c r="E21" t="n">
-        <v>451208846</v>
+        <v>452811162</v>
       </c>
       <c r="F21" t="n">
-        <v>44446.11645966565</v>
+        <v>57244.80409778548</v>
       </c>
       <c r="G21" t="n">
-        <v>87754.43417936903</v>
+        <v>90718.74230678027</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>9407205</v>
+        <v>9419863</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1674662</v>
+        <v>1687701</v>
       </c>
       <c r="E22" t="n">
-        <v>12062452</v>
+        <v>12156368</v>
       </c>
       <c r="F22" t="n">
-        <v>4455.89155851235</v>
+        <v>5890.180884104848</v>
       </c>
       <c r="G22" t="n">
-        <v>4379.358543628183</v>
+        <v>4461.148844229674</v>
       </c>
       <c r="H22" t="n">
-        <v>0.58</v>
+        <v>0.86</v>
       </c>
       <c r="I22" t="n">
-        <v>38672</v>
+        <v>38218</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>140005477</v>
+        <v>141237115</v>
       </c>
       <c r="E23" t="n">
-        <v>140005477</v>
+        <v>141237115</v>
       </c>
       <c r="F23" t="n">
-        <v>1009392.959306615</v>
+        <v>918718.8571420679</v>
       </c>
       <c r="G23" t="n">
-        <v>1271052.308021687</v>
+        <v>1458413.409340173</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>68173553</v>
+        <v>69646591</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67046338</v>
+        <v>67768648</v>
       </c>
       <c r="E24" t="n">
-        <v>343827377</v>
+        <v>347531526</v>
       </c>
       <c r="F24" t="n">
-        <v>106339.6607335617</v>
+        <v>78735.41699084202</v>
       </c>
       <c r="G24" t="n">
-        <v>133750.1327773603</v>
+        <v>145629.0924177238</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>22176468</v>
+        <v>24230246</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>258297653</v>
+        <v>260704132</v>
       </c>
       <c r="E25" t="n">
-        <v>258297653</v>
+        <v>260704132</v>
       </c>
       <c r="F25" t="n">
-        <v>400953.5776559252</v>
+        <v>360493.1136598958</v>
       </c>
       <c r="G25" t="n">
-        <v>466895.1900680062</v>
+        <v>502794.6856060063</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14347267</v>
+        <v>14775371</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1122475</v>
+        <v>1123443</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>174364</v>
+        <v>174908</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4000037</v>
+        <v>4029239</v>
       </c>
       <c r="E28" t="n">
-        <v>4001125</v>
+        <v>4030335</v>
       </c>
       <c r="F28" t="n">
-        <v>952.1515688542845</v>
+        <v>957.6788486652764</v>
       </c>
       <c r="G28" t="n">
-        <v>2962.162500641305</v>
+        <v>3399.997346661556</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>261882</v>
+        <v>258792</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6796667</v>
+        <v>6578614</v>
       </c>
       <c r="E29" t="n">
-        <v>16508580</v>
+        <v>15978947</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>481687</v>
+        <v>481241</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99995840</v>
+        <v>99792126</v>
       </c>
       <c r="E30" t="n">
-        <v>124683091</v>
+        <v>124429083</v>
       </c>
       <c r="F30" t="n">
-        <v>121382.6556378524</v>
+        <v>124517.6744930592</v>
       </c>
       <c r="G30" t="n">
-        <v>97231.11539104777</v>
+        <v>108360.7944589649</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10124810</v>
+        <v>10120026</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1126210</v>
+        <v>1128317</v>
       </c>
       <c r="E31" t="n">
-        <v>12239231</v>
+        <v>12262125</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31088</v>
+        <v>31148</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>82741185</v>
+        <v>83401487</v>
       </c>
       <c r="E32" t="n">
-        <v>231524960</v>
+        <v>233311748</v>
       </c>
       <c r="F32" t="n">
-        <v>60706.43879173278</v>
+        <v>64780.6211209816</v>
       </c>
       <c r="G32" t="n">
-        <v>64540.7063879972</v>
+        <v>70909.80325208155</v>
       </c>
       <c r="H32" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>44377540</v>
+        <v>47312931</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4109583</v>
+        <v>4125749</v>
       </c>
       <c r="E33" t="n">
-        <v>8104443</v>
+        <v>8136325</v>
       </c>
       <c r="F33" t="n">
-        <v>9322.664864676333</v>
+        <v>7435.334412974985</v>
       </c>
       <c r="G33" t="n">
-        <v>7602.975113988788</v>
+        <v>8083.645815023609</v>
       </c>
       <c r="H33" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>1648059</v>
+        <v>1645708</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36423813</v>
+        <v>35723358</v>
       </c>
       <c r="F34" t="n">
-        <v>299.3073684687933</v>
+        <v>315.415027602516</v>
       </c>
       <c r="G34" t="n">
-        <v>100.4990632480752</v>
+        <v>106.5368783686722</v>
       </c>
       <c r="H34" t="n">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="I34" t="n">
-        <v>74820</v>
+        <v>71197</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7626017</v>
+        <v>7691354</v>
       </c>
       <c r="E35" t="n">
-        <v>17960787</v>
+        <v>18114669</v>
       </c>
       <c r="F35" t="n">
-        <v>3428.841954443516</v>
+        <v>3445.734022149107</v>
       </c>
       <c r="G35" t="n">
-        <v>2673.448693541687</v>
+        <v>2674.607865544805</v>
       </c>
       <c r="H35" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="I35" t="n">
-        <v>30130</v>
+        <v>31564</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23050056</v>
+        <v>23029911</v>
       </c>
       <c r="F36" t="n">
-        <v>5099.452756129226</v>
+        <v>5182.490027299288</v>
       </c>
       <c r="G36" t="n">
-        <v>5517.326860377138</v>
+        <v>5238.212072983073</v>
       </c>
       <c r="H36" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="I36" t="n">
-        <v>108290</v>
+        <v>128870</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>78638697</v>
+        <v>78324790</v>
       </c>
       <c r="E37" t="n">
-        <v>164001619</v>
+        <v>163346963</v>
       </c>
       <c r="F37" t="n">
-        <v>63380.82398611874</v>
+        <v>69887.43846873325</v>
       </c>
       <c r="G37" t="n">
-        <v>114488.2332604496</v>
+        <v>135374.0662210492</v>
       </c>
       <c r="H37" t="n">
         <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>17665266</v>
+        <v>18468179</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>276904082</v>
+        <v>275405843</v>
       </c>
       <c r="E38" t="n">
-        <v>276904082</v>
+        <v>275405843</v>
       </c>
       <c r="F38" t="n">
-        <v>24130.06925683196</v>
+        <v>44315.92577968687</v>
       </c>
       <c r="G38" t="n">
-        <v>23051.75676498852</v>
+        <v>25808.96711205464</v>
       </c>
       <c r="H38" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>9922960</v>
+        <v>9544937</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>205280170</v>
+        <v>208697473</v>
       </c>
       <c r="E39" t="n">
-        <v>713161862</v>
+        <v>725033883</v>
       </c>
       <c r="F39" t="n">
-        <v>198711.0425576235</v>
+        <v>141224.0587740787</v>
       </c>
       <c r="G39" t="n">
-        <v>339609.1728738903</v>
+        <v>384929.4314311515</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>27950494</v>
+        <v>29198175</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3630198</v>
+        <v>3552472</v>
       </c>
       <c r="E40" t="n">
-        <v>3630198</v>
+        <v>3552472</v>
       </c>
       <c r="F40" t="n">
-        <v>431.0329779233269</v>
+        <v>960.3372618826842</v>
       </c>
       <c r="G40" t="n">
-        <v>1870.762855069994</v>
+        <v>1322.795713688854</v>
       </c>
       <c r="H40" t="n">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>2598898</v>
+        <v>2540825</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116374159</v>
+        <v>116597023</v>
       </c>
       <c r="E41" t="n">
-        <v>494354789</v>
+        <v>495257296</v>
       </c>
       <c r="F41" t="n">
-        <v>5487.040563301559</v>
+        <v>5440.980494254688</v>
       </c>
       <c r="G41" t="n">
-        <v>6477.516462038991</v>
+        <v>6453.891182268511</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I41" t="n">
-        <v>15388095</v>
+        <v>15570574</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>567534</v>
+        <v>569551</v>
       </c>
       <c r="E42" t="n">
-        <v>6883637</v>
+        <v>6908096</v>
       </c>
       <c r="F42" t="n">
-        <v>841.6202761973068</v>
+        <v>720.9865473579075</v>
       </c>
       <c r="G42" t="n">
-        <v>1105.083483585579</v>
+        <v>1047.341893427534</v>
       </c>
       <c r="H42" t="n">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2826809</v>
+        <v>2811460</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1307356286</v>
+        <v>1300347966</v>
       </c>
       <c r="E43" t="n">
-        <v>6269041133</v>
+        <v>6235434803</v>
       </c>
       <c r="F43" t="n">
-        <v>21550.66749300526</v>
+        <v>73133.24601799547</v>
       </c>
       <c r="G43" t="n">
-        <v>40601.74414520204</v>
+        <v>93677.0213865386</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>166037294</v>
+        <v>165713790</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6046077714</v>
+        <v>6051204641</v>
       </c>
       <c r="E44" t="n">
-        <v>6046077714</v>
+        <v>6051204641</v>
       </c>
       <c r="F44" t="n">
-        <v>893451.8647971811</v>
+        <v>4380160.780754738</v>
       </c>
       <c r="G44" t="n">
-        <v>1630241.13199717</v>
+        <v>4081635.231987371</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>98234011</v>
+        <v>87156234</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>273183223</v>
+        <v>271729384</v>
       </c>
       <c r="E45" t="n">
-        <v>1179210447</v>
+        <v>1172934869</v>
       </c>
       <c r="F45" t="n">
-        <v>93648.05480808478</v>
+        <v>109459.1382756094</v>
       </c>
       <c r="G45" t="n">
-        <v>107250.9517513307</v>
+        <v>90020.10523276113</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>100019597</v>
+        <v>100036989</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115104992</v>
+        <v>115318854</v>
       </c>
       <c r="E46" t="n">
-        <v>115104992</v>
+        <v>115318854</v>
       </c>
       <c r="F46" t="n">
-        <v>28599.02047273794</v>
+        <v>42228.19866685696</v>
       </c>
       <c r="G46" t="n">
-        <v>34886.7199688558</v>
+        <v>43611.68754684441</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I46" t="n">
-        <v>6103808</v>
+        <v>6139112</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2040825961</v>
+        <v>2042215774</v>
       </c>
       <c r="E47" t="n">
-        <v>2040825961</v>
+        <v>2042215774</v>
       </c>
       <c r="F47" t="n">
-        <v>225732.9076217089</v>
+        <v>225764.4992827574</v>
       </c>
       <c r="G47" t="n">
-        <v>199180.9652197176</v>
+        <v>199159.9696562661</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I47" t="n">
-        <v>6752079953</v>
+        <v>6947525377</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9863407</v>
+        <v>9874347</v>
       </c>
       <c r="F48" t="n">
-        <v>6698.541942602612</v>
+        <v>6727.565246034153</v>
       </c>
       <c r="G48" t="n">
-        <v>5996.500652067664</v>
+        <v>5965.867283226732</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>127219</v>
+        <v>117843</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4448778</v>
+        <v>4438575</v>
       </c>
       <c r="E49" t="n">
-        <v>5840665</v>
+        <v>5827271</v>
       </c>
       <c r="F49" t="n">
-        <v>7332.542884032701</v>
+        <v>12464.71932861075</v>
       </c>
       <c r="G49" t="n">
-        <v>16206.37754714971</v>
+        <v>16357.91931806116</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>602864</v>
+        <v>624215</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12825933</v>
+        <v>12459445</v>
       </c>
       <c r="E50" t="n">
-        <v>18860292</v>
+        <v>18321379</v>
       </c>
       <c r="F50" t="n">
-        <v>2481.899262775221</v>
+        <v>5886.659568151402</v>
       </c>
       <c r="G50" t="n">
-        <v>6954.339437476058</v>
+        <v>4750.975569762424</v>
       </c>
       <c r="H50" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2977591</v>
+        <v>3253428</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23197036</v>
+        <v>23016626</v>
       </c>
       <c r="E51" t="n">
-        <v>30091862</v>
+        <v>29857829</v>
       </c>
       <c r="F51" t="n">
-        <v>10221.56695107721</v>
+        <v>12915.91042313056</v>
       </c>
       <c r="G51" t="n">
-        <v>10367.30955209079</v>
+        <v>11902.75066175103</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>321214</v>
+        <v>164668</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13829965</v>
+        <v>13880047</v>
       </c>
       <c r="E52" t="n">
-        <v>13829965</v>
+        <v>13880047</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4872788</v>
+        <v>4882166</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99493069</v>
+        <v>98760126</v>
       </c>
       <c r="E53" t="n">
-        <v>123069365</v>
+        <v>122162741</v>
       </c>
       <c r="F53" t="n">
-        <v>402.462170327108</v>
+        <v>472.9176397701404</v>
       </c>
       <c r="G53" t="n">
-        <v>1050.524007575388</v>
+        <v>3864.667133282807</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="I53" t="n">
-        <v>826849</v>
+        <v>847085</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5181103</v>
+        <v>5163799</v>
       </c>
       <c r="E54" t="n">
-        <v>7249114</v>
+        <v>7224903</v>
       </c>
       <c r="F54" t="n">
-        <v>430.9018262953474</v>
+        <v>6.304180188862145</v>
       </c>
       <c r="G54" t="n">
-        <v>252.2453380553004</v>
+        <v>19.67130287266791</v>
       </c>
       <c r="H54" t="n">
-        <v>2.89</v>
+        <v>2.71</v>
       </c>
       <c r="I54" t="n">
-        <v>104377</v>
+        <v>91817</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14628790</v>
+        <v>14899706</v>
       </c>
       <c r="E55" t="n">
-        <v>70849566</v>
+        <v>72161652</v>
       </c>
       <c r="F55" t="n">
-        <v>14709.01850741653</v>
+        <v>25648.75511911686</v>
       </c>
       <c r="G55" t="n">
-        <v>28933.88610719707</v>
+        <v>33405.50590263982</v>
       </c>
       <c r="H55" t="n">
-        <v>0.35</v>
+        <v>0.76</v>
       </c>
       <c r="I55" t="n">
-        <v>3809984</v>
+        <v>3927784</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>59619</v>
+        <v>61395</v>
       </c>
       <c r="E56" t="n">
-        <v>142800</v>
+        <v>147055</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4303.73</v>
+        <v>3530.5</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1923988001</v>
+        <v>1924639047</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27681514</v>
+        <v>27659041</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12146369</v>
+        <v>12285833</v>
       </c>
       <c r="E58" t="n">
-        <v>17610482</v>
+        <v>17812685</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2029303</v>
+        <v>2037086</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124329035</v>
+        <v>123362442</v>
       </c>
       <c r="E59" t="n">
-        <v>330644358</v>
+        <v>328073773</v>
       </c>
       <c r="F59" t="n">
-        <v>7765.513694258313</v>
+        <v>7786.523028837553</v>
       </c>
       <c r="G59" t="n">
-        <v>7191.424319926412</v>
+        <v>7209.916644926552</v>
       </c>
       <c r="H59" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="I59" t="n">
-        <v>880691</v>
+        <v>854464</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31800857</v>
+        <v>31551690</v>
       </c>
       <c r="E60" t="n">
-        <v>99017667</v>
+        <v>98241838</v>
       </c>
       <c r="F60" t="n">
-        <v>2074.641230878241</v>
+        <v>3307.278667241443</v>
       </c>
       <c r="G60" t="n">
-        <v>7222.039674872901</v>
+        <v>6284.699787775166</v>
       </c>
       <c r="H60" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>11391198</v>
+        <v>10835784</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2072626</v>
+        <v>2010049</v>
       </c>
       <c r="E61" t="n">
-        <v>14862593</v>
+        <v>14413859</v>
       </c>
       <c r="F61" t="n">
-        <v>2632.502082952305</v>
+        <v>5449.886436995977</v>
       </c>
       <c r="G61" t="n">
-        <v>5138.226769721816</v>
+        <v>4999.010844809277</v>
       </c>
       <c r="H61" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="I61" t="n">
-        <v>1981702</v>
+        <v>618264</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>205031000</v>
+        <v>205512833</v>
       </c>
       <c r="E62" t="n">
-        <v>1161011502</v>
+        <v>1163739937</v>
       </c>
       <c r="F62" t="n">
-        <v>638225.6077265489</v>
+        <v>664167.1092078547</v>
       </c>
       <c r="G62" t="n">
-        <v>796552.3370572438</v>
+        <v>795014.6242866241</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>66171290</v>
+        <v>67407771</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>497800</v>
+        <v>497264</v>
       </c>
       <c r="E63" t="n">
-        <v>1675524</v>
+        <v>1673720</v>
       </c>
       <c r="F63" t="n">
-        <v>4561.201818334798</v>
+        <v>4577.780443265169</v>
       </c>
       <c r="G63" t="n">
-        <v>392.0901436418048</v>
+        <v>374.7218726168661</v>
       </c>
       <c r="H63" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>631967</v>
+        <v>633194</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343823</v>
+        <v>345169</v>
       </c>
       <c r="E64" t="n">
-        <v>343823</v>
+        <v>345169</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5301.64</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>143199300</v>
+        <v>143265915</v>
       </c>
       <c r="E65" t="n">
-        <v>1060735555</v>
+        <v>1061229002</v>
       </c>
       <c r="F65" t="n">
-        <v>35311.47924870923</v>
+        <v>38830.72788012835</v>
       </c>
       <c r="G65" t="n">
-        <v>40800.74704459887</v>
+        <v>35514.99421855295</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>8576506</v>
+        <v>8477529</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7989893</v>
+        <v>8232003</v>
       </c>
       <c r="E66" t="n">
-        <v>10703792</v>
+        <v>11028139</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>37305</v>
+        <v>57969</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26726851</v>
+        <v>26889205</v>
       </c>
       <c r="E67" t="n">
-        <v>26726851</v>
+        <v>26889205</v>
       </c>
       <c r="F67" t="n">
-        <v>7869.051700689177</v>
+        <v>7735.564781293414</v>
       </c>
       <c r="G67" t="n">
-        <v>8861.932080446366</v>
+        <v>9032.174739324028</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>314840</v>
+        <v>314317</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1565595</v>
+        <v>1564049</v>
       </c>
       <c r="E68" t="n">
-        <v>12158592</v>
+        <v>12146583</v>
       </c>
       <c r="F68" t="n">
-        <v>9809.675951344303</v>
+        <v>11889.72108200957</v>
       </c>
       <c r="G68" t="n">
-        <v>20337.23811730706</v>
+        <v>14207.74730145468</v>
       </c>
       <c r="H68" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="I68" t="n">
-        <v>516254</v>
+        <v>517637</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>346498760</v>
+        <v>344984436</v>
       </c>
       <c r="E69" t="n">
-        <v>3117317698</v>
+        <v>3103693904</v>
       </c>
       <c r="F69" t="n">
-        <v>1059433.908419587</v>
+        <v>1146660.20731358</v>
       </c>
       <c r="G69" t="n">
-        <v>1705448.776419619</v>
+        <v>1447595.140652732</v>
       </c>
       <c r="H69" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>41748069</v>
+        <v>43153862</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>247647</v>
+        <v>248662</v>
       </c>
       <c r="E70" t="n">
-        <v>2185671</v>
+        <v>2194629</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>91435</v>
+        <v>93012</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1577592</v>
+        <v>1573600</v>
       </c>
       <c r="E71" t="n">
-        <v>13146599</v>
+        <v>13113330</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>36464</v>
+        <v>24946</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9300526</v>
+        <v>9292859</v>
       </c>
       <c r="E72" t="n">
-        <v>43108472</v>
+        <v>43072934</v>
       </c>
       <c r="F72" t="n">
-        <v>5167.308855551608</v>
+        <v>5437.103709321038</v>
       </c>
       <c r="G72" t="n">
-        <v>9968.530570166302</v>
+        <v>9961.902982451207</v>
       </c>
       <c r="H72" t="n">
         <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>125631</v>
+        <v>124238</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50242862</v>
+        <v>49498622</v>
       </c>
       <c r="E73" t="n">
-        <v>290885412</v>
+        <v>286576569</v>
       </c>
       <c r="F73" t="n">
-        <v>103031.2679192483</v>
+        <v>117323.8004891522</v>
       </c>
       <c r="G73" t="n">
-        <v>171270.8474928337</v>
+        <v>172979.8100856255</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>32249243</v>
+        <v>33089366</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39678742</v>
+        <v>39564915</v>
       </c>
       <c r="E74" t="n">
-        <v>54801993</v>
+        <v>54644782</v>
       </c>
       <c r="F74" t="n">
-        <v>10788.29136286897</v>
+        <v>686.8847465538647</v>
       </c>
       <c r="G74" t="n">
-        <v>4525.211197270793</v>
+        <v>627.1252924563845</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>338532</v>
+        <v>335421</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97636</v>
+        <v>97210</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>300.2</v>
+        <v>295.3</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13620935</v>
+        <v>13676493</v>
       </c>
       <c r="E76" t="n">
-        <v>13667288</v>
+        <v>13723035</v>
       </c>
       <c r="F76" t="n">
-        <v>1303.03100215442</v>
+        <v>1251.182275762877</v>
       </c>
       <c r="G76" t="n">
-        <v>6246.014482186992</v>
+        <v>6288.296854856425</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I76" t="n">
-        <v>5890678</v>
+        <v>5842196</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42766174</v>
+        <v>42817014</v>
       </c>
       <c r="E77" t="n">
-        <v>72607014</v>
+        <v>72693329</v>
       </c>
       <c r="F77" t="n">
-        <v>6911.907938628823</v>
+        <v>9260.078299818302</v>
       </c>
       <c r="G77" t="n">
-        <v>4515.086167114247</v>
+        <v>7512.91966274785</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I77" t="n">
-        <v>1072499</v>
+        <v>1048762</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22695418</v>
+        <v>22938439</v>
       </c>
       <c r="E78" t="n">
-        <v>68030427</v>
+        <v>68758891</v>
       </c>
       <c r="F78" t="n">
-        <v>115570.3316627506</v>
+        <v>132269.011594869</v>
       </c>
       <c r="G78" t="n">
-        <v>97411.4569121252</v>
+        <v>126082.3274233484</v>
       </c>
       <c r="H78" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I78" t="n">
-        <v>3397369</v>
+        <v>3454460</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101408940</v>
+        <v>104025891</v>
       </c>
       <c r="E79" t="n">
-        <v>107806868</v>
+        <v>110588923</v>
       </c>
       <c r="F79" t="n">
-        <v>2727.692561712134</v>
+        <v>3134.050544561954</v>
       </c>
       <c r="G79" t="n">
-        <v>4270.47020600578</v>
+        <v>4042.607166348599</v>
       </c>
       <c r="H79" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="I79" t="n">
-        <v>852783</v>
+        <v>1407153</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10377513</v>
+        <v>10395161</v>
       </c>
       <c r="E80" t="n">
-        <v>45084150</v>
+        <v>45163398</v>
       </c>
       <c r="F80" t="n">
-        <v>6720.866704612314</v>
+        <v>6259.388813794556</v>
       </c>
       <c r="G80" t="n">
-        <v>5209.258111013765</v>
+        <v>5728.068257335504</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>116407</v>
+        <v>111692</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15719253</v>
+        <v>15791371</v>
       </c>
       <c r="E81" t="n">
-        <v>96348469</v>
+        <v>96790504</v>
       </c>
       <c r="F81" t="n">
-        <v>4174.079288947391</v>
+        <v>4213.567459024936</v>
       </c>
       <c r="G81" t="n">
-        <v>6375.768167226206</v>
+        <v>6266.274056275368</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I81" t="n">
-        <v>10275112</v>
+        <v>10231430</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1509728</v>
+        <v>1504942</v>
       </c>
       <c r="E82" t="n">
-        <v>1552195</v>
+        <v>1547274</v>
       </c>
       <c r="F82" t="n">
-        <v>4330.18085371766</v>
+        <v>5883.960298625865</v>
       </c>
       <c r="G82" t="n">
-        <v>5963.035340495349</v>
+        <v>6370.622905397585</v>
       </c>
       <c r="H82" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I82" t="n">
-        <v>145907</v>
+        <v>145890</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>48092439</v>
+        <v>50053343</v>
       </c>
       <c r="E83" t="n">
-        <v>207176969</v>
+        <v>215624326</v>
       </c>
       <c r="F83" t="n">
-        <v>3476.313602261562</v>
+        <v>482.170699052667</v>
       </c>
       <c r="G83" t="n">
-        <v>4093.141156937225</v>
+        <v>2253.690443859078</v>
       </c>
       <c r="H83" t="n">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="I83" t="n">
-        <v>8825850</v>
+        <v>9792860</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1917275</v>
+        <v>1896965</v>
       </c>
       <c r="E84" t="n">
-        <v>6964592</v>
+        <v>6890815</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>141151</v>
+        <v>142237</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8770162</v>
+        <v>8922451</v>
       </c>
       <c r="E85" t="n">
-        <v>19474421</v>
+        <v>19808443</v>
       </c>
       <c r="F85" t="n">
-        <v>7532.647256142701</v>
+        <v>6056.395736794786</v>
       </c>
       <c r="G85" t="n">
-        <v>4950.278974951219</v>
+        <v>5737.416263217403</v>
       </c>
       <c r="H85" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I85" t="n">
-        <v>337883</v>
+        <v>336502</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2439863</v>
+        <v>2441792</v>
       </c>
       <c r="E86" t="n">
-        <v>18359417</v>
+        <v>18373859</v>
       </c>
       <c r="F86" t="n">
-        <v>5328.51753083443</v>
+        <v>6002.721676938956</v>
       </c>
       <c r="G86" t="n">
-        <v>11810.24475236766</v>
+        <v>11784.82412395297</v>
       </c>
       <c r="H86" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163718</v>
+        <v>163388</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21021209</v>
+        <v>20970058</v>
       </c>
       <c r="E87" t="n">
-        <v>84084834</v>
+        <v>83880234</v>
       </c>
       <c r="F87" t="n">
-        <v>17304.37591948165</v>
+        <v>15541.12075248527</v>
       </c>
       <c r="G87" t="n">
-        <v>1149.637834665099</v>
+        <v>246.2165759234955</v>
       </c>
       <c r="H87" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="I87" t="n">
-        <v>2939794</v>
+        <v>2375139</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4627952</v>
+        <v>4976306</v>
       </c>
       <c r="E88" t="n">
-        <v>4627952</v>
+        <v>4976306</v>
       </c>
       <c r="F88" t="n">
-        <v>372.7283221164132</v>
+        <v>769.0631068202324</v>
       </c>
       <c r="G88" t="n">
-        <v>54.15593848829153</v>
+        <v>837.0178775116428</v>
       </c>
       <c r="H88" t="n">
-        <v>3.08</v>
+        <v>0.54</v>
       </c>
       <c r="I88" t="n">
-        <v>2873181</v>
+        <v>3079041</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12755018</v>
+        <v>12757850</v>
       </c>
       <c r="E89" t="n">
-        <v>40352265</v>
+        <v>40361224</v>
       </c>
       <c r="F89" t="n">
-        <v>12449.32589811225</v>
+        <v>14740.6993914299</v>
       </c>
       <c r="G89" t="n">
-        <v>14062.73293462369</v>
+        <v>12404.42506019188</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>1040439</v>
+        <v>979161</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24611</v>
+        <v>24589</v>
       </c>
       <c r="E90" t="n">
-        <v>193560</v>
+        <v>193388</v>
       </c>
       <c r="F90" t="n">
-        <v>239.7986812638041</v>
+        <v>231.8373145297794</v>
       </c>
       <c r="G90" t="n">
-        <v>837.622721117593</v>
+        <v>514.3855986620536</v>
       </c>
       <c r="H90" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I90" t="n">
-        <v>78975</v>
+        <v>62350</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8409452</v>
+        <v>8456831</v>
       </c>
       <c r="E91" t="n">
-        <v>8409452</v>
+        <v>8456831</v>
       </c>
       <c r="F91" t="n">
-        <v>3073.221792810488</v>
+        <v>2857.404141502708</v>
       </c>
       <c r="G91" t="n">
-        <v>3305.890419446932</v>
+        <v>3838.544296323505</v>
       </c>
       <c r="H91" t="n">
         <v>0.47</v>
       </c>
       <c r="I91" t="n">
-        <v>3727428</v>
+        <v>3757352</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9312285</v>
+        <v>9105478</v>
       </c>
       <c r="E92" t="n">
-        <v>9312285</v>
+        <v>9105478</v>
       </c>
       <c r="F92" t="n">
-        <v>5100.460078304748</v>
+        <v>5828.607259593771</v>
       </c>
       <c r="G92" t="n">
-        <v>4640.23096283998</v>
+        <v>6506.68207997408</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="I92" t="n">
-        <v>2987035</v>
+        <v>2975927</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>38097833</v>
+        <v>37870193</v>
       </c>
       <c r="E93" t="n">
-        <v>96064444</v>
+        <v>95490445</v>
       </c>
       <c r="F93" t="n">
-        <v>5353.990950550578</v>
+        <v>4834.090694664135</v>
       </c>
       <c r="G93" t="n">
-        <v>6000.757353973673</v>
+        <v>5456.828383893121</v>
       </c>
       <c r="H93" t="n">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="I93" t="n">
-        <v>3426617</v>
+        <v>3419662</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>313638737</v>
+        <v>313904207</v>
       </c>
       <c r="E94" t="n">
-        <v>318534977</v>
+        <v>318801470</v>
       </c>
       <c r="F94" t="n">
-        <v>35666.34274713801</v>
+        <v>15455.25229447571</v>
       </c>
       <c r="G94" t="n">
-        <v>28589.86149819562</v>
+        <v>38597.53778200909</v>
       </c>
       <c r="H94" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I94" t="n">
-        <v>15479388</v>
+        <v>15754481</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3503.017255781348</v>
+        <v>6114.313941669</v>
       </c>
       <c r="G95" t="n">
-        <v>6411.00373112701</v>
+        <v>6324.238445588647</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>216589</v>
+        <v>217131</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>86452093</v>
+        <v>86025011</v>
       </c>
       <c r="E96" t="n">
-        <v>86452093</v>
+        <v>86025011</v>
       </c>
       <c r="F96" t="n">
-        <v>6948.40488836262</v>
+        <v>10280.24064364623</v>
       </c>
       <c r="G96" t="n">
-        <v>7773.490404768782</v>
+        <v>5645.479753523061</v>
       </c>
       <c r="H96" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="I96" t="n">
-        <v>4992712</v>
+        <v>4991933</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>297240779</v>
+        <v>300671910</v>
       </c>
       <c r="E97" t="n">
-        <v>297240779</v>
+        <v>300671910</v>
       </c>
       <c r="F97" t="n">
-        <v>329193.8783463998</v>
+        <v>352794.2079976689</v>
       </c>
       <c r="G97" t="n">
-        <v>375314.6980528977</v>
+        <v>425512.2621621111</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>76665535</v>
+        <v>80048245</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4230502</v>
+        <v>4221137</v>
       </c>
       <c r="E98" t="n">
-        <v>28906723</v>
+        <v>28842731</v>
       </c>
       <c r="F98" t="n">
-        <v>4731.673172088927</v>
+        <v>4636.565466510732</v>
       </c>
       <c r="G98" t="n">
-        <v>6932.669185432287</v>
+        <v>6459.98451360514</v>
       </c>
       <c r="H98" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>2645029</v>
+        <v>2645226</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91660065</v>
+        <v>91823400</v>
       </c>
       <c r="E99" t="n">
-        <v>528184830</v>
+        <v>529126033</v>
       </c>
       <c r="F99" t="n">
-        <v>122935.7255731552</v>
+        <v>153096.7172014094</v>
       </c>
       <c r="G99" t="n">
-        <v>146614.2162252316</v>
+        <v>156229.6139016998</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>17033003</v>
+        <v>17073505</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108862594</v>
+        <v>109456390</v>
       </c>
       <c r="E100" t="n">
-        <v>267844512</v>
+        <v>269305484</v>
       </c>
       <c r="F100" t="n">
-        <v>25842.44719924298</v>
+        <v>25250.89908672803</v>
       </c>
       <c r="G100" t="n">
-        <v>51203.82013555777</v>
+        <v>52720.91755772117</v>
       </c>
       <c r="H100" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2168485</v>
+        <v>2162511</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>251234969</v>
+        <v>250084436</v>
       </c>
       <c r="E101" t="n">
-        <v>251237465</v>
+        <v>250086921</v>
       </c>
       <c r="F101" t="n">
-        <v>43368.51380487902</v>
+        <v>25435.50053741448</v>
       </c>
       <c r="G101" t="n">
-        <v>11595.12340511613</v>
+        <v>18834.04979578606</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I101" t="n">
-        <v>2535014</v>
+        <v>2691334</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30894728</v>
+        <v>30961474</v>
       </c>
       <c r="E102" t="n">
-        <v>138328371</v>
+        <v>138627220</v>
       </c>
       <c r="F102" t="n">
-        <v>95299.43884007013</v>
+        <v>110069.8905372373</v>
       </c>
       <c r="G102" t="n">
-        <v>137325.1778328368</v>
+        <v>130786.1343568317</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>8591252</v>
+        <v>8594879</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3138230</v>
+        <v>3151269</v>
       </c>
       <c r="E103" t="n">
-        <v>3138230</v>
+        <v>3151269</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>415898</v>
+        <v>408350</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5834463</v>
+        <v>5789708</v>
       </c>
       <c r="E104" t="n">
-        <v>15312559</v>
+        <v>15195098</v>
       </c>
       <c r="F104" t="n">
-        <v>696.0245772300811</v>
+        <v>756.4918900153961</v>
       </c>
       <c r="G104" t="n">
-        <v>227.9546669188276</v>
+        <v>2509.841138763758</v>
       </c>
       <c r="H104" t="n">
-        <v>2.78</v>
+        <v>0.18</v>
       </c>
       <c r="I104" t="n">
-        <v>23662</v>
+        <v>25216</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16639978</v>
+        <v>16369000</v>
       </c>
       <c r="E105" t="n">
-        <v>76807771</v>
+        <v>75556979</v>
       </c>
       <c r="F105" t="n">
-        <v>52757.82147764992</v>
+        <v>47204.91251777953</v>
       </c>
       <c r="G105" t="n">
-        <v>20228.38440128438</v>
+        <v>79281.56403858017</v>
       </c>
       <c r="H105" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>985428</v>
+        <v>976519</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50274009</v>
+        <v>50896833</v>
       </c>
       <c r="E106" t="n">
-        <v>326013570</v>
+        <v>330052415</v>
       </c>
       <c r="F106" t="n">
-        <v>53328.69862165889</v>
+        <v>75808.84337862059</v>
       </c>
       <c r="G106" t="n">
-        <v>123035.5523113779</v>
+        <v>136406.2121877733</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16770155</v>
+        <v>16914862</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2420885</v>
+        <v>2400759</v>
       </c>
       <c r="E107" t="n">
-        <v>4385888</v>
+        <v>4349426</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>121566</v>
+        <v>120503</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125464248</v>
+        <v>125330846</v>
       </c>
       <c r="E108" t="n">
-        <v>2077790698</v>
+        <v>2075581459</v>
       </c>
       <c r="F108" t="n">
-        <v>226147.1867020804</v>
+        <v>399540.3472480446</v>
       </c>
       <c r="G108" t="n">
-        <v>97253.03262936842</v>
+        <v>199291.906047429</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4693113</v>
+        <v>4512652</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24675162</v>
+        <v>24711842</v>
       </c>
       <c r="E109" t="n">
-        <v>147636456</v>
+        <v>147855920</v>
       </c>
       <c r="F109" t="n">
-        <v>41833.47368721155</v>
+        <v>42198.02472821502</v>
       </c>
       <c r="G109" t="n">
-        <v>41040.86952993878</v>
+        <v>40104.93443158329</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I109" t="n">
-        <v>12486155</v>
+        <v>12459219</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1065439</v>
+        <v>1052134</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>68564</v>
+        <v>67397</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2278946</v>
+        <v>2239502</v>
       </c>
       <c r="F111" t="n">
-        <v>3934.75417537243</v>
+        <v>3771.816283997742</v>
       </c>
       <c r="G111" t="n">
-        <v>316.2938907414618</v>
+        <v>380.7307395437502</v>
       </c>
       <c r="H111" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I111" t="n">
-        <v>176827</v>
+        <v>177877</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142214887</v>
+        <v>147459960</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.490946293623</v>
+        <v>8539.978221755402</v>
       </c>
       <c r="G112" t="n">
-        <v>884.5016511824745</v>
+        <v>2930.577456848107</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>25105</v>
+        <v>25697</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6640547</v>
+        <v>6636342</v>
       </c>
       <c r="E113" t="n">
-        <v>34163595</v>
+        <v>34141963</v>
       </c>
       <c r="F113" t="n">
-        <v>1642.127283835694</v>
+        <v>1527.375222077586</v>
       </c>
       <c r="G113" t="n">
-        <v>2480.340740434882</v>
+        <v>747.1542667929996</v>
       </c>
       <c r="H113" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>880895</v>
+        <v>916649</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29191941</v>
+        <v>29121765</v>
       </c>
       <c r="E114" t="n">
-        <v>40027255</v>
+        <v>39931032</v>
       </c>
       <c r="F114" t="n">
-        <v>4425.088959657553</v>
+        <v>6453.248366283204</v>
       </c>
       <c r="G114" t="n">
-        <v>4827.051346301708</v>
+        <v>4882.977698218236</v>
       </c>
       <c r="H114" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="I114" t="n">
-        <v>206843</v>
+        <v>207382</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7993319</v>
+        <v>7992780</v>
       </c>
       <c r="F115" t="n">
-        <v>128.3992473539315</v>
+        <v>128.3935659600405</v>
       </c>
       <c r="G115" t="n">
-        <v>6753.58591853086</v>
+        <v>6769.622539136701</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>640882</v>
+        <v>655571</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3394393</v>
+        <v>3384855</v>
       </c>
       <c r="E116" t="n">
-        <v>4547004</v>
+        <v>4534227</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>150196</v>
+        <v>148801</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35064909</v>
+        <v>34825771</v>
       </c>
       <c r="E117" t="n">
-        <v>174990062</v>
+        <v>173796653</v>
       </c>
       <c r="F117" t="n">
-        <v>71261.36676033317</v>
+        <v>103723.7966288049</v>
       </c>
       <c r="G117" t="n">
-        <v>64804.26383835108</v>
+        <v>75716.32678772669</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>10458572</v>
+        <v>10626013</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3493833</v>
+        <v>3501609</v>
       </c>
       <c r="E118" t="n">
-        <v>5019074</v>
+        <v>5030126</v>
       </c>
       <c r="F118" t="n">
-        <v>564.313423459222</v>
+        <v>564.3217574082522</v>
       </c>
       <c r="G118" t="n">
-        <v>625.1017567500331</v>
+        <v>625.1109884393087</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>145292</v>
+        <v>142456</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>317253607</v>
+        <v>319443125</v>
       </c>
       <c r="E119" t="n">
-        <v>586991522</v>
+        <v>591042629</v>
       </c>
       <c r="F119" t="n">
-        <v>105889.2293695531</v>
+        <v>119822.3154226378</v>
       </c>
       <c r="G119" t="n">
-        <v>115628.6812706097</v>
+        <v>134851.4261888991</v>
       </c>
       <c r="H119" t="n">
         <v>0.19</v>
       </c>
       <c r="I119" t="n">
-        <v>13921757</v>
+        <v>14058571</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72307578</v>
+        <v>72149994</v>
       </c>
       <c r="E120" t="n">
-        <v>689779022</v>
+        <v>688259492</v>
       </c>
       <c r="F120" t="n">
-        <v>3287.316889694469</v>
+        <v>3548.552551021726</v>
       </c>
       <c r="G120" t="n">
-        <v>42659.26263387361</v>
+        <v>43986.56342276264</v>
       </c>
       <c r="H120" t="n">
         <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>22023905</v>
+        <v>22221977</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37931060</v>
+        <v>37965252</v>
       </c>
       <c r="E121" t="n">
-        <v>49591942</v>
+        <v>49636325</v>
       </c>
       <c r="F121" t="n">
-        <v>5619.534936974641</v>
+        <v>5606.540031431761</v>
       </c>
       <c r="G121" t="n">
-        <v>357.9652565140308</v>
+        <v>378.817921648418</v>
       </c>
       <c r="H121" t="n">
         <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>552265</v>
+        <v>283992</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11526351</v>
+        <v>11249705</v>
       </c>
       <c r="E122" t="n">
-        <v>34199446</v>
+        <v>33372601</v>
       </c>
       <c r="F122" t="n">
-        <v>655.3832246203913</v>
+        <v>3558.975887748762</v>
       </c>
       <c r="G122" t="n">
-        <v>6607.866664793662</v>
+        <v>7018.871224189999</v>
       </c>
       <c r="H122" t="n">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="I122" t="n">
-        <v>7263197</v>
+        <v>7379143</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2250649</v>
+        <v>2267967</v>
       </c>
       <c r="E123" t="n">
-        <v>7701383</v>
+        <v>7760643</v>
       </c>
       <c r="F123" t="n">
-        <v>865.4044974782724</v>
+        <v>1062.295683267976</v>
       </c>
       <c r="G123" t="n">
-        <v>1138.213156643459</v>
+        <v>1160.187273152862</v>
       </c>
       <c r="H123" t="n">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>963025</v>
+        <v>957706</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7368918</v>
+        <v>7358200</v>
       </c>
       <c r="E124" t="n">
-        <v>7368929</v>
+        <v>7358211</v>
       </c>
       <c r="F124" t="n">
-        <v>443.224487101168</v>
+        <v>436.6479081837981</v>
       </c>
       <c r="G124" t="n">
-        <v>595.5193617187826</v>
+        <v>964.0099216767184</v>
       </c>
       <c r="H124" t="n">
         <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>321319</v>
+        <v>321830</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6506934</v>
+        <v>6559268</v>
       </c>
       <c r="E125" t="n">
-        <v>6506934</v>
+        <v>6559268</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>515556</v>
+        <v>499168</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6227701</v>
+        <v>6246646</v>
       </c>
       <c r="E126" t="n">
-        <v>22747380</v>
+        <v>22816579</v>
       </c>
       <c r="F126" t="n">
-        <v>7103.335779693663</v>
+        <v>7110.047281211444</v>
       </c>
       <c r="G126" t="n">
-        <v>7702.533858877006</v>
+        <v>7860.35464780005</v>
       </c>
       <c r="H126" t="n">
-        <v>1.32</v>
+        <v>0.88</v>
       </c>
       <c r="I126" t="n">
-        <v>503350</v>
+        <v>504112</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44896272</v>
+        <v>45145514</v>
       </c>
       <c r="E127" t="n">
-        <v>44896272</v>
+        <v>45145514</v>
       </c>
       <c r="F127" t="n">
-        <v>61649.99240022759</v>
+        <v>49252.84119897649</v>
       </c>
       <c r="G127" t="n">
-        <v>76804.3283960721</v>
+        <v>89688.30476462077</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7513472</v>
+        <v>8521135</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>152504264</v>
+        <v>150798603</v>
       </c>
       <c r="F128" t="n">
-        <v>1275.725491918397</v>
+        <v>985.4337198325122</v>
       </c>
       <c r="G128" t="n">
-        <v>388.3137182421867</v>
+        <v>520.6839847132698</v>
       </c>
       <c r="H128" t="n">
-        <v>0.98</v>
+        <v>1.31</v>
       </c>
       <c r="I128" t="n">
-        <v>426962</v>
+        <v>1421195</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2986132</v>
+        <v>2995703</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>70347</v>
+        <v>71237</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20292174</v>
+        <v>20226956</v>
       </c>
       <c r="F130" t="n">
-        <v>549.0233373784311</v>
+        <v>439.7612841467551</v>
       </c>
       <c r="G130" t="n">
-        <v>493.4681028162861</v>
+        <v>517.1604754163023</v>
       </c>
       <c r="H130" t="n">
-        <v>1.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I130" t="n">
-        <v>2978624</v>
+        <v>2972262</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1257869</v>
+        <v>1262497</v>
       </c>
       <c r="E131" t="n">
-        <v>3801032</v>
+        <v>3814229</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>801.2312568262736</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>794.8393983137748</v>
       </c>
       <c r="H131" t="n">
-        <v>8.08</v>
+        <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>12850.8</v>
+        <v>14527.33</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>609620370</v>
+        <v>617799656</v>
       </c>
       <c r="E132" t="n">
-        <v>2360969751</v>
+        <v>2392646920</v>
       </c>
       <c r="F132" t="n">
-        <v>816396.5385983231</v>
+        <v>779010.4470089073</v>
       </c>
       <c r="G132" t="n">
-        <v>1092065.338313281</v>
+        <v>1074206.142895575</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32718709</v>
+        <v>33374972</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3706641</v>
+        <v>3709202</v>
       </c>
       <c r="E133" t="n">
-        <v>6318472</v>
+        <v>6322839</v>
       </c>
       <c r="F133" t="n">
-        <v>5415.690216552995</v>
+        <v>5385.224232351965</v>
       </c>
       <c r="G133" t="n">
-        <v>5389.626072687377</v>
+        <v>5424.664185426129</v>
       </c>
       <c r="H133" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="I133" t="n">
-        <v>1173721</v>
+        <v>1117410</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>123145155</v>
+        <v>115076250</v>
       </c>
       <c r="E134" t="n">
-        <v>1070671433</v>
+        <v>1069206568</v>
       </c>
       <c r="F134" t="n">
-        <v>91312.38673610782</v>
+        <v>118950.3203845036</v>
       </c>
       <c r="G134" t="n">
-        <v>123658.4734400758</v>
+        <v>128545.3306057207</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I134" t="n">
-        <v>9267843</v>
+        <v>9127864</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>982741194</v>
+        <v>964566970</v>
       </c>
       <c r="E135" t="n">
-        <v>1079543896</v>
+        <v>1059579460</v>
       </c>
       <c r="F135" t="n">
-        <v>7884.390400140397</v>
+        <v>9271.227707105747</v>
       </c>
       <c r="G135" t="n">
-        <v>17285.74845801985</v>
+        <v>21872.94323936046</v>
       </c>
       <c r="H135" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="I135" t="n">
-        <v>10479788</v>
+        <v>10143123</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1137420</v>
+        <v>1136034</v>
       </c>
       <c r="E136" t="n">
-        <v>4404340</v>
+        <v>4398970</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>368495</v>
+        <v>360750</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122910131</v>
+        <v>124912453</v>
       </c>
       <c r="E137" t="n">
-        <v>471503045</v>
+        <v>479184276</v>
       </c>
       <c r="F137" t="n">
-        <v>133975.9000647614</v>
+        <v>115771.20061834</v>
       </c>
       <c r="G137" t="n">
-        <v>229545.3386814801</v>
+        <v>214759.5590433292</v>
       </c>
       <c r="H137" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I137" t="n">
-        <v>30607111</v>
+        <v>31655843</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3197754</v>
+        <v>3218359</v>
       </c>
       <c r="E138" t="n">
-        <v>30299193</v>
+        <v>30494431</v>
       </c>
       <c r="F138" t="n">
-        <v>2833.908594098933</v>
+        <v>4552.409189425228</v>
       </c>
       <c r="G138" t="n">
-        <v>5056.281286336657</v>
+        <v>4841.236862647298</v>
       </c>
       <c r="H138" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="I138" t="n">
-        <v>213318</v>
+        <v>221921</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21742929</v>
+        <v>21097744</v>
       </c>
       <c r="E139" t="n">
-        <v>21742929</v>
+        <v>21097744</v>
       </c>
       <c r="F139" t="n">
-        <v>899.5021389789355</v>
+        <v>10582.82574768021</v>
       </c>
       <c r="G139" t="n">
-        <v>3945.123861639028</v>
+        <v>4928.109074338224</v>
       </c>
       <c r="H139" t="n">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
       <c r="I139" t="n">
-        <v>662708</v>
+        <v>692714</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494063486</v>
+        <v>494822372</v>
       </c>
       <c r="E140" t="n">
-        <v>494063486</v>
+        <v>494822372</v>
       </c>
       <c r="F140" t="n">
-        <v>952143.776296013</v>
+        <v>759611.7774550536</v>
       </c>
       <c r="G140" t="n">
-        <v>1010732.067395512</v>
+        <v>819215.5416701228</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>32663713</v>
+        <v>33016784</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>32095267</v>
+        <v>32484968</v>
       </c>
       <c r="F141" t="n">
-        <v>48107.95695478701</v>
+        <v>71815.40010961743</v>
       </c>
       <c r="G141" t="n">
-        <v>65532.94721906594</v>
+        <v>57493.8644407537</v>
       </c>
       <c r="H141" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I141" t="n">
-        <v>5404250</v>
+        <v>5579835</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>758871</v>
+        <v>737711</v>
       </c>
       <c r="E142" t="n">
-        <v>12103724</v>
+        <v>11766220</v>
       </c>
       <c r="F142" t="n">
-        <v>76.88341896636237</v>
+        <v>98.34340034652389</v>
       </c>
       <c r="G142" t="n">
-        <v>31.29969763447435</v>
+        <v>895.9685470729306</v>
       </c>
       <c r="H142" t="n">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="I142" t="n">
-        <v>268169</v>
+        <v>270470</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2646781367</v>
+        <v>2668967925</v>
       </c>
       <c r="E143" t="n">
-        <v>2810193111</v>
+        <v>2833749462</v>
       </c>
       <c r="F143" t="n">
-        <v>3412.666655032139</v>
+        <v>748.9111867638521</v>
       </c>
       <c r="G143" t="n">
-        <v>24166.76319340035</v>
+        <v>17191.34423409366</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I143" t="n">
-        <v>34974904</v>
+        <v>38051066</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1725303</v>
+        <v>1732242</v>
       </c>
       <c r="E144" t="n">
-        <v>1731393</v>
+        <v>1738356</v>
       </c>
       <c r="F144" t="n">
-        <v>701.8676228314597</v>
+        <v>747.7543285450604</v>
       </c>
       <c r="G144" t="n">
-        <v>508.8113305583221</v>
+        <v>626.7195690834274</v>
       </c>
       <c r="H144" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I144" t="n">
-        <v>432304</v>
+        <v>440465</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61248439</v>
+        <v>61544097</v>
       </c>
       <c r="E145" t="n">
-        <v>150238271</v>
+        <v>150963499</v>
       </c>
       <c r="F145" t="n">
-        <v>3439.250694230579</v>
+        <v>3343.940215089608</v>
       </c>
       <c r="G145" t="n">
-        <v>5187.683169455659</v>
+        <v>5189.836087020284</v>
       </c>
       <c r="H145" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I145" t="n">
-        <v>22406705</v>
+        <v>22501384</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>764336019</v>
+        <v>804425473</v>
       </c>
       <c r="E146" t="n">
-        <v>1178673625</v>
+        <v>1240495104</v>
       </c>
       <c r="F146" t="n">
-        <v>153457.1932177513</v>
+        <v>134299.4352530068</v>
       </c>
       <c r="G146" t="n">
-        <v>166060.2257734156</v>
+        <v>147477.2666348043</v>
       </c>
       <c r="H146" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>222959175</v>
+        <v>248395805</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23489271</v>
+        <v>23670311</v>
       </c>
       <c r="E147" t="n">
-        <v>23489271</v>
+        <v>23670311</v>
       </c>
       <c r="F147" t="n">
-        <v>4562.610889090886</v>
+        <v>5291.383841283819</v>
       </c>
       <c r="G147" t="n">
-        <v>6823.415177886154</v>
+        <v>8354.237053775143</v>
       </c>
       <c r="H147" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I147" t="n">
-        <v>5672205</v>
+        <v>5753669</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3847592</v>
+        <v>3809464</v>
       </c>
       <c r="E148" t="n">
-        <v>8395395</v>
+        <v>8312200</v>
       </c>
       <c r="F148" t="n">
-        <v>5569.265684654018</v>
+        <v>5569.416020771886</v>
       </c>
       <c r="G148" t="n">
-        <v>6007.550362202696</v>
+        <v>5843.016394039009</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>1669850</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9251791</v>
+        <v>9254400</v>
       </c>
       <c r="E149" t="n">
-        <v>9251791</v>
+        <v>9254400</v>
       </c>
       <c r="F149" t="n">
-        <v>367564.6619377953</v>
+        <v>330900.3169015861</v>
       </c>
       <c r="G149" t="n">
-        <v>660946.9079611516</v>
+        <v>667301.3813247785</v>
       </c>
       <c r="H149" t="n">
         <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>2854736</v>
+        <v>2427325</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>498022145</v>
+        <v>499904286</v>
       </c>
       <c r="E150" t="n">
-        <v>1733573641</v>
+        <v>1740125215</v>
       </c>
       <c r="F150" t="n">
-        <v>816677.4549442501</v>
+        <v>791241.8908768796</v>
       </c>
       <c r="G150" t="n">
-        <v>850579.3141551095</v>
+        <v>907915.8543754545</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I150" t="n">
-        <v>30657749</v>
+        <v>31609541</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48790926</v>
+        <v>48849745</v>
       </c>
       <c r="E151" t="n">
-        <v>120134838</v>
+        <v>120279669</v>
       </c>
       <c r="F151" t="n">
-        <v>8549.063275277926</v>
+        <v>8294.705559634047</v>
       </c>
       <c r="G151" t="n">
-        <v>8099.50909569488</v>
+        <v>7697.068724200979</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>24053</v>
+        <v>24674</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7493542</v>
+        <v>7475001</v>
       </c>
       <c r="E152" t="n">
-        <v>19467417</v>
+        <v>19419248</v>
       </c>
       <c r="F152" t="n">
-        <v>6137.072419824046</v>
+        <v>3435.809950323789</v>
       </c>
       <c r="G152" t="n">
-        <v>7081.220602570022</v>
+        <v>10333.76700850121</v>
       </c>
       <c r="H152" t="n">
-        <v>1.53</v>
+        <v>0.52</v>
       </c>
       <c r="I152" t="n">
-        <v>716697</v>
+        <v>717079</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19188362787</v>
+        <v>19191110192</v>
       </c>
       <c r="F153" t="n">
-        <v>52371.75662875156</v>
+        <v>52439.16253616442</v>
       </c>
       <c r="G153" t="n">
-        <v>49987.01261563658</v>
+        <v>49986.42310979364</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>46528055</v>
+        <v>46104244</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2636303</v>
+        <v>2626705</v>
       </c>
       <c r="E154" t="n">
-        <v>10545214</v>
+        <v>10506818</v>
       </c>
       <c r="F154" t="n">
-        <v>31775.42643366836</v>
+        <v>23117.04403864664</v>
       </c>
       <c r="G154" t="n">
-        <v>5043.53623581615</v>
+        <v>4230.3960947393</v>
       </c>
       <c r="H154" t="n">
         <v>0.66</v>
       </c>
       <c r="I154" t="n">
-        <v>6860219</v>
+        <v>6890832</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227635638</v>
+        <v>229316700</v>
       </c>
       <c r="E155" t="n">
-        <v>699893922</v>
+        <v>705062555</v>
       </c>
       <c r="F155" t="n">
-        <v>134238.2345205686</v>
+        <v>91055.27617588933</v>
       </c>
       <c r="G155" t="n">
-        <v>169093.6292077943</v>
+        <v>199938.9464084237</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>15227839</v>
+        <v>16132982</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>404862593</v>
+        <v>404437044</v>
       </c>
       <c r="E156" t="n">
-        <v>2313500532</v>
+        <v>2311068823</v>
       </c>
       <c r="F156" t="n">
-        <v>220991.6894625808</v>
+        <v>162677.4195749188</v>
       </c>
       <c r="G156" t="n">
-        <v>235491.8977051393</v>
+        <v>281479.6250879018</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>39252199</v>
+        <v>39620521</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4144395</v>
+        <v>4129456</v>
       </c>
       <c r="F2" t="n">
-        <v>1809.530360585285</v>
+        <v>1563.69005860639</v>
       </c>
       <c r="G2" t="n">
-        <v>481.600837533496</v>
+        <v>797.5184252481594</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>143551</v>
+        <v>147236</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>608544942</v>
+        <v>615731752</v>
       </c>
       <c r="E3" t="n">
-        <v>1180854083</v>
+        <v>1194800022</v>
       </c>
       <c r="F3" t="n">
-        <v>63864.40035640633</v>
+        <v>68169.16159797036</v>
       </c>
       <c r="G3" t="n">
-        <v>88623.43087252333</v>
+        <v>78410.59065929198</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>18972364</v>
+        <v>20023824</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248159727</v>
+        <v>249953270</v>
       </c>
       <c r="E4" t="n">
-        <v>1556174769</v>
+        <v>1567421821</v>
       </c>
       <c r="F4" t="n">
-        <v>334237.9173629329</v>
+        <v>318723.501449109</v>
       </c>
       <c r="G4" t="n">
-        <v>252342.498786752</v>
+        <v>263827.8213794433</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>17518614</v>
+        <v>17162583</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148007181</v>
+        <v>149214893</v>
       </c>
       <c r="E5" t="n">
-        <v>164015087</v>
+        <v>165353421</v>
       </c>
       <c r="F5" t="n">
-        <v>8903.031327973797</v>
+        <v>8764.755264825737</v>
       </c>
       <c r="G5" t="n">
-        <v>8051.906091886834</v>
+        <v>1221.82248604184</v>
       </c>
       <c r="H5" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I5" t="n">
-        <v>38008700</v>
+        <v>38150935</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49266315</v>
+        <v>49418014</v>
       </c>
       <c r="E6" t="n">
-        <v>61630896</v>
+        <v>61820669</v>
       </c>
       <c r="F6" t="n">
-        <v>4112.779600980388</v>
+        <v>4036.851616793826</v>
       </c>
       <c r="G6" t="n">
-        <v>7332.091160465524</v>
+        <v>5768.423061402761</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>591879</v>
+        <v>649740</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68967473</v>
+        <v>69029284</v>
       </c>
       <c r="E7" t="n">
-        <v>137359865</v>
+        <v>137482973</v>
       </c>
       <c r="F7" t="n">
-        <v>9594.940005018492</v>
+        <v>9413.148192459297</v>
       </c>
       <c r="G7" t="n">
-        <v>13339.14977033822</v>
+        <v>12752.2299986797</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1035001</v>
+        <v>1001692</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40919792</v>
+        <v>41066588</v>
       </c>
       <c r="E8" t="n">
-        <v>45795142</v>
+        <v>45959427</v>
       </c>
       <c r="F8" t="n">
-        <v>7626.166854844588</v>
+        <v>6670.667001567087</v>
       </c>
       <c r="G8" t="n">
-        <v>6523.588169857632</v>
+        <v>6714.122451983035</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3612812</v>
+        <v>3629305</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14118707</v>
+        <v>14139474</v>
       </c>
       <c r="E9" t="n">
-        <v>41606917</v>
+        <v>41668117</v>
       </c>
       <c r="F9" t="n">
-        <v>5274.208985201979</v>
+        <v>5023.102947518038</v>
       </c>
       <c r="G9" t="n">
-        <v>4690.539406926105</v>
+        <v>4462.867136093659</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>894314</v>
+        <v>896331</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10751386</v>
+        <v>10446110</v>
       </c>
       <c r="E10" t="n">
-        <v>46212065</v>
+        <v>44899255</v>
       </c>
       <c r="F10" t="n">
-        <v>5266.76592092273</v>
+        <v>3030.566127634407</v>
       </c>
       <c r="G10" t="n">
-        <v>1315.001193433879</v>
+        <v>5662.288041205718</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="I10" t="n">
-        <v>782947</v>
+        <v>847615</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>582287512</v>
+        <v>586732061</v>
       </c>
       <c r="E11" t="n">
-        <v>728355134</v>
+        <v>733914604</v>
       </c>
       <c r="F11" t="n">
-        <v>270301.2340898486</v>
+        <v>320474.7547363115</v>
       </c>
       <c r="G11" t="n">
-        <v>275474.5049908271</v>
+        <v>327507.1023321063</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>55149109</v>
+        <v>55362516</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4559286</v>
+        <v>4576513</v>
       </c>
       <c r="E12" t="n">
-        <v>28004437</v>
+        <v>28107371</v>
       </c>
       <c r="F12" t="n">
-        <v>2071.407593122078</v>
+        <v>12069.38167644907</v>
       </c>
       <c r="G12" t="n">
-        <v>3937.515389097167</v>
+        <v>9112.05248042468</v>
       </c>
       <c r="H12" t="n">
         <v>0.36</v>
       </c>
       <c r="I12" t="n">
-        <v>664965</v>
+        <v>671672</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23176175</v>
+        <v>23193486</v>
       </c>
       <c r="E13" t="n">
-        <v>23219207</v>
+        <v>23236550</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>843085</v>
+        <v>835928</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81629864</v>
+        <v>81994134</v>
       </c>
       <c r="E14" t="n">
-        <v>240165185</v>
+        <v>241236911</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>339537</v>
+        <v>339129</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>477067537</v>
+        <v>485560161</v>
       </c>
       <c r="E15" t="n">
-        <v>477067542</v>
+        <v>485560167</v>
       </c>
       <c r="F15" t="n">
-        <v>19144.91230801391</v>
+        <v>14731.18294487739</v>
       </c>
       <c r="G15" t="n">
-        <v>19231.8139385937</v>
+        <v>18939.41393892501</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>65367343</v>
+        <v>64902795</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4755173</v>
+        <v>4738644</v>
       </c>
       <c r="E16" t="n">
-        <v>4755173</v>
+        <v>4738644</v>
       </c>
       <c r="F16" t="n">
-        <v>158.3628127773101</v>
+        <v>6516.964857863753</v>
       </c>
       <c r="G16" t="n">
-        <v>7341.635884364311</v>
+        <v>6388.377211088414</v>
       </c>
       <c r="H16" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>1917398</v>
+        <v>1999213</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3415677</v>
+        <v>3413080</v>
       </c>
       <c r="E17" t="n">
-        <v>3415677</v>
+        <v>3413080</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>510919</v>
+        <v>511092</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>171834865</v>
+        <v>172175122</v>
       </c>
       <c r="E18" t="n">
-        <v>212738718</v>
+        <v>213159970</v>
       </c>
       <c r="F18" t="n">
-        <v>12049.28512882466</v>
+        <v>12212.50612877271</v>
       </c>
       <c r="G18" t="n">
-        <v>5123.644257960119</v>
+        <v>4453.67325325479</v>
       </c>
       <c r="H18" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>562855</v>
+        <v>582979</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6814988</v>
+        <v>6827963</v>
       </c>
       <c r="E19" t="n">
-        <v>9385980</v>
+        <v>9403849</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>413882</v>
+        <v>379903</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897319</v>
+        <v>905329</v>
       </c>
       <c r="E20" t="n">
-        <v>6281234</v>
+        <v>6337304</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>246669</v>
+        <v>223828</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116401282</v>
+        <v>116701377</v>
       </c>
       <c r="E21" t="n">
-        <v>452811162</v>
+        <v>453961675</v>
       </c>
       <c r="F21" t="n">
-        <v>57244.80409778548</v>
+        <v>57482.23839962625</v>
       </c>
       <c r="G21" t="n">
-        <v>90718.74230678027</v>
+        <v>94763.97468490034</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>9419863</v>
+        <v>9290368</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1687701</v>
+        <v>1688655</v>
       </c>
       <c r="E22" t="n">
-        <v>12156368</v>
+        <v>12163241</v>
       </c>
       <c r="F22" t="n">
-        <v>5890.180884104848</v>
+        <v>4906.004742356877</v>
       </c>
       <c r="G22" t="n">
-        <v>4461.148844229674</v>
+        <v>4416.065535590657</v>
       </c>
       <c r="H22" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>38218</v>
+        <v>38088</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>141237115</v>
+        <v>143147077</v>
       </c>
       <c r="E23" t="n">
-        <v>141237115</v>
+        <v>143147077</v>
       </c>
       <c r="F23" t="n">
-        <v>918718.8571420679</v>
+        <v>1040232.758886913</v>
       </c>
       <c r="G23" t="n">
-        <v>1458413.409340173</v>
+        <v>1394470.455079441</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>69646591</v>
+        <v>69649844</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67768648</v>
+        <v>68193265</v>
       </c>
       <c r="E24" t="n">
-        <v>347531526</v>
+        <v>349709049</v>
       </c>
       <c r="F24" t="n">
-        <v>78735.41699084202</v>
+        <v>59371.775751546</v>
       </c>
       <c r="G24" t="n">
-        <v>145629.0924177238</v>
+        <v>154187.5735886147</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>24230246</v>
+        <v>24731936</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>260704132</v>
+        <v>264115624</v>
       </c>
       <c r="E25" t="n">
-        <v>260704132</v>
+        <v>264115624</v>
       </c>
       <c r="F25" t="n">
-        <v>360493.1136598958</v>
+        <v>352368.5013652073</v>
       </c>
       <c r="G25" t="n">
-        <v>502794.6856060063</v>
+        <v>480897.7601272692</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>14775371</v>
+        <v>15032863</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1123443</v>
+        <v>1126747</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>174908</v>
+        <v>172851</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4029239</v>
+        <v>4031676</v>
       </c>
       <c r="E28" t="n">
-        <v>4030335</v>
+        <v>4032827</v>
       </c>
       <c r="F28" t="n">
-        <v>957.6788486652764</v>
+        <v>1003.482145767953</v>
       </c>
       <c r="G28" t="n">
-        <v>3399.997346661556</v>
+        <v>3639.849383387095</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="I28" t="n">
-        <v>258792</v>
+        <v>257877</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6578614</v>
+        <v>6656472</v>
       </c>
       <c r="E29" t="n">
-        <v>15978947</v>
+        <v>16168058</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>481241</v>
+        <v>486428</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99792126</v>
+        <v>100610613</v>
       </c>
       <c r="E30" t="n">
-        <v>124429083</v>
+        <v>125449641</v>
       </c>
       <c r="F30" t="n">
-        <v>124517.6744930592</v>
+        <v>105603.9990443917</v>
       </c>
       <c r="G30" t="n">
-        <v>108360.7944589649</v>
+        <v>103740.3356460758</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10120026</v>
+        <v>10178011</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1128317</v>
+        <v>1133564</v>
       </c>
       <c r="E31" t="n">
-        <v>12262125</v>
+        <v>12319154</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31148</v>
+        <v>32171</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>83401487</v>
+        <v>84429912</v>
       </c>
       <c r="E32" t="n">
-        <v>233311748</v>
+        <v>236249184</v>
       </c>
       <c r="F32" t="n">
-        <v>64780.6211209816</v>
+        <v>56749.79948842104</v>
       </c>
       <c r="G32" t="n">
-        <v>70909.80325208155</v>
+        <v>78970.11518009918</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>47312931</v>
+        <v>44195681</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4125749</v>
+        <v>4127721</v>
       </c>
       <c r="E33" t="n">
-        <v>8136325</v>
+        <v>8140213</v>
       </c>
       <c r="F33" t="n">
-        <v>7435.334412974985</v>
+        <v>10175.39629873742</v>
       </c>
       <c r="G33" t="n">
-        <v>8083.645815023609</v>
+        <v>7284.4312500223</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1645708</v>
+        <v>1567877</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35723358</v>
+        <v>35738332</v>
       </c>
       <c r="F34" t="n">
-        <v>315.415027602516</v>
+        <v>311.1224925150731</v>
       </c>
       <c r="G34" t="n">
-        <v>106.5368783686722</v>
+        <v>70.94337891931725</v>
       </c>
       <c r="H34" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>71197</v>
+        <v>69585</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7691354</v>
+        <v>7694244</v>
       </c>
       <c r="E35" t="n">
-        <v>18114669</v>
+        <v>18121474</v>
       </c>
       <c r="F35" t="n">
-        <v>3445.734022149107</v>
+        <v>3451.626116406117</v>
       </c>
       <c r="G35" t="n">
-        <v>2674.607865544805</v>
+        <v>2575.807258033541</v>
       </c>
       <c r="H35" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="I35" t="n">
-        <v>31564</v>
+        <v>33082</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23029911</v>
+        <v>23082174</v>
       </c>
       <c r="F36" t="n">
-        <v>5182.490027299288</v>
+        <v>5087.438076369491</v>
       </c>
       <c r="G36" t="n">
-        <v>5238.212072983073</v>
+        <v>5557.062599979521</v>
       </c>
       <c r="H36" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="I36" t="n">
-        <v>128870</v>
+        <v>129347</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>78324790</v>
+        <v>79258660</v>
       </c>
       <c r="E37" t="n">
-        <v>163346963</v>
+        <v>165294554</v>
       </c>
       <c r="F37" t="n">
-        <v>69887.43846873325</v>
+        <v>72808.17365014266</v>
       </c>
       <c r="G37" t="n">
-        <v>135374.0662210492</v>
+        <v>120123.1686227391</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>18468179</v>
+        <v>19099430</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>275405843</v>
+        <v>277452336</v>
       </c>
       <c r="E38" t="n">
-        <v>275405843</v>
+        <v>277452336</v>
       </c>
       <c r="F38" t="n">
-        <v>44315.92577968687</v>
+        <v>39661.89616295022</v>
       </c>
       <c r="G38" t="n">
-        <v>25808.96711205464</v>
+        <v>22452.0914770641</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>9544937</v>
+        <v>9470483</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>208697473</v>
+        <v>209169756</v>
       </c>
       <c r="E39" t="n">
-        <v>725033883</v>
+        <v>726674638</v>
       </c>
       <c r="F39" t="n">
-        <v>141224.0587740787</v>
+        <v>135012.1994922801</v>
       </c>
       <c r="G39" t="n">
-        <v>384929.4314311515</v>
+        <v>221492.2181922646</v>
       </c>
       <c r="H39" t="n">
         <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>29198175</v>
+        <v>29676087</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3552472</v>
+        <v>3415009</v>
       </c>
       <c r="E40" t="n">
-        <v>3552472</v>
+        <v>3415009</v>
       </c>
       <c r="F40" t="n">
-        <v>960.3372618826842</v>
+        <v>6645.969513412625</v>
       </c>
       <c r="G40" t="n">
-        <v>1322.795713688854</v>
+        <v>6933.298009724612</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.65</v>
       </c>
       <c r="I40" t="n">
-        <v>2540825</v>
+        <v>2507136</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116597023</v>
+        <v>117863512</v>
       </c>
       <c r="E41" t="n">
-        <v>495257296</v>
+        <v>500601973</v>
       </c>
       <c r="F41" t="n">
-        <v>5440.980494254688</v>
+        <v>5594.750410610434</v>
       </c>
       <c r="G41" t="n">
-        <v>6453.891182268511</v>
+        <v>6278.078467487931</v>
       </c>
       <c r="H41" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I41" t="n">
-        <v>15570574</v>
+        <v>15803669</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>569551</v>
+        <v>572624</v>
       </c>
       <c r="E42" t="n">
-        <v>6908096</v>
+        <v>6945375</v>
       </c>
       <c r="F42" t="n">
-        <v>720.9865473579075</v>
+        <v>761.827999973863</v>
       </c>
       <c r="G42" t="n">
-        <v>1047.341893427534</v>
+        <v>1128.397575952633</v>
       </c>
       <c r="H42" t="n">
         <v>0.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2811460</v>
+        <v>2807606</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1300347966</v>
+        <v>1314825484</v>
       </c>
       <c r="E43" t="n">
-        <v>6235434803</v>
+        <v>6304857466</v>
       </c>
       <c r="F43" t="n">
-        <v>73133.24601799547</v>
+        <v>41977.9093100141</v>
       </c>
       <c r="G43" t="n">
-        <v>93677.0213865386</v>
+        <v>80848.10902538328</v>
       </c>
       <c r="H43" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
-        <v>165713790</v>
+        <v>168990334</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6051204641</v>
+        <v>6054022591</v>
       </c>
       <c r="E44" t="n">
-        <v>6051204641</v>
+        <v>6054022591</v>
       </c>
       <c r="F44" t="n">
-        <v>4380160.780754738</v>
+        <v>17185.87928144234</v>
       </c>
       <c r="G44" t="n">
-        <v>4081635.231987371</v>
+        <v>15575.23503685093</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I44" t="n">
-        <v>87156234</v>
+        <v>87351490</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>271729384</v>
+        <v>274996094</v>
       </c>
       <c r="E45" t="n">
-        <v>1172934869</v>
+        <v>1187035805</v>
       </c>
       <c r="F45" t="n">
-        <v>109459.1382756094</v>
+        <v>111386.1585946993</v>
       </c>
       <c r="G45" t="n">
-        <v>90020.10523276113</v>
+        <v>97880.90910907148</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I45" t="n">
-        <v>100036989</v>
+        <v>101791521</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115318854</v>
+        <v>115415895</v>
       </c>
       <c r="E46" t="n">
-        <v>115318854</v>
+        <v>115415895</v>
       </c>
       <c r="F46" t="n">
-        <v>42228.19866685696</v>
+        <v>38417.27087650367</v>
       </c>
       <c r="G46" t="n">
-        <v>43611.68754684441</v>
+        <v>41068.85756905864</v>
       </c>
       <c r="H46" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>6139112</v>
+        <v>6154702</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042215774</v>
+        <v>2045075862</v>
       </c>
       <c r="E47" t="n">
-        <v>2042215774</v>
+        <v>2045075862</v>
       </c>
       <c r="F47" t="n">
-        <v>225764.4992827574</v>
+        <v>225761.0760916169</v>
       </c>
       <c r="G47" t="n">
-        <v>199159.9696562661</v>
+        <v>199223.2856842786</v>
       </c>
       <c r="H47" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>6947525377</v>
+        <v>7018925109</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9874347</v>
+        <v>10194640</v>
       </c>
       <c r="F48" t="n">
-        <v>6727.565246034153</v>
+        <v>7403.19917920079</v>
       </c>
       <c r="G48" t="n">
-        <v>5965.867283226732</v>
+        <v>6144.001731489374</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>117843</v>
+        <v>130728</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4438575</v>
+        <v>4438505</v>
       </c>
       <c r="E49" t="n">
-        <v>5827271</v>
+        <v>5827178</v>
       </c>
       <c r="F49" t="n">
-        <v>12464.71932861075</v>
+        <v>13808.94004653298</v>
       </c>
       <c r="G49" t="n">
-        <v>16357.91931806116</v>
+        <v>16357.11852688598</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>624215</v>
+        <v>616031</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12459445</v>
+        <v>12508252</v>
       </c>
       <c r="E50" t="n">
-        <v>18321379</v>
+        <v>18393149</v>
       </c>
       <c r="F50" t="n">
-        <v>5886.659568151402</v>
+        <v>7176.938908518604</v>
       </c>
       <c r="G50" t="n">
-        <v>4750.975569762424</v>
+        <v>6801.806368550508</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I50" t="n">
-        <v>3253428</v>
+        <v>3363503</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23016626</v>
+        <v>23031907</v>
       </c>
       <c r="E51" t="n">
-        <v>29857829</v>
+        <v>29877652</v>
       </c>
       <c r="F51" t="n">
-        <v>12915.91042313056</v>
+        <v>13335.44481936961</v>
       </c>
       <c r="G51" t="n">
-        <v>11902.75066175103</v>
+        <v>11873.31761497053</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>164668</v>
+        <v>174755</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13880047</v>
+        <v>13896162</v>
       </c>
       <c r="E52" t="n">
-        <v>13880047</v>
+        <v>13896162</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4882166</v>
+        <v>4891114</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98760126</v>
+        <v>99116075</v>
       </c>
       <c r="E53" t="n">
-        <v>122162741</v>
+        <v>122603037</v>
       </c>
       <c r="F53" t="n">
-        <v>472.9176397701404</v>
+        <v>508.7773540718127</v>
       </c>
       <c r="G53" t="n">
-        <v>3864.667133282807</v>
+        <v>4066.638143459236</v>
       </c>
       <c r="H53" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>847085</v>
+        <v>861566</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5163799</v>
+        <v>5180940</v>
       </c>
       <c r="E54" t="n">
-        <v>7224903</v>
+        <v>7248886</v>
       </c>
       <c r="F54" t="n">
-        <v>6.304180188862145</v>
+        <v>452.4890376856185</v>
       </c>
       <c r="G54" t="n">
-        <v>19.67130287266791</v>
+        <v>349.5449564813244</v>
       </c>
       <c r="H54" t="n">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="I54" t="n">
-        <v>91817</v>
+        <v>88920</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14899706</v>
+        <v>15261488</v>
       </c>
       <c r="E55" t="n">
-        <v>72161652</v>
+        <v>73913824</v>
       </c>
       <c r="F55" t="n">
-        <v>25648.75511911686</v>
+        <v>19728.32364815695</v>
       </c>
       <c r="G55" t="n">
-        <v>33405.50590263982</v>
+        <v>49067.09750137677</v>
       </c>
       <c r="H55" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3927784</v>
+        <v>3898754</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>61395</v>
+        <v>60507</v>
       </c>
       <c r="E56" t="n">
-        <v>147055</v>
+        <v>144928</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3530.5</v>
+        <v>3563.16</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1924639047</v>
+        <v>1931807915</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27659041</v>
+        <v>27759644</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12285833</v>
+        <v>12435135</v>
       </c>
       <c r="E58" t="n">
-        <v>17812685</v>
+        <v>18029151</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2037086</v>
+        <v>2149257</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123362442</v>
+        <v>123736753</v>
       </c>
       <c r="E59" t="n">
-        <v>328073773</v>
+        <v>329069225</v>
       </c>
       <c r="F59" t="n">
-        <v>7786.523028837553</v>
+        <v>8038.83619411223</v>
       </c>
       <c r="G59" t="n">
-        <v>7209.916644926552</v>
+        <v>7313.403779199906</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="I59" t="n">
-        <v>854464</v>
+        <v>845935</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31551690</v>
+        <v>31581408</v>
       </c>
       <c r="E60" t="n">
-        <v>98241838</v>
+        <v>98334371</v>
       </c>
       <c r="F60" t="n">
-        <v>3307.278667241443</v>
+        <v>3215.248862342607</v>
       </c>
       <c r="G60" t="n">
-        <v>6284.699787775166</v>
+        <v>5138.180857729287</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>10835784</v>
+        <v>10628394</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2010049</v>
+        <v>1968952</v>
       </c>
       <c r="E61" t="n">
-        <v>14413859</v>
+        <v>14119159</v>
       </c>
       <c r="F61" t="n">
-        <v>5449.886436995977</v>
+        <v>5432.285783640667</v>
       </c>
       <c r="G61" t="n">
-        <v>4999.010844809277</v>
+        <v>4998.934114535771</v>
       </c>
       <c r="H61" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
       <c r="I61" t="n">
-        <v>618264</v>
+        <v>2051493</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>205512833</v>
+        <v>207409930</v>
       </c>
       <c r="E62" t="n">
-        <v>1163739937</v>
+        <v>1174482467</v>
       </c>
       <c r="F62" t="n">
-        <v>664167.1092078547</v>
+        <v>694169.0429968239</v>
       </c>
       <c r="G62" t="n">
-        <v>795014.6242866241</v>
+        <v>708257.7536822794</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I62" t="n">
-        <v>67407771</v>
+        <v>67983040</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>497264</v>
+        <v>505241</v>
       </c>
       <c r="E63" t="n">
-        <v>1673720</v>
+        <v>1700570</v>
       </c>
       <c r="F63" t="n">
-        <v>4577.780443265169</v>
+        <v>4564.153185808366</v>
       </c>
       <c r="G63" t="n">
-        <v>374.7218726168661</v>
+        <v>437.8147100632519</v>
       </c>
       <c r="H63" t="n">
         <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>633194</v>
+        <v>633130</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>345169</v>
+        <v>342764</v>
       </c>
       <c r="E64" t="n">
-        <v>345169</v>
+        <v>342764</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4625</v>
+        <v>4632.58</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>143265915</v>
+        <v>143742114</v>
       </c>
       <c r="E65" t="n">
-        <v>1061229002</v>
+        <v>1064756401</v>
       </c>
       <c r="F65" t="n">
-        <v>38830.72788012835</v>
+        <v>38819.81995943183</v>
       </c>
       <c r="G65" t="n">
-        <v>35514.99421855295</v>
+        <v>35555.03134877866</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>8477529</v>
+        <v>8354311</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8232003</v>
+        <v>8053271</v>
       </c>
       <c r="E66" t="n">
-        <v>11028139</v>
+        <v>10788697</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>57969</v>
+        <v>8748.18</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26889205</v>
+        <v>26920507</v>
       </c>
       <c r="E67" t="n">
-        <v>26889205</v>
+        <v>26920507</v>
       </c>
       <c r="F67" t="n">
-        <v>7735.564781293414</v>
+        <v>7749.489546183479</v>
       </c>
       <c r="G67" t="n">
-        <v>9032.174739324028</v>
+        <v>9109.59547071706</v>
       </c>
       <c r="H67" t="n">
         <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>314317</v>
+        <v>313663</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1564049</v>
+        <v>1582011</v>
       </c>
       <c r="E68" t="n">
-        <v>12146583</v>
+        <v>12286079</v>
       </c>
       <c r="F68" t="n">
-        <v>11889.72108200957</v>
+        <v>11882.57136619806</v>
       </c>
       <c r="G68" t="n">
-        <v>14207.74730145468</v>
+        <v>14207.56707287983</v>
       </c>
       <c r="H68" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="I68" t="n">
-        <v>517637</v>
+        <v>526023</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>344984436</v>
+        <v>348113619</v>
       </c>
       <c r="E69" t="n">
-        <v>3103693904</v>
+        <v>3131845975</v>
       </c>
       <c r="F69" t="n">
-        <v>1146660.20731358</v>
+        <v>582147.9899763651</v>
       </c>
       <c r="G69" t="n">
-        <v>1447595.140652732</v>
+        <v>1113724.22412326</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>43153862</v>
+        <v>44520011</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>248662</v>
+        <v>248832</v>
       </c>
       <c r="E70" t="n">
-        <v>2194629</v>
+        <v>2196129</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>93012</v>
+        <v>90370</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1573600</v>
+        <v>1574201</v>
       </c>
       <c r="E71" t="n">
-        <v>13113330</v>
+        <v>13118345</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>24946</v>
+        <v>24594</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9292859</v>
+        <v>9302891</v>
       </c>
       <c r="E72" t="n">
-        <v>43072934</v>
+        <v>43119432</v>
       </c>
       <c r="F72" t="n">
-        <v>5437.103709321038</v>
+        <v>4649.55374057661</v>
       </c>
       <c r="G72" t="n">
-        <v>9961.902982451207</v>
+        <v>9549.221064312016</v>
       </c>
       <c r="H72" t="n">
         <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>124238</v>
+        <v>109875</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>49498622</v>
+        <v>49255006</v>
       </c>
       <c r="E73" t="n">
-        <v>286576569</v>
+        <v>285166134</v>
       </c>
       <c r="F73" t="n">
-        <v>117323.8004891522</v>
+        <v>121417.4407751562</v>
       </c>
       <c r="G73" t="n">
-        <v>172979.8100856255</v>
+        <v>233335.2388655999</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>33089366</v>
+        <v>33861123</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39564915</v>
+        <v>39573426</v>
       </c>
       <c r="E74" t="n">
-        <v>54644782</v>
+        <v>54656537</v>
       </c>
       <c r="F74" t="n">
-        <v>686.8847465538647</v>
+        <v>4521.062940791876</v>
       </c>
       <c r="G74" t="n">
-        <v>627.1252924563845</v>
+        <v>10559.68859509086</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>335421</v>
+        <v>314155</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97210</v>
+        <v>97782</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>295.3</v>
+        <v>297.03</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13676493</v>
+        <v>13781602</v>
       </c>
       <c r="E76" t="n">
-        <v>13723035</v>
+        <v>13828502</v>
       </c>
       <c r="F76" t="n">
-        <v>1251.182275762877</v>
+        <v>2129.198691336974</v>
       </c>
       <c r="G76" t="n">
-        <v>6288.296854856425</v>
+        <v>7237.920982100574</v>
       </c>
       <c r="H76" t="n">
         <v>0.64</v>
       </c>
       <c r="I76" t="n">
-        <v>5842196</v>
+        <v>6022388</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42817014</v>
+        <v>42850561</v>
       </c>
       <c r="E77" t="n">
-        <v>72693329</v>
+        <v>72750284</v>
       </c>
       <c r="F77" t="n">
-        <v>9260.078299818302</v>
+        <v>9979.468295387607</v>
       </c>
       <c r="G77" t="n">
-        <v>7512.91966274785</v>
+        <v>6675.768308723732</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1048762</v>
+        <v>1036348</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22938439</v>
+        <v>23003387</v>
       </c>
       <c r="E78" t="n">
-        <v>68758891</v>
+        <v>68953577</v>
       </c>
       <c r="F78" t="n">
-        <v>132269.011594869</v>
+        <v>147039.8119205194</v>
       </c>
       <c r="G78" t="n">
-        <v>126082.3274233484</v>
+        <v>137185.1203919336</v>
       </c>
       <c r="H78" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I78" t="n">
-        <v>3454460</v>
+        <v>3460990</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104025891</v>
+        <v>103642587</v>
       </c>
       <c r="E79" t="n">
-        <v>110588923</v>
+        <v>110181437</v>
       </c>
       <c r="F79" t="n">
-        <v>3134.050544561954</v>
+        <v>3236.930032173707</v>
       </c>
       <c r="G79" t="n">
-        <v>4042.607166348599</v>
+        <v>3808.72309034742</v>
       </c>
       <c r="H79" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="I79" t="n">
-        <v>1407153</v>
+        <v>1450251</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10395161</v>
+        <v>10412390</v>
       </c>
       <c r="E80" t="n">
-        <v>45163398</v>
+        <v>45242566</v>
       </c>
       <c r="F80" t="n">
-        <v>6259.388813794556</v>
+        <v>6988.504332976262</v>
       </c>
       <c r="G80" t="n">
-        <v>5728.068257335504</v>
+        <v>5014.405785951965</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="I80" t="n">
-        <v>111692</v>
+        <v>111318</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15791371</v>
+        <v>15881714</v>
       </c>
       <c r="E81" t="n">
-        <v>96790504</v>
+        <v>97344246</v>
       </c>
       <c r="F81" t="n">
-        <v>4213.567459024936</v>
+        <v>4121.522556885265</v>
       </c>
       <c r="G81" t="n">
-        <v>6266.274056275368</v>
+        <v>5015.589225898709</v>
       </c>
       <c r="H81" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>10231430</v>
+        <v>10235155</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1504942</v>
+        <v>1507333</v>
       </c>
       <c r="E82" t="n">
-        <v>1547274</v>
+        <v>1549732</v>
       </c>
       <c r="F82" t="n">
-        <v>5883.960298625865</v>
+        <v>5823.906554127057</v>
       </c>
       <c r="G82" t="n">
-        <v>6370.622905397585</v>
+        <v>6070.392595015245</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>145890</v>
+        <v>146056</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50053343</v>
+        <v>50414378</v>
       </c>
       <c r="E83" t="n">
-        <v>215624326</v>
+        <v>217179627</v>
       </c>
       <c r="F83" t="n">
-        <v>482.170699052667</v>
+        <v>3503.553093831358</v>
       </c>
       <c r="G83" t="n">
-        <v>2253.690443859078</v>
+        <v>4749.460958812198</v>
       </c>
       <c r="H83" t="n">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="I83" t="n">
-        <v>9792860</v>
+        <v>9930117</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1896965</v>
+        <v>2015433</v>
       </c>
       <c r="E84" t="n">
-        <v>6890815</v>
+        <v>7319859</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>142237</v>
+        <v>154959</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8922451</v>
+        <v>8936900</v>
       </c>
       <c r="E85" t="n">
-        <v>19808443</v>
+        <v>19840521</v>
       </c>
       <c r="F85" t="n">
-        <v>6056.395736794786</v>
+        <v>7523.319991767103</v>
       </c>
       <c r="G85" t="n">
-        <v>5737.416263217403</v>
+        <v>6349.993408886057</v>
       </c>
       <c r="H85" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="I85" t="n">
-        <v>336502</v>
+        <v>338429</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441792</v>
+        <v>2441232</v>
       </c>
       <c r="E86" t="n">
-        <v>18373859</v>
+        <v>18369644</v>
       </c>
       <c r="F86" t="n">
-        <v>6002.721676938956</v>
+        <v>5172.850551266394</v>
       </c>
       <c r="G86" t="n">
-        <v>11784.82412395297</v>
+        <v>11071.02081318432</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I86" t="n">
-        <v>163388</v>
+        <v>163304</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20970058</v>
+        <v>20965463</v>
       </c>
       <c r="E87" t="n">
-        <v>83880234</v>
+        <v>83861853</v>
       </c>
       <c r="F87" t="n">
-        <v>15541.12075248527</v>
+        <v>7666.998114472472</v>
       </c>
       <c r="G87" t="n">
-        <v>246.2165759234955</v>
+        <v>1081.046333179792</v>
       </c>
       <c r="H87" t="n">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="I87" t="n">
-        <v>2375139</v>
+        <v>2433687</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4976306</v>
+        <v>4938928</v>
       </c>
       <c r="E88" t="n">
-        <v>4976306</v>
+        <v>4938928</v>
       </c>
       <c r="F88" t="n">
-        <v>769.0631068202324</v>
+        <v>1664.602975717871</v>
       </c>
       <c r="G88" t="n">
-        <v>837.0178775116428</v>
+        <v>943.3205549255483</v>
       </c>
       <c r="H88" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I88" t="n">
-        <v>3079041</v>
+        <v>3066542</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12757850</v>
+        <v>12802253</v>
       </c>
       <c r="E89" t="n">
-        <v>40361224</v>
+        <v>40495937</v>
       </c>
       <c r="F89" t="n">
-        <v>14740.6993914299</v>
+        <v>15086.49327572865</v>
       </c>
       <c r="G89" t="n">
-        <v>12404.42506019188</v>
+        <v>11388.8721878508</v>
       </c>
       <c r="H89" t="n">
         <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>979161</v>
+        <v>987206</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24589</v>
+        <v>24611</v>
       </c>
       <c r="E90" t="n">
-        <v>193388</v>
+        <v>193560</v>
       </c>
       <c r="F90" t="n">
-        <v>231.8373145297794</v>
+        <v>3449.792972059165</v>
       </c>
       <c r="G90" t="n">
-        <v>514.3855986620536</v>
+        <v>406.8541009043419</v>
       </c>
       <c r="H90" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I90" t="n">
-        <v>62350</v>
+        <v>59931</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8456831</v>
+        <v>8444002</v>
       </c>
       <c r="E91" t="n">
-        <v>8456831</v>
+        <v>8444002</v>
       </c>
       <c r="F91" t="n">
-        <v>2857.404141502708</v>
+        <v>3375.678557106306</v>
       </c>
       <c r="G91" t="n">
-        <v>3838.544296323505</v>
+        <v>3952.317203764163</v>
       </c>
       <c r="H91" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="I91" t="n">
-        <v>3757352</v>
+        <v>3752230</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9105478</v>
+        <v>9318014</v>
       </c>
       <c r="E92" t="n">
-        <v>9105478</v>
+        <v>9318014</v>
       </c>
       <c r="F92" t="n">
-        <v>5828.607259593771</v>
+        <v>5826.377334812246</v>
       </c>
       <c r="G92" t="n">
-        <v>6506.68207997408</v>
+        <v>5119.062104090098</v>
       </c>
       <c r="H92" t="n">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="I92" t="n">
-        <v>2975927</v>
+        <v>2995091</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37870193</v>
+        <v>37531496</v>
       </c>
       <c r="E93" t="n">
-        <v>95490445</v>
+        <v>94636414</v>
       </c>
       <c r="F93" t="n">
-        <v>4834.090694664135</v>
+        <v>5294.256857787918</v>
       </c>
       <c r="G93" t="n">
-        <v>5456.828383893121</v>
+        <v>5847.335720382288</v>
       </c>
       <c r="H93" t="n">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>3419662</v>
+        <v>3473079</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>313904207</v>
+        <v>318633571</v>
       </c>
       <c r="E94" t="n">
-        <v>318801470</v>
+        <v>323604617</v>
       </c>
       <c r="F94" t="n">
-        <v>15455.25229447571</v>
+        <v>4932.089320460501</v>
       </c>
       <c r="G94" t="n">
-        <v>38597.53778200909</v>
+        <v>5502.687376566882</v>
       </c>
       <c r="H94" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>15754481</v>
+        <v>18939772</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6114.313941669</v>
+        <v>6093.889849293932</v>
       </c>
       <c r="G95" t="n">
-        <v>6324.238445588647</v>
+        <v>6268.508376862682</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>217131</v>
+        <v>215435</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>86025011</v>
+        <v>86536747</v>
       </c>
       <c r="E96" t="n">
-        <v>86025011</v>
+        <v>86536747</v>
       </c>
       <c r="F96" t="n">
-        <v>10280.24064364623</v>
+        <v>10164.49344746871</v>
       </c>
       <c r="G96" t="n">
-        <v>5645.479753523061</v>
+        <v>8599.669286521965</v>
       </c>
       <c r="H96" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="I96" t="n">
-        <v>4991933</v>
+        <v>5250432</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>300671910</v>
+        <v>303568433</v>
       </c>
       <c r="E97" t="n">
-        <v>300671910</v>
+        <v>303568433</v>
       </c>
       <c r="F97" t="n">
-        <v>352794.2079976689</v>
+        <v>236518.6841091323</v>
       </c>
       <c r="G97" t="n">
-        <v>425512.2621621111</v>
+        <v>443851.1030093497</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>80048245</v>
+        <v>71796104</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4221137</v>
+        <v>4207682</v>
       </c>
       <c r="E98" t="n">
-        <v>28842731</v>
+        <v>28750795</v>
       </c>
       <c r="F98" t="n">
-        <v>4636.565466510732</v>
+        <v>184.4776551615919</v>
       </c>
       <c r="G98" t="n">
-        <v>6459.98451360514</v>
+        <v>361.9398128830669</v>
       </c>
       <c r="H98" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>2645226</v>
+        <v>2649584</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91823400</v>
+        <v>92353141</v>
       </c>
       <c r="E99" t="n">
-        <v>529126033</v>
+        <v>532178634</v>
       </c>
       <c r="F99" t="n">
-        <v>153096.7172014094</v>
+        <v>156038.0686904816</v>
       </c>
       <c r="G99" t="n">
-        <v>156229.6139016998</v>
+        <v>158199.8423662322</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>17073505</v>
+        <v>17397326</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>109456390</v>
+        <v>110164641</v>
       </c>
       <c r="E100" t="n">
-        <v>269305484</v>
+        <v>271048057</v>
       </c>
       <c r="F100" t="n">
-        <v>25250.89908672803</v>
+        <v>22600.28877077462</v>
       </c>
       <c r="G100" t="n">
-        <v>52720.91755772117</v>
+        <v>44829.61241613649</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2162511</v>
+        <v>2049252</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>250084436</v>
+        <v>250562281</v>
       </c>
       <c r="E101" t="n">
-        <v>250086921</v>
+        <v>250564770</v>
       </c>
       <c r="F101" t="n">
-        <v>25435.50053741448</v>
+        <v>45321.69990941181</v>
       </c>
       <c r="G101" t="n">
-        <v>18834.04979578606</v>
+        <v>19402.48406425191</v>
       </c>
       <c r="H101" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I101" t="n">
-        <v>2691334</v>
+        <v>2740471</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30961474</v>
+        <v>31172332</v>
       </c>
       <c r="E102" t="n">
-        <v>138627220</v>
+        <v>139571317</v>
       </c>
       <c r="F102" t="n">
-        <v>110069.8905372373</v>
+        <v>119544.016087528</v>
       </c>
       <c r="G102" t="n">
-        <v>130786.1343568317</v>
+        <v>127567.4205329443</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I102" t="n">
-        <v>8594879</v>
+        <v>8515280</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3151269</v>
+        <v>3215370</v>
       </c>
       <c r="E103" t="n">
-        <v>3151269</v>
+        <v>3215370</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>408350</v>
+        <v>415668</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5789708</v>
+        <v>5806796</v>
       </c>
       <c r="E104" t="n">
-        <v>15195098</v>
+        <v>15239944</v>
       </c>
       <c r="F104" t="n">
-        <v>756.4918900153961</v>
+        <v>700.752053529092</v>
       </c>
       <c r="G104" t="n">
-        <v>2509.841138763758</v>
+        <v>2418.068255968249</v>
       </c>
       <c r="H104" t="n">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="I104" t="n">
-        <v>25216</v>
+        <v>25516</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16369000</v>
+        <v>16357542</v>
       </c>
       <c r="E105" t="n">
-        <v>75556979</v>
+        <v>75504089</v>
       </c>
       <c r="F105" t="n">
-        <v>47204.91251777953</v>
+        <v>32885.16907892333</v>
       </c>
       <c r="G105" t="n">
-        <v>79281.56403858017</v>
+        <v>74758.32349058868</v>
       </c>
       <c r="H105" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>976519</v>
+        <v>899144</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50896833</v>
+        <v>51694847</v>
       </c>
       <c r="E106" t="n">
-        <v>330052415</v>
+        <v>335227326</v>
       </c>
       <c r="F106" t="n">
-        <v>75808.84337862059</v>
+        <v>74994.29510406961</v>
       </c>
       <c r="G106" t="n">
-        <v>136406.2121877733</v>
+        <v>122537.8591792057</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16914862</v>
+        <v>16825276</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2400759</v>
+        <v>2436949</v>
       </c>
       <c r="E107" t="n">
-        <v>4349426</v>
+        <v>4414992</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>120503</v>
+        <v>124721</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125330846</v>
+        <v>125306819</v>
       </c>
       <c r="E108" t="n">
-        <v>2075581459</v>
+        <v>2075183547</v>
       </c>
       <c r="F108" t="n">
-        <v>399540.3472480446</v>
+        <v>228199.5629554745</v>
       </c>
       <c r="G108" t="n">
-        <v>199291.906047429</v>
+        <v>205383.8816407831</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4512652</v>
+        <v>4486697</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24711842</v>
+        <v>24907474</v>
       </c>
       <c r="E109" t="n">
-        <v>147855920</v>
+        <v>149026425</v>
       </c>
       <c r="F109" t="n">
-        <v>42198.02472821502</v>
+        <v>42197.73532922625</v>
       </c>
       <c r="G109" t="n">
-        <v>40104.93443158329</v>
+        <v>42772.40196187832</v>
       </c>
       <c r="H109" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="I109" t="n">
-        <v>12459219</v>
+        <v>12317555</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1052134</v>
+        <v>1042076</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>67397</v>
+        <v>67002</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2239502</v>
+        <v>2245707</v>
       </c>
       <c r="F111" t="n">
-        <v>3771.816283997742</v>
+        <v>3762.359895572221</v>
       </c>
       <c r="G111" t="n">
-        <v>380.7307395437502</v>
+        <v>475.8289248734741</v>
       </c>
       <c r="H111" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>177877</v>
+        <v>178148</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147459960</v>
+        <v>147531462</v>
       </c>
       <c r="F112" t="n">
-        <v>8539.978221755402</v>
+        <v>8563.311404606917</v>
       </c>
       <c r="G112" t="n">
-        <v>2930.577456848107</v>
+        <v>3183.626350045357</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I112" t="n">
-        <v>25697</v>
+        <v>25887</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6636342</v>
+        <v>6675060</v>
       </c>
       <c r="E113" t="n">
-        <v>34141963</v>
+        <v>34341155</v>
       </c>
       <c r="F113" t="n">
-        <v>1527.375222077586</v>
+        <v>2174.399563121508</v>
       </c>
       <c r="G113" t="n">
-        <v>747.1542667929996</v>
+        <v>1279.967550637157</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I113" t="n">
-        <v>916649</v>
+        <v>904361</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29121765</v>
+        <v>29170105</v>
       </c>
       <c r="E114" t="n">
-        <v>39931032</v>
+        <v>39997314</v>
       </c>
       <c r="F114" t="n">
-        <v>6453.248366283204</v>
+        <v>4909.436215226033</v>
       </c>
       <c r="G114" t="n">
-        <v>4882.977698218236</v>
+        <v>4400.066450451774</v>
       </c>
       <c r="H114" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>207382</v>
+        <v>205747</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7992780</v>
+        <v>7994727</v>
       </c>
       <c r="F115" t="n">
-        <v>128.3935659600405</v>
+        <v>127.2789346262363</v>
       </c>
       <c r="G115" t="n">
-        <v>6769.622539136701</v>
+        <v>5764.248788615536</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I115" t="n">
-        <v>655571</v>
+        <v>653649</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3384855</v>
+        <v>3388953</v>
       </c>
       <c r="E116" t="n">
-        <v>4534227</v>
+        <v>4539716</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148801</v>
+        <v>150069</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34825771</v>
+        <v>34898631</v>
       </c>
       <c r="E117" t="n">
-        <v>173796653</v>
+        <v>174160256</v>
       </c>
       <c r="F117" t="n">
-        <v>103723.7966288049</v>
+        <v>108622.2287084575</v>
       </c>
       <c r="G117" t="n">
-        <v>75716.32678772669</v>
+        <v>77648.31768745862</v>
       </c>
       <c r="H117" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I117" t="n">
-        <v>10626013</v>
+        <v>10669943</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3501609</v>
+        <v>3503238</v>
       </c>
       <c r="E118" t="n">
-        <v>5030126</v>
+        <v>5032466</v>
       </c>
       <c r="F118" t="n">
-        <v>564.3217574082522</v>
+        <v>564.3130965102179</v>
       </c>
       <c r="G118" t="n">
-        <v>625.1109884393087</v>
+        <v>625.1013945817974</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>142456</v>
+        <v>141930</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>319443125</v>
+        <v>322344879</v>
       </c>
       <c r="E119" t="n">
-        <v>591042629</v>
+        <v>596411536</v>
       </c>
       <c r="F119" t="n">
-        <v>119822.3154226378</v>
+        <v>135526.518731598</v>
       </c>
       <c r="G119" t="n">
-        <v>134851.4261888991</v>
+        <v>138498.7309611654</v>
       </c>
       <c r="H119" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>14058571</v>
+        <v>14165827</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72149994</v>
+        <v>73170573</v>
       </c>
       <c r="E120" t="n">
-        <v>688259492</v>
+        <v>697990514</v>
       </c>
       <c r="F120" t="n">
-        <v>3548.552551021726</v>
+        <v>3206.526709383639</v>
       </c>
       <c r="G120" t="n">
-        <v>43986.56342276264</v>
+        <v>42714.04994076829</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I120" t="n">
-        <v>22221977</v>
+        <v>21523054</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37965252</v>
+        <v>38101864</v>
       </c>
       <c r="E121" t="n">
-        <v>49636325</v>
+        <v>49814916</v>
       </c>
       <c r="F121" t="n">
-        <v>5606.540031431761</v>
+        <v>105.4008730224166</v>
       </c>
       <c r="G121" t="n">
-        <v>378.817921648418</v>
+        <v>6488.781325869761</v>
       </c>
       <c r="H121" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>283992</v>
+        <v>550989</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11249705</v>
+        <v>11554568</v>
       </c>
       <c r="E122" t="n">
-        <v>33372601</v>
+        <v>34276987</v>
       </c>
       <c r="F122" t="n">
-        <v>3558.975887748762</v>
+        <v>3747.218352206307</v>
       </c>
       <c r="G122" t="n">
-        <v>7018.871224189999</v>
+        <v>6958.864951332147</v>
       </c>
       <c r="H122" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="I122" t="n">
-        <v>7379143</v>
+        <v>7428698</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2267967</v>
+        <v>2276955</v>
       </c>
       <c r="E123" t="n">
-        <v>7760643</v>
+        <v>7791398</v>
       </c>
       <c r="F123" t="n">
-        <v>1062.295683267976</v>
+        <v>807.660242640252</v>
       </c>
       <c r="G123" t="n">
-        <v>1160.187273152862</v>
+        <v>918.3925749403885</v>
       </c>
       <c r="H123" t="n">
         <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>957706</v>
+        <v>946348</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7358200</v>
+        <v>7355712</v>
       </c>
       <c r="E124" t="n">
-        <v>7358211</v>
+        <v>7355723</v>
       </c>
       <c r="F124" t="n">
-        <v>436.6479081837981</v>
+        <v>433.9482545274632</v>
       </c>
       <c r="G124" t="n">
-        <v>964.0099216767184</v>
+        <v>1007.845341176211</v>
       </c>
       <c r="H124" t="n">
         <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>321830</v>
+        <v>319963</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6559268</v>
+        <v>6567266</v>
       </c>
       <c r="E125" t="n">
-        <v>6559268</v>
+        <v>6567266</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>499168</v>
+        <v>507694</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6246646</v>
+        <v>6267626</v>
       </c>
       <c r="E126" t="n">
-        <v>22816579</v>
+        <v>22893212</v>
       </c>
       <c r="F126" t="n">
-        <v>7110.047281211444</v>
+        <v>7095.9461223801</v>
       </c>
       <c r="G126" t="n">
-        <v>7860.35464780005</v>
+        <v>8059.614270664335</v>
       </c>
       <c r="H126" t="n">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="I126" t="n">
-        <v>504112</v>
+        <v>507941</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45145514</v>
+        <v>45392411</v>
       </c>
       <c r="E127" t="n">
-        <v>45145514</v>
+        <v>45392411</v>
       </c>
       <c r="F127" t="n">
-        <v>49252.84119897649</v>
+        <v>46752.33244447335</v>
       </c>
       <c r="G127" t="n">
-        <v>89688.30476462077</v>
+        <v>88376.77754425287</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>8521135</v>
+        <v>8358410</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>150798603</v>
+        <v>150796879</v>
       </c>
       <c r="F128" t="n">
-        <v>985.4337198325122</v>
+        <v>5627.08763612163</v>
       </c>
       <c r="G128" t="n">
-        <v>520.6839847132698</v>
+        <v>6215.388741616754</v>
       </c>
       <c r="H128" t="n">
-        <v>1.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I128" t="n">
-        <v>1421195</v>
+        <v>1432749</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2995703</v>
+        <v>3001200</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>71237</v>
+        <v>71016</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20226956</v>
+        <v>20235157</v>
       </c>
       <c r="F130" t="n">
-        <v>439.7612841467551</v>
+        <v>414.8376837783913</v>
       </c>
       <c r="G130" t="n">
-        <v>517.1604754163023</v>
+        <v>717.1376823944457</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I130" t="n">
-        <v>2972262</v>
+        <v>2980040</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1262497</v>
+        <v>1262528</v>
       </c>
       <c r="E131" t="n">
-        <v>3814229</v>
+        <v>3814627</v>
       </c>
       <c r="F131" t="n">
-        <v>801.2312568262736</v>
+        <v>801.2189599723489</v>
       </c>
       <c r="G131" t="n">
-        <v>794.8393983137748</v>
+        <v>772.378475616359</v>
       </c>
       <c r="H131" t="n">
         <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>14527.33</v>
+        <v>14709.26</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>617799656</v>
+        <v>621555106</v>
       </c>
       <c r="E132" t="n">
-        <v>2392646920</v>
+        <v>2407191222</v>
       </c>
       <c r="F132" t="n">
-        <v>779010.4470089073</v>
+        <v>811159.8978628973</v>
       </c>
       <c r="G132" t="n">
-        <v>1074206.142895575</v>
+        <v>1052450.610729905</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>33374972</v>
+        <v>33868156</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3709202</v>
+        <v>3712126</v>
       </c>
       <c r="E133" t="n">
-        <v>6322839</v>
+        <v>6327823</v>
       </c>
       <c r="F133" t="n">
-        <v>5385.224232351965</v>
+        <v>5237.672884268945</v>
       </c>
       <c r="G133" t="n">
-        <v>5424.664185426129</v>
+        <v>5564.794282633752</v>
       </c>
       <c r="H133" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1117410</v>
+        <v>1118456</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>115076250</v>
+        <v>115292479</v>
       </c>
       <c r="E134" t="n">
-        <v>1069206568</v>
+        <v>1071215618</v>
       </c>
       <c r="F134" t="n">
-        <v>118950.3203845036</v>
+        <v>94580.03396172971</v>
       </c>
       <c r="G134" t="n">
-        <v>128545.3306057207</v>
+        <v>124506.7816742929</v>
       </c>
       <c r="H134" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I134" t="n">
-        <v>9127864</v>
+        <v>9171624</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>964566970</v>
+        <v>973239439</v>
       </c>
       <c r="E135" t="n">
-        <v>1059579460</v>
+        <v>1069106191</v>
       </c>
       <c r="F135" t="n">
-        <v>9271.227707105747</v>
+        <v>9880.531637168371</v>
       </c>
       <c r="G135" t="n">
-        <v>21872.94323936046</v>
+        <v>12507.00419314614</v>
       </c>
       <c r="H135" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="I135" t="n">
-        <v>10143123</v>
+        <v>10097185</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1136034</v>
+        <v>1130775</v>
       </c>
       <c r="E136" t="n">
-        <v>4398970</v>
+        <v>4378606</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>360750</v>
+        <v>321750</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>124912453</v>
+        <v>126639276</v>
       </c>
       <c r="E137" t="n">
-        <v>479184276</v>
+        <v>485808647</v>
       </c>
       <c r="F137" t="n">
-        <v>115771.20061834</v>
+        <v>131762.1655484446</v>
       </c>
       <c r="G137" t="n">
-        <v>214759.5590433292</v>
+        <v>254563.5535686879</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I137" t="n">
-        <v>31655843</v>
+        <v>33073952</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3218359</v>
+        <v>3235739</v>
       </c>
       <c r="E138" t="n">
-        <v>30494431</v>
+        <v>30659104</v>
       </c>
       <c r="F138" t="n">
-        <v>4552.409189425228</v>
+        <v>4556.992302670354</v>
       </c>
       <c r="G138" t="n">
-        <v>4841.236862647298</v>
+        <v>4821.540859559996</v>
       </c>
       <c r="H138" t="n">
         <v>0.39</v>
       </c>
       <c r="I138" t="n">
-        <v>221921</v>
+        <v>223569</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21097744</v>
+        <v>21645511</v>
       </c>
       <c r="E139" t="n">
-        <v>21097744</v>
+        <v>21645511</v>
       </c>
       <c r="F139" t="n">
-        <v>10582.82574768021</v>
+        <v>2908.451605764143</v>
       </c>
       <c r="G139" t="n">
-        <v>4928.109074338224</v>
+        <v>653.2078034627662</v>
       </c>
       <c r="H139" t="n">
-        <v>1.31</v>
+        <v>1.83</v>
       </c>
       <c r="I139" t="n">
-        <v>692714</v>
+        <v>710234</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494822372</v>
+        <v>494909169</v>
       </c>
       <c r="E140" t="n">
-        <v>494822372</v>
+        <v>494909169</v>
       </c>
       <c r="F140" t="n">
-        <v>759611.7774550536</v>
+        <v>955683.4175956948</v>
       </c>
       <c r="G140" t="n">
-        <v>819215.5416701228</v>
+        <v>1008670.121301005</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33016784</v>
+        <v>33106311</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>32484968</v>
+        <v>34852798</v>
       </c>
       <c r="F141" t="n">
-        <v>71815.40010961743</v>
+        <v>58970.66065889319</v>
       </c>
       <c r="G141" t="n">
-        <v>57493.8644407537</v>
+        <v>51356.56006836121</v>
       </c>
       <c r="H141" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I141" t="n">
-        <v>5579835</v>
+        <v>5996382</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>737711</v>
+        <v>738230</v>
       </c>
       <c r="E142" t="n">
-        <v>11766220</v>
+        <v>11774502</v>
       </c>
       <c r="F142" t="n">
-        <v>98.34340034652389</v>
+        <v>279.8976443388503</v>
       </c>
       <c r="G142" t="n">
-        <v>895.9685470729306</v>
+        <v>846.4669850683151</v>
       </c>
       <c r="H142" t="n">
         <v>1.09</v>
       </c>
       <c r="I142" t="n">
-        <v>270470</v>
+        <v>271721</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2668967925</v>
+        <v>2705997874</v>
       </c>
       <c r="E143" t="n">
-        <v>2833749462</v>
+        <v>2873065633</v>
       </c>
       <c r="F143" t="n">
-        <v>748.9111867638521</v>
+        <v>3185.794257157249</v>
       </c>
       <c r="G143" t="n">
-        <v>17191.34423409366</v>
+        <v>24768.75912401811</v>
       </c>
       <c r="H143" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I143" t="n">
-        <v>38051066</v>
+        <v>39576745</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1732242</v>
+        <v>1740890</v>
       </c>
       <c r="E144" t="n">
-        <v>1738356</v>
+        <v>1747035</v>
       </c>
       <c r="F144" t="n">
-        <v>747.7543285450604</v>
+        <v>629.0539593286195</v>
       </c>
       <c r="G144" t="n">
-        <v>626.7195690834274</v>
+        <v>383.8920171417566</v>
       </c>
       <c r="H144" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="I144" t="n">
-        <v>440465</v>
+        <v>451267</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61544097</v>
+        <v>61941670</v>
       </c>
       <c r="E145" t="n">
-        <v>150963499</v>
+        <v>151938718</v>
       </c>
       <c r="F145" t="n">
-        <v>3343.940215089608</v>
+        <v>3124.333020335129</v>
       </c>
       <c r="G145" t="n">
-        <v>5189.836087020284</v>
+        <v>4568.938530694927</v>
       </c>
       <c r="H145" t="n">
-        <v>0.66</v>
+        <v>1.21</v>
       </c>
       <c r="I145" t="n">
-        <v>22501384</v>
+        <v>22587578</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>804425473</v>
+        <v>823232639</v>
       </c>
       <c r="E146" t="n">
-        <v>1240495104</v>
+        <v>1269497414</v>
       </c>
       <c r="F146" t="n">
-        <v>134299.4352530068</v>
+        <v>142228.2146603373</v>
       </c>
       <c r="G146" t="n">
-        <v>147477.2666348043</v>
+        <v>136272.2835449795</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>248395805</v>
+        <v>262400023</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23670311</v>
+        <v>23965455</v>
       </c>
       <c r="E147" t="n">
-        <v>23670311</v>
+        <v>23965455</v>
       </c>
       <c r="F147" t="n">
-        <v>5291.383841283819</v>
+        <v>5205.35282403249</v>
       </c>
       <c r="G147" t="n">
-        <v>8354.237053775143</v>
+        <v>3820.339922588549</v>
       </c>
       <c r="H147" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I147" t="n">
-        <v>5753669</v>
+        <v>5869236</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3809464</v>
+        <v>3818422</v>
       </c>
       <c r="E148" t="n">
-        <v>8312200</v>
+        <v>8331748</v>
       </c>
       <c r="F148" t="n">
-        <v>5569.416020771886</v>
+        <v>5570.213261736104</v>
       </c>
       <c r="G148" t="n">
-        <v>5843.016394039009</v>
+        <v>5796.498241897827</v>
       </c>
       <c r="H148" t="n">
         <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>45600</v>
+        <v>1809918</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9254400</v>
+        <v>9251527</v>
       </c>
       <c r="E149" t="n">
-        <v>9254400</v>
+        <v>9251527</v>
       </c>
       <c r="F149" t="n">
-        <v>330900.3169015861</v>
+        <v>313656.5907807103</v>
       </c>
       <c r="G149" t="n">
-        <v>667301.3813247785</v>
+        <v>587269.1831671374</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>2427325</v>
+        <v>2712495</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>499904286</v>
+        <v>504692552</v>
       </c>
       <c r="E150" t="n">
-        <v>1740125215</v>
+        <v>1756792771</v>
       </c>
       <c r="F150" t="n">
-        <v>791241.8908768796</v>
+        <v>763196.9772825607</v>
       </c>
       <c r="G150" t="n">
-        <v>907915.8543754545</v>
+        <v>925328.8432771425</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31609541</v>
+        <v>31915266</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48849745</v>
+        <v>48934342</v>
       </c>
       <c r="E151" t="n">
-        <v>120279669</v>
+        <v>120458525</v>
       </c>
       <c r="F151" t="n">
-        <v>8294.705559634047</v>
+        <v>7812.06367464514</v>
       </c>
       <c r="G151" t="n">
-        <v>7697.068724200979</v>
+        <v>8220.903453608644</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>24674</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7475001</v>
+        <v>7526483</v>
       </c>
       <c r="E152" t="n">
-        <v>19419248</v>
+        <v>19552993</v>
       </c>
       <c r="F152" t="n">
-        <v>3435.809950323789</v>
+        <v>6514.561908428832</v>
       </c>
       <c r="G152" t="n">
-        <v>10333.76700850121</v>
+        <v>6997.655264990201</v>
       </c>
       <c r="H152" t="n">
-        <v>0.52</v>
+        <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>717079</v>
+        <v>713929</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19191110192</v>
+        <v>19143257330</v>
       </c>
       <c r="F153" t="n">
-        <v>52439.16253616442</v>
+        <v>52438.1429870115</v>
       </c>
       <c r="G153" t="n">
-        <v>49986.42310979364</v>
+        <v>49915.82383694479</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>46104244</v>
+        <v>45827617</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2626705</v>
+        <v>2661908</v>
       </c>
       <c r="E154" t="n">
-        <v>10506818</v>
+        <v>10647630</v>
       </c>
       <c r="F154" t="n">
-        <v>23117.04403864664</v>
+        <v>26488.17959562729</v>
       </c>
       <c r="G154" t="n">
-        <v>4230.3960947393</v>
+        <v>4927.867338418278</v>
       </c>
       <c r="H154" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>6890832</v>
+        <v>6956866</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>229316700</v>
+        <v>227744117</v>
       </c>
       <c r="E155" t="n">
-        <v>705062555</v>
+        <v>700227454</v>
       </c>
       <c r="F155" t="n">
-        <v>91055.27617588933</v>
+        <v>117632.5993284075</v>
       </c>
       <c r="G155" t="n">
-        <v>199938.9464084237</v>
+        <v>180286.8601682234</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I155" t="n">
-        <v>16132982</v>
+        <v>16216636</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>404437044</v>
+        <v>408508602</v>
       </c>
       <c r="E156" t="n">
-        <v>2311068823</v>
+        <v>2334334868</v>
       </c>
       <c r="F156" t="n">
-        <v>162677.4195749188</v>
+        <v>122876.7849875039</v>
       </c>
       <c r="G156" t="n">
-        <v>281479.6250879018</v>
+        <v>297664.9029432242</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>39620521</v>
+        <v>40156336</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4129456</v>
+        <v>4167843</v>
       </c>
       <c r="F2" t="n">
-        <v>1563.69005860639</v>
+        <v>1258.678654097043</v>
       </c>
       <c r="G2" t="n">
-        <v>797.5184252481594</v>
+        <v>717.0815596359214</v>
       </c>
       <c r="H2" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="I2" t="n">
-        <v>147236</v>
+        <v>148168</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>615731752</v>
+        <v>620269343</v>
       </c>
       <c r="E3" t="n">
-        <v>1194800022</v>
+        <v>1203605168</v>
       </c>
       <c r="F3" t="n">
-        <v>68169.16159797036</v>
+        <v>54260.25921108715</v>
       </c>
       <c r="G3" t="n">
-        <v>78410.59065929198</v>
+        <v>71201.75134165699</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>20023824</v>
+        <v>20776898</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249953270</v>
+        <v>253228938</v>
       </c>
       <c r="E4" t="n">
-        <v>1567421821</v>
+        <v>1587963075</v>
       </c>
       <c r="F4" t="n">
-        <v>318723.501449109</v>
+        <v>253163.4175790529</v>
       </c>
       <c r="G4" t="n">
-        <v>263827.8213794433</v>
+        <v>226916.0055434342</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17162583</v>
+        <v>18493896</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149214893</v>
+        <v>150961450</v>
       </c>
       <c r="E5" t="n">
-        <v>165353421</v>
+        <v>167288879</v>
       </c>
       <c r="F5" t="n">
-        <v>8764.755264825737</v>
+        <v>8765.325953895132</v>
       </c>
       <c r="G5" t="n">
-        <v>1221.82248604184</v>
+        <v>991.6476349302513</v>
       </c>
       <c r="H5" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="n">
-        <v>38150935</v>
+        <v>39156853</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49418014</v>
+        <v>49434210</v>
       </c>
       <c r="E6" t="n">
-        <v>61820669</v>
+        <v>61840930</v>
       </c>
       <c r="F6" t="n">
-        <v>4036.851616793826</v>
+        <v>4435.045173469056</v>
       </c>
       <c r="G6" t="n">
-        <v>5768.423061402761</v>
+        <v>5477.395909173945</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I6" t="n">
-        <v>649740</v>
+        <v>676828</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69029284</v>
+        <v>69043343</v>
       </c>
       <c r="E7" t="n">
-        <v>137482973</v>
+        <v>137510973</v>
       </c>
       <c r="F7" t="n">
-        <v>9413.148192459297</v>
+        <v>9580.604585412148</v>
       </c>
       <c r="G7" t="n">
-        <v>12752.2299986797</v>
+        <v>13031.95002173467</v>
       </c>
       <c r="H7" t="n">
         <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1001692</v>
+        <v>997909</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41066588</v>
+        <v>41278180</v>
       </c>
       <c r="E8" t="n">
-        <v>45959427</v>
+        <v>46196229</v>
       </c>
       <c r="F8" t="n">
-        <v>6670.667001567087</v>
+        <v>7687.574480002715</v>
       </c>
       <c r="G8" t="n">
-        <v>6714.122451983035</v>
+        <v>6542.720828532615</v>
       </c>
       <c r="H8" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3629305</v>
+        <v>3683433</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14139474</v>
+        <v>14266681</v>
       </c>
       <c r="E9" t="n">
-        <v>41668117</v>
+        <v>42042988</v>
       </c>
       <c r="F9" t="n">
-        <v>5023.102947518038</v>
+        <v>201.4682202232162</v>
       </c>
       <c r="G9" t="n">
-        <v>4462.867136093659</v>
+        <v>310.5108266966493</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="I9" t="n">
-        <v>896331</v>
+        <v>896186</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10446110</v>
+        <v>10637415</v>
       </c>
       <c r="E10" t="n">
-        <v>44899255</v>
+        <v>45721519</v>
       </c>
       <c r="F10" t="n">
-        <v>3030.566127634407</v>
+        <v>2909.017234283804</v>
       </c>
       <c r="G10" t="n">
-        <v>5662.288041205718</v>
+        <v>3487.970023647819</v>
       </c>
       <c r="H10" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="I10" t="n">
-        <v>847615</v>
+        <v>853743</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>586732061</v>
+        <v>592192023</v>
       </c>
       <c r="E11" t="n">
-        <v>733914604</v>
+        <v>740744205</v>
       </c>
       <c r="F11" t="n">
-        <v>320474.7547363115</v>
+        <v>284446.6180591694</v>
       </c>
       <c r="G11" t="n">
-        <v>327507.1023321063</v>
+        <v>337262.8938375065</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>55362516</v>
+        <v>56839496</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4576513</v>
+        <v>4610354</v>
       </c>
       <c r="E12" t="n">
-        <v>28107371</v>
+        <v>28315216</v>
       </c>
       <c r="F12" t="n">
-        <v>12069.38167644907</v>
+        <v>10708.28931294359</v>
       </c>
       <c r="G12" t="n">
-        <v>9112.05248042468</v>
+        <v>8849.417721005313</v>
       </c>
       <c r="H12" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I12" t="n">
-        <v>671672</v>
+        <v>679702</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23193486</v>
+        <v>23161656</v>
       </c>
       <c r="E13" t="n">
-        <v>23236550</v>
+        <v>23204660</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>835928</v>
+        <v>834046</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81994134</v>
+        <v>82901937</v>
       </c>
       <c r="E14" t="n">
-        <v>241236911</v>
+        <v>243907780</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>339129</v>
+        <v>352290</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>485560161</v>
+        <v>496682784</v>
       </c>
       <c r="E15" t="n">
-        <v>485560167</v>
+        <v>496682791</v>
       </c>
       <c r="F15" t="n">
-        <v>14731.18294487739</v>
+        <v>15050.57028027525</v>
       </c>
       <c r="G15" t="n">
-        <v>18939.41393892501</v>
+        <v>19618.53458548939</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>64902795</v>
+        <v>78034563</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4738644</v>
+        <v>4756370</v>
       </c>
       <c r="E16" t="n">
-        <v>4738644</v>
+        <v>4756370</v>
       </c>
       <c r="F16" t="n">
-        <v>6516.964857863753</v>
+        <v>166.7462758341123</v>
       </c>
       <c r="G16" t="n">
-        <v>6388.377211088414</v>
+        <v>1196.531376609373</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1999213</v>
+        <v>2006856</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3413080</v>
+        <v>3425564</v>
       </c>
       <c r="E17" t="n">
-        <v>3413080</v>
+        <v>3425564</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>511092</v>
+        <v>512903</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>172175122</v>
+        <v>170420061</v>
       </c>
       <c r="E18" t="n">
-        <v>213159970</v>
+        <v>210987133</v>
       </c>
       <c r="F18" t="n">
-        <v>12212.50612877271</v>
+        <v>10981.56086200846</v>
       </c>
       <c r="G18" t="n">
-        <v>4453.67325325479</v>
+        <v>8026.355568825797</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>582979</v>
+        <v>596406</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6827963</v>
+        <v>6833114</v>
       </c>
       <c r="E19" t="n">
-        <v>9403849</v>
+        <v>9410944</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>379903</v>
+        <v>380328</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>905329</v>
+        <v>907217</v>
       </c>
       <c r="E20" t="n">
-        <v>6337304</v>
+        <v>6350520</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>223828</v>
+        <v>223434</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116701377</v>
+        <v>117744179</v>
       </c>
       <c r="E21" t="n">
-        <v>453961675</v>
+        <v>458008690</v>
       </c>
       <c r="F21" t="n">
-        <v>57482.23839962625</v>
+        <v>59128.98183878505</v>
       </c>
       <c r="G21" t="n">
-        <v>94763.97468490034</v>
+        <v>88819.82383232751</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>9290368</v>
+        <v>9662158</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1688655</v>
+        <v>1683226</v>
       </c>
       <c r="E22" t="n">
-        <v>12163241</v>
+        <v>12124135</v>
       </c>
       <c r="F22" t="n">
-        <v>4906.004742356877</v>
+        <v>4591.905304924638</v>
       </c>
       <c r="G22" t="n">
-        <v>4416.065535590657</v>
+        <v>4166.179802927795</v>
       </c>
       <c r="H22" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="I22" t="n">
-        <v>38088</v>
+        <v>38110</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>143147077</v>
+        <v>144878027</v>
       </c>
       <c r="E23" t="n">
-        <v>143147077</v>
+        <v>144878027</v>
       </c>
       <c r="F23" t="n">
-        <v>1040232.758886913</v>
+        <v>1016919.956190497</v>
       </c>
       <c r="G23" t="n">
-        <v>1394470.455079441</v>
+        <v>1135284.410583314</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>69649844</v>
+        <v>72243713</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68193265</v>
+        <v>68943304</v>
       </c>
       <c r="E24" t="n">
-        <v>349709049</v>
+        <v>353555405</v>
       </c>
       <c r="F24" t="n">
-        <v>59371.775751546</v>
+        <v>79270.40163591523</v>
       </c>
       <c r="G24" t="n">
-        <v>154187.5735886147</v>
+        <v>156760.5403499634</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>24731936</v>
+        <v>25344821</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>264115624</v>
+        <v>269400773</v>
       </c>
       <c r="E25" t="n">
-        <v>264115624</v>
+        <v>269400773</v>
       </c>
       <c r="F25" t="n">
-        <v>352368.5013652073</v>
+        <v>378762.6898378916</v>
       </c>
       <c r="G25" t="n">
-        <v>480897.7601272692</v>
+        <v>442766.6945478325</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>15032863</v>
+        <v>19328107</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1126747</v>
+        <v>1126504</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>172851</v>
+        <v>172241</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4031676</v>
+        <v>4069956</v>
       </c>
       <c r="E28" t="n">
-        <v>4032827</v>
+        <v>4071118</v>
       </c>
       <c r="F28" t="n">
-        <v>1003.482145767953</v>
+        <v>800.5666181796895</v>
       </c>
       <c r="G28" t="n">
-        <v>3639.849383387095</v>
+        <v>2176.682771485494</v>
       </c>
       <c r="H28" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="I28" t="n">
-        <v>257877</v>
+        <v>267340</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6656472</v>
+        <v>6659693</v>
       </c>
       <c r="E29" t="n">
-        <v>16168058</v>
+        <v>16175881</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>486428</v>
+        <v>487372</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100610613</v>
+        <v>101291079</v>
       </c>
       <c r="E30" t="n">
-        <v>125449641</v>
+        <v>126298102</v>
       </c>
       <c r="F30" t="n">
-        <v>105603.9990443917</v>
+        <v>112366.1990218294</v>
       </c>
       <c r="G30" t="n">
-        <v>103740.3356460758</v>
+        <v>101035.7383357229</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>10178011</v>
+        <v>10313629</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1133564</v>
+        <v>1130531</v>
       </c>
       <c r="E31" t="n">
-        <v>12319154</v>
+        <v>12286189</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>32171</v>
+        <v>32061</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84429912</v>
+        <v>86357057</v>
       </c>
       <c r="E32" t="n">
-        <v>236249184</v>
+        <v>241540799</v>
       </c>
       <c r="F32" t="n">
-        <v>56749.79948842104</v>
+        <v>44600.17163979348</v>
       </c>
       <c r="G32" t="n">
-        <v>78970.11518009918</v>
+        <v>61819.92424931449</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>44195681</v>
+        <v>50663197</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4127721</v>
+        <v>4133699</v>
       </c>
       <c r="E33" t="n">
-        <v>8140213</v>
+        <v>8152003</v>
       </c>
       <c r="F33" t="n">
-        <v>10175.39629873742</v>
+        <v>6107.860422479362</v>
       </c>
       <c r="G33" t="n">
-        <v>7284.4312500223</v>
+        <v>8095.590324807879</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="I33" t="n">
-        <v>1567877</v>
+        <v>1574111</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35738332</v>
+        <v>36169245</v>
       </c>
       <c r="F34" t="n">
-        <v>311.1224925150731</v>
+        <v>138.1418729175222</v>
       </c>
       <c r="G34" t="n">
-        <v>70.94337891931725</v>
+        <v>10.02492521586926</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="I34" t="n">
-        <v>69585</v>
+        <v>69269</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7694244</v>
+        <v>7676089</v>
       </c>
       <c r="E35" t="n">
-        <v>18121474</v>
+        <v>18078716</v>
       </c>
       <c r="F35" t="n">
-        <v>3451.626116406117</v>
+        <v>3452.477712893526</v>
       </c>
       <c r="G35" t="n">
-        <v>2575.807258033541</v>
+        <v>2665.960809423532</v>
       </c>
       <c r="H35" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="I35" t="n">
-        <v>33082</v>
+        <v>33431</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23082174</v>
+        <v>23035476</v>
       </c>
       <c r="F36" t="n">
-        <v>5087.438076369491</v>
+        <v>5071.37558799915</v>
       </c>
       <c r="G36" t="n">
-        <v>5557.062599979521</v>
+        <v>5557.677631972893</v>
       </c>
       <c r="H36" t="n">
         <v>1.38</v>
       </c>
       <c r="I36" t="n">
-        <v>129347</v>
+        <v>129183</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>79258660</v>
+        <v>81237388</v>
       </c>
       <c r="E37" t="n">
-        <v>165294554</v>
+        <v>169421207</v>
       </c>
       <c r="F37" t="n">
-        <v>72808.17365014266</v>
+        <v>91922.17542397504</v>
       </c>
       <c r="G37" t="n">
-        <v>120123.1686227391</v>
+        <v>106727.3955773439</v>
       </c>
       <c r="H37" t="n">
         <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>19099430</v>
+        <v>19885366</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277452336</v>
+        <v>281159255</v>
       </c>
       <c r="E38" t="n">
-        <v>277452336</v>
+        <v>281159255</v>
       </c>
       <c r="F38" t="n">
-        <v>39661.89616295022</v>
+        <v>38368.5919112027</v>
       </c>
       <c r="G38" t="n">
-        <v>22452.0914770641</v>
+        <v>23975.45587373385</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>9470483</v>
+        <v>9686177</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>209169756</v>
+        <v>210238235</v>
       </c>
       <c r="E39" t="n">
-        <v>726674638</v>
+        <v>730386628</v>
       </c>
       <c r="F39" t="n">
-        <v>135012.1994922801</v>
+        <v>172265.978437377</v>
       </c>
       <c r="G39" t="n">
-        <v>221492.2181922646</v>
+        <v>372228.3481189971</v>
       </c>
       <c r="H39" t="n">
         <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>29676087</v>
+        <v>32225416</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3415009</v>
+        <v>3546905</v>
       </c>
       <c r="E40" t="n">
-        <v>3415009</v>
+        <v>3546905</v>
       </c>
       <c r="F40" t="n">
-        <v>6645.969513412625</v>
+        <v>1953.502422310622</v>
       </c>
       <c r="G40" t="n">
-        <v>6933.298009724612</v>
+        <v>5850.902421210959</v>
       </c>
       <c r="H40" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2507136</v>
+        <v>2545515</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>117863512</v>
+        <v>119631736</v>
       </c>
       <c r="E41" t="n">
-        <v>500601973</v>
+        <v>508112157</v>
       </c>
       <c r="F41" t="n">
-        <v>5594.750410610434</v>
+        <v>5627.411324617356</v>
       </c>
       <c r="G41" t="n">
-        <v>6278.078467487931</v>
+        <v>3884.020646351134</v>
       </c>
       <c r="H41" t="n">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="I41" t="n">
-        <v>15803669</v>
+        <v>16032112</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>572624</v>
+        <v>571442</v>
       </c>
       <c r="E42" t="n">
-        <v>6945375</v>
+        <v>6931040</v>
       </c>
       <c r="F42" t="n">
-        <v>761.827999973863</v>
+        <v>553.7456548830988</v>
       </c>
       <c r="G42" t="n">
-        <v>1128.397575952633</v>
+        <v>998.0851619618519</v>
       </c>
       <c r="H42" t="n">
-        <v>0.87</v>
+        <v>1.21</v>
       </c>
       <c r="I42" t="n">
-        <v>2807606</v>
+        <v>2808210</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1314825484</v>
+        <v>1339694558</v>
       </c>
       <c r="E43" t="n">
-        <v>6304857466</v>
+        <v>6424109767</v>
       </c>
       <c r="F43" t="n">
-        <v>41977.9093100141</v>
+        <v>79677.66068297798</v>
       </c>
       <c r="G43" t="n">
-        <v>80848.10902538328</v>
+        <v>91474.88596550332</v>
       </c>
       <c r="H43" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I43" t="n">
-        <v>168990334</v>
+        <v>175804979</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6054022591</v>
+        <v>6055255904</v>
       </c>
       <c r="E44" t="n">
-        <v>6054022591</v>
+        <v>6055255904</v>
       </c>
       <c r="F44" t="n">
-        <v>17185.87928144234</v>
+        <v>966333.7411739179</v>
       </c>
       <c r="G44" t="n">
-        <v>15575.23503685093</v>
+        <v>1647928.081374929</v>
       </c>
       <c r="H44" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>87351490</v>
+        <v>87764718</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>274996094</v>
+        <v>279667493</v>
       </c>
       <c r="E45" t="n">
-        <v>1187035805</v>
+        <v>1207200153</v>
       </c>
       <c r="F45" t="n">
-        <v>111386.1585946993</v>
+        <v>90913.58314007304</v>
       </c>
       <c r="G45" t="n">
-        <v>97880.90910907148</v>
+        <v>76467.03835809453</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>101791521</v>
+        <v>106681770</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115415895</v>
+        <v>116977395</v>
       </c>
       <c r="E46" t="n">
-        <v>115415895</v>
+        <v>116977395</v>
       </c>
       <c r="F46" t="n">
-        <v>38417.27087650367</v>
+        <v>35846.2016942642</v>
       </c>
       <c r="G46" t="n">
-        <v>41068.85756905864</v>
+        <v>34762.1956960615</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6154702</v>
+        <v>6272893</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045075862</v>
+        <v>2049977852</v>
       </c>
       <c r="E47" t="n">
-        <v>2045075862</v>
+        <v>2049977852</v>
       </c>
       <c r="F47" t="n">
-        <v>225761.0760916169</v>
+        <v>225717.7535110447</v>
       </c>
       <c r="G47" t="n">
-        <v>199223.2856842786</v>
+        <v>199264.2397428497</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>7018925109</v>
+        <v>7028215479</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10194640</v>
+        <v>10330902</v>
       </c>
       <c r="F48" t="n">
-        <v>7403.19917920079</v>
+        <v>6257.916819743415</v>
       </c>
       <c r="G48" t="n">
-        <v>6144.001731489374</v>
+        <v>5669.691127567868</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>130728</v>
+        <v>136518</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4438505</v>
+        <v>4457393</v>
       </c>
       <c r="E49" t="n">
-        <v>5827178</v>
+        <v>5851975</v>
       </c>
       <c r="F49" t="n">
-        <v>13808.94004653298</v>
+        <v>13766.5101832915</v>
       </c>
       <c r="G49" t="n">
-        <v>16357.11852688598</v>
+        <v>16419.64142315198</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>616031</v>
+        <v>613891</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12508252</v>
+        <v>12548639</v>
       </c>
       <c r="E50" t="n">
-        <v>18393149</v>
+        <v>18452538</v>
       </c>
       <c r="F50" t="n">
-        <v>7176.938908518604</v>
+        <v>6756.9950292851</v>
       </c>
       <c r="G50" t="n">
-        <v>6801.806368550508</v>
+        <v>6810.010368198245</v>
       </c>
       <c r="H50" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>3363503</v>
+        <v>1215715</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23031907</v>
+        <v>23059919</v>
       </c>
       <c r="E51" t="n">
-        <v>29877652</v>
+        <v>29913990</v>
       </c>
       <c r="F51" t="n">
-        <v>13335.44481936961</v>
+        <v>11966.02227858894</v>
       </c>
       <c r="G51" t="n">
-        <v>11873.31761497053</v>
+        <v>12012.10801169724</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>174755</v>
+        <v>341691</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13896162</v>
+        <v>14094395</v>
       </c>
       <c r="E52" t="n">
-        <v>13896162</v>
+        <v>14094395</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4891114</v>
+        <v>4917474</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99116075</v>
+        <v>99250248</v>
       </c>
       <c r="E53" t="n">
-        <v>122603037</v>
+        <v>122769004</v>
       </c>
       <c r="F53" t="n">
-        <v>508.7773540718127</v>
+        <v>874.4007575487375</v>
       </c>
       <c r="G53" t="n">
-        <v>4066.638143459236</v>
+        <v>1484.325454630698</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I53" t="n">
-        <v>861566</v>
+        <v>843074</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5180940</v>
+        <v>5213455</v>
       </c>
       <c r="E54" t="n">
-        <v>7248886</v>
+        <v>7294379</v>
       </c>
       <c r="F54" t="n">
-        <v>452.4890376856185</v>
+        <v>87.96334964700509</v>
       </c>
       <c r="G54" t="n">
-        <v>349.5449564813244</v>
+        <v>90.46957582953242</v>
       </c>
       <c r="H54" t="n">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="I54" t="n">
-        <v>88920</v>
+        <v>89102</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15261488</v>
+        <v>15659896</v>
       </c>
       <c r="E55" t="n">
-        <v>73913824</v>
+        <v>75843377</v>
       </c>
       <c r="F55" t="n">
-        <v>19728.32364815695</v>
+        <v>21053.01860936933</v>
       </c>
       <c r="G55" t="n">
-        <v>49067.09750137677</v>
+        <v>24283.79612226164</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="I55" t="n">
-        <v>3898754</v>
+        <v>4043989</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60507</v>
+        <v>57882</v>
       </c>
       <c r="E56" t="n">
-        <v>144928</v>
+        <v>138639</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3563.16</v>
+        <v>3552.14</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1931807915</v>
+        <v>1931171039</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27759644</v>
+        <v>27722663</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12435135</v>
+        <v>12481290</v>
       </c>
       <c r="E58" t="n">
-        <v>18029151</v>
+        <v>18096069</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2149257</v>
+        <v>2149778</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123736753</v>
+        <v>124781497</v>
       </c>
       <c r="E59" t="n">
-        <v>329069225</v>
+        <v>331847649</v>
       </c>
       <c r="F59" t="n">
-        <v>8038.83619411223</v>
+        <v>8629.794239709719</v>
       </c>
       <c r="G59" t="n">
-        <v>7313.403779199906</v>
+        <v>7371.103628795494</v>
       </c>
       <c r="H59" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="I59" t="n">
-        <v>845935</v>
+        <v>847254</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31581408</v>
+        <v>31922989</v>
       </c>
       <c r="E60" t="n">
-        <v>98334371</v>
+        <v>99397947</v>
       </c>
       <c r="F60" t="n">
-        <v>3215.248862342607</v>
+        <v>2802.225686863138</v>
       </c>
       <c r="G60" t="n">
-        <v>5138.180857729287</v>
+        <v>5462.047064363664</v>
       </c>
       <c r="H60" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I60" t="n">
-        <v>10628394</v>
+        <v>10635775</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1968952</v>
+        <v>1957652</v>
       </c>
       <c r="E61" t="n">
-        <v>14119159</v>
+        <v>14038126</v>
       </c>
       <c r="F61" t="n">
-        <v>5432.285783640667</v>
+        <v>5431.737291458036</v>
       </c>
       <c r="G61" t="n">
-        <v>4998.934114535771</v>
+        <v>4998.429377415429</v>
       </c>
       <c r="H61" t="n">
         <v>2.76</v>
       </c>
       <c r="I61" t="n">
-        <v>2051493</v>
+        <v>2042130</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>207409930</v>
+        <v>210409904</v>
       </c>
       <c r="E62" t="n">
-        <v>1174482467</v>
+        <v>1191470163</v>
       </c>
       <c r="F62" t="n">
-        <v>694169.0429968239</v>
+        <v>675412.2834342128</v>
       </c>
       <c r="G62" t="n">
-        <v>708257.7536822794</v>
+        <v>908934.1583755128</v>
       </c>
       <c r="H62" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>67983040</v>
+        <v>69388845</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>505241</v>
+        <v>502573</v>
       </c>
       <c r="E63" t="n">
-        <v>1700570</v>
+        <v>1691590</v>
       </c>
       <c r="F63" t="n">
-        <v>4564.153185808366</v>
+        <v>479.1954763165616</v>
       </c>
       <c r="G63" t="n">
-        <v>437.8147100632519</v>
+        <v>407.9696573373149</v>
       </c>
       <c r="H63" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>633130</v>
+        <v>632093</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>342764</v>
+        <v>348319</v>
       </c>
       <c r="E64" t="n">
-        <v>342764</v>
+        <v>348319</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4632.58</v>
+        <v>4649.96</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>143742114</v>
+        <v>144209049</v>
       </c>
       <c r="E65" t="n">
-        <v>1064756401</v>
+        <v>1068215179</v>
       </c>
       <c r="F65" t="n">
-        <v>38819.81995943183</v>
+        <v>34438.72830369918</v>
       </c>
       <c r="G65" t="n">
-        <v>35555.03134877866</v>
+        <v>41845.22863103517</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>8354311</v>
+        <v>8036712</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8053271</v>
+        <v>8228386</v>
       </c>
       <c r="E66" t="n">
-        <v>10788697</v>
+        <v>11023293</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8748.18</v>
+        <v>63843</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26920507</v>
+        <v>26908012</v>
       </c>
       <c r="E67" t="n">
-        <v>26920507</v>
+        <v>26908012</v>
       </c>
       <c r="F67" t="n">
-        <v>7749.489546183479</v>
+        <v>7716.207742313573</v>
       </c>
       <c r="G67" t="n">
-        <v>9109.59547071706</v>
+        <v>9140.219063456216</v>
       </c>
       <c r="H67" t="n">
         <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>313663</v>
+        <v>316815</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1582011</v>
+        <v>1613666</v>
       </c>
       <c r="E68" t="n">
-        <v>12286079</v>
+        <v>12531917</v>
       </c>
       <c r="F68" t="n">
-        <v>11882.57136619806</v>
+        <v>12371.22557357509</v>
       </c>
       <c r="G68" t="n">
-        <v>14207.56707287983</v>
+        <v>14165.47697315673</v>
       </c>
       <c r="H68" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I68" t="n">
-        <v>526023</v>
+        <v>539690</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>348113619</v>
+        <v>350003596</v>
       </c>
       <c r="E69" t="n">
-        <v>3131845975</v>
+        <v>3148849381</v>
       </c>
       <c r="F69" t="n">
-        <v>582147.9899763651</v>
+        <v>1149540.490244518</v>
       </c>
       <c r="G69" t="n">
-        <v>1113724.22412326</v>
+        <v>1818351.035250146</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I69" t="n">
-        <v>44520011</v>
+        <v>47072665</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>248832</v>
+        <v>247553</v>
       </c>
       <c r="E70" t="n">
-        <v>2196129</v>
+        <v>2184842</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>90370</v>
+        <v>86286</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1574201</v>
+        <v>1575041</v>
       </c>
       <c r="E71" t="n">
-        <v>13118345</v>
+        <v>13125343</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>24594</v>
+        <v>24444</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9302891</v>
+        <v>9420317</v>
       </c>
       <c r="E72" t="n">
-        <v>43119432</v>
+        <v>43663711</v>
       </c>
       <c r="F72" t="n">
-        <v>4649.55374057661</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>9549.221064312016</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.05</v>
+        <v>5.37</v>
       </c>
       <c r="I72" t="n">
-        <v>109875</v>
+        <v>110962</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>49255006</v>
+        <v>50025998</v>
       </c>
       <c r="E73" t="n">
-        <v>285166134</v>
+        <v>289629858</v>
       </c>
       <c r="F73" t="n">
-        <v>121417.4407751562</v>
+        <v>105836.215030486</v>
       </c>
       <c r="G73" t="n">
-        <v>233335.2388655999</v>
+        <v>176273.3286790605</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>33861123</v>
+        <v>26976920</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39573426</v>
+        <v>39481830</v>
       </c>
       <c r="E74" t="n">
-        <v>54656537</v>
+        <v>54530030</v>
       </c>
       <c r="F74" t="n">
-        <v>4521.062940791876</v>
+        <v>4557.049044511815</v>
       </c>
       <c r="G74" t="n">
-        <v>10559.68859509086</v>
+        <v>10834.75376618364</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>314155</v>
+        <v>342082</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97782</v>
+        <v>99614</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>297.03</v>
+        <v>399.99</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13781602</v>
+        <v>14074998</v>
       </c>
       <c r="E76" t="n">
-        <v>13828502</v>
+        <v>14122897</v>
       </c>
       <c r="F76" t="n">
-        <v>2129.198691336974</v>
+        <v>1346.470835190392</v>
       </c>
       <c r="G76" t="n">
-        <v>7237.920982100574</v>
+        <v>6267.841751469098</v>
       </c>
       <c r="H76" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="I76" t="n">
-        <v>6022388</v>
+        <v>5680753</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42850561</v>
+        <v>43223223</v>
       </c>
       <c r="E77" t="n">
-        <v>72750284</v>
+        <v>73382977</v>
       </c>
       <c r="F77" t="n">
-        <v>9979.468295387607</v>
+        <v>10635.24530424828</v>
       </c>
       <c r="G77" t="n">
-        <v>6675.768308723732</v>
+        <v>4523.888592871619</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="I77" t="n">
-        <v>1036348</v>
+        <v>1196601</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23003387</v>
+        <v>23369560</v>
       </c>
       <c r="E78" t="n">
-        <v>68953577</v>
+        <v>70051194</v>
       </c>
       <c r="F78" t="n">
-        <v>147039.8119205194</v>
+        <v>126889.7916437921</v>
       </c>
       <c r="G78" t="n">
-        <v>137185.1203919336</v>
+        <v>146840.6811617498</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="I78" t="n">
-        <v>3460990</v>
+        <v>3479698</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>103642587</v>
+        <v>102711801</v>
       </c>
       <c r="E79" t="n">
-        <v>110181437</v>
+        <v>109191927</v>
       </c>
       <c r="F79" t="n">
-        <v>3236.930032173707</v>
+        <v>2384.963572644449</v>
       </c>
       <c r="G79" t="n">
-        <v>3808.72309034742</v>
+        <v>4293.978890312877</v>
       </c>
       <c r="H79" t="n">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="I79" t="n">
-        <v>1450251</v>
+        <v>452399</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10412390</v>
+        <v>10388559</v>
       </c>
       <c r="E80" t="n">
-        <v>45242566</v>
+        <v>45139020</v>
       </c>
       <c r="F80" t="n">
-        <v>6988.504332976262</v>
+        <v>7137.88329732903</v>
       </c>
       <c r="G80" t="n">
-        <v>5014.405785951965</v>
+        <v>5052.29256172482</v>
       </c>
       <c r="H80" t="n">
         <v>0.05</v>
       </c>
       <c r="I80" t="n">
-        <v>111318</v>
+        <v>111094</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15881714</v>
+        <v>15954857</v>
       </c>
       <c r="E81" t="n">
-        <v>97344246</v>
+        <v>97792566</v>
       </c>
       <c r="F81" t="n">
-        <v>4121.522556885265</v>
+        <v>4199.487298590171</v>
       </c>
       <c r="G81" t="n">
-        <v>5015.589225898709</v>
+        <v>4909.353742913858</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>10235155</v>
+        <v>10397030</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1507333</v>
+        <v>1525166</v>
       </c>
       <c r="E82" t="n">
-        <v>1549732</v>
+        <v>1568067</v>
       </c>
       <c r="F82" t="n">
-        <v>5823.906554127057</v>
+        <v>6091.433920420281</v>
       </c>
       <c r="G82" t="n">
-        <v>6070.392595015245</v>
+        <v>5841.842045416081</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>146056</v>
+        <v>145798</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50414378</v>
+        <v>50605894</v>
       </c>
       <c r="E83" t="n">
-        <v>217179627</v>
+        <v>218004657</v>
       </c>
       <c r="F83" t="n">
-        <v>3503.553093831358</v>
+        <v>4434.852809343542</v>
       </c>
       <c r="G83" t="n">
-        <v>4749.460958812198</v>
+        <v>3267.043160582007</v>
       </c>
       <c r="H83" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I83" t="n">
-        <v>9930117</v>
+        <v>10257028</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2015433</v>
+        <v>2007443</v>
       </c>
       <c r="E84" t="n">
-        <v>7319859</v>
+        <v>7290842</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>154959</v>
+        <v>154763</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8936900</v>
+        <v>8932151</v>
       </c>
       <c r="E85" t="n">
-        <v>19840521</v>
+        <v>19829978</v>
       </c>
       <c r="F85" t="n">
-        <v>7523.319991767103</v>
+        <v>5867.705599688354</v>
       </c>
       <c r="G85" t="n">
-        <v>6349.993408886057</v>
+        <v>6457.213091780079</v>
       </c>
       <c r="H85" t="n">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>338429</v>
+        <v>330912</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441232</v>
+        <v>2439718</v>
       </c>
       <c r="E86" t="n">
-        <v>18369644</v>
+        <v>18358249</v>
       </c>
       <c r="F86" t="n">
-        <v>5172.850551266394</v>
+        <v>5251.662011548</v>
       </c>
       <c r="G86" t="n">
-        <v>11071.02081318432</v>
+        <v>12307.52188385287</v>
       </c>
       <c r="H86" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I86" t="n">
-        <v>163304</v>
+        <v>163453</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20965463</v>
+        <v>21237628</v>
       </c>
       <c r="E87" t="n">
-        <v>83861853</v>
+        <v>84950511</v>
       </c>
       <c r="F87" t="n">
-        <v>7666.998114472472</v>
+        <v>9368.105707473136</v>
       </c>
       <c r="G87" t="n">
-        <v>1081.046333179792</v>
+        <v>1163.172955835021</v>
       </c>
       <c r="H87" t="n">
-        <v>1.19</v>
+        <v>0.48</v>
       </c>
       <c r="I87" t="n">
-        <v>2433687</v>
+        <v>2460830</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4938928</v>
+        <v>5025168</v>
       </c>
       <c r="E88" t="n">
-        <v>4938928</v>
+        <v>5025168</v>
       </c>
       <c r="F88" t="n">
-        <v>1664.602975717871</v>
+        <v>1134.032327997679</v>
       </c>
       <c r="G88" t="n">
-        <v>943.3205549255483</v>
+        <v>1426.724536072049</v>
       </c>
       <c r="H88" t="n">
-        <v>0.27</v>
+        <v>1.2</v>
       </c>
       <c r="I88" t="n">
-        <v>3066542</v>
+        <v>3091266</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12802253</v>
+        <v>12902212</v>
       </c>
       <c r="E89" t="n">
-        <v>40495937</v>
+        <v>40812126</v>
       </c>
       <c r="F89" t="n">
-        <v>15086.49327572865</v>
+        <v>24168.9985452933</v>
       </c>
       <c r="G89" t="n">
-        <v>11388.8721878508</v>
+        <v>9677.078525043327</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I89" t="n">
-        <v>987206</v>
+        <v>982566</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24611</v>
+        <v>24570</v>
       </c>
       <c r="E90" t="n">
-        <v>193560</v>
+        <v>193234</v>
       </c>
       <c r="F90" t="n">
-        <v>3449.792972059165</v>
+        <v>3335.777604443542</v>
       </c>
       <c r="G90" t="n">
-        <v>406.8541009043419</v>
+        <v>286.3329168738107</v>
       </c>
       <c r="H90" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>59931</v>
+        <v>59786</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8444002</v>
+        <v>8542107</v>
       </c>
       <c r="E91" t="n">
-        <v>8444002</v>
+        <v>8542107</v>
       </c>
       <c r="F91" t="n">
-        <v>3375.678557106306</v>
+        <v>4033.911907428758</v>
       </c>
       <c r="G91" t="n">
-        <v>3952.317203764163</v>
+        <v>3981.528764625974</v>
       </c>
       <c r="H91" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="I91" t="n">
-        <v>3752230</v>
+        <v>3763712</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9318014</v>
+        <v>9428901</v>
       </c>
       <c r="E92" t="n">
-        <v>9318014</v>
+        <v>9428901</v>
       </c>
       <c r="F92" t="n">
-        <v>5826.377334812246</v>
+        <v>4175.780565682945</v>
       </c>
       <c r="G92" t="n">
-        <v>5119.062104090098</v>
+        <v>4729.007916894891</v>
       </c>
       <c r="H92" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I92" t="n">
-        <v>2995091</v>
+        <v>3061268</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37531496</v>
+        <v>37808442</v>
       </c>
       <c r="E93" t="n">
-        <v>94636414</v>
+        <v>95334739</v>
       </c>
       <c r="F93" t="n">
-        <v>5294.256857787918</v>
+        <v>5065.507831915125</v>
       </c>
       <c r="G93" t="n">
-        <v>5847.335720382288</v>
+        <v>5448.190394202315</v>
       </c>
       <c r="H93" t="n">
         <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>3473079</v>
+        <v>3500986</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>318633571</v>
+        <v>321674708</v>
       </c>
       <c r="E94" t="n">
-        <v>323604617</v>
+        <v>326693200</v>
       </c>
       <c r="F94" t="n">
-        <v>4932.089320460501</v>
+        <v>2876.694206544568</v>
       </c>
       <c r="G94" t="n">
-        <v>5502.687376566882</v>
+        <v>4908.532751474566</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="I94" t="n">
-        <v>18939772</v>
+        <v>17255994</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6093.889849293932</v>
+        <v>6101.549883656995</v>
       </c>
       <c r="G95" t="n">
-        <v>6268.508376862682</v>
+        <v>6304.206004129705</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>215435</v>
+        <v>215054</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>86536747</v>
+        <v>87065508</v>
       </c>
       <c r="E96" t="n">
-        <v>86536747</v>
+        <v>87065508</v>
       </c>
       <c r="F96" t="n">
-        <v>10164.49344746871</v>
+        <v>10496.46195809342</v>
       </c>
       <c r="G96" t="n">
-        <v>8599.669286521965</v>
+        <v>8058.318780404141</v>
       </c>
       <c r="H96" t="n">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="I96" t="n">
-        <v>5250432</v>
+        <v>5342847</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="E97" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="F97" t="n">
-        <v>236518.6841091323</v>
+        <v>245055.6225300081</v>
       </c>
       <c r="G97" t="n">
-        <v>443851.1030093497</v>
+        <v>424824.3683164165</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>71796104</v>
+        <v>81450290</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4207682</v>
+        <v>4224254</v>
       </c>
       <c r="E98" t="n">
-        <v>28750795</v>
+        <v>28864027</v>
       </c>
       <c r="F98" t="n">
-        <v>184.4776551615919</v>
+        <v>288.3514050370034</v>
       </c>
       <c r="G98" t="n">
-        <v>361.9398128830669</v>
+        <v>475.8995662832999</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2649584</v>
+        <v>2655031</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>92353141</v>
+        <v>93790251</v>
       </c>
       <c r="E99" t="n">
-        <v>532178634</v>
+        <v>540459883</v>
       </c>
       <c r="F99" t="n">
-        <v>156038.0686904816</v>
+        <v>138905.6706334445</v>
       </c>
       <c r="G99" t="n">
-        <v>158199.8423662322</v>
+        <v>141505.4842368295</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I99" t="n">
-        <v>17397326</v>
+        <v>17793083</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>110164641</v>
+        <v>111703215</v>
       </c>
       <c r="E100" t="n">
-        <v>271048057</v>
+        <v>274833551</v>
       </c>
       <c r="F100" t="n">
-        <v>22600.28877077462</v>
+        <v>25216.68370826529</v>
       </c>
       <c r="G100" t="n">
-        <v>44829.61241613649</v>
+        <v>40862.79069158647</v>
       </c>
       <c r="H100" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I100" t="n">
-        <v>2049252</v>
+        <v>2730356</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>250562281</v>
+        <v>251204793</v>
       </c>
       <c r="E101" t="n">
-        <v>250564770</v>
+        <v>251207289</v>
       </c>
       <c r="F101" t="n">
-        <v>45321.69990941181</v>
+        <v>10856.23890491735</v>
       </c>
       <c r="G101" t="n">
-        <v>19402.48406425191</v>
+        <v>20129.38427428897</v>
       </c>
       <c r="H101" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I101" t="n">
-        <v>2740471</v>
+        <v>2462084</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>31172332</v>
+        <v>31469777</v>
       </c>
       <c r="E102" t="n">
-        <v>139571317</v>
+        <v>140903101</v>
       </c>
       <c r="F102" t="n">
-        <v>119544.016087528</v>
+        <v>108517.5918547603</v>
       </c>
       <c r="G102" t="n">
-        <v>127567.4205329443</v>
+        <v>146480.0528663887</v>
       </c>
       <c r="H102" t="n">
         <v>0.14</v>
       </c>
       <c r="I102" t="n">
-        <v>8515280</v>
+        <v>8672481</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3215370</v>
+        <v>3252083</v>
       </c>
       <c r="E103" t="n">
-        <v>3215370</v>
+        <v>3252083</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>415668</v>
+        <v>405178</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5806796</v>
+        <v>5888339</v>
       </c>
       <c r="E104" t="n">
-        <v>15239944</v>
+        <v>15453956</v>
       </c>
       <c r="F104" t="n">
-        <v>700.752053529092</v>
+        <v>8911.485163531692</v>
       </c>
       <c r="G104" t="n">
-        <v>2418.068255968249</v>
+        <v>2436.040868115203</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="I104" t="n">
-        <v>25516</v>
+        <v>26280</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16357542</v>
+        <v>16511118</v>
       </c>
       <c r="E105" t="n">
-        <v>75504089</v>
+        <v>76212974</v>
       </c>
       <c r="F105" t="n">
-        <v>32885.16907892333</v>
+        <v>26472.88106092003</v>
       </c>
       <c r="G105" t="n">
-        <v>74758.32349058868</v>
+        <v>67589.08634181038</v>
       </c>
       <c r="H105" t="n">
         <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>899144</v>
+        <v>901117</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>51694847</v>
+        <v>52268899</v>
       </c>
       <c r="E106" t="n">
-        <v>335227326</v>
+        <v>338949900</v>
       </c>
       <c r="F106" t="n">
-        <v>74994.29510406961</v>
+        <v>86259.4070376223</v>
       </c>
       <c r="G106" t="n">
-        <v>122537.8591792057</v>
+        <v>126326.2223329837</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>16825276</v>
+        <v>17653363</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2436949</v>
+        <v>2487492</v>
       </c>
       <c r="E107" t="n">
-        <v>4414992</v>
+        <v>4506559</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>124721</v>
+        <v>130895</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125306819</v>
+        <v>125243422</v>
       </c>
       <c r="E108" t="n">
-        <v>2075183547</v>
+        <v>2074133646</v>
       </c>
       <c r="F108" t="n">
-        <v>228199.5629554745</v>
+        <v>229292.3597243877</v>
       </c>
       <c r="G108" t="n">
-        <v>205383.8816407831</v>
+        <v>107763.9977614053</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4486697</v>
+        <v>4575889</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24907474</v>
+        <v>25271307</v>
       </c>
       <c r="E109" t="n">
-        <v>149026425</v>
+        <v>151203312</v>
       </c>
       <c r="F109" t="n">
-        <v>42197.73532922625</v>
+        <v>43427.70447051508</v>
       </c>
       <c r="G109" t="n">
-        <v>42772.40196187832</v>
+        <v>42772.8627789949</v>
       </c>
       <c r="H109" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="I109" t="n">
-        <v>12317555</v>
+        <v>12637631</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1042076</v>
+        <v>1037482</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>67002</v>
+        <v>66730</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2245707</v>
+        <v>2241804</v>
       </c>
       <c r="F111" t="n">
-        <v>3762.359895572221</v>
+        <v>3719.004784361291</v>
       </c>
       <c r="G111" t="n">
-        <v>475.8289248734741</v>
+        <v>393.486414763409</v>
       </c>
       <c r="H111" t="n">
         <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>178148</v>
+        <v>177777</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147531462</v>
+        <v>147456153</v>
       </c>
       <c r="F112" t="n">
-        <v>8563.311404606917</v>
+        <v>8607.309306001465</v>
       </c>
       <c r="G112" t="n">
-        <v>3183.626350045357</v>
+        <v>2930.240139232286</v>
       </c>
       <c r="H112" t="n">
-        <v>0.54</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>25887</v>
+        <v>26462</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6675060</v>
+        <v>6684644</v>
       </c>
       <c r="E113" t="n">
-        <v>34341155</v>
+        <v>34390460</v>
       </c>
       <c r="F113" t="n">
-        <v>2174.399563121508</v>
+        <v>1767.914709952047</v>
       </c>
       <c r="G113" t="n">
-        <v>1279.967550637157</v>
+        <v>2504.385901998417</v>
       </c>
       <c r="H113" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="I113" t="n">
-        <v>904361</v>
+        <v>905344</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29170105</v>
+        <v>29154692</v>
       </c>
       <c r="E114" t="n">
-        <v>39997314</v>
+        <v>39976180</v>
       </c>
       <c r="F114" t="n">
-        <v>4909.436215226033</v>
+        <v>4814.494726663296</v>
       </c>
       <c r="G114" t="n">
-        <v>4400.066450451774</v>
+        <v>4487.04704956567</v>
       </c>
       <c r="H114" t="n">
         <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>205747</v>
+        <v>206562</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7994727</v>
+        <v>7988295</v>
       </c>
       <c r="F115" t="n">
-        <v>127.2789346262363</v>
+        <v>156.1542726915642</v>
       </c>
       <c r="G115" t="n">
-        <v>5764.248788615536</v>
+        <v>6867.251116297211</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I115" t="n">
-        <v>653649</v>
+        <v>653231</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3388953</v>
+        <v>3399482</v>
       </c>
       <c r="E116" t="n">
-        <v>4539716</v>
+        <v>4553821</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>150069</v>
+        <v>149534</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34898631</v>
+        <v>35506119</v>
       </c>
       <c r="E117" t="n">
-        <v>174160256</v>
+        <v>177191900</v>
       </c>
       <c r="F117" t="n">
-        <v>108622.2287084575</v>
+        <v>81255.43484254941</v>
       </c>
       <c r="G117" t="n">
-        <v>77648.31768745862</v>
+        <v>69842.32161654437</v>
       </c>
       <c r="H117" t="n">
         <v>0.11</v>
       </c>
       <c r="I117" t="n">
-        <v>10669943</v>
+        <v>10546941</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3503238</v>
+        <v>3505439</v>
       </c>
       <c r="E118" t="n">
-        <v>5032466</v>
+        <v>5035628</v>
       </c>
       <c r="F118" t="n">
-        <v>564.3130965102179</v>
+        <v>564.2568024044798</v>
       </c>
       <c r="G118" t="n">
-        <v>625.1013945817974</v>
+        <v>625.0390364259773</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>141930</v>
+        <v>141480</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>322344879</v>
+        <v>323581194</v>
       </c>
       <c r="E119" t="n">
-        <v>596411536</v>
+        <v>598699001</v>
       </c>
       <c r="F119" t="n">
-        <v>135526.518731598</v>
+        <v>122532.9874119765</v>
       </c>
       <c r="G119" t="n">
-        <v>138498.7309611654</v>
+        <v>147699.8312443434</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I119" t="n">
-        <v>14165827</v>
+        <v>14294582</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>73170573</v>
+        <v>74245456</v>
       </c>
       <c r="E120" t="n">
-        <v>697990514</v>
+        <v>708241552</v>
       </c>
       <c r="F120" t="n">
-        <v>3206.526709383639</v>
+        <v>5778.353007572849</v>
       </c>
       <c r="G120" t="n">
-        <v>42714.04994076829</v>
+        <v>41598.67728047065</v>
       </c>
       <c r="H120" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I120" t="n">
-        <v>21523054</v>
+        <v>22504445</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38101864</v>
+        <v>38648587</v>
       </c>
       <c r="E121" t="n">
-        <v>49814916</v>
+        <v>50529708</v>
       </c>
       <c r="F121" t="n">
-        <v>105.4008730224166</v>
+        <v>123.3197355611293</v>
       </c>
       <c r="G121" t="n">
-        <v>6488.781325869761</v>
+        <v>1048.483007378507</v>
       </c>
       <c r="H121" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>550989</v>
+        <v>560464</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11554568</v>
+        <v>11640732</v>
       </c>
       <c r="E122" t="n">
-        <v>34276987</v>
+        <v>34532597</v>
       </c>
       <c r="F122" t="n">
-        <v>3747.218352206307</v>
+        <v>1922.300279955012</v>
       </c>
       <c r="G122" t="n">
-        <v>6958.864951332147</v>
+        <v>5162.748791404264</v>
       </c>
       <c r="H122" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="I122" t="n">
-        <v>7428698</v>
+        <v>7342943</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2276955</v>
+        <v>2278627</v>
       </c>
       <c r="E123" t="n">
-        <v>7791398</v>
+        <v>7797119</v>
       </c>
       <c r="F123" t="n">
-        <v>807.660242640252</v>
+        <v>807.5796729859578</v>
       </c>
       <c r="G123" t="n">
-        <v>918.3925749403885</v>
+        <v>942.3571767428134</v>
       </c>
       <c r="H123" t="n">
         <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>946348</v>
+        <v>940544</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7355712</v>
+        <v>7344382</v>
       </c>
       <c r="E124" t="n">
-        <v>7355723</v>
+        <v>7344393</v>
       </c>
       <c r="F124" t="n">
-        <v>433.9482545274632</v>
+        <v>555.6990105534172</v>
       </c>
       <c r="G124" t="n">
-        <v>1007.845341176211</v>
+        <v>937.9361698866404</v>
       </c>
       <c r="H124" t="n">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="I124" t="n">
-        <v>319963</v>
+        <v>319770</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6567266</v>
+        <v>6594797</v>
       </c>
       <c r="E125" t="n">
-        <v>6567266</v>
+        <v>6594797</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>507694</v>
+        <v>503881</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6267626</v>
+        <v>6266737</v>
       </c>
       <c r="E126" t="n">
-        <v>22893212</v>
+        <v>22889964</v>
       </c>
       <c r="F126" t="n">
-        <v>7095.9461223801</v>
+        <v>7101.733788324481</v>
       </c>
       <c r="G126" t="n">
-        <v>8059.614270664335</v>
+        <v>8039.119353142649</v>
       </c>
       <c r="H126" t="n">
         <v>1.27</v>
       </c>
       <c r="I126" t="n">
-        <v>507941</v>
+        <v>510460</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45392411</v>
+        <v>45964176</v>
       </c>
       <c r="E127" t="n">
-        <v>45392411</v>
+        <v>45964176</v>
       </c>
       <c r="F127" t="n">
-        <v>46752.33244447335</v>
+        <v>62933.32096824631</v>
       </c>
       <c r="G127" t="n">
-        <v>88376.77754425287</v>
+        <v>82279.76939732538</v>
       </c>
       <c r="H127" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>8358410</v>
+        <v>8641986</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>150796879</v>
+        <v>150366145</v>
       </c>
       <c r="F128" t="n">
-        <v>5627.08763612163</v>
+        <v>2612.565627568535</v>
       </c>
       <c r="G128" t="n">
-        <v>6215.388741616754</v>
+        <v>5943.596370501957</v>
       </c>
       <c r="H128" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I128" t="n">
-        <v>1432749</v>
+        <v>1747165</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3001200</v>
+        <v>3084214</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>71016</v>
+        <v>73039</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20235157</v>
+        <v>20404673</v>
       </c>
       <c r="F130" t="n">
-        <v>414.8376837783913</v>
+        <v>469.5495883536415</v>
       </c>
       <c r="G130" t="n">
-        <v>717.1376823944457</v>
+        <v>456.4149823725447</v>
       </c>
       <c r="H130" t="n">
-        <v>0.84</v>
+        <v>1.9</v>
       </c>
       <c r="I130" t="n">
-        <v>2980040</v>
+        <v>2981276</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1262528</v>
+        <v>1264473</v>
       </c>
       <c r="E131" t="n">
-        <v>3814627</v>
+        <v>3820503</v>
       </c>
       <c r="F131" t="n">
-        <v>801.2189599723489</v>
+        <v>602.8809607241668</v>
       </c>
       <c r="G131" t="n">
-        <v>772.378475616359</v>
+        <v>772.3014255605567</v>
       </c>
       <c r="H131" t="n">
         <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>14709.26</v>
+        <v>15586.09</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>621555106</v>
+        <v>628721102</v>
       </c>
       <c r="E132" t="n">
-        <v>2407191222</v>
+        <v>2434944069</v>
       </c>
       <c r="F132" t="n">
-        <v>811159.8978628973</v>
+        <v>734651.0632475495</v>
       </c>
       <c r="G132" t="n">
-        <v>1052450.610729905</v>
+        <v>1057046.10550785</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>33868156</v>
+        <v>36639348</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3712126</v>
+        <v>3717493</v>
       </c>
       <c r="E133" t="n">
-        <v>6327823</v>
+        <v>6336971</v>
       </c>
       <c r="F133" t="n">
-        <v>5237.672884268945</v>
+        <v>5233.388367273047</v>
       </c>
       <c r="G133" t="n">
-        <v>5564.794282633752</v>
+        <v>5566.872343540403</v>
       </c>
       <c r="H133" t="n">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="I133" t="n">
-        <v>1118456</v>
+        <v>1119697</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>115292479</v>
+        <v>116394962</v>
       </c>
       <c r="E134" t="n">
-        <v>1071215618</v>
+        <v>1081459102</v>
       </c>
       <c r="F134" t="n">
-        <v>94580.03396172971</v>
+        <v>98955.86605253228</v>
       </c>
       <c r="G134" t="n">
-        <v>124506.7816742929</v>
+        <v>112313.9559644508</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I134" t="n">
-        <v>9171624</v>
+        <v>9388305</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>973239439</v>
+        <v>982850783</v>
       </c>
       <c r="E135" t="n">
-        <v>1069106191</v>
+        <v>1079664279</v>
       </c>
       <c r="F135" t="n">
-        <v>9880.531637168371</v>
+        <v>10004.32968870283</v>
       </c>
       <c r="G135" t="n">
-        <v>12507.00419314614</v>
+        <v>13235.78369165446</v>
       </c>
       <c r="H135" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="I135" t="n">
-        <v>10097185</v>
+        <v>10244467</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1130775</v>
+        <v>1141244</v>
       </c>
       <c r="E136" t="n">
-        <v>4378606</v>
+        <v>4419145</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>321750</v>
+        <v>330832</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>126639276</v>
+        <v>128576268</v>
       </c>
       <c r="E137" t="n">
-        <v>485808647</v>
+        <v>493239260</v>
       </c>
       <c r="F137" t="n">
-        <v>131762.1655484446</v>
+        <v>179624.6496104798</v>
       </c>
       <c r="G137" t="n">
-        <v>254563.5535686879</v>
+        <v>205381.592201991</v>
       </c>
       <c r="H137" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>33073952</v>
+        <v>33667424</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3235739</v>
+        <v>3279447</v>
       </c>
       <c r="E138" t="n">
-        <v>30659104</v>
+        <v>31073242</v>
       </c>
       <c r="F138" t="n">
-        <v>4556.992302670354</v>
+        <v>4576.624570649913</v>
       </c>
       <c r="G138" t="n">
-        <v>4821.540859559996</v>
+        <v>4426.666571504976</v>
       </c>
       <c r="H138" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I138" t="n">
-        <v>223569</v>
+        <v>225772</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21645511</v>
+        <v>21562511</v>
       </c>
       <c r="E139" t="n">
-        <v>21645511</v>
+        <v>21562511</v>
       </c>
       <c r="F139" t="n">
-        <v>2908.451605764143</v>
+        <v>8005.509646479783</v>
       </c>
       <c r="G139" t="n">
-        <v>653.2078034627662</v>
+        <v>5387.840756317258</v>
       </c>
       <c r="H139" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="I139" t="n">
-        <v>710234</v>
+        <v>707164</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494909169</v>
+        <v>494513243</v>
       </c>
       <c r="E140" t="n">
-        <v>494909169</v>
+        <v>494513243</v>
       </c>
       <c r="F140" t="n">
-        <v>955683.4175956948</v>
+        <v>716381.136409558</v>
       </c>
       <c r="G140" t="n">
-        <v>1008670.121301005</v>
+        <v>805950.44944872</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33106311</v>
+        <v>33684283</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>34852798</v>
+        <v>34615181</v>
       </c>
       <c r="F141" t="n">
-        <v>58970.66065889319</v>
+        <v>55959.87949769213</v>
       </c>
       <c r="G141" t="n">
-        <v>51356.56006836121</v>
+        <v>85919.10690750877</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I141" t="n">
-        <v>5996382</v>
+        <v>6031148</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>738230</v>
+        <v>737711</v>
       </c>
       <c r="E142" t="n">
-        <v>11774502</v>
+        <v>11766220</v>
       </c>
       <c r="F142" t="n">
-        <v>279.8976443388503</v>
+        <v>246.0962462967506</v>
       </c>
       <c r="G142" t="n">
-        <v>846.4669850683151</v>
+        <v>841.3821615438954</v>
       </c>
       <c r="H142" t="n">
         <v>1.09</v>
       </c>
       <c r="I142" t="n">
-        <v>271721</v>
+        <v>272405</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2705997874</v>
+        <v>2737578904</v>
       </c>
       <c r="E143" t="n">
-        <v>2873065633</v>
+        <v>2906596470</v>
       </c>
       <c r="F143" t="n">
-        <v>3185.794257157249</v>
+        <v>2915.650467086465</v>
       </c>
       <c r="G143" t="n">
-        <v>24768.75912401811</v>
+        <v>24131.05197713604</v>
       </c>
       <c r="H143" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>39576745</v>
+        <v>40717701</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1740890</v>
+        <v>1744558</v>
       </c>
       <c r="E144" t="n">
-        <v>1747035</v>
+        <v>1750716</v>
       </c>
       <c r="F144" t="n">
-        <v>629.0539593286195</v>
+        <v>1128.628658962427</v>
       </c>
       <c r="G144" t="n">
-        <v>383.8920171417566</v>
+        <v>326.9345520143941</v>
       </c>
       <c r="H144" t="n">
-        <v>1.99</v>
+        <v>0.92</v>
       </c>
       <c r="I144" t="n">
-        <v>451267</v>
+        <v>449403</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61941670</v>
+        <v>63358049</v>
       </c>
       <c r="E145" t="n">
-        <v>151938718</v>
+        <v>155412999</v>
       </c>
       <c r="F145" t="n">
-        <v>3124.333020335129</v>
+        <v>2993.35239944464</v>
       </c>
       <c r="G145" t="n">
-        <v>4568.938530694927</v>
+        <v>5270.427717444945</v>
       </c>
       <c r="H145" t="n">
-        <v>1.21</v>
+        <v>0.43</v>
       </c>
       <c r="I145" t="n">
-        <v>22587578</v>
+        <v>22757374</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>823232639</v>
+        <v>824683271</v>
       </c>
       <c r="E146" t="n">
-        <v>1269497414</v>
+        <v>1271734417</v>
       </c>
       <c r="F146" t="n">
-        <v>142228.2146603373</v>
+        <v>146691.7661521559</v>
       </c>
       <c r="G146" t="n">
-        <v>136272.2835449795</v>
+        <v>140352.1995298997</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="n">
-        <v>262400023</v>
+        <v>271567135</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23965455</v>
+        <v>24338986</v>
       </c>
       <c r="E147" t="n">
-        <v>23965455</v>
+        <v>24338986</v>
       </c>
       <c r="F147" t="n">
-        <v>5205.35282403249</v>
+        <v>5543.688273834445</v>
       </c>
       <c r="G147" t="n">
-        <v>3820.339922588549</v>
+        <v>4782.345800773011</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I147" t="n">
-        <v>5869236</v>
+        <v>5886582</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3818422</v>
+        <v>3819219</v>
       </c>
       <c r="E148" t="n">
-        <v>8331748</v>
+        <v>8333486</v>
       </c>
       <c r="F148" t="n">
-        <v>5570.213261736104</v>
+        <v>5655.472877909991</v>
       </c>
       <c r="G148" t="n">
-        <v>5796.498241897827</v>
+        <v>5940.966198262508</v>
       </c>
       <c r="H148" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1809918</v>
+        <v>1829553</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9251527</v>
+        <v>9256070</v>
       </c>
       <c r="E149" t="n">
-        <v>9251527</v>
+        <v>9256070</v>
       </c>
       <c r="F149" t="n">
-        <v>313656.5907807103</v>
+        <v>85116.38511965857</v>
       </c>
       <c r="G149" t="n">
-        <v>587269.1831671374</v>
+        <v>89842.23974306564</v>
       </c>
       <c r="H149" t="n">
         <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>2712495</v>
+        <v>2704897</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>504692552</v>
+        <v>510607856</v>
       </c>
       <c r="E150" t="n">
-        <v>1756792771</v>
+        <v>1777383452</v>
       </c>
       <c r="F150" t="n">
-        <v>763196.9772825607</v>
+        <v>832286.0208641195</v>
       </c>
       <c r="G150" t="n">
-        <v>925328.8432771425</v>
+        <v>916609.9136725776</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I150" t="n">
-        <v>31915266</v>
+        <v>31909515</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48934342</v>
+        <v>48958256</v>
       </c>
       <c r="E151" t="n">
-        <v>120458525</v>
+        <v>120517394</v>
       </c>
       <c r="F151" t="n">
-        <v>7812.06367464514</v>
+        <v>8530.838124865795</v>
       </c>
       <c r="G151" t="n">
-        <v>8220.903453608644</v>
+        <v>10945.53616029672</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>24805</v>
+        <v>26725</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7526483</v>
+        <v>7495869</v>
       </c>
       <c r="E152" t="n">
-        <v>19552993</v>
+        <v>19473461</v>
       </c>
       <c r="F152" t="n">
-        <v>6514.561908428832</v>
+        <v>6657.072157198727</v>
       </c>
       <c r="G152" t="n">
-        <v>6997.655264990201</v>
+        <v>6714.240966720271</v>
       </c>
       <c r="H152" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="I152" t="n">
-        <v>713929</v>
+        <v>717845</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19143257330</v>
+        <v>19109565473</v>
       </c>
       <c r="F153" t="n">
-        <v>52438.1429870115</v>
+        <v>52433.33448904185</v>
       </c>
       <c r="G153" t="n">
-        <v>49915.82383694479</v>
+        <v>49910.39817193943</v>
       </c>
       <c r="H153" t="n">
         <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>45827617</v>
+        <v>45739722</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2661908</v>
+        <v>2637059</v>
       </c>
       <c r="E154" t="n">
-        <v>10647630</v>
+        <v>10548238</v>
       </c>
       <c r="F154" t="n">
-        <v>26488.17959562729</v>
+        <v>26960.64772737841</v>
       </c>
       <c r="G154" t="n">
-        <v>4927.867338418278</v>
+        <v>3407.336447899882</v>
       </c>
       <c r="H154" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I154" t="n">
-        <v>6956866</v>
+        <v>7018351</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227744117</v>
+        <v>228356297</v>
       </c>
       <c r="E155" t="n">
-        <v>700227454</v>
+        <v>702109677</v>
       </c>
       <c r="F155" t="n">
-        <v>117632.5993284075</v>
+        <v>133239.4286964327</v>
       </c>
       <c r="G155" t="n">
-        <v>180286.8601682234</v>
+        <v>190729.2312527489</v>
       </c>
       <c r="H155" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>16216636</v>
+        <v>16516995</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>408508602</v>
+        <v>413225439</v>
       </c>
       <c r="E156" t="n">
-        <v>2334334868</v>
+        <v>2361288223</v>
       </c>
       <c r="F156" t="n">
-        <v>122876.7849875039</v>
+        <v>176189.3930014347</v>
       </c>
       <c r="G156" t="n">
-        <v>297664.9029432242</v>
+        <v>255566.5222700286</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>40156336</v>
+        <v>41748779</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4167843</v>
+        <v>4133957</v>
       </c>
       <c r="F2" t="n">
-        <v>1258.678654097043</v>
+        <v>1745.949402597255</v>
       </c>
       <c r="G2" t="n">
-        <v>717.0815596359214</v>
+        <v>755.2816031343409</v>
       </c>
       <c r="H2" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="I2" t="n">
-        <v>148168</v>
+        <v>150025</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>620269343</v>
+        <v>634868473</v>
       </c>
       <c r="E3" t="n">
-        <v>1203605168</v>
+        <v>1231942728</v>
       </c>
       <c r="F3" t="n">
-        <v>54260.25921108715</v>
+        <v>62492.74066929523</v>
       </c>
       <c r="G3" t="n">
-        <v>71201.75134165699</v>
+        <v>80814.76103138288</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>20776898</v>
+        <v>22125244</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253228938</v>
+        <v>253911113</v>
       </c>
       <c r="E4" t="n">
-        <v>1587963075</v>
+        <v>1592240901</v>
       </c>
       <c r="F4" t="n">
-        <v>253163.4175790529</v>
+        <v>314592.404437483</v>
       </c>
       <c r="G4" t="n">
-        <v>226916.0055434342</v>
+        <v>245488.393750703</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>18493896</v>
+        <v>17634469</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150961450</v>
+        <v>152334345</v>
       </c>
       <c r="E5" t="n">
-        <v>167288879</v>
+        <v>168810261</v>
       </c>
       <c r="F5" t="n">
-        <v>8765.325953895132</v>
+        <v>8694.170177962531</v>
       </c>
       <c r="G5" t="n">
-        <v>991.6476349302513</v>
+        <v>3319.46755454855</v>
       </c>
       <c r="H5" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I5" t="n">
-        <v>39156853</v>
+        <v>40609307</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49434210</v>
+        <v>49850222</v>
       </c>
       <c r="E6" t="n">
-        <v>61840930</v>
+        <v>62361349</v>
       </c>
       <c r="F6" t="n">
-        <v>4435.045173469056</v>
+        <v>5565.770001812607</v>
       </c>
       <c r="G6" t="n">
-        <v>5477.395909173945</v>
+        <v>5535.064025991315</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="I6" t="n">
-        <v>676828</v>
+        <v>743345</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69043343</v>
+        <v>69253705</v>
       </c>
       <c r="E7" t="n">
-        <v>137510973</v>
+        <v>137929943</v>
       </c>
       <c r="F7" t="n">
-        <v>9580.604585412148</v>
+        <v>9681.998909572098</v>
       </c>
       <c r="G7" t="n">
-        <v>13031.95002173467</v>
+        <v>14155.87967041991</v>
       </c>
       <c r="H7" t="n">
         <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>997909</v>
+        <v>978256</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41278180</v>
+        <v>41452349</v>
       </c>
       <c r="E8" t="n">
-        <v>46196229</v>
+        <v>46391149</v>
       </c>
       <c r="F8" t="n">
-        <v>7687.574480002715</v>
+        <v>333.7973134005073</v>
       </c>
       <c r="G8" t="n">
-        <v>6542.720828532615</v>
+        <v>327.6360295501086</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3683433</v>
+        <v>3826980</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14266681</v>
+        <v>14226525</v>
       </c>
       <c r="E9" t="n">
-        <v>42042988</v>
+        <v>41924649</v>
       </c>
       <c r="F9" t="n">
-        <v>201.4682202232162</v>
+        <v>5010.620614123238</v>
       </c>
       <c r="G9" t="n">
-        <v>310.5108266966493</v>
+        <v>5126.805911233294</v>
       </c>
       <c r="H9" t="n">
-        <v>1.31</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>896186</v>
+        <v>898699</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10637415</v>
+        <v>10967993</v>
       </c>
       <c r="E10" t="n">
-        <v>45721519</v>
+        <v>47142403</v>
       </c>
       <c r="F10" t="n">
-        <v>2909.017234283804</v>
+        <v>3811.252183077475</v>
       </c>
       <c r="G10" t="n">
-        <v>3487.970023647819</v>
+        <v>3151.56635879471</v>
       </c>
       <c r="H10" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I10" t="n">
-        <v>853743</v>
+        <v>784342</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>592192023</v>
+        <v>594621593</v>
       </c>
       <c r="E11" t="n">
-        <v>740744205</v>
+        <v>743783236</v>
       </c>
       <c r="F11" t="n">
-        <v>284446.6180591694</v>
+        <v>343544.2774594346</v>
       </c>
       <c r="G11" t="n">
-        <v>337262.8938375065</v>
+        <v>327637.963440897</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>56839496</v>
+        <v>57343147</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4610354</v>
+        <v>4713774</v>
       </c>
       <c r="E12" t="n">
-        <v>28315216</v>
+        <v>28950383</v>
       </c>
       <c r="F12" t="n">
-        <v>10708.28931294359</v>
+        <v>11760.00669647056</v>
       </c>
       <c r="G12" t="n">
-        <v>8849.417721005313</v>
+        <v>9909.319930593179</v>
       </c>
       <c r="H12" t="n">
         <v>0.35</v>
       </c>
       <c r="I12" t="n">
-        <v>679702</v>
+        <v>687933</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23161656</v>
+        <v>23067146</v>
       </c>
       <c r="E13" t="n">
-        <v>23204660</v>
+        <v>23109975</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>834046</v>
+        <v>838405</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82901937</v>
+        <v>82425383</v>
       </c>
       <c r="E14" t="n">
-        <v>243907780</v>
+        <v>242505699</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>352290</v>
+        <v>365303</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>496682784</v>
+        <v>484462244</v>
       </c>
       <c r="E15" t="n">
-        <v>496682791</v>
+        <v>484462245</v>
       </c>
       <c r="F15" t="n">
-        <v>15050.57028027525</v>
+        <v>14297.59371958355</v>
       </c>
       <c r="G15" t="n">
-        <v>19618.53458548939</v>
+        <v>22782.84597027774</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>78034563</v>
+        <v>66183634</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4756370</v>
+        <v>4741428</v>
       </c>
       <c r="E16" t="n">
-        <v>4756370</v>
+        <v>4741428</v>
       </c>
       <c r="F16" t="n">
-        <v>166.7462758341123</v>
+        <v>106.7187397250498</v>
       </c>
       <c r="G16" t="n">
-        <v>1196.531376609373</v>
+        <v>1411.266192341946</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>2006856</v>
+        <v>2019405</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3425564</v>
+        <v>3378500</v>
       </c>
       <c r="E17" t="n">
-        <v>3425564</v>
+        <v>3378500</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>512903</v>
+        <v>533026</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>170420061</v>
+        <v>171747410</v>
       </c>
       <c r="E18" t="n">
-        <v>210987133</v>
+        <v>212630445</v>
       </c>
       <c r="F18" t="n">
-        <v>10981.56086200846</v>
+        <v>8390.512140607578</v>
       </c>
       <c r="G18" t="n">
-        <v>8026.355568825797</v>
+        <v>8257.497030614582</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>596406</v>
+        <v>585301</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6833114</v>
+        <v>6775375</v>
       </c>
       <c r="E19" t="n">
-        <v>9410944</v>
+        <v>9331423</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>380328</v>
+        <v>336418</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>907217</v>
+        <v>892114</v>
       </c>
       <c r="E20" t="n">
-        <v>6350520</v>
+        <v>6244799</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>223434</v>
+        <v>245230</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>117744179</v>
+        <v>118615428</v>
       </c>
       <c r="E21" t="n">
-        <v>458008690</v>
+        <v>461371074</v>
       </c>
       <c r="F21" t="n">
-        <v>59128.98183878505</v>
+        <v>55389.78617937374</v>
       </c>
       <c r="G21" t="n">
-        <v>88819.82383232751</v>
+        <v>80016.84506188348</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>9662158</v>
+        <v>10902004</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1683226</v>
+        <v>1719828</v>
       </c>
       <c r="E22" t="n">
-        <v>12124135</v>
+        <v>12387779</v>
       </c>
       <c r="F22" t="n">
-        <v>4591.905304924638</v>
+        <v>5209.433329582481</v>
       </c>
       <c r="G22" t="n">
-        <v>4166.179802927795</v>
+        <v>5602.513238900733</v>
       </c>
       <c r="H22" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>38110</v>
+        <v>76818</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>144878027</v>
+        <v>145141077</v>
       </c>
       <c r="E23" t="n">
-        <v>144878027</v>
+        <v>145141077</v>
       </c>
       <c r="F23" t="n">
-        <v>1016919.956190497</v>
+        <v>1028220.926922686</v>
       </c>
       <c r="G23" t="n">
-        <v>1135284.410583314</v>
+        <v>1116486.211232131</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>72243713</v>
+        <v>74508292</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68943304</v>
+        <v>69756411</v>
       </c>
       <c r="E24" t="n">
-        <v>353555405</v>
+        <v>357725184</v>
       </c>
       <c r="F24" t="n">
-        <v>79270.40163591523</v>
+        <v>78608.41863834071</v>
       </c>
       <c r="G24" t="n">
-        <v>156760.5403499634</v>
+        <v>159639.6604022454</v>
       </c>
       <c r="H24" t="n">
         <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>25344821</v>
+        <v>26136378</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>269400773</v>
+        <v>268060614</v>
       </c>
       <c r="E25" t="n">
-        <v>269400773</v>
+        <v>268060614</v>
       </c>
       <c r="F25" t="n">
-        <v>378762.6898378916</v>
+        <v>323470.6502695023</v>
       </c>
       <c r="G25" t="n">
-        <v>442766.6945478325</v>
+        <v>511769.8029422463</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>19328107</v>
+        <v>15486261</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1126504</v>
+        <v>1127097</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>172241</v>
+        <v>168012</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4069956</v>
+        <v>4088006</v>
       </c>
       <c r="E28" t="n">
-        <v>4071118</v>
+        <v>4089023</v>
       </c>
       <c r="F28" t="n">
-        <v>800.5666181796895</v>
+        <v>612.3371060380894</v>
       </c>
       <c r="G28" t="n">
-        <v>2176.682771485494</v>
+        <v>3814.344823633121</v>
       </c>
       <c r="H28" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="I28" t="n">
-        <v>267340</v>
+        <v>264813</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6659693</v>
+        <v>6659003</v>
       </c>
       <c r="E29" t="n">
-        <v>16175881</v>
+        <v>16174206</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>487372</v>
+        <v>489010</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101291079</v>
+        <v>101667851</v>
       </c>
       <c r="E30" t="n">
-        <v>126298102</v>
+        <v>126767892</v>
       </c>
       <c r="F30" t="n">
-        <v>112366.1990218294</v>
+        <v>115279.8159524772</v>
       </c>
       <c r="G30" t="n">
-        <v>101035.7383357229</v>
+        <v>111502.6976745835</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10313629</v>
+        <v>10421008</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1130531</v>
+        <v>1151031</v>
       </c>
       <c r="E31" t="n">
-        <v>12286189</v>
+        <v>12508975</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>32061</v>
+        <v>34058</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86357057</v>
+        <v>83723835</v>
       </c>
       <c r="E32" t="n">
-        <v>241540799</v>
+        <v>234216658</v>
       </c>
       <c r="F32" t="n">
-        <v>44600.17163979348</v>
+        <v>47933.91487730556</v>
       </c>
       <c r="G32" t="n">
-        <v>61819.92424931449</v>
+        <v>64261.77880830163</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>50663197</v>
+        <v>46779083</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4133699</v>
+        <v>4168883</v>
       </c>
       <c r="E33" t="n">
-        <v>8152003</v>
+        <v>8221387</v>
       </c>
       <c r="F33" t="n">
-        <v>6107.860422479362</v>
+        <v>7484.697545842821</v>
       </c>
       <c r="G33" t="n">
-        <v>8095.590324807879</v>
+        <v>10712.50680508679</v>
       </c>
       <c r="H33" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>1574111</v>
+        <v>1332540</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36169245</v>
+        <v>37784925</v>
       </c>
       <c r="F34" t="n">
-        <v>138.1418729175222</v>
+        <v>1590.075758916469</v>
       </c>
       <c r="G34" t="n">
-        <v>10.02492521586926</v>
+        <v>2.300021445250426</v>
       </c>
       <c r="H34" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>69269</v>
+        <v>66101</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7676089</v>
+        <v>7701113</v>
       </c>
       <c r="E35" t="n">
-        <v>18078716</v>
+        <v>18137652</v>
       </c>
       <c r="F35" t="n">
-        <v>3452.477712893526</v>
+        <v>3458.142276711376</v>
       </c>
       <c r="G35" t="n">
-        <v>2665.960809423532</v>
+        <v>2653.903810605167</v>
       </c>
       <c r="H35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>33431</v>
+        <v>34320</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23035476</v>
+        <v>23083600</v>
       </c>
       <c r="F36" t="n">
-        <v>5071.37558799915</v>
+        <v>5099.021280937029</v>
       </c>
       <c r="G36" t="n">
-        <v>5557.677631972893</v>
+        <v>5597.635006612393</v>
       </c>
       <c r="H36" t="n">
-        <v>1.38</v>
+        <v>0.6</v>
       </c>
       <c r="I36" t="n">
-        <v>129183</v>
+        <v>126390</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>81237388</v>
+        <v>80114890</v>
       </c>
       <c r="E37" t="n">
-        <v>169421207</v>
+        <v>167080230</v>
       </c>
       <c r="F37" t="n">
-        <v>91922.17542397504</v>
+        <v>84277.31040298486</v>
       </c>
       <c r="G37" t="n">
-        <v>106727.3955773439</v>
+        <v>123432.7677461217</v>
       </c>
       <c r="H37" t="n">
         <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>19885366</v>
+        <v>20328803</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>281159255</v>
+        <v>277983230</v>
       </c>
       <c r="E38" t="n">
-        <v>281159255</v>
+        <v>277983230</v>
       </c>
       <c r="F38" t="n">
-        <v>38368.5919112027</v>
+        <v>26685.95701557843</v>
       </c>
       <c r="G38" t="n">
-        <v>23975.45587373385</v>
+        <v>30918.68073733474</v>
       </c>
       <c r="H38" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>9686177</v>
+        <v>9557739</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>210238235</v>
+        <v>210714523</v>
       </c>
       <c r="E39" t="n">
-        <v>730386628</v>
+        <v>732041295</v>
       </c>
       <c r="F39" t="n">
-        <v>172265.978437377</v>
+        <v>151020.9598929402</v>
       </c>
       <c r="G39" t="n">
-        <v>372228.3481189971</v>
+        <v>352035.8950847689</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>32225416</v>
+        <v>30055443</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3546905</v>
+        <v>3511167</v>
       </c>
       <c r="E40" t="n">
-        <v>3546905</v>
+        <v>3511167</v>
       </c>
       <c r="F40" t="n">
-        <v>1953.502422310622</v>
+        <v>6906.341314564723</v>
       </c>
       <c r="G40" t="n">
-        <v>5850.902421210959</v>
+        <v>1436.339354975728</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="I40" t="n">
-        <v>2545515</v>
+        <v>2508391</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>119631736</v>
+        <v>120822430</v>
       </c>
       <c r="E41" t="n">
-        <v>508112157</v>
+        <v>513094520</v>
       </c>
       <c r="F41" t="n">
-        <v>5627.411324617356</v>
+        <v>5801.700538047091</v>
       </c>
       <c r="G41" t="n">
-        <v>3884.020646351134</v>
+        <v>6215.902624697841</v>
       </c>
       <c r="H41" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="I41" t="n">
-        <v>16032112</v>
+        <v>16520910</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>571442</v>
+        <v>571055</v>
       </c>
       <c r="E42" t="n">
-        <v>6931040</v>
+        <v>6926336</v>
       </c>
       <c r="F42" t="n">
-        <v>553.7456548830988</v>
+        <v>830.5579392903395</v>
       </c>
       <c r="G42" t="n">
-        <v>998.0851619618519</v>
+        <v>653.0860838045428</v>
       </c>
       <c r="H42" t="n">
-        <v>1.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>2808210</v>
+        <v>2802998</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1339694558</v>
+        <v>1357207595</v>
       </c>
       <c r="E43" t="n">
-        <v>6424109767</v>
+        <v>6508088370</v>
       </c>
       <c r="F43" t="n">
-        <v>79677.66068297798</v>
+        <v>62284.34721515633</v>
       </c>
       <c r="G43" t="n">
-        <v>91474.88596550332</v>
+        <v>66706.25794987995</v>
       </c>
       <c r="H43" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>175804979</v>
+        <v>198709770</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6055255904</v>
+        <v>6054906402</v>
       </c>
       <c r="E44" t="n">
-        <v>6055255904</v>
+        <v>6054906402</v>
       </c>
       <c r="F44" t="n">
-        <v>966333.7411739179</v>
+        <v>963710.1080240181</v>
       </c>
       <c r="G44" t="n">
-        <v>1647928.081374929</v>
+        <v>1636949.613759823</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>87764718</v>
+        <v>76984005</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>279667493</v>
+        <v>279955204</v>
       </c>
       <c r="E45" t="n">
-        <v>1207200153</v>
+        <v>1208442077</v>
       </c>
       <c r="F45" t="n">
-        <v>90913.58314007304</v>
+        <v>85796.4073076292</v>
       </c>
       <c r="G45" t="n">
-        <v>76467.03835809453</v>
+        <v>93381.34815801321</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I45" t="n">
-        <v>106681770</v>
+        <v>111044505</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>116977395</v>
+        <v>116937593</v>
       </c>
       <c r="E46" t="n">
-        <v>116977395</v>
+        <v>116937593</v>
       </c>
       <c r="F46" t="n">
-        <v>35846.2016942642</v>
+        <v>36470.97764400483</v>
       </c>
       <c r="G46" t="n">
-        <v>34762.1956960615</v>
+        <v>31844.21984634476</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>6272893</v>
+        <v>6386303</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2049977852</v>
+        <v>2044955566</v>
       </c>
       <c r="E47" t="n">
-        <v>2049977852</v>
+        <v>2044955566</v>
       </c>
       <c r="F47" t="n">
-        <v>225717.7535110447</v>
+        <v>225532.4131020197</v>
       </c>
       <c r="G47" t="n">
-        <v>199264.2397428497</v>
+        <v>199450.700650847</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>7028215479</v>
+        <v>7492376077</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10330902</v>
+        <v>10202103</v>
       </c>
       <c r="F48" t="n">
-        <v>6257.916819743415</v>
+        <v>6591.334821968522</v>
       </c>
       <c r="G48" t="n">
-        <v>5669.691127567868</v>
+        <v>6334.605766279155</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>136518</v>
+        <v>142719</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4457393</v>
+        <v>4460013</v>
       </c>
       <c r="E49" t="n">
-        <v>5851975</v>
+        <v>5855415</v>
       </c>
       <c r="F49" t="n">
-        <v>13766.5101832915</v>
+        <v>7545.467411205362</v>
       </c>
       <c r="G49" t="n">
-        <v>16419.64142315198</v>
+        <v>16515.79675871963</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>613891</v>
+        <v>619472</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12548639</v>
+        <v>12551027</v>
       </c>
       <c r="E50" t="n">
-        <v>18452538</v>
+        <v>18456048</v>
       </c>
       <c r="F50" t="n">
-        <v>6756.9950292851</v>
+        <v>6058.48036072472</v>
       </c>
       <c r="G50" t="n">
-        <v>6810.010368198245</v>
+        <v>17737.78384974018</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>1215715</v>
+        <v>3429151</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23059919</v>
+        <v>23365093</v>
       </c>
       <c r="E51" t="n">
-        <v>29913990</v>
+        <v>30309870</v>
       </c>
       <c r="F51" t="n">
-        <v>11966.02227858894</v>
+        <v>13879.81487166946</v>
       </c>
       <c r="G51" t="n">
-        <v>12012.10801169724</v>
+        <v>12774.47168372253</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>341691</v>
+        <v>169255</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14094395</v>
+        <v>14845327</v>
       </c>
       <c r="E52" t="n">
-        <v>14094395</v>
+        <v>14845327</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4917474</v>
+        <v>5257733</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99250248</v>
+        <v>98647667</v>
       </c>
       <c r="E53" t="n">
-        <v>122769004</v>
+        <v>122023633</v>
       </c>
       <c r="F53" t="n">
-        <v>874.4007575487375</v>
+        <v>831.9005768198809</v>
       </c>
       <c r="G53" t="n">
-        <v>1484.325454630698</v>
+        <v>3938.052613080255</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>843074</v>
+        <v>880696</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5213455</v>
+        <v>5187136</v>
       </c>
       <c r="E54" t="n">
-        <v>7294379</v>
+        <v>7257555</v>
       </c>
       <c r="F54" t="n">
-        <v>87.96334964700509</v>
+        <v>219.9608193714925</v>
       </c>
       <c r="G54" t="n">
-        <v>90.46957582953242</v>
+        <v>252.3960209686181</v>
       </c>
       <c r="H54" t="n">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="I54" t="n">
-        <v>89102</v>
+        <v>81201</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15659896</v>
+        <v>15630465</v>
       </c>
       <c r="E55" t="n">
-        <v>75843377</v>
+        <v>75700835</v>
       </c>
       <c r="F55" t="n">
-        <v>21053.01860936933</v>
+        <v>20434.00641735899</v>
       </c>
       <c r="G55" t="n">
-        <v>24283.79612226164</v>
+        <v>32353.00228291994</v>
       </c>
       <c r="H55" t="n">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="I55" t="n">
-        <v>4043989</v>
+        <v>4214308</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57882</v>
+        <v>57919</v>
       </c>
       <c r="E56" t="n">
-        <v>138639</v>
+        <v>138727</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3552.14</v>
+        <v>2931.16</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1931171039</v>
+        <v>1928447361</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27722663</v>
+        <v>28060485</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12481290</v>
+        <v>12384107</v>
       </c>
       <c r="E58" t="n">
-        <v>18096069</v>
+        <v>17955168</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2149778</v>
+        <v>2106610</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124781497</v>
+        <v>124295332</v>
       </c>
       <c r="E59" t="n">
-        <v>331847649</v>
+        <v>330554727</v>
       </c>
       <c r="F59" t="n">
-        <v>8629.794239709719</v>
+        <v>8599.196267613526</v>
       </c>
       <c r="G59" t="n">
-        <v>7371.103628795494</v>
+        <v>7295.382371338525</v>
       </c>
       <c r="H59" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="I59" t="n">
-        <v>847254</v>
+        <v>726998</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31922989</v>
+        <v>31815205</v>
       </c>
       <c r="E60" t="n">
-        <v>99397947</v>
+        <v>99062341</v>
       </c>
       <c r="F60" t="n">
-        <v>2802.225686863138</v>
+        <v>2782.92016433815</v>
       </c>
       <c r="G60" t="n">
-        <v>5462.047064363664</v>
+        <v>5243.627598407664</v>
       </c>
       <c r="H60" t="n">
         <v>0.23</v>
       </c>
       <c r="I60" t="n">
-        <v>10635775</v>
+        <v>10432590</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1957652</v>
+        <v>1948220</v>
       </c>
       <c r="E61" t="n">
-        <v>14038126</v>
+        <v>13970492</v>
       </c>
       <c r="F61" t="n">
-        <v>5431.737291458036</v>
+        <v>1359.217952007318</v>
       </c>
       <c r="G61" t="n">
-        <v>4998.429377415429</v>
+        <v>5006.623754126782</v>
       </c>
       <c r="H61" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="I61" t="n">
-        <v>2042130</v>
+        <v>2000940</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>210409904</v>
+        <v>208578487</v>
       </c>
       <c r="E62" t="n">
-        <v>1191470163</v>
+        <v>1181099551</v>
       </c>
       <c r="F62" t="n">
-        <v>675412.2834342128</v>
+        <v>743972.8449441488</v>
       </c>
       <c r="G62" t="n">
-        <v>908934.1583755128</v>
+        <v>865486.5133024624</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>69388845</v>
+        <v>69876937</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>502573</v>
+        <v>506897</v>
       </c>
       <c r="E63" t="n">
-        <v>1691590</v>
+        <v>1706145</v>
       </c>
       <c r="F63" t="n">
-        <v>479.1954763165616</v>
+        <v>489.3473151358085</v>
       </c>
       <c r="G63" t="n">
-        <v>407.9696573373149</v>
+        <v>386.7211986191039</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I63" t="n">
-        <v>632093</v>
+        <v>632477</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>348319</v>
+        <v>346328</v>
       </c>
       <c r="E64" t="n">
-        <v>348319</v>
+        <v>346328</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4649.96</v>
+        <v>4678.51</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>144209049</v>
+        <v>144754037</v>
       </c>
       <c r="E65" t="n">
-        <v>1068215179</v>
+        <v>1072252128</v>
       </c>
       <c r="F65" t="n">
-        <v>34438.72830369918</v>
+        <v>38474.82450954396</v>
       </c>
       <c r="G65" t="n">
-        <v>41845.22863103517</v>
+        <v>34256.35277417888</v>
       </c>
       <c r="H65" t="n">
         <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>8036712</v>
+        <v>8375522</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8228386</v>
+        <v>8267813</v>
       </c>
       <c r="E66" t="n">
-        <v>11023293</v>
+        <v>11076113</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>63843</v>
+        <v>64364</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26908012</v>
+        <v>26849344</v>
       </c>
       <c r="E67" t="n">
-        <v>26908012</v>
+        <v>26849344</v>
       </c>
       <c r="F67" t="n">
-        <v>7716.207742313573</v>
+        <v>7191.899592781043</v>
       </c>
       <c r="G67" t="n">
-        <v>9140.219063456216</v>
+        <v>9144.717178346964</v>
       </c>
       <c r="H67" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="I67" t="n">
-        <v>316815</v>
+        <v>324149</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1613666</v>
+        <v>1604786</v>
       </c>
       <c r="E68" t="n">
-        <v>12531917</v>
+        <v>12462953</v>
       </c>
       <c r="F68" t="n">
-        <v>12371.22557357509</v>
+        <v>14135.25394947062</v>
       </c>
       <c r="G68" t="n">
-        <v>14165.47697315673</v>
+        <v>24473.39720277968</v>
       </c>
       <c r="H68" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I68" t="n">
-        <v>539690</v>
+        <v>539594</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>350003596</v>
+        <v>350341534</v>
       </c>
       <c r="E69" t="n">
-        <v>3148849381</v>
+        <v>3151889677</v>
       </c>
       <c r="F69" t="n">
-        <v>1149540.490244518</v>
+        <v>1123722.130560323</v>
       </c>
       <c r="G69" t="n">
-        <v>1818351.035250146</v>
+        <v>1863314.19739276</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I69" t="n">
-        <v>47072665</v>
+        <v>47940710</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>247553</v>
+        <v>239838</v>
       </c>
       <c r="E70" t="n">
-        <v>2184842</v>
+        <v>2116749</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>86286</v>
+        <v>85560</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1575041</v>
+        <v>1573241</v>
       </c>
       <c r="E71" t="n">
-        <v>13125343</v>
+        <v>13110343</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>24444</v>
+        <v>26549</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9420317</v>
+        <v>9385724</v>
       </c>
       <c r="E72" t="n">
-        <v>43663711</v>
+        <v>43503371</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>5120.730028702254</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>9742.94092637778</v>
       </c>
       <c r="H72" t="n">
-        <v>5.37</v>
+        <v>0.82</v>
       </c>
       <c r="I72" t="n">
-        <v>110962</v>
+        <v>119808</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50025998</v>
+        <v>52344008</v>
       </c>
       <c r="E73" t="n">
-        <v>289629858</v>
+        <v>303050177</v>
       </c>
       <c r="F73" t="n">
-        <v>105836.215030486</v>
+        <v>110878.0276994127</v>
       </c>
       <c r="G73" t="n">
-        <v>176273.3286790605</v>
+        <v>212039.0084448364</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>26976920</v>
+        <v>38541238</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39481830</v>
+        <v>39542255</v>
       </c>
       <c r="E74" t="n">
-        <v>54530030</v>
+        <v>54613485</v>
       </c>
       <c r="F74" t="n">
-        <v>4557.049044511815</v>
+        <v>4430.360661597803</v>
       </c>
       <c r="G74" t="n">
-        <v>10834.75376618364</v>
+        <v>10157.02865773762</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>342082</v>
+        <v>343555</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99614</v>
+        <v>99618</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>399.99</v>
+        <v>400.2</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14074998</v>
+        <v>14147623</v>
       </c>
       <c r="E76" t="n">
-        <v>14122897</v>
+        <v>14195768</v>
       </c>
       <c r="F76" t="n">
-        <v>1346.470835190392</v>
+        <v>2039.292694045454</v>
       </c>
       <c r="G76" t="n">
-        <v>6267.841751469098</v>
+        <v>4288.683839912002</v>
       </c>
       <c r="H76" t="n">
-        <v>1.25</v>
+        <v>0.62</v>
       </c>
       <c r="I76" t="n">
-        <v>5680753</v>
+        <v>6304110</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43223223</v>
+        <v>43409746</v>
       </c>
       <c r="E77" t="n">
-        <v>73382977</v>
+        <v>73699651</v>
       </c>
       <c r="F77" t="n">
-        <v>10635.24530424828</v>
+        <v>9897.655850521449</v>
       </c>
       <c r="G77" t="n">
-        <v>4523.888592871619</v>
+        <v>3063.401201571866</v>
       </c>
       <c r="H77" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>1196601</v>
+        <v>1062086</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23369560</v>
+        <v>23197521</v>
       </c>
       <c r="E78" t="n">
-        <v>70051194</v>
+        <v>69535502</v>
       </c>
       <c r="F78" t="n">
-        <v>126889.7916437921</v>
+        <v>167803.0100164248</v>
       </c>
       <c r="G78" t="n">
-        <v>146840.6811617498</v>
+        <v>124661.7036093494</v>
       </c>
       <c r="H78" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I78" t="n">
-        <v>3479698</v>
+        <v>3502669</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102711801</v>
+        <v>102856068</v>
       </c>
       <c r="E79" t="n">
-        <v>109191927</v>
+        <v>109345296</v>
       </c>
       <c r="F79" t="n">
-        <v>2384.963572644449</v>
+        <v>3362.517610817198</v>
       </c>
       <c r="G79" t="n">
-        <v>4293.978890312877</v>
+        <v>3159.88439496326</v>
       </c>
       <c r="H79" t="n">
-        <v>0.84</v>
+        <v>0.58</v>
       </c>
       <c r="I79" t="n">
-        <v>452399</v>
+        <v>450990</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10388559</v>
+        <v>10212448</v>
       </c>
       <c r="E80" t="n">
-        <v>45139020</v>
+        <v>44961022</v>
       </c>
       <c r="F80" t="n">
-        <v>7137.88329732903</v>
+        <v>6484.272770164814</v>
       </c>
       <c r="G80" t="n">
-        <v>5052.29256172482</v>
+        <v>5504.482877161148</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="I80" t="n">
-        <v>111094</v>
+        <v>112693</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15954857</v>
+        <v>15971244</v>
       </c>
       <c r="E81" t="n">
-        <v>97792566</v>
+        <v>97893005</v>
       </c>
       <c r="F81" t="n">
-        <v>4199.487298590171</v>
+        <v>4195.584230883477</v>
       </c>
       <c r="G81" t="n">
-        <v>4909.353742913858</v>
+        <v>6224.317654405795</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>10397030</v>
+        <v>10897939</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1525166</v>
+        <v>1523713</v>
       </c>
       <c r="E82" t="n">
-        <v>1568067</v>
+        <v>1566573</v>
       </c>
       <c r="F82" t="n">
-        <v>6091.433920420281</v>
+        <v>6810.643254793747</v>
       </c>
       <c r="G82" t="n">
-        <v>5841.842045416081</v>
+        <v>5700.76169070203</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>145798</v>
+        <v>147438</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50605894</v>
+        <v>50376469</v>
       </c>
       <c r="E83" t="n">
-        <v>218004657</v>
+        <v>217016318</v>
       </c>
       <c r="F83" t="n">
-        <v>4434.852809343542</v>
+        <v>4423.958219901205</v>
       </c>
       <c r="G83" t="n">
-        <v>3267.043160582007</v>
+        <v>3596.079809701632</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I83" t="n">
-        <v>10257028</v>
+        <v>10084796</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2007443</v>
+        <v>1992922</v>
       </c>
       <c r="E84" t="n">
-        <v>7290842</v>
+        <v>7238040</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>154763</v>
+        <v>155701</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8932151</v>
+        <v>9104484</v>
       </c>
       <c r="E85" t="n">
-        <v>19829978</v>
+        <v>20210681</v>
       </c>
       <c r="F85" t="n">
-        <v>5867.705599688354</v>
+        <v>6559.350964576472</v>
       </c>
       <c r="G85" t="n">
-        <v>6457.213091780079</v>
+        <v>6004.251683987125</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="I85" t="n">
-        <v>330912</v>
+        <v>334096</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2439718</v>
+        <v>2443392</v>
       </c>
       <c r="E86" t="n">
-        <v>18358249</v>
+        <v>18385900</v>
       </c>
       <c r="F86" t="n">
-        <v>5251.662011548</v>
+        <v>4854.784721070241</v>
       </c>
       <c r="G86" t="n">
-        <v>12307.52188385287</v>
+        <v>11980.28338896573</v>
       </c>
       <c r="H86" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163453</v>
+        <v>163855</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21237628</v>
+        <v>21314007</v>
       </c>
       <c r="E87" t="n">
-        <v>84950511</v>
+        <v>85256028</v>
       </c>
       <c r="F87" t="n">
-        <v>9368.105707473136</v>
+        <v>22937.73273521895</v>
       </c>
       <c r="G87" t="n">
-        <v>1163.172955835021</v>
+        <v>1130.739015026571</v>
       </c>
       <c r="H87" t="n">
-        <v>0.48</v>
+        <v>1.06</v>
       </c>
       <c r="I87" t="n">
-        <v>2460830</v>
+        <v>2458759</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5025168</v>
+        <v>4902843</v>
       </c>
       <c r="E88" t="n">
-        <v>5025168</v>
+        <v>4902843</v>
       </c>
       <c r="F88" t="n">
-        <v>1134.032327997679</v>
+        <v>740.5479075417969</v>
       </c>
       <c r="G88" t="n">
-        <v>1426.724536072049</v>
+        <v>861.067182155666</v>
       </c>
       <c r="H88" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="I88" t="n">
-        <v>3091266</v>
+        <v>3070359</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12902212</v>
+        <v>12749909</v>
       </c>
       <c r="E89" t="n">
-        <v>40812126</v>
+        <v>40330363</v>
       </c>
       <c r="F89" t="n">
-        <v>24168.9985452933</v>
+        <v>13164.33287185244</v>
       </c>
       <c r="G89" t="n">
-        <v>9677.078525043327</v>
+        <v>14215.86702667404</v>
       </c>
       <c r="H89" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="I89" t="n">
-        <v>982566</v>
+        <v>972704</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24570</v>
+        <v>24568</v>
       </c>
       <c r="E90" t="n">
-        <v>193234</v>
+        <v>193220</v>
       </c>
       <c r="F90" t="n">
-        <v>3335.777604443542</v>
+        <v>223.1712880533571</v>
       </c>
       <c r="G90" t="n">
-        <v>286.3329168738107</v>
+        <v>280.8026682603129</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>59786</v>
+        <v>54832</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8542107</v>
+        <v>8469977</v>
       </c>
       <c r="E91" t="n">
-        <v>8542107</v>
+        <v>8469977</v>
       </c>
       <c r="F91" t="n">
-        <v>4033.911907428758</v>
+        <v>3909.248694190755</v>
       </c>
       <c r="G91" t="n">
-        <v>3981.528764625974</v>
+        <v>4114.81618665879</v>
       </c>
       <c r="H91" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="I91" t="n">
-        <v>3763712</v>
+        <v>3742002</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9428901</v>
+        <v>9177344</v>
       </c>
       <c r="E92" t="n">
-        <v>9428901</v>
+        <v>9177344</v>
       </c>
       <c r="F92" t="n">
-        <v>4175.780565682945</v>
+        <v>7481.649417226109</v>
       </c>
       <c r="G92" t="n">
-        <v>4729.007916894891</v>
+        <v>458.9939920461513</v>
       </c>
       <c r="H92" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>3061268</v>
+        <v>3013287</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37808442</v>
+        <v>37633585</v>
       </c>
       <c r="E93" t="n">
-        <v>95334739</v>
+        <v>94893835</v>
       </c>
       <c r="F93" t="n">
-        <v>5065.507831915125</v>
+        <v>5385.694033717596</v>
       </c>
       <c r="G93" t="n">
-        <v>5448.190394202315</v>
+        <v>5773.618367766288</v>
       </c>
       <c r="H93" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="I93" t="n">
-        <v>3500986</v>
+        <v>3530514</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>321674708</v>
+        <v>319964100</v>
       </c>
       <c r="E94" t="n">
-        <v>326693200</v>
+        <v>324966514</v>
       </c>
       <c r="F94" t="n">
-        <v>2876.694206544568</v>
+        <v>4315.827690554837</v>
       </c>
       <c r="G94" t="n">
-        <v>4908.532751474566</v>
+        <v>6032.046045799967</v>
       </c>
       <c r="H94" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I94" t="n">
-        <v>17255994</v>
+        <v>17996885</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6101.549883656995</v>
+        <v>1003.226160563758</v>
       </c>
       <c r="G95" t="n">
-        <v>6304.206004129705</v>
+        <v>6495.147020803572</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>215054</v>
+        <v>216478</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>87065508</v>
+        <v>88276580</v>
       </c>
       <c r="E96" t="n">
-        <v>87065508</v>
+        <v>88276580</v>
       </c>
       <c r="F96" t="n">
-        <v>10496.46195809342</v>
+        <v>7872.621110282966</v>
       </c>
       <c r="G96" t="n">
-        <v>8058.318780404141</v>
+        <v>7702.6774409124</v>
       </c>
       <c r="H96" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="I96" t="n">
-        <v>5342847</v>
+        <v>5444934</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>305926157</v>
+        <v>304711710</v>
       </c>
       <c r="E97" t="n">
-        <v>305926157</v>
+        <v>304711710</v>
       </c>
       <c r="F97" t="n">
-        <v>245055.6225300081</v>
+        <v>374268.4370088887</v>
       </c>
       <c r="G97" t="n">
-        <v>424824.3683164165</v>
+        <v>504094.0487406902</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>81450290</v>
+        <v>80914458</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4224254</v>
+        <v>4320161</v>
       </c>
       <c r="E98" t="n">
-        <v>28864027</v>
+        <v>29519357</v>
       </c>
       <c r="F98" t="n">
-        <v>288.3514050370034</v>
+        <v>4866.993456641476</v>
       </c>
       <c r="G98" t="n">
-        <v>475.8995662832999</v>
+        <v>6404.835804281493</v>
       </c>
       <c r="H98" t="n">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="I98" t="n">
-        <v>2655031</v>
+        <v>2621877</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93790251</v>
+        <v>93218397</v>
       </c>
       <c r="E99" t="n">
-        <v>540459883</v>
+        <v>537164610</v>
       </c>
       <c r="F99" t="n">
-        <v>138905.6706334445</v>
+        <v>141186.5991025344</v>
       </c>
       <c r="G99" t="n">
-        <v>141505.4842368295</v>
+        <v>155829.5560740331</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I99" t="n">
-        <v>17793083</v>
+        <v>18299164</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>111703215</v>
+        <v>111123394</v>
       </c>
       <c r="E100" t="n">
-        <v>274833551</v>
+        <v>273406965</v>
       </c>
       <c r="F100" t="n">
-        <v>25216.68370826529</v>
+        <v>27532.77130434085</v>
       </c>
       <c r="G100" t="n">
-        <v>40862.79069158647</v>
+        <v>45685.5209894293</v>
       </c>
       <c r="H100" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I100" t="n">
-        <v>2730356</v>
+        <v>2138969</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>251204793</v>
+        <v>251731902</v>
       </c>
       <c r="E101" t="n">
-        <v>251207289</v>
+        <v>251734403</v>
       </c>
       <c r="F101" t="n">
-        <v>10856.23890491735</v>
+        <v>45506.66066584139</v>
       </c>
       <c r="G101" t="n">
-        <v>20129.38427428897</v>
+        <v>20017.46007130905</v>
       </c>
       <c r="H101" t="n">
         <v>0.22</v>
       </c>
       <c r="I101" t="n">
-        <v>2462084</v>
+        <v>2212719</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>31469777</v>
+        <v>31609476</v>
       </c>
       <c r="E102" t="n">
-        <v>140903101</v>
+        <v>141528593</v>
       </c>
       <c r="F102" t="n">
-        <v>108517.5918547603</v>
+        <v>75495.68094587114</v>
       </c>
       <c r="G102" t="n">
-        <v>146480.0528663887</v>
+        <v>141826.3376484207</v>
       </c>
       <c r="H102" t="n">
         <v>0.14</v>
       </c>
       <c r="I102" t="n">
-        <v>8672481</v>
+        <v>8659912</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3252083</v>
+        <v>3265362</v>
       </c>
       <c r="E103" t="n">
-        <v>3252083</v>
+        <v>3265362</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>405178</v>
+        <v>292247</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5888339</v>
+        <v>6035006</v>
       </c>
       <c r="E104" t="n">
-        <v>15453956</v>
+        <v>15838883</v>
       </c>
       <c r="F104" t="n">
-        <v>8911.485163531692</v>
+        <v>570.5419231466367</v>
       </c>
       <c r="G104" t="n">
-        <v>2436.040868115203</v>
+        <v>63.67249014948023</v>
       </c>
       <c r="H104" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="I104" t="n">
-        <v>26280</v>
+        <v>26427</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16511118</v>
+        <v>16573306</v>
       </c>
       <c r="E105" t="n">
-        <v>76212974</v>
+        <v>76500099</v>
       </c>
       <c r="F105" t="n">
-        <v>26472.88106092003</v>
+        <v>42908.9396363604</v>
       </c>
       <c r="G105" t="n">
-        <v>67589.08634181038</v>
+        <v>77266.32872079173</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I105" t="n">
-        <v>901117</v>
+        <v>809789</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52268899</v>
+        <v>52106351</v>
       </c>
       <c r="E106" t="n">
-        <v>338949900</v>
+        <v>337895817</v>
       </c>
       <c r="F106" t="n">
-        <v>86259.4070376223</v>
+        <v>106927.8498967475</v>
       </c>
       <c r="G106" t="n">
-        <v>126326.2223329837</v>
+        <v>174981.7086841364</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17653363</v>
+        <v>17715059</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2487492</v>
+        <v>2548857</v>
       </c>
       <c r="E107" t="n">
-        <v>4506559</v>
+        <v>4617735</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>130895</v>
+        <v>129146</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125243422</v>
+        <v>125053989</v>
       </c>
       <c r="E108" t="n">
-        <v>2074133646</v>
+        <v>2070996484</v>
       </c>
       <c r="F108" t="n">
-        <v>229292.3597243877</v>
+        <v>237868.907970587</v>
       </c>
       <c r="G108" t="n">
-        <v>107763.9977614053</v>
+        <v>94018.23070741203</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4575889</v>
+        <v>4648467</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25271307</v>
+        <v>25153128</v>
       </c>
       <c r="E109" t="n">
-        <v>151203312</v>
+        <v>150496222</v>
       </c>
       <c r="F109" t="n">
-        <v>43427.70447051508</v>
+        <v>43341.3512414462</v>
       </c>
       <c r="G109" t="n">
-        <v>42772.8627789949</v>
+        <v>3246.863081905261</v>
       </c>
       <c r="H109" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I109" t="n">
-        <v>12637631</v>
+        <v>13131787</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1037482</v>
+        <v>1096812</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>66730</v>
+        <v>72832</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2241804</v>
+        <v>2234043</v>
       </c>
       <c r="F111" t="n">
-        <v>3719.004784361291</v>
+        <v>3941.740144096082</v>
       </c>
       <c r="G111" t="n">
-        <v>393.486414763409</v>
+        <v>368.9832493310161</v>
       </c>
       <c r="H111" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>177777</v>
+        <v>177708</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147456153</v>
+        <v>147341216</v>
       </c>
       <c r="F112" t="n">
-        <v>8607.309306001465</v>
+        <v>8562.73773396646</v>
       </c>
       <c r="G112" t="n">
-        <v>2930.240139232286</v>
+        <v>3235.873705850473</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I112" t="n">
-        <v>26462</v>
+        <v>30197</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6684644</v>
+        <v>6757890</v>
       </c>
       <c r="E113" t="n">
-        <v>34390460</v>
+        <v>34767291</v>
       </c>
       <c r="F113" t="n">
-        <v>1767.914709952047</v>
+        <v>2239.114340022597</v>
       </c>
       <c r="G113" t="n">
-        <v>2504.385901998417</v>
+        <v>1383.899028339047</v>
       </c>
       <c r="H113" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="I113" t="n">
-        <v>905344</v>
+        <v>916342</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29154692</v>
+        <v>29298849</v>
       </c>
       <c r="E114" t="n">
-        <v>39976180</v>
+        <v>40173845</v>
       </c>
       <c r="F114" t="n">
-        <v>4814.494726663296</v>
+        <v>6340.215002353592</v>
       </c>
       <c r="G114" t="n">
-        <v>4487.04704956567</v>
+        <v>5851.137125168629</v>
       </c>
       <c r="H114" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I114" t="n">
-        <v>206562</v>
+        <v>232236</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7988295</v>
+        <v>7988193</v>
       </c>
       <c r="F115" t="n">
-        <v>156.1542726915642</v>
+        <v>140.6722830029984</v>
       </c>
       <c r="G115" t="n">
-        <v>6867.251116297211</v>
+        <v>6876.874546685222</v>
       </c>
       <c r="H115" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I115" t="n">
-        <v>653231</v>
+        <v>655977</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3399482</v>
+        <v>3399899</v>
       </c>
       <c r="E116" t="n">
-        <v>4553821</v>
+        <v>4554379</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149534</v>
+        <v>148809</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35506119</v>
+        <v>35646506</v>
       </c>
       <c r="E117" t="n">
-        <v>177191900</v>
+        <v>177892496</v>
       </c>
       <c r="F117" t="n">
-        <v>81255.43484254941</v>
+        <v>118207.5845217291</v>
       </c>
       <c r="G117" t="n">
-        <v>69842.32161654437</v>
+        <v>78894.99213300811</v>
       </c>
       <c r="H117" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>10546941</v>
+        <v>11035138</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3505439</v>
+        <v>3446250</v>
       </c>
       <c r="E118" t="n">
-        <v>5035628</v>
+        <v>4950602</v>
       </c>
       <c r="F118" t="n">
-        <v>564.2568024044798</v>
+        <v>349.0811242791643</v>
       </c>
       <c r="G118" t="n">
-        <v>625.0390364259773</v>
+        <v>632.682540653058</v>
       </c>
       <c r="H118" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>141480</v>
+        <v>144436</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>323581194</v>
+        <v>327315865</v>
       </c>
       <c r="E119" t="n">
-        <v>598699001</v>
+        <v>605608994</v>
       </c>
       <c r="F119" t="n">
-        <v>122532.9874119765</v>
+        <v>116148.2920080902</v>
       </c>
       <c r="G119" t="n">
-        <v>147699.8312443434</v>
+        <v>145454.9273416857</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>14294582</v>
+        <v>14437338</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>74245456</v>
+        <v>74131064</v>
       </c>
       <c r="E120" t="n">
-        <v>708241552</v>
+        <v>707135351</v>
       </c>
       <c r="F120" t="n">
-        <v>5778.353007572849</v>
+        <v>6058.615160338562</v>
       </c>
       <c r="G120" t="n">
-        <v>41598.67728047065</v>
+        <v>42712.33398189861</v>
       </c>
       <c r="H120" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I120" t="n">
-        <v>22504445</v>
+        <v>22709631</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38648587</v>
+        <v>38378258</v>
       </c>
       <c r="E121" t="n">
-        <v>50529708</v>
+        <v>50175956</v>
       </c>
       <c r="F121" t="n">
-        <v>123.3197355611293</v>
+        <v>5758.061907263683</v>
       </c>
       <c r="G121" t="n">
-        <v>1048.483007378507</v>
+        <v>5384.500762744595</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0.39</v>
       </c>
       <c r="I121" t="n">
-        <v>560464</v>
+        <v>311009</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11640732</v>
+        <v>11629797</v>
       </c>
       <c r="E122" t="n">
-        <v>34532597</v>
+        <v>34500156</v>
       </c>
       <c r="F122" t="n">
-        <v>1922.300279955012</v>
+        <v>3472.849332824092</v>
       </c>
       <c r="G122" t="n">
-        <v>5162.748791404264</v>
+        <v>6172.368112025491</v>
       </c>
       <c r="H122" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="I122" t="n">
-        <v>7342943</v>
+        <v>7393115</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2278627</v>
+        <v>2331127</v>
       </c>
       <c r="E123" t="n">
-        <v>7797119</v>
+        <v>7789771</v>
       </c>
       <c r="F123" t="n">
-        <v>807.5796729859578</v>
+        <v>666.1502805779818</v>
       </c>
       <c r="G123" t="n">
-        <v>942.3571767428134</v>
+        <v>1087.354603338525</v>
       </c>
       <c r="H123" t="n">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="I123" t="n">
-        <v>940544</v>
+        <v>888128</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7344382</v>
+        <v>7368619</v>
       </c>
       <c r="E124" t="n">
-        <v>7344393</v>
+        <v>7368630</v>
       </c>
       <c r="F124" t="n">
-        <v>555.6990105534172</v>
+        <v>558.8024805145581</v>
       </c>
       <c r="G124" t="n">
-        <v>937.9361698866404</v>
+        <v>984.1316831104022</v>
       </c>
       <c r="H124" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="I124" t="n">
-        <v>319770</v>
+        <v>316786</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6594797</v>
+        <v>6555740</v>
       </c>
       <c r="E125" t="n">
-        <v>6594797</v>
+        <v>6555740</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>503881</v>
+        <v>507602</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6266737</v>
+        <v>6276334</v>
       </c>
       <c r="E126" t="n">
-        <v>22889964</v>
+        <v>22925018</v>
       </c>
       <c r="F126" t="n">
-        <v>7101.733788324481</v>
+        <v>7402.591041033832</v>
       </c>
       <c r="G126" t="n">
-        <v>8039.119353142649</v>
+        <v>7196.649966924861</v>
       </c>
       <c r="H126" t="n">
-        <v>1.27</v>
+        <v>0.75</v>
       </c>
       <c r="I126" t="n">
-        <v>510460</v>
+        <v>520433</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45964176</v>
+        <v>46111129</v>
       </c>
       <c r="E127" t="n">
-        <v>45964176</v>
+        <v>46111129</v>
       </c>
       <c r="F127" t="n">
-        <v>62933.32096824631</v>
+        <v>53673.37030913975</v>
       </c>
       <c r="G127" t="n">
-        <v>82279.76939732538</v>
+        <v>78456.15353052841</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="I127" t="n">
-        <v>8641986</v>
+        <v>8789538</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>150366145</v>
+        <v>146277332</v>
       </c>
       <c r="F128" t="n">
-        <v>2612.565627568535</v>
+        <v>250.7637598915596</v>
       </c>
       <c r="G128" t="n">
-        <v>5943.596370501957</v>
+        <v>2141.658757545508</v>
       </c>
       <c r="H128" t="n">
-        <v>0.86</v>
+        <v>2.98</v>
       </c>
       <c r="I128" t="n">
-        <v>1747165</v>
+        <v>1839201</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3084214</v>
+        <v>3152678</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73039</v>
+        <v>75122</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20404673</v>
+        <v>20441335</v>
       </c>
       <c r="F130" t="n">
-        <v>469.5495883536415</v>
+        <v>561.5398382978441</v>
       </c>
       <c r="G130" t="n">
-        <v>456.4149823725447</v>
+        <v>740.6803213098602</v>
       </c>
       <c r="H130" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="I130" t="n">
-        <v>2981276</v>
+        <v>2992860</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1264473</v>
+        <v>1256562</v>
       </c>
       <c r="E131" t="n">
-        <v>3820503</v>
+        <v>3796786</v>
       </c>
       <c r="F131" t="n">
-        <v>602.8809607241668</v>
+        <v>717.8545098511735</v>
       </c>
       <c r="G131" t="n">
-        <v>772.3014255605567</v>
+        <v>774.4423627429729</v>
       </c>
       <c r="H131" t="n">
         <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>15586.09</v>
+        <v>15074.75</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>628721102</v>
+        <v>631138539</v>
       </c>
       <c r="E132" t="n">
-        <v>2434944069</v>
+        <v>2444306442</v>
       </c>
       <c r="F132" t="n">
-        <v>734651.0632475495</v>
+        <v>752744.762675752</v>
       </c>
       <c r="G132" t="n">
-        <v>1057046.10550785</v>
+        <v>1030903.150289535</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>36639348</v>
+        <v>38682878</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3717493</v>
+        <v>3713923</v>
       </c>
       <c r="E133" t="n">
-        <v>6336971</v>
+        <v>6330887</v>
       </c>
       <c r="F133" t="n">
-        <v>5233.388367273047</v>
+        <v>5190.915753426918</v>
       </c>
       <c r="G133" t="n">
-        <v>5566.872343540403</v>
+        <v>5392.407505846965</v>
       </c>
       <c r="H133" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1119697</v>
+        <v>1162838</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116394962</v>
+        <v>116848922</v>
       </c>
       <c r="E134" t="n">
-        <v>1081459102</v>
+        <v>1085676971</v>
       </c>
       <c r="F134" t="n">
-        <v>98955.86605253228</v>
+        <v>91264.32777890627</v>
       </c>
       <c r="G134" t="n">
-        <v>112313.9559644508</v>
+        <v>123040.520177155</v>
       </c>
       <c r="H134" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>9388305</v>
+        <v>9909479</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>982850783</v>
+        <v>978732023</v>
       </c>
       <c r="E135" t="n">
-        <v>1079664279</v>
+        <v>1075139810</v>
       </c>
       <c r="F135" t="n">
-        <v>10004.32968870283</v>
+        <v>12874.65280925485</v>
       </c>
       <c r="G135" t="n">
-        <v>13235.78369165446</v>
+        <v>16118.28358563763</v>
       </c>
       <c r="H135" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="I135" t="n">
-        <v>10244467</v>
+        <v>10257998</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1141244</v>
+        <v>1151309</v>
       </c>
       <c r="E136" t="n">
-        <v>4419145</v>
+        <v>4458119</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>330832</v>
+        <v>361579</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>128576268</v>
+        <v>128729889</v>
       </c>
       <c r="E137" t="n">
-        <v>493239260</v>
+        <v>493828576</v>
       </c>
       <c r="F137" t="n">
-        <v>179624.6496104798</v>
+        <v>168543.0986251447</v>
       </c>
       <c r="G137" t="n">
-        <v>205381.592201991</v>
+        <v>239980.1694464681</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I137" t="n">
-        <v>33667424</v>
+        <v>35633591</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3279447</v>
+        <v>3304552</v>
       </c>
       <c r="E138" t="n">
-        <v>31073242</v>
+        <v>31311117</v>
       </c>
       <c r="F138" t="n">
-        <v>4576.624570649913</v>
+        <v>4631.514493120187</v>
       </c>
       <c r="G138" t="n">
-        <v>4426.666571504976</v>
+        <v>4935.642805690793</v>
       </c>
       <c r="H138" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="I138" t="n">
-        <v>225772</v>
+        <v>227130</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21562511</v>
+        <v>21684745</v>
       </c>
       <c r="E139" t="n">
-        <v>21562511</v>
+        <v>21684745</v>
       </c>
       <c r="F139" t="n">
-        <v>8005.509646479783</v>
+        <v>8040.948451818967</v>
       </c>
       <c r="G139" t="n">
-        <v>5387.840756317258</v>
+        <v>5525.42626248228</v>
       </c>
       <c r="H139" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="I139" t="n">
-        <v>707164</v>
+        <v>680311</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494513243</v>
+        <v>494714546</v>
       </c>
       <c r="E140" t="n">
-        <v>494513243</v>
+        <v>494714546</v>
       </c>
       <c r="F140" t="n">
-        <v>716381.136409558</v>
+        <v>944840.8524067722</v>
       </c>
       <c r="G140" t="n">
-        <v>805950.44944872</v>
+        <v>924862.0233360608</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>33684283</v>
+        <v>33514857</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>34615181</v>
+        <v>33453771</v>
       </c>
       <c r="F141" t="n">
-        <v>55959.87949769213</v>
+        <v>51351.97865825862</v>
       </c>
       <c r="G141" t="n">
-        <v>85919.10690750877</v>
+        <v>61864.46358973747</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="I141" t="n">
-        <v>6031148</v>
+        <v>5475280</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>737711</v>
+        <v>783594</v>
       </c>
       <c r="E142" t="n">
-        <v>11766220</v>
+        <v>12498038</v>
       </c>
       <c r="F142" t="n">
-        <v>246.0962462967506</v>
+        <v>132.504715282383</v>
       </c>
       <c r="G142" t="n">
-        <v>841.3821615438954</v>
+        <v>124.5817420477604</v>
       </c>
       <c r="H142" t="n">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="I142" t="n">
-        <v>272405</v>
+        <v>276636</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2737578904</v>
+        <v>2737912524</v>
       </c>
       <c r="E143" t="n">
-        <v>2906596470</v>
+        <v>2906950687</v>
       </c>
       <c r="F143" t="n">
-        <v>2915.650467086465</v>
+        <v>2493.485813950272</v>
       </c>
       <c r="G143" t="n">
-        <v>24131.05197713604</v>
+        <v>25798.63523142568</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>40717701</v>
+        <v>41804125</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1744558</v>
+        <v>1742856</v>
       </c>
       <c r="E144" t="n">
-        <v>1750716</v>
+        <v>1749008</v>
       </c>
       <c r="F144" t="n">
-        <v>1128.628658962427</v>
+        <v>3758.93244953142</v>
       </c>
       <c r="G144" t="n">
-        <v>326.9345520143941</v>
+        <v>1946.851875054316</v>
       </c>
       <c r="H144" t="n">
-        <v>0.92</v>
+        <v>1.69</v>
       </c>
       <c r="I144" t="n">
-        <v>449403</v>
+        <v>453027</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>63358049</v>
+        <v>63832855</v>
       </c>
       <c r="E145" t="n">
-        <v>155412999</v>
+        <v>156577667</v>
       </c>
       <c r="F145" t="n">
-        <v>2993.35239944464</v>
+        <v>3480.325601246662</v>
       </c>
       <c r="G145" t="n">
-        <v>5270.427717444945</v>
+        <v>5173.805337439278</v>
       </c>
       <c r="H145" t="n">
         <v>0.43</v>
       </c>
       <c r="I145" t="n">
-        <v>22757374</v>
+        <v>22807819</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>824683271</v>
+        <v>844230938</v>
       </c>
       <c r="E146" t="n">
-        <v>1271734417</v>
+        <v>1301878645</v>
       </c>
       <c r="F146" t="n">
-        <v>146691.7661521559</v>
+        <v>135752.2838692789</v>
       </c>
       <c r="G146" t="n">
-        <v>140352.1995298997</v>
+        <v>144168.1100470179</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I146" t="n">
-        <v>271567135</v>
+        <v>279310952</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>24338986</v>
+        <v>24261511</v>
       </c>
       <c r="E147" t="n">
-        <v>24338986</v>
+        <v>24261511</v>
       </c>
       <c r="F147" t="n">
-        <v>5543.688273834445</v>
+        <v>5396.695166018605</v>
       </c>
       <c r="G147" t="n">
-        <v>4782.345800773011</v>
+        <v>4539.079306133077</v>
       </c>
       <c r="H147" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I147" t="n">
-        <v>5886582</v>
+        <v>5781477</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3819219</v>
+        <v>3833713</v>
       </c>
       <c r="E148" t="n">
-        <v>8333486</v>
+        <v>8365112</v>
       </c>
       <c r="F148" t="n">
-        <v>5655.472877909991</v>
+        <v>7207.86465909729</v>
       </c>
       <c r="G148" t="n">
-        <v>5940.966198262508</v>
+        <v>6764.506271071153</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>1829553</v>
+        <v>1884283</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9256070</v>
+        <v>9257772</v>
       </c>
       <c r="E149" t="n">
-        <v>9256070</v>
+        <v>9257772</v>
       </c>
       <c r="F149" t="n">
-        <v>85116.38511965857</v>
+        <v>91087.19675368255</v>
       </c>
       <c r="G149" t="n">
-        <v>89842.23974306564</v>
+        <v>83008.64767353692</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>2704897</v>
+        <v>2979556</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>510607856</v>
+        <v>512484943</v>
       </c>
       <c r="E150" t="n">
-        <v>1777383452</v>
+        <v>1783917435</v>
       </c>
       <c r="F150" t="n">
-        <v>832286.0208641195</v>
+        <v>803796.1509184849</v>
       </c>
       <c r="G150" t="n">
-        <v>916609.9136725776</v>
+        <v>892050.9261050714</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31909515</v>
+        <v>34955716</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48958256</v>
+        <v>48993687</v>
       </c>
       <c r="E151" t="n">
-        <v>120517394</v>
+        <v>120604619</v>
       </c>
       <c r="F151" t="n">
-        <v>8530.838124865795</v>
+        <v>8592.69040839833</v>
       </c>
       <c r="G151" t="n">
-        <v>10945.53616029672</v>
+        <v>8159.601065261178</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>26725</v>
+        <v>26924</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7495869</v>
+        <v>7497987</v>
       </c>
       <c r="E152" t="n">
-        <v>19473461</v>
+        <v>19478965</v>
       </c>
       <c r="F152" t="n">
-        <v>6657.072157198727</v>
+        <v>6314.920074447953</v>
       </c>
       <c r="G152" t="n">
-        <v>6714.240966720271</v>
+        <v>6461.306455709177</v>
       </c>
       <c r="H152" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>717845</v>
+        <v>719796</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19109565473</v>
+        <v>19154274831</v>
       </c>
       <c r="F153" t="n">
-        <v>52433.33448904185</v>
+        <v>52448.57535837142</v>
       </c>
       <c r="G153" t="n">
-        <v>49910.39817193943</v>
+        <v>49948.2892588561</v>
       </c>
       <c r="H153" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>45739722</v>
+        <v>45438880</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2637059</v>
+        <v>2610603</v>
       </c>
       <c r="E154" t="n">
-        <v>10548238</v>
+        <v>10442412</v>
       </c>
       <c r="F154" t="n">
-        <v>26960.64772737841</v>
+        <v>2319.120107209723</v>
       </c>
       <c r="G154" t="n">
-        <v>3407.336447899882</v>
+        <v>24353.57937316687</v>
       </c>
       <c r="H154" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I154" t="n">
-        <v>7018351</v>
+        <v>7007903</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>228356297</v>
+        <v>227551915</v>
       </c>
       <c r="E155" t="n">
-        <v>702109677</v>
+        <v>699636506</v>
       </c>
       <c r="F155" t="n">
-        <v>133239.4286964327</v>
+        <v>101876.3928085998</v>
       </c>
       <c r="G155" t="n">
-        <v>190729.2312527489</v>
+        <v>166076.114626287</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>16516995</v>
+        <v>16667707</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>413225439</v>
+        <v>411404815</v>
       </c>
       <c r="E156" t="n">
-        <v>2361288223</v>
+        <v>2350884658</v>
       </c>
       <c r="F156" t="n">
-        <v>176189.3930014347</v>
+        <v>202698.2938449975</v>
       </c>
       <c r="G156" t="n">
-        <v>255566.5222700286</v>
+        <v>241298.3478472054</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>41748779</v>
+        <v>42938752</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4133957</v>
+        <v>4173296</v>
       </c>
       <c r="F2" t="n">
-        <v>1745.949402597255</v>
+        <v>1471.058439674078</v>
       </c>
       <c r="G2" t="n">
-        <v>755.2816031343409</v>
+        <v>800.5989143875388</v>
       </c>
       <c r="H2" t="n">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="I2" t="n">
-        <v>150025</v>
+        <v>152371</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>634868473</v>
+        <v>631216414</v>
       </c>
       <c r="E3" t="n">
-        <v>1231942728</v>
+        <v>1224864494</v>
       </c>
       <c r="F3" t="n">
-        <v>62492.74066929523</v>
+        <v>76836.9949100642</v>
       </c>
       <c r="G3" t="n">
-        <v>80814.76103138288</v>
+        <v>81113.56854853913</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>22125244</v>
+        <v>22772219</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253911113</v>
+        <v>256038597</v>
       </c>
       <c r="E4" t="n">
-        <v>1592240901</v>
+        <v>1605582054</v>
       </c>
       <c r="F4" t="n">
-        <v>314592.404437483</v>
+        <v>339976.8170026794</v>
       </c>
       <c r="G4" t="n">
-        <v>245488.393750703</v>
+        <v>225608.7152999607</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>17634469</v>
+        <v>17225447</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152334345</v>
+        <v>152069455</v>
       </c>
       <c r="E5" t="n">
-        <v>168810261</v>
+        <v>168516721</v>
       </c>
       <c r="F5" t="n">
-        <v>8694.170177962531</v>
+        <v>8685.552269067744</v>
       </c>
       <c r="G5" t="n">
-        <v>3319.46755454855</v>
+        <v>158.4297213045991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="n">
-        <v>40609307</v>
+        <v>40811745</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49850222</v>
+        <v>49504156</v>
       </c>
       <c r="E6" t="n">
-        <v>62361349</v>
+        <v>61928430</v>
       </c>
       <c r="F6" t="n">
-        <v>5565.770001812607</v>
+        <v>4999.049494959258</v>
       </c>
       <c r="G6" t="n">
-        <v>5535.064025991315</v>
+        <v>5770.200050645121</v>
       </c>
       <c r="H6" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I6" t="n">
-        <v>743345</v>
+        <v>746682</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69253705</v>
+        <v>69315174</v>
       </c>
       <c r="E7" t="n">
-        <v>137929943</v>
+        <v>138052369</v>
       </c>
       <c r="F7" t="n">
-        <v>9681.998909572098</v>
+        <v>9640.986376679832</v>
       </c>
       <c r="G7" t="n">
-        <v>14155.87967041991</v>
+        <v>13872.07444517282</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>978256</v>
+        <v>974276</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41452349</v>
+        <v>41489547</v>
       </c>
       <c r="E8" t="n">
-        <v>46391149</v>
+        <v>46432779</v>
       </c>
       <c r="F8" t="n">
-        <v>333.7973134005073</v>
+        <v>7084.958230950851</v>
       </c>
       <c r="G8" t="n">
-        <v>327.6360295501086</v>
+        <v>6581.21526134574</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>3826980</v>
+        <v>3820229</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14226525</v>
+        <v>14180540</v>
       </c>
       <c r="E9" t="n">
-        <v>41924649</v>
+        <v>41789134</v>
       </c>
       <c r="F9" t="n">
-        <v>5010.620614123238</v>
+        <v>5214.230569128769</v>
       </c>
       <c r="G9" t="n">
-        <v>5126.805911233294</v>
+        <v>4683.259040918867</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>898699</v>
+        <v>904193</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10967993</v>
+        <v>10354056</v>
       </c>
       <c r="E10" t="n">
-        <v>47142403</v>
+        <v>44503590</v>
       </c>
       <c r="F10" t="n">
-        <v>3811.252183077475</v>
+        <v>1408.073943595901</v>
       </c>
       <c r="G10" t="n">
-        <v>3151.56635879471</v>
+        <v>1468.676083181086</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>0.89</v>
       </c>
       <c r="I10" t="n">
-        <v>784342</v>
+        <v>855494</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>594621593</v>
+        <v>591082974</v>
       </c>
       <c r="E11" t="n">
-        <v>743783236</v>
+        <v>739356950</v>
       </c>
       <c r="F11" t="n">
-        <v>343544.2774594346</v>
+        <v>336867.8267564328</v>
       </c>
       <c r="G11" t="n">
-        <v>327637.963440897</v>
+        <v>337389.4609318544</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>57343147</v>
+        <v>56934426</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4713774</v>
+        <v>4658260</v>
       </c>
       <c r="E12" t="n">
-        <v>28950383</v>
+        <v>28609433</v>
       </c>
       <c r="F12" t="n">
-        <v>11760.00669647056</v>
+        <v>10859.41937187767</v>
       </c>
       <c r="G12" t="n">
-        <v>9909.319930593179</v>
+        <v>9843.955331163199</v>
       </c>
       <c r="H12" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>687933</v>
+        <v>684318</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23067146</v>
+        <v>23044142</v>
       </c>
       <c r="E13" t="n">
-        <v>23109975</v>
+        <v>23086928</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>838405</v>
+        <v>838592</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82425383</v>
+        <v>82822711</v>
       </c>
       <c r="E14" t="n">
-        <v>242505699</v>
+        <v>243674688</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>365303</v>
+        <v>362400</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>484462244</v>
+        <v>482128294</v>
       </c>
       <c r="E15" t="n">
-        <v>484462245</v>
+        <v>482128296</v>
       </c>
       <c r="F15" t="n">
-        <v>14297.59371958355</v>
+        <v>15601.20225504167</v>
       </c>
       <c r="G15" t="n">
-        <v>22782.84597027774</v>
+        <v>19393.70651533093</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>66183634</v>
+        <v>64650191</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4741428</v>
+        <v>4750840</v>
       </c>
       <c r="E16" t="n">
-        <v>4741428</v>
+        <v>4750840</v>
       </c>
       <c r="F16" t="n">
-        <v>106.7187397250498</v>
+        <v>244.6601156173205</v>
       </c>
       <c r="G16" t="n">
-        <v>1411.266192341946</v>
+        <v>1494.503425080341</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2019405</v>
+        <v>2035057</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3378500</v>
+        <v>3394859</v>
       </c>
       <c r="E17" t="n">
-        <v>3378500</v>
+        <v>3394859</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>533026</v>
+        <v>545137</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>171747410</v>
+        <v>172506309</v>
       </c>
       <c r="E18" t="n">
-        <v>212630445</v>
+        <v>213569994</v>
       </c>
       <c r="F18" t="n">
-        <v>8390.512140607578</v>
+        <v>4281.105348839782</v>
       </c>
       <c r="G18" t="n">
-        <v>8257.497030614582</v>
+        <v>12908.53292251905</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>585301</v>
+        <v>592733</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6775375</v>
+        <v>6666773</v>
       </c>
       <c r="E19" t="n">
-        <v>9331423</v>
+        <v>9181850</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>336418</v>
+        <v>330005</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>892114</v>
+        <v>912988</v>
       </c>
       <c r="E20" t="n">
-        <v>6244799</v>
+        <v>6390918</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>245230</v>
+        <v>172392</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>118615428</v>
+        <v>116098744</v>
       </c>
       <c r="E21" t="n">
-        <v>461371074</v>
+        <v>451565311</v>
       </c>
       <c r="F21" t="n">
-        <v>55389.78617937374</v>
+        <v>71776.38161367328</v>
       </c>
       <c r="G21" t="n">
-        <v>80016.84506188348</v>
+        <v>73753.31208694929</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>10902004</v>
+        <v>17272686</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1719828</v>
+        <v>1719559</v>
       </c>
       <c r="E22" t="n">
-        <v>12387779</v>
+        <v>12385836</v>
       </c>
       <c r="F22" t="n">
-        <v>5209.433329582481</v>
+        <v>5208.191972038263</v>
       </c>
       <c r="G22" t="n">
-        <v>5602.513238900733</v>
+        <v>5590.116263905607</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>76818</v>
+        <v>49099</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>145141077</v>
+        <v>145232824</v>
       </c>
       <c r="E23" t="n">
-        <v>145141077</v>
+        <v>145232824</v>
       </c>
       <c r="F23" t="n">
-        <v>1028220.926922686</v>
+        <v>1124798.749534131</v>
       </c>
       <c r="G23" t="n">
-        <v>1116486.211232131</v>
+        <v>1291806.044213674</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>74508292</v>
+        <v>74577352</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69756411</v>
+        <v>69086657</v>
       </c>
       <c r="E24" t="n">
-        <v>357725184</v>
+        <v>354290549</v>
       </c>
       <c r="F24" t="n">
-        <v>78608.41863834071</v>
+        <v>79612.23516269539</v>
       </c>
       <c r="G24" t="n">
-        <v>159639.6604022454</v>
+        <v>177658.9180941993</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>26136378</v>
+        <v>25906982</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>268060614</v>
+        <v>267612455</v>
       </c>
       <c r="E25" t="n">
-        <v>268060614</v>
+        <v>267612455</v>
       </c>
       <c r="F25" t="n">
-        <v>323470.6502695023</v>
+        <v>346996.667705816</v>
       </c>
       <c r="G25" t="n">
-        <v>511769.8029422463</v>
+        <v>462873.6608683853</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>15486261</v>
+        <v>15470473</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1127097</v>
+        <v>1128867</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>168012</v>
+        <v>166475</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4088006</v>
+        <v>4058862</v>
       </c>
       <c r="E28" t="n">
-        <v>4089023</v>
+        <v>4059876</v>
       </c>
       <c r="F28" t="n">
-        <v>612.3371060380894</v>
+        <v>1014.754734616249</v>
       </c>
       <c r="G28" t="n">
-        <v>3814.344823633121</v>
+        <v>2850.890928476061</v>
       </c>
       <c r="H28" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="I28" t="n">
-        <v>264813</v>
+        <v>254545</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6659003</v>
+        <v>6659138</v>
       </c>
       <c r="E29" t="n">
-        <v>16174206</v>
+        <v>16174533</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>489010</v>
+        <v>486345</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101667851</v>
+        <v>101074568</v>
       </c>
       <c r="E30" t="n">
-        <v>126767892</v>
+        <v>126028138</v>
       </c>
       <c r="F30" t="n">
-        <v>115279.8159524772</v>
+        <v>118389.0015865575</v>
       </c>
       <c r="G30" t="n">
-        <v>111502.6976745835</v>
+        <v>101450.5296086318</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10421008</v>
+        <v>10441192</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1151031</v>
+        <v>1199296</v>
       </c>
       <c r="E31" t="n">
-        <v>12508975</v>
+        <v>13033498</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>34058</v>
+        <v>30231</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>83723835</v>
+        <v>84692640</v>
       </c>
       <c r="E32" t="n">
-        <v>234216658</v>
+        <v>236928716</v>
       </c>
       <c r="F32" t="n">
-        <v>47933.91487730556</v>
+        <v>50806.48388001232</v>
       </c>
       <c r="G32" t="n">
-        <v>64261.77880830163</v>
+        <v>71836.01647757745</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>46779083</v>
+        <v>47662050</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4168883</v>
+        <v>4316884</v>
       </c>
       <c r="E33" t="n">
-        <v>8221387</v>
+        <v>8513258</v>
       </c>
       <c r="F33" t="n">
-        <v>7484.697545842821</v>
+        <v>8245.717217651692</v>
       </c>
       <c r="G33" t="n">
-        <v>10712.50680508679</v>
+        <v>8917.693768881962</v>
       </c>
       <c r="H33" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I33" t="n">
-        <v>1332540</v>
+        <v>1639545</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37784925</v>
+        <v>36304161</v>
       </c>
       <c r="F34" t="n">
-        <v>1590.075758916469</v>
+        <v>193.319328370578</v>
       </c>
       <c r="G34" t="n">
-        <v>2.300021445250426</v>
+        <v>178.0731749038149</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>2.19</v>
       </c>
       <c r="I34" t="n">
-        <v>66101</v>
+        <v>63556</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7701113</v>
+        <v>7703576</v>
       </c>
       <c r="E35" t="n">
-        <v>18137652</v>
+        <v>18143452</v>
       </c>
       <c r="F35" t="n">
-        <v>3458.142276711376</v>
+        <v>3458.015140822449</v>
       </c>
       <c r="G35" t="n">
-        <v>2653.903810605167</v>
+        <v>2653.806241912762</v>
       </c>
       <c r="H35" t="n">
         <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>34320</v>
+        <v>34419</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23083600</v>
+        <v>23063524</v>
       </c>
       <c r="F36" t="n">
-        <v>5099.021280937029</v>
+        <v>5166.107791832946</v>
       </c>
       <c r="G36" t="n">
-        <v>5597.635006612393</v>
+        <v>5249.017559218678</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="I36" t="n">
-        <v>126390</v>
+        <v>124879</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>80114890</v>
+        <v>79570504</v>
       </c>
       <c r="E37" t="n">
-        <v>167080230</v>
+        <v>165944908</v>
       </c>
       <c r="F37" t="n">
-        <v>84277.31040298486</v>
+        <v>104941.073385617</v>
       </c>
       <c r="G37" t="n">
-        <v>123432.7677461217</v>
+        <v>104204.3530724571</v>
       </c>
       <c r="H37" t="n">
         <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>20328803</v>
+        <v>20473986</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277983230</v>
+        <v>282780188</v>
       </c>
       <c r="E38" t="n">
-        <v>277983230</v>
+        <v>282780188</v>
       </c>
       <c r="F38" t="n">
-        <v>26685.95701557843</v>
+        <v>32306.71967995225</v>
       </c>
       <c r="G38" t="n">
-        <v>30918.68073733474</v>
+        <v>20096.04419646949</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>9557739</v>
+        <v>9574853</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>210714523</v>
+        <v>214947883</v>
       </c>
       <c r="E39" t="n">
-        <v>732041295</v>
+        <v>746748372</v>
       </c>
       <c r="F39" t="n">
-        <v>151020.9598929402</v>
+        <v>157688.5396484545</v>
       </c>
       <c r="G39" t="n">
-        <v>352035.8950847689</v>
+        <v>190124.1180097968</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>30055443</v>
+        <v>33523151</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3511167</v>
+        <v>3776708</v>
       </c>
       <c r="E40" t="n">
-        <v>3511167</v>
+        <v>3776708</v>
       </c>
       <c r="F40" t="n">
-        <v>6906.341314564723</v>
+        <v>7331.642319979791</v>
       </c>
       <c r="G40" t="n">
-        <v>1436.339354975728</v>
+        <v>962.7353829167618</v>
       </c>
       <c r="H40" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="I40" t="n">
-        <v>2508391</v>
+        <v>2530061</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>120822430</v>
+        <v>120636321</v>
       </c>
       <c r="E41" t="n">
-        <v>513094520</v>
+        <v>512266678</v>
       </c>
       <c r="F41" t="n">
-        <v>5801.700538047091</v>
+        <v>5638.172161119443</v>
       </c>
       <c r="G41" t="n">
-        <v>6215.902624697841</v>
+        <v>6548.3314721848</v>
       </c>
       <c r="H41" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I41" t="n">
-        <v>16520910</v>
+        <v>14505333</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>571055</v>
+        <v>569196</v>
       </c>
       <c r="E42" t="n">
-        <v>6926336</v>
+        <v>6903798</v>
       </c>
       <c r="F42" t="n">
-        <v>830.5579392903395</v>
+        <v>783.9052282950302</v>
       </c>
       <c r="G42" t="n">
-        <v>653.0860838045428</v>
+        <v>1236.89459116425</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2802998</v>
+        <v>2798554</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1357207595</v>
+        <v>1357776129</v>
       </c>
       <c r="E43" t="n">
-        <v>6508088370</v>
+        <v>6510814604</v>
       </c>
       <c r="F43" t="n">
-        <v>62284.34721515633</v>
+        <v>67183.56185962229</v>
       </c>
       <c r="G43" t="n">
-        <v>66706.25794987995</v>
+        <v>107395.8210170316</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I43" t="n">
-        <v>198709770</v>
+        <v>205112225</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6054906402</v>
+        <v>6056047811</v>
       </c>
       <c r="E44" t="n">
-        <v>6054906402</v>
+        <v>6056047811</v>
       </c>
       <c r="F44" t="n">
-        <v>963710.1080240181</v>
+        <v>4209916.560000468</v>
       </c>
       <c r="G44" t="n">
-        <v>1636949.613759823</v>
+        <v>4109844.378714638</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>76984005</v>
+        <v>82390334</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>279955204</v>
+        <v>279024847</v>
       </c>
       <c r="E45" t="n">
-        <v>1208442077</v>
+        <v>1204426138</v>
       </c>
       <c r="F45" t="n">
-        <v>85796.4073076292</v>
+        <v>115965.1070026681</v>
       </c>
       <c r="G45" t="n">
-        <v>93381.34815801321</v>
+        <v>100564.9762772005</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I45" t="n">
-        <v>111044505</v>
+        <v>110767477</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>116937593</v>
+        <v>117146545</v>
       </c>
       <c r="E46" t="n">
-        <v>116937593</v>
+        <v>117146545</v>
       </c>
       <c r="F46" t="n">
-        <v>36470.97764400483</v>
+        <v>28203.94297755864</v>
       </c>
       <c r="G46" t="n">
-        <v>31844.21984634476</v>
+        <v>37394.34583102122</v>
       </c>
       <c r="H46" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6386303</v>
+        <v>6363662</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2044955566</v>
+        <v>2007059640</v>
       </c>
       <c r="E47" t="n">
-        <v>2044955566</v>
+        <v>2007059640</v>
       </c>
       <c r="F47" t="n">
-        <v>225532.4131020197</v>
+        <v>225962.5726438414</v>
       </c>
       <c r="G47" t="n">
-        <v>199450.700650847</v>
+        <v>199257.7281727647</v>
       </c>
       <c r="H47" t="n">
         <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>7492376077</v>
+        <v>5547885450</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10202103</v>
+        <v>10233167</v>
       </c>
       <c r="F48" t="n">
-        <v>6591.334821968522</v>
+        <v>6665.825430326828</v>
       </c>
       <c r="G48" t="n">
-        <v>6334.605766279155</v>
+        <v>5610.11340502685</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>142719</v>
+        <v>148592</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4460013</v>
+        <v>4449218</v>
       </c>
       <c r="E49" t="n">
-        <v>5855415</v>
+        <v>5841243</v>
       </c>
       <c r="F49" t="n">
-        <v>7545.467411205362</v>
+        <v>14113.58475868457</v>
       </c>
       <c r="G49" t="n">
-        <v>16515.79675871963</v>
+        <v>7924.797813987505</v>
       </c>
       <c r="H49" t="n">
         <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>619472</v>
+        <v>645140</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12551027</v>
+        <v>12577324</v>
       </c>
       <c r="E50" t="n">
-        <v>18456048</v>
+        <v>18494717</v>
       </c>
       <c r="F50" t="n">
-        <v>6058.48036072472</v>
+        <v>7199.061213363998</v>
       </c>
       <c r="G50" t="n">
-        <v>17737.78384974018</v>
+        <v>8314.52201771293</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>3429151</v>
+        <v>3451932</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23365093</v>
+        <v>23390691</v>
       </c>
       <c r="E51" t="n">
-        <v>30309870</v>
+        <v>30343077</v>
       </c>
       <c r="F51" t="n">
-        <v>13879.81487166946</v>
+        <v>11592.6807480779</v>
       </c>
       <c r="G51" t="n">
-        <v>12774.47168372253</v>
+        <v>10922.31643296303</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>169255</v>
+        <v>164885</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14845327</v>
+        <v>14636892</v>
       </c>
       <c r="E52" t="n">
-        <v>14845327</v>
+        <v>14636892</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5257733</v>
+        <v>5301008</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98647667</v>
+        <v>99219226</v>
       </c>
       <c r="E53" t="n">
-        <v>122023633</v>
+        <v>122730631</v>
       </c>
       <c r="F53" t="n">
-        <v>831.9005768198809</v>
+        <v>984.5073313608005</v>
       </c>
       <c r="G53" t="n">
-        <v>3938.052613080255</v>
+        <v>1376.94500953903</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>880696</v>
+        <v>862035</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5187136</v>
+        <v>5104698</v>
       </c>
       <c r="E54" t="n">
-        <v>7257555</v>
+        <v>7142212</v>
       </c>
       <c r="F54" t="n">
-        <v>219.9608193714925</v>
+        <v>536.5592348182138</v>
       </c>
       <c r="G54" t="n">
-        <v>252.3960209686181</v>
+        <v>274.8448408735283</v>
       </c>
       <c r="H54" t="n">
-        <v>3.57</v>
+        <v>2.62</v>
       </c>
       <c r="I54" t="n">
-        <v>81201</v>
+        <v>80765</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15630465</v>
+        <v>15634624</v>
       </c>
       <c r="E55" t="n">
-        <v>75700835</v>
+        <v>75720981</v>
       </c>
       <c r="F55" t="n">
-        <v>20434.00641735899</v>
+        <v>22748.69999044972</v>
       </c>
       <c r="G55" t="n">
-        <v>32353.00228291994</v>
+        <v>31832.28688633905</v>
       </c>
       <c r="H55" t="n">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="I55" t="n">
-        <v>4214308</v>
+        <v>4168604</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57919</v>
+        <v>60519</v>
       </c>
       <c r="E56" t="n">
-        <v>138727</v>
+        <v>144957</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2931.16</v>
+        <v>2737.57</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1928447361</v>
+        <v>1929217566</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>28060485</v>
+        <v>28167866</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12384107</v>
+        <v>12365505</v>
       </c>
       <c r="E58" t="n">
-        <v>17955168</v>
+        <v>17928198</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2106610</v>
+        <v>2100443</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124295332</v>
+        <v>123612726</v>
       </c>
       <c r="E59" t="n">
-        <v>330554727</v>
+        <v>328739384</v>
       </c>
       <c r="F59" t="n">
-        <v>8599.196267613526</v>
+        <v>8260.298194227358</v>
       </c>
       <c r="G59" t="n">
-        <v>7295.382371338525</v>
+        <v>7169.567244122571</v>
       </c>
       <c r="H59" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="I59" t="n">
-        <v>726998</v>
+        <v>793765</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31815205</v>
+        <v>31781693</v>
       </c>
       <c r="E60" t="n">
-        <v>99062341</v>
+        <v>98957995</v>
       </c>
       <c r="F60" t="n">
-        <v>2782.92016433815</v>
+        <v>2467.478243864594</v>
       </c>
       <c r="G60" t="n">
-        <v>5243.627598407664</v>
+        <v>4992.100794495628</v>
       </c>
       <c r="H60" t="n">
-        <v>0.23</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>10432590</v>
+        <v>10289508</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1948220</v>
+        <v>1996705</v>
       </c>
       <c r="E61" t="n">
-        <v>13970492</v>
+        <v>14318173</v>
       </c>
       <c r="F61" t="n">
-        <v>1359.217952007318</v>
+        <v>1228.876873679097</v>
       </c>
       <c r="G61" t="n">
-        <v>5006.623754126782</v>
+        <v>5126.859018129995</v>
       </c>
       <c r="H61" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="I61" t="n">
-        <v>2000940</v>
+        <v>2010454</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>208578487</v>
+        <v>208396999</v>
       </c>
       <c r="E62" t="n">
-        <v>1181099551</v>
+        <v>1180071858</v>
       </c>
       <c r="F62" t="n">
-        <v>743972.8449441488</v>
+        <v>638236.159850249</v>
       </c>
       <c r="G62" t="n">
-        <v>865486.5133024624</v>
+        <v>850775.6190282955</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>69876937</v>
+        <v>69281541</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>506897</v>
+        <v>494732</v>
       </c>
       <c r="E63" t="n">
-        <v>1706145</v>
+        <v>1665197</v>
       </c>
       <c r="F63" t="n">
-        <v>489.3473151358085</v>
+        <v>4606.334394870724</v>
       </c>
       <c r="G63" t="n">
-        <v>386.7211986191039</v>
+        <v>373.7011732198422</v>
       </c>
       <c r="H63" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="I63" t="n">
-        <v>632477</v>
+        <v>629937</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>346328</v>
+        <v>345931</v>
       </c>
       <c r="E64" t="n">
-        <v>346328</v>
+        <v>345931</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4678.51</v>
+        <v>4662.02</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>144754037</v>
+        <v>145168363</v>
       </c>
       <c r="E65" t="n">
-        <v>1072252128</v>
+        <v>1075321208</v>
       </c>
       <c r="F65" t="n">
-        <v>38474.82450954396</v>
+        <v>38891.23277803455</v>
       </c>
       <c r="G65" t="n">
-        <v>34256.35277417888</v>
+        <v>36410.40904738251</v>
       </c>
       <c r="H65" t="n">
         <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>8375522</v>
+        <v>8398217</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8267813</v>
+        <v>8264840</v>
       </c>
       <c r="E66" t="n">
-        <v>11076113</v>
+        <v>11072129</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>64364</v>
+        <v>64365</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26849344</v>
+        <v>26734818</v>
       </c>
       <c r="E67" t="n">
-        <v>26849344</v>
+        <v>26734818</v>
       </c>
       <c r="F67" t="n">
-        <v>7191.899592781043</v>
+        <v>6231.437989358286</v>
       </c>
       <c r="G67" t="n">
-        <v>9144.717178346964</v>
+        <v>10644.23619411091</v>
       </c>
       <c r="H67" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="I67" t="n">
-        <v>324149</v>
+        <v>327017</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1604786</v>
+        <v>1604612</v>
       </c>
       <c r="E68" t="n">
-        <v>12462953</v>
+        <v>12461603</v>
       </c>
       <c r="F68" t="n">
-        <v>14135.25394947062</v>
+        <v>20692.57765222983</v>
       </c>
       <c r="G68" t="n">
-        <v>24473.39720277968</v>
+        <v>12073.7433507438</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="I68" t="n">
-        <v>539594</v>
+        <v>535583</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>350341534</v>
+        <v>348018635</v>
       </c>
       <c r="E69" t="n">
-        <v>3151889677</v>
+        <v>3130991439</v>
       </c>
       <c r="F69" t="n">
-        <v>1123722.130560323</v>
+        <v>1432012.240008153</v>
       </c>
       <c r="G69" t="n">
-        <v>1863314.19739276</v>
+        <v>1345417.758086736</v>
       </c>
       <c r="H69" t="n">
         <v>0.06</v>
       </c>
       <c r="I69" t="n">
-        <v>47940710</v>
+        <v>46987606</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>239838</v>
+        <v>245037</v>
       </c>
       <c r="E70" t="n">
-        <v>2116749</v>
+        <v>2162639</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>85560</v>
+        <v>89242</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1573241</v>
+        <v>1575188</v>
       </c>
       <c r="E71" t="n">
-        <v>13110343</v>
+        <v>13126566</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>26549</v>
+        <v>25807</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9385724</v>
+        <v>9370944</v>
       </c>
       <c r="E72" t="n">
-        <v>43503371</v>
+        <v>43434866</v>
       </c>
       <c r="F72" t="n">
-        <v>5120.730028702254</v>
+        <v>5140.117300965896</v>
       </c>
       <c r="G72" t="n">
-        <v>9742.94092637778</v>
+        <v>11356.87888928058</v>
       </c>
       <c r="H72" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="I72" t="n">
-        <v>119808</v>
+        <v>113492</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>52344008</v>
+        <v>50355892</v>
       </c>
       <c r="E73" t="n">
-        <v>303050177</v>
+        <v>291539808</v>
       </c>
       <c r="F73" t="n">
-        <v>110878.0276994127</v>
+        <v>117368.8659522836</v>
       </c>
       <c r="G73" t="n">
-        <v>212039.0084448364</v>
+        <v>218674.2655045179</v>
       </c>
       <c r="H73" t="n">
         <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>38541238</v>
+        <v>39079540</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39542255</v>
+        <v>39765449</v>
       </c>
       <c r="E74" t="n">
-        <v>54613485</v>
+        <v>54921748</v>
       </c>
       <c r="F74" t="n">
-        <v>4430.360661597803</v>
+        <v>604.4366222026135</v>
       </c>
       <c r="G74" t="n">
-        <v>10157.02865773762</v>
+        <v>579.3590208431923</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>343555</v>
+        <v>352840</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99618</v>
+        <v>99327</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>400.2</v>
+        <v>366.68</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14147623</v>
+        <v>14241986</v>
       </c>
       <c r="E76" t="n">
-        <v>14195768</v>
+        <v>14290453</v>
       </c>
       <c r="F76" t="n">
-        <v>2039.292694045454</v>
+        <v>2639.912061610251</v>
       </c>
       <c r="G76" t="n">
-        <v>4288.683839912002</v>
+        <v>5320.473006068828</v>
       </c>
       <c r="H76" t="n">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="I76" t="n">
-        <v>6304110</v>
+        <v>5741999</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43409746</v>
+        <v>43467123</v>
       </c>
       <c r="E77" t="n">
-        <v>73699651</v>
+        <v>73797063</v>
       </c>
       <c r="F77" t="n">
-        <v>9897.655850521449</v>
+        <v>8479.743656317192</v>
       </c>
       <c r="G77" t="n">
-        <v>3063.401201571866</v>
+        <v>3674.759869116887</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1062086</v>
+        <v>1069117</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23197521</v>
+        <v>22652726</v>
       </c>
       <c r="E78" t="n">
-        <v>69535502</v>
+        <v>67903701</v>
       </c>
       <c r="F78" t="n">
-        <v>167803.0100164248</v>
+        <v>155691.0543687196</v>
       </c>
       <c r="G78" t="n">
-        <v>124661.7036093494</v>
+        <v>113508.3733206093</v>
       </c>
       <c r="H78" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>3502669</v>
+        <v>3571135</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102856068</v>
+        <v>102229068</v>
       </c>
       <c r="E79" t="n">
-        <v>109345296</v>
+        <v>108678739</v>
       </c>
       <c r="F79" t="n">
-        <v>3362.517610817198</v>
+        <v>2436.88711892016</v>
       </c>
       <c r="G79" t="n">
-        <v>3159.88439496326</v>
+        <v>4408.518594600749</v>
       </c>
       <c r="H79" t="n">
-        <v>0.58</v>
+        <v>1.17</v>
       </c>
       <c r="I79" t="n">
-        <v>450990</v>
+        <v>615250</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10212448</v>
+        <v>10191909</v>
       </c>
       <c r="E80" t="n">
-        <v>44961022</v>
+        <v>44855058</v>
       </c>
       <c r="F80" t="n">
-        <v>6484.272770164814</v>
+        <v>6265.867569341095</v>
       </c>
       <c r="G80" t="n">
-        <v>5504.482877161148</v>
+        <v>5685.631875001402</v>
       </c>
       <c r="H80" t="n">
         <v>0.45</v>
       </c>
       <c r="I80" t="n">
-        <v>112693</v>
+        <v>113001</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15971244</v>
+        <v>15962762</v>
       </c>
       <c r="E81" t="n">
-        <v>97893005</v>
+        <v>97841015</v>
       </c>
       <c r="F81" t="n">
-        <v>4195.584230883477</v>
+        <v>4209.574141143977</v>
       </c>
       <c r="G81" t="n">
-        <v>6224.317654405795</v>
+        <v>6119.100220543491</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>10897939</v>
+        <v>10898687</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1523713</v>
+        <v>1520056</v>
       </c>
       <c r="E82" t="n">
-        <v>1566573</v>
+        <v>1562813</v>
       </c>
       <c r="F82" t="n">
-        <v>6810.643254793747</v>
+        <v>5167.175374066295</v>
       </c>
       <c r="G82" t="n">
-        <v>5700.76169070203</v>
+        <v>5700.552456402918</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>147438</v>
+        <v>149224</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50376469</v>
+        <v>50426424</v>
       </c>
       <c r="E83" t="n">
-        <v>217016318</v>
+        <v>217231523</v>
       </c>
       <c r="F83" t="n">
-        <v>4423.958219901205</v>
+        <v>4447.681369732297</v>
       </c>
       <c r="G83" t="n">
-        <v>3596.079809701632</v>
+        <v>3614.151592967438</v>
       </c>
       <c r="H83" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I83" t="n">
-        <v>10084796</v>
+        <v>10077760</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1992922</v>
+        <v>2337481</v>
       </c>
       <c r="E84" t="n">
-        <v>7238040</v>
+        <v>8487782</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>155701</v>
+        <v>187035</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9104484</v>
+        <v>9094629</v>
       </c>
       <c r="E85" t="n">
-        <v>20210681</v>
+        <v>20188803</v>
       </c>
       <c r="F85" t="n">
-        <v>6559.350964576472</v>
+        <v>6263.473198198604</v>
       </c>
       <c r="G85" t="n">
-        <v>6004.251683987125</v>
+        <v>5204.693410868583</v>
       </c>
       <c r="H85" t="n">
-        <v>0.79</v>
+        <v>1.38</v>
       </c>
       <c r="I85" t="n">
-        <v>334096</v>
+        <v>322983</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2443392</v>
+        <v>2442529</v>
       </c>
       <c r="E86" t="n">
-        <v>18385900</v>
+        <v>18379401</v>
       </c>
       <c r="F86" t="n">
-        <v>4854.784721070241</v>
+        <v>5029.664669232056</v>
       </c>
       <c r="G86" t="n">
-        <v>11980.28338896573</v>
+        <v>12027.49762272642</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163855</v>
+        <v>163976</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21314007</v>
+        <v>20600996</v>
       </c>
       <c r="E87" t="n">
-        <v>85256028</v>
+        <v>82403985</v>
       </c>
       <c r="F87" t="n">
-        <v>22937.73273521895</v>
+        <v>13182.42522294611</v>
       </c>
       <c r="G87" t="n">
-        <v>1130.739015026571</v>
+        <v>1010.637087424829</v>
       </c>
       <c r="H87" t="n">
-        <v>1.06</v>
+        <v>1.58</v>
       </c>
       <c r="I87" t="n">
-        <v>2458759</v>
+        <v>2476599</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4902843</v>
+        <v>4808434</v>
       </c>
       <c r="E88" t="n">
-        <v>4902843</v>
+        <v>4808434</v>
       </c>
       <c r="F88" t="n">
-        <v>740.5479075417969</v>
+        <v>2280.056755948835</v>
       </c>
       <c r="G88" t="n">
-        <v>861.067182155666</v>
+        <v>1156.309975716134</v>
       </c>
       <c r="H88" t="n">
-        <v>1.24</v>
+        <v>0.28</v>
       </c>
       <c r="I88" t="n">
-        <v>3070359</v>
+        <v>3016732</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12749909</v>
+        <v>12738724</v>
       </c>
       <c r="E89" t="n">
-        <v>40330363</v>
+        <v>40294981</v>
       </c>
       <c r="F89" t="n">
-        <v>13164.33287185244</v>
+        <v>15133.63427684247</v>
       </c>
       <c r="G89" t="n">
-        <v>14215.86702667404</v>
+        <v>14069.10669674992</v>
       </c>
       <c r="H89" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>972704</v>
+        <v>961030</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24568</v>
+        <v>24856</v>
       </c>
       <c r="E90" t="n">
-        <v>193220</v>
+        <v>195485</v>
       </c>
       <c r="F90" t="n">
-        <v>223.1712880533571</v>
+        <v>2291.020026175467</v>
       </c>
       <c r="G90" t="n">
-        <v>280.8026682603129</v>
+        <v>339.7388968407199</v>
       </c>
       <c r="H90" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I90" t="n">
-        <v>54832</v>
+        <v>52124</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8469977</v>
+        <v>8456801</v>
       </c>
       <c r="E91" t="n">
-        <v>8469977</v>
+        <v>8456801</v>
       </c>
       <c r="F91" t="n">
-        <v>3909.248694190755</v>
+        <v>3288.635949911671</v>
       </c>
       <c r="G91" t="n">
-        <v>4114.81618665879</v>
+        <v>4018.370092734547</v>
       </c>
       <c r="H91" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="I91" t="n">
-        <v>3742002</v>
+        <v>3747739</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9177344</v>
+        <v>9414148</v>
       </c>
       <c r="E92" t="n">
-        <v>9177344</v>
+        <v>9414148</v>
       </c>
       <c r="F92" t="n">
-        <v>7481.649417226109</v>
+        <v>9783.498234501743</v>
       </c>
       <c r="G92" t="n">
-        <v>458.9939920461513</v>
+        <v>7483.332777456688</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I92" t="n">
-        <v>3013287</v>
+        <v>2915185</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37633585</v>
+        <v>37755931</v>
       </c>
       <c r="E93" t="n">
-        <v>94893835</v>
+        <v>95202331</v>
       </c>
       <c r="F93" t="n">
-        <v>5385.694033717596</v>
+        <v>5404.58030658836</v>
       </c>
       <c r="G93" t="n">
-        <v>5773.618367766288</v>
+        <v>5759.645337360306</v>
       </c>
       <c r="H93" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="I93" t="n">
-        <v>3530514</v>
+        <v>3493632</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>319964100</v>
+        <v>318599268</v>
       </c>
       <c r="E94" t="n">
-        <v>324966514</v>
+        <v>323579267</v>
       </c>
       <c r="F94" t="n">
-        <v>4315.827690554837</v>
+        <v>4719.086730036148</v>
       </c>
       <c r="G94" t="n">
-        <v>6032.046045799967</v>
+        <v>5874.893757159691</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I94" t="n">
-        <v>17996885</v>
+        <v>18249381</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1003.226160563758</v>
+        <v>6057.712527896243</v>
       </c>
       <c r="G95" t="n">
-        <v>6495.147020803572</v>
+        <v>6366.935849457329</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>216478</v>
+        <v>217791</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>88276580</v>
+        <v>89826365</v>
       </c>
       <c r="E96" t="n">
-        <v>88276580</v>
+        <v>89826365</v>
       </c>
       <c r="F96" t="n">
-        <v>7872.621110282966</v>
+        <v>9233.054254012777</v>
       </c>
       <c r="G96" t="n">
-        <v>7702.6774409124</v>
+        <v>6013.466587068479</v>
       </c>
       <c r="H96" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I96" t="n">
-        <v>5444934</v>
+        <v>5744984</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>304711710</v>
+        <v>305673601</v>
       </c>
       <c r="E97" t="n">
-        <v>304711710</v>
+        <v>305673601</v>
       </c>
       <c r="F97" t="n">
-        <v>374268.4370088887</v>
+        <v>375516.4308355952</v>
       </c>
       <c r="G97" t="n">
-        <v>504094.0487406902</v>
+        <v>425798.7238726311</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>80914458</v>
+        <v>72014189</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4320161</v>
+        <v>4339620</v>
       </c>
       <c r="E98" t="n">
-        <v>29519357</v>
+        <v>29652321</v>
       </c>
       <c r="F98" t="n">
-        <v>4866.993456641476</v>
+        <v>245.9336830323506</v>
       </c>
       <c r="G98" t="n">
-        <v>6404.835804281493</v>
+        <v>248.6089062944025</v>
       </c>
       <c r="H98" t="n">
         <v>0.67</v>
       </c>
       <c r="I98" t="n">
-        <v>2621877</v>
+        <v>2620743</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93218397</v>
+        <v>92973355</v>
       </c>
       <c r="E99" t="n">
-        <v>537164610</v>
+        <v>535752572</v>
       </c>
       <c r="F99" t="n">
-        <v>141186.5991025344</v>
+        <v>146350.2984831467</v>
       </c>
       <c r="G99" t="n">
-        <v>155829.5560740331</v>
+        <v>151797.4753056133</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>18299164</v>
+        <v>18288524</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>111123394</v>
+        <v>110925481</v>
       </c>
       <c r="E100" t="n">
-        <v>273406965</v>
+        <v>272920022</v>
       </c>
       <c r="F100" t="n">
-        <v>27532.77130434085</v>
+        <v>25562.56204188536</v>
       </c>
       <c r="G100" t="n">
-        <v>45685.5209894293</v>
+        <v>45519.72249590066</v>
       </c>
       <c r="H100" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2138969</v>
+        <v>2291843</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>251731902</v>
+        <v>253680679</v>
       </c>
       <c r="E101" t="n">
-        <v>251734403</v>
+        <v>253683200</v>
       </c>
       <c r="F101" t="n">
-        <v>45506.66066584139</v>
+        <v>25706.66099490939</v>
       </c>
       <c r="G101" t="n">
-        <v>20017.46007130905</v>
+        <v>19693.98045491875</v>
       </c>
       <c r="H101" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I101" t="n">
-        <v>2212719</v>
+        <v>2471415</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>31609476</v>
+        <v>31780854</v>
       </c>
       <c r="E102" t="n">
-        <v>141528593</v>
+        <v>142295922</v>
       </c>
       <c r="F102" t="n">
-        <v>75495.68094587114</v>
+        <v>68134.8480307282</v>
       </c>
       <c r="G102" t="n">
-        <v>141826.3376484207</v>
+        <v>160325.6765090995</v>
       </c>
       <c r="H102" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I102" t="n">
-        <v>8659912</v>
+        <v>8639394</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3265362</v>
+        <v>3251327</v>
       </c>
       <c r="E103" t="n">
-        <v>3265362</v>
+        <v>3251327</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>292247</v>
+        <v>417200</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6035006</v>
+        <v>5954496</v>
       </c>
       <c r="E104" t="n">
-        <v>15838883</v>
+        <v>15627585</v>
       </c>
       <c r="F104" t="n">
-        <v>570.5419231466367</v>
+        <v>8833.785735990525</v>
       </c>
       <c r="G104" t="n">
-        <v>63.67249014948023</v>
+        <v>1955.119405048735</v>
       </c>
       <c r="H104" t="n">
-        <v>3.7</v>
+        <v>1.34</v>
       </c>
       <c r="I104" t="n">
-        <v>26427</v>
+        <v>31837</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16573306</v>
+        <v>16554135</v>
       </c>
       <c r="E105" t="n">
-        <v>76500099</v>
+        <v>76411607</v>
       </c>
       <c r="F105" t="n">
-        <v>42908.9396363604</v>
+        <v>52749.96739299107</v>
       </c>
       <c r="G105" t="n">
-        <v>77266.32872079173</v>
+        <v>90584.69448695335</v>
       </c>
       <c r="H105" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>809789</v>
+        <v>857710</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52106351</v>
+        <v>52223207</v>
       </c>
       <c r="E106" t="n">
-        <v>337895817</v>
+        <v>338653599</v>
       </c>
       <c r="F106" t="n">
-        <v>106927.8498967475</v>
+        <v>143119.4466239832</v>
       </c>
       <c r="G106" t="n">
-        <v>174981.7086841364</v>
+        <v>193849.8707175098</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17715059</v>
+        <v>17640934</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2548857</v>
+        <v>2481134</v>
       </c>
       <c r="E107" t="n">
-        <v>4617735</v>
+        <v>4495042</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>129146</v>
+        <v>131594</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125053989</v>
+        <v>125121271</v>
       </c>
       <c r="E108" t="n">
-        <v>2070996484</v>
+        <v>2072110731</v>
       </c>
       <c r="F108" t="n">
-        <v>237868.907970587</v>
+        <v>242568.2163288344</v>
       </c>
       <c r="G108" t="n">
-        <v>94018.23070741203</v>
+        <v>128553.0359368448</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4648467</v>
+        <v>4803644</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25153128</v>
+        <v>25140767</v>
       </c>
       <c r="E109" t="n">
-        <v>150496222</v>
+        <v>150422260</v>
       </c>
       <c r="F109" t="n">
-        <v>43341.3512414462</v>
+        <v>42742.44567463508</v>
       </c>
       <c r="G109" t="n">
-        <v>3246.863081905261</v>
+        <v>41291.27298146766</v>
       </c>
       <c r="H109" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I109" t="n">
-        <v>13131787</v>
+        <v>13156971</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1096812</v>
+        <v>1089112</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>72832</v>
+        <v>73908</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2234043</v>
+        <v>2223035</v>
       </c>
       <c r="F111" t="n">
-        <v>3941.740144096082</v>
+        <v>3796.030955394161</v>
       </c>
       <c r="G111" t="n">
-        <v>368.9832493310161</v>
+        <v>379.4793518220392</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>177708</v>
+        <v>176500</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147341216</v>
+        <v>147557555</v>
       </c>
       <c r="F112" t="n">
-        <v>8562.73773396646</v>
+        <v>8562.418335810793</v>
       </c>
       <c r="G112" t="n">
-        <v>3235.873705850473</v>
+        <v>3590.540918250888</v>
       </c>
       <c r="H112" t="n">
         <v>0.54</v>
       </c>
       <c r="I112" t="n">
-        <v>30197</v>
+        <v>33625</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6757890</v>
+        <v>6681585</v>
       </c>
       <c r="E113" t="n">
-        <v>34767291</v>
+        <v>34374724</v>
       </c>
       <c r="F113" t="n">
-        <v>2239.114340022597</v>
+        <v>728.7428851170496</v>
       </c>
       <c r="G113" t="n">
-        <v>1383.899028339047</v>
+        <v>683.3822552487238</v>
       </c>
       <c r="H113" t="n">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>916342</v>
+        <v>907602</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29298849</v>
+        <v>29457252</v>
       </c>
       <c r="E114" t="n">
-        <v>40173845</v>
+        <v>40391043</v>
       </c>
       <c r="F114" t="n">
-        <v>6340.215002353592</v>
+        <v>4749.666196394874</v>
       </c>
       <c r="G114" t="n">
-        <v>5851.137125168629</v>
+        <v>4538.360339568799</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>232236</v>
+        <v>234179</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7988193</v>
+        <v>7994699</v>
       </c>
       <c r="F115" t="n">
-        <v>140.6722830029984</v>
+        <v>140.2162213425906</v>
       </c>
       <c r="G115" t="n">
-        <v>6876.874546685222</v>
+        <v>6994.637172115044</v>
       </c>
       <c r="H115" t="n">
         <v>0.3</v>
       </c>
       <c r="I115" t="n">
-        <v>655977</v>
+        <v>659998</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3399899</v>
+        <v>3388489</v>
       </c>
       <c r="E116" t="n">
-        <v>4554379</v>
+        <v>4539095</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148809</v>
+        <v>151098</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35646506</v>
+        <v>35605539</v>
       </c>
       <c r="E117" t="n">
-        <v>177892496</v>
+        <v>177688054</v>
       </c>
       <c r="F117" t="n">
-        <v>118207.5845217291</v>
+        <v>119890.6404480929</v>
       </c>
       <c r="G117" t="n">
-        <v>78894.99213300811</v>
+        <v>77849.2262348612</v>
       </c>
       <c r="H117" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>11035138</v>
+        <v>10724902</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3446250</v>
+        <v>3445014</v>
       </c>
       <c r="E118" t="n">
-        <v>4950602</v>
+        <v>4948827</v>
       </c>
       <c r="F118" t="n">
-        <v>349.0811242791643</v>
+        <v>349.0684614821305</v>
       </c>
       <c r="G118" t="n">
-        <v>632.682540653058</v>
+        <v>632.6595903127449</v>
       </c>
       <c r="H118" t="n">
         <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>144436</v>
+        <v>145342</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>327315865</v>
+        <v>326918819</v>
       </c>
       <c r="E119" t="n">
-        <v>605608994</v>
+        <v>604874368</v>
       </c>
       <c r="F119" t="n">
-        <v>116148.2920080902</v>
+        <v>134504.4613316257</v>
       </c>
       <c r="G119" t="n">
-        <v>145454.9273416857</v>
+        <v>137807.7815988498</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>14437338</v>
+        <v>14611850</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>74131064</v>
+        <v>74302789</v>
       </c>
       <c r="E120" t="n">
-        <v>707135351</v>
+        <v>708788122</v>
       </c>
       <c r="F120" t="n">
-        <v>6058.615160338562</v>
+        <v>4006.315305003015</v>
       </c>
       <c r="G120" t="n">
-        <v>42712.33398189861</v>
+        <v>42492.01839685199</v>
       </c>
       <c r="H120" t="n">
         <v>0.04</v>
       </c>
       <c r="I120" t="n">
-        <v>22709631</v>
+        <v>22430429</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38378258</v>
+        <v>38746962</v>
       </c>
       <c r="E121" t="n">
-        <v>50175956</v>
+        <v>50657903</v>
       </c>
       <c r="F121" t="n">
-        <v>5758.061907263683</v>
+        <v>273.1790076398264</v>
       </c>
       <c r="G121" t="n">
-        <v>5384.500762744595</v>
+        <v>9186.735795479686</v>
       </c>
       <c r="H121" t="n">
-        <v>0.39</v>
+        <v>2.32</v>
       </c>
       <c r="I121" t="n">
-        <v>311009</v>
+        <v>489852</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11629797</v>
+        <v>11108704</v>
       </c>
       <c r="E122" t="n">
-        <v>34500156</v>
+        <v>32954318</v>
       </c>
       <c r="F122" t="n">
-        <v>3472.849332824092</v>
+        <v>4553.971568155167</v>
       </c>
       <c r="G122" t="n">
-        <v>6172.368112025491</v>
+        <v>5678.434976737444</v>
       </c>
       <c r="H122" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I122" t="n">
-        <v>7393115</v>
+        <v>6867108</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2331127</v>
+        <v>2335730</v>
       </c>
       <c r="E123" t="n">
-        <v>7789771</v>
+        <v>7805153</v>
       </c>
       <c r="F123" t="n">
-        <v>666.1502805779818</v>
+        <v>1046.401294192678</v>
       </c>
       <c r="G123" t="n">
-        <v>1087.354603338525</v>
+        <v>722.5433740570918</v>
       </c>
       <c r="H123" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I123" t="n">
-        <v>888128</v>
+        <v>880558</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7368619</v>
+        <v>7377536</v>
       </c>
       <c r="E124" t="n">
-        <v>7368630</v>
+        <v>7377547</v>
       </c>
       <c r="F124" t="n">
-        <v>558.8024805145581</v>
+        <v>226.1294368241026</v>
       </c>
       <c r="G124" t="n">
-        <v>984.1316831104022</v>
+        <v>785.6222448698602</v>
       </c>
       <c r="H124" t="n">
-        <v>0.49</v>
+        <v>1.2</v>
       </c>
       <c r="I124" t="n">
-        <v>316786</v>
+        <v>316959</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6555740</v>
+        <v>6648365</v>
       </c>
       <c r="E125" t="n">
-        <v>6555740</v>
+        <v>6648365</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>507602</v>
+        <v>518693</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6276334</v>
+        <v>6318595</v>
       </c>
       <c r="E126" t="n">
-        <v>22925018</v>
+        <v>23079384</v>
       </c>
       <c r="F126" t="n">
-        <v>7402.591041033832</v>
+        <v>7363.314316326084</v>
       </c>
       <c r="G126" t="n">
-        <v>7196.649966924861</v>
+        <v>8010.297231234174</v>
       </c>
       <c r="H126" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="I126" t="n">
-        <v>520433</v>
+        <v>530037</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>46111129</v>
+        <v>45832798</v>
       </c>
       <c r="E127" t="n">
-        <v>46111129</v>
+        <v>45832798</v>
       </c>
       <c r="F127" t="n">
-        <v>53673.37030913975</v>
+        <v>61951.80775714129</v>
       </c>
       <c r="G127" t="n">
-        <v>78456.15353052841</v>
+        <v>85548.61375837619</v>
       </c>
       <c r="H127" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>8789538</v>
+        <v>7809414</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>146277332</v>
+        <v>147475710</v>
       </c>
       <c r="F128" t="n">
-        <v>250.7637598915596</v>
+        <v>210.1773724156498</v>
       </c>
       <c r="G128" t="n">
-        <v>2141.658757545508</v>
+        <v>34.27521809971181</v>
       </c>
       <c r="H128" t="n">
-        <v>2.98</v>
+        <v>2.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1839201</v>
+        <v>650918</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3152678</v>
+        <v>2979102</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>75122</v>
+        <v>71335</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20441335</v>
+        <v>20437682</v>
       </c>
       <c r="F130" t="n">
-        <v>561.5398382978441</v>
+        <v>329.1050813640975</v>
       </c>
       <c r="G130" t="n">
-        <v>740.6803213098602</v>
+        <v>522.8234045185854</v>
       </c>
       <c r="H130" t="n">
-        <v>1.84</v>
+        <v>0.97</v>
       </c>
       <c r="I130" t="n">
-        <v>2992860</v>
+        <v>2998493</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1256562</v>
+        <v>1243664</v>
       </c>
       <c r="E131" t="n">
-        <v>3796786</v>
+        <v>3757825</v>
       </c>
       <c r="F131" t="n">
-        <v>717.8545098511735</v>
+        <v>789.7522141803248</v>
       </c>
       <c r="G131" t="n">
-        <v>774.4423627429729</v>
+        <v>862.7547510261446</v>
       </c>
       <c r="H131" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>15074.75</v>
+        <v>16645.31</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>631138539</v>
+        <v>627282243</v>
       </c>
       <c r="E132" t="n">
-        <v>2444306442</v>
+        <v>2429371580</v>
       </c>
       <c r="F132" t="n">
-        <v>752744.762675752</v>
+        <v>828458.6343606701</v>
       </c>
       <c r="G132" t="n">
-        <v>1030903.150289535</v>
+        <v>1067811.759811718</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>38682878</v>
+        <v>39031530</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3713923</v>
+        <v>3716086</v>
       </c>
       <c r="E133" t="n">
-        <v>6330887</v>
+        <v>6334572</v>
       </c>
       <c r="F133" t="n">
-        <v>5190.915753426918</v>
+        <v>936.1929376847055</v>
       </c>
       <c r="G133" t="n">
-        <v>5392.407505846965</v>
+        <v>184.6307828473365</v>
       </c>
       <c r="H133" t="n">
-        <v>0.47</v>
+        <v>1.1</v>
       </c>
       <c r="I133" t="n">
-        <v>1162838</v>
+        <v>1175408</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116848922</v>
+        <v>116218573</v>
       </c>
       <c r="E134" t="n">
-        <v>1085676971</v>
+        <v>1079820224</v>
       </c>
       <c r="F134" t="n">
-        <v>91264.32777890627</v>
+        <v>95437.77303775994</v>
       </c>
       <c r="G134" t="n">
-        <v>123040.520177155</v>
+        <v>133238.6629554222</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I134" t="n">
-        <v>9909479</v>
+        <v>9799634</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>978732023</v>
+        <v>974890534</v>
       </c>
       <c r="E135" t="n">
-        <v>1075139810</v>
+        <v>1070919923</v>
       </c>
       <c r="F135" t="n">
-        <v>12874.65280925485</v>
+        <v>19590.73646806029</v>
       </c>
       <c r="G135" t="n">
-        <v>16118.28358563763</v>
+        <v>14106.08460526006</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="I135" t="n">
-        <v>10257998</v>
+        <v>10176130</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1151309</v>
+        <v>1139252</v>
       </c>
       <c r="E136" t="n">
-        <v>4458119</v>
+        <v>4411434</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>361579</v>
+        <v>391407</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>128729889</v>
+        <v>127811914</v>
       </c>
       <c r="E137" t="n">
-        <v>493828576</v>
+        <v>490307076</v>
       </c>
       <c r="F137" t="n">
-        <v>168543.0986251447</v>
+        <v>171058.3357640636</v>
       </c>
       <c r="G137" t="n">
-        <v>239980.1694464681</v>
+        <v>233043.1007795241</v>
       </c>
       <c r="H137" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I137" t="n">
-        <v>35633591</v>
+        <v>36981206</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3304552</v>
+        <v>3301538</v>
       </c>
       <c r="E138" t="n">
-        <v>31311117</v>
+        <v>31282562</v>
       </c>
       <c r="F138" t="n">
-        <v>4631.514493120187</v>
+        <v>4546.663035283566</v>
       </c>
       <c r="G138" t="n">
-        <v>4935.642805690793</v>
+        <v>4903.096253624082</v>
       </c>
       <c r="H138" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I138" t="n">
-        <v>227130</v>
+        <v>227057</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21684745</v>
+        <v>21832676</v>
       </c>
       <c r="E139" t="n">
-        <v>21684745</v>
+        <v>21832676</v>
       </c>
       <c r="F139" t="n">
-        <v>8040.948451818967</v>
+        <v>9395.597995435048</v>
       </c>
       <c r="G139" t="n">
-        <v>5525.42626248228</v>
+        <v>4735.198403718146</v>
       </c>
       <c r="H139" t="n">
-        <v>1.83</v>
+        <v>0.64</v>
       </c>
       <c r="I139" t="n">
-        <v>680311</v>
+        <v>593515</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494714546</v>
+        <v>495111890</v>
       </c>
       <c r="E140" t="n">
-        <v>494714546</v>
+        <v>495111890</v>
       </c>
       <c r="F140" t="n">
-        <v>944840.8524067722</v>
+        <v>935307.388557682</v>
       </c>
       <c r="G140" t="n">
-        <v>924862.0233360608</v>
+        <v>932083.7605158919</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33514857</v>
+        <v>33810859</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>33453771</v>
+        <v>33735148</v>
       </c>
       <c r="F141" t="n">
-        <v>51351.97865825862</v>
+        <v>46593.24667344412</v>
       </c>
       <c r="G141" t="n">
-        <v>61864.46358973747</v>
+        <v>79239.44220584222</v>
       </c>
       <c r="H141" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="I141" t="n">
-        <v>5475280</v>
+        <v>5390208</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>783594</v>
+        <v>755122</v>
       </c>
       <c r="E142" t="n">
-        <v>12498038</v>
+        <v>12043921</v>
       </c>
       <c r="F142" t="n">
-        <v>132.504715282383</v>
+        <v>1157.520297754822</v>
       </c>
       <c r="G142" t="n">
-        <v>124.5817420477604</v>
+        <v>184.9770029535747</v>
       </c>
       <c r="H142" t="n">
-        <v>1.6</v>
+        <v>0.17</v>
       </c>
       <c r="I142" t="n">
-        <v>276636</v>
+        <v>299778</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2737912524</v>
+        <v>2723703759</v>
       </c>
       <c r="E143" t="n">
-        <v>2906950687</v>
+        <v>2891864676</v>
       </c>
       <c r="F143" t="n">
-        <v>2493.485813950272</v>
+        <v>7215.469227177187</v>
       </c>
       <c r="G143" t="n">
-        <v>25798.63523142568</v>
+        <v>21886.95229145611</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I143" t="n">
-        <v>41804125</v>
+        <v>42244219</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1742856</v>
+        <v>1768609</v>
       </c>
       <c r="E144" t="n">
-        <v>1749008</v>
+        <v>1774851</v>
       </c>
       <c r="F144" t="n">
-        <v>3758.93244953142</v>
+        <v>3657.989988089433</v>
       </c>
       <c r="G144" t="n">
-        <v>1946.851875054316</v>
+        <v>1653.401277811969</v>
       </c>
       <c r="H144" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="I144" t="n">
-        <v>453027</v>
+        <v>450146</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>63832855</v>
+        <v>63424467</v>
       </c>
       <c r="E145" t="n">
-        <v>156577667</v>
+        <v>155575917</v>
       </c>
       <c r="F145" t="n">
-        <v>3480.325601246662</v>
+        <v>3340.674461741352</v>
       </c>
       <c r="G145" t="n">
-        <v>5173.805337439278</v>
+        <v>5042.935993432434</v>
       </c>
       <c r="H145" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I145" t="n">
-        <v>22807819</v>
+        <v>22714086</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>844230938</v>
+        <v>833608462</v>
       </c>
       <c r="E146" t="n">
-        <v>1301878645</v>
+        <v>1285497849</v>
       </c>
       <c r="F146" t="n">
-        <v>135752.2838692789</v>
+        <v>285154.6184422839</v>
       </c>
       <c r="G146" t="n">
-        <v>144168.1100470179</v>
+        <v>316192.1646386229</v>
       </c>
       <c r="H146" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>279310952</v>
+        <v>279434628</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>24261511</v>
+        <v>23782283</v>
       </c>
       <c r="E147" t="n">
-        <v>24261511</v>
+        <v>23782283</v>
       </c>
       <c r="F147" t="n">
-        <v>5396.695166018605</v>
+        <v>4882.31216422483</v>
       </c>
       <c r="G147" t="n">
-        <v>4539.079306133077</v>
+        <v>8121.440159094564</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I147" t="n">
-        <v>5781477</v>
+        <v>5898614</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3833713</v>
+        <v>3805872</v>
       </c>
       <c r="E148" t="n">
-        <v>8365112</v>
+        <v>8304362</v>
       </c>
       <c r="F148" t="n">
-        <v>7207.86465909729</v>
+        <v>6905.305489994152</v>
       </c>
       <c r="G148" t="n">
-        <v>6764.506271071153</v>
+        <v>6938.901153557113</v>
       </c>
       <c r="H148" t="n">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>1884283</v>
+        <v>1880719</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9257772</v>
+        <v>9253395</v>
       </c>
       <c r="E149" t="n">
-        <v>9257772</v>
+        <v>9253395</v>
       </c>
       <c r="F149" t="n">
-        <v>91087.19675368255</v>
+        <v>256732.0238040341</v>
       </c>
       <c r="G149" t="n">
-        <v>83008.64767353692</v>
+        <v>602371.8651687058</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>2979556</v>
+        <v>2865077</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>512484943</v>
+        <v>510343475</v>
       </c>
       <c r="E150" t="n">
-        <v>1783917435</v>
+        <v>1776463164</v>
       </c>
       <c r="F150" t="n">
-        <v>803796.1509184849</v>
+        <v>809240.1617003126</v>
       </c>
       <c r="G150" t="n">
-        <v>892050.9261050714</v>
+        <v>922112.9476338445</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I150" t="n">
-        <v>34955716</v>
+        <v>35161511</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48993687</v>
+        <v>49046178</v>
       </c>
       <c r="E151" t="n">
-        <v>120604619</v>
+        <v>120733839</v>
       </c>
       <c r="F151" t="n">
-        <v>8592.69040839833</v>
+        <v>9017.548615349913</v>
       </c>
       <c r="G151" t="n">
-        <v>8159.601065261178</v>
+        <v>8023.778762487925</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>26924</v>
+        <v>27959</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7497987</v>
+        <v>7492931</v>
       </c>
       <c r="E152" t="n">
-        <v>19478965</v>
+        <v>19465830</v>
       </c>
       <c r="F152" t="n">
-        <v>6314.920074447953</v>
+        <v>6317.517986286803</v>
       </c>
       <c r="G152" t="n">
-        <v>6461.306455709177</v>
+        <v>6514.760271298432</v>
       </c>
       <c r="H152" t="n">
         <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>719796</v>
+        <v>721653</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19154274831</v>
+        <v>19151671919</v>
       </c>
       <c r="F153" t="n">
-        <v>52448.57535837142</v>
+        <v>52409.1007811908</v>
       </c>
       <c r="G153" t="n">
-        <v>49948.2892588561</v>
+        <v>49902.65795683055</v>
       </c>
       <c r="H153" t="n">
         <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>45438880</v>
+        <v>45265431</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2610603</v>
+        <v>2634233</v>
       </c>
       <c r="E154" t="n">
-        <v>10442412</v>
+        <v>10536933</v>
       </c>
       <c r="F154" t="n">
-        <v>2319.120107209723</v>
+        <v>23845.77164720937</v>
       </c>
       <c r="G154" t="n">
-        <v>24353.57937316687</v>
+        <v>2488.011655091609</v>
       </c>
       <c r="H154" t="n">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="I154" t="n">
-        <v>7007903</v>
+        <v>7008923</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227551915</v>
+        <v>227029445</v>
       </c>
       <c r="E155" t="n">
-        <v>699636506</v>
+        <v>698030107</v>
       </c>
       <c r="F155" t="n">
-        <v>101876.3928085998</v>
+        <v>100510.6156508012</v>
       </c>
       <c r="G155" t="n">
-        <v>166076.114626287</v>
+        <v>173480.7929031444</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I155" t="n">
-        <v>16667707</v>
+        <v>16899707</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>411404815</v>
+        <v>411065469</v>
       </c>
       <c r="E156" t="n">
-        <v>2350884658</v>
+        <v>2348945539</v>
       </c>
       <c r="F156" t="n">
-        <v>202698.2938449975</v>
+        <v>165672.9316992712</v>
       </c>
       <c r="G156" t="n">
-        <v>241298.3478472054</v>
+        <v>224401.8076795898</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>42938752</v>
+        <v>43096203</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4173296</v>
+        <v>4167318</v>
       </c>
       <c r="F2" t="n">
-        <v>1471.058439674078</v>
+        <v>1411.874923424466</v>
       </c>
       <c r="G2" t="n">
-        <v>800.5989143875388</v>
+        <v>756.0775666425726</v>
       </c>
       <c r="H2" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="I2" t="n">
-        <v>152371</v>
+        <v>149688</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>631216414</v>
+        <v>629997707</v>
       </c>
       <c r="E3" t="n">
-        <v>1224864494</v>
+        <v>1222497410</v>
       </c>
       <c r="F3" t="n">
-        <v>76836.9949100642</v>
+        <v>64576.31126913174</v>
       </c>
       <c r="G3" t="n">
-        <v>81113.56854853913</v>
+        <v>87219.76913201754</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>22772219</v>
+        <v>22787268</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256038597</v>
+        <v>256990816</v>
       </c>
       <c r="E4" t="n">
-        <v>1605582054</v>
+        <v>1611553285</v>
       </c>
       <c r="F4" t="n">
-        <v>339976.8170026794</v>
+        <v>331696.0533958731</v>
       </c>
       <c r="G4" t="n">
-        <v>225608.7152999607</v>
+        <v>290060.2182630264</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>17225447</v>
+        <v>17186979</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152069455</v>
+        <v>152068206</v>
       </c>
       <c r="E5" t="n">
-        <v>168516721</v>
+        <v>168515338</v>
       </c>
       <c r="F5" t="n">
-        <v>8685.552269067744</v>
+        <v>8684.50809788538</v>
       </c>
       <c r="G5" t="n">
-        <v>158.4297213045991</v>
+        <v>1624.823386029391</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="I5" t="n">
-        <v>40811745</v>
+        <v>40194393</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49504156</v>
+        <v>49916647</v>
       </c>
       <c r="E6" t="n">
-        <v>61928430</v>
+        <v>62444446</v>
       </c>
       <c r="F6" t="n">
-        <v>4999.049494959258</v>
+        <v>4121.247366909973</v>
       </c>
       <c r="G6" t="n">
-        <v>5770.200050645121</v>
+        <v>5683.266764275921</v>
       </c>
       <c r="H6" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>746682</v>
+        <v>745311</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69315174</v>
+        <v>69219525</v>
       </c>
       <c r="E7" t="n">
-        <v>138052369</v>
+        <v>137861868</v>
       </c>
       <c r="F7" t="n">
-        <v>9640.986376679832</v>
+        <v>10374.90246901674</v>
       </c>
       <c r="G7" t="n">
-        <v>13872.07444517282</v>
+        <v>12970.61732590725</v>
       </c>
       <c r="H7" t="n">
         <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>974276</v>
+        <v>967836</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41489547</v>
+        <v>41796162</v>
       </c>
       <c r="E8" t="n">
-        <v>46432779</v>
+        <v>46775926</v>
       </c>
       <c r="F8" t="n">
-        <v>7084.958230950851</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6581.21526134574</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3820229</v>
+        <v>3915952</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14180540</v>
+        <v>14215082</v>
       </c>
       <c r="E9" t="n">
-        <v>41789134</v>
+        <v>41890929</v>
       </c>
       <c r="F9" t="n">
-        <v>5214.230569128769</v>
+        <v>4979.65556023412</v>
       </c>
       <c r="G9" t="n">
-        <v>4683.259040918867</v>
+        <v>4807.371209328413</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="I9" t="n">
-        <v>904193</v>
+        <v>900616</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10354056</v>
+        <v>10440316</v>
       </c>
       <c r="E10" t="n">
-        <v>44503590</v>
+        <v>44874355</v>
       </c>
       <c r="F10" t="n">
-        <v>1408.073943595901</v>
+        <v>1810.197359130867</v>
       </c>
       <c r="G10" t="n">
-        <v>1468.676083181086</v>
+        <v>2700.677521701486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="I10" t="n">
-        <v>855494</v>
+        <v>856229</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>591082974</v>
+        <v>592879186</v>
       </c>
       <c r="E11" t="n">
-        <v>739356950</v>
+        <v>741603744</v>
       </c>
       <c r="F11" t="n">
-        <v>336867.8267564328</v>
+        <v>351394.9383236336</v>
       </c>
       <c r="G11" t="n">
-        <v>337389.4609318544</v>
+        <v>322636.8942053039</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>56934426</v>
+        <v>56117553</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4658260</v>
+        <v>4651115</v>
       </c>
       <c r="E12" t="n">
-        <v>28609433</v>
+        <v>28565551</v>
       </c>
       <c r="F12" t="n">
-        <v>10859.41937187767</v>
+        <v>11012.51844730612</v>
       </c>
       <c r="G12" t="n">
-        <v>9843.955331163199</v>
+        <v>10070.60798327964</v>
       </c>
       <c r="H12" t="n">
         <v>0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>684318</v>
+        <v>634673</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23044142</v>
+        <v>23099960</v>
       </c>
       <c r="E13" t="n">
-        <v>23086928</v>
+        <v>23142850</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>838592</v>
+        <v>835892</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82822711</v>
+        <v>82106110</v>
       </c>
       <c r="E14" t="n">
-        <v>243674688</v>
+        <v>241566359</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>362400</v>
+        <v>361147</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>482128294</v>
+        <v>482102887</v>
       </c>
       <c r="E15" t="n">
-        <v>482128296</v>
+        <v>482102889</v>
       </c>
       <c r="F15" t="n">
-        <v>15601.20225504167</v>
+        <v>14578.61806421017</v>
       </c>
       <c r="G15" t="n">
-        <v>19393.70651533093</v>
+        <v>21159.60968896745</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="I15" t="n">
-        <v>64650191</v>
+        <v>63567324</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4750840</v>
+        <v>4760092</v>
       </c>
       <c r="E16" t="n">
-        <v>4750840</v>
+        <v>4760092</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6601156173205</v>
+        <v>226.7014711715954</v>
       </c>
       <c r="G16" t="n">
-        <v>1494.503425080341</v>
+        <v>1194.477054354</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2035057</v>
+        <v>2047584</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3394859</v>
+        <v>3391022</v>
       </c>
       <c r="E17" t="n">
-        <v>3394859</v>
+        <v>3391022</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>545137</v>
+        <v>544433</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>172506309</v>
+        <v>172315788</v>
       </c>
       <c r="E18" t="n">
-        <v>213569994</v>
+        <v>213334121</v>
       </c>
       <c r="F18" t="n">
-        <v>4281.105348839782</v>
+        <v>8753.314173931834</v>
       </c>
       <c r="G18" t="n">
-        <v>12908.53292251905</v>
+        <v>9942.87494206305</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>592733</v>
+        <v>593904</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6666773</v>
+        <v>6952350</v>
       </c>
       <c r="E19" t="n">
-        <v>9181850</v>
+        <v>9575162</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>330005</v>
+        <v>344152</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>912988</v>
+        <v>912788</v>
       </c>
       <c r="E20" t="n">
-        <v>6390918</v>
+        <v>6389514</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>172392</v>
+        <v>216734</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116098744</v>
+        <v>115628010</v>
       </c>
       <c r="E21" t="n">
-        <v>451565311</v>
+        <v>449725182</v>
       </c>
       <c r="F21" t="n">
-        <v>71776.38161367328</v>
+        <v>68265.16121757992</v>
       </c>
       <c r="G21" t="n">
-        <v>73753.31208694929</v>
+        <v>108371.8228213361</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>17272686</v>
+        <v>10994430</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1719559</v>
+        <v>1719390</v>
       </c>
       <c r="E22" t="n">
-        <v>12385836</v>
+        <v>12384618</v>
       </c>
       <c r="F22" t="n">
-        <v>5208.191972038263</v>
+        <v>5208.137699585368</v>
       </c>
       <c r="G22" t="n">
-        <v>5590.116263905607</v>
+        <v>5610.524710634636</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>49099</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>145232824</v>
+        <v>145535230</v>
       </c>
       <c r="E23" t="n">
-        <v>145232824</v>
+        <v>145535230</v>
       </c>
       <c r="F23" t="n">
-        <v>1124798.749534131</v>
+        <v>1108993.007711625</v>
       </c>
       <c r="G23" t="n">
-        <v>1291806.044213674</v>
+        <v>1166086.038702797</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>74577352</v>
+        <v>74922236</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69086657</v>
+        <v>69088134</v>
       </c>
       <c r="E24" t="n">
-        <v>354290549</v>
+        <v>354298123</v>
       </c>
       <c r="F24" t="n">
-        <v>79612.23516269539</v>
+        <v>78156.51669997194</v>
       </c>
       <c r="G24" t="n">
-        <v>177658.9180941993</v>
+        <v>183369.879835808</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>25906982</v>
+        <v>25536694</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>267612455</v>
+        <v>268750812</v>
       </c>
       <c r="E25" t="n">
-        <v>267612455</v>
+        <v>268750812</v>
       </c>
       <c r="F25" t="n">
-        <v>346996.667705816</v>
+        <v>370001.8136442264</v>
       </c>
       <c r="G25" t="n">
-        <v>462873.6608683853</v>
+        <v>478627.5807938424</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>15470473</v>
+        <v>15384487</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1128867</v>
+        <v>1130466</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>166475</v>
+        <v>163662</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4058862</v>
+        <v>4057375</v>
       </c>
       <c r="E28" t="n">
-        <v>4059876</v>
+        <v>4058388</v>
       </c>
       <c r="F28" t="n">
-        <v>1014.754734616249</v>
+        <v>2471.914023060781</v>
       </c>
       <c r="G28" t="n">
-        <v>2850.890928476061</v>
+        <v>3150.078087967283</v>
       </c>
       <c r="H28" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I28" t="n">
-        <v>254545</v>
+        <v>253600</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6659138</v>
+        <v>6659231</v>
       </c>
       <c r="E29" t="n">
-        <v>16174533</v>
+        <v>16174759</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>486345</v>
+        <v>484752</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101074568</v>
+        <v>101107192</v>
       </c>
       <c r="E30" t="n">
-        <v>126028138</v>
+        <v>126068816</v>
       </c>
       <c r="F30" t="n">
-        <v>118389.0015865575</v>
+        <v>124693.2340337394</v>
       </c>
       <c r="G30" t="n">
-        <v>101450.5296086318</v>
+        <v>100897.5932471666</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10441192</v>
+        <v>10445855</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1199296</v>
+        <v>1173251</v>
       </c>
       <c r="E31" t="n">
-        <v>13033498</v>
+        <v>12750453</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>30231</v>
+        <v>30122</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84692640</v>
+        <v>84468064</v>
       </c>
       <c r="E32" t="n">
-        <v>236928716</v>
+        <v>236300462</v>
       </c>
       <c r="F32" t="n">
-        <v>50806.48388001232</v>
+        <v>41845.81097203937</v>
       </c>
       <c r="G32" t="n">
-        <v>71836.01647757745</v>
+        <v>70456.62695008554</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>47662050</v>
+        <v>52149672</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4316884</v>
+        <v>4315154</v>
       </c>
       <c r="E33" t="n">
-        <v>8513258</v>
+        <v>8509847</v>
       </c>
       <c r="F33" t="n">
-        <v>8245.717217651692</v>
+        <v>8537.299186949114</v>
       </c>
       <c r="G33" t="n">
-        <v>8917.693768881962</v>
+        <v>8772.206184327977</v>
       </c>
       <c r="H33" t="n">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1639545</v>
+        <v>1640910</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36304161</v>
+        <v>35726194</v>
       </c>
       <c r="F34" t="n">
-        <v>193.319328370578</v>
+        <v>204.7025575759996</v>
       </c>
       <c r="G34" t="n">
-        <v>178.0731749038149</v>
+        <v>54.72263215351633</v>
       </c>
       <c r="H34" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="I34" t="n">
-        <v>63556</v>
+        <v>62951</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7703576</v>
+        <v>7705448</v>
       </c>
       <c r="E35" t="n">
-        <v>18143452</v>
+        <v>18147862</v>
       </c>
       <c r="F35" t="n">
-        <v>3458.015140822449</v>
+        <v>3457.979106232893</v>
       </c>
       <c r="G35" t="n">
-        <v>2653.806241912762</v>
+        <v>2653.778587661756</v>
       </c>
       <c r="H35" t="n">
         <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>34419</v>
+        <v>33630</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23063524</v>
+        <v>22987509</v>
       </c>
       <c r="F36" t="n">
-        <v>5166.107791832946</v>
+        <v>5099.101835305247</v>
       </c>
       <c r="G36" t="n">
-        <v>5249.017559218678</v>
+        <v>5554.440804485002</v>
       </c>
       <c r="H36" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="I36" t="n">
-        <v>124879</v>
+        <v>124545</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>79570504</v>
+        <v>79317069</v>
       </c>
       <c r="E37" t="n">
-        <v>165944908</v>
+        <v>165416368</v>
       </c>
       <c r="F37" t="n">
-        <v>104941.073385617</v>
+        <v>95215.42450727381</v>
       </c>
       <c r="G37" t="n">
-        <v>104204.3530724571</v>
+        <v>118322.3639594911</v>
       </c>
       <c r="H37" t="n">
         <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>20473986</v>
+        <v>20416781</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>282780188</v>
+        <v>284077440</v>
       </c>
       <c r="E38" t="n">
-        <v>282780188</v>
+        <v>284077440</v>
       </c>
       <c r="F38" t="n">
-        <v>32306.71967995225</v>
+        <v>26888.17492888946</v>
       </c>
       <c r="G38" t="n">
-        <v>20096.04419646949</v>
+        <v>39423.41851218249</v>
       </c>
       <c r="H38" t="n">
         <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>9574853</v>
+        <v>9833806</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>214947883</v>
+        <v>214478879</v>
       </c>
       <c r="E39" t="n">
-        <v>746748372</v>
+        <v>745119009</v>
       </c>
       <c r="F39" t="n">
-        <v>157688.5396484545</v>
+        <v>170583.9913507766</v>
       </c>
       <c r="G39" t="n">
-        <v>190124.1180097968</v>
+        <v>372603.7531179461</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="n">
-        <v>33523151</v>
+        <v>30644194</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3776708</v>
+        <v>3738831</v>
       </c>
       <c r="E40" t="n">
-        <v>3776708</v>
+        <v>3738831</v>
       </c>
       <c r="F40" t="n">
-        <v>7331.642319979791</v>
+        <v>6657.644810531416</v>
       </c>
       <c r="G40" t="n">
-        <v>962.7353829167618</v>
+        <v>873.3955156103801</v>
       </c>
       <c r="H40" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="I40" t="n">
-        <v>2530061</v>
+        <v>2529188</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>120636321</v>
+        <v>120450096</v>
       </c>
       <c r="E41" t="n">
-        <v>512266678</v>
+        <v>511460760</v>
       </c>
       <c r="F41" t="n">
-        <v>5638.172161119443</v>
+        <v>5631.224150583402</v>
       </c>
       <c r="G41" t="n">
-        <v>6548.3314721848</v>
+        <v>6370.175471339287</v>
       </c>
       <c r="H41" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>14505333</v>
+        <v>14508394</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>569196</v>
+        <v>567754</v>
       </c>
       <c r="E42" t="n">
-        <v>6903798</v>
+        <v>6886306</v>
       </c>
       <c r="F42" t="n">
-        <v>783.9052282950302</v>
+        <v>695.7666892873506</v>
       </c>
       <c r="G42" t="n">
-        <v>1236.89459116425</v>
+        <v>1151.838178854828</v>
       </c>
       <c r="H42" t="n">
         <v>0.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2798554</v>
+        <v>2793553</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1357776129</v>
+        <v>1361161562</v>
       </c>
       <c r="E43" t="n">
-        <v>6510814604</v>
+        <v>6527048448</v>
       </c>
       <c r="F43" t="n">
-        <v>67183.56185962229</v>
+        <v>74237.77092996388</v>
       </c>
       <c r="G43" t="n">
-        <v>107395.8210170316</v>
+        <v>93354.22329734956</v>
       </c>
       <c r="H43" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>205112225</v>
+        <v>206671782</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6056047811</v>
+        <v>6050295002</v>
       </c>
       <c r="E44" t="n">
-        <v>6056047811</v>
+        <v>6050295002</v>
       </c>
       <c r="F44" t="n">
-        <v>4209916.560000468</v>
+        <v>943099.1830007659</v>
       </c>
       <c r="G44" t="n">
-        <v>4109844.378714638</v>
+        <v>1651297.266610045</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>82390334</v>
+        <v>82645210</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>279024847</v>
+        <v>279867683</v>
       </c>
       <c r="E45" t="n">
-        <v>1204426138</v>
+        <v>1208064288</v>
       </c>
       <c r="F45" t="n">
-        <v>115965.1070026681</v>
+        <v>112461.9251089462</v>
       </c>
       <c r="G45" t="n">
-        <v>100564.9762772005</v>
+        <v>91364.63698189601</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>110767477</v>
+        <v>110751575</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>117146545</v>
+        <v>117061357</v>
       </c>
       <c r="E46" t="n">
-        <v>117146545</v>
+        <v>117061357</v>
       </c>
       <c r="F46" t="n">
-        <v>28203.94297755864</v>
+        <v>29404.77966973251</v>
       </c>
       <c r="G46" t="n">
-        <v>37394.34583102122</v>
+        <v>34439.10027710581</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I46" t="n">
-        <v>6363662</v>
+        <v>6318093</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2007059640</v>
+        <v>2007822808</v>
       </c>
       <c r="E47" t="n">
-        <v>2007059640</v>
+        <v>2007822808</v>
       </c>
       <c r="F47" t="n">
-        <v>225962.5726438414</v>
+        <v>225965.297059173</v>
       </c>
       <c r="G47" t="n">
-        <v>199257.7281727647</v>
+        <v>199255.6561382973</v>
       </c>
       <c r="H47" t="n">
         <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>5547885450</v>
+        <v>7635411811</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10233167</v>
+        <v>10376510</v>
       </c>
       <c r="F48" t="n">
-        <v>6665.825430326828</v>
+        <v>6226.070304036355</v>
       </c>
       <c r="G48" t="n">
-        <v>5610.11340502685</v>
+        <v>5946.72584869865</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I48" t="n">
-        <v>148592</v>
+        <v>153073</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4449218</v>
+        <v>4448522</v>
       </c>
       <c r="E49" t="n">
-        <v>5841243</v>
+        <v>5840329</v>
       </c>
       <c r="F49" t="n">
-        <v>14113.58475868457</v>
+        <v>8895.31626500482</v>
       </c>
       <c r="G49" t="n">
-        <v>7924.797813987505</v>
+        <v>14397.52863468867</v>
       </c>
       <c r="H49" t="n">
         <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>645140</v>
+        <v>647800</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12577324</v>
+        <v>12632127</v>
       </c>
       <c r="E50" t="n">
-        <v>18494717</v>
+        <v>18575304</v>
       </c>
       <c r="F50" t="n">
-        <v>7199.061213363998</v>
+        <v>6860.893613215948</v>
       </c>
       <c r="G50" t="n">
-        <v>8314.52201771293</v>
+        <v>6864.978831643883</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>3451932</v>
+        <v>3482448</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23390691</v>
+        <v>23358041</v>
       </c>
       <c r="E51" t="n">
-        <v>30343077</v>
+        <v>30300722</v>
       </c>
       <c r="F51" t="n">
-        <v>11592.6807480779</v>
+        <v>9146.193571251817</v>
       </c>
       <c r="G51" t="n">
-        <v>10922.31643296303</v>
+        <v>8227.014213232747</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>164885</v>
+        <v>164589</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14636892</v>
+        <v>14654901</v>
       </c>
       <c r="E52" t="n">
-        <v>14636892</v>
+        <v>14654901</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5301008</v>
+        <v>5116541</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99219226</v>
+        <v>99301784</v>
       </c>
       <c r="E53" t="n">
-        <v>122730631</v>
+        <v>122832752</v>
       </c>
       <c r="F53" t="n">
-        <v>984.5073313608005</v>
+        <v>861.8722495944929</v>
       </c>
       <c r="G53" t="n">
-        <v>1376.94500953903</v>
+        <v>1465.08767491819</v>
       </c>
       <c r="H53" t="n">
         <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>862035</v>
+        <v>854997</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5104698</v>
+        <v>5115884</v>
       </c>
       <c r="E54" t="n">
-        <v>7142212</v>
+        <v>7157863</v>
       </c>
       <c r="F54" t="n">
-        <v>536.5592348182138</v>
+        <v>527.4748917862737</v>
       </c>
       <c r="G54" t="n">
-        <v>274.8448408735283</v>
+        <v>294.3295964952114</v>
       </c>
       <c r="H54" t="n">
         <v>2.62</v>
       </c>
       <c r="I54" t="n">
-        <v>80765</v>
+        <v>81521</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15634624</v>
+        <v>15653966</v>
       </c>
       <c r="E55" t="n">
-        <v>75720981</v>
+        <v>75814654</v>
       </c>
       <c r="F55" t="n">
-        <v>22748.69999044972</v>
+        <v>24094.05550052375</v>
       </c>
       <c r="G55" t="n">
-        <v>31832.28688633905</v>
+        <v>35005.70035477078</v>
       </c>
       <c r="H55" t="n">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="I55" t="n">
-        <v>4168604</v>
+        <v>4247622</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60519</v>
+        <v>60511</v>
       </c>
       <c r="E56" t="n">
-        <v>144957</v>
+        <v>144936</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2737.57</v>
+        <v>2735.71</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1929217566</v>
+        <v>1927626850</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>28167866</v>
+        <v>28297429</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12365505</v>
+        <v>12289353</v>
       </c>
       <c r="E58" t="n">
-        <v>17928198</v>
+        <v>17817789</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2100443</v>
+        <v>2089865</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123612726</v>
+        <v>123675983</v>
       </c>
       <c r="E59" t="n">
-        <v>328739384</v>
+        <v>328907612</v>
       </c>
       <c r="F59" t="n">
-        <v>8260.298194227358</v>
+        <v>8237.957012341558</v>
       </c>
       <c r="G59" t="n">
-        <v>7169.567244122571</v>
+        <v>7138.34698759616</v>
       </c>
       <c r="H59" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>793765</v>
+        <v>479156</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31781693</v>
+        <v>31975344</v>
       </c>
       <c r="E60" t="n">
-        <v>98957995</v>
+        <v>99560960</v>
       </c>
       <c r="F60" t="n">
-        <v>2467.478243864594</v>
+        <v>2212.834805491168</v>
       </c>
       <c r="G60" t="n">
-        <v>4992.100794495628</v>
+        <v>5210.322546052698</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
       <c r="I60" t="n">
-        <v>10289508</v>
+        <v>10273969</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1996705</v>
+        <v>1992404</v>
       </c>
       <c r="E61" t="n">
-        <v>14318173</v>
+        <v>14287333</v>
       </c>
       <c r="F61" t="n">
-        <v>1228.876873679097</v>
+        <v>2903.846696923981</v>
       </c>
       <c r="G61" t="n">
-        <v>5126.859018129995</v>
+        <v>5115.995268397348</v>
       </c>
       <c r="H61" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="I61" t="n">
-        <v>2010454</v>
+        <v>2012556</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>208396999</v>
+        <v>208207962</v>
       </c>
       <c r="E62" t="n">
-        <v>1180071858</v>
+        <v>1179001413</v>
       </c>
       <c r="F62" t="n">
-        <v>638236.159850249</v>
+        <v>547490.3279909244</v>
       </c>
       <c r="G62" t="n">
-        <v>850775.6190282955</v>
+        <v>853873.2121365388</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>69281541</v>
+        <v>69046793</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>494732</v>
+        <v>500414</v>
       </c>
       <c r="E63" t="n">
-        <v>1665197</v>
+        <v>1684322</v>
       </c>
       <c r="F63" t="n">
-        <v>4606.334394870724</v>
+        <v>4556.23803382022</v>
       </c>
       <c r="G63" t="n">
-        <v>373.7011732198422</v>
+        <v>373.6979028325589</v>
       </c>
       <c r="H63" t="n">
         <v>0.36</v>
       </c>
       <c r="I63" t="n">
-        <v>629937</v>
+        <v>627636</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>345931</v>
+        <v>344344</v>
       </c>
       <c r="E64" t="n">
-        <v>345931</v>
+        <v>344344</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4662.02</v>
+        <v>4155.49</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>145168363</v>
+        <v>145660257</v>
       </c>
       <c r="E65" t="n">
-        <v>1075321208</v>
+        <v>1078964866</v>
       </c>
       <c r="F65" t="n">
-        <v>38891.23277803455</v>
+        <v>39034.38580593618</v>
       </c>
       <c r="G65" t="n">
-        <v>36410.40904738251</v>
+        <v>35535.32282688578</v>
       </c>
       <c r="H65" t="n">
         <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>8398217</v>
+        <v>8482665</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8264840</v>
+        <v>8325387</v>
       </c>
       <c r="E66" t="n">
-        <v>11072129</v>
+        <v>11153242</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>64365</v>
+        <v>65457</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26734818</v>
+        <v>26694591</v>
       </c>
       <c r="E67" t="n">
-        <v>26734818</v>
+        <v>26694591</v>
       </c>
       <c r="F67" t="n">
-        <v>6231.437989358286</v>
+        <v>6963.473633718792</v>
       </c>
       <c r="G67" t="n">
-        <v>10644.23619411091</v>
+        <v>11690.93469197789</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>327017</v>
+        <v>327013</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1604612</v>
+        <v>1586113</v>
       </c>
       <c r="E68" t="n">
-        <v>12461603</v>
+        <v>12317931</v>
       </c>
       <c r="F68" t="n">
-        <v>20692.57765222983</v>
+        <v>17506.83546389905</v>
       </c>
       <c r="G68" t="n">
-        <v>12073.7433507438</v>
+        <v>19699.00106416727</v>
       </c>
       <c r="H68" t="n">
         <v>0.76</v>
       </c>
       <c r="I68" t="n">
-        <v>535583</v>
+        <v>529056</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>348018635</v>
+        <v>349585034</v>
       </c>
       <c r="E69" t="n">
-        <v>3130991439</v>
+        <v>3145083732</v>
       </c>
       <c r="F69" t="n">
-        <v>1432012.240008153</v>
+        <v>1070193.046373872</v>
       </c>
       <c r="G69" t="n">
-        <v>1345417.758086736</v>
+        <v>1936148.20744282</v>
       </c>
       <c r="H69" t="n">
         <v>0.06</v>
       </c>
       <c r="I69" t="n">
-        <v>46987606</v>
+        <v>46334958</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>245037</v>
+        <v>246194</v>
       </c>
       <c r="E70" t="n">
-        <v>2162639</v>
+        <v>2172843</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>89242</v>
+        <v>89176</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1575188</v>
+        <v>1573097</v>
       </c>
       <c r="E71" t="n">
-        <v>13126566</v>
+        <v>13109143</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>25807</v>
+        <v>25276</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9370944</v>
+        <v>9412449</v>
       </c>
       <c r="E72" t="n">
-        <v>43434866</v>
+        <v>43627244</v>
       </c>
       <c r="F72" t="n">
-        <v>5140.117300965896</v>
+        <v>5130.173230934145</v>
       </c>
       <c r="G72" t="n">
-        <v>11356.87888928058</v>
+        <v>11065.93761130897</v>
       </c>
       <c r="H72" t="n">
         <v>1.03</v>
       </c>
       <c r="I72" t="n">
-        <v>113492</v>
+        <v>117007</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50355892</v>
+        <v>50727813</v>
       </c>
       <c r="E73" t="n">
-        <v>291539808</v>
+        <v>293693078</v>
       </c>
       <c r="F73" t="n">
-        <v>117368.8659522836</v>
+        <v>105425.5810624151</v>
       </c>
       <c r="G73" t="n">
-        <v>218674.2655045179</v>
+        <v>201774.2890076916</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>39079540</v>
+        <v>39383609</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39765449</v>
+        <v>39579852</v>
       </c>
       <c r="E74" t="n">
-        <v>54921748</v>
+        <v>54665412</v>
       </c>
       <c r="F74" t="n">
-        <v>604.4366222026135</v>
+        <v>577.1710481352288</v>
       </c>
       <c r="G74" t="n">
-        <v>579.3590208431923</v>
+        <v>570.7343003956905</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>352840</v>
+        <v>290995</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99327</v>
+        <v>99750</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>366.68</v>
+        <v>367.55</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14241986</v>
+        <v>14194961</v>
       </c>
       <c r="E76" t="n">
-        <v>14290453</v>
+        <v>14243268</v>
       </c>
       <c r="F76" t="n">
-        <v>2639.912061610251</v>
+        <v>4430.464575931943</v>
       </c>
       <c r="G76" t="n">
-        <v>5320.473006068828</v>
+        <v>4315.451689266785</v>
       </c>
       <c r="H76" t="n">
         <v>1.23</v>
       </c>
       <c r="I76" t="n">
-        <v>5741999</v>
+        <v>5732776</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43467123</v>
+        <v>43462649</v>
       </c>
       <c r="E77" t="n">
-        <v>73797063</v>
+        <v>73789467</v>
       </c>
       <c r="F77" t="n">
-        <v>8479.743656317192</v>
+        <v>9891.729497188991</v>
       </c>
       <c r="G77" t="n">
-        <v>3674.759869116887</v>
+        <v>3210.104332872346</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="I77" t="n">
-        <v>1069117</v>
+        <v>1069979</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22652726</v>
+        <v>22685608</v>
       </c>
       <c r="E78" t="n">
-        <v>67903701</v>
+        <v>68002267</v>
       </c>
       <c r="F78" t="n">
-        <v>155691.0543687196</v>
+        <v>145658.8044840536</v>
       </c>
       <c r="G78" t="n">
-        <v>113508.3733206093</v>
+        <v>146984.8322595915</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="I78" t="n">
-        <v>3571135</v>
+        <v>3564622</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102229068</v>
+        <v>104416616</v>
       </c>
       <c r="E79" t="n">
-        <v>108678739</v>
+        <v>111004299</v>
       </c>
       <c r="F79" t="n">
-        <v>2436.88711892016</v>
+        <v>2316.772787618107</v>
       </c>
       <c r="G79" t="n">
-        <v>4408.518594600749</v>
+        <v>4461.494389990185</v>
       </c>
       <c r="H79" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="I79" t="n">
-        <v>615250</v>
+        <v>617733</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10191909</v>
+        <v>10215042</v>
       </c>
       <c r="E80" t="n">
-        <v>44855058</v>
+        <v>44956310</v>
       </c>
       <c r="F80" t="n">
-        <v>6265.867569341095</v>
+        <v>6265.690679616911</v>
       </c>
       <c r="G80" t="n">
-        <v>5685.631875001402</v>
+        <v>5685.482275478204</v>
       </c>
       <c r="H80" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I80" t="n">
-        <v>113001</v>
+        <v>113298</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15962762</v>
+        <v>15953705</v>
       </c>
       <c r="E81" t="n">
-        <v>97841015</v>
+        <v>97785506</v>
       </c>
       <c r="F81" t="n">
-        <v>4209.574141143977</v>
+        <v>4196.282086567399</v>
       </c>
       <c r="G81" t="n">
-        <v>6119.100220543491</v>
+        <v>6413.103387538859</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I81" t="n">
-        <v>10898687</v>
+        <v>10841211</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1520056</v>
+        <v>1520989</v>
       </c>
       <c r="E82" t="n">
-        <v>1562813</v>
+        <v>1563773</v>
       </c>
       <c r="F82" t="n">
-        <v>5167.175374066295</v>
+        <v>6803.184700324976</v>
       </c>
       <c r="G82" t="n">
-        <v>5700.552456402918</v>
+        <v>5700.502678020617</v>
       </c>
       <c r="H82" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>149224</v>
+        <v>148552</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50426424</v>
+        <v>50543744</v>
       </c>
       <c r="E83" t="n">
-        <v>217231523</v>
+        <v>217736924</v>
       </c>
       <c r="F83" t="n">
-        <v>4447.681369732297</v>
+        <v>2926.19410927959</v>
       </c>
       <c r="G83" t="n">
-        <v>3614.151592967438</v>
+        <v>5109.939432555328</v>
       </c>
       <c r="H83" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>10077760</v>
+        <v>10368973</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2337481</v>
+        <v>2397212</v>
       </c>
       <c r="E84" t="n">
-        <v>8487782</v>
+        <v>8703809</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>187035</v>
+        <v>201080</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9094629</v>
+        <v>9100469</v>
       </c>
       <c r="E85" t="n">
-        <v>20188803</v>
+        <v>20201767</v>
       </c>
       <c r="F85" t="n">
-        <v>6263.473198198604</v>
+        <v>6271.54783843505</v>
       </c>
       <c r="G85" t="n">
-        <v>5204.693410868583</v>
+        <v>6002.461465248246</v>
       </c>
       <c r="H85" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="I85" t="n">
-        <v>322983</v>
+        <v>322510</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2442529</v>
+        <v>2442239</v>
       </c>
       <c r="E86" t="n">
-        <v>18379401</v>
+        <v>18377223</v>
       </c>
       <c r="F86" t="n">
-        <v>5029.664669232056</v>
+        <v>4969.787016011819</v>
       </c>
       <c r="G86" t="n">
-        <v>12027.49762272642</v>
+        <v>12015.64466768434</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163976</v>
+        <v>163825</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20600996</v>
+        <v>20458883</v>
       </c>
       <c r="E87" t="n">
-        <v>82403985</v>
+        <v>81835531</v>
       </c>
       <c r="F87" t="n">
-        <v>13182.42522294611</v>
+        <v>24947.61603230099</v>
       </c>
       <c r="G87" t="n">
-        <v>1010.637087424829</v>
+        <v>853.4564751991503</v>
       </c>
       <c r="H87" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="I87" t="n">
-        <v>2476599</v>
+        <v>2487128</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4808434</v>
+        <v>4832669</v>
       </c>
       <c r="E88" t="n">
-        <v>4808434</v>
+        <v>4832669</v>
       </c>
       <c r="F88" t="n">
-        <v>2280.056755948835</v>
+        <v>1051.701396927566</v>
       </c>
       <c r="G88" t="n">
-        <v>1156.309975716134</v>
+        <v>975.9616384645064</v>
       </c>
       <c r="H88" t="n">
-        <v>0.28</v>
+        <v>0.97</v>
       </c>
       <c r="I88" t="n">
-        <v>3016732</v>
+        <v>3029699</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12738724</v>
+        <v>12712431</v>
       </c>
       <c r="E89" t="n">
-        <v>40294981</v>
+        <v>40211812</v>
       </c>
       <c r="F89" t="n">
-        <v>15133.63427684247</v>
+        <v>12861.58702031641</v>
       </c>
       <c r="G89" t="n">
-        <v>14069.10669674992</v>
+        <v>10781.18581698728</v>
       </c>
       <c r="H89" t="n">
         <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>961030</v>
+        <v>960366</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24856</v>
+        <v>24921</v>
       </c>
       <c r="E90" t="n">
-        <v>195485</v>
+        <v>195998</v>
       </c>
       <c r="F90" t="n">
-        <v>2291.020026175467</v>
+        <v>2290.999976672558</v>
       </c>
       <c r="G90" t="n">
-        <v>339.7388968407199</v>
+        <v>339.7359236689787</v>
       </c>
       <c r="H90" t="n">
         <v>0.3</v>
       </c>
       <c r="I90" t="n">
-        <v>52124</v>
+        <v>52588</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8456801</v>
+        <v>8517511</v>
       </c>
       <c r="E91" t="n">
-        <v>8456801</v>
+        <v>8517511</v>
       </c>
       <c r="F91" t="n">
-        <v>3288.635949911671</v>
+        <v>3844.768926202501</v>
       </c>
       <c r="G91" t="n">
-        <v>4018.370092734547</v>
+        <v>4271.43709935422</v>
       </c>
       <c r="H91" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I91" t="n">
-        <v>3747739</v>
+        <v>3762559</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9414148</v>
+        <v>9532494</v>
       </c>
       <c r="E92" t="n">
-        <v>9414148</v>
+        <v>9532494</v>
       </c>
       <c r="F92" t="n">
-        <v>9783.498234501743</v>
+        <v>7657.564510566915</v>
       </c>
       <c r="G92" t="n">
-        <v>7483.332777456688</v>
+        <v>6702.075728961868</v>
       </c>
       <c r="H92" t="n">
         <v>0.49</v>
       </c>
       <c r="I92" t="n">
-        <v>2915185</v>
+        <v>2927128</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37755931</v>
+        <v>37784998</v>
       </c>
       <c r="E93" t="n">
-        <v>95202331</v>
+        <v>95275625</v>
       </c>
       <c r="F93" t="n">
-        <v>5404.58030658836</v>
+        <v>5676.657811435268</v>
       </c>
       <c r="G93" t="n">
-        <v>5759.645337360306</v>
+        <v>5672.7852138611</v>
       </c>
       <c r="H93" t="n">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>3493632</v>
+        <v>3536072</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>318599268</v>
+        <v>319342590</v>
       </c>
       <c r="E94" t="n">
-        <v>323579267</v>
+        <v>324334208</v>
       </c>
       <c r="F94" t="n">
-        <v>4719.086730036148</v>
+        <v>4469.659151795499</v>
       </c>
       <c r="G94" t="n">
-        <v>5874.893757159691</v>
+        <v>6522.421807265765</v>
       </c>
       <c r="H94" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I94" t="n">
-        <v>18249381</v>
+        <v>18229121</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6057.712527896243</v>
+        <v>6065.657860650851</v>
       </c>
       <c r="G95" t="n">
-        <v>6366.935849457329</v>
+        <v>1337.945803241907</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>217791</v>
+        <v>218453</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>89826365</v>
+        <v>89879463</v>
       </c>
       <c r="E96" t="n">
-        <v>89826365</v>
+        <v>89879463</v>
       </c>
       <c r="F96" t="n">
-        <v>9233.054254012777</v>
+        <v>9841.269180254891</v>
       </c>
       <c r="G96" t="n">
-        <v>6013.466587068479</v>
+        <v>5554.532858565554</v>
       </c>
       <c r="H96" t="n">
         <v>0.62</v>
       </c>
       <c r="I96" t="n">
-        <v>5744984</v>
+        <v>5732490</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="E97" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="F97" t="n">
-        <v>375516.4308355952</v>
+        <v>365659.6677440015</v>
       </c>
       <c r="G97" t="n">
-        <v>425798.7238726311</v>
+        <v>459510.8067748552</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>72014189</v>
+        <v>71595601</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4339620</v>
+        <v>4339598</v>
       </c>
       <c r="E98" t="n">
-        <v>29652321</v>
+        <v>29652171</v>
       </c>
       <c r="F98" t="n">
-        <v>245.9336830323506</v>
+        <v>27452.55543715226</v>
       </c>
       <c r="G98" t="n">
-        <v>248.6089062944025</v>
+        <v>28403.37334583798</v>
       </c>
       <c r="H98" t="n">
         <v>0.67</v>
       </c>
       <c r="I98" t="n">
-        <v>2620743</v>
+        <v>2612874</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>92973355</v>
+        <v>93390082</v>
       </c>
       <c r="E99" t="n">
-        <v>535752572</v>
+        <v>538153936</v>
       </c>
       <c r="F99" t="n">
-        <v>146350.2984831467</v>
+        <v>136282.1435543737</v>
       </c>
       <c r="G99" t="n">
-        <v>151797.4753056133</v>
+        <v>150449.5238477869</v>
       </c>
       <c r="H99" t="n">
         <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>18288524</v>
+        <v>18310533</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>110925481</v>
+        <v>111145848</v>
       </c>
       <c r="E100" t="n">
-        <v>272920022</v>
+        <v>273462211</v>
       </c>
       <c r="F100" t="n">
-        <v>25562.56204188536</v>
+        <v>22915.47882569422</v>
       </c>
       <c r="G100" t="n">
-        <v>45519.72249590066</v>
+        <v>38340.37250738068</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I100" t="n">
-        <v>2291843</v>
+        <v>2294137</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>253680679</v>
+        <v>253609438</v>
       </c>
       <c r="E101" t="n">
-        <v>253683200</v>
+        <v>253611958</v>
       </c>
       <c r="F101" t="n">
-        <v>25706.66099490939</v>
+        <v>25990.96198109416</v>
       </c>
       <c r="G101" t="n">
-        <v>19693.98045491875</v>
+        <v>19666.51412072605</v>
       </c>
       <c r="H101" t="n">
         <v>0.26</v>
       </c>
       <c r="I101" t="n">
-        <v>2471415</v>
+        <v>2465032</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>31780854</v>
+        <v>31849723</v>
       </c>
       <c r="E102" t="n">
-        <v>142295922</v>
+        <v>142604277</v>
       </c>
       <c r="F102" t="n">
-        <v>68134.8480307282</v>
+        <v>79739.86572294671</v>
       </c>
       <c r="G102" t="n">
-        <v>160325.6765090995</v>
+        <v>138769.2926880322</v>
       </c>
       <c r="H102" t="n">
         <v>0.21</v>
       </c>
       <c r="I102" t="n">
-        <v>8639394</v>
+        <v>7965138</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3251327</v>
+        <v>3229263</v>
       </c>
       <c r="E103" t="n">
-        <v>3251327</v>
+        <v>3229263</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>417200</v>
+        <v>421941</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5954496</v>
+        <v>5909232</v>
       </c>
       <c r="E104" t="n">
-        <v>15627585</v>
+        <v>15508788</v>
       </c>
       <c r="F104" t="n">
-        <v>8833.785735990525</v>
+        <v>8946.537285165796</v>
       </c>
       <c r="G104" t="n">
-        <v>1955.119405048735</v>
+        <v>1952.31124890925</v>
       </c>
       <c r="H104" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="I104" t="n">
-        <v>31837</v>
+        <v>31737</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16554135</v>
+        <v>16575069</v>
       </c>
       <c r="E105" t="n">
-        <v>76411607</v>
+        <v>76508235</v>
       </c>
       <c r="F105" t="n">
-        <v>52749.96739299107</v>
+        <v>40422.92843786291</v>
       </c>
       <c r="G105" t="n">
-        <v>90584.69448695335</v>
+        <v>85218.60225068936</v>
       </c>
       <c r="H105" t="n">
         <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>857710</v>
+        <v>805707</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52223207</v>
+        <v>52170466</v>
       </c>
       <c r="E106" t="n">
-        <v>338653599</v>
+        <v>338311588</v>
       </c>
       <c r="F106" t="n">
-        <v>143119.4466239832</v>
+        <v>123470.518404437</v>
       </c>
       <c r="G106" t="n">
-        <v>193849.8707175098</v>
+        <v>187533.9258889846</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17640934</v>
+        <v>17666830</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2481134</v>
+        <v>2474720</v>
       </c>
       <c r="E107" t="n">
-        <v>4495042</v>
+        <v>4483421</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>131594</v>
+        <v>131228</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125121271</v>
+        <v>124883900</v>
       </c>
       <c r="E108" t="n">
-        <v>2072110731</v>
+        <v>2068179660</v>
       </c>
       <c r="F108" t="n">
-        <v>242568.2163288344</v>
+        <v>221134.3672929017</v>
       </c>
       <c r="G108" t="n">
-        <v>128553.0359368448</v>
+        <v>167449.5938325231</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4803644</v>
+        <v>4801331</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25140767</v>
+        <v>25072086</v>
       </c>
       <c r="E109" t="n">
-        <v>150422260</v>
+        <v>150011332</v>
       </c>
       <c r="F109" t="n">
-        <v>42742.44567463508</v>
+        <v>42903.11363018193</v>
       </c>
       <c r="G109" t="n">
-        <v>41291.27298146766</v>
+        <v>42586.19832634681</v>
       </c>
       <c r="H109" t="n">
         <v>0.27</v>
       </c>
       <c r="I109" t="n">
-        <v>13156971</v>
+        <v>13223616</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1089112</v>
+        <v>1081551</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>73908</v>
+        <v>73796</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2223035</v>
+        <v>2211135</v>
       </c>
       <c r="F111" t="n">
-        <v>3796.030955394161</v>
+        <v>3861.008519781046</v>
       </c>
       <c r="G111" t="n">
-        <v>379.4793518220392</v>
+        <v>368.2993054508478</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>176500</v>
+        <v>176885</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147557555</v>
+        <v>147525577</v>
       </c>
       <c r="F112" t="n">
-        <v>8562.418335810793</v>
+        <v>8562.34340314789</v>
       </c>
       <c r="G112" t="n">
-        <v>3590.540918250888</v>
+        <v>3526.195283497157</v>
       </c>
       <c r="H112" t="n">
         <v>0.54</v>
       </c>
       <c r="I112" t="n">
-        <v>33625</v>
+        <v>34843</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6681585</v>
+        <v>6686982</v>
       </c>
       <c r="E113" t="n">
-        <v>34374724</v>
+        <v>34402490</v>
       </c>
       <c r="F113" t="n">
-        <v>728.7428851170496</v>
+        <v>1958.517283819257</v>
       </c>
       <c r="G113" t="n">
-        <v>683.3822552487238</v>
+        <v>1743.949248305576</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I113" t="n">
-        <v>907602</v>
+        <v>909194</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29457252</v>
+        <v>29458909</v>
       </c>
       <c r="E114" t="n">
-        <v>40391043</v>
+        <v>40393315</v>
       </c>
       <c r="F114" t="n">
-        <v>4749.666196394874</v>
+        <v>4899.741771221134</v>
       </c>
       <c r="G114" t="n">
-        <v>4538.360339568799</v>
+        <v>4455.35593512093</v>
       </c>
       <c r="H114" t="n">
         <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>234179</v>
+        <v>233864</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7994699</v>
+        <v>7990308</v>
       </c>
       <c r="F115" t="n">
-        <v>140.2162213425906</v>
+        <v>150.0666065033834</v>
       </c>
       <c r="G115" t="n">
-        <v>6994.637172115044</v>
+        <v>6985.022103803411</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>659998</v>
+        <v>658153</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3388489</v>
+        <v>3402140</v>
       </c>
       <c r="E116" t="n">
-        <v>4539095</v>
+        <v>4557382</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>151098</v>
+        <v>149355</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35605539</v>
+        <v>35601013</v>
       </c>
       <c r="E117" t="n">
-        <v>177688054</v>
+        <v>177665467</v>
       </c>
       <c r="F117" t="n">
-        <v>119890.6404480929</v>
+        <v>87371.96598099178</v>
       </c>
       <c r="G117" t="n">
-        <v>77849.2262348612</v>
+        <v>76159.65294285203</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>10724902</v>
+        <v>10688782</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3445014</v>
+        <v>3444388</v>
       </c>
       <c r="E118" t="n">
-        <v>4948827</v>
+        <v>4947928</v>
       </c>
       <c r="F118" t="n">
-        <v>349.0684614821305</v>
+        <v>349.0654066660302</v>
       </c>
       <c r="G118" t="n">
-        <v>632.6595903127449</v>
+        <v>632.6540536948154</v>
       </c>
       <c r="H118" t="n">
         <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>145342</v>
+        <v>145581</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>326918819</v>
+        <v>327205270</v>
       </c>
       <c r="E119" t="n">
-        <v>604874368</v>
+        <v>605404369</v>
       </c>
       <c r="F119" t="n">
-        <v>134504.4613316257</v>
+        <v>137642.7347003995</v>
       </c>
       <c r="G119" t="n">
-        <v>137807.7815988498</v>
+        <v>152776.0837610175</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>14611850</v>
+        <v>14630350</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>74302789</v>
+        <v>74221233</v>
       </c>
       <c r="E120" t="n">
-        <v>708788122</v>
+        <v>708006231</v>
       </c>
       <c r="F120" t="n">
-        <v>4006.315305003015</v>
+        <v>4879.379536213839</v>
       </c>
       <c r="G120" t="n">
-        <v>42492.01839685199</v>
+        <v>42041.06987045976</v>
       </c>
       <c r="H120" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>22430429</v>
+        <v>22353558</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38746962</v>
+        <v>38617408</v>
       </c>
       <c r="E121" t="n">
-        <v>50657903</v>
+        <v>50488524</v>
       </c>
       <c r="F121" t="n">
-        <v>273.1790076398264</v>
+        <v>264.1182109807053</v>
       </c>
       <c r="G121" t="n">
-        <v>9186.735795479686</v>
+        <v>14819.41615483894</v>
       </c>
       <c r="H121" t="n">
-        <v>2.32</v>
+        <v>1.75</v>
       </c>
       <c r="I121" t="n">
-        <v>489852</v>
+        <v>385836</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11108704</v>
+        <v>11031905</v>
       </c>
       <c r="E122" t="n">
-        <v>32954318</v>
+        <v>32721477</v>
       </c>
       <c r="F122" t="n">
-        <v>4553.971568155167</v>
+        <v>3295.510888474529</v>
       </c>
       <c r="G122" t="n">
-        <v>5678.434976737444</v>
+        <v>3728.778983958252</v>
       </c>
       <c r="H122" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="I122" t="n">
-        <v>6867108</v>
+        <v>7406990</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2335730</v>
+        <v>2329486</v>
       </c>
       <c r="E123" t="n">
-        <v>7805153</v>
+        <v>7784289</v>
       </c>
       <c r="F123" t="n">
-        <v>1046.401294192678</v>
+        <v>841.5253829427301</v>
       </c>
       <c r="G123" t="n">
-        <v>722.5433740570918</v>
+        <v>1016.595349613907</v>
       </c>
       <c r="H123" t="n">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>880558</v>
+        <v>875974</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7377536</v>
+        <v>7384186</v>
       </c>
       <c r="E124" t="n">
-        <v>7377547</v>
+        <v>7384197</v>
       </c>
       <c r="F124" t="n">
-        <v>226.1294368241026</v>
+        <v>284.9839254963319</v>
       </c>
       <c r="G124" t="n">
-        <v>785.6222448698602</v>
+        <v>1072.235180805962</v>
       </c>
       <c r="H124" t="n">
-        <v>1.2</v>
+        <v>0.72</v>
       </c>
       <c r="I124" t="n">
-        <v>316959</v>
+        <v>317132</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6648365</v>
+        <v>6651971</v>
       </c>
       <c r="E125" t="n">
-        <v>6648365</v>
+        <v>6651971</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>518693</v>
+        <v>519420</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6318595</v>
+        <v>6309291</v>
       </c>
       <c r="E126" t="n">
-        <v>23079384</v>
+        <v>23045399</v>
       </c>
       <c r="F126" t="n">
-        <v>7363.314316326084</v>
+        <v>7365.13417247372</v>
       </c>
       <c r="G126" t="n">
-        <v>8010.297231234174</v>
+        <v>8011.934249688222</v>
       </c>
       <c r="H126" t="n">
         <v>0.83</v>
       </c>
       <c r="I126" t="n">
-        <v>530037</v>
+        <v>529591</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45832798</v>
+        <v>45732220</v>
       </c>
       <c r="E127" t="n">
-        <v>45832798</v>
+        <v>45732220</v>
       </c>
       <c r="F127" t="n">
-        <v>61951.80775714129</v>
+        <v>60319.90126460519</v>
       </c>
       <c r="G127" t="n">
-        <v>85548.61375837619</v>
+        <v>75627.33699716497</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7809414</v>
+        <v>7805122</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147475710</v>
+        <v>148350703</v>
       </c>
       <c r="F128" t="n">
-        <v>210.1773724156498</v>
+        <v>14.77957560078826</v>
       </c>
       <c r="G128" t="n">
-        <v>34.27521809971181</v>
+        <v>2718.921067605204</v>
       </c>
       <c r="H128" t="n">
-        <v>2.13</v>
+        <v>1.62</v>
       </c>
       <c r="I128" t="n">
-        <v>650918</v>
+        <v>650826</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2979102</v>
+        <v>2915045</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>71335</v>
+        <v>70742</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20437682</v>
+        <v>20413578</v>
       </c>
       <c r="F130" t="n">
-        <v>329.1050813640975</v>
+        <v>396.4025858404598</v>
       </c>
       <c r="G130" t="n">
-        <v>522.8234045185854</v>
+        <v>522.4535660970037</v>
       </c>
       <c r="H130" t="n">
         <v>0.97</v>
       </c>
       <c r="I130" t="n">
-        <v>2998493</v>
+        <v>2998793</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1243664</v>
+        <v>1287177</v>
       </c>
       <c r="E131" t="n">
-        <v>3757825</v>
+        <v>3889300</v>
       </c>
       <c r="F131" t="n">
-        <v>789.7522141803248</v>
+        <v>732.7443641461216</v>
       </c>
       <c r="G131" t="n">
-        <v>862.7547510261446</v>
+        <v>716.5569603708667</v>
       </c>
       <c r="H131" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="I131" t="n">
-        <v>16645.31</v>
+        <v>27575</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>627282243</v>
+        <v>626310161</v>
       </c>
       <c r="E132" t="n">
-        <v>2429371580</v>
+        <v>2425606848</v>
       </c>
       <c r="F132" t="n">
-        <v>828458.6343606701</v>
+        <v>866525.6548841323</v>
       </c>
       <c r="G132" t="n">
-        <v>1067811.759811718</v>
+        <v>1003507.700939906</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>39031530</v>
+        <v>38845870</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3716086</v>
+        <v>3728946</v>
       </c>
       <c r="E133" t="n">
-        <v>6334572</v>
+        <v>6356495</v>
       </c>
       <c r="F133" t="n">
-        <v>936.1929376847055</v>
+        <v>5489.615509699938</v>
       </c>
       <c r="G133" t="n">
-        <v>184.6307828473365</v>
+        <v>5584.689025465622</v>
       </c>
       <c r="H133" t="n">
-        <v>1.1</v>
+        <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1175408</v>
+        <v>1180260</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116218573</v>
+        <v>116272964</v>
       </c>
       <c r="E134" t="n">
-        <v>1079820224</v>
+        <v>1080325585</v>
       </c>
       <c r="F134" t="n">
-        <v>95437.77303775994</v>
+        <v>78849.21290082346</v>
       </c>
       <c r="G134" t="n">
-        <v>133238.6629554222</v>
+        <v>134621.774976122</v>
       </c>
       <c r="H134" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I134" t="n">
-        <v>9799634</v>
+        <v>9792817</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>974890534</v>
+        <v>974546689</v>
       </c>
       <c r="E135" t="n">
-        <v>1070919923</v>
+        <v>1070542209</v>
       </c>
       <c r="F135" t="n">
-        <v>19590.73646806029</v>
+        <v>15536.64429771002</v>
       </c>
       <c r="G135" t="n">
-        <v>14106.08460526006</v>
+        <v>17186.02526722326</v>
       </c>
       <c r="H135" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="I135" t="n">
-        <v>10176130</v>
+        <v>10105616</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1139252</v>
+        <v>1134301</v>
       </c>
       <c r="E136" t="n">
-        <v>4411434</v>
+        <v>4392260</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>391407</v>
+        <v>397997</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>127811914</v>
+        <v>127831282</v>
       </c>
       <c r="E137" t="n">
-        <v>490307076</v>
+        <v>490381374</v>
       </c>
       <c r="F137" t="n">
-        <v>171058.3357640636</v>
+        <v>160275.9026934718</v>
       </c>
       <c r="G137" t="n">
-        <v>233043.1007795241</v>
+        <v>275803.4770485534</v>
       </c>
       <c r="H137" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I137" t="n">
-        <v>36981206</v>
+        <v>37467231</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3301538</v>
+        <v>3292979</v>
       </c>
       <c r="E138" t="n">
-        <v>31282562</v>
+        <v>31201461</v>
       </c>
       <c r="F138" t="n">
-        <v>4546.663035283566</v>
+        <v>4615.601165538018</v>
       </c>
       <c r="G138" t="n">
-        <v>4903.096253624082</v>
+        <v>4904.503124486093</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="I138" t="n">
-        <v>227057</v>
+        <v>205898</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21832676</v>
+        <v>21784481</v>
       </c>
       <c r="E139" t="n">
-        <v>21832676</v>
+        <v>21784481</v>
       </c>
       <c r="F139" t="n">
-        <v>9395.597995435048</v>
+        <v>9086.045555173741</v>
       </c>
       <c r="G139" t="n">
-        <v>4735.198403718146</v>
+        <v>4953.229238968584</v>
       </c>
       <c r="H139" t="n">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="I139" t="n">
-        <v>593515</v>
+        <v>578695</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495111890</v>
+        <v>494564018</v>
       </c>
       <c r="E140" t="n">
-        <v>495111890</v>
+        <v>494564018</v>
       </c>
       <c r="F140" t="n">
-        <v>935307.388557682</v>
+        <v>935220.2211951187</v>
       </c>
       <c r="G140" t="n">
-        <v>932083.7605158919</v>
+        <v>907567.6842623671</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>33810859</v>
+        <v>33696707</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>33735148</v>
+        <v>33500976</v>
       </c>
       <c r="F141" t="n">
-        <v>46593.24667344412</v>
+        <v>82126.9485235688</v>
       </c>
       <c r="G141" t="n">
-        <v>79239.44220584222</v>
+        <v>86825.64364480109</v>
       </c>
       <c r="H141" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I141" t="n">
-        <v>5390208</v>
+        <v>5386052</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>755122</v>
+        <v>750228</v>
       </c>
       <c r="E142" t="n">
-        <v>12043921</v>
+        <v>11965872</v>
       </c>
       <c r="F142" t="n">
-        <v>1157.520297754822</v>
+        <v>272.5698775418396</v>
       </c>
       <c r="G142" t="n">
-        <v>184.9770029535747</v>
+        <v>156.2835657569493</v>
       </c>
       <c r="H142" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I142" t="n">
-        <v>299778</v>
+        <v>301830</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2723703759</v>
+        <v>2733741248</v>
       </c>
       <c r="E143" t="n">
-        <v>2891864676</v>
+        <v>2902521878</v>
       </c>
       <c r="F143" t="n">
-        <v>7215.469227177187</v>
+        <v>7343.566712062101</v>
       </c>
       <c r="G143" t="n">
-        <v>21886.95229145611</v>
+        <v>24984.09048345178</v>
       </c>
       <c r="H143" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I143" t="n">
-        <v>42244219</v>
+        <v>42126949</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1768609</v>
+        <v>1771264</v>
       </c>
       <c r="E144" t="n">
-        <v>1774851</v>
+        <v>1777516</v>
       </c>
       <c r="F144" t="n">
-        <v>3657.989988089433</v>
+        <v>7281.368536555342</v>
       </c>
       <c r="G144" t="n">
-        <v>1653.401277811969</v>
+        <v>1673.785264701788</v>
       </c>
       <c r="H144" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="I144" t="n">
-        <v>450146</v>
+        <v>448041</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>63424467</v>
+        <v>63296407</v>
       </c>
       <c r="E145" t="n">
-        <v>155575917</v>
+        <v>155261796</v>
       </c>
       <c r="F145" t="n">
-        <v>3340.674461741352</v>
+        <v>3154.429193265988</v>
       </c>
       <c r="G145" t="n">
-        <v>5042.935993432434</v>
+        <v>5374.90056948451</v>
       </c>
       <c r="H145" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="I145" t="n">
-        <v>22714086</v>
+        <v>22768966</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>833608462</v>
+        <v>844222194</v>
       </c>
       <c r="E146" t="n">
-        <v>1285497849</v>
+        <v>1301865161</v>
       </c>
       <c r="F146" t="n">
-        <v>285154.6184422839</v>
+        <v>202221.7424453631</v>
       </c>
       <c r="G146" t="n">
-        <v>316192.1646386229</v>
+        <v>338591.4537304608</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>279434628</v>
+        <v>307938807</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23782283</v>
+        <v>23780368</v>
       </c>
       <c r="E147" t="n">
-        <v>23782283</v>
+        <v>23780368</v>
       </c>
       <c r="F147" t="n">
-        <v>4882.31216422483</v>
+        <v>4725.19102426662</v>
       </c>
       <c r="G147" t="n">
-        <v>8121.440159094564</v>
+        <v>8002.239804330446</v>
       </c>
       <c r="H147" t="n">
         <v>0.61</v>
       </c>
       <c r="I147" t="n">
-        <v>5898614</v>
+        <v>5711126</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3805872</v>
+        <v>3805509</v>
       </c>
       <c r="E148" t="n">
-        <v>8304362</v>
+        <v>8303572</v>
       </c>
       <c r="F148" t="n">
-        <v>6905.305489994152</v>
+        <v>6905.245069941128</v>
       </c>
       <c r="G148" t="n">
-        <v>6938.901153557113</v>
+        <v>6932.808951254201</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>1880719</v>
+        <v>1858615</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9253395</v>
+        <v>9253576</v>
       </c>
       <c r="E149" t="n">
-        <v>9253395</v>
+        <v>9253576</v>
       </c>
       <c r="F149" t="n">
-        <v>256732.0238040341</v>
+        <v>256815.0534973526</v>
       </c>
       <c r="G149" t="n">
-        <v>602371.8651687058</v>
+        <v>604298.5642716462</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>2865077</v>
+        <v>2987468</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>510343475</v>
+        <v>510246437</v>
       </c>
       <c r="E150" t="n">
-        <v>1776463164</v>
+        <v>1776125384</v>
       </c>
       <c r="F150" t="n">
-        <v>809240.1617003126</v>
+        <v>820485.2055489793</v>
       </c>
       <c r="G150" t="n">
-        <v>922112.9476338445</v>
+        <v>922908.5644468231</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>35161511</v>
+        <v>35098676</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49046178</v>
+        <v>49093339</v>
       </c>
       <c r="E151" t="n">
-        <v>120733839</v>
+        <v>120849933</v>
       </c>
       <c r="F151" t="n">
-        <v>9017.548615349913</v>
+        <v>8663.64140492102</v>
       </c>
       <c r="G151" t="n">
-        <v>8023.778762487925</v>
+        <v>7933.774718594303</v>
       </c>
       <c r="H151" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I151" t="n">
-        <v>27959</v>
+        <v>29133</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7492931</v>
+        <v>7481667</v>
       </c>
       <c r="E152" t="n">
-        <v>19465830</v>
+        <v>19436567</v>
       </c>
       <c r="F152" t="n">
-        <v>6317.517986286803</v>
+        <v>6442.074186346071</v>
       </c>
       <c r="G152" t="n">
-        <v>6514.760271298432</v>
+        <v>7112.634060642548</v>
       </c>
       <c r="H152" t="n">
         <v>1.53</v>
       </c>
       <c r="I152" t="n">
-        <v>721653</v>
+        <v>722484</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19151671919</v>
+        <v>19207704422</v>
       </c>
       <c r="F153" t="n">
-        <v>52409.1007811908</v>
+        <v>52407.08546464738</v>
       </c>
       <c r="G153" t="n">
-        <v>49902.65795683055</v>
+        <v>49947.87108491393</v>
       </c>
       <c r="H153" t="n">
         <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>45265431</v>
+        <v>45095280</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2634233</v>
+        <v>2630686</v>
       </c>
       <c r="E154" t="n">
-        <v>10536933</v>
+        <v>10522742</v>
       </c>
       <c r="F154" t="n">
-        <v>23845.77164720937</v>
+        <v>23118.53788890268</v>
       </c>
       <c r="G154" t="n">
-        <v>2488.011655091609</v>
+        <v>2354.56932719887</v>
       </c>
       <c r="H154" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I154" t="n">
-        <v>7008923</v>
+        <v>7013624</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227029445</v>
+        <v>227110853</v>
       </c>
       <c r="E155" t="n">
-        <v>698030107</v>
+        <v>698280405</v>
       </c>
       <c r="F155" t="n">
-        <v>100510.6156508012</v>
+        <v>113638.6312649049</v>
       </c>
       <c r="G155" t="n">
-        <v>173480.7929031444</v>
+        <v>188587.8177542578</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I155" t="n">
-        <v>16899707</v>
+        <v>16893684</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>411065469</v>
+        <v>410929824</v>
       </c>
       <c r="E156" t="n">
-        <v>2348945539</v>
+        <v>2348170421</v>
       </c>
       <c r="F156" t="n">
-        <v>165672.9316992712</v>
+        <v>163654.2207307735</v>
       </c>
       <c r="G156" t="n">
-        <v>224401.8076795898</v>
+        <v>239015.4377833991</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>43096203</v>
+        <v>42915915</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4167318</v>
+        <v>4123946</v>
       </c>
       <c r="F2" t="n">
-        <v>1411.874923424466</v>
+        <v>1735.1447529372</v>
       </c>
       <c r="G2" t="n">
-        <v>756.0775666425726</v>
+        <v>945.6042057750522</v>
       </c>
       <c r="H2" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="I2" t="n">
-        <v>149688</v>
+        <v>153287</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>629997707</v>
+        <v>638658316</v>
       </c>
       <c r="E3" t="n">
-        <v>1222497410</v>
+        <v>1239323467</v>
       </c>
       <c r="F3" t="n">
-        <v>64576.31126913174</v>
+        <v>74238.61735600109</v>
       </c>
       <c r="G3" t="n">
-        <v>87219.76913201754</v>
+        <v>69797.94418239292</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I3" t="n">
-        <v>22787268</v>
+        <v>22500554</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256990816</v>
+        <v>259257928</v>
       </c>
       <c r="E4" t="n">
-        <v>1611553285</v>
+        <v>1625770025</v>
       </c>
       <c r="F4" t="n">
-        <v>331696.0533958731</v>
+        <v>298976.1676364918</v>
       </c>
       <c r="G4" t="n">
-        <v>290060.2182630264</v>
+        <v>230176.4439350658</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>17186979</v>
+        <v>17150852</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152068206</v>
+        <v>154054225</v>
       </c>
       <c r="E5" t="n">
-        <v>168515338</v>
+        <v>170716156</v>
       </c>
       <c r="F5" t="n">
-        <v>8684.50809788538</v>
+        <v>8585.689117295491</v>
       </c>
       <c r="G5" t="n">
-        <v>1624.823386029391</v>
+        <v>13053.12922233797</v>
       </c>
       <c r="H5" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="I5" t="n">
-        <v>40194393</v>
+        <v>42057133</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49916647</v>
+        <v>50714033</v>
       </c>
       <c r="E6" t="n">
-        <v>62444446</v>
+        <v>63441955</v>
       </c>
       <c r="F6" t="n">
-        <v>4121.247366909973</v>
+        <v>3907.296357771843</v>
       </c>
       <c r="G6" t="n">
-        <v>5683.266764275921</v>
+        <v>2742.735738733516</v>
       </c>
       <c r="H6" t="n">
         <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>745311</v>
+        <v>793068</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69219525</v>
+        <v>69155555</v>
       </c>
       <c r="E7" t="n">
-        <v>137861868</v>
+        <v>137734460</v>
       </c>
       <c r="F7" t="n">
-        <v>10374.90246901674</v>
+        <v>10969.75309764359</v>
       </c>
       <c r="G7" t="n">
-        <v>12970.61732590725</v>
+        <v>12370.11796650109</v>
       </c>
       <c r="H7" t="n">
         <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>967836</v>
+        <v>905044</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41796162</v>
+        <v>41658269</v>
       </c>
       <c r="E8" t="n">
-        <v>46775926</v>
+        <v>46621603</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2050.467904040014</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>480.1176129674535</v>
       </c>
       <c r="H8" t="n">
-        <v>7.4</v>
+        <v>1.12</v>
       </c>
       <c r="I8" t="n">
-        <v>3915952</v>
+        <v>4383709</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14215082</v>
+        <v>14253986</v>
       </c>
       <c r="E9" t="n">
-        <v>41890929</v>
+        <v>42005576</v>
       </c>
       <c r="F9" t="n">
-        <v>4979.65556023412</v>
+        <v>5285.075358969183</v>
       </c>
       <c r="G9" t="n">
-        <v>4807.371209328413</v>
+        <v>4870.511727898128</v>
       </c>
       <c r="H9" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="I9" t="n">
-        <v>900616</v>
+        <v>918286</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10440316</v>
+        <v>10732386</v>
       </c>
       <c r="E10" t="n">
-        <v>44874355</v>
+        <v>46129724</v>
       </c>
       <c r="F10" t="n">
-        <v>1810.197359130867</v>
+        <v>3897.034445592839</v>
       </c>
       <c r="G10" t="n">
-        <v>2700.677521701486</v>
+        <v>1301.233088636463</v>
       </c>
       <c r="H10" t="n">
-        <v>0.54</v>
+        <v>1.32</v>
       </c>
       <c r="I10" t="n">
-        <v>856229</v>
+        <v>823111</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>592879186</v>
+        <v>598868079</v>
       </c>
       <c r="E11" t="n">
-        <v>741603744</v>
+        <v>749094959</v>
       </c>
       <c r="F11" t="n">
-        <v>351394.9383236336</v>
+        <v>353919.5093433488</v>
       </c>
       <c r="G11" t="n">
-        <v>322636.8942053039</v>
+        <v>330822.1936806779</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>56117553</v>
+        <v>56823233</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4651115</v>
+        <v>4582947</v>
       </c>
       <c r="E12" t="n">
-        <v>28565551</v>
+        <v>28146081</v>
       </c>
       <c r="F12" t="n">
-        <v>11012.51844730612</v>
+        <v>11487.45853597373</v>
       </c>
       <c r="G12" t="n">
-        <v>10070.60798327964</v>
+        <v>10128.4885903874</v>
       </c>
       <c r="H12" t="n">
         <v>0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>634673</v>
+        <v>698664</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23099960</v>
+        <v>23133618</v>
       </c>
       <c r="E13" t="n">
-        <v>23142850</v>
+        <v>23176523</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>835892</v>
+        <v>821048</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82106110</v>
+        <v>82349270</v>
       </c>
       <c r="E14" t="n">
-        <v>241566359</v>
+        <v>242281766</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>361147</v>
+        <v>348897</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>482102887</v>
+        <v>499597304</v>
       </c>
       <c r="E15" t="n">
-        <v>482102889</v>
+        <v>499597306</v>
       </c>
       <c r="F15" t="n">
-        <v>14578.61806421017</v>
+        <v>23727.55947219813</v>
       </c>
       <c r="G15" t="n">
-        <v>21159.60968896745</v>
+        <v>23237.46168263205</v>
       </c>
       <c r="H15" t="n">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>63567324</v>
+        <v>60997899</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4760092</v>
+        <v>4756569</v>
       </c>
       <c r="E16" t="n">
-        <v>4760092</v>
+        <v>4756569</v>
       </c>
       <c r="F16" t="n">
-        <v>226.7014711715954</v>
+        <v>392.5347896094694</v>
       </c>
       <c r="G16" t="n">
-        <v>1194.477054354</v>
+        <v>1534.327817526405</v>
       </c>
       <c r="H16" t="n">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="I16" t="n">
-        <v>2047584</v>
+        <v>2078635</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3391022</v>
+        <v>3387063</v>
       </c>
       <c r="E17" t="n">
-        <v>3391022</v>
+        <v>3387063</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>544433</v>
+        <v>505986</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>172315788</v>
+        <v>171064049</v>
       </c>
       <c r="E18" t="n">
-        <v>213334121</v>
+        <v>211784417</v>
       </c>
       <c r="F18" t="n">
-        <v>8753.314173931834</v>
+        <v>8131.484778885455</v>
       </c>
       <c r="G18" t="n">
-        <v>9942.87494206305</v>
+        <v>8690.081508851703</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>593904</v>
+        <v>598049</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6952350</v>
+        <v>6827895</v>
       </c>
       <c r="E19" t="n">
-        <v>9575162</v>
+        <v>9403756</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>344152</v>
+        <v>329590</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>912788</v>
+        <v>892415</v>
       </c>
       <c r="E20" t="n">
-        <v>6389514</v>
+        <v>6246907</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>216734</v>
+        <v>251300</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115628010</v>
+        <v>115971574</v>
       </c>
       <c r="E21" t="n">
-        <v>449725182</v>
+        <v>451024531</v>
       </c>
       <c r="F21" t="n">
-        <v>68265.16121757992</v>
+        <v>45190.3414518543</v>
       </c>
       <c r="G21" t="n">
-        <v>108371.8228213361</v>
+        <v>76307.83515521768</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>10994430</v>
+        <v>11233925</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1719390</v>
+        <v>1720141</v>
       </c>
       <c r="E22" t="n">
-        <v>12384618</v>
+        <v>12390030</v>
       </c>
       <c r="F22" t="n">
-        <v>5208.137699585368</v>
+        <v>6242.667346852221</v>
       </c>
       <c r="G22" t="n">
-        <v>5610.524710634636</v>
+        <v>4555.931612482101</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>44749</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>145535230</v>
+        <v>148024507</v>
       </c>
       <c r="E23" t="n">
-        <v>145535230</v>
+        <v>148024507</v>
       </c>
       <c r="F23" t="n">
-        <v>1108993.007711625</v>
+        <v>949604.2508242377</v>
       </c>
       <c r="G23" t="n">
-        <v>1166086.038702797</v>
+        <v>1326343.753036359</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>74922236</v>
+        <v>75720412</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69088134</v>
+        <v>69488738</v>
       </c>
       <c r="E24" t="n">
-        <v>354298123</v>
+        <v>356352501</v>
       </c>
       <c r="F24" t="n">
-        <v>78156.51669997194</v>
+        <v>86327.7223625608</v>
       </c>
       <c r="G24" t="n">
-        <v>183369.879835808</v>
+        <v>161274.796695969</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>25536694</v>
+        <v>24825335</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>268750812</v>
+        <v>274493167</v>
       </c>
       <c r="E25" t="n">
-        <v>268750812</v>
+        <v>274493167</v>
       </c>
       <c r="F25" t="n">
-        <v>370001.8136442264</v>
+        <v>333268.9845366587</v>
       </c>
       <c r="G25" t="n">
-        <v>478627.5807938424</v>
+        <v>515903.4575233015</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>15384487</v>
+        <v>15634892</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1130466</v>
+        <v>1130787</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>163662</v>
+        <v>156118</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4057375</v>
+        <v>4045875</v>
       </c>
       <c r="E28" t="n">
-        <v>4058388</v>
+        <v>4046843</v>
       </c>
       <c r="F28" t="n">
-        <v>2471.914023060781</v>
+        <v>671.5599492640966</v>
       </c>
       <c r="G28" t="n">
-        <v>3150.078087967283</v>
+        <v>3066.890464770318</v>
       </c>
       <c r="H28" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I28" t="n">
-        <v>253600</v>
+        <v>255738</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6659231</v>
+        <v>6610853</v>
       </c>
       <c r="E29" t="n">
-        <v>16174759</v>
+        <v>16057252</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>484752</v>
+        <v>476433</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101107192</v>
+        <v>101764449</v>
       </c>
       <c r="E30" t="n">
-        <v>126068816</v>
+        <v>126888338</v>
       </c>
       <c r="F30" t="n">
-        <v>124693.2340337394</v>
+        <v>112490.9637775733</v>
       </c>
       <c r="G30" t="n">
-        <v>100897.5932471666</v>
+        <v>110279.4952055539</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10445855</v>
+        <v>10462310</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1173251</v>
+        <v>1155577</v>
       </c>
       <c r="E31" t="n">
-        <v>12750453</v>
+        <v>12558381</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>30122</v>
+        <v>17837.36</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84468064</v>
+        <v>89009550</v>
       </c>
       <c r="E32" t="n">
-        <v>236300462</v>
+        <v>248981623</v>
       </c>
       <c r="F32" t="n">
-        <v>41845.81097203937</v>
+        <v>36863.41322248783</v>
       </c>
       <c r="G32" t="n">
-        <v>70456.62695008554</v>
+        <v>60798.51793012601</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>52149672</v>
+        <v>52828738</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4315154</v>
+        <v>4320346</v>
       </c>
       <c r="E33" t="n">
-        <v>8509847</v>
+        <v>8520085</v>
       </c>
       <c r="F33" t="n">
-        <v>8537.299186949114</v>
+        <v>7289.120750164289</v>
       </c>
       <c r="G33" t="n">
-        <v>8772.206184327977</v>
+        <v>8097.272845095534</v>
       </c>
       <c r="H33" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="I33" t="n">
-        <v>1640910</v>
+        <v>1645537</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35726194</v>
+        <v>35073853</v>
       </c>
       <c r="F34" t="n">
-        <v>204.7025575759996</v>
+        <v>180.396185316553</v>
       </c>
       <c r="G34" t="n">
-        <v>54.72263215351633</v>
+        <v>75.00575849022738</v>
       </c>
       <c r="H34" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="I34" t="n">
-        <v>62951</v>
+        <v>57716</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7705448</v>
+        <v>17266741</v>
       </c>
       <c r="E35" t="n">
-        <v>18147862</v>
+        <v>18198740</v>
       </c>
       <c r="F35" t="n">
-        <v>3457.979106232893</v>
+        <v>3461.185586603809</v>
       </c>
       <c r="G35" t="n">
-        <v>2653.778587661756</v>
+        <v>2654.35856884621</v>
       </c>
       <c r="H35" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="I35" t="n">
-        <v>33630</v>
+        <v>33981</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>22987509</v>
+        <v>23087154</v>
       </c>
       <c r="F36" t="n">
-        <v>5099.101835305247</v>
+        <v>5104.169486595959</v>
       </c>
       <c r="G36" t="n">
-        <v>5554.440804485002</v>
+        <v>5555.073394026118</v>
       </c>
       <c r="H36" t="n">
-        <v>1.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>124545</v>
+        <v>125719</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>79317069</v>
+        <v>82595380</v>
       </c>
       <c r="E37" t="n">
-        <v>165416368</v>
+        <v>172204733</v>
       </c>
       <c r="F37" t="n">
-        <v>95215.42450727381</v>
+        <v>93122.02955501387</v>
       </c>
       <c r="G37" t="n">
-        <v>118322.3639594911</v>
+        <v>88397.15941984831</v>
       </c>
       <c r="H37" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="I37" t="n">
-        <v>20416781</v>
+        <v>22284451</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>284077440</v>
+        <v>285743642</v>
       </c>
       <c r="E38" t="n">
-        <v>284077440</v>
+        <v>285743642</v>
       </c>
       <c r="F38" t="n">
-        <v>26888.17492888946</v>
+        <v>29659.14545696572</v>
       </c>
       <c r="G38" t="n">
-        <v>39423.41851218249</v>
+        <v>32998.67423460122</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I38" t="n">
-        <v>9833806</v>
+        <v>9706020</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>214478879</v>
+        <v>211287856</v>
       </c>
       <c r="E39" t="n">
-        <v>745119009</v>
+        <v>734033107</v>
       </c>
       <c r="F39" t="n">
-        <v>170583.9913507766</v>
+        <v>210749.0204022439</v>
       </c>
       <c r="G39" t="n">
-        <v>372603.7531179461</v>
+        <v>360375.9517859382</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>30644194</v>
+        <v>33537112</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3738831</v>
+        <v>3605547</v>
       </c>
       <c r="E40" t="n">
-        <v>3738831</v>
+        <v>3605547</v>
       </c>
       <c r="F40" t="n">
-        <v>6657.644810531416</v>
+        <v>6159.619998806363</v>
       </c>
       <c r="G40" t="n">
-        <v>873.3955156103801</v>
+        <v>1821.112160022369</v>
       </c>
       <c r="H40" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2529188</v>
+        <v>2506622</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>120450096</v>
+        <v>121251197</v>
       </c>
       <c r="E41" t="n">
-        <v>511460760</v>
+        <v>514779311</v>
       </c>
       <c r="F41" t="n">
-        <v>5631.224150583402</v>
+        <v>5538.391321722399</v>
       </c>
       <c r="G41" t="n">
-        <v>6370.175471339287</v>
+        <v>6182.819911062209</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I41" t="n">
-        <v>14508394</v>
+        <v>14443742</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>567754</v>
+        <v>567808</v>
       </c>
       <c r="E42" t="n">
-        <v>6886306</v>
+        <v>6886952</v>
       </c>
       <c r="F42" t="n">
-        <v>695.7666892873506</v>
+        <v>703.8554253520227</v>
       </c>
       <c r="G42" t="n">
-        <v>1151.838178854828</v>
+        <v>1731.563430449623</v>
       </c>
       <c r="H42" t="n">
         <v>0.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2793553</v>
+        <v>2742937</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1361161562</v>
+        <v>1441881884</v>
       </c>
       <c r="E43" t="n">
-        <v>6527048448</v>
+        <v>6914118924</v>
       </c>
       <c r="F43" t="n">
-        <v>74237.77092996388</v>
+        <v>28097.00941454346</v>
       </c>
       <c r="G43" t="n">
-        <v>93354.22329734956</v>
+        <v>39089.89969798739</v>
       </c>
       <c r="H43" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I43" t="n">
-        <v>206671782</v>
+        <v>233226334</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6050295002</v>
+        <v>6053475985</v>
       </c>
       <c r="E44" t="n">
-        <v>6050295002</v>
+        <v>6053475983</v>
       </c>
       <c r="F44" t="n">
-        <v>943099.1830007659</v>
+        <v>935610.6134440412</v>
       </c>
       <c r="G44" t="n">
-        <v>1651297.266610045</v>
+        <v>1659399.401310947</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>82645210</v>
+        <v>85102565</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>279867683</v>
+        <v>286029805</v>
       </c>
       <c r="E45" t="n">
-        <v>1208064288</v>
+        <v>1234663424</v>
       </c>
       <c r="F45" t="n">
-        <v>112461.9251089462</v>
+        <v>112886.1352615744</v>
       </c>
       <c r="G45" t="n">
-        <v>91364.63698189601</v>
+        <v>91849.1576786057</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>110751575</v>
+        <v>111133679</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>117061357</v>
+        <v>117574785</v>
       </c>
       <c r="E46" t="n">
-        <v>117061357</v>
+        <v>117574785</v>
       </c>
       <c r="F46" t="n">
-        <v>29404.77966973251</v>
+        <v>38604.76979110232</v>
       </c>
       <c r="G46" t="n">
-        <v>34439.10027710581</v>
+        <v>32948.53211905649</v>
       </c>
       <c r="H46" t="n">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="I46" t="n">
-        <v>6318093</v>
+        <v>6314127</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2007822808</v>
+        <v>2004471787</v>
       </c>
       <c r="E47" t="n">
-        <v>2007822808</v>
+        <v>2004471787</v>
       </c>
       <c r="F47" t="n">
-        <v>225965.297059173</v>
+        <v>225957.6417989509</v>
       </c>
       <c r="G47" t="n">
-        <v>199255.6561382973</v>
+        <v>199263.980478663</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>7635411811</v>
+        <v>7748229506</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10376510</v>
+        <v>10331491</v>
       </c>
       <c r="F48" t="n">
-        <v>6226.070304036355</v>
+        <v>6440.538573476018</v>
       </c>
       <c r="G48" t="n">
-        <v>5946.72584869865</v>
+        <v>6976.696939126155</v>
       </c>
       <c r="H48" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>153073</v>
+        <v>161772</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4448522</v>
+        <v>4477059</v>
       </c>
       <c r="E49" t="n">
-        <v>5840329</v>
+        <v>5877795</v>
       </c>
       <c r="F49" t="n">
-        <v>8895.31626500482</v>
+        <v>10259.35677841158</v>
       </c>
       <c r="G49" t="n">
-        <v>14397.52863468867</v>
+        <v>14721.87036188901</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>647800</v>
+        <v>657453</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12632127</v>
+        <v>12625187</v>
       </c>
       <c r="E50" t="n">
-        <v>18575304</v>
+        <v>18565099</v>
       </c>
       <c r="F50" t="n">
-        <v>6860.893613215948</v>
+        <v>6808.768929044099</v>
       </c>
       <c r="G50" t="n">
-        <v>6864.978831643883</v>
+        <v>9777.053704652417</v>
       </c>
       <c r="H50" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I50" t="n">
-        <v>3482448</v>
+        <v>3542069</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23358041</v>
+        <v>23363160</v>
       </c>
       <c r="E51" t="n">
-        <v>30300722</v>
+        <v>30307362</v>
       </c>
       <c r="F51" t="n">
-        <v>9146.193571251817</v>
+        <v>9175.000538575438</v>
       </c>
       <c r="G51" t="n">
-        <v>8227.014213232747</v>
+        <v>12112.17985140076</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>164589</v>
+        <v>163249</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14654901</v>
+        <v>14721599</v>
       </c>
       <c r="E52" t="n">
-        <v>14654901</v>
+        <v>14721599</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5116541</v>
+        <v>5325157</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99301784</v>
+        <v>99582806</v>
       </c>
       <c r="E53" t="n">
-        <v>122832752</v>
+        <v>123180366</v>
       </c>
       <c r="F53" t="n">
-        <v>861.8722495944929</v>
+        <v>613.0864714608028</v>
       </c>
       <c r="G53" t="n">
-        <v>1465.08767491819</v>
+        <v>4384.777121634025</v>
       </c>
       <c r="H53" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="I53" t="n">
-        <v>854997</v>
+        <v>845078</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5115884</v>
+        <v>5132237</v>
       </c>
       <c r="E54" t="n">
-        <v>7157863</v>
+        <v>7180743</v>
       </c>
       <c r="F54" t="n">
-        <v>527.4748917862737</v>
+        <v>74.26761229399277</v>
       </c>
       <c r="G54" t="n">
-        <v>294.3295964952114</v>
+        <v>10.00125487981701</v>
       </c>
       <c r="H54" t="n">
-        <v>2.62</v>
+        <v>3.12</v>
       </c>
       <c r="I54" t="n">
-        <v>81521</v>
+        <v>68065</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15653966</v>
+        <v>16217664</v>
       </c>
       <c r="E55" t="n">
-        <v>75814654</v>
+        <v>78544736</v>
       </c>
       <c r="F55" t="n">
-        <v>24094.05550052375</v>
+        <v>38257.96064141504</v>
       </c>
       <c r="G55" t="n">
-        <v>35005.70035477078</v>
+        <v>33437.97233350858</v>
       </c>
       <c r="H55" t="n">
-        <v>0.75</v>
+        <v>1.01</v>
       </c>
       <c r="I55" t="n">
-        <v>4247622</v>
+        <v>4293465</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60511</v>
+        <v>60512</v>
       </c>
       <c r="E56" t="n">
-        <v>144936</v>
+        <v>144940</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2735.71</v>
+        <v>2861.52</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1927626850</v>
+        <v>1922121709</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>28297429</v>
+        <v>27890350</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12289353</v>
+        <v>12412034</v>
       </c>
       <c r="E58" t="n">
-        <v>17817789</v>
+        <v>17995658</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2089865</v>
+        <v>2078781</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123675983</v>
+        <v>123187363</v>
       </c>
       <c r="E59" t="n">
-        <v>328907612</v>
+        <v>327608162</v>
       </c>
       <c r="F59" t="n">
-        <v>8237.957012341558</v>
+        <v>8113.663207594856</v>
       </c>
       <c r="G59" t="n">
-        <v>7138.34698759616</v>
+        <v>7191.047336693156</v>
       </c>
       <c r="H59" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I59" t="n">
-        <v>479156</v>
+        <v>780695</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31975344</v>
+        <v>32210686</v>
       </c>
       <c r="E60" t="n">
-        <v>99560960</v>
+        <v>100293740</v>
       </c>
       <c r="F60" t="n">
-        <v>2212.834805491168</v>
+        <v>1295.126229574138</v>
       </c>
       <c r="G60" t="n">
-        <v>5210.322546052698</v>
+        <v>6983.103375950167</v>
       </c>
       <c r="H60" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I60" t="n">
-        <v>10273969</v>
+        <v>9919711</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1992404</v>
+        <v>1977987</v>
       </c>
       <c r="E61" t="n">
-        <v>14287333</v>
+        <v>14183945</v>
       </c>
       <c r="F61" t="n">
-        <v>2903.846696923981</v>
+        <v>2752.441093770671</v>
       </c>
       <c r="G61" t="n">
-        <v>5115.995268397348</v>
+        <v>5662.134828674241</v>
       </c>
       <c r="H61" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="I61" t="n">
-        <v>2012556</v>
+        <v>2075410</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>208207962</v>
+        <v>211809734</v>
       </c>
       <c r="E62" t="n">
-        <v>1179001413</v>
+        <v>1199396862</v>
       </c>
       <c r="F62" t="n">
-        <v>547490.3279909244</v>
+        <v>746621.5555616318</v>
       </c>
       <c r="G62" t="n">
-        <v>853873.2121365388</v>
+        <v>739986.0938990709</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>69046793</v>
+        <v>67019447</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>500414</v>
+        <v>499446</v>
       </c>
       <c r="E63" t="n">
-        <v>1684322</v>
+        <v>1681066</v>
       </c>
       <c r="F63" t="n">
-        <v>4556.23803382022</v>
+        <v>4451.253808117234</v>
       </c>
       <c r="G63" t="n">
-        <v>373.6979028325589</v>
+        <v>368.8141461134235</v>
       </c>
       <c r="H63" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>627636</v>
+        <v>625651</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>344344</v>
+        <v>350579</v>
       </c>
       <c r="E64" t="n">
-        <v>344344</v>
+        <v>350579</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4155.49</v>
+        <v>3051.77</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>145660257</v>
+        <v>146956199</v>
       </c>
       <c r="E65" t="n">
-        <v>1078964866</v>
+        <v>1088564436</v>
       </c>
       <c r="F65" t="n">
-        <v>39034.38580593618</v>
+        <v>34634.62442008715</v>
       </c>
       <c r="G65" t="n">
-        <v>35535.32282688578</v>
+        <v>41384.24888545174</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I65" t="n">
-        <v>8482665</v>
+        <v>8358597</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8325387</v>
+        <v>8292209</v>
       </c>
       <c r="E66" t="n">
-        <v>11153242</v>
+        <v>11108796</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>65457</v>
+        <v>65128</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26694591</v>
+        <v>26569037</v>
       </c>
       <c r="E67" t="n">
-        <v>26694591</v>
+        <v>26569037</v>
       </c>
       <c r="F67" t="n">
-        <v>6963.473633718792</v>
+        <v>9346.514435185549</v>
       </c>
       <c r="G67" t="n">
-        <v>11690.93469197789</v>
+        <v>11394.47165549013</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="I67" t="n">
-        <v>327013</v>
+        <v>323735</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1586113</v>
+        <v>1587220</v>
       </c>
       <c r="E68" t="n">
-        <v>12317931</v>
+        <v>12326533</v>
       </c>
       <c r="F68" t="n">
-        <v>17506.83546389905</v>
+        <v>12971.99498392544</v>
       </c>
       <c r="G68" t="n">
-        <v>19699.00106416727</v>
+        <v>24439.88934194238</v>
       </c>
       <c r="H68" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="I68" t="n">
-        <v>529056</v>
+        <v>515333</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>349585034</v>
+        <v>349325105</v>
       </c>
       <c r="E69" t="n">
-        <v>3145083732</v>
+        <v>3142745251</v>
       </c>
       <c r="F69" t="n">
-        <v>1070193.046373872</v>
+        <v>1298986.951506156</v>
       </c>
       <c r="G69" t="n">
-        <v>1936148.20744282</v>
+        <v>1825785.096964941</v>
       </c>
       <c r="H69" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>46334958</v>
+        <v>43926455</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246194</v>
+        <v>247883</v>
       </c>
       <c r="E70" t="n">
-        <v>2172843</v>
+        <v>2187755</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>89176</v>
+        <v>87419</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1573097</v>
+        <v>1572715</v>
       </c>
       <c r="E71" t="n">
-        <v>13109143</v>
+        <v>13105959</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>25276</v>
+        <v>21711</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9412449</v>
+        <v>9457307</v>
       </c>
       <c r="E72" t="n">
-        <v>43627244</v>
+        <v>43835162</v>
       </c>
       <c r="F72" t="n">
-        <v>5130.173230934145</v>
+        <v>7850.602800186944</v>
       </c>
       <c r="G72" t="n">
-        <v>11065.93761130897</v>
+        <v>9005.533016411962</v>
       </c>
       <c r="H72" t="n">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="I72" t="n">
-        <v>117007</v>
+        <v>95698</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50727813</v>
+        <v>50366070</v>
       </c>
       <c r="E73" t="n">
-        <v>293693078</v>
+        <v>291598733</v>
       </c>
       <c r="F73" t="n">
-        <v>105425.5810624151</v>
+        <v>100889.037447925</v>
       </c>
       <c r="G73" t="n">
-        <v>201774.2890076916</v>
+        <v>194499.6054072298</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>39383609</v>
+        <v>41404975</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39579852</v>
+        <v>39621973</v>
       </c>
       <c r="E74" t="n">
-        <v>54665412</v>
+        <v>54723586</v>
       </c>
       <c r="F74" t="n">
-        <v>577.1710481352288</v>
+        <v>10641.0168785826</v>
       </c>
       <c r="G74" t="n">
-        <v>570.7343003956905</v>
+        <v>4428.145893644475</v>
       </c>
       <c r="H74" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>290995</v>
+        <v>340439</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99750</v>
+        <v>100909</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>367.55</v>
+        <v>273.62</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14194961</v>
+        <v>14165058</v>
       </c>
       <c r="E76" t="n">
-        <v>14243268</v>
+        <v>14213263</v>
       </c>
       <c r="F76" t="n">
-        <v>4430.464575931943</v>
+        <v>2098.258033808084</v>
       </c>
       <c r="G76" t="n">
-        <v>4315.451689266785</v>
+        <v>3197.185665203582</v>
       </c>
       <c r="H76" t="n">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
       <c r="I76" t="n">
-        <v>5732776</v>
+        <v>6477748</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43462649</v>
+        <v>43447561</v>
       </c>
       <c r="E77" t="n">
-        <v>73789467</v>
+        <v>73763851</v>
       </c>
       <c r="F77" t="n">
-        <v>9891.729497188991</v>
+        <v>9911.233911594702</v>
       </c>
       <c r="G77" t="n">
-        <v>3210.104332872346</v>
+        <v>4197.943225999193</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1069979</v>
+        <v>1061471</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22685608</v>
+        <v>23101669</v>
       </c>
       <c r="E78" t="n">
-        <v>68002267</v>
+        <v>69249451</v>
       </c>
       <c r="F78" t="n">
-        <v>145658.8044840536</v>
+        <v>96972.82634880282</v>
       </c>
       <c r="G78" t="n">
-        <v>146984.8322595915</v>
+        <v>162453.8600502741</v>
       </c>
       <c r="H78" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I78" t="n">
-        <v>3564622</v>
+        <v>3607668</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104416616</v>
+        <v>102893205</v>
       </c>
       <c r="E79" t="n">
-        <v>111004299</v>
+        <v>109384776</v>
       </c>
       <c r="F79" t="n">
-        <v>2316.772787618107</v>
+        <v>2485.067788950753</v>
       </c>
       <c r="G79" t="n">
-        <v>4461.494389990185</v>
+        <v>5044.167841565425</v>
       </c>
       <c r="H79" t="n">
-        <v>1.22</v>
+        <v>0.76</v>
       </c>
       <c r="I79" t="n">
-        <v>617733</v>
+        <v>447905</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10215042</v>
+        <v>10378031</v>
       </c>
       <c r="E80" t="n">
-        <v>44956310</v>
+        <v>45107712</v>
       </c>
       <c r="F80" t="n">
-        <v>6265.690679616911</v>
+        <v>6462.780303317992</v>
       </c>
       <c r="G80" t="n">
-        <v>5685.482275478204</v>
+        <v>5474.97452734129</v>
       </c>
       <c r="H80" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>113298</v>
+        <v>110917</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15953705</v>
+        <v>16000676</v>
       </c>
       <c r="E81" t="n">
-        <v>97785506</v>
+        <v>98073405</v>
       </c>
       <c r="F81" t="n">
-        <v>4196.282086567399</v>
+        <v>4124.75407466089</v>
       </c>
       <c r="G81" t="n">
-        <v>6413.103387538859</v>
+        <v>6408.2374209552</v>
       </c>
       <c r="H81" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>10841211</v>
+        <v>10811453</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1520989</v>
+        <v>1521289</v>
       </c>
       <c r="E82" t="n">
-        <v>1563773</v>
+        <v>1564081</v>
       </c>
       <c r="F82" t="n">
-        <v>6803.184700324976</v>
+        <v>6525.961427826717</v>
       </c>
       <c r="G82" t="n">
-        <v>5700.502678020617</v>
+        <v>6143.57882470298</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>148552</v>
+        <v>150417</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50543744</v>
+        <v>51258586</v>
       </c>
       <c r="E83" t="n">
-        <v>217736924</v>
+        <v>220816384</v>
       </c>
       <c r="F83" t="n">
-        <v>2926.19410927959</v>
+        <v>3545.88866233508</v>
       </c>
       <c r="G83" t="n">
-        <v>5109.939432555328</v>
+        <v>4854.68946528525</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
       <c r="I83" t="n">
-        <v>10368973</v>
+        <v>10172317</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2397212</v>
+        <v>2172577</v>
       </c>
       <c r="E84" t="n">
-        <v>8703809</v>
+        <v>7887931</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>201080</v>
+        <v>196440</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9100469</v>
+        <v>9174852</v>
       </c>
       <c r="E85" t="n">
-        <v>20201767</v>
+        <v>20366889</v>
       </c>
       <c r="F85" t="n">
-        <v>6271.54783843505</v>
+        <v>6303.053710268077</v>
       </c>
       <c r="G85" t="n">
-        <v>6002.461465248246</v>
+        <v>7246.990765599658</v>
       </c>
       <c r="H85" t="n">
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="I85" t="n">
-        <v>322510</v>
+        <v>320394</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2442239</v>
+        <v>2443789</v>
       </c>
       <c r="E86" t="n">
-        <v>18377223</v>
+        <v>18388882</v>
       </c>
       <c r="F86" t="n">
-        <v>4969.787016011819</v>
+        <v>4887.951791216255</v>
       </c>
       <c r="G86" t="n">
-        <v>12015.64466768434</v>
+        <v>12179.30504502009</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163825</v>
+        <v>161666</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20458883</v>
+        <v>20500395</v>
       </c>
       <c r="E87" t="n">
-        <v>81835531</v>
+        <v>82001579</v>
       </c>
       <c r="F87" t="n">
-        <v>24947.61603230099</v>
+        <v>26739.21470912889</v>
       </c>
       <c r="G87" t="n">
-        <v>853.4564751991503</v>
+        <v>789.6118731627759</v>
       </c>
       <c r="H87" t="n">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="I87" t="n">
-        <v>2487128</v>
+        <v>2445312</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4832669</v>
+        <v>4893061</v>
       </c>
       <c r="E88" t="n">
-        <v>4832669</v>
+        <v>4893061</v>
       </c>
       <c r="F88" t="n">
-        <v>1051.701396927566</v>
+        <v>447.2339613671246</v>
       </c>
       <c r="G88" t="n">
-        <v>975.9616384645064</v>
+        <v>455.8824130041669</v>
       </c>
       <c r="H88" t="n">
-        <v>0.97</v>
+        <v>0.14</v>
       </c>
       <c r="I88" t="n">
-        <v>3029699</v>
+        <v>2980517</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12712431</v>
+        <v>12675279</v>
       </c>
       <c r="E89" t="n">
-        <v>40211812</v>
+        <v>40093217</v>
       </c>
       <c r="F89" t="n">
-        <v>12861.58702031641</v>
+        <v>13003.22949040113</v>
       </c>
       <c r="G89" t="n">
-        <v>10781.18581698728</v>
+        <v>16649.10273782543</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>960366</v>
+        <v>965229</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24921</v>
+        <v>24949</v>
       </c>
       <c r="E90" t="n">
-        <v>195998</v>
+        <v>196216</v>
       </c>
       <c r="F90" t="n">
-        <v>2290.999976672558</v>
+        <v>302.8301611655056</v>
       </c>
       <c r="G90" t="n">
-        <v>339.7359236689787</v>
+        <v>566.3160452531815</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>52588</v>
+        <v>51096</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8517511</v>
+        <v>8881209</v>
       </c>
       <c r="E91" t="n">
-        <v>8517511</v>
+        <v>8881209</v>
       </c>
       <c r="F91" t="n">
-        <v>3844.768926202501</v>
+        <v>3226.896392972111</v>
       </c>
       <c r="G91" t="n">
-        <v>4271.43709935422</v>
+        <v>3533.036708643203</v>
       </c>
       <c r="H91" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="I91" t="n">
-        <v>3762559</v>
+        <v>3845805</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9532494</v>
+        <v>10197179</v>
       </c>
       <c r="E92" t="n">
-        <v>9532494</v>
+        <v>10197179</v>
       </c>
       <c r="F92" t="n">
-        <v>7657.564510566915</v>
+        <v>4746.835391616012</v>
       </c>
       <c r="G92" t="n">
-        <v>6702.075728961868</v>
+        <v>1857.441172593068</v>
       </c>
       <c r="H92" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I92" t="n">
-        <v>2927128</v>
+        <v>2898106</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37784998</v>
+        <v>38149904</v>
       </c>
       <c r="E93" t="n">
-        <v>95275625</v>
+        <v>96195744</v>
       </c>
       <c r="F93" t="n">
-        <v>5676.657811435268</v>
+        <v>5348.728898457595</v>
       </c>
       <c r="G93" t="n">
-        <v>5672.7852138611</v>
+        <v>6108.003584942377</v>
       </c>
       <c r="H93" t="n">
-        <v>0.84</v>
+        <v>0.21</v>
       </c>
       <c r="I93" t="n">
-        <v>3536072</v>
+        <v>3598691</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>319342590</v>
+        <v>324617962</v>
       </c>
       <c r="E94" t="n">
-        <v>324334208</v>
+        <v>329694192</v>
       </c>
       <c r="F94" t="n">
-        <v>4469.659151795499</v>
+        <v>2498.47879549383</v>
       </c>
       <c r="G94" t="n">
-        <v>6522.421807265765</v>
+        <v>6169.871687410162</v>
       </c>
       <c r="H94" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I94" t="n">
-        <v>18229121</v>
+        <v>19143399</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6065.657860650851</v>
+        <v>5919.0603019169</v>
       </c>
       <c r="G95" t="n">
-        <v>1337.945803241907</v>
+        <v>4006.609971574762</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>218453</v>
+        <v>217995</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>89879463</v>
+        <v>91845807</v>
       </c>
       <c r="E96" t="n">
-        <v>89879463</v>
+        <v>91845807</v>
       </c>
       <c r="F96" t="n">
-        <v>9841.269180254891</v>
+        <v>7636.598246817249</v>
       </c>
       <c r="G96" t="n">
-        <v>5554.532858565554</v>
+        <v>7702.294292203865</v>
       </c>
       <c r="H96" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="I96" t="n">
-        <v>5732490</v>
+        <v>5317928</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="E97" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="F97" t="n">
-        <v>365659.6677440015</v>
+        <v>326425.037882595</v>
       </c>
       <c r="G97" t="n">
-        <v>459510.8067748552</v>
+        <v>416141.1633503512</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>71595601</v>
+        <v>72308323</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4339598</v>
+        <v>4334391</v>
       </c>
       <c r="E98" t="n">
-        <v>29652171</v>
+        <v>29616588</v>
       </c>
       <c r="F98" t="n">
-        <v>27452.55543715226</v>
+        <v>348.8003644393644</v>
       </c>
       <c r="G98" t="n">
-        <v>28403.37334583798</v>
+        <v>2302.366221509698</v>
       </c>
       <c r="H98" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2612874</v>
+        <v>2539920</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93390082</v>
+        <v>94360954</v>
       </c>
       <c r="E99" t="n">
-        <v>538153936</v>
+        <v>543748516</v>
       </c>
       <c r="F99" t="n">
-        <v>136282.1435543737</v>
+        <v>144822.0110596523</v>
       </c>
       <c r="G99" t="n">
-        <v>150449.5238477869</v>
+        <v>137694.3043190787</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I99" t="n">
-        <v>18310533</v>
+        <v>18300165</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>111145848</v>
+        <v>111646725</v>
       </c>
       <c r="E100" t="n">
-        <v>273462211</v>
+        <v>274694563</v>
       </c>
       <c r="F100" t="n">
-        <v>22915.47882569422</v>
+        <v>27927.7299119731</v>
       </c>
       <c r="G100" t="n">
-        <v>38340.37250738068</v>
+        <v>42889.51067466559</v>
       </c>
       <c r="H100" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2294137</v>
+        <v>2166952</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>253609438</v>
+        <v>255400289</v>
       </c>
       <c r="E101" t="n">
-        <v>253611958</v>
+        <v>255402827</v>
       </c>
       <c r="F101" t="n">
-        <v>25990.96198109416</v>
+        <v>8456.886105971314</v>
       </c>
       <c r="G101" t="n">
-        <v>19666.51412072605</v>
+        <v>20142.82608984077</v>
       </c>
       <c r="H101" t="n">
         <v>0.26</v>
       </c>
       <c r="I101" t="n">
-        <v>2465032</v>
+        <v>2738179</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>31849723</v>
+        <v>33115476</v>
       </c>
       <c r="E102" t="n">
-        <v>142604277</v>
+        <v>148271569</v>
       </c>
       <c r="F102" t="n">
-        <v>79739.86572294671</v>
+        <v>62808.33776661142</v>
       </c>
       <c r="G102" t="n">
-        <v>138769.2926880322</v>
+        <v>130779.0641452848</v>
       </c>
       <c r="H102" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I102" t="n">
-        <v>7965138</v>
+        <v>8907200</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3229263</v>
+        <v>3239156</v>
       </c>
       <c r="E103" t="n">
-        <v>3229263</v>
+        <v>3239156</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>421941</v>
+        <v>410954</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5909232</v>
+        <v>5893690</v>
       </c>
       <c r="E104" t="n">
-        <v>15508788</v>
+        <v>15467982</v>
       </c>
       <c r="F104" t="n">
-        <v>8946.537285165796</v>
+        <v>755.2761164052711</v>
       </c>
       <c r="G104" t="n">
-        <v>1952.31124890925</v>
+        <v>2094.25453367994</v>
       </c>
       <c r="H104" t="n">
-        <v>1.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I104" t="n">
-        <v>31737</v>
+        <v>29293</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16575069</v>
+        <v>16550966</v>
       </c>
       <c r="E105" t="n">
-        <v>76508235</v>
+        <v>76396964</v>
       </c>
       <c r="F105" t="n">
-        <v>40422.92843786291</v>
+        <v>29577.42473040629</v>
       </c>
       <c r="G105" t="n">
-        <v>85218.60225068936</v>
+        <v>83471.2926986519</v>
       </c>
       <c r="H105" t="n">
         <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>805707</v>
+        <v>804304</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52170466</v>
+        <v>52934975</v>
       </c>
       <c r="E106" t="n">
-        <v>338311588</v>
+        <v>343269223</v>
       </c>
       <c r="F106" t="n">
-        <v>123470.518404437</v>
+        <v>137490.9404985319</v>
       </c>
       <c r="G106" t="n">
-        <v>187533.9258889846</v>
+        <v>172934.2099071997</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17666830</v>
+        <v>17628487</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2474720</v>
+        <v>2594368</v>
       </c>
       <c r="E107" t="n">
-        <v>4483421</v>
+        <v>4700186</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>131228</v>
+        <v>139108</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124883900</v>
+        <v>124969063</v>
       </c>
       <c r="E108" t="n">
-        <v>2068179660</v>
+        <v>2069590041</v>
       </c>
       <c r="F108" t="n">
-        <v>221134.3672929017</v>
+        <v>232468.5974792229</v>
       </c>
       <c r="G108" t="n">
-        <v>167449.5938325231</v>
+        <v>112698.7602523394</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4801331</v>
+        <v>4894040</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25072086</v>
+        <v>25304578</v>
       </c>
       <c r="E109" t="n">
-        <v>150011332</v>
+        <v>151402378</v>
       </c>
       <c r="F109" t="n">
-        <v>42903.11363018193</v>
+        <v>43314.23136756747</v>
       </c>
       <c r="G109" t="n">
-        <v>42586.19832634681</v>
+        <v>43207.68007227278</v>
       </c>
       <c r="H109" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I109" t="n">
-        <v>13223616</v>
+        <v>13585864</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1081551</v>
+        <v>1178423</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>73796</v>
+        <v>87156</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2211135</v>
+        <v>2195026</v>
       </c>
       <c r="F111" t="n">
-        <v>3861.008519781046</v>
+        <v>3765.581798320839</v>
       </c>
       <c r="G111" t="n">
-        <v>368.2993054508478</v>
+        <v>350.6891387569876</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>176885</v>
+        <v>175092</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147525577</v>
+        <v>147440889</v>
       </c>
       <c r="F112" t="n">
-        <v>8562.34340314789</v>
+        <v>8777.93810729405</v>
       </c>
       <c r="G112" t="n">
-        <v>3526.195283497157</v>
+        <v>3047.945955071176</v>
       </c>
       <c r="H112" t="n">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>34843</v>
+        <v>38607</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6686982</v>
+        <v>6759155</v>
       </c>
       <c r="E113" t="n">
-        <v>34402490</v>
+        <v>34773801</v>
       </c>
       <c r="F113" t="n">
-        <v>1958.517283819257</v>
+        <v>344.5138923732684</v>
       </c>
       <c r="G113" t="n">
-        <v>1743.949248305576</v>
+        <v>503.5259135571085</v>
       </c>
       <c r="H113" t="n">
-        <v>0.29</v>
+        <v>1.12</v>
       </c>
       <c r="I113" t="n">
-        <v>909194</v>
+        <v>926831</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29458909</v>
+        <v>29529454</v>
       </c>
       <c r="E114" t="n">
-        <v>40393315</v>
+        <v>40490045</v>
       </c>
       <c r="F114" t="n">
-        <v>4899.741771221134</v>
+        <v>4792.694237985557</v>
       </c>
       <c r="G114" t="n">
-        <v>4455.35593512093</v>
+        <v>4606.00800217941</v>
       </c>
       <c r="H114" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I114" t="n">
-        <v>233864</v>
+        <v>227984</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7990308</v>
+        <v>7999353</v>
       </c>
       <c r="F115" t="n">
-        <v>150.0666065033834</v>
+        <v>140.4015360985736</v>
       </c>
       <c r="G115" t="n">
-        <v>6985.022103803411</v>
+        <v>6936.812265408145</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I115" t="n">
-        <v>658153</v>
+        <v>651706</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3402140</v>
+        <v>3393628</v>
       </c>
       <c r="E116" t="n">
-        <v>4557382</v>
+        <v>4545979</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149355</v>
+        <v>148855</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35601013</v>
+        <v>35948325</v>
       </c>
       <c r="E117" t="n">
-        <v>177665467</v>
+        <v>179398711</v>
       </c>
       <c r="F117" t="n">
-        <v>87371.96598099178</v>
+        <v>92173.41355895833</v>
       </c>
       <c r="G117" t="n">
-        <v>76159.65294285203</v>
+        <v>74997.85159005184</v>
       </c>
       <c r="H117" t="n">
         <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>10688782</v>
+        <v>10333085</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3444388</v>
+        <v>3458475</v>
       </c>
       <c r="E118" t="n">
-        <v>4947928</v>
+        <v>4968163</v>
       </c>
       <c r="F118" t="n">
-        <v>349.0654066660302</v>
+        <v>898.3667030619191</v>
       </c>
       <c r="G118" t="n">
-        <v>632.6540536948154</v>
+        <v>770.442908798281</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>145581</v>
+        <v>145914</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>327205270</v>
+        <v>328883683</v>
       </c>
       <c r="E119" t="n">
-        <v>605404369</v>
+        <v>608509814</v>
       </c>
       <c r="F119" t="n">
-        <v>137642.7347003995</v>
+        <v>125949.5338700309</v>
       </c>
       <c r="G119" t="n">
-        <v>152776.0837610175</v>
+        <v>158374.3467880315</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>14630350</v>
+        <v>14515556</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>74221233</v>
+        <v>75456927</v>
       </c>
       <c r="E120" t="n">
-        <v>708006231</v>
+        <v>719785057</v>
       </c>
       <c r="F120" t="n">
-        <v>4879.379536213839</v>
+        <v>1683.026183887435</v>
       </c>
       <c r="G120" t="n">
-        <v>42041.06987045976</v>
+        <v>41662.45267568518</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I120" t="n">
-        <v>22353558</v>
+        <v>21992390</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38617408</v>
+        <v>38740979</v>
       </c>
       <c r="E121" t="n">
-        <v>50488524</v>
+        <v>50649451</v>
       </c>
       <c r="F121" t="n">
-        <v>264.1182109807053</v>
+        <v>759.7954648332134</v>
       </c>
       <c r="G121" t="n">
-        <v>14819.41615483894</v>
+        <v>3796.909567699364</v>
       </c>
       <c r="H121" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="I121" t="n">
-        <v>385836</v>
+        <v>224359</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11031905</v>
+        <v>11032765</v>
       </c>
       <c r="E122" t="n">
-        <v>32721477</v>
+        <v>32723639</v>
       </c>
       <c r="F122" t="n">
-        <v>3295.510888474529</v>
+        <v>4172.895926308041</v>
       </c>
       <c r="G122" t="n">
-        <v>3728.778983958252</v>
+        <v>4902.858210607079</v>
       </c>
       <c r="H122" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I122" t="n">
-        <v>7406990</v>
+        <v>6606854</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2329486</v>
+        <v>2340028</v>
       </c>
       <c r="E123" t="n">
-        <v>7784289</v>
+        <v>7819517</v>
       </c>
       <c r="F123" t="n">
-        <v>841.5253829427301</v>
+        <v>802.6294287347456</v>
       </c>
       <c r="G123" t="n">
-        <v>1016.595349613907</v>
+        <v>1105.963741802359</v>
       </c>
       <c r="H123" t="n">
         <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>875974</v>
+        <v>931509</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7384186</v>
+        <v>7441997</v>
       </c>
       <c r="E124" t="n">
-        <v>7384197</v>
+        <v>7442008</v>
       </c>
       <c r="F124" t="n">
-        <v>284.9839254963319</v>
+        <v>3010.42699520823</v>
       </c>
       <c r="G124" t="n">
-        <v>1072.235180805962</v>
+        <v>971.6485904369457</v>
       </c>
       <c r="H124" t="n">
-        <v>0.72</v>
+        <v>1.43</v>
       </c>
       <c r="I124" t="n">
-        <v>317132</v>
+        <v>308537</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6651971</v>
+        <v>6614427</v>
       </c>
       <c r="E125" t="n">
-        <v>6651971</v>
+        <v>6614427</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>519420</v>
+        <v>542675</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6309291</v>
+        <v>6276069</v>
       </c>
       <c r="E126" t="n">
-        <v>23045399</v>
+        <v>22924051</v>
       </c>
       <c r="F126" t="n">
-        <v>7365.13417247372</v>
+        <v>2391.842261713218</v>
       </c>
       <c r="G126" t="n">
-        <v>8011.934249688222</v>
+        <v>8372.303371440727</v>
       </c>
       <c r="H126" t="n">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="I126" t="n">
-        <v>529591</v>
+        <v>538791</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45732220</v>
+        <v>45853797</v>
       </c>
       <c r="E127" t="n">
-        <v>45732220</v>
+        <v>45853797</v>
       </c>
       <c r="F127" t="n">
-        <v>60319.90126460519</v>
+        <v>58029.5525359592</v>
       </c>
       <c r="G127" t="n">
-        <v>75627.33699716497</v>
+        <v>87374.52241837159</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7805122</v>
+        <v>7650111</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>148350703</v>
+        <v>141234633</v>
       </c>
       <c r="F128" t="n">
-        <v>14.77957560078826</v>
+        <v>110.1947144790788</v>
       </c>
       <c r="G128" t="n">
-        <v>2718.921067605204</v>
+        <v>138.1224319114859</v>
       </c>
       <c r="H128" t="n">
-        <v>1.62</v>
+        <v>2.86</v>
       </c>
       <c r="I128" t="n">
-        <v>650826</v>
+        <v>1739146</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2915045</v>
+        <v>2947186</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>70742</v>
+        <v>72540</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20413578</v>
+        <v>20491157</v>
       </c>
       <c r="F130" t="n">
-        <v>396.4025858404598</v>
+        <v>481.8477873373757</v>
       </c>
       <c r="G130" t="n">
-        <v>522.4535660970037</v>
+        <v>781.9171637134351</v>
       </c>
       <c r="H130" t="n">
-        <v>0.97</v>
+        <v>1.79</v>
       </c>
       <c r="I130" t="n">
-        <v>2998793</v>
+        <v>2995655</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1287177</v>
+        <v>1289355</v>
       </c>
       <c r="E131" t="n">
-        <v>3889300</v>
+        <v>3900501</v>
       </c>
       <c r="F131" t="n">
-        <v>732.7443641461216</v>
+        <v>798.6052797755397</v>
       </c>
       <c r="G131" t="n">
-        <v>716.5569603708667</v>
+        <v>687.4141592652048</v>
       </c>
       <c r="H131" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>27575</v>
+        <v>29356</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>626310161</v>
+        <v>630618531</v>
       </c>
       <c r="E132" t="n">
-        <v>2425606848</v>
+        <v>2442292531</v>
       </c>
       <c r="F132" t="n">
-        <v>866525.6548841323</v>
+        <v>857250.7162749949</v>
       </c>
       <c r="G132" t="n">
-        <v>1003507.700939906</v>
+        <v>1047584.312389067</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>38845870</v>
+        <v>39485077</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3728946</v>
+        <v>3731353</v>
       </c>
       <c r="E133" t="n">
-        <v>6356495</v>
+        <v>6360599</v>
       </c>
       <c r="F133" t="n">
-        <v>5489.615509699938</v>
+        <v>5326.795347706622</v>
       </c>
       <c r="G133" t="n">
-        <v>5584.689025465622</v>
+        <v>5618.16543377629</v>
       </c>
       <c r="H133" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="I133" t="n">
-        <v>1180260</v>
+        <v>1231697</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116272964</v>
+        <v>118752204</v>
       </c>
       <c r="E134" t="n">
-        <v>1080325585</v>
+        <v>1103360916</v>
       </c>
       <c r="F134" t="n">
-        <v>78849.21290082346</v>
+        <v>102459.9327703813</v>
       </c>
       <c r="G134" t="n">
-        <v>134621.774976122</v>
+        <v>107386.6010487289</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I134" t="n">
-        <v>9792817</v>
+        <v>10243314</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>974546689</v>
+        <v>973514999</v>
       </c>
       <c r="E135" t="n">
-        <v>1070542209</v>
+        <v>1069408895</v>
       </c>
       <c r="F135" t="n">
-        <v>15536.64429771002</v>
+        <v>13290.18176974564</v>
       </c>
       <c r="G135" t="n">
-        <v>17186.02526722326</v>
+        <v>18368.3825054842</v>
       </c>
       <c r="H135" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I135" t="n">
-        <v>10105616</v>
+        <v>10029905</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1134301</v>
+        <v>1126093</v>
       </c>
       <c r="E136" t="n">
-        <v>4392260</v>
+        <v>4360479</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>397997</v>
+        <v>380885</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>127831282</v>
+        <v>127718419</v>
       </c>
       <c r="E137" t="n">
-        <v>490381374</v>
+        <v>489948414</v>
       </c>
       <c r="F137" t="n">
-        <v>160275.9026934718</v>
+        <v>109709.7811033627</v>
       </c>
       <c r="G137" t="n">
-        <v>275803.4770485534</v>
+        <v>267548.5903370912</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I137" t="n">
-        <v>37467231</v>
+        <v>38746032</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3292979</v>
+        <v>3283271</v>
       </c>
       <c r="E138" t="n">
-        <v>31201461</v>
+        <v>31109479</v>
       </c>
       <c r="F138" t="n">
-        <v>4615.601165538018</v>
+        <v>4532.907735484081</v>
       </c>
       <c r="G138" t="n">
-        <v>4904.503124486093</v>
+        <v>4783.880676718671</v>
       </c>
       <c r="H138" t="n">
         <v>0.42</v>
       </c>
       <c r="I138" t="n">
-        <v>205898</v>
+        <v>226647</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21784481</v>
+        <v>21871179</v>
       </c>
       <c r="E139" t="n">
-        <v>21784481</v>
+        <v>21871179</v>
       </c>
       <c r="F139" t="n">
-        <v>9086.045555173741</v>
+        <v>7367.168029626495</v>
       </c>
       <c r="G139" t="n">
-        <v>4953.229238968584</v>
+        <v>5928.527706023852</v>
       </c>
       <c r="H139" t="n">
-        <v>0.87</v>
+        <v>1.45</v>
       </c>
       <c r="I139" t="n">
-        <v>578695</v>
+        <v>589142</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494564018</v>
+        <v>494918083</v>
       </c>
       <c r="E140" t="n">
-        <v>494564018</v>
+        <v>494918083</v>
       </c>
       <c r="F140" t="n">
-        <v>935220.2211951187</v>
+        <v>924359.589991972</v>
       </c>
       <c r="G140" t="n">
-        <v>907567.6842623671</v>
+        <v>940647.3243181077</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>33696707</v>
+        <v>33894369</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>33500976</v>
+        <v>33895297</v>
       </c>
       <c r="F141" t="n">
-        <v>82126.9485235688</v>
+        <v>45069.67047669787</v>
       </c>
       <c r="G141" t="n">
-        <v>86825.64364480109</v>
+        <v>80919.53134494131</v>
       </c>
       <c r="H141" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="I141" t="n">
-        <v>5386052</v>
+        <v>4732905</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>750228</v>
+        <v>732719</v>
       </c>
       <c r="E142" t="n">
-        <v>11965872</v>
+        <v>11686606</v>
       </c>
       <c r="F142" t="n">
-        <v>272.5698775418396</v>
+        <v>114.9267673607042</v>
       </c>
       <c r="G142" t="n">
-        <v>156.2835657569493</v>
+        <v>945.4883460992127</v>
       </c>
       <c r="H142" t="n">
-        <v>0.08</v>
+        <v>1.48</v>
       </c>
       <c r="I142" t="n">
-        <v>301830</v>
+        <v>316314</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2733741248</v>
+        <v>2744813949</v>
       </c>
       <c r="E143" t="n">
-        <v>2902521878</v>
+        <v>2914278205</v>
       </c>
       <c r="F143" t="n">
-        <v>7343.566712062101</v>
+        <v>5721.505063073106</v>
       </c>
       <c r="G143" t="n">
-        <v>24984.09048345178</v>
+        <v>22027.44110042681</v>
       </c>
       <c r="H143" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I143" t="n">
-        <v>42126949</v>
+        <v>43023674</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1771264</v>
+        <v>1770556</v>
       </c>
       <c r="E144" t="n">
-        <v>1777516</v>
+        <v>1776806</v>
       </c>
       <c r="F144" t="n">
-        <v>7281.368536555342</v>
+        <v>2563.178923807769</v>
       </c>
       <c r="G144" t="n">
-        <v>1673.785264701788</v>
+        <v>216.3698371766611</v>
       </c>
       <c r="H144" t="n">
-        <v>1.72</v>
+        <v>2.31</v>
       </c>
       <c r="I144" t="n">
-        <v>448041</v>
+        <v>449793</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>63296407</v>
+        <v>62975387</v>
       </c>
       <c r="E145" t="n">
-        <v>155261796</v>
+        <v>154474357</v>
       </c>
       <c r="F145" t="n">
-        <v>3154.429193265988</v>
+        <v>2775.922038955784</v>
       </c>
       <c r="G145" t="n">
-        <v>5374.90056948451</v>
+        <v>4413.303398802368</v>
       </c>
       <c r="H145" t="n">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="I145" t="n">
-        <v>22768966</v>
+        <v>22710441</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>844222194</v>
+        <v>850519663</v>
       </c>
       <c r="E146" t="n">
-        <v>1301865161</v>
+        <v>1311576413</v>
       </c>
       <c r="F146" t="n">
-        <v>202221.7424453631</v>
+        <v>237594.987278518</v>
       </c>
       <c r="G146" t="n">
-        <v>338591.4537304608</v>
+        <v>281124.5143186631</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="n">
-        <v>307938807</v>
+        <v>292731680</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23780368</v>
+        <v>23561376</v>
       </c>
       <c r="E147" t="n">
-        <v>23780368</v>
+        <v>23561376</v>
       </c>
       <c r="F147" t="n">
-        <v>4725.19102426662</v>
+        <v>4550.361391005875</v>
       </c>
       <c r="G147" t="n">
-        <v>8002.239804330446</v>
+        <v>7998.67460191896</v>
       </c>
       <c r="H147" t="n">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="I147" t="n">
-        <v>5711126</v>
+        <v>5596906</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3805509</v>
+        <v>3816531</v>
       </c>
       <c r="E148" t="n">
-        <v>8303572</v>
+        <v>8319502</v>
       </c>
       <c r="F148" t="n">
-        <v>6905.245069941128</v>
+        <v>6878.344514892203</v>
       </c>
       <c r="G148" t="n">
-        <v>6932.808951254201</v>
+        <v>6939.570621244719</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>1858615</v>
+        <v>1774298</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9253576</v>
+        <v>9253557</v>
       </c>
       <c r="E149" t="n">
-        <v>9253576</v>
+        <v>9253557</v>
       </c>
       <c r="F149" t="n">
-        <v>256815.0534973526</v>
+        <v>217568.9397115001</v>
       </c>
       <c r="G149" t="n">
-        <v>604298.5642716462</v>
+        <v>600240.0201691962</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I149" t="n">
-        <v>2987468</v>
+        <v>982053</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>510246437</v>
+        <v>510819005</v>
       </c>
       <c r="E150" t="n">
-        <v>1776125384</v>
+        <v>1778118445</v>
       </c>
       <c r="F150" t="n">
-        <v>820485.2055489793</v>
+        <v>787837.279599771</v>
       </c>
       <c r="G150" t="n">
-        <v>922908.5644468231</v>
+        <v>922569.0977588184</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I150" t="n">
-        <v>35098676</v>
+        <v>36221692</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49093339</v>
+        <v>49169983</v>
       </c>
       <c r="E151" t="n">
-        <v>120849933</v>
+        <v>121038608</v>
       </c>
       <c r="F151" t="n">
-        <v>8663.64140492102</v>
+        <v>8735.469795349205</v>
       </c>
       <c r="G151" t="n">
-        <v>7933.774718594303</v>
+        <v>5385.550506809161</v>
       </c>
       <c r="H151" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>29133</v>
+        <v>29951</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7481667</v>
+        <v>7453579</v>
       </c>
       <c r="E152" t="n">
-        <v>19436567</v>
+        <v>19363596</v>
       </c>
       <c r="F152" t="n">
-        <v>6442.074186346071</v>
+        <v>6370.911361779082</v>
       </c>
       <c r="G152" t="n">
-        <v>7112.634060642548</v>
+        <v>6603.663533192286</v>
       </c>
       <c r="H152" t="n">
-        <v>1.53</v>
+        <v>1.03</v>
       </c>
       <c r="I152" t="n">
-        <v>722484</v>
+        <v>724489</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19207704422</v>
+        <v>19145794744</v>
       </c>
       <c r="F153" t="n">
-        <v>52407.08546464738</v>
+        <v>52447.51085560178</v>
       </c>
       <c r="G153" t="n">
-        <v>49947.87108491393</v>
+        <v>49968.51263804395</v>
       </c>
       <c r="H153" t="n">
         <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>45095280</v>
+        <v>44415145</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2630686</v>
+        <v>2625450</v>
       </c>
       <c r="E154" t="n">
-        <v>10522742</v>
+        <v>10501799</v>
       </c>
       <c r="F154" t="n">
-        <v>23118.53788890268</v>
+        <v>8063.105208952778</v>
       </c>
       <c r="G154" t="n">
-        <v>2354.56932719887</v>
+        <v>5455.06731195593</v>
       </c>
       <c r="H154" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>7013624</v>
+        <v>7013750</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227110853</v>
+        <v>229206251</v>
       </c>
       <c r="E155" t="n">
-        <v>698280405</v>
+        <v>704722966</v>
       </c>
       <c r="F155" t="n">
-        <v>113638.6312649049</v>
+        <v>125819.1707264058</v>
       </c>
       <c r="G155" t="n">
-        <v>188587.8177542578</v>
+        <v>189905.5557429458</v>
       </c>
       <c r="H155" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>16893684</v>
+        <v>16917085</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>410929824</v>
+        <v>410879511</v>
       </c>
       <c r="E156" t="n">
-        <v>2348170421</v>
+        <v>2347882922</v>
       </c>
       <c r="F156" t="n">
-        <v>163654.2207307735</v>
+        <v>235652.0684306136</v>
       </c>
       <c r="G156" t="n">
-        <v>239015.4377833991</v>
+        <v>240086.6990581584</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>42915915</v>
+        <v>42626121</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250221.xlsx
+++ b/BitgetData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4123946</v>
+        <v>4120180</v>
       </c>
       <c r="F2" t="n">
-        <v>1735.1447529372</v>
+        <v>1764.539371512759</v>
       </c>
       <c r="G2" t="n">
-        <v>945.6042057750522</v>
+        <v>930.3499254143759</v>
       </c>
       <c r="H2" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>153287</v>
+        <v>152951</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>638658316</v>
+        <v>655974325</v>
       </c>
       <c r="E3" t="n">
-        <v>1239323467</v>
+        <v>1272925496</v>
       </c>
       <c r="F3" t="n">
-        <v>74238.61735600109</v>
+        <v>83459.92920483931</v>
       </c>
       <c r="G3" t="n">
-        <v>69797.94418239292</v>
+        <v>64430.02460298243</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="I3" t="n">
-        <v>22500554</v>
+        <v>25462660</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259257928</v>
+        <v>259491249</v>
       </c>
       <c r="E4" t="n">
-        <v>1625770025</v>
+        <v>1627233150</v>
       </c>
       <c r="F4" t="n">
-        <v>298976.1676364918</v>
+        <v>306616.4078573186</v>
       </c>
       <c r="G4" t="n">
-        <v>230176.4439350658</v>
+        <v>244132.326337276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>17150852</v>
+        <v>17492146</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>154054225</v>
+        <v>153542654</v>
       </c>
       <c r="E5" t="n">
-        <v>170716156</v>
+        <v>170149257</v>
       </c>
       <c r="F5" t="n">
-        <v>8585.689117295491</v>
+        <v>8698.060050256099</v>
       </c>
       <c r="G5" t="n">
-        <v>13053.12922233797</v>
+        <v>208.451603649738</v>
       </c>
       <c r="H5" t="n">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="I5" t="n">
-        <v>42057133</v>
+        <v>43921502</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50714033</v>
+        <v>51898438</v>
       </c>
       <c r="E6" t="n">
-        <v>63441955</v>
+        <v>64923616</v>
       </c>
       <c r="F6" t="n">
-        <v>3907.296357771843</v>
+        <v>4396.189806277315</v>
       </c>
       <c r="G6" t="n">
-        <v>2742.735738733516</v>
+        <v>4415.516618205353</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>793068</v>
+        <v>800747</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69155555</v>
+        <v>69211168</v>
       </c>
       <c r="E7" t="n">
-        <v>137734460</v>
+        <v>137845223</v>
       </c>
       <c r="F7" t="n">
-        <v>10969.75309764359</v>
+        <v>11880.39272366801</v>
       </c>
       <c r="G7" t="n">
-        <v>12370.11796650109</v>
+        <v>12863.32895145771</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>905044</v>
+        <v>859643</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41658269</v>
+        <v>41599202</v>
       </c>
       <c r="E8" t="n">
-        <v>46621603</v>
+        <v>46555499</v>
       </c>
       <c r="F8" t="n">
-        <v>2050.467904040014</v>
+        <v>1967.360219055285</v>
       </c>
       <c r="G8" t="n">
-        <v>480.1176129674535</v>
+        <v>683.5992006716449</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>4383709</v>
+        <v>4802709</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14253986</v>
+        <v>14319623</v>
       </c>
       <c r="E9" t="n">
-        <v>42005576</v>
+        <v>42199005</v>
       </c>
       <c r="F9" t="n">
-        <v>5285.075358969183</v>
+        <v>1731.823602562955</v>
       </c>
       <c r="G9" t="n">
-        <v>4870.511727898128</v>
+        <v>1049.440746805522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.68</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>918286</v>
+        <v>923884</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10732386</v>
+        <v>11130710</v>
       </c>
       <c r="E10" t="n">
-        <v>46129724</v>
+        <v>47848908</v>
       </c>
       <c r="F10" t="n">
-        <v>3897.034445592839</v>
+        <v>235.6276056987594</v>
       </c>
       <c r="G10" t="n">
-        <v>1301.233088636463</v>
+        <v>1671.831146069145</v>
       </c>
       <c r="H10" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I10" t="n">
-        <v>823111</v>
+        <v>910309</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>598868079</v>
+        <v>601611494</v>
       </c>
       <c r="E11" t="n">
-        <v>749094959</v>
+        <v>752526563</v>
       </c>
       <c r="F11" t="n">
-        <v>353919.5093433488</v>
+        <v>319743.9640156651</v>
       </c>
       <c r="G11" t="n">
-        <v>330822.1936806779</v>
+        <v>324220.6646867</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>56823233</v>
+        <v>61895502</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4582947</v>
+        <v>4605341</v>
       </c>
       <c r="E12" t="n">
-        <v>28146081</v>
+        <v>28283593</v>
       </c>
       <c r="F12" t="n">
-        <v>11487.45853597373</v>
+        <v>11278.96205401964</v>
       </c>
       <c r="G12" t="n">
-        <v>10128.4885903874</v>
+        <v>9919.866640390894</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="I12" t="n">
-        <v>698664</v>
+        <v>691247</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23133618</v>
+        <v>23155495</v>
       </c>
       <c r="E13" t="n">
-        <v>23176523</v>
+        <v>23198440</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>821048</v>
+        <v>824724</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82349270</v>
+        <v>83425175</v>
       </c>
       <c r="E14" t="n">
-        <v>242281766</v>
+        <v>245447211</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>348897</v>
+        <v>357713</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>499597304</v>
+        <v>528584141</v>
       </c>
       <c r="E15" t="n">
-        <v>499597306</v>
+        <v>528584143</v>
       </c>
       <c r="F15" t="n">
-        <v>23727.55947219813</v>
+        <v>8789.530618815263</v>
       </c>
       <c r="G15" t="n">
-        <v>23237.46168263205</v>
+        <v>13013.72019887233</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>60997899</v>
+        <v>76746653</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4756569</v>
+        <v>4769244</v>
       </c>
       <c r="E16" t="n">
-        <v>4756569</v>
+        <v>4769244</v>
       </c>
       <c r="F16" t="n">
-        <v>392.5347896094694</v>
+        <v>189.9452046874216</v>
       </c>
       <c r="G16" t="n">
-        <v>1534.327817526405</v>
+        <v>1441.85817025319</v>
       </c>
       <c r="H16" t="n">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2078635</v>
+        <v>2087899</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3387063</v>
+        <v>3407793</v>
       </c>
       <c r="E17" t="n">
-        <v>3387063</v>
+        <v>3407793</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>505986</v>
+        <v>524370</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>171064049</v>
+        <v>172979245</v>
       </c>
       <c r="E18" t="n">
-        <v>211784417</v>
+        <v>214155509</v>
       </c>
       <c r="F18" t="n">
-        <v>8131.484778885455</v>
+        <v>8440.56346172528</v>
       </c>
       <c r="G18" t="n">
-        <v>8690.081508851703</v>
+        <v>10034.68028410177</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>598049</v>
+        <v>606334</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6827895</v>
+        <v>6823252</v>
       </c>
       <c r="E19" t="n">
-        <v>9403756</v>
+        <v>9397362</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>329590</v>
+        <v>324172</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>892415</v>
+        <v>906636</v>
       </c>
       <c r="E20" t="n">
-        <v>6246907</v>
+        <v>6346449</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>251300</v>
+        <v>252479</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115971574</v>
+        <v>116356061</v>
       </c>
       <c r="E21" t="n">
-        <v>451024531</v>
+        <v>452504572</v>
       </c>
       <c r="F21" t="n">
-        <v>45190.3414518543</v>
+        <v>68222.53803945275</v>
       </c>
       <c r="G21" t="n">
-        <v>76307.83515521768</v>
+        <v>113276.7326983438</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>11233925</v>
+        <v>11316600</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1720141</v>
+        <v>1721672</v>
       </c>
       <c r="E22" t="n">
-        <v>12390030</v>
+        <v>12401058</v>
       </c>
       <c r="F22" t="n">
-        <v>6242.667346852221</v>
+        <v>6287.059764235913</v>
       </c>
       <c r="G22" t="n">
-        <v>4555.931612482101</v>
+        <v>4556.411850300967</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>45236</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>148024507</v>
+        <v>148720172</v>
       </c>
       <c r="E23" t="n">
-        <v>148024507</v>
+        <v>148720172</v>
       </c>
       <c r="F23" t="n">
-        <v>949604.2508242377</v>
+        <v>987212.0075638504</v>
       </c>
       <c r="G23" t="n">
-        <v>1326343.753036359</v>
+        <v>1311271.338543567</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I23" t="n">
-        <v>75720412</v>
+        <v>75930175</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69488738</v>
+        <v>70215319</v>
       </c>
       <c r="E24" t="n">
-        <v>356352501</v>
+        <v>360078561</v>
       </c>
       <c r="F24" t="n">
-        <v>86327.7223625608</v>
+        <v>80017.27391545939</v>
       </c>
       <c r="G24" t="n">
-        <v>161274.796695969</v>
+        <v>151584.0470059818</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>24825335</v>
+        <v>25114406</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>274493167</v>
+        <v>276539596</v>
       </c>
       <c r="E25" t="n">
-        <v>274493167</v>
+        <v>276539596</v>
       </c>
       <c r="F25" t="n">
-        <v>333268.9845366587</v>
+        <v>332964.233740381</v>
       </c>
       <c r="G25" t="n">
-        <v>515903.4575233015</v>
+        <v>467719.9528098095</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>15634892</v>
+        <v>16164427</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1130787</v>
+        <v>1132144</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>156118</v>
+        <v>153572</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
         <v>2016174</v>
       </c>
       <c r="E27" t="n">
-        <v>2201559</v>
+        <v>2201545</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4045875</v>
+        <v>4084244</v>
       </c>
       <c r="E28" t="n">
-        <v>4046843</v>
+        <v>4085186</v>
       </c>
       <c r="F28" t="n">
-        <v>671.5599492640966</v>
+        <v>1028.584725595205</v>
       </c>
       <c r="G28" t="n">
-        <v>3066.890464770318</v>
+        <v>3008.753531139526</v>
       </c>
       <c r="H28" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I28" t="n">
-        <v>255738</v>
+        <v>252703</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6610853</v>
+        <v>6489373</v>
       </c>
       <c r="E29" t="n">
-        <v>16057252</v>
+        <v>15762187</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>476433</v>
+        <v>472988</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101764449</v>
+        <v>101924436</v>
       </c>
       <c r="E30" t="n">
-        <v>126888338</v>
+        <v>127087823</v>
       </c>
       <c r="F30" t="n">
-        <v>112490.9637775733</v>
+        <v>115740.1232806679</v>
       </c>
       <c r="G30" t="n">
-        <v>110279.4952055539</v>
+        <v>120799.5925434533</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>10462310</v>
+        <v>10450665</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1155577</v>
+        <v>1156593</v>
       </c>
       <c r="E31" t="n">
-        <v>12558381</v>
+        <v>12569418</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17837.36</v>
+        <v>15207.6</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89009550</v>
+        <v>90223307</v>
       </c>
       <c r="E32" t="n">
-        <v>248981623</v>
+        <v>252398871</v>
       </c>
       <c r="F32" t="n">
-        <v>36863.41322248783</v>
+        <v>34187.04561541108</v>
       </c>
       <c r="G32" t="n">
-        <v>60798.51793012601</v>
+        <v>80668.60707475861</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>52828738</v>
+        <v>46089140</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4320346</v>
+        <v>4326384</v>
       </c>
       <c r="E33" t="n">
-        <v>8520085</v>
+        <v>8531993</v>
       </c>
       <c r="F33" t="n">
-        <v>7289.120750164289</v>
+        <v>7500.884028012926</v>
       </c>
       <c r="G33" t="n">
-        <v>8097.272845095534</v>
+        <v>10895.0796261369</v>
       </c>
       <c r="H33" t="n">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1645537</v>
+        <v>1639733</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35073853</v>
+        <v>35369541</v>
       </c>
       <c r="F34" t="n">
-        <v>180.396185316553</v>
+        <v>210.70835786039</v>
       </c>
       <c r="G34" t="n">
-        <v>75.00575849022738</v>
+        <v>76.98505212773574</v>
       </c>
       <c r="H34" t="n">
-        <v>2.23</v>
+        <v>3.13</v>
       </c>
       <c r="I34" t="n">
-        <v>57716</v>
+        <v>55595</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17266741</v>
+        <v>17284119</v>
       </c>
       <c r="E35" t="n">
-        <v>18198740</v>
+        <v>18217056</v>
       </c>
       <c r="F35" t="n">
-        <v>3461.185586603809</v>
+        <v>3468.356312304561</v>
       </c>
       <c r="G35" t="n">
-        <v>2654.35856884621</v>
+        <v>2654.918446136494</v>
       </c>
       <c r="H35" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>33981</v>
+        <v>34525</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23087154</v>
+        <v>23073246</v>
       </c>
       <c r="F36" t="n">
-        <v>5104.169486595959</v>
+        <v>5146.758802081797</v>
       </c>
       <c r="G36" t="n">
-        <v>5555.073394026118</v>
+        <v>5502.526734248058</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>125719</v>
+        <v>126040</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>82595380</v>
+        <v>92158308</v>
       </c>
       <c r="E37" t="n">
-        <v>172204733</v>
+        <v>192142670</v>
       </c>
       <c r="F37" t="n">
-        <v>93122.02955501387</v>
+        <v>61591.37321282532</v>
       </c>
       <c r="G37" t="n">
-        <v>88397.15941984831</v>
+        <v>67083.47985471523</v>
       </c>
       <c r="H37" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="I37" t="n">
-        <v>22284451</v>
+        <v>37475381</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>285743642</v>
+        <v>288438393</v>
       </c>
       <c r="E38" t="n">
-        <v>285743642</v>
+        <v>288438393</v>
       </c>
       <c r="F38" t="n">
-        <v>29659.14545696572</v>
+        <v>25338.52830159941</v>
       </c>
       <c r="G38" t="n">
-        <v>32998.67423460122</v>
+        <v>38712.50431154229</v>
       </c>
       <c r="H38" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>9706020</v>
+        <v>10460537</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>211287856</v>
+        <v>212010320</v>
       </c>
       <c r="E39" t="n">
-        <v>734033107</v>
+        <v>736543013</v>
       </c>
       <c r="F39" t="n">
-        <v>210749.0204022439</v>
+        <v>178625.0585291109</v>
       </c>
       <c r="G39" t="n">
-        <v>360375.9517859382</v>
+        <v>280219.1673186301</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>33537112</v>
+        <v>33858263</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3605547</v>
+        <v>3823637</v>
       </c>
       <c r="E40" t="n">
-        <v>3605547</v>
+        <v>3823637</v>
       </c>
       <c r="F40" t="n">
-        <v>6159.619998806363</v>
+        <v>1132.151855811297</v>
       </c>
       <c r="G40" t="n">
-        <v>1821.112160022369</v>
+        <v>2035.101492935303</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="I40" t="n">
-        <v>2506622</v>
+        <v>2507537</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>121251197</v>
+        <v>121374965</v>
       </c>
       <c r="E41" t="n">
-        <v>514779311</v>
+        <v>515272451</v>
       </c>
       <c r="F41" t="n">
-        <v>5538.391321722399</v>
+        <v>5561.72543729019</v>
       </c>
       <c r="G41" t="n">
-        <v>6182.819911062209</v>
+        <v>8262.65866933404</v>
       </c>
       <c r="H41" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I41" t="n">
-        <v>14443742</v>
+        <v>15119754</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>567808</v>
+        <v>566241</v>
       </c>
       <c r="E42" t="n">
-        <v>6886952</v>
+        <v>6867957</v>
       </c>
       <c r="F42" t="n">
-        <v>703.8554253520227</v>
+        <v>694.0042758628026</v>
       </c>
       <c r="G42" t="n">
-        <v>1731.563430449623</v>
+        <v>1611.531174780238</v>
       </c>
       <c r="H42" t="n">
         <v>0.87</v>
       </c>
       <c r="I42" t="n">
-        <v>2742937</v>
+        <v>2753133</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1441881884</v>
+        <v>1465514413</v>
       </c>
       <c r="E43" t="n">
-        <v>6914118924</v>
+        <v>7027441739</v>
       </c>
       <c r="F43" t="n">
-        <v>28097.00941454346</v>
+        <v>4645.640808345664</v>
       </c>
       <c r="G43" t="n">
-        <v>39089.89969798739</v>
+        <v>41113.63486606463</v>
       </c>
       <c r="H43" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I43" t="n">
-        <v>233226334</v>
+        <v>252094046</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6053475985</v>
+        <v>6055147245</v>
       </c>
       <c r="E44" t="n">
-        <v>6053475983</v>
+        <v>6055147245</v>
       </c>
       <c r="F44" t="n">
-        <v>935610.6134440412</v>
+        <v>274790.9781762513</v>
       </c>
       <c r="G44" t="n">
-        <v>1659399.401310947</v>
+        <v>256305.8846690782</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>85102565</v>
+        <v>86918194</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>286029805</v>
+        <v>288688263</v>
       </c>
       <c r="E45" t="n">
-        <v>1234663424</v>
+        <v>1246138805</v>
       </c>
       <c r="F45" t="n">
-        <v>112886.1352615744</v>
+        <v>104416.108907543</v>
       </c>
       <c r="G45" t="n">
-        <v>91849.1576786057</v>
+        <v>99648.31760764851</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>111133679</v>
+        <v>111935020</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>117574785</v>
+        <v>117919888</v>
       </c>
       <c r="E46" t="n">
-        <v>117574785</v>
+        <v>117919888</v>
       </c>
       <c r="F46" t="n">
-        <v>38604.76979110232</v>
+        <v>33789.67929363876</v>
       </c>
       <c r="G46" t="n">
-        <v>32948.53211905649</v>
+        <v>40402.17513120793</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I46" t="n">
-        <v>6314127</v>
+        <v>6370265</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2004471787</v>
+        <v>2046533997</v>
       </c>
       <c r="E47" t="n">
-        <v>2004471787</v>
+        <v>2046533997</v>
       </c>
       <c r="F47" t="n">
-        <v>225957.6417989509</v>
+        <v>225986.5396612986</v>
       </c>
       <c r="G47" t="n">
-        <v>199263.980478663</v>
+        <v>199289.8399104836</v>
       </c>
       <c r="H47" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>7748229506</v>
+        <v>7768514489</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10331491</v>
+        <v>10264421</v>
       </c>
       <c r="F48" t="n">
-        <v>6440.538573476018</v>
+        <v>6277.349997768773</v>
       </c>
       <c r="G48" t="n">
-        <v>6976.696939126155</v>
+        <v>6793.575268380464</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>161772</v>
+        <v>165749</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4477059</v>
+        <v>4490305</v>
       </c>
       <c r="E49" t="n">
-        <v>5877795</v>
+        <v>5895185</v>
       </c>
       <c r="F49" t="n">
-        <v>10259.35677841158</v>
+        <v>10218.20675303771</v>
       </c>
       <c r="G49" t="n">
-        <v>14721.87036188901</v>
+        <v>14810.48653171361</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>657453</v>
+        <v>648268</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12625187</v>
+        <v>12723119</v>
       </c>
       <c r="E50" t="n">
-        <v>18565099</v>
+        <v>18709106</v>
       </c>
       <c r="F50" t="n">
-        <v>6808.768929044099</v>
+        <v>2684.01062296753</v>
       </c>
       <c r="G50" t="n">
-        <v>9777.053704652417</v>
+        <v>19292.31747899776</v>
       </c>
       <c r="H50" t="n">
         <v>0.16</v>
       </c>
       <c r="I50" t="n">
-        <v>3542069</v>
+        <v>3724851</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23363160</v>
+        <v>23453377</v>
       </c>
       <c r="E51" t="n">
-        <v>30307362</v>
+        <v>30424395</v>
       </c>
       <c r="F51" t="n">
-        <v>9175.000538575438</v>
+        <v>14462.74735779634</v>
       </c>
       <c r="G51" t="n">
-        <v>12112.17985140076</v>
+        <v>12496.33856239362</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>163249</v>
+        <v>155389</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14721599</v>
+        <v>15079700</v>
       </c>
       <c r="E52" t="n">
-        <v>14721599</v>
+        <v>15079700</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5325157</v>
+        <v>5419913</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99582806</v>
+        <v>100119842</v>
       </c>
       <c r="E53" t="n">
-        <v>123180366</v>
+        <v>123844661</v>
       </c>
       <c r="F53" t="n">
-        <v>613.0864714608028</v>
+        <v>510.3405809295314</v>
       </c>
       <c r="G53" t="n">
-        <v>4384.777121634025</v>
+        <v>4245.369576824796</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="I53" t="n">
-        <v>845078</v>
+        <v>973668</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5132237</v>
+        <v>5159594</v>
       </c>
       <c r="E54" t="n">
-        <v>7180743</v>
+        <v>7219019</v>
       </c>
       <c r="F54" t="n">
-        <v>74.26761229399277</v>
+        <v>53.85391157678919</v>
       </c>
       <c r="G54" t="n">
-        <v>10.00125487981701</v>
+        <v>206.4068816633838</v>
       </c>
       <c r="H54" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="I54" t="n">
-        <v>68065</v>
+        <v>63216</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16217664</v>
+        <v>16481583</v>
       </c>
       <c r="E55" t="n">
-        <v>78544736</v>
+        <v>79822939</v>
       </c>
       <c r="F55" t="n">
-        <v>38257.96064141504</v>
+        <v>26918.48277325284</v>
       </c>
       <c r="G55" t="n">
-        <v>33437.97233350858</v>
+        <v>32326.33203057159</v>
       </c>
       <c r="H55" t="n">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>4293465</v>
+        <v>4370287</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60512</v>
+        <v>61409</v>
       </c>
       <c r="E56" t="n">
-        <v>144940</v>
+        <v>147088</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2861.52</v>
+        <v>4171.1</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1922121709</v>
+        <v>1926418506</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27890350</v>
+        <v>28163484</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12412034</v>
+        <v>12403720</v>
       </c>
       <c r="E58" t="n">
-        <v>17995658</v>
+        <v>17983605</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2078781</v>
+        <v>2057116</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123187363</v>
+        <v>124306273</v>
       </c>
       <c r="E59" t="n">
-        <v>327608162</v>
+        <v>330583823</v>
       </c>
       <c r="F59" t="n">
-        <v>8113.663207594856</v>
+        <v>2340.646453623953</v>
       </c>
       <c r="G59" t="n">
-        <v>7191.047336693156</v>
+        <v>7191.282987770318</v>
       </c>
       <c r="H59" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="I59" t="n">
-        <v>780695</v>
+        <v>765876</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32210686</v>
+        <v>32306386</v>
       </c>
       <c r="E60" t="n">
-        <v>100293740</v>
+        <v>100591719</v>
       </c>
       <c r="F60" t="n">
-        <v>1295.126229574138</v>
+        <v>1283.095472080792</v>
       </c>
       <c r="G60" t="n">
-        <v>6983.103375950167</v>
+        <v>5661.558402883009</v>
       </c>
       <c r="H60" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="I60" t="n">
-        <v>9919711</v>
+        <v>9839351</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1977987</v>
+        <v>2022168</v>
       </c>
       <c r="E61" t="n">
-        <v>14183945</v>
+        <v>14500762</v>
       </c>
       <c r="F61" t="n">
-        <v>2752.441093770671</v>
+        <v>2944.351254204682</v>
       </c>
       <c r="G61" t="n">
-        <v>5662.134828674241</v>
+        <v>5626.645541456494</v>
       </c>
       <c r="H61" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="I61" t="n">
-        <v>2075410</v>
+        <v>2011480</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>211809734</v>
+        <v>212696174</v>
       </c>
       <c r="E62" t="n">
-        <v>1199396862</v>
+        <v>1204416425</v>
       </c>
       <c r="F62" t="n">
-        <v>746621.5555616318</v>
+        <v>673157.1484036914</v>
       </c>
       <c r="G62" t="n">
-        <v>739986.0938990709</v>
+        <v>783880.8160730173</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>67019447</v>
+        <v>68148594</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>499446</v>
+        <v>501854</v>
       </c>
       <c r="E63" t="n">
-        <v>1681066</v>
+        <v>1689172</v>
       </c>
       <c r="F63" t="n">
-        <v>4451.253808117234</v>
+        <v>4330.553791310646</v>
       </c>
       <c r="G63" t="n">
-        <v>368.8141461134235</v>
+        <v>381.3304501346419</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>625651</v>
+        <v>626338</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>350579</v>
+        <v>352884</v>
       </c>
       <c r="E64" t="n">
-        <v>350579</v>
+        <v>352884</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3051.77</v>
+        <v>2418.26</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>146956199</v>
+        <v>147252113</v>
       </c>
       <c r="E65" t="n">
-        <v>1088564436</v>
+        <v>1090756395</v>
       </c>
       <c r="F65" t="n">
-        <v>34634.62442008715</v>
+        <v>37870.77553823011</v>
       </c>
       <c r="G65" t="n">
-        <v>41384.24888545174</v>
+        <v>34981.7938989665</v>
       </c>
       <c r="H65" t="n">
         <v>0.06</v>
       </c>
       <c r="I65" t="n">
-        <v>8358597</v>
+        <v>8302195</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8292209</v>
+        <v>8303030</v>
       </c>
       <c r="E66" t="n">
-        <v>11108796</v>
+        <v>11123292</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>65128</v>
+        <v>64939</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26569037</v>
+        <v>26446254</v>
       </c>
       <c r="E67" t="n">
-        <v>26569037</v>
+        <v>26446254</v>
       </c>
       <c r="F67" t="n">
-        <v>9346.514435185549</v>
+        <v>9074.874082134653</v>
       </c>
       <c r="G67" t="n">
-        <v>11394.47165549013</v>
+        <v>10799.54792477915</v>
       </c>
       <c r="H67" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I67" t="n">
-        <v>323735</v>
+        <v>328505</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1587220</v>
+        <v>1628215</v>
       </c>
       <c r="E68" t="n">
-        <v>12326533</v>
+        <v>12644902</v>
       </c>
       <c r="F68" t="n">
-        <v>12971.99498392544</v>
+        <v>18341.41380587604</v>
       </c>
       <c r="G68" t="n">
-        <v>24439.88934194238</v>
+        <v>17052.08485303865</v>
       </c>
       <c r="H68" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I68" t="n">
-        <v>515333</v>
+        <v>523105</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>349325105</v>
+        <v>349353141</v>
       </c>
       <c r="E69" t="n">
-        <v>3142745251</v>
+        <v>3142997480</v>
       </c>
       <c r="F69" t="n">
-        <v>1298986.951506156</v>
+        <v>1287340.346363269</v>
       </c>
       <c r="G69" t="n">
-        <v>1825785.096964941</v>
+        <v>1470847.804316538</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>43926455</v>
+        <v>44933753</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>247883</v>
+        <v>249426</v>
       </c>
       <c r="E70" t="n">
-        <v>2187755</v>
+        <v>2201370</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>87419</v>
+        <v>87823</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1572715</v>
+        <v>1573027</v>
       </c>
       <c r="E71" t="n">
-        <v>13105959</v>
+        <v>13108561</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>21711</v>
+        <v>18673.58</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9457307</v>
+        <v>9606169</v>
       </c>
       <c r="E72" t="n">
-        <v>43835162</v>
+        <v>44525145</v>
       </c>
       <c r="F72" t="n">
-        <v>7850.602800186944</v>
+        <v>209.3553202883185</v>
       </c>
       <c r="G72" t="n">
-        <v>9005.533016411962</v>
+        <v>1113.616596607866</v>
       </c>
       <c r="H72" t="n">
-        <v>0.82</v>
+        <v>3.34</v>
       </c>
       <c r="I72" t="n">
-        <v>95698</v>
+        <v>114779</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50366070</v>
+        <v>51161704</v>
       </c>
       <c r="E73" t="n">
-        <v>291598733</v>
+        <v>296205125</v>
       </c>
       <c r="F73" t="n">
-        <v>100889.037447925</v>
+        <v>115838.4779025296</v>
       </c>
       <c r="G73" t="n">
-        <v>194499.6054072298</v>
+        <v>229048.1851659952</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>41404975</v>
+        <v>41983033</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39621973</v>
+        <v>40567373</v>
       </c>
       <c r="E74" t="n">
-        <v>54723586</v>
+        <v>56029319</v>
       </c>
       <c r="F74" t="n">
-        <v>10641.0168785826</v>
+        <v>541.3707447783115</v>
       </c>
       <c r="G74" t="n">
-        <v>4428.145893644475</v>
+        <v>1199.58775553342</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>1.11</v>
       </c>
       <c r="I74" t="n">
-        <v>340439</v>
+        <v>354067</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>100909</v>
+        <v>101610</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>273.62</v>
+        <v>275.68</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14165058</v>
+        <v>14293001</v>
       </c>
       <c r="E76" t="n">
-        <v>14213263</v>
+        <v>14341642</v>
       </c>
       <c r="F76" t="n">
-        <v>2098.258033808084</v>
+        <v>1950.223089253153</v>
       </c>
       <c r="G76" t="n">
-        <v>3197.185665203582</v>
+        <v>5704.316956102862</v>
       </c>
       <c r="H76" t="n">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="I76" t="n">
-        <v>6477748</v>
+        <v>6558454</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43447561</v>
+        <v>43648353</v>
       </c>
       <c r="E77" t="n">
-        <v>73763851</v>
+        <v>74104750</v>
       </c>
       <c r="F77" t="n">
-        <v>9911.233911594702</v>
+        <v>8869.376701761335</v>
       </c>
       <c r="G77" t="n">
-        <v>4197.943225999193</v>
+        <v>3610.876404477162</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I77" t="n">
-        <v>1061471</v>
+        <v>1059741</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23101669</v>
+        <v>23373096</v>
       </c>
       <c r="E78" t="n">
-        <v>69249451</v>
+        <v>70064795</v>
       </c>
       <c r="F78" t="n">
-        <v>96972.82634880282</v>
+        <v>141524.0230176485</v>
       </c>
       <c r="G78" t="n">
-        <v>162453.8600502741</v>
+        <v>142336.8996835538</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="I78" t="n">
-        <v>3607668</v>
+        <v>3653680</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102893205</v>
+        <v>103052493</v>
       </c>
       <c r="E79" t="n">
-        <v>109384776</v>
+        <v>109554113</v>
       </c>
       <c r="F79" t="n">
-        <v>2485.067788950753</v>
+        <v>3307.207722211763</v>
       </c>
       <c r="G79" t="n">
-        <v>5044.167841565425</v>
+        <v>3197.416264779256</v>
       </c>
       <c r="H79" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="I79" t="n">
-        <v>447905</v>
+        <v>449762</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10378031</v>
+        <v>10379609</v>
       </c>
       <c r="E80" t="n">
-        <v>45107712</v>
+        <v>45096897</v>
       </c>
       <c r="F80" t="n">
-        <v>6462.780303317992</v>
+        <v>6269.910151151798</v>
       </c>
       <c r="G80" t="n">
-        <v>5474.97452734129</v>
+        <v>5650.979827006225</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>110917</v>
+        <v>108986</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>16000676</v>
+        <v>15976339</v>
       </c>
       <c r="E81" t="n">
-        <v>98073405</v>
+        <v>97924235</v>
       </c>
       <c r="F81" t="n">
-        <v>4124.75407466089</v>
+        <v>4185.074455255531</v>
       </c>
       <c r="G81" t="n">
-        <v>6408.2374209552</v>
+        <v>6444.497290905683</v>
       </c>
       <c r="H81" t="n">
         <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>10811453</v>
+        <v>10875661</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1521289</v>
+        <v>1520447</v>
       </c>
       <c r="E82" t="n">
-        <v>1564081</v>
+        <v>1563216</v>
       </c>
       <c r="F82" t="n">
-        <v>6525.961427826717</v>
+        <v>3826.830804426895</v>
       </c>
       <c r="G82" t="n">
-        <v>6143.57882470298</v>
+        <v>7130.548904559182</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>150417</v>
+        <v>151833</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51258586</v>
+        <v>52132357</v>
       </c>
       <c r="E83" t="n">
-        <v>220816384</v>
+        <v>224580492</v>
       </c>
       <c r="F83" t="n">
-        <v>3545.88866233508</v>
+        <v>3567.371074070912</v>
       </c>
       <c r="G83" t="n">
-        <v>4854.68946528525</v>
+        <v>4164.941611941241</v>
       </c>
       <c r="H83" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="I83" t="n">
-        <v>10172317</v>
+        <v>9941234</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2172577</v>
+        <v>2256839</v>
       </c>
       <c r="E84" t="n">
-        <v>7887931</v>
+        <v>8193861</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>196440</v>
+        <v>201359</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9174852</v>
+        <v>9160205</v>
       </c>
       <c r="E85" t="n">
-        <v>20366889</v>
+        <v>20334373</v>
       </c>
       <c r="F85" t="n">
-        <v>6303.053710268077</v>
+        <v>5962.776580867211</v>
       </c>
       <c r="G85" t="n">
-        <v>7246.990765599658</v>
+        <v>5482.936896595995</v>
       </c>
       <c r="H85" t="n">
-        <v>0.98</v>
+        <v>1.56</v>
       </c>
       <c r="I85" t="n">
-        <v>320394</v>
+        <v>329172</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2443789</v>
+        <v>2443178</v>
       </c>
       <c r="E86" t="n">
-        <v>18388882</v>
+        <v>18384289</v>
       </c>
       <c r="F86" t="n">
-        <v>4887.951791216255</v>
+        <v>4875.768208026951</v>
       </c>
       <c r="G86" t="n">
-        <v>12179.30504502009</v>
+        <v>12167.93133031711</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161666</v>
+        <v>161991</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20500395</v>
+        <v>20906332</v>
       </c>
       <c r="E87" t="n">
-        <v>82001579</v>
+        <v>83625329</v>
       </c>
       <c r="F87" t="n">
-        <v>26739.21470912889</v>
+        <v>16288.90090415457</v>
       </c>
       <c r="G87" t="n">
-        <v>789.6118731627759</v>
+        <v>1087.60680179791</v>
       </c>
       <c r="H87" t="n">
-        <v>1.09</v>
+        <v>1.67</v>
       </c>
       <c r="I87" t="n">
-        <v>2445312</v>
+        <v>2500656</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4893061</v>
+        <v>4901666</v>
       </c>
       <c r="E88" t="n">
-        <v>4893061</v>
+        <v>4901666</v>
       </c>
       <c r="F88" t="n">
-        <v>447.2339613671246</v>
+        <v>1532.189802465326</v>
       </c>
       <c r="G88" t="n">
-        <v>455.8824130041669</v>
+        <v>6219.145527702482</v>
       </c>
       <c r="H88" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="I88" t="n">
-        <v>2980517</v>
+        <v>2950939</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12675279</v>
+        <v>12808855</v>
       </c>
       <c r="E89" t="n">
-        <v>40093217</v>
+        <v>40515683</v>
       </c>
       <c r="F89" t="n">
-        <v>13003.22949040113</v>
+        <v>13962.87422585803</v>
       </c>
       <c r="G89" t="n">
-        <v>16649.10273782543</v>
+        <v>11241.293236023</v>
       </c>
       <c r="H89" t="n">
         <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>965229</v>
+        <v>935349</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24949</v>
+        <v>25471</v>
       </c>
       <c r="E90" t="n">
-        <v>196216</v>
+        <v>200326</v>
       </c>
       <c r="F90" t="n">
-        <v>302.8301611655056</v>
+        <v>4713.626228553074</v>
       </c>
       <c r="G90" t="n">
-        <v>566.3160452531815</v>
+        <v>260.3739903386765</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I90" t="n">
-        <v>51096</v>
+        <v>51916</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8881209</v>
+        <v>8899830</v>
       </c>
       <c r="E91" t="n">
-        <v>8881209</v>
+        <v>8899830</v>
       </c>
       <c r="F91" t="n">
-        <v>3226.896392972111</v>
+        <v>3549.594227979235</v>
       </c>
       <c r="G91" t="n">
-        <v>3533.036708643203</v>
+        <v>3717.879583557498</v>
       </c>
       <c r="H91" t="n">
         <v>0.44</v>
       </c>
       <c r="I91" t="n">
-        <v>3845805</v>
+        <v>3886797</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10197179</v>
+        <v>10192869</v>
       </c>
       <c r="E92" t="n">
-        <v>10197179</v>
+        <v>10192869</v>
       </c>
       <c r="F92" t="n">
-        <v>4746.835391616012</v>
+        <v>6073.646323377435</v>
       </c>
       <c r="G92" t="n">
-        <v>1857.441172593068</v>
+        <v>834.4654444773715</v>
       </c>
       <c r="H92" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I92" t="n">
-        <v>2898106</v>
+        <v>2899835</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>38149904</v>
+        <v>38478457</v>
       </c>
       <c r="E93" t="n">
-        <v>96195744</v>
+        <v>97024195</v>
       </c>
       <c r="F93" t="n">
-        <v>5348.728898457595</v>
+        <v>5193.563908848361</v>
       </c>
       <c r="G93" t="n">
-        <v>6108.003584942377</v>
+        <v>5806.771643435387</v>
       </c>
       <c r="H93" t="n">
-        <v>0.21</v>
+        <v>0.72</v>
       </c>
       <c r="I93" t="n">
-        <v>3598691</v>
+        <v>3595419</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>324617962</v>
+        <v>325519889</v>
       </c>
       <c r="E94" t="n">
-        <v>329694192</v>
+        <v>330610677</v>
       </c>
       <c r="F94" t="n">
-        <v>2498.47879549383</v>
+        <v>2964.305057584515</v>
       </c>
       <c r="G94" t="n">
-        <v>6169.871687410162</v>
+        <v>5295.305537248927</v>
       </c>
       <c r="H94" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>19143399</v>
+        <v>19723149</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>5919.0603019169</v>
+        <v>3517.782482688891</v>
       </c>
       <c r="G95" t="n">
-        <v>4006.609971574762</v>
+        <v>6530.698325301956</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>217995</v>
+        <v>218516</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>91845807</v>
+        <v>92374017</v>
       </c>
       <c r="E96" t="n">
-        <v>91845807</v>
+        <v>92374017</v>
       </c>
       <c r="F96" t="n">
-        <v>7636.598246817249</v>
+        <v>4598.74693958686</v>
       </c>
       <c r="G96" t="n">
-        <v>7702.294292203865</v>
+        <v>7477.385482368174</v>
       </c>
       <c r="H96" t="n">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="I96" t="n">
-        <v>5317928</v>
+        <v>5341966</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>309932779</v>
+        <v>311115969</v>
       </c>
       <c r="E97" t="n">
-        <v>309932779</v>
+        <v>311115969</v>
       </c>
       <c r="F97" t="n">
-        <v>326425.037882595</v>
+        <v>276686.208811114</v>
       </c>
       <c r="G97" t="n">
-        <v>416141.1633503512</v>
+        <v>464744.5143639302</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>72308323</v>
+        <v>73458783</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4334391</v>
+        <v>4328242</v>
       </c>
       <c r="E98" t="n">
-        <v>29616588</v>
+        <v>29574574</v>
       </c>
       <c r="F98" t="n">
-        <v>348.8003644393644</v>
+        <v>305.9814138894037</v>
       </c>
       <c r="G98" t="n">
-        <v>2302.366221509698</v>
+        <v>2547.686526007341</v>
       </c>
       <c r="H98" t="n">
         <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2539920</v>
+        <v>2582052</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94360954</v>
+        <v>93755165</v>
       </c>
       <c r="E99" t="n">
-        <v>543748516</v>
+        <v>540257697</v>
       </c>
       <c r="F99" t="n">
-        <v>144822.0110596523</v>
+        <v>144143.5610784125</v>
       </c>
       <c r="G99" t="n">
-        <v>137694.3043190787</v>
+        <v>152284.3480295574</v>
       </c>
       <c r="H99" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>18300165</v>
+        <v>18345191</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>111646725</v>
+        <v>112088307</v>
       </c>
       <c r="E100" t="n">
-        <v>274694563</v>
+        <v>275781028</v>
       </c>
       <c r="F100" t="n">
-        <v>27927.7299119731</v>
+        <v>30213.31284363008</v>
       </c>
       <c r="G100" t="n">
-        <v>42889.51067466559</v>
+        <v>45701.76093213959</v>
       </c>
       <c r="H100" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I100" t="n">
-        <v>2166952</v>
+        <v>2325596</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>255400289</v>
+        <v>258082574</v>
       </c>
       <c r="E101" t="n">
-        <v>255402827</v>
+        <v>258085138</v>
       </c>
       <c r="F101" t="n">
-        <v>8456.886105971314</v>
+        <v>48194.25200171335</v>
       </c>
       <c r="G101" t="n">
-        <v>20142.82608984077</v>
+        <v>7981.859313957384</v>
       </c>
       <c r="H101" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I101" t="n">
-        <v>2738179</v>
+        <v>2798505</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>33115476</v>
+        <v>33641585</v>
       </c>
       <c r="E102" t="n">
-        <v>148271569</v>
+        <v>150627179</v>
       </c>
       <c r="F102" t="n">
-        <v>62808.33776661142</v>
+        <v>65046.53368174173</v>
       </c>
       <c r="G102" t="n">
-        <v>130779.0641452848</v>
+        <v>158415.4526498572</v>
       </c>
       <c r="H102" t="n">
         <v>0.2</v>
       </c>
       <c r="I102" t="n">
-        <v>8907200</v>
+        <v>9209957</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3239156</v>
+        <v>3314073</v>
       </c>
       <c r="E103" t="n">
-        <v>3239156</v>
+        <v>3314073</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>410954</v>
+        <v>415800</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5893690</v>
+        <v>5921552</v>
       </c>
       <c r="E104" t="n">
-        <v>15467982</v>
+        <v>15541107</v>
       </c>
       <c r="F104" t="n">
-        <v>755.2761164052711</v>
+        <v>290.1499381100325</v>
       </c>
       <c r="G104" t="n">
-        <v>2094.25453367994</v>
+        <v>1828.77734128657</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="I104" t="n">
-        <v>29293</v>
+        <v>29168</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16550966</v>
+        <v>16716644</v>
       </c>
       <c r="E105" t="n">
-        <v>76396964</v>
+        <v>77161768</v>
       </c>
       <c r="F105" t="n">
-        <v>29577.42473040629</v>
+        <v>93399.279261273</v>
       </c>
       <c r="G105" t="n">
-        <v>83471.2926986519</v>
+        <v>54041.15496938745</v>
       </c>
       <c r="H105" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>804304</v>
+        <v>818246</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52934975</v>
+        <v>52901675</v>
       </c>
       <c r="E106" t="n">
-        <v>343269223</v>
+        <v>343053281</v>
       </c>
       <c r="F106" t="n">
-        <v>137490.9404985319</v>
+        <v>104175.6747451676</v>
       </c>
       <c r="G106" t="n">
-        <v>172934.2099071997</v>
+        <v>174405.9877228109</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17628487</v>
+        <v>17478931</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2594368</v>
+        <v>2559351</v>
       </c>
       <c r="E107" t="n">
-        <v>4700186</v>
+        <v>4636746</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>139108</v>
+        <v>145511</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124969063</v>
+        <v>125082499</v>
       </c>
       <c r="E108" t="n">
-        <v>2069590041</v>
+        <v>2071468624</v>
       </c>
       <c r="F108" t="n">
-        <v>232468.5974792229</v>
+        <v>488291.3909035336</v>
       </c>
       <c r="G108" t="n">
-        <v>112698.7602523394</v>
+        <v>248843.2229720553</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4894040</v>
+        <v>4969056</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25304578</v>
+        <v>25250219</v>
       </c>
       <c r="E109" t="n">
-        <v>151402378</v>
+        <v>151077135</v>
       </c>
       <c r="F109" t="n">
-        <v>43314.23136756747</v>
+        <v>43147.58494253759</v>
       </c>
       <c r="G109" t="n">
-        <v>43207.68007227278</v>
+        <v>42374.18770443945</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I109" t="n">
-        <v>13585864</v>
+        <v>13808863</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1178423</v>
+        <v>1095952</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>87156</v>
+        <v>80907</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2195026</v>
+        <v>2203494</v>
       </c>
       <c r="F111" t="n">
-        <v>3765.581798320839</v>
+        <v>178.5008781079177</v>
       </c>
       <c r="G111" t="n">
-        <v>350.6891387569876</v>
+        <v>293.7470564768792</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>175092</v>
+        <v>174993</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147440889</v>
+        <v>147623298</v>
       </c>
       <c r="F112" t="n">
-        <v>8777.93810729405</v>
+        <v>8563.565226805267</v>
       </c>
       <c r="G112" t="n">
-        <v>3047.945955071176</v>
+        <v>3815.226296826068</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
       <c r="I112" t="n">
-        <v>38607</v>
+        <v>40928</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6759155</v>
+        <v>7043192</v>
       </c>
       <c r="E113" t="n">
-        <v>34773801</v>
+        <v>36235084</v>
       </c>
       <c r="F113" t="n">
-        <v>344.5138923732684</v>
+        <v>3394.131203757427</v>
       </c>
       <c r="G113" t="n">
-        <v>503.5259135571085</v>
+        <v>188.3446196055058</v>
       </c>
       <c r="H113" t="n">
-        <v>1.12</v>
+        <v>0.55</v>
       </c>
       <c r="I113" t="n">
-        <v>926831</v>
+        <v>933672</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29529454</v>
+        <v>29563886</v>
       </c>
       <c r="E114" t="n">
-        <v>40490045</v>
+        <v>40537257</v>
       </c>
       <c r="F114" t="n">
-        <v>4792.694237985557</v>
+        <v>4526.527446970773</v>
       </c>
       <c r="G114" t="n">
-        <v>4606.00800217941</v>
+        <v>4846.073419672648</v>
       </c>
       <c r="H114" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>227984</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7999353</v>
+        <v>8000253</v>
       </c>
       <c r="F115" t="n">
-        <v>140.4015360985736</v>
+        <v>140.3958136962583</v>
       </c>
       <c r="G115" t="n">
-        <v>6936.812265408145</v>
+        <v>7030.071786082553</v>
       </c>
       <c r="H115" t="n">
         <v>0.3</v>
       </c>
       <c r="I115" t="n">
-        <v>651706</v>
+        <v>648648</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3393628</v>
+        <v>3415693</v>
       </c>
       <c r="E116" t="n">
-        <v>4545979</v>
+        <v>4575536</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148855</v>
+        <v>150079</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35948325</v>
+        <v>36022245</v>
       </c>
       <c r="E117" t="n">
-        <v>179398711</v>
+        <v>179767610</v>
       </c>
       <c r="F117" t="n">
-        <v>92173.41355895833</v>
+        <v>90536.89231439304</v>
       </c>
       <c r="G117" t="n">
-        <v>74997.85159005184</v>
+        <v>85128.17825441966</v>
       </c>
       <c r="H117" t="n">
         <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>10333085</v>
+        <v>10530434</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3458475</v>
+        <v>3518035</v>
       </c>
       <c r="E118" t="n">
-        <v>4968163</v>
+        <v>5053722</v>
       </c>
       <c r="F118" t="n">
-        <v>898.3667030619191</v>
+        <v>629.0533972316799</v>
       </c>
       <c r="G118" t="n">
-        <v>770.442908798281</v>
+        <v>597.9434352601261</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I118" t="n">
-        <v>145914</v>
+        <v>147209</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>328883683</v>
+        <v>332014122</v>
       </c>
       <c r="E119" t="n">
-        <v>608509814</v>
+        <v>614301841</v>
       </c>
       <c r="F119" t="n">
-        <v>125949.5338700309</v>
+        <v>101002.602372656</v>
       </c>
       <c r="G119" t="n">
-        <v>158374.3467880315</v>
+        <v>110663.5267597594</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I119" t="n">
-        <v>14515556</v>
+        <v>14520048</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>75456927</v>
+        <v>75887335</v>
       </c>
       <c r="E120" t="n">
-        <v>719785057</v>
+        <v>723886184</v>
       </c>
       <c r="F120" t="n">
-        <v>1683.026183887435</v>
+        <v>2061.036332802617</v>
       </c>
       <c r="G120" t="n">
-        <v>41662.45267568518</v>
+        <v>41039.3525207034</v>
       </c>
       <c r="H120" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>21992390</v>
+        <v>21814242</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38740979</v>
+        <v>39060259</v>
       </c>
       <c r="E121" t="n">
-        <v>50649451</v>
+        <v>51066787</v>
       </c>
       <c r="F121" t="n">
-        <v>759.7954648332134</v>
+        <v>6340.887650332271</v>
       </c>
       <c r="G121" t="n">
-        <v>3796.909567699364</v>
+        <v>3772.582716819767</v>
       </c>
       <c r="H121" t="n">
-        <v>2.32</v>
+        <v>1.35</v>
       </c>
       <c r="I121" t="n">
-        <v>224359</v>
+        <v>403760</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11032765</v>
+        <v>11106531</v>
       </c>
       <c r="E122" t="n">
-        <v>32723639</v>
+        <v>32942432</v>
       </c>
       <c r="F122" t="n">
-        <v>4172.895926308041</v>
+        <v>3068.941838180924</v>
       </c>
       <c r="G122" t="n">
-        <v>4902.858210607079</v>
+        <v>7610.626940558008</v>
       </c>
       <c r="H122" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I122" t="n">
-        <v>6606854</v>
+        <v>6444328</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2340028</v>
+        <v>2319805</v>
       </c>
       <c r="E123" t="n">
-        <v>7819517</v>
+        <v>7751937</v>
       </c>
       <c r="F123" t="n">
-        <v>802.6294287347456</v>
+        <v>665.7154879079526</v>
       </c>
       <c r="G123" t="n">
-        <v>1105.963741802359</v>
+        <v>1175.551341312425</v>
       </c>
       <c r="H123" t="n">
-        <v>0.63</v>
+        <v>1.14</v>
       </c>
       <c r="I123" t="n">
-        <v>931509</v>
+        <v>957328</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7441997</v>
+        <v>7423495</v>
       </c>
       <c r="E124" t="n">
-        <v>7442008</v>
+        <v>7423506</v>
       </c>
       <c r="F124" t="n">
-        <v>3010.42699520823</v>
+        <v>219.4285415652735</v>
       </c>
       <c r="G124" t="n">
-        <v>971.6485904369457</v>
+        <v>1746.932180138801</v>
       </c>
       <c r="H124" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I124" t="n">
-        <v>308537</v>
+        <v>313101</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6614427</v>
+        <v>6683351</v>
       </c>
       <c r="E125" t="n">
-        <v>6614427</v>
+        <v>6683351</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>542675</v>
+        <v>559916</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6276069</v>
+        <v>6329222</v>
       </c>
       <c r="E126" t="n">
-        <v>22924051</v>
+        <v>23118199</v>
       </c>
       <c r="F126" t="n">
-        <v>2391.842261713218</v>
+        <v>7406.546573083571</v>
       </c>
       <c r="G126" t="n">
-        <v>8372.303371440727</v>
+        <v>8035.460683458477</v>
       </c>
       <c r="H126" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="I126" t="n">
-        <v>538791</v>
+        <v>546274</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45853797</v>
+        <v>46702846</v>
       </c>
       <c r="E127" t="n">
-        <v>45853797</v>
+        <v>46702846</v>
       </c>
       <c r="F127" t="n">
-        <v>58029.5525359592</v>
+        <v>59390.52323212946</v>
       </c>
       <c r="G127" t="n">
-        <v>87374.52241837159</v>
+        <v>96179.189830638</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>7650111</v>
+        <v>9331896</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141234633</v>
+        <v>144370173</v>
       </c>
       <c r="F128" t="n">
-        <v>110.1947144790788</v>
+        <v>322.2596401988439</v>
       </c>
       <c r="G128" t="n">
-        <v>138.1224319114859</v>
+        <v>2490.798407793592</v>
       </c>
       <c r="H128" t="n">
-        <v>2.86</v>
+        <v>1.74</v>
       </c>
       <c r="I128" t="n">
-        <v>1739146</v>
+        <v>1944984</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2947186</v>
+        <v>2965519</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72540</v>
+        <v>73152</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20491157</v>
+        <v>20420832</v>
       </c>
       <c r="F130" t="n">
-        <v>481.8477873373757</v>
+        <v>366.4120665483597</v>
       </c>
       <c r="G130" t="n">
-        <v>781.9171637134351</v>
+        <v>514.2786781072205</v>
       </c>
       <c r="H130" t="n">
-        <v>1.79</v>
+        <v>0.92</v>
       </c>
       <c r="I130" t="n">
-        <v>2995655</v>
+        <v>3000923</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1289355</v>
+        <v>1296431</v>
       </c>
       <c r="E131" t="n">
-        <v>3900501</v>
+        <v>3921904</v>
       </c>
       <c r="F131" t="n">
-        <v>798.6052797755397</v>
+        <v>762.0230311661943</v>
       </c>
       <c r="G131" t="n">
-        <v>687.4141592652048</v>
+        <v>696.1850513324512</v>
       </c>
       <c r="H131" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>29356</v>
+        <v>29438</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>630618531</v>
+        <v>629459559</v>
       </c>
       <c r="E132" t="n">
-        <v>2442292531</v>
+        <v>2437804003</v>
       </c>
       <c r="F132" t="n">
-        <v>857250.7162749949</v>
+        <v>779021.4414895413</v>
       </c>
       <c r="G132" t="n">
-        <v>1047584.312389067</v>
+        <v>1134422.551211513</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>39485077</v>
+        <v>40878624</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3731353</v>
+        <v>3727347</v>
       </c>
       <c r="E133" t="n">
-        <v>6360599</v>
+        <v>6353769</v>
       </c>
       <c r="F133" t="n">
-        <v>5326.795347706622</v>
+        <v>5330.795857271725</v>
       </c>
       <c r="G133" t="n">
-        <v>5618.16543377629</v>
+        <v>7152.07124359254</v>
       </c>
       <c r="H133" t="n">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1231697</v>
+        <v>1246084</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118752204</v>
+        <v>119925977</v>
       </c>
       <c r="E134" t="n">
-        <v>1103360916</v>
+        <v>1114266783</v>
       </c>
       <c r="F134" t="n">
-        <v>102459.9327703813</v>
+        <v>104266.2950394263</v>
       </c>
       <c r="G134" t="n">
-        <v>107386.6010487289</v>
+        <v>113142.9968752212</v>
       </c>
       <c r="H134" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I134" t="n">
-        <v>10243314</v>
+        <v>10138016</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>973514999</v>
+        <v>984465383</v>
       </c>
       <c r="E135" t="n">
-        <v>1069408895</v>
+        <v>1081437922</v>
       </c>
       <c r="F135" t="n">
-        <v>13290.18176974564</v>
+        <v>15764.68694301582</v>
       </c>
       <c r="G135" t="n">
-        <v>18368.3825054842</v>
+        <v>14178.80971089094</v>
       </c>
       <c r="H135" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="I135" t="n">
-        <v>10029905</v>
+        <v>9567165</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1126093</v>
+        <v>1131960</v>
       </c>
       <c r="E136" t="n">
-        <v>4360479</v>
+        <v>4383198</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>380885</v>
+        <v>369524</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>127718419</v>
+        <v>127756139</v>
       </c>
       <c r="E137" t="n">
-        <v>489948414</v>
+        <v>490093113</v>
       </c>
       <c r="F137" t="n">
-        <v>109709.7811033627</v>
+        <v>176141.6515097468</v>
       </c>
       <c r="G137" t="n">
-        <v>267548.5903370912</v>
+        <v>278314.8832013813</v>
       </c>
       <c r="H137" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I137" t="n">
-        <v>38746032</v>
+        <v>38967161</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3283271</v>
+        <v>3304380</v>
       </c>
       <c r="E138" t="n">
-        <v>31109479</v>
+        <v>31309486</v>
       </c>
       <c r="F138" t="n">
-        <v>4532.907735484081</v>
+        <v>5128.109291420444</v>
       </c>
       <c r="G138" t="n">
-        <v>4783.880676718671</v>
+        <v>4826.87025073973</v>
       </c>
       <c r="H138" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="I138" t="n">
-        <v>226647</v>
+        <v>219363</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21871179</v>
+        <v>22169023</v>
       </c>
       <c r="E139" t="n">
-        <v>21871179</v>
+        <v>22169023</v>
       </c>
       <c r="F139" t="n">
-        <v>7367.168029626495</v>
+        <v>9079.284759558645</v>
       </c>
       <c r="G139" t="n">
-        <v>5928.527706023852</v>
+        <v>5826.601271447194</v>
       </c>
       <c r="H139" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="I139" t="n">
-        <v>589142</v>
+        <v>588728</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494918083</v>
+        <v>495602728</v>
       </c>
       <c r="E140" t="n">
-        <v>494918083</v>
+        <v>495602728</v>
       </c>
       <c r="F140" t="n">
-        <v>924359.589991972</v>
+        <v>803666.7554385458</v>
       </c>
       <c r="G140" t="n">
-        <v>940647.3243181077</v>
+        <v>824191.5899507689</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I140" t="n">
-        <v>33894369</v>
+        <v>34911027</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>33895297</v>
+        <v>34484249</v>
       </c>
       <c r="F141" t="n">
-        <v>45069.67047669787</v>
+        <v>56862.57396271839</v>
       </c>
       <c r="G141" t="n">
-        <v>80919.53134494131</v>
+        <v>63249.93282243124</v>
       </c>
       <c r="H141" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I141" t="n">
-        <v>4732905</v>
+        <v>5295476</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>732719</v>
+        <v>784084</v>
       </c>
       <c r="E142" t="n">
-        <v>11686606</v>
+        <v>12505853</v>
       </c>
       <c r="F142" t="n">
-        <v>114.9267673607042</v>
+        <v>108.0929126141254</v>
       </c>
       <c r="G142" t="n">
-        <v>945.4883460992127</v>
+        <v>36.34381989797146</v>
       </c>
       <c r="H142" t="n">
-        <v>1.48</v>
+        <v>3.3</v>
       </c>
       <c r="I142" t="n">
-        <v>316314</v>
+        <v>328059</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2744813949</v>
+        <v>2768399236</v>
       </c>
       <c r="E143" t="n">
-        <v>2914278205</v>
+        <v>2939319643</v>
       </c>
       <c r="F143" t="n">
-        <v>5721.505063073106</v>
+        <v>4190.933905210664</v>
       </c>
       <c r="G143" t="n">
-        <v>22027.44110042681</v>
+        <v>23543.49304113445</v>
       </c>
       <c r="H143" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>43023674</v>
+        <v>44110850</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1770556</v>
+        <v>1780882</v>
       </c>
       <c r="E144" t="n">
-        <v>1776806</v>
+        <v>1787168</v>
       </c>
       <c r="F144" t="n">
-        <v>2563.178923807769</v>
+        <v>106.5626339428877</v>
       </c>
       <c r="G144" t="n">
-        <v>216.3698371766611</v>
+        <v>3112.841827851077</v>
       </c>
       <c r="H144" t="n">
-        <v>2.31</v>
+        <v>2.93</v>
       </c>
       <c r="I144" t="n">
-        <v>449793</v>
+        <v>457077</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>62975387</v>
+        <v>64098948</v>
       </c>
       <c r="E145" t="n">
-        <v>154474357</v>
+        <v>157230376</v>
       </c>
       <c r="F145" t="n">
-        <v>2775.922038955784</v>
+        <v>3513.49455074581</v>
       </c>
       <c r="G145" t="n">
-        <v>4413.303398802368</v>
+        <v>4643.538388865847</v>
       </c>
       <c r="H145" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I145" t="n">
-        <v>22710441</v>
+        <v>22802025</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>850519663</v>
+        <v>849773964</v>
       </c>
       <c r="E146" t="n">
-        <v>1311576413</v>
+        <v>1310426480</v>
       </c>
       <c r="F146" t="n">
-        <v>237594.987278518</v>
+        <v>297341.5799666538</v>
       </c>
       <c r="G146" t="n">
-        <v>281124.5143186631</v>
+        <v>313708.0854898738</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>292731680</v>
+        <v>297306352</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23561376</v>
+        <v>23717751</v>
       </c>
       <c r="E147" t="n">
-        <v>23561376</v>
+        <v>23717751</v>
       </c>
       <c r="F147" t="n">
-        <v>4550.361391005875</v>
+        <v>5331.677051820694</v>
       </c>
       <c r="G147" t="n">
-        <v>7998.67460191896</v>
+        <v>8098.200990551014</v>
       </c>
       <c r="H147" t="n">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>5596906</v>
+        <v>5418507</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3816531</v>
+        <v>3819258</v>
       </c>
       <c r="E148" t="n">
-        <v>8319502</v>
+        <v>8325446</v>
       </c>
       <c r="F148" t="n">
-        <v>6878.344514892203</v>
+        <v>6823.174684816515</v>
       </c>
       <c r="G148" t="n">
-        <v>6939.570621244719</v>
+        <v>7075.670622860875</v>
       </c>
       <c r="H148" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1774298</v>
+        <v>1780728</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9253557</v>
+        <v>9257216</v>
       </c>
       <c r="E149" t="n">
-        <v>9253557</v>
+        <v>9257216</v>
       </c>
       <c r="F149" t="n">
-        <v>217568.9397115001</v>
+        <v>109136.555555957</v>
       </c>
       <c r="G149" t="n">
-        <v>600240.0201691962</v>
+        <v>81132.83535986475</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I149" t="n">
-        <v>982053</v>
+        <v>3221755</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>510819005</v>
+        <v>514680438</v>
       </c>
       <c r="E150" t="n">
-        <v>1778118445</v>
+        <v>1791559773</v>
       </c>
       <c r="F150" t="n">
-        <v>787837.279599771</v>
+        <v>785990.1707409412</v>
       </c>
       <c r="G150" t="n">
-        <v>922569.0977588184</v>
+        <v>803693.3287534538</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>36221692</v>
+        <v>36763548</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49169983</v>
+        <v>49529984</v>
       </c>
       <c r="E151" t="n">
-        <v>121038608</v>
+        <v>121924805</v>
       </c>
       <c r="F151" t="n">
-        <v>8735.469795349205</v>
+        <v>7397.83629516561</v>
       </c>
       <c r="G151" t="n">
-        <v>5385.550506809161</v>
+        <v>5368.491859984433</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>29951</v>
+        <v>41394</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7453579</v>
+        <v>7481391</v>
       </c>
       <c r="E152" t="n">
-        <v>19363596</v>
+        <v>19435849</v>
       </c>
       <c r="F152" t="n">
-        <v>6370.911361779082</v>
+        <v>6148.126101002321</v>
       </c>
       <c r="G152" t="n">
-        <v>6603.663533192286</v>
+        <v>6486.093517612401</v>
       </c>
       <c r="H152" t="n">
         <v>1.03</v>
       </c>
       <c r="I152" t="n">
-        <v>724489</v>
+        <v>665682</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19145794744</v>
+        <v>19148870980</v>
       </c>
       <c r="F153" t="n">
-        <v>52447.51085560178</v>
+        <v>52451.86021703904</v>
       </c>
       <c r="G153" t="n">
-        <v>49968.51263804395</v>
+        <v>49960.33460535788</v>
       </c>
       <c r="H153" t="n">
         <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>44415145</v>
+        <v>44329006</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2625450</v>
+        <v>2640653</v>
       </c>
       <c r="E154" t="n">
-        <v>10501799</v>
+        <v>10562612</v>
       </c>
       <c r="F154" t="n">
-        <v>8063.105208952778</v>
+        <v>23282.10641507633</v>
       </c>
       <c r="G154" t="n">
-        <v>5455.06731195593</v>
+        <v>2872.076106068556</v>
       </c>
       <c r="H154" t="n">
         <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>7013750</v>
+        <v>7084114</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>229206251</v>
+        <v>230999013</v>
       </c>
       <c r="E155" t="n">
-        <v>704722966</v>
+        <v>710235036</v>
       </c>
       <c r="F155" t="n">
-        <v>125819.1707264058</v>
+        <v>90850.59591778312</v>
       </c>
       <c r="G155" t="n">
-        <v>189905.5557429458</v>
+        <v>183160.1290073878</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>16917085</v>
+        <v>17035220</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>410879511</v>
+        <v>415427517</v>
       </c>
       <c r="E156" t="n">
-        <v>2347882922</v>
+        <v>2373871523</v>
       </c>
       <c r="F156" t="n">
-        <v>235652.0684306136</v>
+        <v>156937.8475782289</v>
       </c>
       <c r="G156" t="n">
-        <v>240086.6990581584</v>
+        <v>271971.0229127643</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>42626121</v>
+        <v>43914422</v>
       </c>
     </row>
   </sheetData>
